--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B526F90-1495-422F-B4AE-95B6977B0818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04C5EA-2CA1-4022-ADD0-92A35DC161D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="s" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CB低价-每周一支定投'!$A$2:$W$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CB低价-每周一支定投'!$A$2:$W$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="127">
   <si>
     <t>收入</t>
   </si>
@@ -356,9 +356,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>利群转债</t>
-  </si>
-  <si>
     <t>久其转债</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>绿茵转债</t>
-  </si>
-  <si>
     <t>债价格偏高了，低于100的3支。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -500,6 +494,22 @@
   </si>
   <si>
     <t>北港转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝帆转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁汉转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘转好迹象</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1373,6 +1383,69 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1436,65 +1509,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1539,7 +1553,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1547,7 +1561,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,6 +1807,9 @@
                 <c:pt idx="18">
                   <c:v>44665</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44686</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1858,6 +1875,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5331.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,6 +2025,9 @@
                 <c:pt idx="18">
                   <c:v>44665</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>44686</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2070,6 +2093,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6.7699999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.3600000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,23 +2881,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647226</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485195</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28131</xdr:rowOff>
+      <xdr:rowOff>151938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180FF124-6426-3718-0409-1EB5A7649A45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,52 +2913,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="95250"/>
-          <a:ext cx="3790476" cy="3552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>685418</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>75920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5172075" y="371475"/>
-          <a:ext cx="3057143" cy="2238095"/>
+          <a:off x="647700" y="76200"/>
+          <a:ext cx="4638095" cy="3695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3846,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4049,7 +4031,7 @@
         <v>0.13150000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4074,7 +4056,7 @@
         <v>9.69E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4086,6 +4068,17 @@
       </c>
       <c r="C20" s="49">
         <v>6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="48">
+        <v>44686</v>
+      </c>
+      <c r="B21" s="75">
+        <v>5331.5</v>
+      </c>
+      <c r="C21" s="49">
+        <v>6.3600000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4098,11 +4091,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W115"/>
+  <dimension ref="A1:W128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
+      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O114" sqref="O114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4128,47 +4121,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131"/>
-      <c r="B1" s="137" t="s">
+      <c r="A1" s="150"/>
+      <c r="B1" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="135" t="s">
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="133" t="s">
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="129" t="s">
+      <c r="S1" s="148" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="23" t="s">
         <v>10</v>
       </c>
@@ -4202,11 +4195,11 @@
       <c r="P2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="134"/>
+      <c r="Q2" s="153"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="130"/>
+      <c r="S2" s="149"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
@@ -4233,10 +4226,10 @@
         <v>1012.47</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3" s="20">
-        <v>109.16500000000001</v>
+        <v>108.63500000000001</v>
       </c>
       <c r="K3" s="20">
         <v>101.267</v>
@@ -4246,19 +4239,19 @@
       </c>
       <c r="M3" s="19">
         <f t="shared" ref="M3:M34" si="0">J3*L3</f>
-        <v>1091.6500000000001</v>
+        <v>1086.3500000000001</v>
       </c>
       <c r="N3" s="42">
         <f t="shared" ref="N3:N34" si="1">(J3-K3)/K3</f>
-        <v>7.7991843344821218E-2</v>
+        <v>7.2758154186457674E-2</v>
       </c>
       <c r="O3" s="19">
         <f>(J3-K3)*L3</f>
-        <v>78.980000000000103</v>
+        <v>73.680000000000092</v>
       </c>
       <c r="P3" s="42">
-        <f t="shared" ref="P3:P34" si="2">M3/$M$96</f>
-        <v>1.4457971426020986E-2</v>
+        <f>M3/$M$109</f>
+        <v>1.2760970869840448E-2</v>
       </c>
       <c r="Q3" s="119"/>
       <c r="R3" s="107"/>
@@ -4290,10 +4283,10 @@
         <v>980.3</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J4" s="20">
-        <v>105.01</v>
+        <v>102.9</v>
       </c>
       <c r="K4" s="20">
         <v>98.05</v>
@@ -4303,19 +4296,19 @@
       </c>
       <c r="M4" s="19">
         <f t="shared" si="0"/>
-        <v>1050.1000000000001</v>
+        <v>1029</v>
       </c>
       <c r="N4" s="42">
         <f t="shared" si="1"/>
-        <v>7.0984191738908797E-2</v>
+        <v>4.9464558898521249E-2</v>
       </c>
       <c r="O4" s="19">
         <f>(J4-K4)*L4</f>
-        <v>69.60000000000008</v>
+        <v>48.500000000000085</v>
       </c>
       <c r="P4" s="42">
-        <f t="shared" si="2"/>
-        <v>1.3907677180840598E-2</v>
+        <f>M4/$M$109</f>
+        <v>1.2087300616804731E-2</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="S4" s="43"/>
@@ -4348,7 +4341,7 @@
         <v>1009.2</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5" s="69"/>
       <c r="K5" s="69">
@@ -4369,7 +4362,7 @@
         <v>859.5</v>
       </c>
       <c r="P5" s="72">
-        <f t="shared" si="2"/>
+        <f>M5/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q5" s="73"/>
@@ -4400,10 +4393,10 @@
         <v>957.51</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6" s="20">
-        <v>119.52</v>
+        <v>119.61</v>
       </c>
       <c r="K6" s="20">
         <v>95.370999999999995</v>
@@ -4413,19 +4406,19 @@
       </c>
       <c r="M6" s="19">
         <f t="shared" si="0"/>
-        <v>1195.2</v>
+        <v>1196.0999999999999</v>
       </c>
       <c r="N6" s="42">
         <f t="shared" si="1"/>
-        <v>0.25321114384875909</v>
+        <v>0.25415482693900665</v>
       </c>
       <c r="O6" s="19">
-        <f t="shared" ref="O6:O13" si="3">(J6-K6)*L6</f>
-        <v>241.49</v>
+        <f t="shared" ref="O6:O13" si="2">(J6-K6)*L6</f>
+        <v>242.39000000000004</v>
       </c>
       <c r="P6" s="42">
-        <f t="shared" si="2"/>
-        <v>1.5829402691687155E-2</v>
+        <f>M6/$M$109</f>
+        <v>1.4050165469154653E-2</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="87"/>
@@ -4435,7 +4428,9 @@
       <c r="B7" s="97">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="41">
+        <v>44385</v>
+      </c>
       <c r="D7" s="51">
         <v>128044</v>
       </c>
@@ -4453,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="20">
-        <v>121.703</v>
+        <v>110.535</v>
       </c>
       <c r="K7" s="20">
         <v>32.387999999999998</v>
@@ -4466,19 +4461,19 @@
       </c>
       <c r="M7" s="19">
         <f t="shared" si="0"/>
-        <v>1217.03</v>
+        <v>1105.3499999999999</v>
       </c>
       <c r="N7" s="42">
         <f t="shared" si="1"/>
-        <v>2.7576571569717179</v>
+        <v>2.4128380881808074</v>
       </c>
       <c r="O7" s="19">
-        <f t="shared" si="3"/>
-        <v>893.15</v>
+        <f t="shared" si="2"/>
+        <v>781.46999999999991</v>
       </c>
       <c r="P7" s="42">
-        <f t="shared" si="2"/>
-        <v>1.6118522387771096E-2</v>
+        <f>M7/$M$109</f>
+        <v>1.2984157178605548E-2</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="S7" s="43"/>
@@ -4491,12 +4486,14 @@
       <c r="B8" s="117">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="41">
+        <v>44389</v>
+      </c>
       <c r="D8" s="51">
         <v>113033</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="24">
         <v>10</v>
@@ -4504,10 +4501,10 @@
       <c r="G8" s="36"/>
       <c r="H8" s="23"/>
       <c r="I8" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8" s="20">
-        <v>110.14</v>
+        <v>112.51</v>
       </c>
       <c r="K8" s="20">
         <v>102.07</v>
@@ -4517,19 +4514,19 @@
       </c>
       <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>1101.4000000000001</v>
+        <v>1125.1000000000001</v>
       </c>
       <c r="N8" s="42">
         <f t="shared" si="1"/>
-        <v>7.9063387871068952E-2</v>
+        <v>0.1022827471343197</v>
       </c>
       <c r="O8" s="19">
-        <f t="shared" si="3"/>
-        <v>80.700000000000074</v>
+        <f t="shared" si="2"/>
+        <v>104.40000000000012</v>
       </c>
       <c r="P8" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4587101844565121E-2</v>
+        <f>M8/$M$109</f>
+        <v>1.3216153473242958E-2</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="S8" s="43"/>
@@ -4538,12 +4535,14 @@
       <c r="B9" s="117">
         <v>7</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="41">
+        <v>44389</v>
+      </c>
       <c r="D9" s="51">
         <v>127019</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="24">
         <v>10</v>
@@ -4551,10 +4550,10 @@
       <c r="G9" s="36"/>
       <c r="H9" s="23"/>
       <c r="I9" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="20">
-        <v>108.077</v>
+        <v>108.88</v>
       </c>
       <c r="K9" s="20">
         <v>98.92</v>
@@ -4564,19 +4563,19 @@
       </c>
       <c r="M9" s="19">
         <f t="shared" si="0"/>
-        <v>1080.77</v>
+        <v>1088.8</v>
       </c>
       <c r="N9" s="42">
         <f t="shared" si="1"/>
-        <v>9.256975333602907E-2</v>
+        <v>0.10068742418115642</v>
       </c>
       <c r="O9" s="19">
-        <f t="shared" si="3"/>
-        <v>91.569999999999965</v>
+        <f t="shared" si="2"/>
+        <v>99.599999999999937</v>
       </c>
       <c r="P9" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4313875123071222E-2</v>
+        <f>M9/$M$109</f>
+        <v>1.2789750157023315E-2</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="S9" s="43"/>
@@ -4585,12 +4584,14 @@
       <c r="B10" s="117">
         <v>8</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="41">
+        <v>44389</v>
+      </c>
       <c r="D10" s="51">
         <v>110068</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="24">
         <v>10</v>
@@ -4601,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="20">
-        <v>118.64</v>
+        <v>114.88</v>
       </c>
       <c r="K10" s="20">
         <v>99.28</v>
@@ -4614,19 +4615,19 @@
       </c>
       <c r="M10" s="19">
         <f t="shared" si="0"/>
-        <v>1186.4000000000001</v>
+        <v>1148.8</v>
       </c>
       <c r="N10" s="42">
         <f t="shared" si="1"/>
-        <v>0.19500402900886382</v>
+        <v>0.15713134568896045</v>
       </c>
       <c r="O10" s="19">
-        <f t="shared" si="3"/>
-        <v>193.6</v>
+        <f t="shared" si="2"/>
+        <v>155.99999999999994</v>
       </c>
       <c r="P10" s="42">
-        <f t="shared" si="2"/>
-        <v>1.571285421136014E-2</v>
+        <f>M10/$M$109</f>
+        <v>1.3494549026807847E-2</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="S10" s="43"/>
@@ -4634,10 +4635,10 @@
     </row>
     <row r="11" spans="1:23" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="103"/>
-      <c r="B11" s="156">
+      <c r="B11" s="140">
         <v>9</v>
       </c>
-      <c r="C11" s="157"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="80">
         <v>127039</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
@@ -4674,7 +4675,7 @@
         <v>333.03</v>
       </c>
       <c r="P11" s="84">
-        <f t="shared" si="2"/>
+        <f>M11/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q11" s="85"/>
@@ -4684,7 +4685,9 @@
       <c r="B12" s="117">
         <v>10</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="41">
+        <v>44389</v>
+      </c>
       <c r="D12" s="51">
         <v>127003</v>
       </c>
@@ -4702,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12" s="20">
-        <v>112.03</v>
+        <v>109.91</v>
       </c>
       <c r="K12" s="20">
         <v>102.126</v>
@@ -4715,19 +4718,19 @@
       </c>
       <c r="M12" s="19">
         <f t="shared" si="0"/>
-        <v>1120.3</v>
+        <v>1099.0999999999999</v>
       </c>
       <c r="N12" s="42">
         <f t="shared" si="1"/>
-        <v>9.6978242563108275E-2</v>
+        <v>7.6219571901376654E-2</v>
       </c>
       <c r="O12" s="19">
-        <f t="shared" si="3"/>
-        <v>99.039999999999964</v>
+        <f t="shared" si="2"/>
+        <v>77.839999999999918</v>
       </c>
       <c r="P12" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4837416194358365E-2</v>
+        <f>M12/$M$109</f>
+        <v>1.2910740629669659E-2</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="S12" s="43"/>
@@ -4737,7 +4740,9 @@
       <c r="B13" s="117">
         <v>11</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="41">
+        <v>44389</v>
+      </c>
       <c r="D13" s="51">
         <v>113569</v>
       </c>
@@ -4755,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13" s="20">
-        <v>104.76</v>
+        <v>102.44</v>
       </c>
       <c r="K13" s="20">
         <v>98.8</v>
@@ -4768,19 +4773,19 @@
       </c>
       <c r="M13" s="19">
         <f t="shared" si="0"/>
-        <v>1047.6000000000001</v>
+        <v>1024.4000000000001</v>
       </c>
       <c r="N13" s="42">
         <f t="shared" si="1"/>
-        <v>6.0323886639676194E-2</v>
+        <v>3.6842105263157898E-2</v>
       </c>
       <c r="O13" s="19">
-        <f t="shared" si="3"/>
-        <v>59.60000000000008</v>
+        <f t="shared" si="2"/>
+        <v>36.400000000000006</v>
       </c>
       <c r="P13" s="42">
-        <f t="shared" si="2"/>
-        <v>1.3874566817111333E-2</v>
+        <f>M13/$M$109</f>
+        <v>1.2033266036787917E-2</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="S13" s="43"/>
@@ -4803,7 +4808,7 @@
       <c r="G14" s="70"/>
       <c r="H14" s="71"/>
       <c r="I14" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14" s="69"/>
       <c r="K14" s="69"/>
@@ -4820,7 +4825,7 @@
         <v>445.2</v>
       </c>
       <c r="P14" s="72">
-        <f t="shared" si="2"/>
+        <f>M14/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q14" s="73"/>
@@ -4832,7 +4837,9 @@
       <c r="B15" s="117">
         <v>13</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="41">
+        <v>44389</v>
+      </c>
       <c r="D15" s="51">
         <v>123023</v>
       </c>
@@ -4850,10 +4857,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="20">
-        <v>107.562</v>
+        <v>111.2</v>
       </c>
       <c r="K15" s="20">
         <v>97.131</v>
@@ -4863,19 +4870,19 @@
       </c>
       <c r="M15" s="19">
         <f t="shared" si="0"/>
-        <v>1075.6199999999999</v>
+        <v>1112</v>
       </c>
       <c r="N15" s="42">
         <f t="shared" si="1"/>
-        <v>0.1073910492015937</v>
+        <v>0.14484562086254649</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" ref="O15:O24" si="4">(J15-K15)*L15</f>
-        <v>104.30999999999997</v>
+        <f t="shared" ref="O15:O24" si="3">(J15-K15)*L15</f>
+        <v>140.69000000000003</v>
       </c>
       <c r="P15" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4245667773788934E-2</v>
+        <f>M15/$M$109</f>
+        <v>1.3062272386673334E-2</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="64"/>
@@ -4900,7 +4907,7 @@
       <c r="G16" s="91"/>
       <c r="H16" s="92"/>
       <c r="I16" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
@@ -4916,11 +4923,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="93">
-        <f t="shared" si="2"/>
+        <f>M16/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q16" s="94"/>
@@ -4933,7 +4940,9 @@
       <c r="B17" s="117">
         <v>15</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="41">
+        <v>44389</v>
+      </c>
       <c r="D17" s="51">
         <v>113519</v>
       </c>
@@ -4947,36 +4956,36 @@
         <v>0</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" ref="H17:H23" si="5">F17*G17</f>
+        <f t="shared" ref="H17:H23" si="4">F17*G17</f>
         <v>0</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17" s="20">
-        <v>124.44</v>
+        <v>115.63</v>
       </c>
       <c r="K17" s="20">
-        <v>97.71</v>
+        <v>114.515</v>
       </c>
       <c r="L17" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="0"/>
-        <v>1244.4000000000001</v>
+        <v>4625.2</v>
       </c>
       <c r="N17" s="42">
         <f t="shared" si="1"/>
-        <v>0.27356463002763287</v>
+        <v>9.7367157140985441E-3</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" si="4"/>
-        <v>267.30000000000007</v>
+        <f t="shared" si="3"/>
+        <v>44.599999999999795</v>
       </c>
       <c r="P17" s="42">
-        <f t="shared" si="2"/>
-        <v>1.6481014649879097E-2</v>
+        <f>M17/$M$109</f>
+        <v>5.4330595542123654E-2</v>
       </c>
       <c r="Q17" s="13"/>
       <c r="S17" s="74"/>
@@ -4986,7 +4995,9 @@
       <c r="B18" s="117">
         <v>16</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="41">
+        <v>44389</v>
+      </c>
       <c r="D18" s="51">
         <v>113563</v>
       </c>
@@ -5000,14 +5011,14 @@
         <v>0</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18" s="20">
-        <v>109.09</v>
+        <v>107.68</v>
       </c>
       <c r="K18" s="20">
         <v>108.61499999999999</v>
@@ -5017,19 +5028,19 @@
       </c>
       <c r="M18" s="19">
         <f t="shared" si="0"/>
-        <v>2181.8000000000002</v>
+        <v>2153.6000000000004</v>
       </c>
       <c r="N18" s="42">
         <f t="shared" si="1"/>
-        <v>4.3732449477513098E-3</v>
+        <v>-8.6083874234681047E-3</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" si="4"/>
-        <v>9.5000000000001705</v>
+        <f t="shared" si="3"/>
+        <v>-18.699999999999761</v>
       </c>
       <c r="P18" s="42">
-        <f t="shared" si="2"/>
-        <v>2.8896076633804415E-2</v>
+        <f>M18/$M$109</f>
+        <v>2.529758076613282E-2</v>
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="78"/>
@@ -5056,36 +5067,36 @@
         <v>0</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19" s="20">
-        <v>100.08</v>
+        <v>96.498000000000005</v>
       </c>
       <c r="K19" s="20">
-        <v>87.753</v>
+        <v>90.834000000000003</v>
       </c>
       <c r="L19" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M19" s="19">
         <f t="shared" si="0"/>
-        <v>2001.6</v>
+        <v>4824.9000000000005</v>
       </c>
       <c r="N19" s="42">
         <f t="shared" si="1"/>
-        <v>0.14047382995453145</v>
+        <v>6.2355505647664983E-2</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="4"/>
-        <v>246.53999999999996</v>
+        <f t="shared" si="3"/>
+        <v>283.20000000000005</v>
       </c>
       <c r="P19" s="42">
-        <f t="shared" si="2"/>
-        <v>2.6509481616198968E-2</v>
+        <f>M19/$M$109</f>
+        <v>5.6676401113723185E-2</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="S19" s="43"/>
@@ -5110,14 +5121,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20" s="20">
-        <v>100.15</v>
+        <v>98.92</v>
       </c>
       <c r="K20" s="20">
         <v>98.93</v>
@@ -5127,19 +5138,19 @@
       </c>
       <c r="M20" s="19">
         <f t="shared" si="0"/>
-        <v>3004.5</v>
+        <v>2967.6</v>
       </c>
       <c r="N20" s="42">
         <f t="shared" si="1"/>
-        <v>1.2331951885171321E-2</v>
+        <v>-1.0108157282932493E-4</v>
       </c>
       <c r="O20" s="19">
-        <f t="shared" si="4"/>
-        <v>36.599999999999966</v>
+        <f t="shared" si="3"/>
+        <v>-0.30000000000015348</v>
       </c>
       <c r="P20" s="42">
-        <f t="shared" si="2"/>
-        <v>3.9792035129831038E-2</v>
+        <f>M20/$M$109</f>
+        <v>3.4859352099542974E-2</v>
       </c>
       <c r="Q20" s="13"/>
       <c r="S20" s="43"/>
@@ -5164,14 +5175,14 @@
         <v>0</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21" s="20">
-        <v>110.017</v>
+        <v>106.8</v>
       </c>
       <c r="K21" s="20">
         <v>97.37</v>
@@ -5181,19 +5192,19 @@
       </c>
       <c r="M21" s="19">
         <f t="shared" si="0"/>
-        <v>1100.17</v>
+        <v>1068</v>
       </c>
       <c r="N21" s="42">
         <f t="shared" si="1"/>
-        <v>0.12988600184861857</v>
+        <v>9.6847078155489291E-2</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="4"/>
-        <v>126.46999999999991</v>
+        <f t="shared" si="3"/>
+        <v>94.299999999999926</v>
       </c>
       <c r="P21" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4570811545610322E-2</v>
+        <f>M21/$M$109</f>
+        <v>1.2545419882164677E-2</v>
       </c>
       <c r="Q21" s="13"/>
       <c r="S21" s="43"/>
@@ -5218,36 +5229,36 @@
         <v>0</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22" s="20">
-        <v>99.87</v>
+        <v>137.13</v>
       </c>
       <c r="K22" s="20">
-        <v>98.216999999999999</v>
+        <v>11.15</v>
       </c>
       <c r="L22" s="20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M22" s="19">
         <f t="shared" si="0"/>
-        <v>2996.1000000000004</v>
+        <v>1371.3</v>
       </c>
       <c r="N22" s="42">
         <f t="shared" si="1"/>
-        <v>1.6830080332325421E-2</v>
+        <v>11.298654708520179</v>
       </c>
       <c r="O22" s="19">
-        <f t="shared" si="4"/>
-        <v>49.590000000000174</v>
+        <f t="shared" si="3"/>
+        <v>1259.8</v>
       </c>
       <c r="P22" s="42">
-        <f t="shared" si="2"/>
-        <v>3.9680784307700709E-2</v>
+        <f>M22/$M$109</f>
+        <v>1.6108178168925489E-2</v>
       </c>
       <c r="Q22" s="13"/>
       <c r="S22" s="43"/>
@@ -5271,14 +5282,14 @@
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J23" s="20">
-        <v>97.28</v>
+        <v>95.53</v>
       </c>
       <c r="K23" s="20">
         <v>97.644999999999996</v>
@@ -5288,19 +5299,19 @@
       </c>
       <c r="M23" s="19">
         <f t="shared" si="0"/>
-        <v>1945.6</v>
+        <v>1910.6</v>
       </c>
       <c r="N23" s="42">
         <f t="shared" si="1"/>
-        <v>-3.7380306211275017E-3</v>
+        <v>-2.1660095242971938E-2</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" si="4"/>
-        <v>-7.2999999999998977</v>
+        <f t="shared" si="3"/>
+        <v>-42.299999999999898</v>
       </c>
       <c r="P23" s="42">
-        <f t="shared" si="2"/>
-        <v>2.5767809468663423E-2</v>
+        <f>M23/$M$109</f>
+        <v>2.2443145343505461E-2</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="S23" s="43"/>
@@ -5341,11 +5352,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="62">
-        <f t="shared" si="2"/>
+        <f>M24/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q24" s="63"/>
@@ -5378,7 +5389,7 @@
         <v>1027</v>
       </c>
       <c r="I25" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J25" s="69"/>
       <c r="K25" s="69"/>
@@ -5395,7 +5406,7 @@
         <v>343.5</v>
       </c>
       <c r="P25" s="72">
-        <f t="shared" si="2"/>
+        <f>M25/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q25" s="73"/>
@@ -5430,7 +5441,7 @@
         <v>76</v>
       </c>
       <c r="J26" s="20">
-        <v>107.78</v>
+        <v>106.09</v>
       </c>
       <c r="K26" s="20">
         <v>104.497</v>
@@ -5440,19 +5451,19 @@
       </c>
       <c r="M26" s="19">
         <f t="shared" si="0"/>
-        <v>1077.8</v>
+        <v>1060.9000000000001</v>
       </c>
       <c r="N26" s="42">
         <f t="shared" si="1"/>
-        <v>3.1417169870905398E-2</v>
+        <v>1.5244456778663536E-2</v>
       </c>
       <c r="O26" s="19">
         <f>(J26-K26)*L26</f>
-        <v>32.830000000000013</v>
+        <v>15.930000000000035</v>
       </c>
       <c r="P26" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4274540010960854E-2</v>
+        <f>M26/$M$109</f>
+        <v>1.2462018682573508E-2</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="S26" s="43"/>
@@ -5496,7 +5507,7 @@
         <v>563.20000000000005</v>
       </c>
       <c r="P27" s="42">
-        <f t="shared" si="2"/>
+        <f>M27/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q27" s="73"/>
@@ -5526,36 +5537,36 @@
         <v>101.91</v>
       </c>
       <c r="H28" s="23">
-        <f t="shared" ref="H28:H89" si="6">F28*G28</f>
+        <f t="shared" ref="H28:H102" si="5">F28*G28</f>
         <v>1019.0999999999999</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J28" s="20">
-        <v>117.97</v>
+        <v>112.81</v>
       </c>
       <c r="K28" s="20">
-        <v>132.57499999999999</v>
+        <v>127.886</v>
       </c>
       <c r="L28" s="20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M28" s="19">
         <f t="shared" si="0"/>
-        <v>4718.8</v>
+        <v>5640.5</v>
       </c>
       <c r="N28" s="42">
         <f t="shared" si="1"/>
-        <v>-0.11016405808033182</v>
+        <v>-0.11788624243466833</v>
       </c>
       <c r="O28" s="19">
         <f>(J28-K28)*L28</f>
-        <v>-584.19999999999959</v>
+        <v>-753.79999999999973</v>
       </c>
       <c r="P28" s="42">
-        <f t="shared" si="2"/>
-        <v>6.249647374626284E-2</v>
+        <f>M28/$M$109</f>
+        <v>6.6256967083660925E-2</v>
       </c>
       <c r="Q28" s="13" t="s">
         <v>78</v>
@@ -5583,7 +5594,7 @@
         <v>96.6</v>
       </c>
       <c r="H29" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>966</v>
       </c>
       <c r="I29" s="81" t="s">
@@ -5604,7 +5615,7 @@
         <v>438.6</v>
       </c>
       <c r="P29" s="84">
-        <f t="shared" si="2"/>
+        <f>M29/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q29" s="85"/>
@@ -5634,36 +5645,36 @@
         <v>98.3</v>
       </c>
       <c r="H30" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>983</v>
       </c>
       <c r="I30" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J30" s="20">
-        <v>109.13</v>
+        <v>105.45</v>
       </c>
       <c r="K30" s="20">
-        <v>98.32</v>
+        <v>97.72</v>
       </c>
       <c r="L30" s="20">
         <v>10</v>
       </c>
       <c r="M30" s="19">
         <f t="shared" si="0"/>
-        <v>1091.3</v>
+        <v>1054.5</v>
       </c>
       <c r="N30" s="42">
         <f t="shared" si="1"/>
-        <v>0.1099471114727421</v>
+        <v>7.9103561195251776E-2</v>
       </c>
       <c r="O30" s="19">
         <f>(J30-K30)*L30</f>
-        <v>108.10000000000002</v>
+        <v>77.30000000000004</v>
       </c>
       <c r="P30" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4453335975098886E-2</v>
+        <f>M30/$M$109</f>
+        <v>1.2386840136463158E-2</v>
       </c>
       <c r="Q30" s="13"/>
       <c r="S30" s="43"/>
@@ -5688,14 +5699,14 @@
         <v>102.20099999999999</v>
       </c>
       <c r="H31" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1022.01</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J31" s="20">
-        <v>108.702</v>
+        <v>111.887</v>
       </c>
       <c r="K31" s="20">
         <v>101.621</v>
@@ -5705,19 +5716,19 @@
       </c>
       <c r="M31" s="19">
         <f t="shared" si="0"/>
-        <v>1087.02</v>
+        <v>1118.8699999999999</v>
       </c>
       <c r="N31" s="42">
         <f t="shared" si="1"/>
-        <v>6.9680479428464628E-2</v>
+        <v>0.10102242646697046</v>
       </c>
       <c r="O31" s="19">
         <f>(J31-K31)*L31</f>
-        <v>70.810000000000031</v>
+        <v>102.66000000000005</v>
       </c>
       <c r="P31" s="42">
-        <f t="shared" si="2"/>
-        <v>1.4396651032394386E-2</v>
+        <f>M31/$M$109</f>
+        <v>1.3142971857263663E-2</v>
       </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="7"/>
@@ -5744,7 +5755,7 @@
         <v>102.511</v>
       </c>
       <c r="H32" s="92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1025.1099999999999</v>
       </c>
       <c r="I32" s="90" t="s">
@@ -5767,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="93">
-        <f t="shared" si="2"/>
+        <f>M32/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q32" s="94"/>
@@ -5795,14 +5806,14 @@
         <v>89.132999999999996</v>
       </c>
       <c r="H33" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>891.32999999999993</v>
       </c>
       <c r="I33" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J33" s="20">
-        <v>100.2</v>
+        <v>99.084999999999994</v>
       </c>
       <c r="K33" s="20">
         <v>93.847999999999999</v>
@@ -5812,19 +5823,19 @@
       </c>
       <c r="M33" s="19">
         <f t="shared" si="0"/>
-        <v>3006</v>
+        <v>2972.5499999999997</v>
       </c>
       <c r="N33" s="42">
         <f t="shared" si="1"/>
-        <v>6.7683914414798443E-2</v>
+        <v>5.5803000596709521E-2</v>
       </c>
       <c r="O33" s="19">
         <f>(J33-K33)*L33</f>
-        <v>190.56000000000012</v>
+        <v>157.10999999999984</v>
       </c>
       <c r="P33" s="42">
-        <f t="shared" si="2"/>
-        <v>3.9811901348068592E-2</v>
+        <f>M33/$M$109</f>
+        <v>3.4917498006300195E-2</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="8"/>
@@ -5853,7 +5864,7 @@
         <v>140.5</v>
       </c>
       <c r="H34" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1405</v>
       </c>
       <c r="I34" s="81" t="s">
@@ -5875,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="84">
-        <f t="shared" si="2"/>
+        <f>M34/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q34" s="85"/>
@@ -5889,7 +5900,9 @@
       <c r="B35" s="117">
         <v>33</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="50">
+        <v>44487</v>
+      </c>
       <c r="D35" s="51">
         <v>110072</v>
       </c>
@@ -5903,36 +5916,36 @@
         <v>99.03</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>990.3</v>
       </c>
       <c r="I35" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J35" s="20">
-        <v>97.79</v>
+        <v>94.23</v>
       </c>
       <c r="K35" s="20">
-        <v>99.06</v>
+        <v>98.317999999999998</v>
       </c>
       <c r="L35" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" ref="M35:M60" si="7">J35*L35</f>
-        <v>2933.7000000000003</v>
+        <f t="shared" ref="M35:M60" si="6">J35*L35</f>
+        <v>3769.2000000000003</v>
       </c>
       <c r="N35" s="42">
-        <f t="shared" ref="N35:N60" si="8">(J35-K35)/K35</f>
-        <v>-1.282051282051278E-2</v>
+        <f t="shared" ref="N35:N60" si="7">(J35-K35)/K35</f>
+        <v>-4.1579364917919345E-2</v>
       </c>
       <c r="O35" s="19">
         <f>(J35-K35)*L35</f>
-        <v>-38.099999999999881</v>
+        <v>-163.51999999999975</v>
       </c>
       <c r="P35" s="42">
-        <f t="shared" ref="P35:P74" si="9">M35/$M$96</f>
-        <v>3.8854349629018244E-2</v>
+        <f>M35/$M$109</f>
+        <v>4.4275464999864331E-2</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="S35" s="43"/>
@@ -5954,7 +5967,7 @@
       </c>
       <c r="G36" s="111"/>
       <c r="H36" s="112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="110" t="s">
@@ -5964,16 +5977,16 @@
       <c r="K36" s="110"/>
       <c r="L36" s="110"/>
       <c r="M36" s="112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="113" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="113" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="112"/>
       <c r="P36" s="42">
-        <f t="shared" si="9"/>
+        <f>M36/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q36" s="114"/>
@@ -6001,7 +6014,7 @@
         <v>120.8</v>
       </c>
       <c r="H37" s="92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1208</v>
       </c>
       <c r="I37" s="90" t="s">
@@ -6011,22 +6024,22 @@
       <c r="K37" s="90"/>
       <c r="L37" s="90"/>
       <c r="M37" s="92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="93" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="93" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="92">
         <v>210.48</v>
       </c>
       <c r="P37" s="42">
-        <f t="shared" si="9"/>
+        <f>M37/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q37" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="95"/>
@@ -6053,7 +6066,7 @@
         <v>98.98</v>
       </c>
       <c r="H38" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>989.80000000000007</v>
       </c>
       <c r="I38" s="24" t="s">
@@ -6063,11 +6076,11 @@
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="42" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="19">
@@ -6075,11 +6088,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="42">
-        <f t="shared" si="9"/>
+        <f>M38/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q38" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R38" s="107"/>
       <c r="S38" s="43"/>
@@ -6102,7 +6115,7 @@
       </c>
       <c r="G39" s="111"/>
       <c r="H39" s="112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I39" s="110" t="s">
@@ -6112,18 +6125,18 @@
       <c r="K39" s="110"/>
       <c r="L39" s="110"/>
       <c r="M39" s="112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="113" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="113" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="112">
         <v>380.91</v>
       </c>
       <c r="P39" s="42">
-        <f t="shared" si="9"/>
+        <f>M39/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q39" s="114"/>
@@ -6152,21 +6165,21 @@
         <v>107.89</v>
       </c>
       <c r="H40" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1078.9000000000001</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="42" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="19">
@@ -6174,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="42">
-        <f t="shared" si="9"/>
+        <f>M40/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q40" s="13"/>
@@ -6201,21 +6214,21 @@
         <v>94.59</v>
       </c>
       <c r="H41" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>945.90000000000009</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="42" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="19">
@@ -6223,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="42">
-        <f t="shared" si="9"/>
+        <f>M41/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q41" s="13"/>
@@ -6250,28 +6263,28 @@
         <v>149.65100000000001</v>
       </c>
       <c r="H42" s="92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1496.5100000000002</v>
       </c>
       <c r="I42" s="90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J42" s="90"/>
       <c r="K42" s="90"/>
       <c r="L42" s="90"/>
       <c r="M42" s="92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="93" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="93" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="92">
         <v>471</v>
       </c>
       <c r="P42" s="42">
-        <f t="shared" si="9"/>
+        <f>M42/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q42" s="94"/>
@@ -6291,7 +6304,7 @@
         <v>128100</v>
       </c>
       <c r="E43" s="118" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F43" s="24">
         <v>10</v>
@@ -6300,29 +6313,29 @@
         <v>109.17</v>
       </c>
       <c r="H43" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1091.7</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="42" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="19">
-        <f t="shared" ref="O43:O60" si="10">(J43-K43)*L43</f>
+        <f t="shared" ref="O43:O60" si="8">(J43-K43)*L43</f>
         <v>0</v>
       </c>
       <c r="P43" s="42">
-        <f t="shared" si="9"/>
+        <f>M43/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q43" s="13"/>
@@ -6349,29 +6362,29 @@
         <v>106.51</v>
       </c>
       <c r="H44" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1065.1000000000001</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O44" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P44" s="42">
-        <f t="shared" si="9"/>
+        <f>M44/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q44" s="13"/>
@@ -6398,29 +6411,29 @@
         <v>102.83</v>
       </c>
       <c r="H45" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1028.3</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O45" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P45" s="42">
-        <f t="shared" si="9"/>
+        <f>M45/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q45" s="13"/>
@@ -6438,7 +6451,7 @@
         <v>128076</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F46" s="24">
         <v>40</v>
@@ -6447,36 +6460,36 @@
         <v>147.58199999999999</v>
       </c>
       <c r="H46" s="23">
+        <f t="shared" si="5"/>
+        <v>5903.28</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="20">
+        <v>117</v>
+      </c>
+      <c r="K46" s="20">
+        <v>135.96700000000001</v>
+      </c>
+      <c r="L46" s="20">
+        <v>70</v>
+      </c>
+      <c r="M46" s="19">
         <f t="shared" si="6"/>
-        <v>5903.28</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J46" s="20">
-        <v>117.749</v>
-      </c>
-      <c r="K46" s="20">
-        <v>139.292</v>
-      </c>
-      <c r="L46" s="20">
-        <v>60</v>
-      </c>
-      <c r="M46" s="19">
+        <v>8190</v>
+      </c>
+      <c r="N46" s="42">
         <f t="shared" si="7"/>
-        <v>7064.94</v>
-      </c>
-      <c r="N46" s="42">
+        <v>-0.13949708385122869</v>
+      </c>
+      <c r="O46" s="19">
         <f t="shared" si="8"/>
-        <v>-0.15466071274732221</v>
-      </c>
-      <c r="O46" s="19">
-        <f t="shared" si="10"/>
-        <v>-1292.5800000000004</v>
+        <v>-1327.690000000001</v>
       </c>
       <c r="P46" s="42">
-        <f t="shared" si="9"/>
-        <v>9.3569093250174221E-2</v>
+        <f>M46/$M$109</f>
+        <v>9.6205045725588675E-2</v>
       </c>
       <c r="Q46" s="13"/>
       <c r="S46" s="43"/>
@@ -6493,7 +6506,7 @@
         <v>128138</v>
       </c>
       <c r="E47" s="116" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F47" s="24">
         <v>10</v>
@@ -6502,14 +6515,14 @@
         <v>118.562</v>
       </c>
       <c r="H47" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1185.6199999999999</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J47" s="20">
-        <v>113.318</v>
+        <v>111.979</v>
       </c>
       <c r="K47" s="20">
         <v>115.91</v>
@@ -6518,20 +6531,20 @@
         <v>20</v>
       </c>
       <c r="M47" s="19">
+        <f t="shared" si="6"/>
+        <v>2239.58</v>
+      </c>
+      <c r="N47" s="42">
         <f t="shared" si="7"/>
-        <v>2266.36</v>
-      </c>
-      <c r="N47" s="42">
+        <v>-3.3914243809852453E-2</v>
+      </c>
+      <c r="O47" s="19">
         <f t="shared" si="8"/>
-        <v>-2.2362177551548606E-2</v>
-      </c>
-      <c r="O47" s="19">
-        <f t="shared" si="10"/>
-        <v>-51.839999999999975</v>
+        <v>-78.619999999999948</v>
       </c>
       <c r="P47" s="42">
-        <f t="shared" si="9"/>
-        <v>3.001600157658308E-2</v>
+        <f>M47/$M$109</f>
+        <v>2.6307557546534053E-2</v>
       </c>
       <c r="Q47" s="13"/>
       <c r="S47" s="43"/>
@@ -6557,29 +6570,29 @@
         <v>152.79</v>
       </c>
       <c r="H48" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3055.7999999999997</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O48" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P48" s="42">
-        <f t="shared" si="9"/>
+        <f>M48/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q48" s="13"/>
@@ -6597,7 +6610,7 @@
         <v>113601</v>
       </c>
       <c r="E49" s="121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F49" s="24">
         <v>30</v>
@@ -6606,11 +6619,11 @@
         <v>143.19999999999999</v>
       </c>
       <c r="H49" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4296</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J49" s="20">
         <v>115</v>
@@ -6622,20 +6635,20 @@
         <v>10</v>
       </c>
       <c r="M49" s="19">
+        <f t="shared" si="6"/>
+        <v>1150</v>
+      </c>
+      <c r="N49" s="42">
         <f t="shared" si="7"/>
-        <v>1150</v>
-      </c>
-      <c r="N49" s="42">
+        <v>4.7178053468461146E-3</v>
+      </c>
+      <c r="O49" s="19">
         <f t="shared" si="8"/>
-        <v>4.7178053468461146E-3</v>
-      </c>
-      <c r="O49" s="19">
-        <f t="shared" si="10"/>
         <v>5.4000000000000625</v>
       </c>
       <c r="P49" s="42">
-        <f t="shared" si="9"/>
-        <v>1.5230767315462038E-2</v>
+        <f>M49/$M$109</f>
+        <v>1.3508645004203538E-2</v>
       </c>
       <c r="Q49" s="13"/>
       <c r="S49" s="43"/>
@@ -6661,29 +6674,29 @@
         <v>160.31200000000001</v>
       </c>
       <c r="H50" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1603.1200000000001</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P50" s="42">
-        <f t="shared" si="9"/>
+        <f>M50/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q50" s="13"/>
@@ -6710,36 +6723,36 @@
         <v>102.83</v>
       </c>
       <c r="H51" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1028.3</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P51" s="42">
-        <f t="shared" si="9"/>
+        <f>M51/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q51" s="13"/>
       <c r="S51" s="43"/>
     </row>
     <row r="52" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="156">
+      <c r="B52" s="140">
         <v>50</v>
       </c>
       <c r="C52" s="79">
@@ -6758,84 +6771,84 @@
         <v>140.11000000000001</v>
       </c>
       <c r="H52" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1401.1000000000001</v>
       </c>
       <c r="I52" s="81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
       <c r="L52" s="81"/>
       <c r="M52" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="84" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="84" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="83">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" s="83">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P52" s="84">
-        <f t="shared" si="9"/>
+        <f>M52/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q52" s="85"/>
       <c r="S52" s="86"/>
     </row>
-    <row r="53" spans="1:19" s="158" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="156">
+    <row r="53" spans="1:19" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="140">
         <v>51</v>
       </c>
       <c r="C53" s="79">
         <v>44610</v>
       </c>
-      <c r="D53" s="159">
+      <c r="D53" s="143">
         <v>113036</v>
       </c>
-      <c r="E53" s="159" t="s">
+      <c r="E53" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="160">
+      <c r="F53" s="144">
         <v>-10</v>
       </c>
-      <c r="G53" s="161">
+      <c r="G53" s="145">
         <v>154.72999999999999</v>
       </c>
-      <c r="H53" s="162">
+      <c r="H53" s="146">
+        <f t="shared" si="5"/>
+        <v>-1547.3</v>
+      </c>
+      <c r="I53" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="83">
         <f t="shared" si="6"/>
-        <v>-1547.3</v>
-      </c>
-      <c r="I53" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
-      <c r="L53" s="160"/>
-      <c r="M53" s="83">
+        <v>0</v>
+      </c>
+      <c r="N53" s="84" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="84" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" s="83">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="83">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P53" s="84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="163"/>
-      <c r="S53" s="155"/>
+        <f>M53/$M$109</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="147"/>
+      <c r="S53" s="139"/>
     </row>
     <row r="54" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="156">
+      <c r="B54" s="140">
         <v>52</v>
       </c>
       <c r="C54" s="79">
@@ -6854,29 +6867,29 @@
         <v>140.94999999999999</v>
       </c>
       <c r="H54" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1409.5</v>
       </c>
       <c r="I54" s="81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J54" s="81"/>
       <c r="K54" s="81"/>
       <c r="L54" s="81"/>
       <c r="M54" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="84" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="84" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="83">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O54" s="83">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P54" s="84">
-        <f t="shared" si="9"/>
+        <f>M54/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q54" s="85"/>
@@ -6903,29 +6916,29 @@
         <v>137.11000000000001</v>
       </c>
       <c r="H55" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1371.1000000000001</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O55" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P55" s="42">
-        <f t="shared" si="9"/>
+        <f>M55/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q55" s="13"/>
@@ -6952,29 +6965,29 @@
         <v>100.76</v>
       </c>
       <c r="H56" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1007.6</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O56" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P56" s="42">
-        <f t="shared" si="9"/>
+        <f>M56/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q56" s="13"/>
@@ -7001,29 +7014,29 @@
         <v>101.768</v>
       </c>
       <c r="H57" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1017.6800000000001</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P57" s="42">
-        <f t="shared" si="9"/>
+        <f>M57/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q57" s="13"/>
@@ -7050,29 +7063,29 @@
         <v>101.97</v>
       </c>
       <c r="H58" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1019.7</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O58" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P58" s="42">
-        <f t="shared" si="9"/>
+        <f>M58/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q58" s="13"/>
@@ -7090,7 +7103,7 @@
         <v>113017</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F59" s="24">
         <v>10</v>
@@ -7099,29 +7112,29 @@
         <v>124.05</v>
       </c>
       <c r="H59" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1240.5</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P59" s="42">
-        <f t="shared" si="9"/>
+        <f>M59/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q59" s="13"/>
@@ -7139,7 +7152,7 @@
         <v>128076</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F60" s="24">
         <v>10</v>
@@ -7148,7 +7161,7 @@
         <v>125.67</v>
       </c>
       <c r="H60" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1256.7</v>
       </c>
       <c r="I60" s="24" t="s">
@@ -7158,19 +7171,19 @@
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="42" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="19">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O60" s="19">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P60" s="42">
-        <f t="shared" si="9"/>
+        <f>M60/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q60" s="13"/>
@@ -7188,7 +7201,7 @@
         <v>113601</v>
       </c>
       <c r="E61" s="121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F61" s="24">
         <v>10</v>
@@ -7197,11 +7210,11 @@
         <v>116.5</v>
       </c>
       <c r="H61" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1165</v>
       </c>
       <c r="I61" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
@@ -7210,7 +7223,7 @@
       <c r="N61" s="42"/>
       <c r="O61" s="19"/>
       <c r="P61" s="42">
-        <f t="shared" si="9"/>
+        <f>M61/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q61" s="13"/>
@@ -7228,7 +7241,7 @@
         <v>128114</v>
       </c>
       <c r="E62" s="126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F62" s="24">
         <v>10</v>
@@ -7237,14 +7250,14 @@
         <v>102.3</v>
       </c>
       <c r="H62" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1023</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J62" s="20">
-        <v>99.799000000000007</v>
+        <v>101.794</v>
       </c>
       <c r="K62" s="20">
         <v>101.25</v>
@@ -7253,20 +7266,20 @@
         <v>20</v>
       </c>
       <c r="M62" s="19">
-        <f t="shared" ref="M62:M84" si="11">J62*L62</f>
-        <v>1995.98</v>
+        <f t="shared" ref="M62:M103" si="9">J62*L62</f>
+        <v>2035.8799999999999</v>
       </c>
       <c r="N62" s="42">
-        <f t="shared" ref="N62:N91" si="12">(J62-K62)/K62</f>
-        <v>-1.4330864197530799E-2</v>
+        <f t="shared" ref="N62:N104" si="10">(J62-K62)/K62</f>
+        <v>5.3728395061728093E-3</v>
       </c>
       <c r="O62" s="19">
-        <f t="shared" ref="O62:O82" si="13">(J62-K62)*L62</f>
-        <v>-29.019999999999868</v>
+        <f t="shared" ref="O62:O74" si="11">(J62-K62)*L62</f>
+        <v>10.879999999999939</v>
       </c>
       <c r="P62" s="42">
-        <f t="shared" si="9"/>
-        <v>2.6435049518535581E-2</v>
+        <f>M62/$M$109</f>
+        <v>2.3914765383615564E-2</v>
       </c>
       <c r="Q62" s="13"/>
       <c r="S62" s="43"/>
@@ -7283,7 +7296,7 @@
         <v>113601</v>
       </c>
       <c r="E63" s="126" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F63" s="24">
         <v>-30</v>
@@ -7292,29 +7305,29 @@
         <v>143.9</v>
       </c>
       <c r="H63" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-4317</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
       <c r="M63" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N63" s="42" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="P63" s="42">
-        <f t="shared" si="9"/>
+        <f>M63/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q63" s="13"/>
@@ -7341,29 +7354,29 @@
         <v>99.11</v>
       </c>
       <c r="H64" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>991.1</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N64" s="42" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="P64" s="42">
-        <f t="shared" si="9"/>
+        <f>M64/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q64" s="13"/>
@@ -7381,7 +7394,7 @@
         <v>128114</v>
       </c>
       <c r="E65" s="126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F65" s="24">
         <v>10</v>
@@ -7390,29 +7403,29 @@
         <v>100.16</v>
       </c>
       <c r="H65" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1001.5999999999999</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
       <c r="M65" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O65" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N65" s="42" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="P65" s="42">
-        <f t="shared" si="9"/>
+        <f>M65/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q65" s="13"/>
@@ -7439,29 +7452,29 @@
         <v>102.11</v>
       </c>
       <c r="H66" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1021.1</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
       <c r="M66" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N66" s="42" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O66" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="P66" s="42">
-        <f t="shared" si="9"/>
+        <f>M66/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q66" s="13"/>
@@ -7479,7 +7492,7 @@
         <v>128116</v>
       </c>
       <c r="E67" s="126" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F67" s="24">
         <v>10</v>
@@ -7488,14 +7501,14 @@
         <v>106.28400000000001</v>
       </c>
       <c r="H67" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1062.8400000000001</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J67" s="20">
-        <v>107.47499999999999</v>
+        <v>105.12</v>
       </c>
       <c r="K67" s="20">
         <v>106.304</v>
@@ -7504,20 +7517,20 @@
         <v>10</v>
       </c>
       <c r="M67" s="19">
+        <f t="shared" si="9"/>
+        <v>1051.2</v>
+      </c>
+      <c r="N67" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.113786875376277E-2</v>
+      </c>
+      <c r="O67" s="19">
         <f t="shared" si="11"/>
-        <v>1074.75</v>
-      </c>
-      <c r="N67" s="42">
-        <f t="shared" si="12"/>
-        <v>1.1015577965081203E-2</v>
-      </c>
-      <c r="O67" s="19">
-        <f t="shared" si="13"/>
-        <v>11.709999999999923</v>
+        <v>-11.839999999999975</v>
       </c>
       <c r="P67" s="42">
-        <f t="shared" si="9"/>
-        <v>1.4234145367211152E-2</v>
+        <f>M67/$M$109</f>
+        <v>1.2348076198625008E-2</v>
       </c>
       <c r="Q67" s="13"/>
       <c r="S67" s="43"/>
@@ -7534,7 +7547,7 @@
         <v>127024</v>
       </c>
       <c r="E68" s="126" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F68" s="24">
         <v>10</v>
@@ -7543,14 +7556,14 @@
         <v>106.38500000000001</v>
       </c>
       <c r="H68" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1063.8500000000001</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J68" s="20">
-        <v>105.8</v>
+        <v>104.3</v>
       </c>
       <c r="K68" s="20">
         <v>106.405</v>
@@ -7559,20 +7572,20 @@
         <v>10</v>
       </c>
       <c r="M68" s="19">
+        <f t="shared" si="9"/>
+        <v>1043</v>
+      </c>
+      <c r="N68" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.978290493867773E-2</v>
+      </c>
+      <c r="O68" s="19">
         <f t="shared" si="11"/>
-        <v>1058</v>
-      </c>
-      <c r="N68" s="42">
-        <f t="shared" si="12"/>
-        <v>-5.6858230346318681E-3</v>
-      </c>
-      <c r="O68" s="19">
-        <f t="shared" si="13"/>
-        <v>-6.0500000000000398</v>
+        <v>-21.05000000000004</v>
       </c>
       <c r="P68" s="42">
-        <f t="shared" si="9"/>
-        <v>1.4012305930225073E-2</v>
+        <f>M68/$M$109</f>
+        <v>1.2251753686421122E-2</v>
       </c>
       <c r="Q68" s="13"/>
       <c r="S68" s="43"/>
@@ -7587,7 +7600,7 @@
       </c>
       <c r="D69" s="126"/>
       <c r="E69" s="126" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F69" s="24">
         <v>10</v>
@@ -7596,14 +7609,14 @@
         <v>100</v>
       </c>
       <c r="H69" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J69" s="20">
-        <v>100</v>
+        <v>119.623</v>
       </c>
       <c r="K69" s="20">
         <v>100</v>
@@ -7612,20 +7625,20 @@
         <v>10</v>
       </c>
       <c r="M69" s="19">
+        <f t="shared" si="9"/>
+        <v>1196.23</v>
+      </c>
+      <c r="N69" s="42">
+        <f t="shared" si="10"/>
+        <v>0.19623000000000004</v>
+      </c>
+      <c r="O69" s="19">
         <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="N69" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>196.23000000000005</v>
       </c>
       <c r="P69" s="42">
-        <f t="shared" si="9"/>
-        <v>1.3244145491706119E-2</v>
+        <f>M69/$M$109</f>
+        <v>1.4051692533372521E-2</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="S69" s="43"/>
@@ -7642,7 +7655,7 @@
         <v>128124</v>
       </c>
       <c r="E70" s="100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F70" s="24">
         <v>10</v>
@@ -7651,36 +7664,36 @@
         <v>105.369</v>
       </c>
       <c r="H70" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1053.69</v>
       </c>
       <c r="I70" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J70" s="20">
-        <v>105.489</v>
+        <v>96.19</v>
       </c>
       <c r="K70" s="20">
-        <v>105.389</v>
+        <v>98.727999999999994</v>
       </c>
       <c r="L70" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M70" s="19">
+        <f t="shared" si="9"/>
+        <v>5771.4</v>
+      </c>
+      <c r="N70" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.5706992950328144E-2</v>
+      </c>
+      <c r="O70" s="19">
         <f t="shared" si="11"/>
-        <v>1054.8900000000001</v>
-      </c>
-      <c r="N70" s="42">
-        <f t="shared" si="12"/>
-        <v>9.4886563113805546E-4</v>
-      </c>
-      <c r="O70" s="19">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000853</v>
+        <v>-152.2799999999998</v>
       </c>
       <c r="P70" s="42">
-        <f t="shared" si="9"/>
-        <v>1.3971116637745869E-2</v>
+        <f>M70/$M$109</f>
+        <v>6.7794603284574165E-2</v>
       </c>
       <c r="Q70" s="13"/>
       <c r="S70" s="43"/>
@@ -7695,7 +7708,7 @@
       </c>
       <c r="D71" s="126"/>
       <c r="E71" s="126" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F71" s="24">
         <v>10</v>
@@ -7704,7 +7717,7 @@
         <v>100</v>
       </c>
       <c r="H71" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I71" s="24" t="s">
@@ -7720,20 +7733,20 @@
         <v>10</v>
       </c>
       <c r="M71" s="19">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="N71" s="42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="19">
         <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-      <c r="N71" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="19">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P71" s="42">
-        <f t="shared" si="9"/>
-        <v>1.3244145491706119E-2</v>
+        <f>M71/$M$109</f>
+        <v>1.1746647829742208E-2</v>
       </c>
       <c r="Q71" s="13"/>
       <c r="S71" s="43"/>
@@ -7750,7 +7763,7 @@
         <v>123076</v>
       </c>
       <c r="E72" s="126" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F72" s="24">
         <v>10</v>
@@ -7759,14 +7772,14 @@
         <v>104.491</v>
       </c>
       <c r="H72" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1044.9100000000001</v>
       </c>
       <c r="I72" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J72" s="20">
-        <v>105.12</v>
+        <v>103.8</v>
       </c>
       <c r="K72" s="20">
         <v>104.511</v>
@@ -7775,20 +7788,20 @@
         <v>10</v>
       </c>
       <c r="M72" s="19">
+        <f t="shared" si="9"/>
+        <v>1038</v>
+      </c>
+      <c r="N72" s="42">
+        <f t="shared" si="10"/>
+        <v>-6.8031116341820339E-3</v>
+      </c>
+      <c r="O72" s="19">
         <f t="shared" si="11"/>
-        <v>1051.2</v>
-      </c>
-      <c r="N72" s="42">
-        <f t="shared" si="12"/>
-        <v>5.827137813244624E-3</v>
-      </c>
-      <c r="O72" s="19">
-        <f t="shared" si="13"/>
-        <v>6.0900000000000887</v>
+        <v>-7.1099999999999852</v>
       </c>
       <c r="P72" s="42">
-        <f t="shared" si="9"/>
-        <v>1.3922245740881472E-2</v>
+        <f>M72/$M$109</f>
+        <v>1.2193020447272411E-2</v>
       </c>
       <c r="Q72" s="13"/>
       <c r="S72" s="43"/>
@@ -7805,7 +7818,7 @@
         <v>113561</v>
       </c>
       <c r="E73" s="126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F73" s="24">
         <v>10</v>
@@ -7814,14 +7827,14 @@
         <v>115.8</v>
       </c>
       <c r="H73" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1158</v>
       </c>
       <c r="I73" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J73" s="20">
-        <v>114.82</v>
+        <v>115.11</v>
       </c>
       <c r="K73" s="20">
         <v>115.82</v>
@@ -7830,20 +7843,20 @@
         <v>10</v>
       </c>
       <c r="M73" s="19">
+        <f t="shared" si="9"/>
+        <v>1151.0999999999999</v>
+      </c>
+      <c r="N73" s="42">
+        <f t="shared" si="10"/>
+        <v>-6.1302020376445675E-3</v>
+      </c>
+      <c r="O73" s="19">
         <f t="shared" si="11"/>
-        <v>1148.1999999999998</v>
-      </c>
-      <c r="N73" s="42">
-        <f t="shared" si="12"/>
-        <v>-8.6340873769642553E-3</v>
-      </c>
-      <c r="O73" s="19">
-        <f t="shared" si="13"/>
-        <v>-10</v>
+        <v>-7.0999999999999375</v>
       </c>
       <c r="P73" s="42">
-        <f t="shared" si="9"/>
-        <v>1.5206927853576963E-2</v>
+        <f>M73/$M$109</f>
+        <v>1.3521566316816254E-2</v>
       </c>
       <c r="Q73" s="13"/>
       <c r="S73" s="43"/>
@@ -7860,7 +7873,7 @@
         <v>128063</v>
       </c>
       <c r="E74" s="126" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F74" s="24">
         <v>10</v>
@@ -7869,14 +7882,14 @@
         <v>114.501</v>
       </c>
       <c r="H74" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1145.01</v>
       </c>
       <c r="I74" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J74" s="20">
-        <v>114.93</v>
+        <v>111.613</v>
       </c>
       <c r="K74" s="20">
         <v>113.021</v>
@@ -7885,20 +7898,20 @@
         <v>10</v>
       </c>
       <c r="M74" s="19">
+        <f t="shared" si="9"/>
+        <v>1116.1300000000001</v>
+      </c>
+      <c r="N74" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.2457861813291346E-2</v>
+      </c>
+      <c r="O74" s="19">
         <f t="shared" si="11"/>
-        <v>1149.3000000000002</v>
-      </c>
-      <c r="N74" s="42">
-        <f t="shared" si="12"/>
-        <v>1.6890666336344628E-2</v>
-      </c>
-      <c r="O74" s="19">
-        <f t="shared" si="13"/>
-        <v>19.09000000000006</v>
+        <v>-14.080000000000013</v>
       </c>
       <c r="P74" s="42">
-        <f t="shared" si="9"/>
-        <v>1.5221496413617846E-2</v>
+        <f>M74/$M$109</f>
+        <v>1.311078604221017E-2</v>
       </c>
       <c r="Q74" s="13"/>
       <c r="S74" s="43"/>
@@ -7924,7 +7937,7 @@
         <v>100.37</v>
       </c>
       <c r="H75" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1003.7</v>
       </c>
       <c r="I75" s="24" t="s">
@@ -7934,19 +7947,19 @@
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
       <c r="M75" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N75" s="42" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O75" s="19">
-        <f t="shared" ref="O75:O85" si="14">(J75-K75)*L75</f>
+        <f t="shared" ref="O75:O103" si="12">(J75-K75)*L75</f>
         <v>0</v>
       </c>
       <c r="P75" s="42">
-        <f t="shared" ref="P75:P85" si="15">M75/$M$96</f>
+        <f>M75/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q75" s="13"/>
@@ -7964,7 +7977,7 @@
         <v>113576</v>
       </c>
       <c r="E76" s="126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F76" s="24">
         <v>10</v>
@@ -7973,14 +7986,14 @@
         <v>106.01</v>
       </c>
       <c r="H76" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1060.1000000000001</v>
       </c>
       <c r="I76" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J76" s="20">
-        <v>103.28</v>
+        <v>108.14</v>
       </c>
       <c r="K76" s="20">
         <v>105.23</v>
@@ -7989,20 +8002,20 @@
         <v>10</v>
       </c>
       <c r="M76" s="19">
-        <f t="shared" si="11"/>
-        <v>1032.8</v>
+        <f t="shared" si="9"/>
+        <v>1081.4000000000001</v>
       </c>
       <c r="N76" s="42">
+        <f t="shared" si="10"/>
+        <v>2.7653710918939433E-2</v>
+      </c>
+      <c r="O76" s="19">
         <f t="shared" si="12"/>
-        <v>-1.853083721372235E-2</v>
-      </c>
-      <c r="O76" s="19">
-        <f t="shared" si="14"/>
-        <v>-19.500000000000028</v>
+        <v>29.099999999999966</v>
       </c>
       <c r="P76" s="42">
-        <f t="shared" si="15"/>
-        <v>1.367855346383408E-2</v>
+        <f>M76/$M$109</f>
+        <v>1.2702824963083224E-2</v>
       </c>
       <c r="Q76" s="13"/>
       <c r="S76" s="43"/>
@@ -8019,7 +8032,7 @@
         <v>128076</v>
       </c>
       <c r="E77" s="126" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F77" s="24">
         <v>10</v>
@@ -8028,7 +8041,7 @@
         <v>119.71299999999999</v>
       </c>
       <c r="H77" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1197.1299999999999</v>
       </c>
       <c r="I77" s="24" t="s">
@@ -8038,19 +8051,19 @@
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
       <c r="M77" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N77" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O77" s="19">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O77" s="19">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P77" s="42">
-        <f t="shared" si="15"/>
+        <f>M77/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q77" s="13"/>
@@ -8068,7 +8081,7 @@
         <v>113604</v>
       </c>
       <c r="E78" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F78" s="24">
         <v>10</v>
@@ -8077,14 +8090,14 @@
         <v>105.61</v>
       </c>
       <c r="H78" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1056.0999999999999</v>
       </c>
       <c r="I78" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J78" s="20">
-        <v>104.84</v>
+        <v>103.01</v>
       </c>
       <c r="K78" s="20">
         <v>105.63</v>
@@ -8093,20 +8106,20 @@
         <v>10</v>
       </c>
       <c r="M78" s="19">
-        <f t="shared" si="11"/>
-        <v>1048.4000000000001</v>
+        <f t="shared" si="9"/>
+        <v>1030.1000000000001</v>
       </c>
       <c r="N78" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.4803559594811991E-2</v>
+      </c>
+      <c r="O78" s="19">
         <f t="shared" si="12"/>
-        <v>-7.4789359083592922E-3</v>
-      </c>
-      <c r="O78" s="19">
-        <f t="shared" si="14"/>
-        <v>-7.8999999999999204</v>
+        <v>-26.199999999999903</v>
       </c>
       <c r="P78" s="42">
-        <f t="shared" si="15"/>
-        <v>1.3885162133504696E-2</v>
+        <f>M78/$M$109</f>
+        <v>1.2100221929417449E-2</v>
       </c>
       <c r="Q78" s="13"/>
       <c r="S78" s="43"/>
@@ -8123,7 +8136,7 @@
         <v>128138</v>
       </c>
       <c r="E79" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F79" s="24">
         <v>10</v>
@@ -8132,7 +8145,7 @@
         <v>113.238</v>
       </c>
       <c r="H79" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1132.3800000000001</v>
       </c>
       <c r="I79" s="24" t="s">
@@ -8142,19 +8155,19 @@
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
       <c r="M79" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N79" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O79" s="19">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O79" s="19">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P79" s="42">
-        <f t="shared" si="15"/>
+        <f>M79/$M$109</f>
         <v>0</v>
       </c>
       <c r="Q79" s="13"/>
@@ -8172,7 +8185,7 @@
         <v>113628</v>
       </c>
       <c r="E80" s="126" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F80" s="24">
         <v>10</v>
@@ -8181,14 +8194,14 @@
         <v>109.07</v>
       </c>
       <c r="H80" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1090.6999999999998</v>
       </c>
       <c r="I80" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J80" s="20">
-        <v>108.88</v>
+        <v>104.47</v>
       </c>
       <c r="K80" s="20">
         <v>109.09</v>
@@ -8197,20 +8210,20 @@
         <v>10</v>
       </c>
       <c r="M80" s="19">
-        <f t="shared" si="11"/>
-        <v>1088.8</v>
+        <f t="shared" si="9"/>
+        <v>1044.7</v>
       </c>
       <c r="N80" s="42">
+        <f t="shared" si="10"/>
+        <v>-4.2350352919607703E-2</v>
+      </c>
+      <c r="O80" s="19">
         <f t="shared" si="12"/>
-        <v>-1.9250160418004213E-3</v>
-      </c>
-      <c r="O80" s="19">
-        <f t="shared" si="14"/>
-        <v>-2.1000000000000796</v>
+        <v>-46.200000000000045</v>
       </c>
       <c r="P80" s="42">
-        <f t="shared" si="15"/>
-        <v>1.4420225611369622E-2</v>
+        <f>M80/$M$109</f>
+        <v>1.2271722987731685E-2</v>
       </c>
       <c r="Q80" s="13"/>
       <c r="S80" s="43"/>
@@ -8227,7 +8240,7 @@
         <v>123096</v>
       </c>
       <c r="E81" s="126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F81" s="24">
         <v>10</v>
@@ -8236,14 +8249,14 @@
         <v>110.172</v>
       </c>
       <c r="H81" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1101.72</v>
       </c>
       <c r="I81" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J81" s="20">
-        <v>109.69</v>
+        <v>106.79300000000001</v>
       </c>
       <c r="K81" s="20">
         <v>110.19199999999999</v>
@@ -8252,71 +8265,71 @@
         <v>10</v>
       </c>
       <c r="M81" s="19">
-        <f t="shared" si="11"/>
-        <v>1096.9000000000001</v>
+        <f t="shared" si="9"/>
+        <v>1067.93</v>
       </c>
       <c r="N81" s="42">
+        <f t="shared" si="10"/>
+        <v>-3.0846159430811555E-2</v>
+      </c>
+      <c r="O81" s="19">
         <f t="shared" si="12"/>
-        <v>-4.5556846232030941E-3</v>
-      </c>
-      <c r="O81" s="19">
-        <f t="shared" si="14"/>
-        <v>-5.0199999999999534</v>
+        <v>-33.989999999999867</v>
       </c>
       <c r="P81" s="42">
-        <f t="shared" si="15"/>
-        <v>1.4527503189852443E-2</v>
+        <f>M81/$M$109</f>
+        <v>1.2544597616816595E-2</v>
       </c>
       <c r="Q81" s="13"/>
       <c r="S81" s="43"/>
     </row>
-    <row r="82" spans="1:19" s="146" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="147">
+    <row r="82" spans="1:19" s="130" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B82" s="131">
         <v>80</v>
       </c>
-      <c r="C82" s="148">
+      <c r="C82" s="132">
         <v>44663</v>
       </c>
-      <c r="D82" s="149">
+      <c r="D82" s="133">
         <v>127039</v>
       </c>
-      <c r="E82" s="149" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="150">
+      <c r="E82" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="134">
         <v>-10</v>
       </c>
-      <c r="G82" s="151">
+      <c r="G82" s="135">
         <v>133.32300000000001</v>
       </c>
-      <c r="H82" s="152">
-        <f t="shared" si="6"/>
+      <c r="H82" s="136">
+        <f t="shared" si="5"/>
         <v>-1333.23</v>
       </c>
-      <c r="I82" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82" s="150"/>
-      <c r="K82" s="150"/>
-      <c r="L82" s="150"/>
-      <c r="M82" s="152">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N82" s="153" t="e">
+      <c r="I82" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="J82" s="134"/>
+      <c r="K82" s="134"/>
+      <c r="L82" s="134"/>
+      <c r="M82" s="136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="137" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O82" s="136">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O82" s="152">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="153">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q82" s="154"/>
-      <c r="S82" s="155"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="137">
+        <f>M82/$M$109</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="138"/>
+      <c r="S82" s="139"/>
     </row>
     <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
@@ -8330,7 +8343,7 @@
         <v>123128</v>
       </c>
       <c r="E83" s="126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F83" s="24">
         <v>90</v>
@@ -8339,36 +8352,36 @@
         <v>105.504</v>
       </c>
       <c r="H83" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9495.36</v>
       </c>
       <c r="I83" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J83" s="20">
-        <v>105.23099999999999</v>
+        <v>102.666</v>
       </c>
       <c r="K83" s="20">
-        <v>105.512</v>
+        <v>102.289</v>
       </c>
       <c r="L83" s="20">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M83" s="19">
-        <f t="shared" si="11"/>
-        <v>9470.7899999999991</v>
+        <f t="shared" si="9"/>
+        <v>3079.98</v>
       </c>
       <c r="N83" s="42">
+        <f t="shared" si="10"/>
+        <v>3.6856357966154264E-3</v>
+      </c>
+      <c r="O83" s="19">
         <f t="shared" si="12"/>
-        <v>-2.663204185305993E-3</v>
-      </c>
-      <c r="O83" s="19">
-        <f t="shared" si="14"/>
-        <v>-25.290000000000532</v>
+        <v>11.30999999999986</v>
       </c>
       <c r="P83" s="42">
-        <f t="shared" si="15"/>
-        <v>0.12543252068139538</v>
+        <f>M83/$M$109</f>
+        <v>3.6179440382649405E-2</v>
       </c>
       <c r="Q83" s="13"/>
       <c r="S83" s="43"/>
@@ -8385,7 +8398,7 @@
         <v>127039</v>
       </c>
       <c r="E84" s="126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F84" s="24">
         <v>10</v>
@@ -8394,417 +8407,1100 @@
         <v>121.771</v>
       </c>
       <c r="H84" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1217.71</v>
       </c>
       <c r="I84" s="24" t="s">
         <v>76</v>
       </c>
       <c r="J84" s="20">
-        <v>119.889</v>
+        <v>120.3</v>
       </c>
       <c r="K84" s="20">
-        <v>121.801</v>
+        <v>120.73099999999999</v>
       </c>
       <c r="L84" s="20">
         <v>10</v>
       </c>
       <c r="M84" s="19">
-        <f t="shared" si="11"/>
-        <v>1198.8899999999999</v>
+        <f t="shared" si="9"/>
+        <v>1203</v>
       </c>
       <c r="N84" s="42">
+        <f t="shared" si="10"/>
+        <v>-3.5699199045812376E-3</v>
+      </c>
+      <c r="O84" s="19">
         <f t="shared" si="12"/>
-        <v>-1.5697736471785996E-2</v>
-      </c>
-      <c r="O84" s="19">
-        <f t="shared" si="14"/>
-        <v>-19.120000000000061</v>
+        <v>-4.3099999999999739</v>
       </c>
       <c r="P84" s="42">
-        <f t="shared" si="15"/>
-        <v>1.5878273588551546E-2</v>
+        <f>M84/$M$109</f>
+        <v>1.4131217339179875E-2</v>
       </c>
       <c r="Q84" s="13"/>
       <c r="S84" s="43"/>
     </row>
     <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
-      <c r="B85" s="128">
+      <c r="B85" s="129">
         <v>83</v>
       </c>
-      <c r="C85" s="50"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="42"/>
+      <c r="C85" s="50">
+        <v>44670</v>
+      </c>
+      <c r="D85" s="126">
+        <v>123004</v>
+      </c>
+      <c r="E85" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="24">
+        <v>10</v>
+      </c>
+      <c r="G85" s="36">
+        <v>106.611</v>
+      </c>
+      <c r="H85" s="23">
+        <f t="shared" si="5"/>
+        <v>1066.1100000000001</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J85" s="20">
+        <v>106.404</v>
+      </c>
+      <c r="K85" s="20">
+        <v>106.631</v>
+      </c>
+      <c r="L85" s="20">
+        <v>10</v>
+      </c>
+      <c r="M85" s="19">
+        <f t="shared" si="9"/>
+        <v>1064.04</v>
+      </c>
+      <c r="N85" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.1288368298150056E-3</v>
+      </c>
       <c r="O85" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-2.2700000000000387</v>
       </c>
       <c r="P85" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>M85/$M$109</f>
+        <v>1.2498903156758898E-2</v>
       </c>
       <c r="Q85" s="13"/>
       <c r="S85" s="43"/>
     </row>
     <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
-      <c r="B86" s="128">
+      <c r="B86" s="129">
         <v>84</v>
       </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="42"/>
+      <c r="C86" s="50">
+        <v>44671</v>
+      </c>
+      <c r="D86" s="126">
+        <v>128105</v>
+      </c>
+      <c r="E86" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="24">
+        <v>10</v>
+      </c>
+      <c r="G86" s="36">
+        <v>104.5</v>
+      </c>
+      <c r="H86" s="23">
+        <f t="shared" si="5"/>
+        <v>1045</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J86" s="20">
+        <v>101.09399999999999</v>
+      </c>
+      <c r="K86" s="20">
+        <v>104.32</v>
+      </c>
+      <c r="L86" s="20">
+        <v>10</v>
+      </c>
+      <c r="M86" s="19">
+        <f t="shared" si="9"/>
+        <v>1010.9399999999999</v>
+      </c>
+      <c r="N86" s="42">
+        <f t="shared" si="10"/>
+        <v>-3.0924079754601222E-2</v>
+      </c>
+      <c r="O86" s="19">
+        <f t="shared" si="12"/>
+        <v>-32.259999999999991</v>
+      </c>
+      <c r="P86" s="42">
+        <f>M86/$M$109</f>
+        <v>1.1875156156999587E-2</v>
+      </c>
       <c r="Q86" s="13"/>
       <c r="S86" s="43"/>
     </row>
     <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
-      <c r="B87" s="128">
+      <c r="B87" s="129">
         <v>85</v>
       </c>
-      <c r="C87" s="50"/>
+      <c r="C87" s="50">
+        <v>44670</v>
+      </c>
       <c r="D87" s="126"/>
-      <c r="E87" s="126"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
+      <c r="E87" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="24">
+        <v>10</v>
+      </c>
+      <c r="G87" s="36">
+        <v>99</v>
+      </c>
+      <c r="H87" s="23">
+        <f t="shared" si="5"/>
+        <v>990</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="42"/>
-      <c r="Q87" s="13"/>
+      <c r="M87" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O87" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="42">
+        <f t="shared" ref="P87:P104" si="13">M87/$M$109</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="S87" s="43"/>
     </row>
     <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
-      <c r="B88" s="128">
+      <c r="B88" s="129">
         <v>86</v>
       </c>
       <c r="C88" s="50">
-        <v>44664</v>
+        <v>44670</v>
       </c>
       <c r="D88" s="126"/>
       <c r="E88" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="126" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="23" t="e">
-        <f>#REF!*G88</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I88" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="F88" s="24">
+        <v>10</v>
+      </c>
+      <c r="G88" s="36">
+        <v>99</v>
+      </c>
+      <c r="H88" s="23">
+        <f t="shared" si="5"/>
+        <v>990</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
+      <c r="M88" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N88" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" s="19">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O88" s="19"/>
-      <c r="P88" s="42"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="Q88" s="13"/>
       <c r="S88" s="43"/>
     </row>
-    <row r="89" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
-      <c r="B89" s="128">
+      <c r="B89" s="129">
         <v>87</v>
       </c>
-      <c r="C89" s="50"/>
-      <c r="D89" s="51"/>
+      <c r="C89" s="50">
+        <v>44676</v>
+      </c>
+      <c r="D89" s="126">
+        <v>113017</v>
+      </c>
       <c r="E89" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" s="24"/>
-      <c r="G89" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="F89" s="24">
+        <v>10</v>
+      </c>
+      <c r="G89" s="36">
+        <v>109.11</v>
+      </c>
       <c r="H89" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="24"/>
+        <f t="shared" si="5"/>
+        <v>1091.0999999999999</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
+      <c r="M89" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N89" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O89" s="19">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O89" s="19">
-        <f>(J89-K89)*L89</f>
         <v>0</v>
       </c>
       <c r="P89" s="42">
-        <f>M89/$M$96</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q89" s="13"/>
       <c r="S89" s="43"/>
     </row>
-    <row r="90" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
-      <c r="B90" s="128">
+      <c r="B90" s="129">
         <v>88</v>
       </c>
-      <c r="C90" s="50"/>
-      <c r="D90" s="51"/>
+      <c r="C90" s="50">
+        <v>44676</v>
+      </c>
+      <c r="D90" s="126">
+        <v>128076</v>
+      </c>
       <c r="E90" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="F90" s="55"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="23" t="e">
-        <f>#REF!*G90</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I90" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="F90" s="24">
+        <v>10</v>
+      </c>
+      <c r="G90" s="36">
+        <v>116</v>
+      </c>
+      <c r="H90" s="23">
+        <f t="shared" si="5"/>
+        <v>1160</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
+      <c r="M90" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N90" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O90" s="19">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O90" s="19">
-        <f>(J90-K90)*L90</f>
         <v>0</v>
       </c>
       <c r="P90" s="42">
-        <f>M90/$M$96</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q90" s="13"/>
       <c r="S90" s="43"/>
     </row>
-    <row r="91" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
-      <c r="B91" s="128">
+      <c r="B91" s="129">
         <v>89</v>
       </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="126"/>
+      <c r="C91" s="50">
+        <v>44676</v>
+      </c>
+      <c r="D91" s="126">
+        <v>128108</v>
+      </c>
       <c r="E91" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="F91" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="G91" s="36"/>
-      <c r="H91" s="23" t="e">
-        <f>#REF!*G91</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I91" s="24"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="42" t="e">
+        <v>123</v>
+      </c>
+      <c r="F91" s="24">
+        <v>10</v>
+      </c>
+      <c r="G91" s="36">
+        <v>102.4</v>
+      </c>
+      <c r="H91" s="23">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J91" s="20">
+        <v>100.667</v>
+      </c>
+      <c r="K91" s="20">
+        <v>101.621</v>
+      </c>
+      <c r="L91" s="20">
+        <v>20</v>
+      </c>
+      <c r="M91" s="19">
+        <f t="shared" si="9"/>
+        <v>2013.3400000000001</v>
+      </c>
+      <c r="N91" s="42">
+        <f t="shared" si="10"/>
+        <v>-9.3878233829621203E-3</v>
+      </c>
+      <c r="O91" s="19">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O91" s="20"/>
+        <v>-19.07999999999987</v>
+      </c>
       <c r="P91" s="42">
-        <f>M91/$M$96</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2.3649995941533178E-2</v>
       </c>
       <c r="Q91" s="13"/>
       <c r="S91" s="43"/>
     </row>
-    <row r="92" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
-      <c r="B92" s="128">
+      <c r="B92" s="129">
         <v>90</v>
       </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="126"/>
-      <c r="E92" s="126"/>
-      <c r="F92" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G92" s="36"/>
-      <c r="H92" s="23" t="e">
-        <f>#REF!*G92</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I92" s="24"/>
+      <c r="C92" s="50">
+        <v>44678</v>
+      </c>
+      <c r="D92" s="126">
+        <v>128100</v>
+      </c>
+      <c r="E92" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="24">
+        <v>20</v>
+      </c>
+      <c r="G92" s="36">
+        <v>91</v>
+      </c>
+      <c r="H92" s="23">
+        <f t="shared" si="5"/>
+        <v>1820</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
+      <c r="M92" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N92" s="42" t="e">
-        <f t="shared" ref="N92:N95" si="16">(J92-K92)/K92</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
+      <c r="O92" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="Q92" s="13"/>
       <c r="S92" s="43"/>
     </row>
-    <row r="93" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
-      <c r="B93" s="128">
+      <c r="B93" s="129">
         <v>91</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="126"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="23" t="e">
-        <f>#REF!*G93</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I93" s="24"/>
+      <c r="C93" s="50">
+        <v>44678</v>
+      </c>
+      <c r="D93" s="126">
+        <v>113595</v>
+      </c>
+      <c r="E93" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" s="24">
+        <v>10</v>
+      </c>
+      <c r="G93" s="36">
+        <v>94.18</v>
+      </c>
+      <c r="H93" s="23">
+        <f t="shared" si="5"/>
+        <v>941.80000000000007</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
+      <c r="M93" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N93" s="42" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
+      <c r="O93" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="Q93" s="13"/>
       <c r="S93" s="43"/>
     </row>
-    <row r="94" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="128">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7"/>
+      <c r="B94" s="129">
         <v>92</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="126"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
+      <c r="C94" s="50">
+        <v>44680</v>
+      </c>
+      <c r="D94" s="126">
+        <v>113595</v>
+      </c>
+      <c r="E94" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="24">
+        <v>-20</v>
+      </c>
+      <c r="G94" s="36">
+        <v>121</v>
+      </c>
+      <c r="H94" s="23">
+        <f t="shared" si="5"/>
+        <v>-2420</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
+      <c r="M94" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N94" s="42" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
+      <c r="O94" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="Q94" s="13"/>
       <c r="S94" s="43"/>
     </row>
-    <row r="95" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="128">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7"/>
+      <c r="B95" s="129">
         <v>93</v>
       </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="126"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
+      <c r="C95" s="50">
+        <v>44686</v>
+      </c>
+      <c r="D95" s="126">
+        <v>113595</v>
+      </c>
+      <c r="E95" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="24">
+        <v>-10</v>
+      </c>
+      <c r="G95" s="36">
+        <v>135.18</v>
+      </c>
+      <c r="H95" s="23">
+        <f t="shared" si="5"/>
+        <v>-1351.8000000000002</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="J95" s="20"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="N95" s="42" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
+      <c r="O95" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="Q95" s="13"/>
       <c r="S95" s="43"/>
     </row>
-    <row r="96" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="14"/>
-      <c r="C96" s="15" t="s">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="129">
+        <v>94</v>
+      </c>
+      <c r="C96" s="50">
+        <v>44686</v>
+      </c>
+      <c r="D96" s="126">
+        <v>128108</v>
+      </c>
+      <c r="E96" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="24">
+        <v>10</v>
+      </c>
+      <c r="G96" s="36">
+        <v>100.791</v>
+      </c>
+      <c r="H96" s="23">
+        <f t="shared" si="5"/>
+        <v>1007.91</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O96" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S96" s="43"/>
+    </row>
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="126"/>
+      <c r="E97" s="126"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="24"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O97" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="13"/>
+      <c r="S97" s="43"/>
+    </row>
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="126"/>
+      <c r="E98" s="126"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="24"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O98" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="13"/>
+      <c r="S98" s="43"/>
+    </row>
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="7"/>
+      <c r="B99" s="129">
+        <v>95</v>
+      </c>
+      <c r="C99" s="50"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="24"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O99" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="13"/>
+      <c r="S99" s="43"/>
+    </row>
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="7"/>
+      <c r="B100" s="129">
+        <v>96</v>
+      </c>
+      <c r="C100" s="50"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="126"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="24"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O100" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="13"/>
+      <c r="S100" s="43"/>
+    </row>
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="7"/>
+      <c r="B101" s="129">
+        <v>97</v>
+      </c>
+      <c r="C101" s="50"/>
+      <c r="D101" s="126"/>
+      <c r="E101" s="126"/>
+      <c r="F101" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="G101" s="36"/>
+      <c r="H101" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I101" s="24"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O101" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="13"/>
+      <c r="S101" s="43"/>
+    </row>
+    <row r="102" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="7"/>
+      <c r="B102" s="129">
+        <v>98</v>
+      </c>
+      <c r="C102" s="50"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="126"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="24"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O102" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="13"/>
+      <c r="S102" s="43"/>
+    </row>
+    <row r="103" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="7"/>
+      <c r="B103" s="129">
+        <v>99</v>
+      </c>
+      <c r="C103" s="50"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="55"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="23">
+        <f t="shared" ref="H103:H104" si="14">F103*G103</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="24"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O103" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="13"/>
+      <c r="S103" s="43"/>
+    </row>
+    <row r="104" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="7"/>
+      <c r="B104" s="129">
+        <v>100</v>
+      </c>
+      <c r="C104" s="50"/>
+      <c r="D104" s="126"/>
+      <c r="E104" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="55"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="24"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="42" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O104" s="20"/>
+      <c r="P104" s="42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="13"/>
+      <c r="S104" s="43"/>
+    </row>
+    <row r="105" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="7"/>
+      <c r="B105" s="129">
+        <v>101</v>
+      </c>
+      <c r="C105" s="50"/>
+      <c r="D105" s="126"/>
+      <c r="E105" s="126"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="23" t="e">
+        <f>#REF!*G105</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I105" s="24"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="42" t="e">
+        <f t="shared" ref="N105:N108" si="15">(J105-K105)/K105</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="13"/>
+      <c r="S105" s="43"/>
+    </row>
+    <row r="106" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="7"/>
+      <c r="B106" s="129">
+        <v>102</v>
+      </c>
+      <c r="C106" s="50"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="23" t="e">
+        <f>#REF!*G106</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I106" s="24"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="42" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="13"/>
+      <c r="S106" s="43"/>
+    </row>
+    <row r="107" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="129">
+        <v>103</v>
+      </c>
+      <c r="C107" s="50"/>
+      <c r="D107" s="126"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" s="36"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="42" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="13"/>
+      <c r="S107" s="43"/>
+    </row>
+    <row r="108" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="129">
+        <v>103</v>
+      </c>
+      <c r="C108" s="50"/>
+      <c r="D108" s="126"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="42" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="13"/>
+      <c r="S108" s="43"/>
+    </row>
+    <row r="109" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="14"/>
+      <c r="C109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="25" t="e">
-        <f>SUM(H3:H95)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I96" s="25"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="101">
-        <f>SUMPRODUCT((K3:K94)*(L3:L94))</f>
-        <v>74509.45</v>
-      </c>
-      <c r="L96" s="102"/>
-      <c r="M96" s="40">
-        <f>SUM(M3:M95)</f>
-        <v>75505.06</v>
-      </c>
-      <c r="N96" s="42">
-        <f>(O96)/K96</f>
-        <v>6.7656250314557437E-2</v>
-      </c>
-      <c r="O96" s="34">
-        <f>SUM(O3:O95)</f>
-        <v>5041.0300000000016</v>
-      </c>
-      <c r="P96" s="21"/>
-      <c r="Q96" s="16"/>
-      <c r="S96" s="39"/>
-    </row>
-    <row r="99" spans="3:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D99" s="47"/>
-    </row>
-    <row r="100" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="45"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-    </row>
-    <row r="104" spans="3:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D104" s="105"/>
-    </row>
-    <row r="115" spans="4:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D115" s="47"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="25" t="e">
+        <f>SUM(H3:H108)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I109" s="25"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="101">
+        <f>SUMPRODUCT((K3:K107)*(L3:L107))</f>
+        <v>83844.58</v>
+      </c>
+      <c r="L109" s="102"/>
+      <c r="M109" s="40">
+        <f>SUM(M3:M108)</f>
+        <v>85130.67</v>
+      </c>
+      <c r="N109" s="42">
+        <f>(O109)/K109</f>
+        <v>6.3588010101547382E-2</v>
+      </c>
+      <c r="O109" s="34">
+        <f>SUM(O3:O108)</f>
+        <v>5331.5099999999975</v>
+      </c>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="16"/>
+      <c r="S109" s="39"/>
+    </row>
+    <row r="112" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D112" s="47"/>
+    </row>
+    <row r="113" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="45"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+    </row>
+    <row r="117" spans="3:6" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D117" s="105"/>
+    </row>
+    <row r="128" spans="3:6" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D128" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W96" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:U91">
-    <sortCondition ref="B3:B91"/>
+  <autoFilter ref="A2:W109" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:U104">
+    <sortCondition ref="B3:B104"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="S1:S2"/>
@@ -8818,7 +9514,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O43 N43:N96 O44:O90">
+  <conditionalFormatting sqref="N3:O43 N43:N109 O44:O103">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -8826,11 +9522,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32" xr:uid="{DCE927E3-C8F5-4EBD-B4AD-D48AD216AA54}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I95" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I108" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
       <formula1>"买,卖,中,清"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8858,7 +9554,7 @@
   <dimension ref="C1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9302,17 +9998,17 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId4" name="Control 12">
+        <control shapeId="3073" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -9322,13 +10018,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3084" r:id="rId4" name="Control 12"/>
+        <control shapeId="3073" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId6" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -9337,47 +10033,22 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3083" r:id="rId6" name="Control 11"/>
+        <control shapeId="3074" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId7" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3082" r:id="rId7" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId8" name="Control 9">
+        <control shapeId="3075" r:id="rId8" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -9397,12 +10068,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId8" name="Control 9"/>
+        <control shapeId="3075" r:id="rId8" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId10" name="Control 8">
+        <control shapeId="3076" r:id="rId10" name="Control 4">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -9422,12 +10093,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId10" name="Control 8"/>
+        <control shapeId="3076" r:id="rId10" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId11" name="Control 7">
+        <control shapeId="3077" r:id="rId11" name="Control 5">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -9447,7 +10118,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId11" name="Control 7"/>
+        <control shapeId="3077" r:id="rId11" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9477,7 +10148,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId13" name="Control 5">
+        <control shapeId="3079" r:id="rId13" name="Control 7">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -9497,12 +10168,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId13" name="Control 5"/>
+        <control shapeId="3079" r:id="rId13" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId14" name="Control 4">
+        <control shapeId="3080" r:id="rId14" name="Control 8">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -9522,12 +10193,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId14" name="Control 4"/>
+        <control shapeId="3080" r:id="rId14" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId15" name="Control 3">
+        <control shapeId="3081" r:id="rId15" name="Control 9">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -9547,13 +10218,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId15" name="Control 3"/>
+        <control shapeId="3081" r:id="rId15" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId16" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId17">
+        <control shapeId="3082" r:id="rId16" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -9562,32 +10233,7 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId16" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId18" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -9597,7 +10243,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId18" name="Control 1"/>
+        <control shapeId="3082" r:id="rId16" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3083" r:id="rId17" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3083" r:id="rId17" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3084" r:id="rId18" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3084" r:id="rId18" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9648,14 +10344,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144" t="s">
+      <c r="B1" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="145"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB04201-3CB1-4289-BAFC-CEB28B96B35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46916FBA-D00F-4FD8-9E38-3EB436932981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="5925" yWindow="900" windowWidth="22920" windowHeight="13830" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="s" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CB低价-每周一支定投'!$A$2:$W$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CB低价-每周一支定投'!$A$2:$W$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="152">
   <si>
     <t>收入</t>
   </si>
@@ -512,33 +512,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、搜特转债，偏离-9%，收盘96</t>
-  </si>
-  <si>
-    <t>2、广汇转债，偏离-4%，收盘93</t>
-  </si>
-  <si>
-    <t>3、大秦转债，偏离-2%，收盘108</t>
-  </si>
-  <si>
-    <t>4、利群转债，偏离-1%，收盘112</t>
-  </si>
-  <si>
-    <t>5、景兴转债，偏离-1%，收盘119</t>
-  </si>
-  <si>
-    <t>6、中银转债，偏离-1%，收盘108</t>
-  </si>
-  <si>
-    <t>7、青农转债，偏离-1%，收盘103</t>
-  </si>
-  <si>
-    <t>8、重银转债，偏离 0%，收盘100</t>
-  </si>
-  <si>
-    <t>9、无锡转债，偏离 0%，收盘118</t>
-  </si>
-  <si>
     <t>正股3连板</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -588,10 +561,53 @@
     <t>科达转债</t>
   </si>
   <si>
-    <t>长集转债</t>
-  </si>
-  <si>
     <t>盈峰转债</t>
+  </si>
+  <si>
+    <t>全筑转债103元，正川转债105元，晨丰转债106元，众兴转债107元，翔鹭转债107元，华源转债108元，威派转债108元，华阳转债109元，瀛通转债109元，正丹转债110元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3146点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞丰转债</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>威派转债</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天沪指大跌2.41.深-3.34%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、孚日转债，偏离 1%，收盘115</t>
+  </si>
+  <si>
+    <t>9、海亮转债，偏离 2%，收盘119</t>
+  </si>
+  <si>
+    <t>全筑转债103元，众兴转债106元，正川转债106元，威派转债107元，晨丰转债107元，华阳转债107元，翔鹭转债107元，瀛通转债109元，华源转债109元，博世转债110元。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>博世转债110元。</t>
+  </si>
+  <si>
+    <t>华源转债109元，</t>
+  </si>
+  <si>
+    <t>瀛通转债109元，</t>
+  </si>
+  <si>
+    <t>华阳转债107元，翔鹭转债107元，</t>
+  </si>
+  <si>
+    <t>正川转债106元 晨丰转债107元，</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1017,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1476,6 +1492,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1546,7 +1566,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1795,6 +1829,12 @@
                 <c:pt idx="20">
                   <c:v>44696</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44709</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1866,6 +1906,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6290.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7890</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8015.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,6 +2065,12 @@
                 <c:pt idx="20">
                   <c:v>44696</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44709</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2090,6 +2142,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6.2799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5399999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3700000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,50 +2975,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3076090</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28354</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5372100" y="771525"/>
-          <a:ext cx="3876190" cy="1771429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3261,10 +3275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3525,6 +3539,34 @@
         <v>6.2799999999999995E-2</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="31">
+        <v>44702</v>
+      </c>
+      <c r="B23" s="53">
+        <v>7890</v>
+      </c>
+      <c r="C23" s="32">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="31">
+        <v>44709</v>
+      </c>
+      <c r="B24" s="53">
+        <v>8015.17</v>
+      </c>
+      <c r="C24" s="32">
+        <v>7.3700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3535,11 +3577,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W213"/>
+  <dimension ref="A1:W212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K136" sqref="K136"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O197" sqref="O197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3565,49 +3607,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155"/>
-      <c r="B1" s="161" t="s">
+      <c r="A1" s="156"/>
+      <c r="B1" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="159" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="157" t="s">
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="153" t="s">
+      <c r="S1" s="154" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>31</v>
@@ -3639,11 +3681,11 @@
       <c r="P2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="158"/>
+      <c r="Q2" s="159"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="154"/>
+      <c r="S2" s="155"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115"/>
@@ -3673,7 +3715,7 @@
         <v>81</v>
       </c>
       <c r="J3" s="12">
-        <v>109.57899999999999</v>
+        <v>111.26900000000001</v>
       </c>
       <c r="K3" s="12">
         <v>101.267</v>
@@ -3683,19 +3725,19 @@
       </c>
       <c r="M3" s="11">
         <f t="shared" ref="M3:M34" si="0">J3*L3</f>
-        <v>1095.79</v>
+        <v>1112.69</v>
       </c>
       <c r="N3" s="25">
         <f t="shared" ref="N3:N34" si="1">(J3-K3)/K3</f>
-        <v>8.2080045819467332E-2</v>
+        <v>9.8768601815003992E-2</v>
       </c>
       <c r="O3" s="11">
         <f>(J3-K3)*L3</f>
-        <v>83.119999999999976</v>
+        <v>100.0200000000001</v>
       </c>
       <c r="P3" s="25">
-        <f t="shared" ref="P3:P34" si="2">M3/$M$194</f>
-        <v>1.0860143504260749E-2</v>
+        <f t="shared" ref="P3:P34" si="2">M3/$M$193</f>
+        <v>1.0229597552229385E-2</v>
       </c>
       <c r="Q3" s="139"/>
       <c r="R3" s="77"/>
@@ -3730,7 +3772,7 @@
         <v>81</v>
       </c>
       <c r="J4" s="12">
-        <v>103.78</v>
+        <v>104.03</v>
       </c>
       <c r="K4" s="12">
         <v>98.05</v>
@@ -3740,19 +3782,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>1037.8</v>
+        <v>1040.3</v>
       </c>
       <c r="N4" s="25">
         <f t="shared" si="1"/>
-        <v>5.8439571647118861E-2</v>
+        <v>6.0989291177970466E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>57.30000000000004</v>
+        <v>59.80000000000004</v>
       </c>
       <c r="P4" s="25">
         <f t="shared" si="2"/>
-        <v>1.0285416848777417E-2</v>
+        <v>9.5640747500060456E-3</v>
       </c>
       <c r="Q4" s="140"/>
       <c r="S4" s="26"/>
@@ -3838,7 +3880,7 @@
         <v>81</v>
       </c>
       <c r="J6" s="12">
-        <v>121.18</v>
+        <v>122.18</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -3848,19 +3890,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1211.8000000000002</v>
+        <v>1221.8000000000002</v>
       </c>
       <c r="N6" s="25">
         <f t="shared" si="1"/>
-        <v>0.27061685417999198</v>
+        <v>0.28110222184940931</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>258.09000000000015</v>
+        <v>268.09000000000015</v>
       </c>
       <c r="P6" s="25">
         <f t="shared" si="2"/>
-        <v>1.2009894138898126E-2</v>
+        <v>1.123270838177198E-2</v>
       </c>
       <c r="Q6" s="140"/>
       <c r="R6" s="64"/>
@@ -3893,7 +3935,7 @@
         <v>81</v>
       </c>
       <c r="J7" s="12">
-        <v>116.899</v>
+        <v>114.89</v>
       </c>
       <c r="K7" s="12">
         <v>86.438000000000002</v>
@@ -3903,19 +3945,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>3506.9700000000003</v>
+        <v>3446.7</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="1"/>
-        <v>0.35240287836368261</v>
+        <v>0.32916078576551977</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>913.82999999999993</v>
+        <v>853.56</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" si="2"/>
-        <v>3.4756839782382865E-2</v>
+        <v>3.168749057084095E-2</v>
       </c>
       <c r="Q7" s="140"/>
       <c r="S7" s="26"/>
@@ -3946,7 +3988,7 @@
         <v>81</v>
       </c>
       <c r="J8" s="12">
-        <v>111.95</v>
+        <v>110.48</v>
       </c>
       <c r="K8" s="12">
         <v>102.07</v>
@@ -3956,19 +3998,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>1119.5</v>
+        <v>1104.8</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="1"/>
-        <v>9.679631625355159E-2</v>
+        <v>8.2394435191535331E-2</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>98.800000000000097</v>
+        <v>84.100000000000108</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" si="2"/>
-        <v>1.1095128312012254E-2</v>
+        <v>1.0157060255509642E-2</v>
       </c>
       <c r="Q8" s="140"/>
       <c r="S8" s="26"/>
@@ -3995,7 +4037,7 @@
         <v>81</v>
       </c>
       <c r="J9" s="12">
-        <v>108.4</v>
+        <v>109.6</v>
       </c>
       <c r="K9" s="12">
         <v>98.92</v>
@@ -4005,19 +4047,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="1"/>
-        <v>9.5835018196522487E-2</v>
+        <v>0.10796603315810749</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>94.80000000000004</v>
+        <v>106.79999999999993</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="2"/>
-        <v>1.0743295301671535E-2</v>
+        <v>1.0076156806696749E-2</v>
       </c>
       <c r="Q9" s="140"/>
       <c r="S9" s="26"/>
@@ -4047,7 +4089,7 @@
         <v>81</v>
       </c>
       <c r="J10" s="12">
-        <v>115.32</v>
+        <v>120.16</v>
       </c>
       <c r="K10" s="12">
         <v>100.15</v>
@@ -4057,19 +4099,19 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>2306.3999999999996</v>
+        <v>2403.1999999999998</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="1"/>
-        <v>0.15147279081377921</v>
+        <v>0.19980029955067388</v>
       </c>
       <c r="O10" s="11">
         <f>(J10-K10)*L10</f>
-        <v>303.39999999999975</v>
+        <v>400.19999999999982</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="2"/>
-        <v>2.2858243804220687E-2</v>
+        <v>2.2093996384902941E-2</v>
       </c>
       <c r="Q10" s="140"/>
       <c r="S10" s="26"/>
@@ -4203,7 +4245,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="12">
-        <v>102.69</v>
+        <v>104.89</v>
       </c>
       <c r="K13" s="12">
         <v>98.8</v>
@@ -4213,19 +4255,19 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>1026.9000000000001</v>
+        <v>1048.9000000000001</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="1"/>
-        <v>3.9372469635627537E-2</v>
+        <v>6.163967611336036E-2</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>38.900000000000006</v>
+        <v>60.900000000000034</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="2"/>
-        <v>1.0177389248419282E-2</v>
+        <v>9.6431394840731932E-3</v>
       </c>
       <c r="Q13" s="140"/>
       <c r="S13" s="26"/>
@@ -4300,7 +4342,7 @@
         <v>81</v>
       </c>
       <c r="J15" s="12">
-        <v>114.20399999999999</v>
+        <v>117.59</v>
       </c>
       <c r="K15" s="12">
         <v>97.131</v>
@@ -4310,19 +4352,19 @@
       </c>
       <c r="M15" s="11">
         <f t="shared" si="0"/>
-        <v>1142.04</v>
+        <v>1175.9000000000001</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="1"/>
-        <v>0.17577292522469648</v>
+        <v>0.21063306256498959</v>
       </c>
       <c r="O15" s="11">
         <f t="shared" ref="O15:O24" si="3">(J15-K15)*L15</f>
-        <v>170.72999999999993</v>
+        <v>204.59000000000003</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="2"/>
-        <v>1.1318517496606052E-2</v>
+        <v>1.0810723347622907E-2</v>
       </c>
       <c r="Q15" s="140"/>
       <c r="R15" s="43"/>
@@ -4399,7 +4441,7 @@
         <v>81</v>
       </c>
       <c r="J17" s="12">
-        <v>116.31</v>
+        <v>117.14</v>
       </c>
       <c r="K17" s="12">
         <v>116.52</v>
@@ -4409,19 +4451,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>10467.9</v>
+        <v>10542.6</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="1"/>
-        <v>-1.8022657054582369E-3</v>
+        <v>5.3209749399245158E-3</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>-18.899999999999437</v>
+        <v>55.800000000000409</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="2"/>
-        <v>0.1037451484210032</v>
+        <v>9.6924170392592282E-2</v>
       </c>
       <c r="Q17" s="140"/>
       <c r="S17" s="52"/>
@@ -4454,7 +4496,7 @@
         <v>81</v>
       </c>
       <c r="J18" s="12">
-        <v>108.47</v>
+        <v>108.9</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -4464,19 +4506,19 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2169.4</v>
+        <v>2178</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="1"/>
-        <v>-1.3349905629977078E-3</v>
+        <v>2.6239469686508386E-3</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>-2.8999999999999204</v>
+        <v>5.700000000000216</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="2"/>
-        <v>2.1500465707976226E-2</v>
+        <v>2.0023603581191166E-2</v>
       </c>
       <c r="Q18" s="140"/>
       <c r="R18" s="56"/>
@@ -4510,29 +4552,29 @@
         <v>81</v>
       </c>
       <c r="J19" s="12">
-        <v>98</v>
+        <v>99.36</v>
       </c>
       <c r="K19" s="12">
-        <v>90.834000000000003</v>
+        <v>92.355999999999995</v>
       </c>
       <c r="L19" s="12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>4900</v>
+        <v>5961.6</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="1"/>
-        <v>7.8891164101547839E-2</v>
+        <v>7.5836978647841016E-2</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>358.29999999999984</v>
+        <v>420.24000000000029</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="2"/>
-        <v>4.8562866216042916E-2</v>
+        <v>5.4808409141243922E-2</v>
       </c>
       <c r="Q19" s="140"/>
       <c r="S19" s="26"/>
@@ -4564,7 +4606,7 @@
         <v>81</v>
       </c>
       <c r="J20" s="12">
-        <v>98.93</v>
+        <v>99.52</v>
       </c>
       <c r="K20" s="12">
         <v>98.93</v>
@@ -4574,19 +4616,19 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>2967.9</v>
+        <v>2985.6</v>
       </c>
       <c r="N20" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9638127969270103E-3</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.699999999999676</v>
       </c>
       <c r="P20" s="25">
         <f t="shared" si="2"/>
-        <v>2.9414230743386487E-2</v>
+        <v>2.7448333724519901E-2</v>
       </c>
       <c r="Q20" s="140"/>
       <c r="S20" s="26"/>
@@ -4618,7 +4660,7 @@
         <v>81</v>
       </c>
       <c r="J21" s="12">
-        <v>110.559</v>
+        <v>111.38</v>
       </c>
       <c r="K21" s="12">
         <v>97.37</v>
@@ -4628,19 +4670,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>1105.5899999999999</v>
+        <v>1113.8</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="1"/>
-        <v>0.13545239806922041</v>
+        <v>0.14388415322994752</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>131.88999999999993</v>
+        <v>140.09999999999991</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="2"/>
-        <v>1.0957269236692834E-2</v>
+        <v>1.0239802419068283E-2</v>
       </c>
       <c r="Q21" s="140"/>
       <c r="S21" s="26"/>
@@ -4672,29 +4714,29 @@
         <v>81</v>
       </c>
       <c r="J22" s="12">
-        <v>107.4</v>
+        <v>112.87</v>
       </c>
       <c r="K22" s="12">
-        <v>78.125</v>
+        <v>75.108000000000004</v>
       </c>
       <c r="L22" s="12">
         <v>40</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="0"/>
-        <v>4296</v>
+        <v>4514.8</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="1"/>
-        <v>0.37472000000000005</v>
+        <v>0.50276934547584806</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>1171.0000000000002</v>
+        <v>1510.48</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="2"/>
-        <v>4.2576749645738855E-2</v>
+        <v>4.1507146670505916E-2</v>
       </c>
       <c r="Q22" s="140"/>
       <c r="S22" s="26"/>
@@ -4725,7 +4767,7 @@
         <v>81</v>
       </c>
       <c r="J23" s="12">
-        <v>95.74</v>
+        <v>98.31</v>
       </c>
       <c r="K23" s="12">
         <v>97.644999999999996</v>
@@ -4735,19 +4777,19 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>1914.8</v>
+        <v>1966.2</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="1"/>
-        <v>-1.9509447488350672E-2</v>
+        <v>6.8103845563009498E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>-38.100000000000023</v>
+        <v>13.300000000000125</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="2"/>
-        <v>1.8977178822546729E-2</v>
+        <v>1.8076404665444478E-2</v>
       </c>
       <c r="Q23" s="140"/>
       <c r="S23" s="26"/>
@@ -4877,7 +4919,7 @@
         <v>67</v>
       </c>
       <c r="J26" s="12">
-        <v>106.652</v>
+        <v>107.47199999999999</v>
       </c>
       <c r="K26" s="12">
         <v>104.497</v>
@@ -4887,19 +4929,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1066.52</v>
+        <v>1074.72</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="1"/>
-        <v>2.0622601605787737E-2</v>
+        <v>2.846971683397604E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>21.550000000000011</v>
+        <v>29.749999999999943</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="2"/>
-        <v>1.057005470953757E-2</v>
+        <v>9.8805175577492063E-3</v>
       </c>
       <c r="Q26" s="140"/>
       <c r="S26" s="26"/>
@@ -4976,7 +5018,7 @@
         <v>67</v>
       </c>
       <c r="J28" s="12">
-        <v>113.79</v>
+        <v>114.1</v>
       </c>
       <c r="K28" s="12">
         <v>127.886</v>
@@ -4986,19 +5028,19 @@
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>5689.5</v>
+        <v>5705</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="1"/>
-        <v>-0.11022316750856223</v>
+        <v>-0.10779913360336552</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-704.7999999999995</v>
+        <v>-689.30000000000007</v>
       </c>
       <c r="P28" s="25">
         <f t="shared" si="2"/>
-        <v>5.6387434150240036E-2</v>
+        <v>5.2449338122449771E-2</v>
       </c>
       <c r="Q28" s="140" t="s">
         <v>69</v>
@@ -5084,29 +5126,29 @@
         <v>67</v>
       </c>
       <c r="J30" s="12">
-        <v>102.55</v>
+        <v>104.83</v>
       </c>
       <c r="K30" s="12">
-        <v>100.05</v>
+        <v>101.34</v>
       </c>
       <c r="L30" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>2051</v>
+        <v>3144.9</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="1"/>
-        <v>2.4987506246876564E-2</v>
+        <v>3.4438523781330124E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>50</v>
+        <v>104.69999999999985</v>
       </c>
       <c r="P30" s="25">
         <f t="shared" si="2"/>
-        <v>2.0327028287572251E-2</v>
+        <v>2.891287001950785E-2</v>
       </c>
       <c r="Q30" s="140"/>
       <c r="S30" s="26"/>
@@ -5138,7 +5180,7 @@
         <v>67</v>
       </c>
       <c r="J31" s="12">
-        <v>114.27</v>
+        <v>112.985</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -5148,19 +5190,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1142.7</v>
+        <v>1129.8499999999999</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="1"/>
-        <v>0.12447230395292314</v>
+        <v>0.11182727979453071</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>126.49000000000001</v>
+        <v>113.64000000000004</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="2"/>
-        <v>1.1325058617361683E-2</v>
+        <v>1.0387359277414526E-2</v>
       </c>
       <c r="Q31" s="140"/>
       <c r="R31" s="7"/>
@@ -5243,7 +5285,7 @@
         <v>67</v>
       </c>
       <c r="J33" s="12">
-        <v>99.069000000000003</v>
+        <v>99.93</v>
       </c>
       <c r="K33" s="12">
         <v>93.847999999999999</v>
@@ -5253,19 +5295,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>2972.07</v>
+        <v>2997.9</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="1"/>
-        <v>5.5632512147302061E-2</v>
+        <v>6.4806921831046027E-2</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>156.63000000000011</v>
+        <v>182.46000000000024</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="2"/>
-        <v>2.9455558733615241E-2</v>
+        <v>2.756141468138338E-2</v>
       </c>
       <c r="Q33" s="140"/>
       <c r="R33" s="8"/>
@@ -5349,29 +5391,29 @@
         <v>67</v>
       </c>
       <c r="J35" s="12">
-        <v>95.42</v>
+        <v>99.03</v>
       </c>
       <c r="K35" s="12">
-        <v>97.366</v>
+        <v>98.037000000000006</v>
       </c>
       <c r="L35" s="12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" ref="M35:M66" si="6">J35*L35</f>
-        <v>4771</v>
+        <f t="shared" ref="M35:M60" si="6">J35*L35</f>
+        <v>5941.8</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" ref="N35:N60" si="7">(J35-K35)/K35</f>
-        <v>-1.9986442906147917E-2</v>
+        <v>1.0128828911533348E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>-97.299999999999898</v>
+        <v>59.5799999999997</v>
       </c>
       <c r="P35" s="25">
-        <f t="shared" ref="P35:P66" si="8">M35/$M$194</f>
-        <v>4.7284374431987908E-2</v>
+        <f t="shared" ref="P35:P66" si="8">M35/$M$193</f>
+        <v>5.4626376381414911E-2</v>
       </c>
       <c r="Q35" s="140"/>
       <c r="S35" s="26"/>
@@ -5891,7 +5933,7 @@
         <v>81</v>
       </c>
       <c r="J46" s="12">
-        <v>118.83199999999999</v>
+        <v>121.697</v>
       </c>
       <c r="K46" s="12">
         <v>135.96700000000001</v>
@@ -5901,19 +5943,19 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>8318.24</v>
+        <v>8518.7900000000009</v>
       </c>
       <c r="N46" s="25">
         <f t="shared" si="7"/>
-        <v>-0.12602322622401038</v>
+        <v>-0.10495193686703398</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-1199.4500000000014</v>
+        <v>-998.90000000000077</v>
       </c>
       <c r="P46" s="25">
         <f t="shared" si="8"/>
-        <v>8.2440321688354454E-2</v>
+        <v>7.8318123944635221E-2</v>
       </c>
       <c r="Q46" s="140"/>
       <c r="S46" s="26"/>
@@ -5946,7 +5988,7 @@
         <v>81</v>
       </c>
       <c r="J47" s="12">
-        <v>113.29900000000001</v>
+        <v>115.345</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -5956,19 +5998,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2265.98</v>
+        <v>2306.9</v>
       </c>
       <c r="N47" s="25">
         <f t="shared" si="7"/>
-        <v>-2.2526097834526703E-2</v>
+        <v>-4.8744715727719592E-3</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>-52.2199999999998</v>
+        <v>-11.299999999999955</v>
       </c>
       <c r="P47" s="25">
         <f t="shared" si="8"/>
-        <v>2.2457649711883455E-2</v>
+        <v>2.1208655234825482E-2</v>
       </c>
       <c r="Q47" s="140"/>
       <c r="S47" s="26"/>
@@ -6050,7 +6092,7 @@
         <v>81</v>
       </c>
       <c r="J49" s="12">
-        <v>122.09</v>
+        <v>114.44</v>
       </c>
       <c r="K49" s="12">
         <v>114.46</v>
@@ -6060,19 +6102,19 @@
       </c>
       <c r="M49" s="11">
         <f t="shared" si="6"/>
-        <v>1220.9000000000001</v>
+        <v>1144.4000000000001</v>
       </c>
       <c r="N49" s="25">
         <f t="shared" si="7"/>
-        <v>6.6660842215621269E-2</v>
+        <v>-1.7473353136463412E-4</v>
       </c>
       <c r="O49" s="11">
         <f t="shared" si="9"/>
-        <v>76.300000000000097</v>
+        <v>-0.19999999999996021</v>
       </c>
       <c r="P49" s="25">
         <f t="shared" si="8"/>
-        <v>1.2100082319013633E-2</v>
+        <v>1.0521125775167664E-2</v>
       </c>
       <c r="Q49" s="140"/>
       <c r="S49" s="26"/>
@@ -6683,7 +6725,7 @@
         <v>81</v>
       </c>
       <c r="J62" s="12">
-        <v>103.27800000000001</v>
+        <v>111.2</v>
       </c>
       <c r="K62" s="12">
         <v>101.25</v>
@@ -6693,19 +6735,19 @@
       </c>
       <c r="M62" s="11">
         <f t="shared" ref="M62:M68" si="11">J62*L62</f>
-        <v>2065.56</v>
+        <v>2224</v>
       </c>
       <c r="N62" s="25">
         <f t="shared" ref="N62:N96" si="12">(J62-K62)/K62</f>
-        <v>2.0029629629629685E-2</v>
+        <v>9.8271604938271639E-2</v>
       </c>
       <c r="O62" s="11">
         <f t="shared" si="9"/>
-        <v>40.560000000000116</v>
+        <v>199.00000000000006</v>
       </c>
       <c r="P62" s="25">
         <f t="shared" si="8"/>
-        <v>2.0471329375757064E-2</v>
+        <v>2.0446507972713111E-2</v>
       </c>
       <c r="Q62" s="140"/>
       <c r="S62" s="26"/>
@@ -6934,7 +6976,7 @@
         <v>81</v>
       </c>
       <c r="J67" s="12">
-        <v>105.111</v>
+        <v>106.282</v>
       </c>
       <c r="K67" s="12">
         <v>106.304</v>
@@ -6944,19 +6986,19 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>1051.1100000000001</v>
+        <v>1062.82</v>
       </c>
       <c r="N67" s="25">
         <f t="shared" si="12"/>
-        <v>-1.1222531607465362E-2</v>
+        <v>-2.0695364238415835E-4</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>-11.929999999999978</v>
+        <v>-0.22000000000005571</v>
       </c>
       <c r="P67" s="25">
-        <f t="shared" ref="P67:P96" si="13">M67/$M$194</f>
-        <v>1.0417329450682628E-2</v>
+        <f t="shared" ref="P67:P96" si="13">M67/$M$193</f>
+        <v>9.7711140303772242E-3</v>
       </c>
       <c r="Q67" s="140"/>
       <c r="S67" s="26"/>
@@ -6989,7 +7031,7 @@
         <v>81</v>
       </c>
       <c r="J68" s="12">
-        <v>105</v>
+        <v>106.255</v>
       </c>
       <c r="K68" s="12">
         <v>106.405</v>
@@ -6999,19 +7041,19 @@
       </c>
       <c r="M68" s="11">
         <f t="shared" si="11"/>
-        <v>1050</v>
+        <v>1062.55</v>
       </c>
       <c r="N68" s="25">
         <f t="shared" si="12"/>
-        <v>-1.3204266716789636E-2</v>
+        <v>-1.4097081904046397E-3</v>
       </c>
       <c r="O68" s="11">
         <f t="shared" si="9"/>
-        <v>-14.050000000000011</v>
+        <v>-1.5000000000000568</v>
       </c>
       <c r="P68" s="25">
         <f t="shared" si="13"/>
-        <v>1.040632847486634E-2</v>
+        <v>9.7686317654704646E-3</v>
       </c>
       <c r="Q68" s="140"/>
       <c r="S68" s="26"/>
@@ -7088,7 +7130,7 @@
         <v>67</v>
       </c>
       <c r="J70" s="12">
-        <v>97.08</v>
+        <v>100.3</v>
       </c>
       <c r="K70" s="12">
         <v>98.132000000000005</v>
@@ -7098,19 +7140,19 @@
       </c>
       <c r="M70" s="11">
         <f t="shared" ref="M70:M96" si="14">J70*L70</f>
-        <v>6795.5999999999995</v>
+        <v>7021</v>
       </c>
       <c r="N70" s="25">
         <f t="shared" si="12"/>
-        <v>-1.0720254351282014E-2</v>
+        <v>2.2092691476786289E-2</v>
       </c>
       <c r="O70" s="11">
         <f>(J70-K70)*L70</f>
-        <v>-73.64000000000047</v>
+        <v>151.75999999999945</v>
       </c>
       <c r="P70" s="25">
         <f t="shared" si="13"/>
-        <v>6.7349757889334949E-2</v>
+        <v>6.4548081149468861E-2</v>
       </c>
       <c r="Q70" s="140"/>
       <c r="S70" s="26"/>
@@ -7194,7 +7236,7 @@
         <v>67</v>
       </c>
       <c r="J72" s="12">
-        <v>103.566</v>
+        <v>104.551</v>
       </c>
       <c r="K72" s="12">
         <v>104.511</v>
@@ -7204,19 +7246,19 @@
       </c>
       <c r="M72" s="11">
         <f t="shared" si="14"/>
-        <v>1035.6600000000001</v>
+        <v>1045.51</v>
       </c>
       <c r="N72" s="25">
         <f t="shared" si="12"/>
-        <v>-9.0421103998621511E-3</v>
+        <v>3.8273483174025943E-4</v>
       </c>
       <c r="O72" s="11">
         <f>(J72-K72)*L72</f>
-        <v>-9.4499999999999318</v>
+        <v>0.40000000000006253</v>
       </c>
       <c r="P72" s="25">
         <f t="shared" si="13"/>
-        <v>1.0264207760266738E-2</v>
+        <v>9.611973269132771E-3</v>
       </c>
       <c r="Q72" s="140"/>
       <c r="S72" s="26"/>
@@ -7249,7 +7291,7 @@
         <v>67</v>
       </c>
       <c r="J73" s="12">
-        <v>117.79</v>
+        <v>118.38</v>
       </c>
       <c r="K73" s="12">
         <v>115.82</v>
@@ -7259,19 +7301,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1177.9000000000001</v>
+        <v>1183.8</v>
       </c>
       <c r="N73" s="25">
         <f t="shared" si="12"/>
-        <v>1.7009152132619696E-2</v>
+        <v>2.2103263685028515E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>19.700000000000131</v>
+        <v>25.600000000000023</v>
       </c>
       <c r="P73" s="25">
         <f t="shared" si="13"/>
-        <v>1.1673918390995297E-2</v>
+        <v>1.0883352580079936E-2</v>
       </c>
       <c r="Q73" s="140"/>
       <c r="S73" s="26"/>
@@ -7304,7 +7346,7 @@
         <v>67</v>
       </c>
       <c r="J74" s="12">
-        <v>112.54</v>
+        <v>114.11499999999999</v>
       </c>
       <c r="K74" s="12">
         <v>113.021</v>
@@ -7314,19 +7356,19 @@
       </c>
       <c r="M74" s="11">
         <f t="shared" si="14"/>
-        <v>1125.4000000000001</v>
+        <v>1141.1499999999999</v>
       </c>
       <c r="N74" s="25">
         <f t="shared" si="12"/>
-        <v>-4.2558462586598468E-3</v>
+        <v>9.6796170623157998E-3</v>
       </c>
       <c r="O74" s="11">
         <f>(J74-K74)*L74</f>
-        <v>-4.8099999999999454</v>
+        <v>10.939999999999941</v>
       </c>
       <c r="P74" s="25">
         <f t="shared" si="13"/>
-        <v>1.1153601967251981E-2</v>
+        <v>1.0491246660549264E-2</v>
       </c>
       <c r="Q74" s="140"/>
       <c r="S74" s="26"/>
@@ -7506,7 +7548,7 @@
         <v>67</v>
       </c>
       <c r="J78" s="12">
-        <v>103.97</v>
+        <v>103.78</v>
       </c>
       <c r="K78" s="12">
         <v>105.63</v>
@@ -7516,19 +7558,19 @@
       </c>
       <c r="M78" s="11">
         <f t="shared" si="14"/>
-        <v>1039.7</v>
+        <v>1037.8</v>
       </c>
       <c r="N78" s="25">
         <f t="shared" si="12"/>
-        <v>-1.5715232415033576E-2</v>
+        <v>-1.7513963836031377E-2</v>
       </c>
       <c r="O78" s="11">
         <f t="shared" si="15"/>
-        <v>-16.599999999999966</v>
+        <v>-18.499999999999943</v>
       </c>
       <c r="P78" s="25">
         <f t="shared" si="13"/>
-        <v>1.0304247347922414E-2</v>
+        <v>9.5410908156842011E-3</v>
       </c>
       <c r="Q78" s="140"/>
       <c r="S78" s="26"/>
@@ -7610,7 +7652,7 @@
         <v>67</v>
       </c>
       <c r="J80" s="12">
-        <v>105.58</v>
+        <v>107.27</v>
       </c>
       <c r="K80" s="12">
         <v>109.09</v>
@@ -7620,19 +7662,19 @@
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>1055.8</v>
+        <v>1072.7</v>
       </c>
       <c r="N80" s="25">
         <f t="shared" si="12"/>
-        <v>-3.2175268127234438E-2</v>
+        <v>-1.6683472362269754E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-35.100000000000051</v>
+        <v>-18.200000000000074</v>
       </c>
       <c r="P80" s="25">
         <f t="shared" si="13"/>
-        <v>1.0463811051203696E-2</v>
+        <v>9.8619465388171557E-3</v>
       </c>
       <c r="Q80" s="140"/>
       <c r="S80" s="26"/>
@@ -7665,29 +7707,29 @@
         <v>67</v>
       </c>
       <c r="J81" s="12">
-        <v>105.95099999999999</v>
+        <v>106.1</v>
       </c>
       <c r="K81" s="12">
-        <v>110.19199999999999</v>
+        <v>107.741</v>
       </c>
       <c r="L81" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M81" s="11">
         <f t="shared" si="14"/>
-        <v>1059.51</v>
+        <v>2122</v>
       </c>
       <c r="N81" s="25">
         <f t="shared" si="12"/>
-        <v>-3.8487367503993029E-2</v>
+        <v>-1.5230970568307379E-2</v>
       </c>
       <c r="O81" s="11">
         <f t="shared" si="15"/>
-        <v>-42.41</v>
+        <v>-32.820000000000107</v>
       </c>
       <c r="P81" s="25">
         <f t="shared" si="13"/>
-        <v>1.0500580078481557E-2</v>
+        <v>1.9508763452381842E-2</v>
       </c>
       <c r="Q81" s="140"/>
       <c r="S81" s="26"/>
@@ -7768,7 +7810,7 @@
         <v>67</v>
       </c>
       <c r="J83" s="12">
-        <v>101.9</v>
+        <v>103.843</v>
       </c>
       <c r="K83" s="12">
         <v>102.289</v>
@@ -7778,19 +7820,19 @@
       </c>
       <c r="M83" s="11">
         <f t="shared" si="14"/>
-        <v>3057</v>
+        <v>3115.29</v>
       </c>
       <c r="N83" s="25">
         <f t="shared" si="12"/>
-        <v>-3.8029504638817054E-3</v>
+        <v>1.5192249410982628E-2</v>
       </c>
       <c r="O83" s="11">
         <f t="shared" si="15"/>
-        <v>-11.669999999999874</v>
+        <v>46.620000000000061</v>
       </c>
       <c r="P83" s="25">
         <f t="shared" si="13"/>
-        <v>3.029728204539657E-2</v>
+        <v>2.864064830139992E-2</v>
       </c>
       <c r="Q83" s="140"/>
       <c r="S83" s="26"/>
@@ -7823,7 +7865,7 @@
         <v>67</v>
       </c>
       <c r="J84" s="12">
-        <v>120.483</v>
+        <v>121.54</v>
       </c>
       <c r="K84" s="12">
         <v>120.73099999999999</v>
@@ -7833,19 +7875,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" si="14"/>
-        <v>1204.83</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="N84" s="25">
         <f t="shared" si="12"/>
-        <v>-2.0541534485756805E-3</v>
+        <v>6.7008473382976349E-3</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>-2.4799999999999045</v>
+        <v>8.0900000000001171</v>
       </c>
       <c r="P84" s="25">
         <f t="shared" si="13"/>
-        <v>1.1940815939403058E-2</v>
+        <v>1.1173869509908056E-2</v>
       </c>
       <c r="Q84" s="140"/>
       <c r="S84" s="26"/>
@@ -7878,7 +7920,7 @@
         <v>67</v>
       </c>
       <c r="J85" s="12">
-        <v>107.435</v>
+        <v>107.398</v>
       </c>
       <c r="K85" s="12">
         <v>106.631</v>
@@ -7888,19 +7930,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="14"/>
-        <v>1074.3499999999999</v>
+        <v>1073.98</v>
       </c>
       <c r="N85" s="25">
         <f t="shared" si="12"/>
-        <v>7.5400211945869594E-3</v>
+        <v>7.1930301694628756E-3</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>8.0400000000000205</v>
+        <v>7.6699999999999591</v>
       </c>
       <c r="P85" s="25">
         <f t="shared" si="13"/>
-        <v>1.0647656187593E-2</v>
+        <v>9.8737143131899397E-3</v>
       </c>
       <c r="Q85" s="140"/>
       <c r="S85" s="26"/>
@@ -7933,29 +7975,29 @@
         <v>67</v>
       </c>
       <c r="J86" s="12">
-        <v>103.684</v>
+        <v>101.511</v>
       </c>
       <c r="K86" s="12">
-        <v>104.32</v>
+        <v>103.57299999999999</v>
       </c>
       <c r="L86" s="12">
         <v>10</v>
       </c>
       <c r="M86" s="11">
         <f t="shared" si="14"/>
-        <v>1036.8399999999999</v>
+        <v>1015.1099999999999</v>
       </c>
       <c r="N86" s="25">
         <f t="shared" si="12"/>
-        <v>-6.0966257668711244E-3</v>
+        <v>-1.9908663454761354E-2</v>
       </c>
       <c r="O86" s="11">
         <f t="shared" si="15"/>
-        <v>-6.3599999999999568</v>
+        <v>-20.619999999999976</v>
       </c>
       <c r="P86" s="25">
         <f t="shared" si="13"/>
-        <v>1.0275902491314682E-2</v>
+        <v>9.3324886277791376E-3</v>
       </c>
       <c r="Q86" s="140"/>
       <c r="S86" s="26"/>
@@ -8182,29 +8224,29 @@
         <v>67</v>
       </c>
       <c r="J91" s="12">
-        <v>100.53</v>
+        <v>102.2</v>
       </c>
       <c r="K91" s="12">
-        <v>101.621</v>
+        <v>101.01600000000001</v>
       </c>
       <c r="L91" s="12">
         <v>20</v>
       </c>
       <c r="M91" s="11">
         <f t="shared" si="14"/>
-        <v>2010.6</v>
+        <v>2044</v>
       </c>
       <c r="N91" s="25">
         <f t="shared" si="12"/>
-        <v>-1.0735969927475561E-2</v>
+        <v>1.1720915498534859E-2</v>
       </c>
       <c r="O91" s="11">
         <f t="shared" si="15"/>
-        <v>-21.819999999999879</v>
+        <v>23.67999999999995</v>
       </c>
       <c r="P91" s="25">
         <f t="shared" si="13"/>
-        <v>1.9926632411015489E-2</v>
+        <v>1.8791664701540287E-2</v>
       </c>
       <c r="Q91" s="140"/>
       <c r="S91" s="26"/>
@@ -8649,11 +8691,11 @@
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="11">
-        <f t="shared" ref="M101:M140" si="17">J101*L101</f>
+        <f t="shared" ref="M101:M144" si="17">J101*L101</f>
         <v>0</v>
       </c>
       <c r="N101" s="25" t="e">
-        <f t="shared" ref="N101:N132" si="18">(J101-K101)/K101</f>
+        <f t="shared" ref="N101:N152" si="18">(J101-K101)/K101</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O101" s="11">
@@ -8661,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="25">
-        <f>M101/$M$194</f>
+        <f>M101/$M$193</f>
         <v>0</v>
       </c>
       <c r="Q101" s="140"/>
@@ -8710,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="25">
-        <f>M102/$M$194</f>
+        <f>M102/$M$193</f>
         <v>0</v>
       </c>
       <c r="Q102" s="140"/>
@@ -8805,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="P104" s="25">
-        <f>M104/$M$194</f>
+        <f>M104/$M$193</f>
         <v>0</v>
       </c>
       <c r="Q104" s="140"/>
@@ -8883,7 +8925,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>104.38</v>
+        <v>104.851</v>
       </c>
       <c r="K106" s="12">
         <v>104.434</v>
@@ -8893,15 +8935,15 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="17"/>
-        <v>1043.8</v>
+        <v>1048.51</v>
       </c>
       <c r="N106" s="25">
         <f t="shared" si="18"/>
-        <v>-5.1707298389415369E-4</v>
+        <v>3.992952486738051E-3</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>-0.54000000000002046</v>
+        <v>4.1700000000000159</v>
       </c>
       <c r="P106" s="25"/>
       <c r="Q106" s="140" t="s">
@@ -8935,7 +8977,7 @@
       </c>
       <c r="I107" s="15"/>
       <c r="J107" s="12">
-        <v>104.21</v>
+        <v>105.54</v>
       </c>
       <c r="K107" s="12">
         <v>104.01</v>
@@ -8945,15 +8987,15 @@
       </c>
       <c r="M107" s="11">
         <f t="shared" si="17"/>
-        <v>1042.0999999999999</v>
+        <v>1055.4000000000001</v>
       </c>
       <c r="N107" s="25">
         <f t="shared" si="18"/>
-        <v>1.9228920296124278E-3</v>
+        <v>1.4710124026535921E-2</v>
       </c>
       <c r="O107" s="11">
         <f t="shared" si="15"/>
-        <v>1.9999999999998863</v>
+        <v>15.300000000000011</v>
       </c>
       <c r="P107" s="25"/>
       <c r="Q107" s="140" t="s">
@@ -9268,7 +9310,7 @@
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="12">
-        <v>105.11799999999999</v>
+        <v>106.93</v>
       </c>
       <c r="K114" s="12">
         <v>105.44</v>
@@ -9278,15 +9320,15 @@
       </c>
       <c r="M114" s="11">
         <f t="shared" si="17"/>
-        <v>1051.1799999999998</v>
+        <v>1069.3000000000002</v>
       </c>
       <c r="N114" s="25">
         <f t="shared" si="18"/>
-        <v>-3.0538694992413005E-3</v>
+        <v>1.4131259484066854E-2</v>
       </c>
       <c r="O114" s="11">
         <f t="shared" si="19"/>
-        <v>-3.2200000000000273</v>
+        <v>14.900000000000091</v>
       </c>
       <c r="P114" s="25"/>
       <c r="Q114" s="140" t="s">
@@ -9430,7 +9472,7 @@
       </c>
       <c r="P117" s="25"/>
       <c r="Q117" s="140" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="S117" s="26"/>
     </row>
@@ -9524,7 +9566,7 @@
       </c>
       <c r="P119" s="25"/>
       <c r="Q119" s="140" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="S119" s="26"/>
     </row>
@@ -9618,7 +9660,7 @@
       </c>
       <c r="P121" s="25"/>
       <c r="Q121" s="140" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="S121" s="26"/>
     </row>
@@ -9712,12 +9754,12 @@
       </c>
       <c r="P123" s="25"/>
       <c r="Q123" s="140" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="S123" s="26"/>
     </row>
     <row r="124" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="88">
+      <c r="B124" s="153">
         <v>122</v>
       </c>
       <c r="C124" s="46">
@@ -9736,7 +9778,7 @@
         <v>109.872</v>
       </c>
       <c r="H124" s="50">
-        <f t="shared" ref="H124:H155" si="20">F124*G124</f>
+        <f t="shared" ref="H124:H134" si="20">F124*G124</f>
         <v>1098.72</v>
       </c>
       <c r="I124" s="48" t="s">
@@ -9759,14 +9801,14 @@
       </c>
       <c r="P124" s="51"/>
       <c r="Q124" s="141" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="S124" s="52"/>
     </row>
     <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7"/>
-      <c r="B125" s="111">
-        <v>122</v>
+      <c r="B125" s="153">
+        <v>123</v>
       </c>
       <c r="C125" s="33">
         <v>44694</v>
@@ -9806,17 +9848,17 @@
         <v>0</v>
       </c>
       <c r="P125" s="25">
-        <f>M125/$M$194</f>
+        <f>M125/$M$193</f>
         <v>0</v>
       </c>
       <c r="Q125" s="140" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="S125" s="26"/>
     </row>
     <row r="126" spans="1:19" s="125" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B126" s="114">
-        <v>123</v>
+      <c r="B126" s="153">
+        <v>124</v>
       </c>
       <c r="C126" s="127">
         <v>44694</v>
@@ -9856,17 +9898,17 @@
         <v>0</v>
       </c>
       <c r="P126" s="132">
-        <f>M126/$M$194</f>
+        <f>M126/$M$193</f>
         <v>0</v>
       </c>
       <c r="Q126" s="147" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="S126" s="133"/>
     </row>
     <row r="127" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="88">
-        <v>124</v>
+      <c r="B127" s="153">
+        <v>125</v>
       </c>
       <c r="C127" s="46">
         <v>44697</v>
@@ -9875,7 +9917,7 @@
         <v>127058</v>
       </c>
       <c r="E127" s="47" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F127" s="49">
         <v>-10</v>
@@ -9911,8 +9953,8 @@
     </row>
     <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="7"/>
-      <c r="B128" s="114">
-        <v>125</v>
+      <c r="B128" s="153">
+        <v>126</v>
       </c>
       <c r="C128" s="33">
         <v>44697</v>
@@ -9921,7 +9963,7 @@
         <v>128026</v>
       </c>
       <c r="E128" s="91" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F128" s="21">
         <v>10</v>
@@ -9935,37 +9977,39 @@
       </c>
       <c r="I128" s="15"/>
       <c r="J128" s="12">
-        <v>107.25</v>
+        <v>107.10599999999999</v>
       </c>
       <c r="K128" s="12">
-        <v>107.133</v>
+        <v>107.123</v>
       </c>
       <c r="L128" s="12">
         <v>10</v>
       </c>
       <c r="M128" s="11">
         <f t="shared" si="17"/>
-        <v>1072.5</v>
+        <v>1071.06</v>
       </c>
       <c r="N128" s="25">
         <f t="shared" si="18"/>
-        <v>1.0921004732435799E-3</v>
+        <v>-1.5869607833994675E-4</v>
       </c>
       <c r="O128" s="11">
         <f t="shared" si="19"/>
-        <v>1.1700000000000443</v>
+        <v>-0.17000000000010118</v>
       </c>
       <c r="P128" s="25">
-        <f>M128/$M$194</f>
-        <v>1.062932122789919E-2</v>
-      </c>
-      <c r="Q128" s="140"/>
+        <f>M128/$M$193</f>
+        <v>9.8468690779020245E-3</v>
+      </c>
+      <c r="Q128" s="140" t="s">
+        <v>122</v>
+      </c>
       <c r="S128" s="26"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
-      <c r="B129" s="114">
-        <v>126</v>
+      <c r="B129" s="153">
+        <v>127</v>
       </c>
       <c r="C129" s="33">
         <v>44697</v>
@@ -10009,8 +10053,8 @@
       <c r="S129" s="26"/>
     </row>
     <row r="130" spans="1:19" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B130" s="88">
-        <v>127</v>
+      <c r="B130" s="153">
+        <v>128</v>
       </c>
       <c r="C130" s="46">
         <v>44697</v>
@@ -10041,7 +10085,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N130" s="51" t="e">
+      <c r="N130" s="25" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
@@ -10049,7 +10093,7 @@
         <v>1.66</v>
       </c>
       <c r="P130" s="51">
-        <f>M130/$M$194</f>
+        <f>M130/$M$193</f>
         <v>0</v>
       </c>
       <c r="Q130" s="141"/>
@@ -10057,8 +10101,8 @@
     </row>
     <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A131" s="7"/>
-      <c r="B131" s="114">
-        <v>128</v>
+      <c r="B131" s="153">
+        <v>129</v>
       </c>
       <c r="C131" s="33">
         <v>44698</v>
@@ -10101,21 +10145,33 @@
       <c r="Q131" s="140"/>
       <c r="S131" s="26"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="7"/>
-      <c r="B132" s="114">
-        <v>129</v>
-      </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
+      <c r="B132" s="153">
+        <v>130</v>
+      </c>
+      <c r="C132" s="33">
+        <v>44704</v>
+      </c>
+      <c r="D132" s="34">
+        <v>128100</v>
+      </c>
+      <c r="E132" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F132" s="21">
+        <v>10</v>
+      </c>
+      <c r="G132" s="21">
+        <v>99.944000000000003</v>
+      </c>
       <c r="H132" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I132" s="15"/>
+        <v>999.44</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
@@ -10131,28 +10187,37 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P132" s="25">
-        <f>M132/$M$194</f>
-        <v>0</v>
-      </c>
+      <c r="P132" s="25"/>
       <c r="Q132" s="140"/>
       <c r="S132" s="26"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A133" s="7"/>
-      <c r="B133" s="114">
-        <v>130</v>
-      </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
+      <c r="B133" s="153">
+        <v>131</v>
+      </c>
+      <c r="C133" s="33">
+        <v>44704</v>
+      </c>
+      <c r="D133" s="34">
+        <v>113595</v>
+      </c>
+      <c r="E133" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="F133" s="21">
+        <v>-10</v>
+      </c>
+      <c r="G133" s="21">
+        <v>121</v>
+      </c>
       <c r="H133" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I133" s="15"/>
+        <v>-1210</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
@@ -10161,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="25" t="e">
-        <f t="shared" ref="N133:N150" si="22">(J133-K133)/K133</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O133" s="11">
@@ -10174,50 +10239,83 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
-      <c r="B134" s="114">
-        <v>131</v>
-      </c>
-      <c r="C134" s="33"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
+      <c r="B134" s="153">
+        <v>132</v>
+      </c>
+      <c r="C134" s="33">
+        <v>44704</v>
+      </c>
+      <c r="D134" s="34">
+        <v>123126</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F134" s="21">
+        <v>10</v>
+      </c>
+      <c r="G134" s="21">
+        <v>111.70099999999999</v>
+      </c>
       <c r="H134" s="14">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1117.01</v>
       </c>
       <c r="I134" s="15"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
+      <c r="J134" s="12">
+        <v>112.8</v>
+      </c>
+      <c r="K134" s="12">
+        <v>111.721</v>
+      </c>
+      <c r="L134" s="12">
+        <v>10</v>
+      </c>
       <c r="M134" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N134" s="25" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>1128</v>
+      </c>
+      <c r="N134" s="25">
+        <f t="shared" si="18"/>
+        <v>9.6579873076681512E-3</v>
       </c>
       <c r="O134" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>10.789999999999935</v>
       </c>
       <c r="P134" s="25"/>
-      <c r="Q134" s="140"/>
+      <c r="Q134" s="140" t="s">
+        <v>122</v>
+      </c>
       <c r="S134" s="26"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
-      <c r="B135" s="114">
-        <v>132</v>
-      </c>
-      <c r="C135" s="33"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="15"/>
+      <c r="B135" s="153">
+        <v>133</v>
+      </c>
+      <c r="C135" s="33">
+        <v>44705</v>
+      </c>
+      <c r="D135" s="34">
+        <v>113578</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F135" s="21">
+        <v>10</v>
+      </c>
+      <c r="G135" s="21">
+        <v>103.9</v>
+      </c>
+      <c r="H135" s="14">
+        <f>F135*G135</f>
+        <v>1039</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="J135" s="12"/>
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
@@ -10226,63 +10324,96 @@
         <v>0</v>
       </c>
       <c r="N135" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P135" s="12"/>
+      <c r="P135" s="25"/>
       <c r="Q135" s="140"/>
       <c r="S135" s="26"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
-      <c r="B136" s="114">
-        <v>133</v>
-      </c>
-      <c r="C136" s="33"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
+      <c r="B136" s="153">
+        <v>134</v>
+      </c>
+      <c r="C136" s="33">
+        <v>44705</v>
+      </c>
+      <c r="D136" s="34">
+        <v>113608</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="21">
+        <v>10</v>
+      </c>
+      <c r="G136" s="21">
+        <v>107.61</v>
+      </c>
       <c r="H136" s="14">
-        <f>F136*G136</f>
-        <v>0</v>
+        <f t="shared" ref="H136:H140" si="22">F136*G136</f>
+        <v>1076.0999999999999</v>
       </c>
       <c r="I136" s="15"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
+      <c r="J136" s="12">
+        <v>108.51</v>
+      </c>
+      <c r="K136" s="12">
+        <v>107.63</v>
+      </c>
+      <c r="L136" s="12">
+        <v>10</v>
+      </c>
       <c r="M136" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N136" s="25" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>1085.1000000000001</v>
+      </c>
+      <c r="N136" s="25">
+        <f t="shared" si="18"/>
+        <v>8.176159063458234E-3</v>
       </c>
       <c r="O136" s="11">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P136" s="25"/>
-      <c r="Q136" s="140"/>
+        <v>8.8000000000000966</v>
+      </c>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="140" t="s">
+        <v>143</v>
+      </c>
       <c r="S136" s="26"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
-      <c r="B137" s="114">
-        <v>134</v>
-      </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="15"/>
+      <c r="B137" s="153">
+        <v>135</v>
+      </c>
+      <c r="C137" s="33">
+        <v>44706</v>
+      </c>
+      <c r="D137" s="34">
+        <v>128105</v>
+      </c>
+      <c r="E137" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" s="21">
+        <v>10</v>
+      </c>
+      <c r="G137" s="21">
+        <v>102.806</v>
+      </c>
+      <c r="H137" s="14">
+        <f t="shared" si="22"/>
+        <v>1028.06</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="J137" s="12"/>
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
@@ -10291,32 +10422,44 @@
         <v>0</v>
       </c>
       <c r="N137" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O137" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P137" s="12"/>
+      <c r="P137" s="25"/>
       <c r="Q137" s="140"/>
       <c r="S137" s="26"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="7"/>
-      <c r="B138" s="114">
-        <v>135</v>
-      </c>
-      <c r="C138" s="33"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
+      <c r="B138" s="153">
+        <v>136</v>
+      </c>
+      <c r="C138" s="33">
+        <v>44707</v>
+      </c>
+      <c r="D138" s="34">
+        <v>110072</v>
+      </c>
+      <c r="E138" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="F138" s="21">
+        <v>10</v>
+      </c>
+      <c r="G138" s="21">
+        <v>101.37</v>
+      </c>
       <c r="H138" s="14">
-        <f>F138*G138</f>
-        <v>0</v>
-      </c>
-      <c r="I138" s="15"/>
+        <f t="shared" si="22"/>
+        <v>1013.7</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
@@ -10325,28 +10468,31 @@
         <v>0</v>
       </c>
       <c r="N138" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P138" s="25"/>
+      <c r="P138" s="12"/>
       <c r="Q138" s="140"/>
       <c r="S138" s="26"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
-      <c r="B139" s="114">
-        <v>136</v>
+      <c r="B139" s="153">
+        <v>137</v>
       </c>
       <c r="C139" s="33"/>
       <c r="D139" s="34"/>
       <c r="E139" s="34"/>
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
-      <c r="H139" s="15"/>
+      <c r="H139" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
@@ -10356,21 +10502,21 @@
         <v>0</v>
       </c>
       <c r="N139" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P139" s="12"/>
+      <c r="P139" s="25"/>
       <c r="Q139" s="140"/>
       <c r="S139" s="26"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
-      <c r="B140" s="114">
-        <v>137</v>
+      <c r="B140" s="153">
+        <v>138</v>
       </c>
       <c r="C140" s="33"/>
       <c r="D140" s="34"/>
@@ -10378,69 +10524,79 @@
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
       <c r="H140" s="14">
-        <f>F140*G140</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
+      <c r="L140" s="27"/>
       <c r="M140" s="11">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N140" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O140" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P140" s="25"/>
+      <c r="P140" s="12"/>
       <c r="Q140" s="140"/>
       <c r="S140" s="26"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
-      <c r="B141" s="114">
-        <v>138</v>
+      <c r="B141" s="153">
+        <v>139</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="34"/>
       <c r="E141" s="34"/>
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
-      <c r="H141" s="15"/>
+      <c r="H141" s="14">
+        <f t="shared" ref="H141:H149" si="23">F141*G141</f>
+        <v>0</v>
+      </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="N141" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O141" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P141" s="12"/>
+      <c r="P141" s="25"/>
       <c r="Q141" s="140"/>
       <c r="S141" s="26"/>
     </row>
     <row r="142" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
-      <c r="B142" s="114">
-        <v>139</v>
+      <c r="B142" s="153">
+        <v>140</v>
       </c>
       <c r="C142" s="33"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
+      <c r="D142" s="35">
+        <v>113569</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>137</v>
+      </c>
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
       <c r="H142" s="14">
-        <f t="shared" ref="H142:H150" si="23">F142*G142</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I142" s="15"/>
@@ -10448,11 +10604,11 @@
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="11">
-        <f t="shared" ref="M142:M150" si="24">J142*L142</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N142" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O142" s="11">
@@ -10463,18 +10619,14 @@
       <c r="Q142" s="140"/>
       <c r="S142" s="26"/>
     </row>
-    <row r="143" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
-      <c r="B143" s="114">
-        <v>140</v>
+      <c r="B143" s="153">
+        <v>141</v>
       </c>
       <c r="C143" s="33"/>
-      <c r="D143" s="35">
-        <v>113569</v>
-      </c>
-      <c r="E143" s="36" t="s">
-        <v>146</v>
-      </c>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
       <c r="H143" s="14">
@@ -10486,11 +10638,11 @@
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N143" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O143" s="11">
@@ -10503,8 +10655,8 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
-      <c r="B144" s="114">
-        <v>141</v>
+      <c r="B144" s="153">
+        <v>142</v>
       </c>
       <c r="C144" s="33"/>
       <c r="D144" s="34"/>
@@ -10520,11 +10672,11 @@
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
       <c r="M144" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N144" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O144" s="11">
@@ -10537,11 +10689,13 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
-      <c r="B145" s="114">
-        <v>142</v>
+      <c r="B145" s="153">
+        <v>143</v>
       </c>
       <c r="C145" s="33"/>
-      <c r="D145" s="34"/>
+      <c r="D145" s="34" t="s">
+        <v>151</v>
+      </c>
       <c r="E145" s="34"/>
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
@@ -10554,11 +10708,11 @@
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="M145:M149" si="24">J145*L145</f>
         <v>0</v>
       </c>
       <c r="N145" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O145" s="11">
@@ -10571,8 +10725,8 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="114">
-        <v>143</v>
+      <c r="B146" s="153">
+        <v>144</v>
       </c>
       <c r="C146" s="33"/>
       <c r="D146" s="34"/>
@@ -10592,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="N146" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O146" s="11">
@@ -10605,8 +10759,8 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="114">
-        <v>144</v>
+      <c r="B147" s="153">
+        <v>145</v>
       </c>
       <c r="C147" s="33"/>
       <c r="D147" s="34"/>
@@ -10626,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="N147" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O147" s="11">
@@ -10637,13 +10791,15 @@
       <c r="Q147" s="140"/>
       <c r="S147" s="26"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A148" s="7"/>
-      <c r="B148" s="114">
-        <v>145</v>
+      <c r="B148" s="153">
+        <v>146</v>
       </c>
       <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
+      <c r="D148" s="91" t="s">
+        <v>100</v>
+      </c>
       <c r="E148" s="34"/>
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
@@ -10660,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="N148" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O148" s="11">
@@ -10671,15 +10827,13 @@
       <c r="Q148" s="140"/>
       <c r="S148" s="26"/>
     </row>
-    <row r="149" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="114">
-        <v>146</v>
+      <c r="B149" s="153">
+        <v>147</v>
       </c>
       <c r="C149" s="33"/>
-      <c r="D149" s="91" t="s">
-        <v>100</v>
-      </c>
+      <c r="D149" s="34"/>
       <c r="E149" s="34"/>
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
@@ -10696,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="N149" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O149" s="11">
@@ -10707,89 +10861,89 @@
       <c r="Q149" s="140"/>
       <c r="S149" s="26"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
-      <c r="B150" s="114">
-        <v>147</v>
+      <c r="B150" s="153">
+        <v>148</v>
       </c>
       <c r="C150" s="33"/>
-      <c r="D150" s="34"/>
+      <c r="D150" s="91"/>
       <c r="E150" s="34"/>
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
-      <c r="H150" s="14">
-        <f t="shared" si="23"/>
+      <c r="H150" s="15">
+        <f>SUM(H148:H149)</f>
         <v>0</v>
       </c>
       <c r="I150" s="15"/>
       <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="11">
-        <f t="shared" si="24"/>
+      <c r="K150" s="123"/>
+      <c r="L150" s="124"/>
+      <c r="M150" s="124">
+        <f>SUM(M148:M149)</f>
         <v>0</v>
       </c>
       <c r="N150" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O150" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P150" s="25"/>
+      <c r="P150" s="12"/>
       <c r="Q150" s="140"/>
-      <c r="S150" s="26"/>
-    </row>
-    <row r="151" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="7"/>
-      <c r="B151" s="114">
-        <v>148</v>
+      <c r="S150" s="23"/>
+    </row>
+    <row r="151" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="153">
+        <v>149</v>
       </c>
       <c r="C151" s="33"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="34"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="36"/>
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
-      <c r="H151" s="15">
-        <f>SUM(H149:H150)</f>
+      <c r="H151" s="14">
+        <f t="shared" ref="H151:H177" si="25">F151*G151</f>
         <v>0</v>
       </c>
       <c r="I151" s="15"/>
       <c r="J151" s="12"/>
-      <c r="K151" s="123"/>
-      <c r="L151" s="124"/>
-      <c r="M151" s="124">
-        <f>SUM(M149:M150)</f>
-        <v>0</v>
-      </c>
-      <c r="N151" s="135" t="e">
-        <f>(O151)/K151</f>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="11">
+        <f t="shared" ref="M151:M175" si="26">J151*L151</f>
+        <v>0</v>
+      </c>
+      <c r="N151" s="25" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O151" s="11">
-        <f>SUM(O149:O150)</f>
-        <v>0</v>
-      </c>
-      <c r="P151" s="12"/>
+        <f t="shared" ref="O151:O189" si="27">(J151-K151)*L151</f>
+        <v>0</v>
+      </c>
+      <c r="P151" s="137"/>
       <c r="Q151" s="140"/>
-      <c r="S151" s="23"/>
+      <c r="S151" s="26"/>
     </row>
     <row r="152" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="114">
-        <v>149</v>
+      <c r="A152" s="7"/>
+      <c r="B152" s="153">
+        <v>150</v>
       </c>
       <c r="C152" s="33"/>
       <c r="D152" s="35">
-        <v>128105</v>
+        <v>127024</v>
       </c>
       <c r="E152" s="36" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
       <c r="H152" s="14">
-        <f t="shared" ref="H152:H178" si="25">F152*G152</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I152" s="15"/>
@@ -10797,32 +10951,28 @@
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
       <c r="M152" s="11">
-        <f t="shared" ref="M152:M176" si="26">J152*L152</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N152" s="25" t="e">
-        <f t="shared" ref="N152:N176" si="27">(J152-K152)/K152</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O152" s="11">
-        <f t="shared" ref="O152:O190" si="28">(J152-K152)*L152</f>
-        <v>0</v>
-      </c>
-      <c r="P152" s="137"/>
-      <c r="S152" s="26"/>
-    </row>
-    <row r="153" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="140"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
-      <c r="B153" s="114">
-        <v>150</v>
+      <c r="B153" s="153">
+        <v>151</v>
       </c>
       <c r="C153" s="33"/>
-      <c r="D153" s="35">
-        <v>127024</v>
-      </c>
-      <c r="E153" s="36" t="s">
-        <v>148</v>
-      </c>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
       <c r="H153" s="14">
@@ -10838,23 +10988,26 @@
         <v>0</v>
       </c>
       <c r="N153" s="25" t="e">
+        <f t="shared" ref="N153:N175" si="28">(J153-K153)/K153</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O153" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O153" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P153" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="P153" s="25"/>
       <c r="Q153" s="140"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S153" s="26"/>
+    </row>
+    <row r="154" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A154" s="7"/>
-      <c r="B154" s="114">
-        <v>151</v>
+      <c r="B154" s="153">
+        <v>152</v>
       </c>
       <c r="C154" s="33"/>
-      <c r="D154" s="34"/>
+      <c r="D154" s="112" t="s">
+        <v>144</v>
+      </c>
       <c r="E154" s="34"/>
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
@@ -10871,24 +11024,26 @@
         <v>0</v>
       </c>
       <c r="N154" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O154" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O154" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P154" s="25"/>
       <c r="Q154" s="140"/>
       <c r="S154" s="26"/>
     </row>
-    <row r="155" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A155" s="7"/>
-      <c r="B155" s="114">
-        <v>152</v>
+      <c r="B155" s="153">
+        <v>153</v>
       </c>
       <c r="C155" s="33"/>
-      <c r="D155" s="91"/>
+      <c r="D155" s="112" t="s">
+        <v>145</v>
+      </c>
       <c r="E155" s="34"/>
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
@@ -10905,11 +11060,11 @@
         <v>0</v>
       </c>
       <c r="N155" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O155" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O155" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P155" s="25"/>
@@ -10918,11 +11073,13 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
-      <c r="B156" s="114">
-        <v>153</v>
+      <c r="B156" s="153">
+        <v>154</v>
       </c>
       <c r="C156" s="33"/>
-      <c r="D156" s="34"/>
+      <c r="D156" s="34" t="s">
+        <v>147</v>
+      </c>
       <c r="E156" s="34"/>
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
@@ -10939,11 +11096,11 @@
         <v>0</v>
       </c>
       <c r="N156" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O156" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O156" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P156" s="25"/>
@@ -10952,11 +11109,13 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
-      <c r="B157" s="114">
-        <v>154</v>
+      <c r="B157" s="153">
+        <v>155</v>
       </c>
       <c r="C157" s="33"/>
-      <c r="D157" s="34"/>
+      <c r="D157" s="34" t="s">
+        <v>148</v>
+      </c>
       <c r="E157" s="34"/>
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
@@ -10973,11 +11132,11 @@
         <v>0</v>
       </c>
       <c r="N157" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O157" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O157" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P157" s="25"/>
@@ -10986,11 +11145,13 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
-      <c r="B158" s="114">
-        <v>155</v>
+      <c r="B158" s="153">
+        <v>156</v>
       </c>
       <c r="C158" s="33"/>
-      <c r="D158" s="34"/>
+      <c r="D158" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="E158" s="34"/>
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
@@ -11007,11 +11168,11 @@
         <v>0</v>
       </c>
       <c r="N158" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O158" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O158" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P158" s="25"/>
@@ -11020,11 +11181,13 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
-      <c r="B159" s="114">
-        <v>156</v>
+      <c r="B159" s="153">
+        <v>157</v>
       </c>
       <c r="C159" s="33"/>
-      <c r="D159" s="34"/>
+      <c r="D159" s="34" t="s">
+        <v>150</v>
+      </c>
       <c r="E159" s="34"/>
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
@@ -11041,11 +11204,11 @@
         <v>0</v>
       </c>
       <c r="N159" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O159" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O159" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P159" s="25"/>
@@ -11054,8 +11217,8 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
-      <c r="B160" s="114">
-        <v>157</v>
+      <c r="B160" s="153">
+        <v>158</v>
       </c>
       <c r="C160" s="33"/>
       <c r="D160" s="34"/>
@@ -11075,11 +11238,11 @@
         <v>0</v>
       </c>
       <c r="N160" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O160" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O160" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P160" s="25"/>
@@ -11088,8 +11251,8 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
-      <c r="B161" s="114">
-        <v>158</v>
+      <c r="B161" s="153">
+        <v>159</v>
       </c>
       <c r="C161" s="33"/>
       <c r="D161" s="34"/>
@@ -11109,11 +11272,11 @@
         <v>0</v>
       </c>
       <c r="N161" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O161" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O161" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P161" s="25"/>
@@ -11122,8 +11285,8 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
-      <c r="B162" s="114">
-        <v>159</v>
+      <c r="B162" s="153">
+        <v>160</v>
       </c>
       <c r="C162" s="33"/>
       <c r="D162" s="34"/>
@@ -11143,11 +11306,11 @@
         <v>0</v>
       </c>
       <c r="N162" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O162" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O162" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P162" s="25"/>
@@ -11156,8 +11319,8 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
-      <c r="B163" s="114">
-        <v>160</v>
+      <c r="B163" s="153">
+        <v>161</v>
       </c>
       <c r="C163" s="33"/>
       <c r="D163" s="34"/>
@@ -11177,11 +11340,11 @@
         <v>0</v>
       </c>
       <c r="N163" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O163" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O163" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P163" s="25"/>
@@ -11190,8 +11353,8 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
-      <c r="B164" s="114">
-        <v>161</v>
+      <c r="B164" s="153">
+        <v>162</v>
       </c>
       <c r="C164" s="33"/>
       <c r="D164" s="34"/>
@@ -11211,11 +11374,11 @@
         <v>0</v>
       </c>
       <c r="N164" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O164" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O164" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P164" s="25"/>
@@ -11224,8 +11387,8 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
-      <c r="B165" s="114">
-        <v>162</v>
+      <c r="B165" s="153">
+        <v>163</v>
       </c>
       <c r="C165" s="33"/>
       <c r="D165" s="34"/>
@@ -11245,11 +11408,11 @@
         <v>0</v>
       </c>
       <c r="N165" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O165" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O165" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P165" s="25"/>
@@ -11258,8 +11421,8 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
-      <c r="B166" s="114">
-        <v>163</v>
+      <c r="B166" s="153">
+        <v>164</v>
       </c>
       <c r="C166" s="33"/>
       <c r="D166" s="34"/>
@@ -11279,11 +11442,11 @@
         <v>0</v>
       </c>
       <c r="N166" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O166" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O166" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P166" s="25"/>
@@ -11292,8 +11455,8 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
-      <c r="B167" s="114">
-        <v>164</v>
+      <c r="B167" s="153">
+        <v>165</v>
       </c>
       <c r="C167" s="33"/>
       <c r="D167" s="34"/>
@@ -11313,11 +11476,11 @@
         <v>0</v>
       </c>
       <c r="N167" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O167" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O167" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P167" s="25"/>
@@ -11326,8 +11489,8 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
-      <c r="B168" s="114">
-        <v>165</v>
+      <c r="B168" s="153">
+        <v>166</v>
       </c>
       <c r="C168" s="33"/>
       <c r="D168" s="34"/>
@@ -11347,11 +11510,11 @@
         <v>0</v>
       </c>
       <c r="N168" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O168" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O168" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P168" s="25"/>
@@ -11360,8 +11523,8 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
-      <c r="B169" s="114">
-        <v>166</v>
+      <c r="B169" s="153">
+        <v>167</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="34"/>
@@ -11381,11 +11544,11 @@
         <v>0</v>
       </c>
       <c r="N169" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O169" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O169" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P169" s="25"/>
@@ -11394,8 +11557,8 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
-      <c r="B170" s="114">
-        <v>167</v>
+      <c r="B170" s="153">
+        <v>168</v>
       </c>
       <c r="C170" s="33"/>
       <c r="D170" s="34"/>
@@ -11415,11 +11578,11 @@
         <v>0</v>
       </c>
       <c r="N170" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O170" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O170" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P170" s="25"/>
@@ -11428,8 +11591,8 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
-      <c r="B171" s="114">
-        <v>168</v>
+      <c r="B171" s="153">
+        <v>169</v>
       </c>
       <c r="C171" s="33"/>
       <c r="D171" s="34"/>
@@ -11449,11 +11612,11 @@
         <v>0</v>
       </c>
       <c r="N171" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O171" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O171" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P171" s="25"/>
@@ -11462,8 +11625,8 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
-      <c r="B172" s="114">
-        <v>169</v>
+      <c r="B172" s="153">
+        <v>170</v>
       </c>
       <c r="C172" s="33"/>
       <c r="D172" s="34"/>
@@ -11483,11 +11646,11 @@
         <v>0</v>
       </c>
       <c r="N172" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O172" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O172" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P172" s="25"/>
@@ -11496,8 +11659,8 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
-      <c r="B173" s="114">
-        <v>170</v>
+      <c r="B173" s="153">
+        <v>171</v>
       </c>
       <c r="C173" s="33"/>
       <c r="D173" s="34"/>
@@ -11517,11 +11680,11 @@
         <v>0</v>
       </c>
       <c r="N173" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O173" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O173" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P173" s="25"/>
@@ -11530,8 +11693,8 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
-      <c r="B174" s="114">
-        <v>171</v>
+      <c r="B174" s="153">
+        <v>172</v>
       </c>
       <c r="C174" s="33"/>
       <c r="D174" s="34"/>
@@ -11551,11 +11714,11 @@
         <v>0</v>
       </c>
       <c r="N174" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O174" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O174" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P174" s="25"/>
@@ -11564,8 +11727,8 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
-      <c r="B175" s="114">
-        <v>172</v>
+      <c r="B175" s="153">
+        <v>173</v>
       </c>
       <c r="C175" s="33"/>
       <c r="D175" s="34"/>
@@ -11585,11 +11748,11 @@
         <v>0</v>
       </c>
       <c r="N175" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O175" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O175" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P175" s="25"/>
@@ -11598,8 +11761,8 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
-      <c r="B176" s="114">
-        <v>173</v>
+      <c r="B176" s="153">
+        <v>174</v>
       </c>
       <c r="C176" s="33"/>
       <c r="D176" s="34"/>
@@ -11614,16 +11777,10 @@
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
-      <c r="M176" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N176" s="25" t="e">
+      <c r="M176" s="11"/>
+      <c r="N176" s="25"/>
+      <c r="O176" s="11">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O176" s="11">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P176" s="25"/>
@@ -11632,8 +11789,8 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
-      <c r="B177" s="114">
-        <v>174</v>
+      <c r="B177" s="153">
+        <v>175</v>
       </c>
       <c r="C177" s="33"/>
       <c r="D177" s="34"/>
@@ -11651,7 +11808,7 @@
       <c r="M177" s="11"/>
       <c r="N177" s="25"/>
       <c r="O177" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P177" s="25"/>
@@ -11660,18 +11817,15 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
-      <c r="B178" s="114">
-        <v>175</v>
+      <c r="B178" s="153">
+        <v>176</v>
       </c>
       <c r="C178" s="33"/>
       <c r="D178" s="34"/>
       <c r="E178" s="34"/>
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
-      <c r="H178" s="14">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
+      <c r="H178" s="14"/>
       <c r="I178" s="15"/>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
@@ -11679,7 +11833,7 @@
       <c r="M178" s="11"/>
       <c r="N178" s="25"/>
       <c r="O178" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P178" s="25"/>
@@ -11688,8 +11842,8 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
-      <c r="B179" s="114">
-        <v>176</v>
+      <c r="B179" s="153">
+        <v>177</v>
       </c>
       <c r="C179" s="33"/>
       <c r="D179" s="34"/>
@@ -11704,7 +11858,7 @@
       <c r="M179" s="11"/>
       <c r="N179" s="25"/>
       <c r="O179" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P179" s="25"/>
@@ -11713,8 +11867,8 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
-      <c r="B180" s="114">
-        <v>177</v>
+      <c r="B180" s="153">
+        <v>178</v>
       </c>
       <c r="C180" s="33"/>
       <c r="D180" s="34"/>
@@ -11729,7 +11883,7 @@
       <c r="M180" s="11"/>
       <c r="N180" s="25"/>
       <c r="O180" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P180" s="25"/>
@@ -11738,8 +11892,8 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
-      <c r="B181" s="114">
-        <v>178</v>
+      <c r="B181" s="153">
+        <v>179</v>
       </c>
       <c r="C181" s="33"/>
       <c r="D181" s="34"/>
@@ -11754,7 +11908,7 @@
       <c r="M181" s="11"/>
       <c r="N181" s="25"/>
       <c r="O181" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P181" s="25"/>
@@ -11763,8 +11917,8 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
-      <c r="B182" s="114">
-        <v>179</v>
+      <c r="B182" s="153">
+        <v>180</v>
       </c>
       <c r="C182" s="33"/>
       <c r="D182" s="34"/>
@@ -11779,7 +11933,7 @@
       <c r="M182" s="11"/>
       <c r="N182" s="25"/>
       <c r="O182" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P182" s="25"/>
@@ -11788,8 +11942,8 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
-      <c r="B183" s="114">
-        <v>180</v>
+      <c r="B183" s="153">
+        <v>181</v>
       </c>
       <c r="C183" s="33"/>
       <c r="D183" s="34"/>
@@ -11804,7 +11958,7 @@
       <c r="M183" s="11"/>
       <c r="N183" s="25"/>
       <c r="O183" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P183" s="25"/>
@@ -11813,8 +11967,8 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
-      <c r="B184" s="114">
-        <v>181</v>
+      <c r="B184" s="153">
+        <v>182</v>
       </c>
       <c r="C184" s="33"/>
       <c r="D184" s="34"/>
@@ -11829,7 +11983,7 @@
       <c r="M184" s="11"/>
       <c r="N184" s="25"/>
       <c r="O184" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P184" s="25"/>
@@ -11838,8 +11992,8 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
-      <c r="B185" s="114">
-        <v>182</v>
+      <c r="B185" s="153">
+        <v>183</v>
       </c>
       <c r="C185" s="33"/>
       <c r="D185" s="34"/>
@@ -11854,7 +12008,7 @@
       <c r="M185" s="11"/>
       <c r="N185" s="25"/>
       <c r="O185" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P185" s="25"/>
@@ -11863,8 +12017,8 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
-      <c r="B186" s="114">
-        <v>183</v>
+      <c r="B186" s="153">
+        <v>184</v>
       </c>
       <c r="C186" s="33"/>
       <c r="D186" s="34"/>
@@ -11879,7 +12033,7 @@
       <c r="M186" s="11"/>
       <c r="N186" s="25"/>
       <c r="O186" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P186" s="25"/>
@@ -11888,8 +12042,8 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
-      <c r="B187" s="114">
-        <v>184</v>
+      <c r="B187" s="153">
+        <v>185</v>
       </c>
       <c r="C187" s="33"/>
       <c r="D187" s="34"/>
@@ -11904,7 +12058,7 @@
       <c r="M187" s="11"/>
       <c r="N187" s="25"/>
       <c r="O187" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P187" s="25"/>
@@ -11913,8 +12067,8 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
-      <c r="B188" s="114">
-        <v>185</v>
+      <c r="B188" s="153">
+        <v>186</v>
       </c>
       <c r="C188" s="33"/>
       <c r="D188" s="34"/>
@@ -11929,7 +12083,7 @@
       <c r="M188" s="11"/>
       <c r="N188" s="25"/>
       <c r="O188" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P188" s="25"/>
@@ -11938,8 +12092,8 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
-      <c r="B189" s="114">
-        <v>186</v>
+      <c r="B189" s="153">
+        <v>187</v>
       </c>
       <c r="C189" s="33"/>
       <c r="D189" s="34"/>
@@ -11954,7 +12108,7 @@
       <c r="M189" s="11"/>
       <c r="N189" s="25"/>
       <c r="O189" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P189" s="25"/>
@@ -11963,8 +12117,8 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
-      <c r="B190" s="114">
-        <v>187</v>
+      <c r="B190" s="153">
+        <v>188</v>
       </c>
       <c r="C190" s="33"/>
       <c r="D190" s="34"/>
@@ -11978,18 +12132,14 @@
       <c r="L190" s="12"/>
       <c r="M190" s="11"/>
       <c r="N190" s="25"/>
-      <c r="O190" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="O190" s="11"/>
       <c r="P190" s="25"/>
       <c r="Q190" s="140"/>
       <c r="S190" s="26"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A191" s="7"/>
-      <c r="B191" s="114">
-        <v>188</v>
+      <c r="B191" s="153">
+        <v>189</v>
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="34"/>
@@ -12009,8 +12159,8 @@
       <c r="S191" s="26"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B192" s="114">
-        <v>189</v>
+      <c r="B192" s="153">
+        <v>190</v>
       </c>
       <c r="C192" s="33"/>
       <c r="D192" s="34"/>
@@ -12030,89 +12180,68 @@
       <c r="S192" s="26"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B193" s="114">
-        <v>190</v>
-      </c>
-      <c r="C193" s="33"/>
+      <c r="A193" s="7"/>
+      <c r="B193" s="153">
+        <v>191</v>
+      </c>
+      <c r="C193" s="122" t="s">
+        <v>2</v>
+      </c>
       <c r="D193" s="34"/>
       <c r="E193" s="34"/>
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
-      <c r="H193" s="14"/>
+      <c r="H193" s="15">
+        <f>SUM(H3:H192)</f>
+        <v>87407.039999999964</v>
+      </c>
       <c r="I193" s="15"/>
       <c r="J193" s="12"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
-      <c r="M193" s="11"/>
-      <c r="N193" s="25"/>
-      <c r="O193" s="11"/>
-      <c r="P193" s="25"/>
+      <c r="K193" s="123"/>
+      <c r="L193" s="124">
+        <f>SUM(L3:L192)</f>
+        <v>1000</v>
+      </c>
+      <c r="M193" s="124">
+        <f>SUM(M3:M192)</f>
+        <v>108771.62999999998</v>
+      </c>
+      <c r="N193" s="135">
+        <f>(O193)/M193</f>
+        <v>7.3688056343368211E-2</v>
+      </c>
+      <c r="O193" s="11">
+        <f>SUM(O3:O192)</f>
+        <v>8015.1699999999983</v>
+      </c>
+      <c r="P193" s="12"/>
       <c r="Q193" s="140"/>
-      <c r="S193" s="26"/>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A194" s="7"/>
-      <c r="B194" s="114">
-        <v>200</v>
-      </c>
-      <c r="C194" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="15">
-        <f>SUM(H3:H193)</f>
-        <v>82343.729999999967</v>
-      </c>
-      <c r="I194" s="15"/>
-      <c r="J194" s="12"/>
-      <c r="K194" s="123"/>
-      <c r="L194" s="124">
-        <f>SUM(L3:L193)</f>
-        <v>940</v>
-      </c>
-      <c r="M194" s="124">
-        <f>SUM(M3:M193)</f>
-        <v>100900.13999999998</v>
-      </c>
-      <c r="N194" s="135">
-        <f>(O194)/M194</f>
-        <v>6.24629460375377E-2</v>
-      </c>
-      <c r="O194" s="11">
-        <f>SUM(O3:O193)</f>
-        <v>6302.5199999999986</v>
-      </c>
-      <c r="P194" s="12"/>
-      <c r="Q194" s="140"/>
-      <c r="S194" s="23"/>
-    </row>
-    <row r="197" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D197" s="30"/>
-    </row>
-    <row r="198" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="28"/>
-      <c r="D199" s="35"/>
-      <c r="E199" s="36"/>
-      <c r="F199" s="152"/>
-    </row>
-    <row r="202" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D202" s="75"/>
-    </row>
-    <row r="213" spans="4:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D213" s="30"/>
+      <c r="S193" s="23"/>
+    </row>
+    <row r="196" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D196" s="30"/>
+    </row>
+    <row r="197" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="28"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="152"/>
+    </row>
+    <row r="201" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D201" s="75"/>
+    </row>
+    <row r="212" spans="4:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D212" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W194" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W194">
-      <sortCondition ref="B2:B194"/>
+  <autoFilter ref="A2:W193" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W193">
+      <sortCondition ref="B2:B193"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:U189">
-    <sortCondition ref="B3:B189"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:U188">
+    <sortCondition ref="B3:B188"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="S1:S2"/>
@@ -12126,19 +12255,19 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O43 N164:N193 N162:O163 N190:O190 O44:O161 O164:O191 N43:N161 N194:O194">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="N3:O43 N163:N192 N161:O162 N189:O189 O163:O190 N193:O193 N43:N160 O44:O160">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32" xr:uid="{DCE927E3-C8F5-4EBD-B4AD-D48AD216AA54}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I194" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I193" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
       <formula1>"买,卖,中,清"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12155,21 +12284,20 @@
     <hyperlink ref="D59" r:id="rId10" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{9428EE44-203B-40D5-A43A-A563534CF303}"/>
     <hyperlink ref="D52" r:id="rId11" display="https://www.jisilu.cn/data/convert_bond_detail/113036" xr:uid="{288B3BBB-1119-42BB-80E0-E5F734708C89}"/>
     <hyperlink ref="D53" r:id="rId12" display="https://www.jisilu.cn/data/convert_bond_detail/113036" xr:uid="{3CCE31DE-6D92-49BD-832B-E8B71A9933D5}"/>
-    <hyperlink ref="D143" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/113569" xr:uid="{743A4EEE-14D4-4708-AB01-87C89D17AAAE}"/>
-    <hyperlink ref="D152" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/128105" xr:uid="{55B2A6A1-D789-411B-87C9-759CE23CF86B}"/>
-    <hyperlink ref="D153" r:id="rId15" display="https://www.jisilu.cn/data/convert_bond_detail/127024" xr:uid="{EBAF41D4-2F25-42F7-9F63-A2A40CA9835C}"/>
+    <hyperlink ref="D142" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/113569" xr:uid="{743A4EEE-14D4-4708-AB01-87C89D17AAAE}"/>
+    <hyperlink ref="D152" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/127024" xr:uid="{EBAF41D4-2F25-42F7-9F63-A2A40CA9835C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B1329E-1337-4138-9A17-3602309B5170}">
-  <dimension ref="C1:K22"/>
+  <dimension ref="C1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12192,9 +12320,7 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="K2" s="112" t="s">
-        <v>125</v>
-      </c>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
@@ -12203,9 +12329,7 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="K3" s="112" t="s">
-        <v>126</v>
-      </c>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
@@ -12217,9 +12341,7 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="K4" s="112" t="s">
-        <v>127</v>
-      </c>
+      <c r="K4" s="112"/>
     </row>
     <row r="5" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
@@ -12231,9 +12353,7 @@
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="K5" s="112" t="s">
-        <v>128</v>
-      </c>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
@@ -12245,9 +12365,7 @@
       <c r="E6">
         <v>30</v>
       </c>
-      <c r="K6" s="112" t="s">
-        <v>129</v>
-      </c>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -12259,9 +12377,7 @@
       <c r="E7">
         <v>40</v>
       </c>
-      <c r="K7" s="112" t="s">
-        <v>130</v>
-      </c>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -12273,19 +12389,13 @@
       <c r="E8">
         <v>50</v>
       </c>
-      <c r="K8" s="112" t="s">
-        <v>131</v>
-      </c>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="K9" s="112" t="s">
-        <v>132</v>
-      </c>
+      <c r="K9" s="112"/>
     </row>
     <row r="10" spans="3:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="K10" s="112" t="s">
-        <v>133</v>
-      </c>
+      <c r="K10" s="112"/>
     </row>
     <row r="17" spans="10:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J17" s="112" t="s">
@@ -12299,12 +12409,22 @@
     </row>
     <row r="20" spans="10:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J20" s="112" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="10:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J22" s="112" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="J23" s="112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="J24" s="112" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -12359,14 +12479,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168" t="s">
+      <c r="B1" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="169"/>
+      <c r="E1" s="170"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCE741-69E1-47C7-925F-C062E3BECF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF44E62-8ED0-4735-95C3-F47B4B2261E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="5655" yWindow="780" windowWidth="18345" windowHeight="13845" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="s" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CB低价-每周一支定投'!$A$2:$W$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CB低价-每周一支定投'!$A$2:$W$224</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="186">
   <si>
     <t>收入</t>
   </si>
@@ -570,12 +570,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>8、孚日转债，偏离 1%，收盘115</t>
-  </si>
-  <si>
-    <t>9、海亮转债，偏离 2%，收盘119</t>
-  </si>
-  <si>
     <t>全筑转债103元，众兴转债106元，正川转债106元，威派转债107元，晨丰转债107元，华阳转债107元，翔鹭转债107元，瀛通转债109元，华源转债109元，博世转债110元。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -694,12 +688,84 @@
     <t>绿茵转债</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>财通转债</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秦转债</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周净入50张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3356.08点。10支亏损</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>科达转债</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正川转债</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>建</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>博杰转债</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下修预期，T的利润太小，未出。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3228.06点，大盘跌的厉害。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周净入80张,大盘跌的趋势</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周净入10张。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>敖东转债</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3277点。1360张。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>建.本周20张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周净入40张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3236点。1400张。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,8 +903,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +1019,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1642,6 +1741,44 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1897,10 +2034,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$51</c:f>
+              <c:f>收益weekly!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -1982,15 +2119,27 @@
                 <c:pt idx="26">
                   <c:v>44744</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$B$2:$B$51</c:f>
+              <c:f>收益weekly!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>475.78</c:v>
                 </c:pt>
@@ -2071,6 +2220,18 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>10883.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11533.51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9329</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11710.43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13004.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,10 +2318,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$51</c:f>
+              <c:f>收益weekly!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -2242,15 +2403,27 @@
                 <c:pt idx="26">
                   <c:v>44744</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$C$2:$C$51</c:f>
+              <c:f>收益weekly!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
@@ -2331,6 +2504,18 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>8.3900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.5300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4900000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,55 +3301,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>637727</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>161451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76B042E-4A10-AD64-D438-87F8BC645006}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="33375600"/>
-          <a:ext cx="3580952" cy="3790476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3595,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3917,7 +4053,7 @@
         <v>7.5800000000000006E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3931,28 +4067,64 @@
         <v>8.3900000000000002E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="29">
+        <v>44750</v>
+      </c>
+      <c r="B29" s="48">
+        <v>11533.51</v>
+      </c>
+      <c r="C29" s="30">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="29">
+        <v>44757</v>
+      </c>
+      <c r="B30" s="146">
+        <v>9329</v>
+      </c>
+      <c r="C30" s="147">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="D30" s="163" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="29">
+        <v>44768</v>
+      </c>
+      <c r="B31" s="48">
+        <v>11710.43</v>
+      </c>
+      <c r="C31" s="30">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="29">
+        <v>44781</v>
+      </c>
+      <c r="B32" s="48">
+        <v>13004.16</v>
+      </c>
+      <c r="C32" s="30">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
@@ -4010,6 +4182,7 @@
       <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
       <c r="B44" s="48"/>
       <c r="C44" s="30"/>
     </row>
@@ -4019,6 +4192,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="48"/>
+      <c r="C46" s="30"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4030,11 +4207,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W211"/>
+  <dimension ref="A1:W229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U188" sqref="U188"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M212" sqref="M212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4060,47 +4237,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163"/>
-      <c r="B1" s="169" t="s">
+      <c r="A1" s="173"/>
+      <c r="B1" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="168" t="s">
+      <c r="F1" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="167" t="s">
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="165" t="s">
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="161" t="s">
+      <c r="S1" s="171" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="164"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
       <c r="F2" s="20" t="s">
         <v>134</v>
       </c>
@@ -4134,11 +4311,11 @@
       <c r="P2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="166"/>
+      <c r="Q2" s="176"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="162"/>
+      <c r="S2" s="172"/>
     </row>
     <row r="3" spans="1:23" s="158" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="151"/>
@@ -4185,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="65">
-        <f t="shared" ref="P3:P34" si="2">M3/$M$192</f>
+        <f t="shared" ref="P3:P34" si="2">M3/$M$210</f>
         <v>0</v>
       </c>
       <c r="Q3" s="157"/>
@@ -4221,29 +4398,29 @@
         <v>80</v>
       </c>
       <c r="J4" s="12">
-        <v>104.92</v>
+        <v>104.93899999999999</v>
       </c>
       <c r="K4" s="12">
-        <v>97.45</v>
+        <v>102.00700000000001</v>
       </c>
       <c r="L4" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>1049.2</v>
+        <v>3148.1699999999996</v>
       </c>
       <c r="N4" s="25">
         <f t="shared" si="1"/>
-        <v>7.6654694715238572E-2</v>
+        <v>2.874312547178123E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>74.699999999999989</v>
+        <v>87.959999999999638</v>
       </c>
       <c r="P4" s="25">
         <f t="shared" si="2"/>
-        <v>8.091129000913683E-3</v>
+        <v>2.0547301471767844E-2</v>
       </c>
       <c r="Q4" s="129"/>
       <c r="S4" s="26"/>
@@ -4329,7 +4506,7 @@
         <v>80</v>
       </c>
       <c r="J6" s="12">
-        <v>120.09</v>
+        <v>117.29</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -4339,19 +4516,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1200.9000000000001</v>
+        <v>1172.9000000000001</v>
       </c>
       <c r="N6" s="25">
         <f t="shared" si="1"/>
-        <v>0.25918780342032705</v>
+        <v>0.22982877394595855</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>247.19000000000008</v>
+        <v>219.19000000000011</v>
       </c>
       <c r="P6" s="25">
         <f t="shared" si="2"/>
-        <v>9.2609958227194457E-3</v>
+        <v>7.6552187131687637E-3</v>
       </c>
       <c r="Q6" s="129"/>
       <c r="R6" s="59"/>
@@ -4384,7 +4561,7 @@
         <v>80</v>
       </c>
       <c r="J7" s="12">
-        <v>115.35</v>
+        <v>113.107</v>
       </c>
       <c r="K7" s="12">
         <v>86.438000000000002</v>
@@ -4394,19 +4571,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>3460.5</v>
+        <v>3393.21</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="1"/>
-        <v>0.33448251926236133</v>
+        <v>0.30853328397232693</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>867.35999999999979</v>
+        <v>800.06999999999994</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" si="2"/>
-        <v>2.6686381917329201E-2</v>
+        <v>2.2146614962666365E-2</v>
       </c>
       <c r="Q7" s="129"/>
       <c r="S7" s="26"/>
@@ -4437,29 +4614,29 @@
         <v>80</v>
       </c>
       <c r="J8" s="12">
-        <v>109.73</v>
+        <v>109.259</v>
       </c>
       <c r="K8" s="12">
-        <v>102.07</v>
+        <v>105.64700000000001</v>
       </c>
       <c r="L8" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>1097.3</v>
+        <v>3277.77</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="1"/>
-        <v>7.5046536690506621E-2</v>
+        <v>3.4189328613211868E-2</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>76.600000000000108</v>
+        <v>108.35999999999984</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" si="2"/>
-        <v>8.46206238343746E-3</v>
+        <v>2.1393167568815055E-2</v>
       </c>
       <c r="Q8" s="129"/>
       <c r="S8" s="26"/>
@@ -4486,29 +4663,29 @@
         <v>80</v>
       </c>
       <c r="J9" s="12">
-        <v>110.151</v>
+        <v>121.35899999999999</v>
       </c>
       <c r="K9" s="12">
-        <v>98.92</v>
+        <v>98.42</v>
       </c>
       <c r="L9" s="12">
         <v>10</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1101.51</v>
+        <v>1213.5899999999999</v>
       </c>
       <c r="N9" s="25">
         <f t="shared" si="1"/>
-        <v>0.11353619086130201</v>
+        <v>0.23307254623044088</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>112.30999999999995</v>
+        <v>229.38999999999993</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="2"/>
-        <v>8.4945286940492099E-3</v>
+        <v>7.9207919499654517E-3</v>
       </c>
       <c r="Q9" s="129"/>
       <c r="S9" s="26"/>
@@ -4568,103 +4745,103 @@
     </row>
     <row r="11" spans="1:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69"/>
-      <c r="B11" s="82">
+      <c r="B11" s="166">
         <v>9</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="42">
+      <c r="C11" s="167"/>
+      <c r="D11" s="72">
         <v>127039</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="44">
-        <v>10</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="45">
+      <c r="F11" s="74">
+        <v>10</v>
+      </c>
+      <c r="G11" s="74">
+        <v>0</v>
+      </c>
+      <c r="H11" s="75">
         <f>F11*G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="45">
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="46" t="e">
+      <c r="N11" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="75">
         <v>333.03</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="130"/>
+      <c r="Q11" s="134"/>
       <c r="S11" s="47"/>
     </row>
     <row r="12" spans="1:23" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="69"/>
-      <c r="B12" s="82">
-        <v>10</v>
-      </c>
-      <c r="C12" s="83">
+      <c r="B12" s="166">
+        <v>10</v>
+      </c>
+      <c r="C12" s="167">
         <v>44389</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="72">
         <v>127003</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="44">
-        <v>10</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-      <c r="H12" s="45">
+      <c r="F12" s="74">
+        <v>10</v>
+      </c>
+      <c r="G12" s="74">
+        <v>0</v>
+      </c>
+      <c r="H12" s="75">
         <f>F12*G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="43">
-        <v>0</v>
-      </c>
-      <c r="K12" s="43">
-        <v>0</v>
-      </c>
-      <c r="L12" s="43">
-        <v>0</v>
-      </c>
-      <c r="M12" s="45">
+      <c r="J12" s="73">
+        <v>0</v>
+      </c>
+      <c r="K12" s="73">
+        <v>0</v>
+      </c>
+      <c r="L12" s="73">
+        <v>0</v>
+      </c>
+      <c r="M12" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="46" t="e">
+      <c r="N12" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="75">
         <f>(J12-K12)*L12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="130"/>
+      <c r="Q12" s="134"/>
       <c r="S12" s="47"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4694,29 +4871,29 @@
         <v>80</v>
       </c>
       <c r="J13" s="12">
-        <v>106.21</v>
+        <v>106.29</v>
       </c>
       <c r="K13" s="12">
-        <v>98.8</v>
+        <v>102.215</v>
       </c>
       <c r="L13" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>1062.0999999999999</v>
+        <v>2125.8000000000002</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" si="1"/>
-        <v>7.4999999999999969E-2</v>
+        <v>3.9866947121264026E-2</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>74.099999999999966</v>
+        <v>81.500000000000057</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="2"/>
-        <v>8.1906100951872115E-3</v>
+        <v>1.3874553619621586E-2</v>
       </c>
       <c r="Q13" s="129"/>
       <c r="S13" s="26"/>
@@ -4791,7 +4968,7 @@
         <v>80</v>
       </c>
       <c r="J15" s="12">
-        <v>122.85299999999999</v>
+        <v>127.4</v>
       </c>
       <c r="K15" s="12">
         <v>97.131</v>
@@ -4801,19 +4978,19 @@
       </c>
       <c r="M15" s="11">
         <f t="shared" si="0"/>
-        <v>1228.53</v>
+        <v>1274</v>
       </c>
       <c r="N15" s="25">
         <f t="shared" si="1"/>
-        <v>0.26481761744448212</v>
+        <v>0.31163068433352897</v>
       </c>
       <c r="O15" s="11">
         <f t="shared" ref="O15:O24" si="3">(J15-K15)*L15</f>
-        <v>257.21999999999991</v>
+        <v>302.69000000000005</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="2"/>
-        <v>9.4740704455704219E-3</v>
+        <v>8.3150725898004981E-3</v>
       </c>
       <c r="Q15" s="129"/>
       <c r="R15" s="39"/>
@@ -4890,7 +5067,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="12">
-        <v>117.42</v>
+        <v>118.252</v>
       </c>
       <c r="K17" s="12">
         <v>116.52</v>
@@ -4900,19 +5077,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>10567.8</v>
+        <v>10642.68</v>
       </c>
       <c r="N17" s="25">
         <f t="shared" si="1"/>
-        <v>7.7239958805355793E-3</v>
+        <v>1.4864400961208371E-2</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>81.000000000000512</v>
+        <v>155.87999999999994</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="2"/>
-        <v>8.1495837834402979E-2</v>
+        <v>6.9462053963907353E-2</v>
       </c>
       <c r="Q17" s="129"/>
       <c r="S17" s="47"/>
@@ -4945,7 +5122,7 @@
         <v>80</v>
       </c>
       <c r="J18" s="12">
-        <v>114.08</v>
+        <v>114.014</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -4955,19 +5132,19 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2281.6</v>
+        <v>2280.2799999999997</v>
       </c>
       <c r="N18" s="25">
         <f t="shared" si="1"/>
-        <v>5.0315333977811572E-2</v>
+        <v>4.970768310086085E-2</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>109.30000000000007</v>
+        <v>107.98000000000002</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="2"/>
-        <v>1.7595043774766162E-2</v>
+        <v>1.4882805121719214E-2</v>
       </c>
       <c r="Q18" s="129"/>
       <c r="R18" s="51"/>
@@ -5001,7 +5178,7 @@
         <v>80</v>
       </c>
       <c r="J19" s="12">
-        <v>99.8</v>
+        <v>98.444000000000003</v>
       </c>
       <c r="K19" s="12">
         <v>92.355999999999995</v>
@@ -5011,19 +5188,19 @@
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>5988</v>
+        <v>5906.64</v>
       </c>
       <c r="N19" s="25">
         <f t="shared" si="1"/>
-        <v>8.0601152063753331E-2</v>
+        <v>6.5918835809259918E-2</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>446.64000000000016</v>
+        <v>365.28000000000048</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="2"/>
-        <v>4.6177735853479916E-2</v>
+        <v>3.8551130582275682E-2</v>
       </c>
       <c r="Q19" s="129"/>
       <c r="S19" s="26"/>
@@ -5055,29 +5232,29 @@
         <v>80</v>
       </c>
       <c r="J20" s="12">
-        <v>98.76</v>
+        <v>98.706999999999994</v>
       </c>
       <c r="K20" s="12">
-        <v>98.41</v>
+        <v>98.334000000000003</v>
       </c>
       <c r="L20" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>3950.4</v>
+        <v>4935.3499999999995</v>
       </c>
       <c r="N20" s="25">
         <f t="shared" si="1"/>
-        <v>3.5565491311859419E-3</v>
+        <v>3.7931946224092424E-3</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>14.000000000000341</v>
+        <v>18.649999999999523</v>
       </c>
       <c r="P20" s="25">
         <f t="shared" si="2"/>
-        <v>3.0464349985902986E-2</v>
+        <v>3.2211768843070553E-2</v>
       </c>
       <c r="Q20" s="129"/>
       <c r="S20" s="26"/>
@@ -5109,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="J21" s="12">
-        <v>110.72199999999999</v>
+        <v>109.574</v>
       </c>
       <c r="K21" s="12">
         <v>97.37</v>
@@ -5119,19 +5296,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>1107.22</v>
+        <v>1095.74</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="1"/>
-        <v>0.13712642497689215</v>
+        <v>0.1253363458970935</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>133.5199999999999</v>
+        <v>122.03999999999994</v>
       </c>
       <c r="P21" s="25">
         <f t="shared" si="2"/>
-        <v>8.5385625737625318E-3</v>
+        <v>7.1516151016860268E-3</v>
       </c>
       <c r="Q21" s="129"/>
       <c r="S21" s="26"/>
@@ -5163,29 +5340,29 @@
         <v>80</v>
       </c>
       <c r="J22" s="12">
-        <v>108.29</v>
+        <v>106.54900000000001</v>
       </c>
       <c r="K22" s="12">
-        <v>85.947999999999993</v>
+        <v>85.147999999999996</v>
       </c>
       <c r="L22" s="12">
         <v>60</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="0"/>
-        <v>6497.4000000000005</v>
+        <v>6392.9400000000005</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="1"/>
-        <v>0.25994787545958037</v>
+        <v>0.25133884530464617</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>1340.5200000000009</v>
+        <v>1284.0600000000006</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="2"/>
-        <v>5.0106082320374154E-2</v>
+        <v>4.1725086469575512E-2</v>
       </c>
       <c r="Q22" s="129"/>
       <c r="S22" s="26"/>
@@ -5216,29 +5393,29 @@
         <v>80</v>
       </c>
       <c r="J23" s="12">
-        <v>97.21</v>
+        <v>96.271000000000001</v>
       </c>
       <c r="K23" s="12">
-        <v>97.644999999999996</v>
+        <v>96.58</v>
       </c>
       <c r="L23" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>1944.1999999999998</v>
+        <v>3850.84</v>
       </c>
       <c r="N23" s="25">
         <f t="shared" si="1"/>
-        <v>-4.4549132060013544E-3</v>
+        <v>-3.1994201698073879E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>-8.7000000000000455</v>
+        <v>-12.3599999999999</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="2"/>
-        <v>1.4993111898185646E-2</v>
+        <v>2.5133449082972804E-2</v>
       </c>
       <c r="Q23" s="129"/>
       <c r="S23" s="26"/>
@@ -5368,29 +5545,29 @@
         <v>66</v>
       </c>
       <c r="J26" s="12">
-        <v>108.584</v>
+        <v>110.46899999999999</v>
       </c>
       <c r="K26" s="12">
-        <v>104.497</v>
+        <v>103.797</v>
       </c>
       <c r="L26" s="12">
         <v>10</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1085.8400000000001</v>
+        <v>1104.69</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="1"/>
-        <v>3.9111170655616936E-2</v>
+        <v>6.4279314431052892E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>40.870000000000033</v>
+        <v>66.71999999999997</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="2"/>
-        <v>8.3736861555014433E-3</v>
+        <v>7.2100294656410619E-3</v>
       </c>
       <c r="Q26" s="129"/>
       <c r="S26" s="26"/>
@@ -5467,29 +5644,29 @@
         <v>66</v>
       </c>
       <c r="J28" s="12">
-        <v>114.74</v>
+        <v>111.55</v>
       </c>
       <c r="K28" s="12">
-        <v>125.69199999999999</v>
+        <v>123.71599999999999</v>
       </c>
       <c r="L28" s="12">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>6884.4</v>
+        <v>7808.5</v>
       </c>
       <c r="N28" s="25">
         <f t="shared" si="1"/>
-        <v>-8.7133628234096039E-2</v>
+        <v>-9.8338129263797716E-2</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-657.11999999999989</v>
+        <v>-851.61999999999978</v>
       </c>
       <c r="P28" s="25">
         <f t="shared" si="2"/>
-        <v>5.3090515148580014E-2</v>
+        <v>5.0964085021551954E-2</v>
       </c>
       <c r="Q28" s="129" t="s">
         <v>68</v>
@@ -5575,7 +5752,7 @@
         <v>66</v>
       </c>
       <c r="J30" s="12">
-        <v>106.58</v>
+        <v>106.05</v>
       </c>
       <c r="K30" s="12">
         <v>101.34</v>
@@ -5585,19 +5762,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>3197.4</v>
+        <v>3181.5</v>
       </c>
       <c r="N30" s="25">
         <f t="shared" si="1"/>
-        <v>5.1707124531280783E-2</v>
+        <v>4.6477205447009999E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>157.19999999999985</v>
+        <v>141.29999999999981</v>
       </c>
       <c r="P30" s="25">
         <f t="shared" si="2"/>
-        <v>2.4657430296913276E-2</v>
+        <v>2.0764837868485309E-2</v>
       </c>
       <c r="Q30" s="129"/>
       <c r="S30" s="26"/>
@@ -5629,7 +5806,7 @@
         <v>66</v>
       </c>
       <c r="J31" s="12">
-        <v>117.611</v>
+        <v>116.902</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -5639,19 +5816,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1176.1100000000001</v>
+        <v>1169.02</v>
       </c>
       <c r="N31" s="25">
         <f t="shared" si="1"/>
-        <v>0.15734936676474359</v>
+        <v>0.15037246238474339</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>159.90000000000009</v>
+        <v>152.81000000000006</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="2"/>
-        <v>9.0698224640341132E-3</v>
+        <v>7.6298949442139552E-3</v>
       </c>
       <c r="Q31" s="129"/>
       <c r="R31" s="7"/>
@@ -5734,7 +5911,7 @@
         <v>66</v>
       </c>
       <c r="J33" s="12">
-        <v>99.436999999999998</v>
+        <v>103.155</v>
       </c>
       <c r="K33" s="12">
         <v>93.847999999999999</v>
@@ -5744,19 +5921,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>2983.11</v>
+        <v>3094.65</v>
       </c>
       <c r="N33" s="25">
         <f t="shared" si="1"/>
-        <v>5.9553746483675715E-2</v>
+        <v>9.9170999914755795E-2</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>167.66999999999996</v>
+        <v>279.21000000000004</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="2"/>
-        <v>2.3004887375062538E-2</v>
+        <v>2.0197990102061313E-2</v>
       </c>
       <c r="Q33" s="129"/>
       <c r="R33" s="8"/>
@@ -5840,7 +6017,7 @@
         <v>66</v>
       </c>
       <c r="J35" s="12">
-        <v>99.4</v>
+        <v>99.567999999999998</v>
       </c>
       <c r="K35" s="12">
         <v>98.19</v>
@@ -5850,19 +6027,19 @@
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>6958</v>
+        <v>6969.76</v>
       </c>
       <c r="N35" s="25">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>1.2323047153478033E-2</v>
+        <v>1.4034015683878198E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>84.700000000000557</v>
+        <v>96.460000000000008</v>
       </c>
       <c r="P35" s="25">
-        <f t="shared" ref="P35:P66" si="8">M35/$M$192</f>
-        <v>5.3658097205830542E-2</v>
+        <f t="shared" ref="P35:P66" si="8">M35/$M$210</f>
+        <v>4.5489843275893192E-2</v>
       </c>
       <c r="Q35" s="129"/>
       <c r="S35" s="26"/>
@@ -6382,29 +6559,29 @@
         <v>80</v>
       </c>
       <c r="J46" s="12">
-        <v>128.32499999999999</v>
+        <v>132.989</v>
       </c>
       <c r="K46" s="12">
-        <v>137.15799999999999</v>
+        <v>131.05000000000001</v>
       </c>
       <c r="L46" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>6416.2499999999991</v>
+        <v>5319.56</v>
       </c>
       <c r="N46" s="25">
         <f t="shared" si="7"/>
-        <v>-6.4400180813368513E-2</v>
+        <v>1.4795879435329971E-2</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-441.64999999999992</v>
+        <v>77.559999999999718</v>
       </c>
       <c r="P46" s="25">
         <f t="shared" si="8"/>
-        <v>4.9480276831979038E-2</v>
+        <v>3.4719409376608432E-2</v>
       </c>
       <c r="Q46" s="129"/>
       <c r="S46" s="26"/>
@@ -6437,7 +6614,7 @@
         <v>80</v>
       </c>
       <c r="J47" s="12">
-        <v>116.151</v>
+        <v>119.11</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -6447,19 +6624,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2323.02</v>
+        <v>2382.1999999999998</v>
       </c>
       <c r="N47" s="25">
         <f t="shared" si="7"/>
-        <v>2.0791993788283987E-3</v>
+        <v>2.7607626606850167E-2</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>4.8199999999999932</v>
+        <v>64.000000000000057</v>
       </c>
       <c r="P47" s="25">
         <f t="shared" si="8"/>
-        <v>1.7914462916224269E-2</v>
+        <v>1.5548010928903254E-2</v>
       </c>
       <c r="Q47" s="129"/>
       <c r="S47" s="26"/>
@@ -6541,7 +6718,7 @@
         <v>80</v>
       </c>
       <c r="J49" s="12">
-        <v>114.07</v>
+        <v>114.304</v>
       </c>
       <c r="K49" s="12">
         <v>114.46</v>
@@ -6551,19 +6728,19 @@
       </c>
       <c r="M49" s="11">
         <f t="shared" si="6"/>
-        <v>1140.6999999999998</v>
+        <v>1143.04</v>
       </c>
       <c r="N49" s="25">
         <f t="shared" si="7"/>
-        <v>-3.4073038616110481E-3</v>
+        <v>-1.3629215446443448E-3</v>
       </c>
       <c r="O49" s="11">
         <f t="shared" si="9"/>
-        <v>-3.9000000000000057</v>
+        <v>-1.559999999999917</v>
       </c>
       <c r="P49" s="25">
         <f t="shared" si="8"/>
-        <v>8.7967507161096411E-3</v>
+        <v>7.460330120129954E-3</v>
       </c>
       <c r="Q49" s="129"/>
       <c r="S49" s="26"/>
@@ -7126,29 +7303,29 @@
         <v>80</v>
       </c>
       <c r="J61" s="12">
-        <v>108.94</v>
+        <v>109.599</v>
       </c>
       <c r="K61" s="12">
-        <v>103.331</v>
+        <v>98.869</v>
       </c>
       <c r="L61" s="12">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="11">J61*L61</f>
-        <v>6536.4</v>
+        <v>5479.95</v>
       </c>
       <c r="N61" s="25">
         <f t="shared" ref="N61:N95" si="12">(J61-K61)/K61</f>
-        <v>5.4281870880955325E-2</v>
+        <v>0.10852744540755954</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
-        <v>336.53999999999968</v>
+        <v>536.50000000000023</v>
       </c>
       <c r="P61" s="25">
         <f t="shared" si="8"/>
-        <v>5.0406839117015052E-2</v>
+        <v>3.5766233939150113E-2</v>
       </c>
       <c r="Q61" s="129"/>
       <c r="S61" s="26"/>
@@ -7427,7 +7604,7 @@
         <v>80</v>
       </c>
       <c r="J67" s="12">
-        <v>108.05</v>
+        <v>108.96599999999999</v>
       </c>
       <c r="K67" s="12">
         <v>106.405</v>
@@ -7437,19 +7614,19 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>1080.5</v>
+        <v>1089.6599999999999</v>
       </c>
       <c r="N67" s="25">
         <f t="shared" si="12"/>
-        <v>1.5459799821436925E-2</v>
+        <v>2.4068417837507568E-2</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>16.44999999999996</v>
+        <v>25.609999999999928</v>
       </c>
       <c r="P67" s="25">
-        <f t="shared" ref="P67:P98" si="13">M67/$M$192</f>
-        <v>8.3325056094998417E-3</v>
+        <f t="shared" ref="P67:P98" si="13">M67/$M$210</f>
+        <v>7.1119324946640585E-3</v>
       </c>
       <c r="Q67" s="129"/>
       <c r="S67" s="26"/>
@@ -7526,29 +7703,29 @@
         <v>66</v>
       </c>
       <c r="J69" s="12">
-        <v>100.349</v>
+        <v>103.86799999999999</v>
       </c>
       <c r="K69" s="12">
-        <v>98.132000000000005</v>
+        <v>97.278999999999996</v>
       </c>
       <c r="L69" s="12">
         <v>70</v>
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M95" si="14">J69*L69</f>
-        <v>7024.43</v>
+        <v>7270.7599999999993</v>
       </c>
       <c r="N69" s="25">
         <f t="shared" si="12"/>
-        <v>2.2592018913300437E-2</v>
+        <v>6.7733015347608408E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>155.18999999999991</v>
+        <v>461.2299999999999</v>
       </c>
       <c r="P69" s="25">
         <f t="shared" si="13"/>
-        <v>5.4170386282775547E-2</v>
+        <v>4.7454393393263634E-2</v>
       </c>
       <c r="Q69" s="129"/>
       <c r="S69" s="26"/>
@@ -7632,7 +7809,7 @@
         <v>66</v>
       </c>
       <c r="J71" s="12">
-        <v>107.8</v>
+        <v>110.961</v>
       </c>
       <c r="K71" s="12">
         <v>104.511</v>
@@ -7642,19 +7819,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="14"/>
-        <v>1078</v>
+        <v>1109.6099999999999</v>
       </c>
       <c r="N71" s="25">
         <f t="shared" si="12"/>
-        <v>3.1470371539837928E-2</v>
+        <v>6.1715991618107216E-2</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>32.890000000000015</v>
+        <v>64.500000000000028</v>
       </c>
       <c r="P71" s="25">
         <f t="shared" si="13"/>
-        <v>8.3132263276638873E-3</v>
+        <v>7.2421410489548902E-3</v>
       </c>
       <c r="Q71" s="129"/>
       <c r="S71" s="26"/>
@@ -7734,7 +7911,7 @@
         <v>66</v>
       </c>
       <c r="J73" s="12">
-        <v>118.3</v>
+        <v>120.405</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -7744,19 +7921,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1183</v>
+        <v>1204.05</v>
       </c>
       <c r="N73" s="25">
         <f t="shared" si="12"/>
-        <v>4.6708133886622809E-2</v>
+        <v>6.5332991214022182E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>52.789999999999964</v>
+        <v>73.84</v>
       </c>
       <c r="P73" s="25">
         <f t="shared" si="13"/>
-        <v>9.122956164774005E-3</v>
+        <v>7.8585268067105883E-3</v>
       </c>
       <c r="Q73" s="129"/>
       <c r="S73" s="26"/>
@@ -7936,29 +8113,29 @@
         <v>66</v>
       </c>
       <c r="J77" s="12">
-        <v>105.78</v>
+        <v>113.75700000000001</v>
       </c>
       <c r="K77" s="12">
-        <v>105.045</v>
+        <v>83.54</v>
       </c>
       <c r="L77" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M77" s="11">
         <f t="shared" si="14"/>
-        <v>2115.6</v>
+        <v>1137.5700000000002</v>
       </c>
       <c r="N77" s="25">
         <f t="shared" si="12"/>
-        <v>6.9970012851634962E-3</v>
+        <v>0.36170696672252811</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="15"/>
-        <v>14.699999999999989</v>
+        <v>302.16999999999996</v>
       </c>
       <c r="P77" s="25">
         <f t="shared" si="13"/>
-        <v>1.6314899460858737E-2</v>
+        <v>7.4246288272993366E-3</v>
       </c>
       <c r="Q77" s="129"/>
       <c r="S77" s="26"/>
@@ -8040,7 +8217,7 @@
         <v>66</v>
       </c>
       <c r="J79" s="12">
-        <v>111.89</v>
+        <v>114.776</v>
       </c>
       <c r="K79" s="12">
         <v>109.09</v>
@@ -8050,19 +8227,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="14"/>
-        <v>1118.9000000000001</v>
+        <v>1147.76</v>
       </c>
       <c r="N79" s="25">
         <f t="shared" si="12"/>
-        <v>2.566688055733795E-2</v>
+        <v>5.2122101017508415E-2</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="15"/>
-        <v>27.999999999999972</v>
+        <v>56.859999999999928</v>
       </c>
       <c r="P79" s="25">
         <f t="shared" si="13"/>
-        <v>8.628635378500114E-3</v>
+        <v>7.4911363545285868E-3</v>
       </c>
       <c r="Q79" s="129"/>
       <c r="S79" s="26"/>
@@ -8095,29 +8272,29 @@
         <v>66</v>
       </c>
       <c r="J80" s="12">
-        <v>106.43</v>
+        <v>107.43600000000001</v>
       </c>
       <c r="K80" s="12">
-        <v>107.741</v>
+        <v>107.056</v>
       </c>
       <c r="L80" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>2128.6000000000004</v>
+        <v>4297.4400000000005</v>
       </c>
       <c r="N80" s="25">
         <f t="shared" si="12"/>
-        <v>-1.2168069722760999E-2</v>
+        <v>3.5495441638022126E-3</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-26.219999999999857</v>
+        <v>15.200000000000387</v>
       </c>
       <c r="P80" s="25">
         <f t="shared" si="13"/>
-        <v>1.6415151726405706E-2</v>
+        <v>2.804829321060617E-2</v>
       </c>
       <c r="Q80" s="129"/>
       <c r="S80" s="26"/>
@@ -8198,7 +8375,7 @@
         <v>66</v>
       </c>
       <c r="J82" s="12">
-        <v>105.518</v>
+        <v>107.68</v>
       </c>
       <c r="K82" s="12">
         <v>102.289</v>
@@ -8208,19 +8385,19 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="14"/>
-        <v>3165.54</v>
+        <v>3230.4</v>
       </c>
       <c r="N82" s="25">
         <f t="shared" si="12"/>
-        <v>3.1567421716900149E-2</v>
+        <v>5.2703614269374081E-2</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="15"/>
-        <v>96.869999999999976</v>
+        <v>161.73000000000016</v>
       </c>
       <c r="P82" s="25">
         <f t="shared" si="13"/>
-        <v>2.4411735129195863E-2</v>
+        <v>2.1083995678250811E-2</v>
       </c>
       <c r="Q82" s="129"/>
       <c r="S82" s="26"/>
@@ -8300,7 +8477,7 @@
         <v>66</v>
       </c>
       <c r="J84" s="12">
-        <v>107.4</v>
+        <v>107.355</v>
       </c>
       <c r="K84" s="12">
         <v>106.631</v>
@@ -8310,19 +8487,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" si="14"/>
-        <v>1074</v>
+        <v>1073.55</v>
       </c>
       <c r="N84" s="25">
         <f t="shared" si="12"/>
-        <v>7.2117864410912906E-3</v>
+        <v>6.7897703294539464E-3</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>7.6900000000000546</v>
+        <v>7.2400000000000375</v>
       </c>
       <c r="P84" s="25">
         <f t="shared" si="13"/>
-        <v>8.2823794767263575E-3</v>
+        <v>7.006786639544996E-3</v>
       </c>
       <c r="Q84" s="129"/>
       <c r="S84" s="26"/>
@@ -8355,7 +8532,7 @@
         <v>66</v>
       </c>
       <c r="J85" s="12">
-        <v>102.4</v>
+        <v>107.336</v>
       </c>
       <c r="K85" s="12">
         <v>102.88500000000001</v>
@@ -8365,19 +8542,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="14"/>
-        <v>3072</v>
+        <v>3220.08</v>
       </c>
       <c r="N85" s="25">
         <f t="shared" si="12"/>
-        <v>-4.7140010691548761E-3</v>
+        <v>4.3261894348058445E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>-14.549999999999983</v>
+        <v>133.5299999999998</v>
       </c>
       <c r="P85" s="25">
         <f t="shared" si="13"/>
-        <v>2.3690381520021762E-2</v>
+        <v>2.1016639674226678E-2</v>
       </c>
       <c r="Q85" s="129"/>
       <c r="S85" s="26"/>
@@ -8604,7 +8781,7 @@
         <v>66</v>
       </c>
       <c r="J90" s="12">
-        <v>102.42</v>
+        <v>103.099</v>
       </c>
       <c r="K90" s="12">
         <v>101.134</v>
@@ -8614,19 +8791,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="14"/>
-        <v>3072.6</v>
+        <v>3092.9700000000003</v>
       </c>
       <c r="N90" s="25">
         <f t="shared" si="12"/>
-        <v>1.2715802796290084E-2</v>
+        <v>1.9429667569758967E-2</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="15"/>
-        <v>38.580000000000041</v>
+        <v>58.950000000000102</v>
       </c>
       <c r="P90" s="25">
         <f t="shared" si="13"/>
-        <v>2.3695008547662391E-2</v>
+        <v>2.0187025171173666E-2</v>
       </c>
       <c r="Q90" s="129"/>
       <c r="S90" s="26"/>
@@ -9044,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="25">
-        <f t="shared" ref="P99:P130" si="17">M99/$M$192</f>
+        <f t="shared" ref="P99:P130" si="17">M99/$M$210</f>
         <v>0</v>
       </c>
       <c r="Q99" s="138" t="s">
@@ -9323,29 +9500,29 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>105.7</v>
+        <v>103.38</v>
       </c>
       <c r="K105" s="12">
-        <v>103.712</v>
+        <v>103.464</v>
       </c>
       <c r="L105" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M105" s="11">
         <f t="shared" si="18"/>
-        <v>3171</v>
+        <v>5169</v>
       </c>
       <c r="N105" s="25">
         <f t="shared" si="19"/>
-        <v>1.9168466522678181E-2</v>
+        <v>-8.1187659475762759E-4</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="15"/>
-        <v>59.639999999999986</v>
+        <v>-4.2000000000001592</v>
       </c>
       <c r="P105" s="25">
         <f t="shared" si="17"/>
-        <v>2.445384108072559E-2</v>
+        <v>3.3736742713248648E-2</v>
       </c>
       <c r="Q105" s="129" t="s">
         <v>120</v>
@@ -9378,29 +9555,29 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>106.96</v>
+        <v>105.94799999999999</v>
       </c>
       <c r="K106" s="12">
-        <v>104.01</v>
+        <v>103.61</v>
       </c>
       <c r="L106" s="12">
         <v>10</v>
       </c>
       <c r="M106" s="11">
         <f t="shared" si="18"/>
-        <v>1069.5999999999999</v>
+        <v>1059.48</v>
       </c>
       <c r="N106" s="25">
         <f t="shared" si="19"/>
-        <v>2.8362657436784813E-2</v>
+        <v>2.2565389441173572E-2</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>29.499999999999886</v>
+        <v>23.379999999999939</v>
       </c>
       <c r="P106" s="25">
         <f t="shared" si="17"/>
-        <v>8.2484479406950764E-3</v>
+        <v>6.9149553433609356E-3</v>
       </c>
       <c r="Q106" s="129" t="s">
         <v>120</v>
@@ -9732,7 +9909,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>110.492</v>
+        <v>111.06</v>
       </c>
       <c r="K113" s="12">
         <v>105.44</v>
@@ -9742,19 +9919,19 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="18"/>
-        <v>1104.92</v>
+        <v>1110.5999999999999</v>
       </c>
       <c r="N113" s="25">
         <f t="shared" si="19"/>
-        <v>4.7913505311077458E-2</v>
+        <v>5.3300455235204901E-2</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="20"/>
-        <v>50.520000000000067</v>
+        <v>56.200000000000045</v>
       </c>
       <c r="P113" s="25">
         <f t="shared" si="17"/>
-        <v>8.5208256344734522E-3</v>
+        <v>7.2486025260851119E-3</v>
       </c>
       <c r="Q113" s="129" t="s">
         <v>120</v>
@@ -10435,7 +10612,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>107.995</v>
+        <v>108.11499999999999</v>
       </c>
       <c r="K127" s="12">
         <v>107.123</v>
@@ -10445,19 +10622,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="18"/>
-        <v>1079.95</v>
+        <v>1081.1499999999999</v>
       </c>
       <c r="N127" s="25">
         <f t="shared" si="19"/>
-        <v>8.1401753124912477E-3</v>
+        <v>9.2603829243018791E-3</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="20"/>
-        <v>8.7199999999999989</v>
+        <v>9.9199999999999022</v>
       </c>
       <c r="P127" s="25">
         <f t="shared" si="17"/>
-        <v>8.3282641674959322E-3</v>
+        <v>7.0563898983224552E-3</v>
       </c>
       <c r="Q127" s="129" t="s">
         <v>120</v>
@@ -10652,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="25">
-        <f t="shared" ref="P131:P180" si="23">M131/$M$192</f>
+        <f t="shared" ref="P131:P162" si="23">M131/$M$210</f>
         <v>0</v>
       </c>
       <c r="Q131" s="129"/>
@@ -10733,7 +10910,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>115.982</v>
+        <v>118.24299999999999</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -10743,19 +10920,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="18"/>
-        <v>1159.82</v>
+        <v>1182.4299999999998</v>
       </c>
       <c r="N133" s="25">
         <f t="shared" si="19"/>
-        <v>3.8139651453173488E-2</v>
+        <v>5.8377565542735842E-2</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="22"/>
-        <v>42.609999999999957</v>
+        <v>65.219999999999914</v>
       </c>
       <c r="P133" s="25">
         <f t="shared" si="23"/>
-        <v>8.944198663591028E-3</v>
+        <v>7.7174185889778667E-3</v>
       </c>
       <c r="Q133" s="129" t="s">
         <v>120</v>
@@ -10832,12 +11009,12 @@
         <v>107.61</v>
       </c>
       <c r="H135" s="14">
-        <f t="shared" ref="H135:H191" si="24">F135*G135</f>
+        <f t="shared" ref="H135:H188" si="24">F135*G135</f>
         <v>1076.0999999999999</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>112.38</v>
+        <v>113.396</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -10847,19 +11024,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="18"/>
-        <v>1123.8</v>
+        <v>1133.96</v>
       </c>
       <c r="N135" s="25">
         <f t="shared" si="19"/>
-        <v>4.4132676762984303E-2</v>
+        <v>5.3572424045340572E-2</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="22"/>
-        <v>47.5</v>
+        <v>57.660000000000053</v>
       </c>
       <c r="P135" s="25">
         <f t="shared" si="23"/>
-        <v>8.6664227708985863E-3</v>
+        <v>7.4010672793800424E-3</v>
       </c>
       <c r="Q135" s="129" t="s">
         <v>139</v>
@@ -10962,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="Q137" s="129" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S137" s="26"/>
     </row>
@@ -10978,7 +11155,7 @@
         <v>128085</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F138" s="21">
         <v>10</v>
@@ -10992,7 +11169,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>117.479</v>
+        <v>117.85599999999999</v>
       </c>
       <c r="K138" s="12">
         <v>115.14</v>
@@ -11002,19 +11179,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="18"/>
-        <v>1174.79</v>
+        <v>1178.56</v>
       </c>
       <c r="N138" s="25">
         <f t="shared" si="19"/>
-        <v>2.0314399861038723E-2</v>
+        <v>2.3588674656939326E-2</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="22"/>
-        <v>23.389999999999986</v>
+        <v>27.15999999999994</v>
       </c>
       <c r="P138" s="25">
         <f t="shared" si="23"/>
-        <v>9.0596430032247287E-3</v>
+        <v>7.6921600874688186E-3</v>
       </c>
       <c r="Q138" s="129" t="s">
         <v>120</v>
@@ -11033,7 +11210,7 @@
         <v>113527</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F139" s="21">
         <v>10</v>
@@ -11047,7 +11224,7 @@
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12">
-        <v>122.54</v>
+        <v>122.952</v>
       </c>
       <c r="K139" s="12">
         <v>119.23</v>
@@ -11057,19 +11234,19 @@
       </c>
       <c r="M139" s="11">
         <f t="shared" si="18"/>
-        <v>1225.4000000000001</v>
+        <v>1229.52</v>
       </c>
       <c r="N139" s="25">
         <f t="shared" si="19"/>
-        <v>2.7761469428835044E-2</v>
+        <v>3.1216975593390876E-2</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="22"/>
-        <v>33.100000000000023</v>
+        <v>37.219999999999942</v>
       </c>
       <c r="P139" s="25">
         <f t="shared" si="23"/>
-        <v>9.4499327847118071E-3</v>
+        <v>8.0247629910608388E-3</v>
       </c>
       <c r="Q139" s="129" t="s">
         <v>120</v>
@@ -11088,7 +11265,7 @@
         <v>128072</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F140" s="21">
         <v>10</v>
@@ -11102,7 +11279,7 @@
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="12">
-        <v>112.044</v>
+        <v>115.999</v>
       </c>
       <c r="K140" s="12">
         <v>108.14</v>
@@ -11112,22 +11289,22 @@
       </c>
       <c r="M140" s="11">
         <f t="shared" si="18"/>
-        <v>1120.44</v>
+        <v>1159.99</v>
       </c>
       <c r="N140" s="25">
         <f t="shared" si="19"/>
-        <v>3.6101350101719956E-2</v>
+        <v>7.2674311078231871E-2</v>
       </c>
       <c r="O140" s="11">
         <f t="shared" si="22"/>
-        <v>39.039999999999964</v>
+        <v>78.589999999999947</v>
       </c>
       <c r="P140" s="25">
         <f t="shared" si="23"/>
-        <v>8.6405114161110623E-3</v>
+        <v>7.5709584406928416E-3</v>
       </c>
       <c r="Q140" s="129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S140" s="26"/>
     </row>
@@ -11143,7 +11320,7 @@
         <v>128125</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F141" s="22">
         <v>10</v>
@@ -11157,7 +11334,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>111.17</v>
+        <v>110.985</v>
       </c>
       <c r="K141" s="12">
         <v>107.751</v>
@@ -11167,19 +11344,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" si="18"/>
-        <v>1111.7</v>
+        <v>1109.8499999999999</v>
       </c>
       <c r="N141" s="25">
         <f t="shared" si="19"/>
-        <v>3.1730563985485023E-2</v>
+        <v>3.0013642564802132E-2</v>
       </c>
       <c r="O141" s="11">
         <f t="shared" si="22"/>
-        <v>34.189999999999969</v>
+        <v>32.339999999999947</v>
       </c>
       <c r="P141" s="25">
         <f t="shared" si="23"/>
-        <v>8.5731110468125638E-3</v>
+        <v>7.2437074676531257E-3</v>
       </c>
       <c r="Q141" s="129" t="s">
         <v>120</v>
@@ -11198,7 +11375,7 @@
         <v>123010</v>
       </c>
       <c r="E142" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F142" s="21">
         <v>10</v>
@@ -11212,29 +11389,29 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>112.38800000000001</v>
+        <v>115.6</v>
       </c>
       <c r="K142" s="12">
-        <v>110.821</v>
+        <v>109.321</v>
       </c>
       <c r="L142" s="12">
         <v>10</v>
       </c>
       <c r="M142" s="11">
         <f t="shared" si="18"/>
-        <v>1123.8800000000001</v>
+        <v>1156</v>
       </c>
       <c r="N142" s="25">
         <f t="shared" si="19"/>
-        <v>1.4139919329369048E-2</v>
+        <v>5.7436357150044332E-2</v>
       </c>
       <c r="O142" s="11">
         <f t="shared" si="22"/>
-        <v>15.670000000000073</v>
+        <v>62.789999999999964</v>
       </c>
       <c r="P142" s="25">
         <f t="shared" si="23"/>
-        <v>8.6670397079173372E-3</v>
+        <v>7.5449167298346749E-3</v>
       </c>
       <c r="Q142" s="129" t="s">
         <v>120</v>
@@ -11482,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="129" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S147" s="26"/>
     </row>
@@ -11498,7 +11675,7 @@
         <v>127044</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F148" s="21">
         <v>10</v>
@@ -11512,7 +11689,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>117.7</v>
+        <v>109.9</v>
       </c>
       <c r="K148" s="12">
         <v>106.378</v>
@@ -11522,19 +11699,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="18"/>
-        <v>1177</v>
+        <v>1099</v>
       </c>
       <c r="N148" s="25">
         <f t="shared" si="19"/>
-        <v>0.10643178100735116</v>
+        <v>3.3108349470755284E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="22"/>
-        <v>113.22000000000003</v>
+        <v>35.220000000000056</v>
       </c>
       <c r="P148" s="25">
         <f t="shared" si="23"/>
-        <v>9.0766858883677137E-3</v>
+        <v>7.1728922890037265E-3</v>
       </c>
       <c r="Q148" s="129" t="s">
         <v>120</v>
@@ -11553,7 +11730,7 @@
         <v>110062</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F149" s="21">
         <v>10</v>
@@ -11567,7 +11744,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>108.86</v>
+        <v>110.852</v>
       </c>
       <c r="K149" s="114">
         <v>107.27</v>
@@ -11577,19 +11754,19 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="18"/>
-        <v>1088.5999999999999</v>
+        <v>1108.52</v>
       </c>
       <c r="N149" s="25">
         <f t="shared" si="19"/>
-        <v>1.4822410739256116E-2</v>
+        <v>3.3392374382399628E-2</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="22"/>
-        <v>15.900000000000034</v>
+        <v>35.820000000000078</v>
       </c>
       <c r="P149" s="25">
         <f t="shared" si="23"/>
-        <v>8.3949704826483361E-3</v>
+        <v>7.2350268973670707E-3</v>
       </c>
       <c r="Q149" s="129" t="s">
         <v>120</v>
@@ -11689,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="Q151" s="133" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -11718,32 +11895,32 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>110.301</v>
+        <v>109.16500000000001</v>
       </c>
       <c r="K152" s="12">
-        <v>111.169</v>
+        <v>110.36499999999999</v>
       </c>
       <c r="L152" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M152" s="11">
         <f t="shared" si="18"/>
-        <v>2206.02</v>
+        <v>3274.9500000000003</v>
       </c>
       <c r="N152" s="25">
-        <f t="shared" ref="N152:N174" si="25">(J152-K152)/K152</f>
-        <v>-7.8079320673928431E-3</v>
+        <f t="shared" ref="N152:N188" si="25">(J152-K152)/K152</f>
+        <v>-1.0873012277442928E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O188" si="26">(J152-K152)*L152</f>
-        <v>-17.3599999999999</v>
+        <v>-35.999999999999659</v>
       </c>
       <c r="P152" s="25">
         <f t="shared" si="23"/>
-        <v>1.7012192526301564E-2</v>
+        <v>2.1374762149110788E-2</v>
       </c>
       <c r="Q152" s="129" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S152" s="26"/>
     </row>
@@ -11940,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="Q156" s="129" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S156" s="26"/>
     </row>
@@ -11956,7 +12133,7 @@
         <v>113639</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F157" s="21">
         <v>10</v>
@@ -11972,7 +12149,7 @@
         <v>80</v>
       </c>
       <c r="J157" s="12">
-        <v>112.79</v>
+        <v>119.535</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -11982,22 +12159,22 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="18"/>
-        <v>1127.9000000000001</v>
+        <v>1195.3499999999999</v>
       </c>
       <c r="N157" s="25">
         <f t="shared" si="25"/>
-        <v>3.3916949307910928E-2</v>
+        <v>9.5746631221926781E-2</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="26"/>
-        <v>37.000000000000028</v>
+        <v>104.44999999999993</v>
       </c>
       <c r="P157" s="25">
         <f t="shared" si="23"/>
-        <v>8.6980407931095526E-3</v>
+        <v>7.8017441288995484E-3</v>
       </c>
       <c r="Q157" s="129" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S157" s="26"/>
     </row>
@@ -12046,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="Q158" s="129" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S158" s="26"/>
     </row>
@@ -12062,7 +12239,7 @@
         <v>123101</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F159" s="21">
         <v>10</v>
@@ -12078,7 +12255,7 @@
         <v>80</v>
       </c>
       <c r="J159" s="12">
-        <v>112.9</v>
+        <v>117.27</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -12088,19 +12265,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="18"/>
-        <v>1129</v>
+        <v>1172.7</v>
       </c>
       <c r="N159" s="25">
         <f t="shared" si="25"/>
-        <v>4.8827616959607592E-2</v>
+        <v>8.9424398944669373E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="26"/>
-        <v>52.56</v>
+        <v>96.259999999999906</v>
       </c>
       <c r="P159" s="25">
         <f t="shared" si="23"/>
-        <v>8.7065236771173733E-3</v>
+        <v>7.6539133642535674E-3</v>
       </c>
       <c r="Q159" s="129"/>
       <c r="S159" s="26"/>
@@ -12264,7 +12441,7 @@
         <v>113046</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F163" s="21">
         <v>10</v>
@@ -12278,7 +12455,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>112.8</v>
+        <v>117.595</v>
       </c>
       <c r="K163" s="12">
         <v>109.07</v>
@@ -12288,19 +12465,19 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="18"/>
-        <v>1128</v>
+        <v>1175.95</v>
       </c>
       <c r="N163" s="25">
         <f t="shared" si="25"/>
-        <v>3.419822132575414E-2</v>
+        <v>7.8160814156046629E-2</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="26"/>
-        <v>37.30000000000004</v>
+        <v>85.250000000000057</v>
       </c>
       <c r="P163" s="25">
-        <f t="shared" si="23"/>
-        <v>8.6988119643829909E-3</v>
+        <f t="shared" ref="P163:P180" si="27">M163/$M$210</f>
+        <v>7.6751252841255075E-3</v>
       </c>
       <c r="Q163" s="129" t="s">
         <v>120</v>
@@ -12337,7 +12514,7 @@
       <c r="K164" s="62"/>
       <c r="L164" s="62"/>
       <c r="M164" s="64">
-        <f t="shared" ref="M164" si="27">J164*L164</f>
+        <f t="shared" ref="M164" si="28">J164*L164</f>
         <v>0</v>
       </c>
       <c r="N164" s="65" t="e">
@@ -12348,7 +12525,7 @@
         <v>449.14</v>
       </c>
       <c r="P164" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q164" s="133"/>
@@ -12385,7 +12562,7 @@
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
       <c r="M165" s="11">
-        <f t="shared" ref="M165:M174" si="28">J165*L165</f>
+        <f t="shared" ref="M165:M188" si="29">J165*L165</f>
         <v>0</v>
       </c>
       <c r="N165" s="25" t="e">
@@ -12394,7 +12571,7 @@
       </c>
       <c r="O165" s="11"/>
       <c r="P165" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q165" s="129"/>
@@ -12431,7 +12608,7 @@
       <c r="K166" s="12"/>
       <c r="L166" s="12"/>
       <c r="M166" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N166" s="25" t="e">
@@ -12443,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q166" s="129"/>
@@ -12480,7 +12657,7 @@
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
       <c r="M167" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N167" s="25" t="e">
@@ -12492,11 +12669,11 @@
         <v>0</v>
       </c>
       <c r="P167" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q167" s="129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S167" s="26"/>
     </row>
@@ -12531,7 +12708,7 @@
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
       <c r="M168" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N168" s="25" t="e">
@@ -12543,17 +12720,17 @@
         <v>0</v>
       </c>
       <c r="P168" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q168" s="129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S168" s="26"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
-      <c r="B169" s="142">
+      <c r="B169" s="161">
         <v>168</v>
       </c>
       <c r="C169" s="31">
@@ -12563,61 +12740,81 @@
         <v>127034</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
+        <v>167</v>
+      </c>
+      <c r="F169" s="21">
+        <v>10</v>
+      </c>
+      <c r="G169" s="21">
+        <v>106.36199999999999</v>
+      </c>
       <c r="H169" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1063.6199999999999</v>
       </c>
       <c r="I169" s="15"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
+      <c r="J169" s="12">
+        <v>106.214</v>
+      </c>
+      <c r="K169" s="12">
+        <v>106.38200000000001</v>
+      </c>
+      <c r="L169" s="12">
+        <v>10</v>
+      </c>
       <c r="M169" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N169" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>1062.1399999999999</v>
+      </c>
+      <c r="N169" s="25">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>-1.5792145287737245E-3</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-1.6800000000000637</v>
       </c>
       <c r="P169" s="25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q169" s="129"/>
+        <f t="shared" si="27"/>
+        <v>6.9323164839330455E-3</v>
+      </c>
+      <c r="Q169" s="129" t="s">
+        <v>120</v>
+      </c>
       <c r="S169" s="26"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
-      <c r="B170" s="142">
+      <c r="B170" s="161">
         <v>169</v>
       </c>
-      <c r="C170" s="31"/>
+      <c r="C170" s="31">
+        <v>44746</v>
+      </c>
       <c r="D170" s="32">
-        <v>113596</v>
+        <v>113584</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F170" s="21"/>
-      <c r="G170" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="F170" s="21">
+        <v>10</v>
+      </c>
+      <c r="G170" s="21">
+        <v>104.86</v>
+      </c>
       <c r="H170" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I170" s="15"/>
+        <v>1048.5999999999999</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J170" s="12"/>
       <c r="K170" s="12"/>
       <c r="L170" s="12"/>
       <c r="M170" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N170" s="25" t="e">
@@ -12629,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="P170" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q170" s="129"/>
@@ -12637,106 +12834,150 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
-      <c r="B171" s="142">
+      <c r="B171" s="161">
         <v>170</v>
       </c>
-      <c r="C171" s="31"/>
+      <c r="C171" s="31">
+        <v>44747</v>
+      </c>
       <c r="D171" s="32">
-        <v>113584</v>
+        <v>113043</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
+        <v>168</v>
+      </c>
+      <c r="F171" s="21">
+        <v>10</v>
+      </c>
+      <c r="G171" s="21">
+        <v>109.26</v>
+      </c>
       <c r="H171" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I171" s="15"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
+        <v>1092.6000000000001</v>
+      </c>
+      <c r="I171" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J171" s="12">
+        <v>108.88200000000001</v>
+      </c>
+      <c r="K171" s="12">
+        <v>109.28</v>
+      </c>
+      <c r="L171" s="12">
+        <v>10</v>
+      </c>
       <c r="M171" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N171" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>1088.8200000000002</v>
+      </c>
+      <c r="N171" s="25">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>-3.6420204978037714E-3</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-3.9799999999999613</v>
       </c>
       <c r="P171" s="25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q171" s="129"/>
+        <f t="shared" si="27"/>
+        <v>7.1064500292202359E-3</v>
+      </c>
+      <c r="Q171" s="129" t="s">
+        <v>120</v>
+      </c>
       <c r="S171" s="26"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
-      <c r="B172" s="142">
+      <c r="B172" s="161">
         <v>171</v>
       </c>
-      <c r="C172" s="31"/>
+      <c r="C172" s="31">
+        <v>44748</v>
+      </c>
       <c r="D172" s="32">
-        <v>0</v>
-      </c>
-      <c r="E172" s="32"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
+        <v>113044</v>
+      </c>
+      <c r="E172" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" s="21">
+        <v>10</v>
+      </c>
+      <c r="G172" s="21">
+        <v>1091.0999999999999</v>
+      </c>
       <c r="H172" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I172" s="15"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
+        <v>10911</v>
+      </c>
+      <c r="I172" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J172" s="12">
+        <v>109.373</v>
+      </c>
+      <c r="K172" s="12">
+        <v>108.875</v>
+      </c>
+      <c r="L172" s="12">
+        <v>20</v>
+      </c>
       <c r="M172" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N172" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>2187.46</v>
+      </c>
+      <c r="N172" s="25">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>4.5740528128588257E-3</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>9.9600000000000932</v>
       </c>
       <c r="P172" s="25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q172" s="129"/>
+        <f t="shared" si="27"/>
+        <v>1.4276992690176607E-2</v>
+      </c>
+      <c r="Q172" s="129" t="s">
+        <v>120</v>
+      </c>
       <c r="S172" s="26"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
-      <c r="B173" s="142">
+      <c r="B173" s="161">
         <v>172</v>
       </c>
-      <c r="C173" s="31"/>
+      <c r="C173" s="31">
+        <v>44748</v>
+      </c>
       <c r="D173" s="32">
-        <v>0</v>
-      </c>
-      <c r="E173" s="32"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
+        <v>113033</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F173" s="21">
+        <v>10</v>
+      </c>
+      <c r="G173" s="21">
+        <v>108.81</v>
+      </c>
       <c r="H173" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I173" s="15"/>
+        <v>1088.0999999999999</v>
+      </c>
+      <c r="I173" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
       <c r="M173" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N173" s="25" t="e">
@@ -12748,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q173" s="129"/>
@@ -12756,26 +12997,36 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
-      <c r="B174" s="142">
+      <c r="B174" s="161">
         <v>173</v>
       </c>
-      <c r="C174" s="31"/>
+      <c r="C174" s="31">
+        <v>44748</v>
+      </c>
       <c r="D174" s="32">
-        <v>0</v>
-      </c>
-      <c r="E174" s="32"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
+        <v>123096</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F174" s="21">
+        <v>10</v>
+      </c>
+      <c r="G174" s="21">
+        <v>105.605</v>
+      </c>
       <c r="H174" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I174" s="15"/>
+        <v>1056.05</v>
+      </c>
+      <c r="I174" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N174" s="25" t="e">
@@ -12787,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="P174" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q174" s="129"/>
@@ -12795,65 +13046,99 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
-      <c r="B175" s="142">
+      <c r="B175" s="161">
         <v>174</v>
       </c>
-      <c r="C175" s="31"/>
+      <c r="C175" s="31">
+        <v>44750</v>
+      </c>
       <c r="D175" s="32">
-        <v>0</v>
-      </c>
-      <c r="E175" s="32"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
+        <v>128114</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F175" s="21">
+        <v>-10</v>
+      </c>
+      <c r="G175" s="21">
+        <v>125.66500000000001</v>
+      </c>
       <c r="H175" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I175" s="15"/>
+        <v>-1256.6500000000001</v>
+      </c>
+      <c r="I175" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="25"/>
+      <c r="M175" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O175" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P175" s="25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q175" s="129"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q175" s="129" t="s">
+        <v>170</v>
+      </c>
       <c r="S175" s="26"/>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
-      <c r="B176" s="142">
+      <c r="B176" s="162">
         <v>175</v>
       </c>
-      <c r="C176" s="31"/>
+      <c r="C176" s="31">
+        <v>44753</v>
+      </c>
       <c r="D176" s="32">
-        <v>0</v>
-      </c>
-      <c r="E176" s="32"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
+        <v>113569</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F176" s="21">
+        <v>10</v>
+      </c>
+      <c r="G176" s="21">
+        <v>105.61</v>
+      </c>
       <c r="H176" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I176" s="15"/>
+        <v>1056.0999999999999</v>
+      </c>
+      <c r="I176" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
-      <c r="M176" s="11"/>
-      <c r="N176" s="25"/>
+      <c r="M176" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N176" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O176" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P176" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q176" s="129"/>
@@ -12861,65 +13146,103 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
-      <c r="B177" s="142">
+      <c r="B177" s="162">
         <v>176</v>
       </c>
-      <c r="C177" s="31"/>
+      <c r="C177" s="31">
+        <v>44753</v>
+      </c>
       <c r="D177" s="32">
-        <v>0</v>
-      </c>
-      <c r="E177" s="32"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
+        <v>113624</v>
+      </c>
+      <c r="E177" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F177" s="21">
+        <v>10</v>
+      </c>
+      <c r="G177" s="21">
+        <v>109.63</v>
+      </c>
       <c r="H177" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1096.3</v>
       </c>
       <c r="I177" s="15"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="11"/>
-      <c r="N177" s="25"/>
+      <c r="J177" s="12">
+        <v>111.48</v>
+      </c>
+      <c r="K177" s="12">
+        <v>109.65</v>
+      </c>
+      <c r="L177" s="12">
+        <v>10</v>
+      </c>
+      <c r="M177" s="11">
+        <f t="shared" si="29"/>
+        <v>1114.8</v>
+      </c>
+      <c r="N177" s="25">
+        <f t="shared" si="25"/>
+        <v>1.6689466484268108E-2</v>
+      </c>
       <c r="O177" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>18.299999999999983</v>
       </c>
       <c r="P177" s="25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q177" s="129"/>
+        <f t="shared" si="27"/>
+        <v>7.2760148533042353E-3</v>
+      </c>
+      <c r="Q177" s="129" t="s">
+        <v>174</v>
+      </c>
       <c r="S177" s="26"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
-      <c r="B178" s="142">
+      <c r="B178" s="162">
         <v>177</v>
       </c>
-      <c r="C178" s="31"/>
+      <c r="C178" s="31">
+        <v>44753</v>
+      </c>
       <c r="D178" s="32">
-        <v>0</v>
-      </c>
-      <c r="E178" s="32"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
+        <v>113596</v>
+      </c>
+      <c r="E178" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F178" s="21">
+        <v>10</v>
+      </c>
+      <c r="G178" s="21">
+        <v>96.52</v>
+      </c>
       <c r="H178" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I178" s="15"/>
+        <v>965.19999999999993</v>
+      </c>
+      <c r="I178" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="25"/>
+      <c r="M178" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N178" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O178" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P178" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q178" s="129"/>
@@ -12927,92 +13250,148 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
-      <c r="B179" s="142">
+      <c r="B179" s="162">
         <v>178</v>
       </c>
-      <c r="C179" s="31"/>
+      <c r="C179" s="31">
+        <v>44753</v>
+      </c>
       <c r="D179" s="32">
-        <v>0</v>
-      </c>
-      <c r="E179" s="32"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="21"/>
+        <v>127051</v>
+      </c>
+      <c r="E179" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F179" s="21">
+        <v>40</v>
+      </c>
+      <c r="G179" s="21">
+        <v>115.102</v>
+      </c>
       <c r="H179" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4604.08</v>
       </c>
       <c r="I179" s="15"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="25"/>
+      <c r="J179" s="12">
+        <v>121</v>
+      </c>
+      <c r="K179" s="12">
+        <v>115.111</v>
+      </c>
+      <c r="L179" s="12">
+        <v>40</v>
+      </c>
+      <c r="M179" s="11">
+        <f t="shared" si="29"/>
+        <v>4840</v>
+      </c>
+      <c r="N179" s="25">
+        <f t="shared" si="25"/>
+        <v>5.1159315790845317E-2</v>
+      </c>
       <c r="O179" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>235.55999999999983</v>
       </c>
       <c r="P179" s="25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q179" s="129"/>
+        <f t="shared" si="27"/>
+        <v>3.1589443747750717E-2</v>
+      </c>
+      <c r="Q179" s="129" t="s">
+        <v>176</v>
+      </c>
       <c r="S179" s="26"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
-      <c r="B180" s="142">
+      <c r="B180" s="162">
         <v>179</v>
       </c>
-      <c r="C180" s="31"/>
+      <c r="C180" s="31">
+        <v>44754</v>
+      </c>
       <c r="D180" s="32">
-        <v>0</v>
-      </c>
-      <c r="E180" s="32"/>
-      <c r="F180" s="21"/>
-      <c r="G180" s="21"/>
+        <v>113584</v>
+      </c>
+      <c r="E180" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" s="21">
+        <v>10</v>
+      </c>
+      <c r="G180" s="21">
+        <v>103.67</v>
+      </c>
       <c r="H180" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I180" s="15"/>
+        <v>1036.7</v>
+      </c>
+      <c r="I180" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J180" s="12"/>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
-      <c r="M180" s="11"/>
-      <c r="N180" s="25"/>
+      <c r="M180" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N180" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O180" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P180" s="25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q180" s="129"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q180" s="129" t="s">
+        <v>178</v>
+      </c>
       <c r="S180" s="26"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
-      <c r="B181" s="142">
+      <c r="B181" s="164">
         <v>180</v>
       </c>
-      <c r="C181" s="31"/>
+      <c r="C181" s="31">
+        <v>44760</v>
+      </c>
       <c r="D181" s="32">
-        <v>0</v>
-      </c>
-      <c r="E181" s="32"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
+        <v>113033</v>
+      </c>
+      <c r="E181" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F181" s="21">
+        <v>40</v>
+      </c>
+      <c r="G181" s="21">
+        <v>106.75</v>
+      </c>
       <c r="H181" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I181" s="15"/>
+        <v>4270</v>
+      </c>
+      <c r="I181" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J181" s="12"/>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
-      <c r="M181" s="11"/>
-      <c r="N181" s="25"/>
+      <c r="M181" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N181" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O181" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -13023,54 +13402,90 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
-      <c r="B182" s="142">
+      <c r="B182" s="164">
         <v>181</v>
       </c>
-      <c r="C182" s="31"/>
+      <c r="C182" s="31">
+        <v>44760</v>
+      </c>
       <c r="D182" s="32">
-        <v>0</v>
-      </c>
-      <c r="E182" s="32"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
+        <v>113033</v>
+      </c>
+      <c r="E182" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F182" s="21">
+        <v>-30</v>
+      </c>
+      <c r="G182" s="21">
+        <v>107</v>
+      </c>
       <c r="H182" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I182" s="15"/>
+        <v>-3210</v>
+      </c>
+      <c r="I182" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="J182" s="12"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
-      <c r="M182" s="11"/>
-      <c r="N182" s="25"/>
+      <c r="M182" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N182" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O182" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P182" s="25"/>
-      <c r="Q182" s="129"/>
+      <c r="Q182" s="129" t="s">
+        <v>179</v>
+      </c>
       <c r="S182" s="26"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
-      <c r="B183" s="142">
+      <c r="B183" s="165">
         <v>182</v>
       </c>
-      <c r="C183" s="31"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
+      <c r="C183" s="31">
+        <v>44767</v>
+      </c>
+      <c r="D183" s="32">
+        <v>113044</v>
+      </c>
+      <c r="E183" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F183" s="21">
+        <v>10</v>
+      </c>
+      <c r="G183" s="21">
+        <v>108.61</v>
+      </c>
       <c r="H183" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I183" s="15"/>
+        <v>1086.0999999999999</v>
+      </c>
+      <c r="I183" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
-      <c r="M183" s="11"/>
-      <c r="N183" s="25"/>
+      <c r="M183" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N183" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O183" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -13081,52 +13496,94 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
-      <c r="B184" s="142">
+      <c r="B184" s="165">
         <v>183</v>
       </c>
-      <c r="C184" s="31"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="21"/>
+      <c r="C184" s="31">
+        <v>44768</v>
+      </c>
+      <c r="D184" s="32">
+        <v>127006</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F184" s="21">
+        <v>10</v>
+      </c>
+      <c r="G184" s="21">
+        <v>108.636</v>
+      </c>
       <c r="H184" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1086.3599999999999</v>
       </c>
       <c r="I184" s="15"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
-      <c r="M184" s="11"/>
-      <c r="N184" s="25"/>
+      <c r="J184" s="12">
+        <v>108.88800000000001</v>
+      </c>
+      <c r="K184" s="12">
+        <v>108.666</v>
+      </c>
+      <c r="L184" s="12">
+        <v>10</v>
+      </c>
+      <c r="M184" s="11">
+        <f t="shared" si="29"/>
+        <v>1088.8800000000001</v>
+      </c>
+      <c r="N184" s="25">
+        <f t="shared" si="25"/>
+        <v>2.0429573187566341E-3</v>
+      </c>
       <c r="O184" s="11">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.2200000000000841</v>
       </c>
       <c r="P184" s="25"/>
-      <c r="Q184" s="129"/>
+      <c r="Q184" s="129" t="s">
+        <v>182</v>
+      </c>
       <c r="S184" s="26"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
-      <c r="B185" s="142">
+      <c r="B185" s="169">
         <v>184</v>
       </c>
-      <c r="C185" s="31"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="21"/>
+      <c r="C185" s="31">
+        <v>44775</v>
+      </c>
+      <c r="D185" s="32">
+        <v>128116</v>
+      </c>
+      <c r="E185" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F185" s="21">
+        <v>10</v>
+      </c>
+      <c r="G185" s="21">
+        <v>108.73699999999999</v>
+      </c>
       <c r="H185" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I185" s="15"/>
+        <v>1087.3699999999999</v>
+      </c>
+      <c r="I185" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
-      <c r="M185" s="11"/>
-      <c r="N185" s="25"/>
+      <c r="M185" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N185" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O185" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -13137,26 +13594,42 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
-      <c r="B186" s="142">
+      <c r="B186" s="169">
         <v>185</v>
       </c>
-      <c r="C186" s="149"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="149">
-        <v>113046</v>
-      </c>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
+      <c r="C186" s="31">
+        <v>44775</v>
+      </c>
+      <c r="D186" s="32">
+        <v>113596</v>
+      </c>
+      <c r="E186" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F186" s="21">
+        <v>10</v>
+      </c>
+      <c r="G186" s="21">
+        <v>96.27</v>
+      </c>
       <c r="H186" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I186" s="15"/>
+        <v>962.69999999999993</v>
+      </c>
+      <c r="I186" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
-      <c r="M186" s="11"/>
-      <c r="N186" s="25"/>
+      <c r="M186" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N186" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O186" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -13167,30 +13640,42 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
-      <c r="B187" s="142">
+      <c r="B187" s="169">
         <v>186</v>
       </c>
-      <c r="C187" s="149">
-        <v>113542</v>
-      </c>
-      <c r="D187" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="E187" s="149">
-        <v>123101</v>
-      </c>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
+      <c r="C187" s="31">
+        <v>44775</v>
+      </c>
+      <c r="D187" s="32">
+        <v>113589</v>
+      </c>
+      <c r="E187" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F187" s="21">
+        <v>10</v>
+      </c>
+      <c r="G187" s="21">
+        <v>98.01</v>
+      </c>
       <c r="H187" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I187" s="15"/>
+        <v>980.1</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J187" s="12"/>
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="25"/>
+      <c r="M187" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N187" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O187" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -13199,28 +13684,44 @@
       <c r="Q187" s="129"/>
       <c r="S187" s="26"/>
     </row>
-    <row r="188" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
-      <c r="B188" s="142">
+      <c r="B188" s="169">
         <v>187</v>
       </c>
-      <c r="C188" s="31"/>
-      <c r="D188" s="143" t="s">
-        <v>145</v>
-      </c>
-      <c r="E188" s="32"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
+      <c r="C188" s="31">
+        <v>44775</v>
+      </c>
+      <c r="D188" s="32">
+        <v>113017</v>
+      </c>
+      <c r="E188" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F188" s="21">
+        <v>10</v>
+      </c>
+      <c r="G188" s="21">
+        <v>111.84</v>
+      </c>
       <c r="H188" s="14">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I188" s="15"/>
+        <v>1118.4000000000001</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J188" s="12"/>
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
-      <c r="M188" s="11"/>
-      <c r="N188" s="25"/>
+      <c r="M188" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N188" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O188" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -13230,171 +13731,1003 @@
       <c r="S188" s="26"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A189" s="7"/>
-      <c r="B189" s="142">
+      <c r="B189" s="169">
         <v>188</v>
       </c>
-      <c r="C189" s="31"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="149">
-        <v>113605</v>
-      </c>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
+      <c r="C189" s="31">
+        <v>44775</v>
+      </c>
+      <c r="D189" s="32">
+        <v>127047</v>
+      </c>
+      <c r="E189" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F189" s="21">
+        <v>10</v>
+      </c>
+      <c r="G189" s="21">
+        <v>102.57299999999999</v>
+      </c>
       <c r="H189" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I189" s="15"/>
+        <f t="shared" ref="H189:H209" si="30">F189*G189</f>
+        <v>1025.73</v>
+      </c>
+      <c r="I189" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J189" s="12"/>
       <c r="K189" s="12"/>
       <c r="L189" s="12"/>
-      <c r="M189" s="11"/>
-      <c r="N189" s="25"/>
-      <c r="O189" s="11"/>
+      <c r="M189" s="11">
+        <f t="shared" ref="M189:M209" si="31">J189*L189</f>
+        <v>0</v>
+      </c>
+      <c r="N189" s="25" t="e">
+        <f t="shared" ref="N189:N209" si="32">(J189-K189)/K189</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O189" s="11">
+        <f t="shared" ref="O189:O209" si="33">(J189-K189)*L189</f>
+        <v>0</v>
+      </c>
       <c r="P189" s="25"/>
       <c r="Q189" s="129"/>
       <c r="S189" s="26"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B190" s="142">
+      <c r="A190" s="7"/>
+      <c r="B190" s="169">
         <v>189</v>
       </c>
-      <c r="C190" s="31"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="21"/>
+      <c r="C190" s="31">
+        <v>44776</v>
+      </c>
+      <c r="D190" s="32">
+        <v>128076</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F190" s="21">
+        <v>-10</v>
+      </c>
+      <c r="G190" s="21">
+        <v>148</v>
+      </c>
       <c r="H190" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I190" s="15"/>
+        <f t="shared" si="30"/>
+        <v>-1480</v>
+      </c>
+      <c r="I190" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="J190" s="12"/>
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
-      <c r="M190" s="11"/>
-      <c r="N190" s="25"/>
-      <c r="O190" s="11"/>
+      <c r="M190" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N190" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O190" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
       <c r="P190" s="25"/>
       <c r="Q190" s="129"/>
       <c r="S190" s="26"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B191" s="142">
+      <c r="A191" s="7"/>
+      <c r="B191" s="169">
         <v>190</v>
       </c>
-      <c r="C191" s="31"/>
-      <c r="D191" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E191" s="32"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
+      <c r="C191" s="31">
+        <v>44777</v>
+      </c>
+      <c r="D191" s="32">
+        <v>128076</v>
+      </c>
+      <c r="E191" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F191" s="21">
+        <v>-10</v>
+      </c>
+      <c r="G191" s="21">
+        <v>158.19499999999999</v>
+      </c>
       <c r="H191" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I191" s="15"/>
+        <f t="shared" si="30"/>
+        <v>-1581.9499999999998</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="J191" s="12"/>
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
-      <c r="M191" s="11"/>
-      <c r="N191" s="25"/>
-      <c r="O191" s="11"/>
+      <c r="M191" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N191" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O191" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
       <c r="P191" s="25"/>
       <c r="Q191" s="129"/>
       <c r="S191" s="26"/>
     </row>
-    <row r="192" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
-      <c r="B192" s="142">
+      <c r="B192" s="169">
         <v>191</v>
       </c>
-      <c r="C192" s="106" t="s">
+      <c r="C192" s="31">
+        <v>44777</v>
+      </c>
+      <c r="D192" s="32">
+        <v>128076</v>
+      </c>
+      <c r="E192" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F192" s="21">
+        <v>10</v>
+      </c>
+      <c r="G192" s="21">
+        <v>144.54300000000001</v>
+      </c>
+      <c r="H192" s="14">
+        <f t="shared" si="30"/>
+        <v>1445.43</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N192" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O192" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P192" s="25"/>
+      <c r="Q192" s="129"/>
+      <c r="S192" s="26"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A193" s="7"/>
+      <c r="B193" s="169">
+        <v>192</v>
+      </c>
+      <c r="C193" s="31">
+        <v>44778</v>
+      </c>
+      <c r="D193" s="32">
+        <v>113604</v>
+      </c>
+      <c r="E193" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F193" s="21">
+        <v>-10</v>
+      </c>
+      <c r="G193" s="21">
+        <v>126.57</v>
+      </c>
+      <c r="H193" s="14">
+        <f t="shared" si="30"/>
+        <v>-1265.6999999999998</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N193" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O193" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P193" s="25"/>
+      <c r="Q193" s="129"/>
+      <c r="S193" s="26"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A194" s="7"/>
+      <c r="B194" s="169">
+        <v>193</v>
+      </c>
+      <c r="C194" s="31">
+        <v>44778</v>
+      </c>
+      <c r="D194" s="32">
+        <v>123096</v>
+      </c>
+      <c r="E194" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F194" s="21">
+        <v>10</v>
+      </c>
+      <c r="G194" s="21">
+        <v>107.086</v>
+      </c>
+      <c r="H194" s="14">
+        <f t="shared" si="30"/>
+        <v>1070.8599999999999</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N194" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O194" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P194" s="25"/>
+      <c r="Q194" s="129" t="s">
+        <v>184</v>
+      </c>
+      <c r="S194" s="26"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A195" s="7"/>
+      <c r="B195" s="170">
+        <v>194</v>
+      </c>
+      <c r="C195" s="31">
+        <v>44781</v>
+      </c>
+      <c r="D195" s="32">
+        <v>128124</v>
+      </c>
+      <c r="E195" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F195" s="21">
+        <v>30</v>
+      </c>
+      <c r="G195" s="21">
+        <v>103</v>
+      </c>
+      <c r="H195" s="14">
+        <f t="shared" si="30"/>
+        <v>3090</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N195" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O195" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P195" s="25"/>
+      <c r="Q195" s="129"/>
+      <c r="S195" s="26"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A196" s="7"/>
+      <c r="B196" s="170">
+        <v>195</v>
+      </c>
+      <c r="C196" s="31">
+        <v>44781</v>
+      </c>
+      <c r="D196" s="32">
+        <v>128124</v>
+      </c>
+      <c r="E196" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F196" s="21">
+        <v>-30</v>
+      </c>
+      <c r="G196" s="21">
+        <v>103.846</v>
+      </c>
+      <c r="H196" s="14">
+        <f t="shared" si="30"/>
+        <v>-3115.38</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N196" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O196" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P196" s="25"/>
+      <c r="Q196" s="129"/>
+      <c r="S196" s="26"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A197" s="7"/>
+      <c r="B197" s="170">
+        <v>196</v>
+      </c>
+      <c r="C197" s="31"/>
+      <c r="D197" s="32">
+        <v>113589</v>
+      </c>
+      <c r="E197" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I197" s="15"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N197" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O197" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P197" s="25"/>
+      <c r="Q197" s="129"/>
+      <c r="S197" s="26"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A198" s="7"/>
+      <c r="B198" s="170">
+        <v>197</v>
+      </c>
+      <c r="C198" s="31"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I198" s="15"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N198" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O198" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P198" s="25"/>
+      <c r="Q198" s="129"/>
+      <c r="S198" s="26"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A199" s="7"/>
+      <c r="B199" s="170">
+        <v>198</v>
+      </c>
+      <c r="C199" s="31"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I199" s="15"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N199" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O199" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P199" s="25"/>
+      <c r="Q199" s="129"/>
+      <c r="S199" s="26"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A200" s="7"/>
+      <c r="B200" s="170">
+        <v>199</v>
+      </c>
+      <c r="C200" s="31"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I200" s="15"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N200" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O200" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P200" s="25"/>
+      <c r="Q200" s="129"/>
+      <c r="S200" s="26"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A201" s="7"/>
+      <c r="B201" s="170">
+        <v>200</v>
+      </c>
+      <c r="C201" s="31"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I201" s="15"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N201" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O201" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P201" s="25"/>
+      <c r="Q201" s="129"/>
+      <c r="S201" s="26"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A202" s="7"/>
+      <c r="B202" s="170">
+        <v>201</v>
+      </c>
+      <c r="C202" s="31"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I202" s="15"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N202" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O202" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P202" s="25"/>
+      <c r="Q202" s="129"/>
+      <c r="S202" s="26"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A203" s="7"/>
+      <c r="B203" s="170">
+        <v>202</v>
+      </c>
+      <c r="C203" s="31"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I203" s="15"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N203" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O203" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P203" s="25"/>
+      <c r="Q203" s="129"/>
+      <c r="S203" s="26"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A204" s="7"/>
+      <c r="B204" s="170">
+        <v>203</v>
+      </c>
+      <c r="C204" s="31"/>
+      <c r="D204" s="32">
+        <v>113596</v>
+      </c>
+      <c r="E204" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I204" s="15"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N204" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O204" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P204" s="25"/>
+      <c r="Q204" s="129"/>
+      <c r="S204" s="26"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A205" s="7"/>
+      <c r="B205" s="170">
+        <v>204</v>
+      </c>
+      <c r="C205" s="31"/>
+      <c r="D205" s="32">
+        <v>127047</v>
+      </c>
+      <c r="E205" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I205" s="15"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N205" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O205" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P205" s="25"/>
+      <c r="Q205" s="129"/>
+      <c r="S205" s="26"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A206" s="7"/>
+      <c r="B206" s="170">
+        <v>205</v>
+      </c>
+      <c r="C206" s="31"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I206" s="15"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N206" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O206" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P206" s="25"/>
+      <c r="Q206" s="129"/>
+      <c r="S206" s="26"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A207" s="7"/>
+      <c r="B207" s="170">
+        <v>206</v>
+      </c>
+      <c r="C207" s="31"/>
+      <c r="D207" s="32">
+        <v>128116</v>
+      </c>
+      <c r="E207" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I207" s="15"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N207" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O207" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P207" s="25"/>
+      <c r="Q207" s="129"/>
+      <c r="S207" s="26"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B208" s="170">
+        <v>207</v>
+      </c>
+      <c r="C208" s="31"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I208" s="15"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N208" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O208" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P208" s="25"/>
+      <c r="Q208" s="129"/>
+      <c r="S208" s="26"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B209" s="170">
+        <v>208</v>
+      </c>
+      <c r="C209" s="31"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I209" s="15"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N209" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O209" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P209" s="25"/>
+      <c r="Q209" s="129"/>
+      <c r="S209" s="26"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A210" s="7"/>
+      <c r="B210" s="170">
+        <v>209</v>
+      </c>
+      <c r="C210" s="31"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="15">
+        <f>SUM(H3:H209)</f>
+        <v>136665.72999999992</v>
+      </c>
+      <c r="I210" s="15"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="114"/>
+      <c r="L210" s="115">
+        <f>SUM(L3:L208)</f>
+        <v>1400</v>
+      </c>
+      <c r="M210" s="115">
+        <f>SUM(M3:M209)</f>
+        <v>153215.74000000002</v>
+      </c>
+      <c r="N210" s="126">
+        <f>(O210)/M210</f>
+        <v>8.4874830745196278E-2</v>
+      </c>
+      <c r="O210" s="11">
+        <f>SUM(O3:O209)</f>
+        <v>13004.160000000002</v>
+      </c>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="129"/>
+      <c r="S210" s="23"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C211" s="31"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C212" s="106"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C213" s="31"/>
+      <c r="D213" s="85"/>
+      <c r="E213" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C214" s="31"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C215" s="31"/>
+      <c r="D215" s="150"/>
+      <c r="E215" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F215" s="141"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C216" s="31"/>
+      <c r="D216" s="150"/>
+      <c r="E216" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C217" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C218" s="32"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="32">
+        <v>123076</v>
+      </c>
+      <c r="F218" s="85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C219" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D219" s="31"/>
+      <c r="E219" s="32">
+        <v>127024</v>
+      </c>
+      <c r="F219" s="85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C220" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D220" s="31"/>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D221" s="149"/>
+      <c r="E221" s="32">
+        <v>123056</v>
+      </c>
+      <c r="F221" s="32"/>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D222" s="149">
+        <v>113542</v>
+      </c>
+      <c r="E222" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F222" s="149">
+        <v>123101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D223" s="31"/>
+      <c r="E223" s="143" t="s">
+        <v>143</v>
+      </c>
+      <c r="F223" s="32"/>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D224" s="31"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="149">
+        <v>113605</v>
+      </c>
+    </row>
+    <row r="225" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D225" s="31"/>
+      <c r="E225" s="32"/>
+      <c r="F225" s="32"/>
+    </row>
+    <row r="226" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D226" s="31"/>
+      <c r="E226" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="15">
-        <f>SUM(H3:H191)</f>
-        <v>106334.00999999994</v>
-      </c>
-      <c r="I192" s="15"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="114"/>
-      <c r="L192" s="115">
-        <f>SUM(L3:L190)</f>
-        <v>1190</v>
-      </c>
-      <c r="M192" s="115">
-        <f>SUM(M3:M191)</f>
-        <v>129672.88000000002</v>
-      </c>
-      <c r="N192" s="126">
-        <f>(O192)/M192</f>
-        <v>8.3928497616463801E-2</v>
-      </c>
-      <c r="O192" s="11">
-        <f>SUM(O3:O191)</f>
-        <v>10883.249999999998</v>
-      </c>
-      <c r="P192" s="12"/>
-      <c r="Q192" s="129"/>
-      <c r="S192" s="23"/>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C193" s="31"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-    </row>
-    <row r="194" spans="3:6" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C194" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-    </row>
-    <row r="195" spans="3:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C195" s="31"/>
-      <c r="D195" s="85"/>
-      <c r="E195" s="32"/>
-    </row>
-    <row r="196" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C196" s="31"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-    </row>
-    <row r="197" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C197" s="31"/>
-      <c r="D197" s="150"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="141"/>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C198" s="31"/>
-      <c r="D198" s="150"/>
-      <c r="E198" s="32"/>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C199" s="31"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="32"/>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C200" s="31"/>
-      <c r="D200" s="150"/>
-      <c r="E200" s="32"/>
-    </row>
-    <row r="211" spans="4:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D211" s="28"/>
+      <c r="F226" s="32"/>
+    </row>
+    <row r="228" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M228" s="168"/>
+    </row>
+    <row r="229" spans="4:13" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D229" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W192" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W192">
-      <sortCondition ref="B2:B192"/>
+  <autoFilter ref="A2:W224" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W210">
+      <sortCondition ref="B2:B210"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:U187">
@@ -13412,7 +14745,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O43 N162:N191 N160:O161 N188:O188 O162:O189 N192:O192 N43:N159 O44:O159">
+  <conditionalFormatting sqref="N3:O43 N43:N159 O44:O159 N160:O210">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -13424,7 +14757,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32" xr:uid="{DCE927E3-C8F5-4EBD-B4AD-D48AD216AA54}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I192" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I210" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
       <formula1>"买,卖,中,清"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13440,11 +14773,13 @@
     <hyperlink ref="D48" r:id="rId9" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{A338ED59-F062-4C29-8277-65535D313036}"/>
     <hyperlink ref="D58" r:id="rId10" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{9428EE44-203B-40D5-A43A-A563534CF303}"/>
     <hyperlink ref="D52" r:id="rId11" display="https://www.jisilu.cn/data/convert_bond_detail/113036" xr:uid="{3CCE31DE-6D92-49BD-832B-E8B71A9933D5}"/>
-    <hyperlink ref="D187" r:id="rId12" display="https://www.ninwin.cn/index.php?m=cb&amp;c=detail&amp;a=detail&amp;id=329" xr:uid="{E1F9DF32-3ABB-4F1E-B596-C57F32CB2823}"/>
+    <hyperlink ref="E222" r:id="rId12" display="https://www.ninwin.cn/index.php?m=cb&amp;c=detail&amp;a=detail&amp;id=329" xr:uid="{E1F9DF32-3ABB-4F1E-B596-C57F32CB2823}"/>
+    <hyperlink ref="D179" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/128132" xr:uid="{5CEA3D59-2AC8-42C1-9B30-CDE7EDCF6963}"/>
+    <hyperlink ref="D187" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{E4105EDE-E890-46CB-A86A-A8FBB8727CAD}"/>
+    <hyperlink ref="D197" r:id="rId15" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{85EF3AC1-3A60-454B-A78C-13BBCE289280}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId13"/>
-  <drawing r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -13453,7 +14788,7 @@
   <dimension ref="C1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13580,12 +14915,12 @@
     </row>
     <row r="24" spans="10:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J24" s="106" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="10:10" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J25" s="106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -13640,14 +14975,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176" t="s">
+      <c r="B1" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="185"/>
+      <c r="D1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="177"/>
+      <c r="E1" s="187"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE9C9E-8590-4627-8CCA-7CC1E710D803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD3475-A122-488C-93D0-AC60616F0074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="360" windowWidth="18345" windowHeight="13845" activeTab="2" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="2715" yWindow="750" windowWidth="20925" windowHeight="13860" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
-    <sheet name="CB低价-每周一支定投" sheetId="2" r:id="rId2"/>
+    <sheet name="cb" sheetId="2" r:id="rId2"/>
     <sheet name="plan" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
     <sheet name="s" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CB低价-每周一支定投'!$A$2:$W$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cb!$A$2:$W$363</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="233">
   <si>
     <t>收入</t>
   </si>
@@ -804,12 +804,122 @@
     <t>大盘持续大跌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>最后一天，大涨回本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25支亏损</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb: 128100 搜特转债 total: 100 现价: 95.68 成本 94.657</t>
+  </si>
+  <si>
+    <t>cb: 113589 天创转债 total: 60 现价: 98.556 成本 98.544</t>
+  </si>
+  <si>
+    <t>cb: 113596 城地转债 total: 50 现价: 96.094 成本 96.504</t>
+  </si>
+  <si>
+    <t>cb: 128114 正邦转债 total: 50 现价: 101.05 成本 98.869</t>
+  </si>
+  <si>
+    <t>cb: 127024 盈峰转债 total: 20 现价: 105.939 成本 107.267</t>
+  </si>
+  <si>
+    <t>cb: 113604 多伦转债 total: 20 现价: 106.55 成本 96.376</t>
+  </si>
+  <si>
+    <t>cb: 128108 蓝帆转债 total: 50 现价: 101.023 成本 101.515</t>
+  </si>
+  <si>
+    <t>cb: 110073 国投转债 total: 30 现价: 104.837 成本 105.187</t>
+  </si>
+  <si>
+    <t>cb: 113624 正川转债 total: 10 现价: 108.172 成本 109.65</t>
+  </si>
+  <si>
+    <t>cb: 113627 太平转债 total: 10 现价: 107.798 成本 109.58</t>
+  </si>
+  <si>
+    <t>113056 重银转债 100.164</t>
+  </si>
+  <si>
+    <t>113052 兴业转债 107.852</t>
+  </si>
+  <si>
+    <t>118001 金博转债 108.794</t>
+  </si>
+  <si>
+    <t>113623 凤21转债 109.923</t>
+  </si>
+  <si>
+    <t>113042 上银转债 107.02</t>
+  </si>
+  <si>
+    <t>127025 冀东转债 108.999</t>
+  </si>
+  <si>
+    <t>110076 华海转债 109.905</t>
+  </si>
+  <si>
+    <t>128129 青农转债 102.862</t>
+  </si>
+  <si>
+    <t>113037 紫银转债 104.55</t>
+  </si>
+  <si>
+    <t>110059 浦发转债 107.82</t>
+  </si>
+  <si>
+    <t>110038 济川转债 108.174</t>
+  </si>
+  <si>
+    <t>113013 国君转债 108.636</t>
+  </si>
+  <si>
+    <t>113011 光大转债 105.073</t>
+  </si>
+  <si>
+    <t>$$ 113589 天创转债 total: 60 现价: 98.556 threshold 98.59710595844264 成本 98.544</t>
+  </si>
+  <si>
+    <t>$$$ 113596 城地转债 total: 50 现价: 96.094 threshold 98.59710595844264 成本 96.504</t>
+  </si>
+  <si>
+    <t>$ 128114 正邦转债 total: 50 现价: 101.05 threshold 101.62292865927247 成本 98.869</t>
+  </si>
+  <si>
+    <t>$ 127024 盈峰转债 total: 20 现价: 105.939 threshold 106.33665999999998 成本 107.267</t>
+  </si>
+  <si>
+    <t>$$$ 128124 科华转债 total: 70 现价: 0.0 threshold 95.66137712853 成本 97.276</t>
+  </si>
+  <si>
+    <t>$ 128108 蓝帆转债 total: 50 现价: 101.023 threshold 101.62292865927247 成本 101.515</t>
+  </si>
+  <si>
+    <t>$ 113627 太平转债 total: 10 现价: 107.798 threshold 107.95599999999999 成本 109.58</t>
+  </si>
+  <si>
+    <t>冀东转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济川转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快到期的债。106到期，买前没做调查</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,8 +1028,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,6 +1182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,7 +1410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1726,6 +1859,60 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2109,6 +2296,9 @@
                 <c:pt idx="36">
                   <c:v>44823</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44828</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2228,6 +2418,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>11848</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10323.879999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,6 +2622,9 @@
                 <c:pt idx="36">
                   <c:v>44823</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>44828</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2548,6 +2744,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6.0499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.2200000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,9 +3827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3678,7 +3877,6 @@
       </c>
       <c r="D2" s="141"/>
       <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
@@ -3692,7 +3890,6 @@
       </c>
       <c r="D3" s="141"/>
       <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
@@ -3706,7 +3903,6 @@
       </c>
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
@@ -3720,7 +3916,6 @@
       </c>
       <c r="D5" s="141"/>
       <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
@@ -3734,7 +3929,6 @@
       </c>
       <c r="D6" s="141"/>
       <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
@@ -3748,7 +3942,6 @@
       </c>
       <c r="D7" s="142"/>
       <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
@@ -3762,7 +3955,6 @@
       </c>
       <c r="D8" s="141"/>
       <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
@@ -3776,7 +3968,6 @@
       </c>
       <c r="D9" s="141"/>
       <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
@@ -3790,7 +3981,6 @@
       </c>
       <c r="D10" s="141"/>
       <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
@@ -3804,7 +3994,6 @@
       </c>
       <c r="D11" s="141"/>
       <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
@@ -4172,12 +4361,23 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="28">
+        <v>44828</v>
+      </c>
+      <c r="B39" s="47">
+        <v>10323.879999999999</v>
+      </c>
+      <c r="C39" s="29">
+        <v>5.2200000000000003E-2</v>
+      </c>
       <c r="D39" s="141"/>
       <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
+      <c r="F39" s="140">
+        <v>1850</v>
+      </c>
+      <c r="G39" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
@@ -4185,7 +4385,6 @@
       <c r="C40" s="29"/>
       <c r="D40" s="141"/>
       <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
@@ -4193,7 +4392,6 @@
       <c r="C41" s="29"/>
       <c r="D41" s="141"/>
       <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
@@ -4201,7 +4399,6 @@
       <c r="C42" s="29"/>
       <c r="D42" s="141"/>
       <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
@@ -4209,7 +4406,6 @@
       <c r="C43" s="29"/>
       <c r="D43" s="141"/>
       <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
@@ -4217,21 +4413,18 @@
       <c r="C44" s="29"/>
       <c r="D44" s="141"/>
       <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" s="47"/>
       <c r="C45" s="29"/>
       <c r="D45" s="141"/>
       <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46" s="47"/>
       <c r="C46" s="29"/>
       <c r="D46" s="141"/>
       <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="47"/>
@@ -4246,12 +4439,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W370"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E234" sqref="D234:E234"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K374" sqref="K374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4278,47 +4470,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146"/>
-      <c r="B1" s="152" t="s">
+      <c r="A1" s="164"/>
+      <c r="B1" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="148" t="s">
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="144" t="s">
+      <c r="S1" s="162" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="159"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="177"/>
       <c r="F2" s="19" t="s">
         <v>116</v>
       </c>
@@ -4352,13 +4544,13 @@
       <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="149"/>
+      <c r="Q2" s="167"/>
       <c r="R2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="145"/>
-    </row>
-    <row r="3" spans="1:23" s="104" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="163"/>
+    </row>
+    <row r="3" spans="1:23" s="104" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
       <c r="B3" s="98">
         <v>1</v>
@@ -4412,7 +4604,7 @@
       <c r="T3" s="51"/>
       <c r="U3" s="51"/>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="63">
         <v>2</v>
       </c>
@@ -4437,7 +4629,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>105.596</v>
+        <v>103.994</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -4447,19 +4639,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4223.84</v>
+        <v>4159.76</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="1"/>
-        <v>2.8088520216919367E-2</v>
+        <v>1.2491359250713178E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>115.4000000000002</v>
+        <v>51.32000000000005</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="2"/>
-        <v>2.1559563792260639E-2</v>
+        <v>2.0546329781593254E-2</v>
       </c>
       <c r="Q4" s="84"/>
       <c r="S4" s="25"/>
@@ -4467,7 +4659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59"/>
       <c r="B5" s="64">
         <v>3</v>
@@ -4545,7 +4737,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="12">
-        <v>116.6</v>
+        <v>114.92</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -4555,25 +4747,25 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1166</v>
+        <v>1149.2</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="1"/>
-        <v>0.22259387025406047</v>
+        <v>0.20497845256943942</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>212.29</v>
+        <v>195.49000000000007</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>5.9515633598280016E-3</v>
+        <v>5.6762510781888775E-3</v>
       </c>
       <c r="Q6" s="84"/>
       <c r="R6" s="51"/>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="63">
         <v>5</v>
       </c>
@@ -4598,29 +4790,29 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>115.328</v>
+        <v>114.161</v>
       </c>
       <c r="K7" s="12">
-        <v>84.938000000000002</v>
+        <v>98.007999999999996</v>
       </c>
       <c r="L7" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>3459.84</v>
+        <v>5708.05</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="1"/>
-        <v>0.35779038828321835</v>
+        <v>0.16481307648355242</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>911.7</v>
+        <v>807.65000000000032</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="2"/>
-        <v>1.7659911642253272E-2</v>
+        <v>2.8193808707671443E-2</v>
       </c>
       <c r="Q7" s="84"/>
       <c r="S7" s="25"/>
@@ -4629,7 +4821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63">
         <v>6</v>
       </c>
@@ -4649,7 +4841,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>109.151</v>
+        <v>109.002</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -4659,19 +4851,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3274.5299999999997</v>
+        <v>3270.06</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="1"/>
-        <v>3.3167056329095862E-2</v>
+        <v>3.17566991963803E-2</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>105.11999999999972</v>
+        <v>100.64999999999969</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="2"/>
-        <v>1.6714041825606846E-2</v>
+        <v>1.6151828751081031E-2</v>
       </c>
       <c r="Q8" s="84"/>
       <c r="S8" s="25"/>
@@ -4698,7 +4890,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="12">
-        <v>116.3</v>
+        <v>117.13</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -4708,24 +4900,24 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1163</v>
+        <v>1171.3</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0.18167039219670794</v>
+        <v>0.19010363747205847</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>178.79999999999995</v>
+        <v>187.09999999999994</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="2"/>
-        <v>5.9362505896054596E-3</v>
+        <v>5.7854097527694328E-3</v>
       </c>
       <c r="Q9" s="84"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="1:23" s="51" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="98">
         <v>8</v>
@@ -4778,7 +4970,7 @@
       <c r="Q10" s="87"/>
       <c r="S10" s="58"/>
     </row>
-    <row r="11" spans="1:23" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="97"/>
       <c r="B11" s="98">
         <v>9</v>
@@ -4824,7 +5016,7 @@
       <c r="Q11" s="87"/>
       <c r="S11" s="58"/>
     </row>
-    <row r="12" spans="1:23" s="51" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97"/>
       <c r="B12" s="98">
         <v>10</v>
@@ -4879,7 +5071,7 @@
       <c r="Q12" s="87"/>
       <c r="S12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="63">
         <v>11</v>
       </c>
@@ -4906,7 +5098,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="12">
-        <v>106.63200000000001</v>
+        <v>106.48099999999999</v>
       </c>
       <c r="K13" s="12">
         <v>103.81699999999999</v>
@@ -4916,24 +5108,24 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>3198.96</v>
+        <v>3194.43</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>2.7115019698122775E-2</v>
+        <v>2.5660537291580392E-2</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>84.450000000000358</v>
+        <v>79.920000000000044</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="2"/>
-        <v>1.6328313143701013E-2</v>
+        <v>1.577826899730151E-2</v>
       </c>
       <c r="Q13" s="84"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:23" s="39" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="39" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="63">
         <v>12</v>
@@ -4975,7 +5167,7 @@
       <c r="S14" s="46"/>
       <c r="U14" s="61"/>
     </row>
-    <row r="15" spans="1:23" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="97"/>
       <c r="B15" s="98">
         <v>13</v>
@@ -5029,7 +5221,7 @@
       <c r="Q15" s="87"/>
       <c r="S15" s="58"/>
     </row>
-    <row r="16" spans="1:23" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="B16" s="64">
         <v>14</v>
@@ -5071,7 +5263,7 @@
       <c r="Q16" s="85"/>
       <c r="S16" s="46"/>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
       <c r="B17" s="63">
         <v>15</v>
@@ -5097,7 +5289,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="12">
-        <v>121.85299999999999</v>
+        <v>120.251</v>
       </c>
       <c r="K17" s="12">
         <v>111.39400000000001</v>
@@ -5107,25 +5299,25 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>7311.1799999999994</v>
+        <v>7215.06</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>9.3891951092518341E-2</v>
+        <v>7.9510566098712668E-2</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>627.53999999999928</v>
+        <v>531.41999999999996</v>
       </c>
       <c r="P17" s="24">
         <f t="shared" si="2"/>
-        <v>3.7318139798548269E-2</v>
+        <v>3.5637393059691477E-2</v>
       </c>
       <c r="Q17" s="84"/>
       <c r="S17" s="46"/>
       <c r="T17" s="39"/>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B18" s="63">
         <v>16</v>
       </c>
@@ -5152,7 +5344,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="12">
-        <v>111.41</v>
+        <v>110.83</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -5162,26 +5354,26 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2228.1999999999998</v>
+        <v>2216.6</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>2.5733093955715158E-2</v>
+        <v>2.0393131703724195E-2</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>55.900000000000034</v>
+        <v>44.300000000000068</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="2"/>
-        <v>1.1373304869956047E-2</v>
+        <v>1.0948466881233436E-2</v>
       </c>
       <c r="Q18" s="84"/>
       <c r="R18" s="50"/>
       <c r="S18" s="25"/>
       <c r="U18" s="51"/>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B19" s="63">
         <v>17</v>
       </c>
@@ -5206,34 +5398,34 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="12">
-        <v>97.150999999999996</v>
+        <v>93</v>
       </c>
       <c r="K19" s="12">
-        <v>94.397999999999996</v>
+        <v>94.584999999999994</v>
       </c>
       <c r="L19" s="12">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>8743.59</v>
+        <v>10230</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>2.9163753469353168E-2</v>
+        <v>-1.6757413966273657E-2</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>247.77</v>
+        <v>-174.34999999999931</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="2"/>
-        <v>4.4629528196705417E-2</v>
+        <v>5.0529105925750273E-2</v>
       </c>
       <c r="Q19" s="84"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="63">
         <v>18</v>
       </c>
@@ -5258,34 +5450,34 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>99.266999999999996</v>
+        <v>98.555999999999997</v>
       </c>
       <c r="K20" s="12">
-        <v>98.543999999999997</v>
+        <v>98.477000000000004</v>
       </c>
       <c r="L20" s="12">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>5956.0199999999995</v>
+        <v>6898.92</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>7.336824159766186E-3</v>
+        <v>8.0221777673968053E-4</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>43.379999999999939</v>
+        <v>5.5299999999995464</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="2"/>
-        <v>3.0401055233621587E-2</v>
+        <v>3.4075880689469901E-2</v>
       </c>
       <c r="Q20" s="84"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63">
         <v>19</v>
       </c>
@@ -5312,7 +5504,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="12">
-        <v>108.64400000000001</v>
+        <v>107.91200000000001</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -5322,24 +5514,24 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2172.88</v>
+        <v>2158.2400000000002</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>5.7928818345586566E-2</v>
+        <v>5.080091533180791E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>118.98000000000025</v>
+        <v>104.34000000000026</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="2"/>
-        <v>1.1090937387052375E-2</v>
+        <v>1.0660208951436097E-2</v>
       </c>
       <c r="Q21" s="84"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="63">
         <v>20</v>
       </c>
@@ -5364,7 +5556,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>118.88</v>
+        <v>115.83</v>
       </c>
       <c r="K22" s="12">
         <v>98.962000000000003</v>
@@ -5374,25 +5566,25 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>11888</v>
+        <v>11583</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0.20126917402639388</v>
+        <v>0.17044926335361041</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>1991.7999999999993</v>
+        <v>1686.7999999999995</v>
       </c>
       <c r="P22" s="24">
         <f t="shared" si="2"/>
-        <v>6.067940413519321E-2</v>
+        <v>5.7211987677220473E-2</v>
       </c>
       <c r="Q22" s="84"/>
       <c r="S22" s="25"/>
       <c r="U22" s="39"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B23" s="63">
         <v>21</v>
       </c>
@@ -5415,34 +5607,34 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>96.715000000000003</v>
+        <v>96.093999999999994</v>
       </c>
       <c r="K23" s="12">
-        <v>96.504000000000005</v>
+        <v>96.352999999999994</v>
       </c>
       <c r="L23" s="12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>4835.75</v>
+        <v>5765.6399999999994</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>2.1864378678603841E-3</v>
+        <v>-2.6880325469886808E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>10.549999999999926</v>
+        <v>-15.54000000000002</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="2"/>
-        <v>2.4682909534552537E-2</v>
+        <v>2.8478263371431358E-2</v>
       </c>
       <c r="Q23" s="84"/>
       <c r="S23" s="25"/>
     </row>
-    <row r="24" spans="1:21" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="63">
         <v>22</v>
@@ -5491,7 +5683,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63">
         <v>23</v>
       </c>
@@ -5567,7 +5759,7 @@
         <v>52</v>
       </c>
       <c r="J26" s="12">
-        <v>111.33</v>
+        <v>111.048</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -5577,24 +5769,24 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1113.3</v>
+        <v>1110.48</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>7.2574351859880357E-2</v>
+        <v>6.9857510332668626E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>75.330000000000013</v>
+        <v>72.510000000000048</v>
       </c>
       <c r="P26" s="24">
         <f t="shared" si="2"/>
-        <v>5.6825690295853465E-3</v>
+        <v>5.4850011288785109E-3</v>
       </c>
       <c r="Q26" s="84"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:21" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="64">
         <v>25</v>
       </c>
@@ -5638,7 +5830,7 @@
       <c r="Q27" s="85"/>
       <c r="S27" s="46"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="63">
         <v>26</v>
@@ -5664,7 +5856,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>109.45</v>
+        <v>109.453</v>
       </c>
       <c r="K28" s="12">
         <v>123.71599999999999</v>
@@ -5674,26 +5866,26 @@
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>7661.5</v>
+        <v>7661.71</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>-0.11531248989621384</v>
+        <v>-0.1152882408095961</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-998.61999999999944</v>
+        <v>-998.4099999999994</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" si="2"/>
-        <v>3.9106263020001912E-2</v>
+        <v>3.7843534326723376E-2</v>
       </c>
       <c r="Q28" s="84" t="s">
         <v>54</v>
       </c>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:21" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="98">
         <v>27</v>
       </c>
@@ -5740,7 +5932,7 @@
       <c r="Q29" s="87"/>
       <c r="S29" s="58"/>
     </row>
-    <row r="30" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="63">
         <v>28</v>
@@ -5766,7 +5958,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>105.917</v>
+        <v>105.40600000000001</v>
       </c>
       <c r="K30" s="12">
         <v>101.34</v>
@@ -5776,19 +5968,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>3177.51</v>
+        <v>3162.1800000000003</v>
       </c>
       <c r="N30" s="24">
         <f t="shared" si="1"/>
-        <v>4.5164791790013793E-2</v>
+        <v>4.0122360371028246E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>137.30999999999995</v>
+        <v>121.98000000000008</v>
       </c>
       <c r="P30" s="24">
         <f t="shared" si="2"/>
-        <v>1.6218826836609839E-2</v>
+        <v>1.5618976361318575E-2</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="S30" s="25"/>
@@ -5820,7 +6012,7 @@
         <v>52</v>
       </c>
       <c r="J31" s="12">
-        <v>116.053</v>
+        <v>116.68</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -5830,26 +6022,26 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1160.53</v>
+        <v>1166.8000000000002</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="1"/>
-        <v>0.14201789000305057</v>
+        <v>0.14818787455348809</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>144.32000000000002</v>
+        <v>150.59000000000012</v>
       </c>
       <c r="P31" s="24">
         <f t="shared" si="2"/>
-        <v>5.9236430754555664E-3</v>
+        <v>5.7631828733299539E-3</v>
       </c>
       <c r="Q31" s="84"/>
       <c r="R31" s="7"/>
       <c r="S31" s="62"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="63">
         <v>30</v>
       </c>
@@ -5897,7 +6089,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="58"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="63">
         <v>31</v>
@@ -5923,7 +6115,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>105.203</v>
+        <v>103.41</v>
       </c>
       <c r="K33" s="12">
         <v>102.991</v>
@@ -5933,19 +6125,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>10520.300000000001</v>
+        <v>10341</v>
       </c>
       <c r="N33" s="24">
         <f t="shared" si="1"/>
-        <v>2.1477604839257831E-2</v>
+        <v>4.0683166490275554E-3</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>221.20000000000033</v>
+        <v>41.899999999999693</v>
       </c>
       <c r="P33" s="24">
         <f t="shared" si="2"/>
-        <v>5.36983121907363E-2</v>
+        <v>5.1077368951924107E-2</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="8"/>
@@ -5953,7 +6145,7 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="64">
         <v>32</v>
       </c>
@@ -6001,7 +6193,7 @@
       <c r="Q34" s="85"/>
       <c r="S34" s="46"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="63">
         <v>33</v>
@@ -6027,7 +6219,7 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>98.768000000000001</v>
+        <v>98.275999999999996</v>
       </c>
       <c r="K35" s="12">
         <v>97.906000000000006</v>
@@ -6037,24 +6229,24 @@
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>7901.4400000000005</v>
+        <v>7862.08</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>8.80436336894567E-3</v>
+        <v>3.7791350887585061E-3</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>68.959999999999582</v>
+        <v>29.599999999999227</v>
       </c>
       <c r="P35" s="24">
         <f t="shared" ref="P35:P66" si="8">M35/$M$352</f>
-        <v>4.033097838240083E-2</v>
+        <v>3.8833223178565274E-2</v>
       </c>
       <c r="Q35" s="84"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="1:21" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="98">
         <v>34</v>
       </c>
@@ -6095,7 +6287,7 @@
       <c r="Q36" s="87"/>
       <c r="S36" s="58"/>
     </row>
-    <row r="37" spans="1:21" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="63">
         <v>35</v>
       </c>
@@ -6146,7 +6338,7 @@
       <c r="S37" s="58"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="63">
         <v>36</v>
@@ -6198,7 +6390,7 @@
       <c r="R38" s="61"/>
       <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="1:21" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="64">
         <v>37</v>
       </c>
@@ -6243,7 +6435,7 @@
       <c r="Q39" s="85"/>
       <c r="S39" s="46"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="63">
         <v>38</v>
@@ -6292,7 +6484,7 @@
       <c r="Q40" s="84"/>
       <c r="S40" s="25"/>
     </row>
-    <row r="41" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="63">
         <v>39</v>
@@ -6342,7 +6534,7 @@
       <c r="R41" s="51"/>
       <c r="S41" s="25"/>
     </row>
-    <row r="42" spans="1:21" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="63">
         <v>40</v>
       </c>
@@ -6391,7 +6583,7 @@
       <c r="S42" s="58"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="63">
         <v>41</v>
@@ -6440,7 +6632,7 @@
       <c r="Q43" s="84"/>
       <c r="S43" s="25"/>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="63">
         <v>42</v>
@@ -6489,7 +6681,7 @@
       <c r="Q44" s="84"/>
       <c r="S44" s="25"/>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="63">
         <v>43</v>
@@ -6538,7 +6730,7 @@
       <c r="Q45" s="84"/>
       <c r="S45" s="25"/>
     </row>
-    <row r="46" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="63">
         <v>44</v>
@@ -6564,7 +6756,7 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="12">
-        <v>120</v>
+        <v>119.61199999999999</v>
       </c>
       <c r="K46" s="12">
         <v>127.94799999999999</v>
@@ -6574,24 +6766,24 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>4800</v>
+        <v>4784.4799999999996</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="7"/>
-        <v>-6.2118985837996639E-2</v>
+        <v>-6.5151467783787151E-2</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-317.91999999999973</v>
+        <v>-333.43999999999994</v>
       </c>
       <c r="P46" s="24">
         <f t="shared" si="8"/>
-        <v>2.4500432356067244E-2</v>
+        <v>2.3632013364578069E-2</v>
       </c>
       <c r="Q46" s="84"/>
       <c r="S46" s="25"/>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="63">
         <v>45</v>
@@ -6619,7 +6811,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="12">
-        <v>118.7</v>
+        <v>118.42</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -6629,24 +6821,24 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2374</v>
+        <v>2368.4</v>
       </c>
       <c r="N47" s="24">
         <f t="shared" si="7"/>
-        <v>2.4070399447847522E-2</v>
+        <v>2.1654732119748124E-2</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>55.800000000000125</v>
+        <v>50.200000000000102</v>
       </c>
       <c r="P47" s="24">
         <f t="shared" si="8"/>
-        <v>1.2117505502771591E-2</v>
+        <v>1.1698253614325216E-2</v>
       </c>
       <c r="Q47" s="84"/>
       <c r="S47" s="25"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="63">
         <v>46</v>
@@ -6723,7 +6915,7 @@
         <v>66</v>
       </c>
       <c r="J49" s="12">
-        <v>109.286</v>
+        <v>108.321</v>
       </c>
       <c r="K49" s="12">
         <v>113.66</v>
@@ -6733,24 +6925,24 @@
       </c>
       <c r="M49" s="11">
         <f t="shared" si="6"/>
-        <v>1092.8600000000001</v>
+        <v>1083.21</v>
       </c>
       <c r="N49" s="24">
         <f t="shared" si="7"/>
-        <v>-3.8483195495336929E-2</v>
+        <v>-4.6973429526658443E-2</v>
       </c>
       <c r="O49" s="11">
         <f t="shared" si="9"/>
-        <v>-43.739999999999952</v>
+        <v>-53.389999999999986</v>
       </c>
       <c r="P49" s="24">
         <f t="shared" si="8"/>
-        <v>5.5782380218024272E-3</v>
+        <v>5.3503062394752643E-3</v>
       </c>
       <c r="Q49" s="84"/>
       <c r="S49" s="25"/>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="63">
         <v>48</v>
@@ -6799,7 +6991,7 @@
       <c r="Q50" s="84"/>
       <c r="S50" s="25"/>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="63">
         <v>49</v>
@@ -6848,7 +7040,7 @@
       <c r="Q51" s="84"/>
       <c r="S51" s="25"/>
     </row>
-    <row r="52" spans="1:19" s="66" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="64">
         <v>51</v>
       </c>
@@ -6896,7 +7088,7 @@
       <c r="Q52" s="88"/>
       <c r="S52" s="71"/>
     </row>
-    <row r="53" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="64">
         <v>52</v>
       </c>
@@ -6944,7 +7136,7 @@
       <c r="Q53" s="85"/>
       <c r="S53" s="46"/>
     </row>
-    <row r="54" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="64">
         <v>53</v>
       </c>
@@ -6992,7 +7184,7 @@
       <c r="Q54" s="85"/>
       <c r="S54" s="46"/>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="63">
         <v>54</v>
@@ -7041,7 +7233,7 @@
       <c r="Q55" s="84"/>
       <c r="S55" s="25"/>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="63">
         <v>55</v>
@@ -7090,7 +7282,7 @@
       <c r="Q56" s="84"/>
       <c r="S56" s="25"/>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="63">
         <v>56</v>
@@ -7139,7 +7331,7 @@
       <c r="Q57" s="84"/>
       <c r="S57" s="25"/>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="63">
         <v>57</v>
@@ -7188,7 +7380,7 @@
       <c r="Q58" s="84"/>
       <c r="S58" s="25"/>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="63">
         <v>58</v>
@@ -7237,7 +7429,7 @@
       <c r="Q59" s="84"/>
       <c r="S59" s="25"/>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="63">
         <v>59</v>
@@ -7280,7 +7472,7 @@
       <c r="Q60" s="84"/>
       <c r="S60" s="25"/>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="63">
         <v>60</v>
@@ -7306,7 +7498,7 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="12">
-        <v>104.879</v>
+        <v>101.05</v>
       </c>
       <c r="K61" s="12">
         <v>98.869</v>
@@ -7316,24 +7508,24 @@
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="11">J61*L61</f>
-        <v>5243.95</v>
+        <v>5052.5</v>
       </c>
       <c r="N61" s="24">
         <f t="shared" ref="N61:N95" si="12">(J61-K61)/K61</f>
-        <v>6.0787506700785941E-2</v>
+        <v>2.2059492864295153E-2</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
-        <v>300.50000000000023</v>
+        <v>109.04999999999987</v>
       </c>
       <c r="P61" s="24">
         <f t="shared" si="8"/>
-        <v>2.6766467136166421E-2</v>
+        <v>2.4955846303993477E-2</v>
       </c>
       <c r="Q61" s="84"/>
       <c r="S61" s="25"/>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="63">
         <v>61</v>
@@ -7382,7 +7574,7 @@
       <c r="Q62" s="84"/>
       <c r="S62" s="25"/>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="63">
         <v>62</v>
@@ -7431,7 +7623,7 @@
       <c r="Q63" s="84"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="63">
         <v>63</v>
@@ -7480,7 +7672,7 @@
       <c r="Q64" s="84"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="63">
         <v>64</v>
@@ -7529,7 +7721,7 @@
       <c r="Q65" s="84"/>
       <c r="S65" s="25"/>
     </row>
-    <row r="66" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="98">
         <v>65</v>
       </c>
@@ -7579,7 +7771,7 @@
       <c r="Q66" s="87"/>
       <c r="S66" s="58"/>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="63">
         <v>66</v>
@@ -7607,7 +7799,7 @@
         <v>66</v>
       </c>
       <c r="J67" s="12">
-        <v>106.6</v>
+        <v>105.93899999999999</v>
       </c>
       <c r="K67" s="12">
         <v>107.267</v>
@@ -7617,24 +7809,24 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>2132</v>
+        <v>2118.7799999999997</v>
       </c>
       <c r="N67" s="24">
         <f t="shared" si="12"/>
-        <v>-6.2181285950012738E-3</v>
+        <v>-1.2380322000242415E-2</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>-13.340000000000032</v>
+        <v>-26.560000000000059</v>
       </c>
       <c r="P67" s="24">
         <f t="shared" ref="P67:P98" si="13">M67/$M$352</f>
-        <v>1.0882275371486535E-2</v>
+        <v>1.0465303915284571E-2</v>
       </c>
       <c r="Q67" s="84"/>
       <c r="S67" s="25"/>
     </row>
-    <row r="68" spans="1:19" s="39" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B68" s="64">
         <v>67</v>
       </c>
@@ -7678,7 +7870,7 @@
       <c r="Q68" s="85"/>
       <c r="S68" s="46"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="63">
         <v>68</v>
@@ -7704,7 +7896,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>101.9</v>
+        <v>102.55</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -7714,24 +7906,24 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="14">J69*L69</f>
-        <v>7133</v>
+        <v>7178.5</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="12"/>
-        <v>4.7534849294790182E-2</v>
+        <v>5.4216867469879526E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>323.68000000000063</v>
+        <v>369.18000000000006</v>
       </c>
       <c r="P69" s="24">
         <f t="shared" si="13"/>
-        <v>3.6408663332464092E-2</v>
+        <v>3.5456812012512058E-2</v>
       </c>
       <c r="Q69" s="84"/>
       <c r="S69" s="25"/>
     </row>
-    <row r="70" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="98">
         <v>69</v>
       </c>
@@ -7782,7 +7974,7 @@
       <c r="Q70" s="87"/>
       <c r="S70" s="58"/>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="63">
         <v>70</v>
@@ -7810,7 +8002,7 @@
         <v>52</v>
       </c>
       <c r="J71" s="12">
-        <v>106.259</v>
+        <v>106.676</v>
       </c>
       <c r="K71" s="12">
         <v>106.81100000000001</v>
@@ -7820,24 +8012,24 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="14"/>
-        <v>3187.77</v>
+        <v>3200.28</v>
       </c>
       <c r="N71" s="24">
         <f t="shared" si="12"/>
-        <v>-5.168007040473422E-3</v>
+        <v>-1.2639147653332064E-3</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>-16.560000000000201</v>
+        <v>-4.0500000000001535</v>
       </c>
       <c r="P71" s="24">
         <f t="shared" si="13"/>
-        <v>1.6271196510770934E-2</v>
+        <v>1.5807163940572834E-2</v>
       </c>
       <c r="Q71" s="84"/>
       <c r="S71" s="25"/>
     </row>
-    <row r="72" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="64">
         <v>71</v>
       </c>
@@ -7912,7 +8104,7 @@
         <v>52</v>
       </c>
       <c r="J73" s="12">
-        <v>117.785</v>
+        <v>117.999</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -7922,24 +8114,24 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1177.8499999999999</v>
+        <v>1179.99</v>
       </c>
       <c r="N73" s="24">
         <f t="shared" si="12"/>
-        <v>4.2151458578494228E-2</v>
+        <v>4.4044912007502983E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>47.639999999999958</v>
+        <v>49.779999999999944</v>
       </c>
       <c r="P73" s="24">
         <f t="shared" si="13"/>
-        <v>6.012048802207042E-3</v>
+        <v>5.8283323266203387E-3</v>
       </c>
       <c r="Q73" s="84"/>
       <c r="S73" s="25"/>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="63">
         <v>73</v>
@@ -7988,7 +8180,7 @@
       <c r="Q74" s="84"/>
       <c r="S74" s="25"/>
     </row>
-    <row r="75" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="98">
         <v>74</v>
       </c>
@@ -8037,7 +8229,7 @@
       <c r="Q75" s="87"/>
       <c r="S75" s="58"/>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="63">
         <v>75</v>
@@ -8086,7 +8278,7 @@
       <c r="Q76" s="84"/>
       <c r="S76" s="25"/>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="63">
         <v>76</v>
@@ -8114,7 +8306,7 @@
         <v>52</v>
       </c>
       <c r="J77" s="12">
-        <v>106.746</v>
+        <v>106.55</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -8124,24 +8316,24 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="14"/>
-        <v>2134.92</v>
+        <v>2131</v>
       </c>
       <c r="N77" s="24">
         <f t="shared" si="12"/>
-        <v>0.10759940234083164</v>
+        <v>0.10556570100439935</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="15"/>
-        <v>207.39999999999981</v>
+        <v>203.47999999999985</v>
       </c>
       <c r="P77" s="24">
         <f t="shared" si="13"/>
-        <v>1.0897179801169809E-2</v>
+        <v>1.0525662241229115E-2</v>
       </c>
       <c r="Q77" s="84"/>
       <c r="S77" s="25"/>
     </row>
-    <row r="78" spans="1:19" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="63">
         <v>77</v>
@@ -8218,7 +8410,7 @@
         <v>52</v>
       </c>
       <c r="J79" s="12">
-        <v>109.989</v>
+        <v>109.264</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -8228,24 +8420,24 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="14"/>
-        <v>1099.8900000000001</v>
+        <v>1092.6399999999999</v>
       </c>
       <c r="N79" s="24">
         <f t="shared" si="12"/>
-        <v>1.2883322589557057E-2</v>
+        <v>6.2068330417164785E-3</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="15"/>
-        <v>13.990000000000009</v>
+        <v>6.7399999999999238</v>
       </c>
       <c r="P79" s="24">
         <f t="shared" si="13"/>
-        <v>5.6141209466905838E-3</v>
+        <v>5.3968839001673286E-3</v>
       </c>
       <c r="Q79" s="84"/>
       <c r="S79" s="25"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="63">
         <v>79</v>
@@ -8271,7 +8463,7 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>106.361</v>
+        <v>105.35</v>
       </c>
       <c r="K80" s="12">
         <v>107.053</v>
@@ -8281,24 +8473,24 @@
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>4254.4400000000005</v>
+        <v>4214</v>
       </c>
       <c r="N80" s="24">
         <f t="shared" si="12"/>
-        <v>-6.4640878817033903E-3</v>
+        <v>-1.5908008182862723E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-27.679999999999723</v>
+        <v>-68.120000000000118</v>
       </c>
       <c r="P80" s="24">
         <f t="shared" si="13"/>
-        <v>2.1715754048530569E-2</v>
+        <v>2.0814237768437112E-2</v>
       </c>
       <c r="Q80" s="84"/>
       <c r="S80" s="25"/>
     </row>
-    <row r="81" spans="1:19" s="72" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="73">
         <v>80</v>
       </c>
@@ -8346,7 +8538,7 @@
       <c r="Q81" s="89"/>
       <c r="S81" s="71"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="63">
         <v>81</v>
@@ -8372,7 +8564,7 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>106.328</v>
+        <v>106.581</v>
       </c>
       <c r="K82" s="12">
         <v>102.289</v>
@@ -8382,24 +8574,24 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="14"/>
-        <v>3189.84</v>
+        <v>3197.4300000000003</v>
       </c>
       <c r="N82" s="24">
         <f t="shared" si="12"/>
-        <v>3.9486161757373732E-2</v>
+        <v>4.1959545992237696E-2</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="15"/>
-        <v>121.17000000000004</v>
+        <v>128.76000000000005</v>
       </c>
       <c r="P82" s="24">
         <f t="shared" si="13"/>
-        <v>1.6281762322224488E-2</v>
+        <v>1.579308691692783E-2</v>
       </c>
       <c r="Q82" s="84"/>
       <c r="S82" s="25"/>
     </row>
-    <row r="83" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="64">
         <v>82</v>
       </c>
@@ -8446,7 +8638,7 @@
       <c r="Q83" s="85"/>
       <c r="S83" s="46"/>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="63">
         <v>83</v>
@@ -8474,7 +8666,7 @@
         <v>52</v>
       </c>
       <c r="J84" s="12">
-        <v>107.691</v>
+        <v>107.755</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -8484,24 +8676,24 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="16">J84*L84</f>
-        <v>2153.8200000000002</v>
+        <v>2155.1</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="12"/>
-        <v>2.4668143652374712E-3</v>
+        <v>3.0625733062758878E-3</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>5.3000000000000114</v>
+        <v>6.5799999999998704</v>
       </c>
       <c r="P84" s="24">
         <f t="shared" si="13"/>
-        <v>1.0993650253571824E-2</v>
+        <v>1.0644699528893882E-2</v>
       </c>
       <c r="Q84" s="84"/>
       <c r="S84" s="25"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="63">
         <v>84</v>
@@ -8527,7 +8719,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>108.527</v>
+        <v>105.79</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -8537,24 +8729,24 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="16"/>
-        <v>4341.08</v>
+        <v>4231.6000000000004</v>
       </c>
       <c r="N85" s="24">
         <f t="shared" si="12"/>
-        <v>4.3288087364454358E-2</v>
+        <v>1.6976851495808711E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>180.12</v>
+        <v>70.640000000000214</v>
       </c>
       <c r="P85" s="24">
         <f t="shared" si="13"/>
-        <v>2.2157986852557581E-2</v>
+        <v>2.0901169563578188E-2</v>
       </c>
       <c r="Q85" s="84"/>
       <c r="S85" s="25"/>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="63">
         <v>85</v>
@@ -8603,7 +8795,7 @@
       </c>
       <c r="S86" s="25"/>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="63">
         <v>86</v>
@@ -8650,7 +8842,7 @@
       <c r="Q87" s="84"/>
       <c r="S87" s="25"/>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="63">
         <v>87</v>
@@ -8699,7 +8891,7 @@
       <c r="Q88" s="84"/>
       <c r="S88" s="25"/>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="63">
         <v>88</v>
@@ -8748,7 +8940,7 @@
       <c r="Q89" s="84"/>
       <c r="S89" s="25"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="63">
         <v>89</v>
@@ -8774,7 +8966,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>101.08799999999999</v>
+        <v>101.023</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -8784,24 +8976,24 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="16"/>
-        <v>5054.3999999999996</v>
+        <v>5051.1499999999996</v>
       </c>
       <c r="N90" s="24">
         <f t="shared" si="12"/>
-        <v>-4.2062749347387745E-3</v>
+        <v>-4.8465743978722796E-3</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="15"/>
-        <v>-21.350000000000335</v>
+        <v>-24.600000000000222</v>
       </c>
       <c r="P90" s="24">
         <f t="shared" si="13"/>
-        <v>2.5798955270938805E-2</v>
+        <v>2.4949178240161633E-2</v>
       </c>
       <c r="Q90" s="84"/>
       <c r="S90" s="25"/>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="63">
         <v>90</v>
@@ -8850,7 +9042,7 @@
       <c r="Q91" s="84"/>
       <c r="S91" s="25"/>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="63">
         <v>91</v>
@@ -8899,7 +9091,7 @@
       <c r="Q92" s="84"/>
       <c r="S92" s="25"/>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="63">
         <v>92</v>
@@ -8948,7 +9140,7 @@
       <c r="Q93" s="84"/>
       <c r="S93" s="25"/>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="63">
         <v>93</v>
@@ -8997,7 +9189,7 @@
       <c r="Q94" s="84"/>
       <c r="S94" s="25"/>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="63">
         <v>94</v>
@@ -9048,7 +9240,7 @@
       </c>
       <c r="S95" s="25"/>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="63">
         <v>95</v>
@@ -9091,7 +9283,7 @@
       <c r="Q96" s="84"/>
       <c r="S96" s="25"/>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="63">
         <v>96</v>
@@ -9134,7 +9326,7 @@
       <c r="Q97" s="84"/>
       <c r="S97" s="25"/>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="63">
         <v>97</v>
@@ -9177,7 +9369,7 @@
       <c r="Q98" s="84"/>
       <c r="S98" s="25"/>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="63">
         <v>98</v>
@@ -9222,7 +9414,7 @@
       </c>
       <c r="S99" s="25"/>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="63">
         <v>99</v>
@@ -9271,7 +9463,7 @@
       <c r="Q100" s="84"/>
       <c r="S100" s="25"/>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="63">
         <v>100</v>
@@ -9320,7 +9512,7 @@
       <c r="Q101" s="84"/>
       <c r="S101" s="25"/>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="63">
         <v>101</v>
@@ -9369,7 +9561,7 @@
       <c r="Q102" s="84"/>
       <c r="S102" s="25"/>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="63">
         <v>102</v>
@@ -9418,7 +9610,7 @@
       <c r="Q103" s="84"/>
       <c r="S103" s="25"/>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="63">
         <v>103</v>
@@ -9467,7 +9659,7 @@
       <c r="Q104" s="84"/>
       <c r="S104" s="25"/>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="63">
         <v>104</v>
@@ -9493,7 +9685,7 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>101.62</v>
+        <v>101.13200000000001</v>
       </c>
       <c r="K105" s="12">
         <v>103.44799999999999</v>
@@ -9503,26 +9695,26 @@
       </c>
       <c r="M105" s="11">
         <f t="shared" si="19"/>
-        <v>7113.4000000000005</v>
+        <v>7079.2400000000007</v>
       </c>
       <c r="N105" s="24">
         <f t="shared" si="20"/>
-        <v>-1.7670713788569995E-2</v>
+        <v>-2.2388059701492425E-2</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="15"/>
-        <v>-127.95999999999921</v>
+        <v>-162.11999999999918</v>
       </c>
       <c r="P105" s="24">
         <f t="shared" si="18"/>
-        <v>3.6308619900343488E-2</v>
+        <v>3.4966536445142561E-2</v>
       </c>
       <c r="Q105" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S105" s="25"/>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="63">
         <v>105</v>
@@ -9548,7 +9740,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>105.63</v>
+        <v>104.837</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -9558,26 +9750,26 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="19"/>
-        <v>3168.8999999999996</v>
+        <v>3145.11</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="20"/>
-        <v>4.2115470542937608E-3</v>
+        <v>-3.3274073792388253E-3</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>13.289999999999935</v>
+        <v>-10.499999999999829</v>
       </c>
       <c r="P106" s="24">
         <f t="shared" si="18"/>
-        <v>1.6174879186071141E-2</v>
+        <v>1.5534662398644815E-2</v>
       </c>
       <c r="Q106" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S106" s="25"/>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="63">
         <v>106</v>
@@ -9628,7 +9820,7 @@
       </c>
       <c r="S107" s="25"/>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="63">
         <v>107</v>
@@ -9677,7 +9869,7 @@
       <c r="Q108" s="84"/>
       <c r="S108" s="25"/>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="63">
         <v>108</v>
@@ -9728,7 +9920,7 @@
       </c>
       <c r="S109" s="25"/>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="63">
         <v>109</v>
@@ -9777,7 +9969,7 @@
       <c r="Q110" s="84"/>
       <c r="S110" s="25"/>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="63">
         <v>110</v>
@@ -9826,7 +10018,7 @@
       <c r="Q111" s="84"/>
       <c r="S111" s="25"/>
     </row>
-    <row r="112" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="64">
         <v>111</v>
       </c>
@@ -9902,7 +10094,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>110.401</v>
+        <v>109.78</v>
       </c>
       <c r="K113" s="12">
         <v>105.44</v>
@@ -9912,26 +10104,26 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="19"/>
-        <v>1104.01</v>
+        <v>1097.8</v>
       </c>
       <c r="N113" s="24">
         <f t="shared" si="20"/>
-        <v>4.705045523520484E-2</v>
+        <v>4.1160849772382428E-2</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="21"/>
-        <v>49.609999999999985</v>
+        <v>43.400000000000034</v>
       </c>
       <c r="P113" s="24">
         <f t="shared" si="18"/>
-        <v>5.6351504844628746E-3</v>
+        <v>5.4223707219245992E-3</v>
       </c>
       <c r="Q113" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S113" s="25"/>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="63">
         <v>113</v>
@@ -9980,7 +10172,7 @@
       <c r="Q114" s="84"/>
       <c r="S114" s="25"/>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="63">
         <v>114</v>
@@ -10029,7 +10221,7 @@
       <c r="Q115" s="84"/>
       <c r="S115" s="25"/>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="63">
         <v>115</v>
@@ -10080,7 +10272,7 @@
       </c>
       <c r="S116" s="25"/>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="63">
         <v>116</v>
@@ -10129,7 +10321,7 @@
       <c r="Q117" s="84"/>
       <c r="S117" s="25"/>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="63">
         <v>117</v>
@@ -10180,7 +10372,7 @@
       </c>
       <c r="S118" s="25"/>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="63">
         <v>118</v>
@@ -10229,7 +10421,7 @@
       <c r="Q119" s="84"/>
       <c r="S119" s="25"/>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="63">
         <v>119</v>
@@ -10280,7 +10472,7 @@
       </c>
       <c r="S120" s="25"/>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="63">
         <v>120</v>
@@ -10329,7 +10521,7 @@
       <c r="Q121" s="84"/>
       <c r="S121" s="25"/>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="63">
         <v>121</v>
@@ -10380,7 +10572,7 @@
       </c>
       <c r="S122" s="25"/>
     </row>
-    <row r="123" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="63">
         <v>122</v>
       </c>
@@ -10430,7 +10622,7 @@
       </c>
       <c r="S123" s="46"/>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="63">
         <v>123</v>
@@ -10481,7 +10673,7 @@
       </c>
       <c r="S124" s="25"/>
     </row>
-    <row r="125" spans="1:19" s="51" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B125" s="98">
         <v>124</v>
       </c>
@@ -10531,7 +10723,7 @@
       </c>
       <c r="S125" s="58"/>
     </row>
-    <row r="126" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="63">
         <v>125</v>
       </c>
@@ -10579,7 +10771,7 @@
       <c r="Q126" s="85"/>
       <c r="S126" s="46"/>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="63">
         <v>126</v>
@@ -10605,7 +10797,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>108.152</v>
+        <v>108.496</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -10615,26 +10807,26 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="19"/>
-        <v>2163.04</v>
+        <v>2169.92</v>
       </c>
       <c r="N127" s="24">
         <f t="shared" si="20"/>
-        <v>-1.3573532534926966E-3</v>
+        <v>1.8190380335920784E-3</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="21"/>
-        <v>-2.9400000000001114</v>
+        <v>3.9399999999997704</v>
       </c>
       <c r="P127" s="24">
         <f t="shared" si="18"/>
-        <v>1.1040711500722436E-2</v>
+        <v>1.0717900051847902E-2</v>
       </c>
       <c r="Q127" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S127" s="25"/>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="63">
         <v>127</v>
@@ -10683,7 +10875,7 @@
       <c r="Q128" s="84"/>
       <c r="S128" s="25"/>
     </row>
-    <row r="129" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="64">
         <v>128</v>
       </c>
@@ -10730,7 +10922,7 @@
       <c r="Q129" s="85"/>
       <c r="S129" s="46"/>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="63">
         <v>129</v>
@@ -10779,7 +10971,7 @@
       <c r="Q130" s="84"/>
       <c r="S130" s="25"/>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="93">
         <v>130</v>
@@ -10828,7 +11020,7 @@
       <c r="Q131" s="84"/>
       <c r="S131" s="25"/>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="93">
         <v>131</v>
@@ -10903,7 +11095,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>113.89</v>
+        <v>113.03100000000001</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -10913,26 +11105,26 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="19"/>
-        <v>1138.9000000000001</v>
+        <v>1130.31</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="25"/>
-        <v>1.9414434170836253E-2</v>
+        <v>1.1725637973165316E-2</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="23"/>
-        <v>21.689999999999969</v>
+        <v>13.100000000000023</v>
       </c>
       <c r="P133" s="24">
         <f t="shared" si="24"/>
-        <v>5.813238002151039E-3</v>
+        <v>5.582947577608484E-3</v>
       </c>
       <c r="Q133" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S133" s="25"/>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="93">
         <v>133</v>
@@ -11007,7 +11199,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>111.925</v>
+        <v>111.276</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -11017,26 +11209,26 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="19"/>
-        <v>1119.25</v>
+        <v>1112.76</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="25"/>
-        <v>3.9905230883582665E-2</v>
+        <v>3.3875313574282272E-2</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="23"/>
-        <v>42.950000000000017</v>
+        <v>36.460000000000008</v>
       </c>
       <c r="P135" s="24">
         <f t="shared" si="24"/>
-        <v>5.7129393571933879E-3</v>
+        <v>5.4962627477945138E-3</v>
       </c>
       <c r="Q135" s="84" t="s">
         <v>120</v>
       </c>
       <c r="S135" s="25"/>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="93">
         <v>135</v>
@@ -11085,7 +11277,7 @@
       <c r="Q136" s="84"/>
       <c r="S136" s="25"/>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="93">
         <v>136</v>
@@ -11162,7 +11354,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>118.53</v>
+        <v>117.01</v>
       </c>
       <c r="K138" s="12">
         <v>115.14</v>
@@ -11172,19 +11364,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="19"/>
-        <v>1185.3</v>
+        <v>1170.1000000000001</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="25"/>
-        <v>2.944241792600313E-2</v>
+        <v>1.6241097793989964E-2</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="23"/>
-        <v>33.900000000000006</v>
+        <v>18.700000000000045</v>
       </c>
       <c r="P138" s="24">
         <f t="shared" si="24"/>
-        <v>6.0500755149263544E-3</v>
+        <v>5.7794825849189057E-3</v>
       </c>
       <c r="Q138" s="84" t="s">
         <v>106</v>
@@ -11217,7 +11409,7 @@
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12">
-        <v>115.169</v>
+        <v>115.18600000000001</v>
       </c>
       <c r="K139" s="12">
         <v>119.23</v>
@@ -11227,26 +11419,26 @@
       </c>
       <c r="M139" s="11">
         <f t="shared" si="19"/>
-        <v>1151.69</v>
+        <v>1151.8600000000001</v>
       </c>
       <c r="N139" s="24">
         <f t="shared" si="25"/>
-        <v>-3.4060219743353243E-2</v>
+        <v>-3.3917638178310804E-2</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="23"/>
-        <v>-40.61000000000007</v>
+        <v>-40.439999999999969</v>
       </c>
       <c r="P139" s="24">
         <f t="shared" si="24"/>
-        <v>5.878521445866476E-3</v>
+        <v>5.6893896335908816E-3</v>
       </c>
       <c r="Q139" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S139" s="25"/>
     </row>
-    <row r="140" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="98">
         <v>139</v>
       </c>
@@ -11316,7 +11508,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>108.96</v>
+        <v>109.2</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -11326,19 +11518,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="26">J141*L141</f>
-        <v>1089.5999999999999</v>
+        <v>1092</v>
       </c>
       <c r="N141" s="24">
         <f t="shared" si="25"/>
-        <v>1.6882716913514551E-2</v>
+        <v>1.9122546686451893E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>18.089999999999975</v>
+        <v>20.490000000000066</v>
       </c>
       <c r="P141" s="24">
         <f t="shared" si="24"/>
-        <v>5.561598144827264E-3</v>
+        <v>5.3937227439803809E-3</v>
       </c>
       <c r="Q141" s="84" t="s">
         <v>106</v>
@@ -11371,7 +11563,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>113.066</v>
+        <v>112.35</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -11381,26 +11573,26 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="26"/>
-        <v>1130.6600000000001</v>
+        <v>1123.5</v>
       </c>
       <c r="N142" s="24">
         <f t="shared" si="25"/>
-        <v>3.4256913127395511E-2</v>
+        <v>2.7707393821864018E-2</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>37.450000000000045</v>
+        <v>30.289999999999964</v>
       </c>
       <c r="P142" s="24">
         <f t="shared" si="24"/>
-        <v>5.7711789266064566E-3</v>
+        <v>5.5493109000567383E-3</v>
       </c>
       <c r="Q142" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S142" s="25"/>
     </row>
-    <row r="143" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="96">
         <v>142</v>
       </c>
@@ -11447,7 +11639,7 @@
       <c r="Q143" s="85"/>
       <c r="S143" s="46"/>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="96">
         <v>143</v>
@@ -11496,7 +11688,7 @@
       <c r="Q144" s="84"/>
       <c r="S144" s="25"/>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="96">
         <v>144</v>
@@ -11545,7 +11737,7 @@
       <c r="Q145" s="84"/>
       <c r="S145" s="25"/>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="96">
         <v>145</v>
@@ -11594,7 +11786,7 @@
       <c r="Q146" s="84"/>
       <c r="S146" s="25"/>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="96">
         <v>146</v>
@@ -11671,7 +11863,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>110.99</v>
+        <v>109.13200000000001</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -11681,26 +11873,26 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="26"/>
-        <v>1109.8999999999999</v>
+        <v>1091.3200000000002</v>
       </c>
       <c r="N148" s="24">
         <f t="shared" si="25"/>
-        <v>4.6305548747148248E-2</v>
+        <v>2.8790135560625218E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="27"/>
-        <v>49.119999999999919</v>
+        <v>30.54000000000002</v>
       </c>
       <c r="P148" s="24">
         <f t="shared" si="24"/>
-        <v>5.6652145566664647E-3</v>
+        <v>5.3903640155317494E-3</v>
       </c>
       <c r="Q148" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S148" s="25"/>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="101">
         <v>148</v>
@@ -11726,7 +11918,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>107.67700000000001</v>
+        <v>106.751</v>
       </c>
       <c r="K149" s="81">
         <v>107.70699999999999</v>
@@ -11736,26 +11928,26 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="26"/>
-        <v>2153.54</v>
+        <v>2135.02</v>
       </c>
       <c r="N149" s="24">
         <f t="shared" si="25"/>
-        <v>-2.7853342865354086E-4</v>
+        <v>-8.8759319264299346E-3</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="27"/>
-        <v>-0.59999999999973852</v>
+        <v>-19.119999999999777</v>
       </c>
       <c r="P149" s="24">
         <f t="shared" si="24"/>
-        <v>1.0992221061684385E-2</v>
+        <v>1.0545518253528383E-2</v>
       </c>
       <c r="Q149" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="97"/>
       <c r="B150" s="101">
         <v>149</v>
@@ -11803,7 +11995,7 @@
       <c r="Q150" s="87"/>
       <c r="S150" s="58"/>
     </row>
-    <row r="151" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="101">
         <v>150</v>
       </c>
@@ -11851,7 +12043,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="101">
         <v>151</v>
@@ -11877,7 +12069,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>107.932</v>
+        <v>107.76</v>
       </c>
       <c r="K152" s="12">
         <v>110.36499999999999</v>
@@ -11887,26 +12079,26 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="26"/>
-        <v>3237.96</v>
+        <v>3232.8</v>
       </c>
       <c r="N152" s="24">
         <f t="shared" si="25"/>
-        <v>-2.2045032392515679E-2</v>
+        <v>-2.3603497485615819E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="28">(J152-K152)*L152</f>
-        <v>-72.989999999999782</v>
+        <v>-78.149999999999693</v>
       </c>
       <c r="P152" s="24">
         <f t="shared" si="24"/>
-        <v>1.6527379156594062E-2</v>
+        <v>1.596779018932214E-2</v>
       </c>
       <c r="Q152" s="84" t="s">
         <v>132</v>
       </c>
       <c r="S152" s="25"/>
     </row>
-    <row r="153" spans="1:19" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="101">
         <v>152</v>
       </c>
@@ -11954,7 +12146,7 @@
       <c r="Q153" s="85"/>
       <c r="S153" s="46"/>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="101">
         <v>153</v>
@@ -12003,7 +12195,7 @@
       <c r="Q154" s="84"/>
       <c r="S154" s="25"/>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="101">
         <v>154</v>
@@ -12052,7 +12244,7 @@
       <c r="Q155" s="84"/>
       <c r="S155" s="25"/>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="101">
         <v>155</v>
@@ -12131,7 +12323,7 @@
         <v>66</v>
       </c>
       <c r="J157" s="12">
-        <v>108.858</v>
+        <v>109.072</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -12141,26 +12333,26 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="26"/>
-        <v>1088.58</v>
+        <v>1090.72</v>
       </c>
       <c r="N157" s="24">
         <f t="shared" si="25"/>
-        <v>-2.1266843890365688E-3</v>
+        <v>-1.6500137501146469E-4</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="28"/>
-        <v>-2.3199999999999932</v>
+        <v>-0.18000000000000682</v>
       </c>
       <c r="P157" s="24">
         <f t="shared" si="24"/>
-        <v>5.5563918029516001E-3</v>
+        <v>5.3874004316064846E-3</v>
       </c>
       <c r="Q157" s="84" t="s">
         <v>136</v>
       </c>
       <c r="S157" s="25"/>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="105">
         <v>157</v>
@@ -12237,7 +12429,7 @@
         <v>66</v>
       </c>
       <c r="J159" s="12">
-        <v>110.883</v>
+        <v>111.53</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -12247,24 +12439,24 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="26"/>
-        <v>1108.83</v>
+        <v>1115.3</v>
       </c>
       <c r="N159" s="24">
         <f t="shared" si="25"/>
-        <v>3.0089926052543476E-2</v>
+        <v>3.6100479357883353E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="28"/>
-        <v>32.389999999999901</v>
+        <v>38.859999999999957</v>
       </c>
       <c r="P159" s="24">
         <f t="shared" si="24"/>
-        <v>5.6597530019537583E-3</v>
+        <v>5.5088085864114641E-3</v>
       </c>
       <c r="Q159" s="84"/>
       <c r="S159" s="25"/>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="105">
         <v>159</v>
@@ -12313,7 +12505,7 @@
       <c r="Q160" s="84"/>
       <c r="S160" s="25"/>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="105">
         <v>160</v>
@@ -12362,7 +12554,7 @@
       <c r="Q161" s="84"/>
       <c r="S161" s="25"/>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="105">
         <v>161</v>
@@ -12437,7 +12629,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>110.849</v>
+        <v>110.31399999999999</v>
       </c>
       <c r="K163" s="12">
         <v>109.07</v>
@@ -12447,26 +12639,26 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="26"/>
-        <v>1108.49</v>
+        <v>1103.1399999999999</v>
       </c>
       <c r="N163" s="24">
         <f t="shared" si="25"/>
-        <v>1.631062620335574E-2</v>
+        <v>1.1405519391216649E-2</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="28"/>
-        <v>17.790000000000106</v>
+        <v>12.439999999999998</v>
       </c>
       <c r="P163" s="24">
         <f t="shared" ref="P163:P179" si="30">M163/$M$352</f>
-        <v>5.6580175546618707E-3</v>
+        <v>5.448746618859448E-3</v>
       </c>
       <c r="Q163" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S163" s="25"/>
     </row>
-    <row r="164" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="105">
         <v>163</v>
       </c>
@@ -12513,7 +12705,7 @@
       <c r="Q164" s="87"/>
       <c r="S164" s="58"/>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="105">
         <v>164</v>
@@ -12559,7 +12751,7 @@
       <c r="Q165" s="84"/>
       <c r="S165" s="25"/>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="105">
         <v>165</v>
@@ -12608,7 +12800,7 @@
       <c r="Q166" s="84"/>
       <c r="S166" s="25"/>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="105">
         <v>166</v>
@@ -12659,7 +12851,7 @@
       </c>
       <c r="S167" s="25"/>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="106">
         <v>167</v>
@@ -12710,7 +12902,7 @@
       </c>
       <c r="S168" s="25"/>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="107">
         <v>168</v>
@@ -12736,7 +12928,7 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>107.29</v>
+        <v>106.867</v>
       </c>
       <c r="K169" s="12">
         <v>106.307</v>
@@ -12746,26 +12938,26 @@
       </c>
       <c r="M169" s="11">
         <f t="shared" si="26"/>
-        <v>2145.8000000000002</v>
+        <v>2137.34</v>
       </c>
       <c r="N169" s="24">
         <f t="shared" si="31"/>
-        <v>9.2468040674650222E-3</v>
+        <v>5.2677622357888212E-3</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="32"/>
-        <v>19.660000000000082</v>
+        <v>11.200000000000045</v>
       </c>
       <c r="P169" s="24">
         <f t="shared" si="30"/>
-        <v>1.0952714114510228E-2</v>
+        <v>1.0556977444706071E-2</v>
       </c>
       <c r="Q169" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S169" s="25"/>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="B170" s="107">
         <v>169</v>
@@ -12814,7 +13006,7 @@
       <c r="Q170" s="84"/>
       <c r="S170" s="25"/>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="B171" s="107">
         <v>170</v>
@@ -12842,7 +13034,7 @@
         <v>66</v>
       </c>
       <c r="J171" s="12">
-        <v>107.539</v>
+        <v>107.61199999999999</v>
       </c>
       <c r="K171" s="12">
         <v>109.006</v>
@@ -12852,26 +13044,26 @@
       </c>
       <c r="M171" s="11">
         <f t="shared" si="26"/>
-        <v>2150.7800000000002</v>
+        <v>2152.2399999999998</v>
       </c>
       <c r="N171" s="24">
         <f t="shared" si="31"/>
-        <v>-1.34579747903785E-2</v>
+        <v>-1.2788286883290877E-2</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="32"/>
-        <v>-29.339999999999975</v>
+        <v>-27.880000000000109</v>
       </c>
       <c r="P171" s="24">
         <f t="shared" si="30"/>
-        <v>1.0978133313079648E-2</v>
+        <v>1.0630573112183456E-2</v>
       </c>
       <c r="Q171" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S171" s="25"/>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="B172" s="107">
         <v>171</v>
@@ -12899,7 +13091,7 @@
         <v>66</v>
       </c>
       <c r="J172" s="12">
-        <v>111.834</v>
+        <v>111.855</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -12909,26 +13101,26 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="26"/>
-        <v>2236.6800000000003</v>
+        <v>2237.1</v>
       </c>
       <c r="N172" s="24">
         <f t="shared" si="31"/>
-        <v>2.717795637198625E-2</v>
+        <v>2.7370838117106812E-2</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="32"/>
-        <v>59.180000000000064</v>
+        <v>59.60000000000008</v>
       </c>
       <c r="P172" s="24">
         <f t="shared" si="30"/>
-        <v>1.1416588967118436E-2</v>
+        <v>1.1049722665346621E-2</v>
       </c>
       <c r="Q172" s="84" t="s">
         <v>106</v>
       </c>
       <c r="S172" s="25"/>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="B173" s="107">
         <v>172</v>
@@ -12977,7 +13169,7 @@
       <c r="Q173" s="84"/>
       <c r="S173" s="25"/>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="B174" s="107">
         <v>173</v>
@@ -13026,7 +13218,7 @@
       <c r="Q174" s="84"/>
       <c r="S174" s="25"/>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="B175" s="107">
         <v>174</v>
@@ -13077,7 +13269,7 @@
       </c>
       <c r="S175" s="25"/>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="B176" s="108">
         <v>175</v>
@@ -13152,7 +13344,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>108.929</v>
+        <v>108.172</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -13162,26 +13354,26 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="33"/>
-        <v>1089.29</v>
+        <v>1081.72</v>
       </c>
       <c r="N177" s="24">
         <f t="shared" si="31"/>
-        <v>-6.5754673962608624E-3</v>
+        <v>-1.3479252165982751E-2</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="32"/>
-        <v>-7.2100000000000364</v>
+        <v>-14.780000000000086</v>
       </c>
       <c r="P177" s="24">
         <f t="shared" si="30"/>
-        <v>5.5600158252376011E-3</v>
+        <v>5.3429466727275259E-3</v>
       </c>
       <c r="Q177" s="84" t="s">
         <v>150</v>
       </c>
       <c r="S177" s="25"/>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="B178" s="108">
         <v>177</v>
@@ -13230,7 +13422,7 @@
       <c r="Q178" s="84"/>
       <c r="S178" s="25"/>
     </row>
-    <row r="179" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="108">
         <v>178</v>
@@ -13256,7 +13448,7 @@
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="12">
-        <v>112.2</v>
+        <v>111.68300000000001</v>
       </c>
       <c r="K179" s="12">
         <v>115.111</v>
@@ -13266,26 +13458,26 @@
       </c>
       <c r="M179" s="11">
         <f t="shared" si="33"/>
-        <v>4488</v>
+        <v>4467.3200000000006</v>
       </c>
       <c r="N179" s="24">
         <f t="shared" si="31"/>
-        <v>-2.5288634448488861E-2</v>
+        <v>-2.9779951525049711E-2</v>
       </c>
       <c r="O179" s="11">
         <f t="shared" si="32"/>
-        <v>-116.44000000000005</v>
+        <v>-137.11999999999989</v>
       </c>
       <c r="P179" s="24">
         <f t="shared" si="30"/>
-        <v>2.2907904252922873E-2</v>
+        <v>2.2065462901683552E-2</v>
       </c>
       <c r="Q179" s="84" t="s">
         <v>152</v>
       </c>
       <c r="S179" s="25"/>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
       <c r="B180" s="108">
         <v>179</v>
@@ -13336,7 +13528,7 @@
       </c>
       <c r="S180" s="25"/>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
       <c r="B181" s="110">
         <v>180</v>
@@ -13385,7 +13577,7 @@
       <c r="Q181" s="84"/>
       <c r="S181" s="25"/>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
       <c r="B182" s="110">
         <v>181</v>
@@ -13436,7 +13628,7 @@
       </c>
       <c r="S182" s="25"/>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="B183" s="111">
         <v>182</v>
@@ -13511,7 +13703,7 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>116.187</v>
+        <v>116.916</v>
       </c>
       <c r="K184" s="12">
         <v>108.65600000000001</v>
@@ -13521,26 +13713,26 @@
       </c>
       <c r="M184" s="11">
         <f t="shared" si="33"/>
-        <v>1161.8699999999999</v>
+        <v>1169.1599999999999</v>
       </c>
       <c r="N184" s="24">
         <f t="shared" si="31"/>
-        <v>6.9310484464732661E-2</v>
+        <v>7.6019731998232865E-2</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="32"/>
-        <v>75.309999999999917</v>
+        <v>82.599999999999909</v>
       </c>
       <c r="P184" s="24">
         <f t="shared" si="34"/>
-        <v>5.9304827794883011E-3</v>
+        <v>5.7748396367693243E-3</v>
       </c>
       <c r="Q184" s="84" t="s">
         <v>158</v>
       </c>
       <c r="S184" s="25"/>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="B185" s="113">
         <v>184</v>
@@ -13589,7 +13781,7 @@
       <c r="Q185" s="84"/>
       <c r="S185" s="25"/>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="113">
         <v>185</v>
@@ -13638,7 +13830,7 @@
       <c r="Q186" s="84"/>
       <c r="S186" s="25"/>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
       <c r="B187" s="113">
         <v>186</v>
@@ -13687,7 +13879,7 @@
       <c r="Q187" s="84"/>
       <c r="S187" s="25"/>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="B188" s="113">
         <v>187</v>
@@ -13736,7 +13928,7 @@
       <c r="Q188" s="84"/>
       <c r="S188" s="25"/>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B189" s="113">
         <v>188</v>
       </c>
@@ -13784,7 +13976,7 @@
       <c r="Q189" s="84"/>
       <c r="S189" s="25"/>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
       <c r="B190" s="113">
         <v>189</v>
@@ -13833,7 +14025,7 @@
       <c r="Q190" s="84"/>
       <c r="S190" s="25"/>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
       <c r="B191" s="113">
         <v>190</v>
@@ -13882,7 +14074,7 @@
       <c r="Q191" s="84"/>
       <c r="S191" s="25"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
       <c r="B192" s="113">
         <v>191</v>
@@ -13931,7 +14123,7 @@
       <c r="Q192" s="84"/>
       <c r="S192" s="25"/>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
       <c r="B193" s="113">
         <v>192</v>
@@ -13980,7 +14172,7 @@
       <c r="Q193" s="84"/>
       <c r="S193" s="25"/>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
       <c r="B194" s="113">
         <v>193</v>
@@ -14031,7 +14223,7 @@
       </c>
       <c r="S194" s="25"/>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
       <c r="B195" s="114">
         <v>194</v>
@@ -14080,7 +14272,7 @@
       <c r="Q195" s="114"/>
       <c r="S195" s="25"/>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
       <c r="B196" s="114">
         <v>195</v>
@@ -14129,7 +14321,7 @@
       <c r="Q196" s="114"/>
       <c r="S196" s="25"/>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="B197" s="114">
         <v>196</v>
@@ -14178,7 +14370,7 @@
       <c r="Q197" s="114"/>
       <c r="S197" s="25"/>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="B198" s="114">
         <v>197</v>
@@ -14227,7 +14419,7 @@
       <c r="Q198" s="114"/>
       <c r="S198" s="25"/>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="B199" s="114">
         <v>198</v>
@@ -14276,7 +14468,7 @@
       <c r="Q199" s="114"/>
       <c r="S199" s="25"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="B200" s="114">
         <v>199</v>
@@ -14325,7 +14517,7 @@
       <c r="Q200" s="114"/>
       <c r="S200" s="25"/>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" s="114">
         <v>200</v>
@@ -14374,7 +14566,7 @@
       <c r="Q201" s="114"/>
       <c r="S201" s="25"/>
     </row>
-    <row r="202" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="98">
         <v>201</v>
       </c>
@@ -14422,7 +14614,7 @@
       <c r="Q202" s="98"/>
       <c r="S202" s="58"/>
     </row>
-    <row r="203" spans="1:19" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="98">
         <v>202</v>
       </c>
@@ -14472,7 +14664,7 @@
       </c>
       <c r="S203" s="58"/>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" s="101">
         <v>203</v>
@@ -14521,7 +14713,7 @@
       <c r="Q204" s="101"/>
       <c r="S204" s="25"/>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="B205" s="101">
         <v>204</v>
@@ -14547,7 +14739,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>109.521</v>
+        <v>108.96899999999999</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -14557,26 +14749,26 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="37">J205*L205</f>
-        <v>2190.42</v>
+        <v>2179.38</v>
       </c>
       <c r="N205" s="24">
         <f t="shared" si="36"/>
-        <v>5.3885839131951763E-3</v>
+        <v>3.212954633080268E-4</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="32"/>
-        <v>11.740000000000066</v>
+        <v>0.69999999999993179</v>
       </c>
       <c r="P205" s="24">
         <f t="shared" si="34"/>
-        <v>1.1180466050286835E-2</v>
+        <v>1.076462589173623E-2</v>
       </c>
       <c r="Q205" s="118" t="s">
         <v>165</v>
       </c>
       <c r="S205" s="25"/>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" s="116">
         <v>205</v>
@@ -14625,7 +14817,7 @@
       <c r="Q206" s="132"/>
       <c r="S206" s="25"/>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
       <c r="B207" s="116">
         <v>206</v>
@@ -14674,7 +14866,7 @@
       <c r="Q207" s="133"/>
       <c r="S207" s="25"/>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
       <c r="B208" s="116">
         <v>207</v>
@@ -14723,7 +14915,7 @@
       <c r="Q208" s="133"/>
       <c r="S208" s="25"/>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
       <c r="B209" s="116">
         <v>208</v>
@@ -14800,7 +14992,7 @@
         <v>52</v>
       </c>
       <c r="J210" s="12">
-        <v>111.13500000000001</v>
+        <v>111.845</v>
       </c>
       <c r="K210" s="13">
         <v>115.53</v>
@@ -14810,26 +15002,26 @@
       </c>
       <c r="M210" s="11">
         <f t="shared" si="37"/>
-        <v>1111.3500000000001</v>
+        <v>1118.45</v>
       </c>
       <c r="N210" s="24">
         <f t="shared" si="36"/>
-        <v>-3.804206699558553E-2</v>
+        <v>-3.1896477105513736E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="32"/>
-        <v>-43.94999999999996</v>
+        <v>-36.850000000000023</v>
       </c>
       <c r="P210" s="24">
         <f t="shared" si="34"/>
-        <v>5.6726157289406949E-3</v>
+        <v>5.5243674020191008E-3</v>
       </c>
       <c r="Q210" s="133" t="s">
         <v>169</v>
       </c>
       <c r="S210" s="25"/>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
       <c r="B211" s="116">
         <v>210</v>
@@ -14878,7 +15070,7 @@
       <c r="Q211" s="133"/>
       <c r="S211" s="25"/>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
       <c r="B212" s="116">
         <v>211</v>
@@ -14929,7 +15121,7 @@
       </c>
       <c r="S212" s="25"/>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
       <c r="B213" s="116">
         <v>212</v>
@@ -14978,7 +15170,7 @@
       <c r="Q213" s="133"/>
       <c r="S213" s="22"/>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
       <c r="B214" s="116">
         <v>213</v>
@@ -15027,7 +15219,7 @@
       <c r="Q214" s="133"/>
       <c r="S214" s="25"/>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
       <c r="B215" s="116">
         <v>214</v>
@@ -15076,7 +15268,7 @@
       <c r="Q215" s="133"/>
       <c r="S215" s="25"/>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
       <c r="B216" s="116">
         <v>215</v>
@@ -15125,7 +15317,7 @@
       <c r="Q216" s="133"/>
       <c r="S216" s="25"/>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
       <c r="B217" s="116">
         <v>216</v>
@@ -15174,7 +15366,7 @@
       <c r="Q217" s="133"/>
       <c r="S217" s="25"/>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
       <c r="B218" s="116">
         <v>217</v>
@@ -15223,7 +15415,7 @@
       <c r="Q218" s="133"/>
       <c r="S218" s="25"/>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
       <c r="B219" s="116">
         <v>218</v>
@@ -15244,7 +15436,7 @@
         <v>105.901</v>
       </c>
       <c r="H219" s="14">
-        <f t="shared" ref="H219:H242" si="42">F219*G219</f>
+        <f t="shared" ref="H219:H260" si="42">F219*G219</f>
         <v>1059.01</v>
       </c>
       <c r="I219" s="15" t="s">
@@ -15272,7 +15464,7 @@
       <c r="Q219" s="133"/>
       <c r="S219" s="25"/>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
       <c r="B220" s="116">
         <v>219</v>
@@ -15321,7 +15513,7 @@
       <c r="Q220" s="133"/>
       <c r="S220" s="25"/>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="7"/>
       <c r="B221" s="134">
         <v>220</v>
@@ -15370,7 +15562,7 @@
       <c r="Q221" s="135"/>
       <c r="S221" s="25"/>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
       <c r="B222" s="134">
         <v>221</v>
@@ -15419,7 +15611,7 @@
       <c r="Q222" s="135"/>
       <c r="S222" s="25"/>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="7"/>
       <c r="B223" s="134">
         <v>222</v>
@@ -15468,7 +15660,7 @@
       <c r="Q223" s="135"/>
       <c r="S223" s="25"/>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
       <c r="B224" s="134">
         <v>223</v>
@@ -15543,36 +15735,36 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>108.087</v>
+        <v>107.798</v>
       </c>
       <c r="K225" s="12">
-        <v>109.58</v>
+        <v>108.65</v>
       </c>
       <c r="L225" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M225" s="11">
         <f t="shared" si="37"/>
-        <v>1080.8700000000001</v>
+        <v>2155.96</v>
       </c>
       <c r="N225" s="24">
         <f t="shared" si="41"/>
-        <v>-1.3624749041795902E-2</v>
+        <v>-7.8416935112747711E-3</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="32"/>
-        <v>-14.92999999999995</v>
+        <v>-17.040000000000077</v>
       </c>
       <c r="P225" s="24">
         <f t="shared" si="40"/>
-        <v>5.5170379834796673E-3</v>
+        <v>1.0648947332520094E-2</v>
       </c>
       <c r="Q225" s="135" t="s">
         <v>140</v>
       </c>
       <c r="S225" s="25"/>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
       <c r="B226" s="134">
         <v>225</v>
@@ -15621,7 +15813,7 @@
       <c r="Q226" s="135"/>
       <c r="S226" s="25"/>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
       <c r="B227" s="134">
         <v>226</v>
@@ -15668,7 +15860,7 @@
       <c r="Q227" s="135"/>
       <c r="S227" s="25"/>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
       <c r="B228" s="113">
         <v>227</v>
@@ -15719,7 +15911,7 @@
       </c>
       <c r="S228" s="25"/>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
       <c r="B229" s="113">
         <v>228</v>
@@ -15768,7 +15960,7 @@
       <c r="Q229" s="113"/>
       <c r="S229" s="25"/>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
       <c r="B230" s="113">
         <v>229</v>
@@ -15843,7 +16035,7 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>109.339</v>
+        <v>109.15600000000001</v>
       </c>
       <c r="K231" s="12">
         <v>109.77800000000001</v>
@@ -15853,26 +16045,26 @@
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="45">J231*L231</f>
-        <v>1093.3899999999999</v>
+        <v>1091.56</v>
       </c>
       <c r="N231" s="24">
         <f t="shared" ref="N231:N245" si="46">(J231-K231)/K231</f>
-        <v>-3.9989797591503499E-3</v>
+        <v>-5.6659804332379882E-3</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="47">(J231-K231)*L231</f>
-        <v>-4.3900000000000716</v>
+        <v>-6.2199999999999989</v>
       </c>
       <c r="P231" s="24">
         <f t="shared" ref="P231:P245" si="48">M231/$M$352</f>
-        <v>5.580943277875075E-3</v>
+        <v>5.3915494491018545E-3</v>
       </c>
       <c r="Q231" s="113" t="s">
         <v>184</v>
       </c>
       <c r="S231" s="25"/>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
       <c r="B232" s="113">
         <v>231</v>
@@ -15921,60 +16113,53 @@
       <c r="Q232" s="113"/>
       <c r="S232" s="25"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A233" s="7"/>
-      <c r="B233" s="138">
+    <row r="233" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="144">
         <v>232</v>
       </c>
-      <c r="C233" s="30">
+      <c r="C233" s="145">
         <v>44818</v>
       </c>
-      <c r="D233" s="31">
+      <c r="D233" s="146">
         <v>118001</v>
       </c>
-      <c r="E233" s="120" t="s">
+      <c r="E233" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="F233" s="20">
-        <v>10</v>
-      </c>
-      <c r="G233" s="20">
+      <c r="F233" s="148">
+        <v>10</v>
+      </c>
+      <c r="G233" s="148">
         <v>109.81100000000001</v>
       </c>
-      <c r="H233" s="14">
+      <c r="H233" s="149">
         <f t="shared" si="42"/>
         <v>1098.1100000000001</v>
       </c>
-      <c r="I233" s="15"/>
-      <c r="J233" s="12">
-        <v>105.08499999999999</v>
-      </c>
-      <c r="K233" s="12">
-        <v>109.831</v>
-      </c>
-      <c r="L233" s="12">
-        <v>10</v>
-      </c>
-      <c r="M233" s="11">
+      <c r="I233" s="150"/>
+      <c r="J233" s="150"/>
+      <c r="K233" s="150"/>
+      <c r="L233" s="150"/>
+      <c r="M233" s="149">
         <f t="shared" si="45"/>
-        <v>1050.8499999999999</v>
-      </c>
-      <c r="N233" s="24">
+        <v>0</v>
+      </c>
+      <c r="N233" s="151" t="e">
         <f t="shared" si="46"/>
-        <v>-4.3211843650699792E-2</v>
-      </c>
-      <c r="O233" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O233" s="149">
         <f t="shared" si="47"/>
-        <v>-47.460000000000093</v>
-      </c>
-      <c r="P233" s="24">
+        <v>0</v>
+      </c>
+      <c r="P233" s="151">
         <f t="shared" si="48"/>
-        <v>5.3638081961194291E-3</v>
-      </c>
-      <c r="Q233" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="S233" s="25"/>
+      <c r="S233" s="153"/>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
@@ -16002,34 +16187,34 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>108.018</v>
+        <v>107.402</v>
       </c>
       <c r="K234" s="12">
-        <v>109.779</v>
+        <v>108.66500000000001</v>
       </c>
       <c r="L234" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M234" s="11">
         <f t="shared" si="45"/>
-        <v>1080.18</v>
+        <v>2148.04</v>
       </c>
       <c r="N234" s="24">
         <f t="shared" si="46"/>
-        <v>-1.604131937802308E-2</v>
+        <v>-1.1622877651497769E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="47"/>
-        <v>-17.609999999999957</v>
+        <v>-25.260000000000105</v>
       </c>
       <c r="P234" s="24">
         <f t="shared" si="48"/>
-        <v>5.5135160463284831E-3</v>
+        <v>1.060982802470661E-2</v>
       </c>
       <c r="Q234" s="139"/>
       <c r="S234" s="25"/>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
       <c r="B235" s="138">
         <v>234</v>
@@ -16102,7 +16287,7 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>109.199</v>
+        <v>109</v>
       </c>
       <c r="K236" s="12">
         <v>109.255</v>
@@ -16112,19 +16297,19 @@
       </c>
       <c r="M236" s="11">
         <f t="shared" si="45"/>
-        <v>1091.99</v>
+        <v>1090</v>
       </c>
       <c r="N236" s="24">
         <f t="shared" si="46"/>
-        <v>-5.1256235412564541E-4</v>
+        <v>-2.3339892911079167E-3</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="47"/>
-        <v>-0.55999999999997385</v>
+        <v>-2.5499999999999545</v>
       </c>
       <c r="P236" s="24">
         <f t="shared" si="48"/>
-        <v>5.5737973184378899E-3</v>
+        <v>5.3838441308961685E-3</v>
       </c>
       <c r="Q236" s="139"/>
       <c r="S236" s="25"/>
@@ -16155,7 +16340,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>108.78</v>
+        <v>108.43</v>
       </c>
       <c r="K237" s="12">
         <v>109.474</v>
@@ -16165,24 +16350,24 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="45"/>
-        <v>1087.8</v>
+        <v>1084.3000000000002</v>
       </c>
       <c r="N237" s="24">
         <f t="shared" si="46"/>
-        <v>-6.3394047901785136E-3</v>
+        <v>-9.5365109523722243E-3</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="47"/>
-        <v>-6.9400000000000261</v>
+        <v>-10.439999999999969</v>
       </c>
       <c r="P237" s="24">
         <f t="shared" si="48"/>
-        <v>5.552410482693739E-3</v>
+        <v>5.3556900836061617E-3</v>
       </c>
       <c r="Q237" s="139"/>
       <c r="S237" s="25"/>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="138">
         <v>237</v>
@@ -16229,7 +16414,7 @@
       <c r="Q238" s="139"/>
       <c r="S238" s="25"/>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="138">
         <v>238</v>
@@ -16255,7 +16440,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>107.87</v>
+        <v>107.949</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -16265,26 +16450,26 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="45"/>
-        <v>2157.4</v>
+        <v>2158.98</v>
       </c>
       <c r="N239" s="24">
         <f t="shared" si="46"/>
-        <v>-6.6853291097277896E-3</v>
+        <v>-5.9578621680357064E-3</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="47"/>
-        <v>-14.519999999999982</v>
+        <v>-12.940000000000111</v>
       </c>
       <c r="P239" s="24">
         <f t="shared" si="48"/>
-        <v>1.1011923492704058E-2</v>
+        <v>1.0663864038277257E-2</v>
       </c>
       <c r="Q239" s="139" t="s">
         <v>193</v>
       </c>
       <c r="S239" s="25"/>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="108">
         <v>239</v>
@@ -16333,19 +16518,29 @@
       <c r="Q240" s="108"/>
       <c r="S240" s="25"/>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="108">
         <v>240</v>
       </c>
-      <c r="C241" s="30"/>
-      <c r="D241" s="31"/>
-      <c r="E241" s="120"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
+      <c r="C241" s="30">
+        <v>44824</v>
+      </c>
+      <c r="D241" s="31">
+        <v>128100</v>
+      </c>
+      <c r="E241" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F241" s="20">
+        <v>10</v>
+      </c>
+      <c r="G241" s="20">
+        <v>96.956999999999994</v>
+      </c>
       <c r="H241" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>969.56999999999994</v>
       </c>
       <c r="I241" s="15"/>
       <c r="J241" s="12"/>
@@ -16370,52 +16565,79 @@
       <c r="Q241" s="143"/>
       <c r="S241" s="25"/>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="7"/>
+    <row r="242" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="108">
         <v>241</v>
       </c>
-      <c r="C242" s="30"/>
-      <c r="D242" s="31"/>
-      <c r="E242" s="120"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="20"/>
-      <c r="H242" s="14">
+      <c r="C242" s="145">
+        <v>44824</v>
+      </c>
+      <c r="D242" s="146">
+        <v>118001</v>
+      </c>
+      <c r="E242" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="F242" s="148">
+        <v>-10</v>
+      </c>
+      <c r="G242" s="148">
+        <v>109.9</v>
+      </c>
+      <c r="H242" s="149">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I242" s="15"/>
-      <c r="J242" s="12"/>
-      <c r="K242" s="12"/>
-      <c r="L242" s="12"/>
-      <c r="M242" s="11">
+        <v>-1099</v>
+      </c>
+      <c r="I242" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="J242" s="150"/>
+      <c r="K242" s="150"/>
+      <c r="L242" s="150"/>
+      <c r="M242" s="149">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N242" s="24" t="e">
+      <c r="N242" s="151" t="e">
         <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O242" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P242" s="24">
+      <c r="O242" s="149">
+        <v>0.39</v>
+      </c>
+      <c r="P242" s="151">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q242" s="143"/>
-      <c r="S242" s="25"/>
-    </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q242" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="S242" s="153"/>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
-      <c r="B243" s="108"/>
-      <c r="C243" s="30"/>
-      <c r="D243" s="31"/>
-      <c r="E243" s="120"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="14"/>
+      <c r="B243" s="108">
+        <v>242</v>
+      </c>
+      <c r="C243" s="30">
+        <v>44825</v>
+      </c>
+      <c r="D243" s="31">
+        <v>128044</v>
+      </c>
+      <c r="E243" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F243" s="20">
+        <v>20</v>
+      </c>
+      <c r="G243" s="20">
+        <v>117.599</v>
+      </c>
+      <c r="H243" s="14">
+        <f t="shared" si="42"/>
+        <v>2351.98</v>
+      </c>
       <c r="I243" s="15"/>
       <c r="J243" s="12"/>
       <c r="K243" s="12"/>
@@ -16439,15 +16661,30 @@
       <c r="Q243" s="143"/>
       <c r="S243" s="25"/>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
-      <c r="B244" s="108"/>
-      <c r="C244" s="30"/>
-      <c r="D244" s="31"/>
-      <c r="E244" s="120"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
-      <c r="H244" s="14"/>
+      <c r="B244" s="108">
+        <v>243</v>
+      </c>
+      <c r="C244" s="30">
+        <v>44825</v>
+      </c>
+      <c r="D244" s="31">
+        <v>113054</v>
+      </c>
+      <c r="E244" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="F244" s="20">
+        <v>10</v>
+      </c>
+      <c r="G244" s="20">
+        <v>107.52</v>
+      </c>
+      <c r="H244" s="14">
+        <f t="shared" si="42"/>
+        <v>1075.2</v>
+      </c>
       <c r="I244" s="15"/>
       <c r="J244" s="12"/>
       <c r="K244" s="12"/>
@@ -16471,326 +16708,694 @@
       <c r="Q244" s="143"/>
       <c r="S244" s="25"/>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="108"/>
-      <c r="C245" s="30"/>
-      <c r="D245" s="31"/>
-      <c r="E245" s="120"/>
-      <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
-      <c r="H245" s="14"/>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B245" s="161">
+        <v>244</v>
+      </c>
+      <c r="C245" s="30">
+        <v>44830</v>
+      </c>
+      <c r="D245" s="31">
+        <v>127025</v>
+      </c>
+      <c r="E245" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F245" s="20">
+        <v>10</v>
+      </c>
+      <c r="G245" s="20">
+        <v>108.151</v>
+      </c>
+      <c r="H245" s="14">
+        <f t="shared" si="42"/>
+        <v>1081.51</v>
+      </c>
       <c r="I245" s="15"/>
-      <c r="J245" s="12"/>
-      <c r="K245" s="12"/>
-      <c r="L245" s="12"/>
+      <c r="J245" s="12">
+        <v>108.155</v>
+      </c>
+      <c r="K245" s="12">
+        <v>108.16</v>
+      </c>
+      <c r="L245" s="12">
+        <v>10</v>
+      </c>
       <c r="M245" s="11">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N245" s="24" t="e">
+        <v>1081.55</v>
+      </c>
+      <c r="N245" s="24">
         <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
+        <v>-4.6227810650845533E-5</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-4.9999999999954525E-2</v>
       </c>
       <c r="P245" s="24">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>5.3421069906153676E-3</v>
       </c>
       <c r="Q245" s="84"/>
       <c r="S245" s="25"/>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="108"/>
-      <c r="C246" s="30"/>
-      <c r="D246" s="31"/>
-      <c r="E246" s="120"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="20"/>
-      <c r="H246" s="14"/>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B246" s="161">
+        <v>245</v>
+      </c>
+      <c r="C246" s="30">
+        <v>44830</v>
+      </c>
+      <c r="D246" s="31">
+        <v>113596</v>
+      </c>
+      <c r="E246" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="F246" s="20">
+        <v>10</v>
+      </c>
+      <c r="G246" s="20">
+        <v>95.57</v>
+      </c>
+      <c r="H246" s="14">
+        <f t="shared" si="42"/>
+        <v>955.69999999999993</v>
+      </c>
       <c r="I246" s="15"/>
       <c r="J246" s="12"/>
       <c r="K246" s="12"/>
       <c r="L246" s="12"/>
-      <c r="M246" s="11"/>
-      <c r="N246" s="24"/>
-      <c r="O246" s="11"/>
-      <c r="P246" s="24"/>
+      <c r="M246" s="11">
+        <f t="shared" ref="M246:M268" si="49">J246*L246</f>
+        <v>0</v>
+      </c>
+      <c r="N246" s="24" t="e">
+        <f t="shared" ref="N246:N268" si="50">(J246-K246)/K246</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O246" s="11">
+        <f t="shared" ref="O246:O268" si="51">(J246-K246)*L246</f>
+        <v>0</v>
+      </c>
+      <c r="P246" s="24">
+        <f t="shared" ref="P246:P268" si="52">M246/$M$352</f>
+        <v>0</v>
+      </c>
       <c r="Q246" s="84"/>
       <c r="S246" s="25"/>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="114"/>
-      <c r="C247" s="30"/>
-      <c r="D247" s="31"/>
-      <c r="E247" s="120"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
-      <c r="H247" s="14"/>
-      <c r="I247" s="15"/>
-      <c r="J247" s="12"/>
-      <c r="K247" s="12"/>
-      <c r="L247" s="12"/>
-      <c r="M247" s="11"/>
-      <c r="N247" s="24"/>
-      <c r="O247" s="11"/>
-      <c r="P247" s="24"/>
-      <c r="Q247" s="84"/>
-      <c r="S247" s="25"/>
-    </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="114"/>
-      <c r="C248"/>
-      <c r="D248"/>
-      <c r="E248"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="20"/>
-      <c r="H248" s="14"/>
-      <c r="I248" s="15"/>
-      <c r="J248" s="12"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
-      <c r="M248" s="11"/>
-      <c r="N248" s="24"/>
-      <c r="O248" s="11"/>
-      <c r="P248" s="24"/>
-      <c r="Q248" s="84"/>
-      <c r="S248" s="25"/>
-    </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="114"/>
-      <c r="C249"/>
-      <c r="D249" s="31"/>
-      <c r="E249" s="120"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
-      <c r="H249" s="14"/>
-      <c r="I249" s="15"/>
+    <row r="247" spans="1:19" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="159"/>
+      <c r="B247" s="161">
+        <v>246</v>
+      </c>
+      <c r="C247" s="145">
+        <v>44830</v>
+      </c>
+      <c r="D247" s="146">
+        <v>110038</v>
+      </c>
+      <c r="E247" s="147" t="s">
+        <v>231</v>
+      </c>
+      <c r="F247" s="148">
+        <v>10</v>
+      </c>
+      <c r="G247" s="148">
+        <v>107.821</v>
+      </c>
+      <c r="H247" s="149">
+        <f t="shared" si="42"/>
+        <v>1078.21</v>
+      </c>
+      <c r="I247" s="150"/>
+      <c r="J247" s="150"/>
+      <c r="K247" s="150"/>
+      <c r="L247" s="150"/>
+      <c r="M247" s="149">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N247" s="151" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O247" s="149">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P247" s="151">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q247" s="160" t="s">
+        <v>232</v>
+      </c>
+      <c r="S247" s="153"/>
+    </row>
+    <row r="248" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="159"/>
+      <c r="B248" s="161">
+        <v>247</v>
+      </c>
+      <c r="C248" s="145">
+        <v>44831</v>
+      </c>
+      <c r="D248" s="146">
+        <v>110038</v>
+      </c>
+      <c r="E248" s="147" t="s">
+        <v>231</v>
+      </c>
+      <c r="F248" s="148">
+        <v>-10</v>
+      </c>
+      <c r="G248" s="148">
+        <v>108.11199999999999</v>
+      </c>
+      <c r="H248" s="149">
+        <f t="shared" si="42"/>
+        <v>-1081.1199999999999</v>
+      </c>
+      <c r="I248" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="J248" s="150"/>
+      <c r="K248" s="150"/>
+      <c r="L248" s="150"/>
+      <c r="M248" s="149">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N248" s="151">
+        <v>0</v>
+      </c>
+      <c r="O248" s="149">
+        <v>2.41</v>
+      </c>
+      <c r="P248" s="151">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q248" s="160"/>
+      <c r="S248" s="153"/>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B249" s="161">
+        <v>248</v>
+      </c>
+      <c r="C249" s="30">
+        <v>44831</v>
+      </c>
+      <c r="D249" s="31">
+        <v>113627</v>
+      </c>
+      <c r="E249" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="F249" s="20">
+        <v>10</v>
+      </c>
+      <c r="G249" s="20">
+        <v>107.69</v>
+      </c>
+      <c r="H249" s="14">
+        <f t="shared" si="42"/>
+        <v>1076.9000000000001</v>
+      </c>
+      <c r="I249" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J249" s="12"/>
       <c r="K249" s="12"/>
       <c r="L249" s="12"/>
-      <c r="M249" s="11"/>
-      <c r="N249" s="24"/>
-      <c r="O249" s="11"/>
-      <c r="P249" s="24"/>
+      <c r="M249" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N249" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O249" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P249" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q249" s="84"/>
       <c r="S249" s="25"/>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="114"/>
-      <c r="C250"/>
-      <c r="D250" s="31"/>
-      <c r="E250" s="120"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="20"/>
-      <c r="H250" s="14"/>
-      <c r="I250" s="15"/>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B250" s="161">
+        <v>249</v>
+      </c>
+      <c r="C250" s="30">
+        <v>44832</v>
+      </c>
+      <c r="D250" s="31">
+        <v>113589</v>
+      </c>
+      <c r="E250" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250" s="20">
+        <v>10</v>
+      </c>
+      <c r="G250" s="20">
+        <v>98.06</v>
+      </c>
+      <c r="H250" s="14">
+        <f t="shared" si="42"/>
+        <v>980.6</v>
+      </c>
+      <c r="I250" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J250" s="12"/>
       <c r="K250" s="12"/>
       <c r="L250" s="12"/>
-      <c r="M250" s="11"/>
-      <c r="N250" s="24"/>
-      <c r="O250" s="11"/>
-      <c r="P250" s="24"/>
+      <c r="M250" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N250" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O250" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P250" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q250" s="84"/>
       <c r="S250" s="25"/>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="114"/>
-      <c r="C251"/>
-      <c r="D251" s="31"/>
-      <c r="E251" s="120"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="20"/>
-      <c r="H251" s="14"/>
-      <c r="I251" s="15"/>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B251" s="161">
+        <v>250</v>
+      </c>
+      <c r="C251" s="30">
+        <v>44834</v>
+      </c>
+      <c r="D251" s="31">
+        <v>128100</v>
+      </c>
+      <c r="E251" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" s="20">
+        <v>10</v>
+      </c>
+      <c r="G251" s="20">
+        <v>93.85</v>
+      </c>
+      <c r="H251" s="14">
+        <f t="shared" si="42"/>
+        <v>938.5</v>
+      </c>
+      <c r="I251" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J251" s="12"/>
       <c r="K251" s="12"/>
       <c r="L251" s="12"/>
-      <c r="M251" s="11"/>
-      <c r="N251" s="24"/>
-      <c r="O251" s="11"/>
-      <c r="P251" s="24"/>
+      <c r="M251" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N251" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O251" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P251" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q251" s="84"/>
       <c r="S251" s="25"/>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="114"/>
-      <c r="C252"/>
-      <c r="D252"/>
-      <c r="E252"/>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B252" s="161">
+        <v>251</v>
+      </c>
+      <c r="C252" s="30"/>
+      <c r="D252" s="31">
+        <v>0</v>
+      </c>
+      <c r="E252" s="120"/>
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
-      <c r="H252" s="14"/>
+      <c r="H252" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I252" s="15"/>
       <c r="J252" s="12"/>
       <c r="K252" s="12"/>
       <c r="L252" s="12"/>
-      <c r="M252" s="11"/>
-      <c r="N252" s="24"/>
-      <c r="O252" s="11"/>
-      <c r="P252" s="24"/>
+      <c r="M252" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N252" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O252" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P252" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q252" s="84"/>
       <c r="S252" s="25"/>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="114"/>
-      <c r="C253"/>
-      <c r="D253"/>
-      <c r="E253"/>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B253" s="161">
+        <v>252</v>
+      </c>
+      <c r="C253" s="30"/>
+      <c r="D253" s="31">
+        <v>0</v>
+      </c>
+      <c r="E253" s="120"/>
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
-      <c r="H253" s="14"/>
+      <c r="H253" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I253" s="15"/>
       <c r="J253" s="12"/>
       <c r="K253" s="12"/>
       <c r="L253" s="12"/>
-      <c r="M253" s="11"/>
-      <c r="N253" s="24"/>
-      <c r="O253" s="11"/>
-      <c r="P253" s="24"/>
+      <c r="M253" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N253" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O253" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P253" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q253" s="84"/>
       <c r="S253" s="25"/>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="114"/>
-      <c r="C254"/>
-      <c r="D254"/>
-      <c r="E254"/>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B254" s="161">
+        <v>253</v>
+      </c>
+      <c r="C254" s="30"/>
+      <c r="D254" s="31">
+        <v>0</v>
+      </c>
+      <c r="E254" s="120"/>
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
-      <c r="H254" s="14"/>
+      <c r="H254" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I254" s="15"/>
       <c r="J254" s="12"/>
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
-      <c r="M254" s="11"/>
-      <c r="N254" s="24"/>
-      <c r="O254" s="11"/>
-      <c r="P254" s="24"/>
+      <c r="M254" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N254" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O254" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P254" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q254" s="84"/>
       <c r="S254" s="25"/>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="114"/>
-      <c r="C255"/>
-      <c r="D255" s="31"/>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B255" s="161">
+        <v>254</v>
+      </c>
+      <c r="C255" s="30"/>
+      <c r="D255" s="31">
+        <v>0</v>
+      </c>
       <c r="E255" s="120"/>
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
-      <c r="H255" s="14"/>
+      <c r="H255" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I255" s="15"/>
       <c r="J255" s="12"/>
       <c r="K255" s="12"/>
       <c r="L255" s="12"/>
-      <c r="M255" s="11"/>
-      <c r="N255" s="24"/>
-      <c r="O255" s="11"/>
-      <c r="P255" s="24"/>
+      <c r="M255" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N255" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O255" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P255" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q255" s="84"/>
       <c r="S255" s="25"/>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="114"/>
-      <c r="C256"/>
-      <c r="D256" s="31"/>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B256" s="161">
+        <v>255</v>
+      </c>
+      <c r="C256" s="30"/>
+      <c r="D256" s="31">
+        <v>0</v>
+      </c>
       <c r="E256" s="120"/>
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
-      <c r="H256" s="14"/>
+      <c r="H256" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I256" s="15"/>
       <c r="J256" s="12"/>
       <c r="K256" s="12"/>
       <c r="L256" s="12"/>
-      <c r="M256" s="11"/>
-      <c r="N256" s="24"/>
-      <c r="O256" s="11"/>
-      <c r="P256" s="24"/>
+      <c r="M256" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N256" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O256" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P256" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q256" s="84"/>
       <c r="S256" s="25"/>
     </row>
-    <row r="257" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="114"/>
-      <c r="C257"/>
-      <c r="D257" s="31"/>
+    <row r="257" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B257" s="161">
+        <v>256</v>
+      </c>
+      <c r="C257" s="30"/>
+      <c r="D257" s="31">
+        <v>0</v>
+      </c>
       <c r="E257" s="120"/>
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
-      <c r="H257" s="14"/>
+      <c r="H257" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I257" s="15"/>
       <c r="J257" s="12"/>
       <c r="K257" s="12"/>
       <c r="L257" s="12"/>
-      <c r="M257" s="11"/>
-      <c r="N257" s="24"/>
-      <c r="O257" s="11"/>
-      <c r="P257" s="24"/>
+      <c r="M257" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N257" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O257" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P257" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q257" s="84"/>
       <c r="S257" s="25"/>
     </row>
-    <row r="258" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="114"/>
-      <c r="C258"/>
-      <c r="D258" s="31"/>
-      <c r="E258" s="127"/>
+    <row r="258" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B258" s="114">
+        <v>257</v>
+      </c>
+      <c r="C258" s="30"/>
+      <c r="D258" s="31">
+        <v>0</v>
+      </c>
+      <c r="E258" s="120"/>
       <c r="F258" s="20"/>
       <c r="G258" s="20"/>
-      <c r="H258" s="14"/>
+      <c r="H258" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I258" s="15"/>
       <c r="J258" s="12"/>
       <c r="K258" s="12"/>
       <c r="L258" s="12"/>
-      <c r="M258" s="11"/>
-      <c r="N258" s="24"/>
-      <c r="O258" s="11"/>
-      <c r="P258" s="24"/>
+      <c r="M258" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N258" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O258" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P258" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q258" s="84"/>
       <c r="S258" s="25"/>
     </row>
-    <row r="259" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="114"/>
-      <c r="C259"/>
-      <c r="D259" s="31"/>
+    <row r="259" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B259" s="114">
+        <v>258</v>
+      </c>
+      <c r="C259" s="30"/>
+      <c r="D259" s="31">
+        <v>0</v>
+      </c>
       <c r="E259" s="120"/>
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
-      <c r="H259" s="14"/>
+      <c r="H259" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I259" s="15"/>
       <c r="J259" s="12"/>
       <c r="K259" s="12"/>
       <c r="L259" s="12"/>
-      <c r="M259" s="11"/>
-      <c r="N259" s="24"/>
-      <c r="O259" s="11"/>
-      <c r="P259" s="24"/>
+      <c r="M259" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N259" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O259" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P259" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q259" s="84"/>
       <c r="S259" s="25"/>
     </row>
-    <row r="260" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="114"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
+    <row r="260" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B260" s="114">
+        <v>259</v>
+      </c>
+      <c r="C260" s="30"/>
+      <c r="D260" s="31">
+        <v>0</v>
+      </c>
+      <c r="E260" s="120"/>
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
-      <c r="H260" s="14"/>
+      <c r="H260" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="I260" s="15"/>
       <c r="J260" s="12"/>
       <c r="K260" s="12"/>
       <c r="L260" s="12"/>
-      <c r="M260" s="11"/>
-      <c r="N260" s="24"/>
-      <c r="O260" s="11"/>
-      <c r="P260" s="24"/>
+      <c r="M260" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N260" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O260" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P260" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q260" s="84"/>
       <c r="S260" s="25"/>
     </row>
-    <row r="261" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="114"/>
+    <row r="261" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B261" s="114">
+        <v>260</v>
+      </c>
       <c r="C261" s="30"/>
-      <c r="D261" s="31"/>
+      <c r="D261" s="31">
+        <v>0</v>
+      </c>
       <c r="E261" s="120"/>
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
@@ -16799,17 +17404,33 @@
       <c r="J261" s="12"/>
       <c r="K261" s="12"/>
       <c r="L261" s="12"/>
-      <c r="M261" s="11"/>
-      <c r="N261" s="24"/>
-      <c r="O261" s="11"/>
-      <c r="P261" s="24"/>
+      <c r="M261" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N261" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O261" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P261" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q261" s="84"/>
       <c r="S261" s="25"/>
     </row>
-    <row r="262" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="114"/>
+    <row r="262" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B262" s="114">
+        <v>261</v>
+      </c>
       <c r="C262" s="30"/>
-      <c r="D262" s="31"/>
+      <c r="D262" s="31">
+        <v>0</v>
+      </c>
       <c r="E262" s="120"/>
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
@@ -16818,17 +17439,33 @@
       <c r="J262" s="12"/>
       <c r="K262" s="12"/>
       <c r="L262" s="12"/>
-      <c r="M262" s="11"/>
-      <c r="N262" s="24"/>
-      <c r="O262" s="11"/>
-      <c r="P262" s="24"/>
+      <c r="M262" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N262" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O262" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P262" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q262" s="84"/>
       <c r="S262" s="25"/>
     </row>
-    <row r="263" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="114"/>
+    <row r="263" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B263" s="114">
+        <v>262</v>
+      </c>
       <c r="C263" s="30"/>
-      <c r="D263" s="31"/>
+      <c r="D263" s="31">
+        <v>0</v>
+      </c>
       <c r="E263" s="120"/>
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
@@ -16837,17 +17474,33 @@
       <c r="J263" s="12"/>
       <c r="K263" s="12"/>
       <c r="L263" s="12"/>
-      <c r="M263" s="11"/>
-      <c r="N263" s="24"/>
-      <c r="O263" s="11"/>
-      <c r="P263" s="24"/>
+      <c r="M263" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N263" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O263" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P263" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q263" s="84"/>
       <c r="S263" s="25"/>
     </row>
-    <row r="264" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="114"/>
+    <row r="264" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B264" s="114">
+        <v>263</v>
+      </c>
       <c r="C264" s="30"/>
-      <c r="D264" s="31"/>
+      <c r="D264" s="31">
+        <v>0</v>
+      </c>
       <c r="E264" s="120"/>
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
@@ -16856,17 +17509,31 @@
       <c r="J264" s="12"/>
       <c r="K264" s="12"/>
       <c r="L264" s="12"/>
-      <c r="M264" s="11"/>
-      <c r="N264" s="24"/>
-      <c r="O264" s="11"/>
-      <c r="P264" s="24"/>
+      <c r="M264" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N264" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O264" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P264" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q264" s="84"/>
       <c r="S264" s="25"/>
     </row>
-    <row r="265" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B265" s="114"/>
       <c r="C265" s="30"/>
-      <c r="D265" s="31"/>
+      <c r="D265" s="31">
+        <v>0</v>
+      </c>
       <c r="E265" s="120"/>
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
@@ -16875,17 +17542,31 @@
       <c r="J265" s="12"/>
       <c r="K265" s="12"/>
       <c r="L265" s="12"/>
-      <c r="M265" s="11"/>
-      <c r="N265" s="24"/>
-      <c r="O265" s="11"/>
-      <c r="P265" s="24"/>
+      <c r="M265" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N265" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O265" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P265" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q265" s="84"/>
       <c r="S265" s="25"/>
     </row>
-    <row r="266" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B266" s="114"/>
       <c r="C266" s="30"/>
-      <c r="D266" s="31"/>
+      <c r="D266" s="31">
+        <v>0</v>
+      </c>
       <c r="E266" s="120"/>
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
@@ -16894,17 +17575,31 @@
       <c r="J266" s="12"/>
       <c r="K266" s="12"/>
       <c r="L266" s="12"/>
-      <c r="M266" s="11"/>
-      <c r="N266" s="24"/>
-      <c r="O266" s="11"/>
-      <c r="P266" s="24"/>
+      <c r="M266" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N266" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O266" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P266" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q266" s="84"/>
       <c r="S266" s="25"/>
     </row>
-    <row r="267" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B267" s="114"/>
       <c r="C267" s="30"/>
-      <c r="D267" s="31"/>
+      <c r="D267" s="31">
+        <v>0</v>
+      </c>
       <c r="E267" s="120"/>
       <c r="F267" s="20"/>
       <c r="G267" s="20"/>
@@ -16913,17 +17608,31 @@
       <c r="J267" s="12"/>
       <c r="K267" s="12"/>
       <c r="L267" s="12"/>
-      <c r="M267" s="11"/>
-      <c r="N267" s="24"/>
-      <c r="O267" s="11"/>
-      <c r="P267" s="24"/>
+      <c r="M267" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N267" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O267" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P267" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q267" s="84"/>
       <c r="S267" s="25"/>
     </row>
-    <row r="268" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B268" s="114"/>
       <c r="C268" s="30"/>
-      <c r="D268" s="31"/>
+      <c r="D268" s="31">
+        <v>0</v>
+      </c>
       <c r="E268" s="120"/>
       <c r="F268" s="20"/>
       <c r="G268" s="20"/>
@@ -16932,17 +17641,31 @@
       <c r="J268" s="12"/>
       <c r="K268" s="12"/>
       <c r="L268" s="12"/>
-      <c r="M268" s="11"/>
-      <c r="N268" s="24"/>
-      <c r="O268" s="11"/>
-      <c r="P268" s="24"/>
+      <c r="M268" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N268" s="24" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O268" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P268" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="Q268" s="84"/>
       <c r="S268" s="25"/>
     </row>
-    <row r="269" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B269" s="114"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="31"/>
+      <c r="D269" s="31">
+        <v>0</v>
+      </c>
       <c r="E269" s="120"/>
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
@@ -16958,10 +17681,12 @@
       <c r="Q269" s="84"/>
       <c r="S269" s="25"/>
     </row>
-    <row r="270" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B270" s="114"/>
       <c r="C270" s="30"/>
-      <c r="D270" s="31"/>
+      <c r="D270" s="31">
+        <v>0</v>
+      </c>
       <c r="E270" s="120"/>
       <c r="F270" s="20"/>
       <c r="G270" s="20"/>
@@ -16977,10 +17702,12 @@
       <c r="Q270" s="84"/>
       <c r="S270" s="25"/>
     </row>
-    <row r="271" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B271" s="114"/>
       <c r="C271" s="30"/>
-      <c r="D271" s="31"/>
+      <c r="D271" s="31">
+        <v>0</v>
+      </c>
       <c r="E271" s="120"/>
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
@@ -16996,10 +17723,12 @@
       <c r="Q271" s="84"/>
       <c r="S271" s="25"/>
     </row>
-    <row r="272" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B272" s="114"/>
       <c r="C272" s="30"/>
-      <c r="D272" s="31"/>
+      <c r="D272" s="31">
+        <v>0</v>
+      </c>
       <c r="E272" s="120"/>
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
@@ -17015,10 +17744,12 @@
       <c r="Q272" s="84"/>
       <c r="S272" s="25"/>
     </row>
-    <row r="273" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B273" s="114"/>
       <c r="C273" s="30"/>
-      <c r="D273" s="31"/>
+      <c r="D273" s="31">
+        <v>0</v>
+      </c>
       <c r="E273" s="120"/>
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
@@ -17034,10 +17765,12 @@
       <c r="Q273" s="84"/>
       <c r="S273" s="25"/>
     </row>
-    <row r="274" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B274" s="114"/>
       <c r="C274" s="30"/>
-      <c r="D274" s="31"/>
+      <c r="D274" s="31">
+        <v>0</v>
+      </c>
       <c r="E274" s="120"/>
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
@@ -17053,10 +17786,12 @@
       <c r="Q274" s="84"/>
       <c r="S274" s="25"/>
     </row>
-    <row r="275" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B275" s="114"/>
       <c r="C275" s="30"/>
-      <c r="D275" s="31"/>
+      <c r="D275" s="31">
+        <v>0</v>
+      </c>
       <c r="E275" s="120"/>
       <c r="F275" s="20"/>
       <c r="G275" s="20"/>
@@ -17072,10 +17807,12 @@
       <c r="Q275" s="84"/>
       <c r="S275" s="25"/>
     </row>
-    <row r="276" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B276" s="114"/>
       <c r="C276" s="30"/>
-      <c r="D276" s="31"/>
+      <c r="D276" s="31">
+        <v>0</v>
+      </c>
       <c r="E276" s="120"/>
       <c r="F276" s="20"/>
       <c r="G276" s="20"/>
@@ -17091,10 +17828,12 @@
       <c r="Q276" s="84"/>
       <c r="S276" s="25"/>
     </row>
-    <row r="277" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B277" s="114"/>
       <c r="C277" s="30"/>
-      <c r="D277" s="31"/>
+      <c r="D277" s="31">
+        <v>0</v>
+      </c>
       <c r="E277" s="120"/>
       <c r="F277" s="20"/>
       <c r="G277" s="20"/>
@@ -17110,7 +17849,7 @@
       <c r="Q277" s="84"/>
       <c r="S277" s="25"/>
     </row>
-    <row r="278" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B278" s="114"/>
       <c r="C278" s="30"/>
       <c r="D278" s="31"/>
@@ -17129,7 +17868,7 @@
       <c r="Q278" s="84"/>
       <c r="S278" s="25"/>
     </row>
-    <row r="279" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B279" s="114"/>
       <c r="C279" s="30"/>
       <c r="D279" s="31"/>
@@ -17148,7 +17887,7 @@
       <c r="Q279" s="84"/>
       <c r="S279" s="25"/>
     </row>
-    <row r="280" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B280" s="114"/>
       <c r="C280" s="30"/>
       <c r="D280" s="31"/>
@@ -17167,7 +17906,7 @@
       <c r="Q280" s="84"/>
       <c r="S280" s="25"/>
     </row>
-    <row r="281" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B281" s="114"/>
       <c r="C281" s="30"/>
       <c r="D281" s="31"/>
@@ -17186,7 +17925,7 @@
       <c r="Q281" s="84"/>
       <c r="S281" s="25"/>
     </row>
-    <row r="282" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B282" s="114"/>
       <c r="C282" s="30"/>
       <c r="D282" s="31"/>
@@ -17205,7 +17944,7 @@
       <c r="Q282" s="84"/>
       <c r="S282" s="25"/>
     </row>
-    <row r="283" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B283" s="114"/>
       <c r="C283" s="30"/>
       <c r="D283" s="31"/>
@@ -17224,7 +17963,7 @@
       <c r="Q283" s="84"/>
       <c r="S283" s="25"/>
     </row>
-    <row r="284" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B284" s="114"/>
       <c r="C284" s="30"/>
       <c r="D284" s="31"/>
@@ -17243,7 +17982,7 @@
       <c r="Q284" s="84"/>
       <c r="S284" s="25"/>
     </row>
-    <row r="285" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B285" s="114"/>
       <c r="C285" s="30"/>
       <c r="D285" s="31"/>
@@ -17262,7 +18001,7 @@
       <c r="Q285" s="84"/>
       <c r="S285" s="25"/>
     </row>
-    <row r="286" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B286" s="114"/>
       <c r="C286" s="30"/>
       <c r="D286" s="31"/>
@@ -17281,7 +18020,7 @@
       <c r="Q286" s="84"/>
       <c r="S286" s="25"/>
     </row>
-    <row r="287" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B287" s="114"/>
       <c r="C287" s="30"/>
       <c r="D287" s="31"/>
@@ -17300,7 +18039,7 @@
       <c r="Q287" s="84"/>
       <c r="S287" s="25"/>
     </row>
-    <row r="288" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B288" s="114"/>
       <c r="C288" s="30"/>
       <c r="D288" s="31"/>
@@ -17319,7 +18058,7 @@
       <c r="Q288" s="84"/>
       <c r="S288" s="25"/>
     </row>
-    <row r="289" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B289" s="114"/>
       <c r="C289" s="30"/>
       <c r="D289" s="31"/>
@@ -17338,7 +18077,7 @@
       <c r="Q289" s="84"/>
       <c r="S289" s="25"/>
     </row>
-    <row r="290" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B290" s="114"/>
       <c r="C290" s="30"/>
       <c r="D290" s="31"/>
@@ -17357,7 +18096,7 @@
       <c r="Q290" s="84"/>
       <c r="S290" s="25"/>
     </row>
-    <row r="291" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B291" s="114"/>
       <c r="C291" s="30"/>
       <c r="D291" s="31"/>
@@ -17376,7 +18115,7 @@
       <c r="Q291" s="84"/>
       <c r="S291" s="25"/>
     </row>
-    <row r="292" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B292" s="114"/>
       <c r="C292" s="30"/>
       <c r="D292" s="31"/>
@@ -17395,7 +18134,7 @@
       <c r="Q292" s="84"/>
       <c r="S292" s="25"/>
     </row>
-    <row r="293" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B293" s="114"/>
       <c r="C293" s="30"/>
       <c r="D293" s="31"/>
@@ -17414,7 +18153,7 @@
       <c r="Q293" s="84"/>
       <c r="S293" s="25"/>
     </row>
-    <row r="294" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B294" s="114"/>
       <c r="C294" s="30"/>
       <c r="D294" s="31"/>
@@ -17433,7 +18172,7 @@
       <c r="Q294" s="84"/>
       <c r="S294" s="25"/>
     </row>
-    <row r="295" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B295" s="114"/>
       <c r="C295" s="30"/>
       <c r="D295" s="31"/>
@@ -17452,7 +18191,7 @@
       <c r="Q295" s="84"/>
       <c r="S295" s="25"/>
     </row>
-    <row r="296" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B296" s="114"/>
       <c r="C296" s="30"/>
       <c r="D296" s="31"/>
@@ -17471,7 +18210,7 @@
       <c r="Q296" s="84"/>
       <c r="S296" s="25"/>
     </row>
-    <row r="297" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B297" s="114"/>
       <c r="C297" s="30"/>
       <c r="D297" s="31"/>
@@ -17490,7 +18229,7 @@
       <c r="Q297" s="84"/>
       <c r="S297" s="25"/>
     </row>
-    <row r="298" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B298" s="114"/>
       <c r="C298" s="30"/>
       <c r="D298" s="31"/>
@@ -17509,7 +18248,7 @@
       <c r="Q298" s="84"/>
       <c r="S298" s="25"/>
     </row>
-    <row r="299" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B299" s="114"/>
       <c r="C299" s="30"/>
       <c r="D299" s="31"/>
@@ -17528,7 +18267,7 @@
       <c r="Q299" s="84"/>
       <c r="S299" s="25"/>
     </row>
-    <row r="300" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B300" s="114"/>
       <c r="C300" s="30"/>
       <c r="D300" s="31"/>
@@ -17547,7 +18286,7 @@
       <c r="Q300" s="84"/>
       <c r="S300" s="25"/>
     </row>
-    <row r="301" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B301" s="114"/>
       <c r="C301" s="30"/>
       <c r="D301" s="31"/>
@@ -17566,7 +18305,7 @@
       <c r="Q301" s="84"/>
       <c r="S301" s="25"/>
     </row>
-    <row r="302" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B302" s="114"/>
       <c r="C302" s="30"/>
       <c r="D302" s="31"/>
@@ -17585,7 +18324,7 @@
       <c r="Q302" s="84"/>
       <c r="S302" s="25"/>
     </row>
-    <row r="303" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B303" s="114"/>
       <c r="C303" s="30"/>
       <c r="D303" s="31"/>
@@ -17604,7 +18343,7 @@
       <c r="Q303" s="84"/>
       <c r="S303" s="25"/>
     </row>
-    <row r="304" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B304" s="114"/>
       <c r="C304" s="30"/>
       <c r="D304" s="31"/>
@@ -17623,7 +18362,7 @@
       <c r="Q304" s="84"/>
       <c r="S304" s="25"/>
     </row>
-    <row r="305" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B305" s="114"/>
       <c r="C305" s="30"/>
       <c r="D305" s="31"/>
@@ -17642,7 +18381,7 @@
       <c r="Q305" s="84"/>
       <c r="S305" s="25"/>
     </row>
-    <row r="306" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B306" s="114"/>
       <c r="C306" s="30"/>
       <c r="D306" s="31"/>
@@ -17661,7 +18400,7 @@
       <c r="Q306" s="84"/>
       <c r="S306" s="25"/>
     </row>
-    <row r="307" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B307" s="114"/>
       <c r="C307" s="30"/>
       <c r="D307" s="31"/>
@@ -17680,7 +18419,7 @@
       <c r="Q307" s="84"/>
       <c r="S307" s="25"/>
     </row>
-    <row r="308" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B308" s="114"/>
       <c r="C308" s="30"/>
       <c r="D308" s="31"/>
@@ -17699,7 +18438,7 @@
       <c r="Q308" s="84"/>
       <c r="S308" s="25"/>
     </row>
-    <row r="309" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B309" s="114"/>
       <c r="C309" s="30"/>
       <c r="D309" s="31"/>
@@ -17718,7 +18457,7 @@
       <c r="Q309" s="84"/>
       <c r="S309" s="25"/>
     </row>
-    <row r="310" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B310" s="114"/>
       <c r="C310" s="30"/>
       <c r="D310" s="31"/>
@@ -17737,7 +18476,7 @@
       <c r="Q310" s="84"/>
       <c r="S310" s="25"/>
     </row>
-    <row r="311" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B311" s="114"/>
       <c r="C311" s="30"/>
       <c r="D311" s="31"/>
@@ -17756,7 +18495,7 @@
       <c r="Q311" s="84"/>
       <c r="S311" s="25"/>
     </row>
-    <row r="312" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B312" s="114"/>
       <c r="C312" s="30"/>
       <c r="D312" s="31"/>
@@ -17775,7 +18514,7 @@
       <c r="Q312" s="84"/>
       <c r="S312" s="25"/>
     </row>
-    <row r="313" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B313" s="114"/>
       <c r="C313" s="30"/>
       <c r="D313" s="31"/>
@@ -17794,7 +18533,7 @@
       <c r="Q313" s="84"/>
       <c r="S313" s="25"/>
     </row>
-    <row r="314" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B314" s="114"/>
       <c r="C314" s="30"/>
       <c r="D314" s="31"/>
@@ -17813,7 +18552,7 @@
       <c r="Q314" s="84"/>
       <c r="S314" s="25"/>
     </row>
-    <row r="315" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B315" s="114"/>
       <c r="C315" s="30"/>
       <c r="D315" s="31"/>
@@ -17832,7 +18571,7 @@
       <c r="Q315" s="84"/>
       <c r="S315" s="25"/>
     </row>
-    <row r="316" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B316" s="114"/>
       <c r="C316" s="30"/>
       <c r="D316" s="31"/>
@@ -17851,7 +18590,7 @@
       <c r="Q316" s="84"/>
       <c r="S316" s="25"/>
     </row>
-    <row r="317" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B317" s="114"/>
       <c r="C317" s="30"/>
       <c r="D317" s="31"/>
@@ -17870,7 +18609,7 @@
       <c r="Q317" s="84"/>
       <c r="S317" s="25"/>
     </row>
-    <row r="318" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B318" s="114"/>
       <c r="C318" s="30"/>
       <c r="D318" s="31"/>
@@ -17889,7 +18628,7 @@
       <c r="Q318" s="84"/>
       <c r="S318" s="25"/>
     </row>
-    <row r="319" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B319" s="114"/>
       <c r="C319" s="30"/>
       <c r="D319" s="31"/>
@@ -17908,7 +18647,7 @@
       <c r="Q319" s="84"/>
       <c r="S319" s="25"/>
     </row>
-    <row r="320" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B320" s="114"/>
       <c r="C320" s="30"/>
       <c r="D320" s="31"/>
@@ -17927,7 +18666,7 @@
       <c r="Q320" s="84"/>
       <c r="S320" s="25"/>
     </row>
-    <row r="321" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B321" s="114"/>
       <c r="C321" s="30"/>
       <c r="D321" s="31"/>
@@ -17946,7 +18685,7 @@
       <c r="Q321" s="84"/>
       <c r="S321" s="25"/>
     </row>
-    <row r="322" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B322" s="114"/>
       <c r="C322" s="30"/>
       <c r="D322" s="31"/>
@@ -17965,7 +18704,7 @@
       <c r="Q322" s="84"/>
       <c r="S322" s="25"/>
     </row>
-    <row r="323" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B323" s="114"/>
       <c r="C323" s="30"/>
       <c r="D323" s="31"/>
@@ -17984,7 +18723,7 @@
       <c r="Q323" s="84"/>
       <c r="S323" s="25"/>
     </row>
-    <row r="324" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B324" s="114"/>
       <c r="C324" s="30"/>
       <c r="D324" s="31"/>
@@ -18003,7 +18742,7 @@
       <c r="Q324" s="84"/>
       <c r="S324" s="25"/>
     </row>
-    <row r="325" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B325" s="114"/>
       <c r="C325" s="30"/>
       <c r="D325" s="31"/>
@@ -18022,7 +18761,7 @@
       <c r="Q325" s="84"/>
       <c r="S325" s="25"/>
     </row>
-    <row r="326" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B326" s="114"/>
       <c r="C326" s="30"/>
       <c r="D326" s="31"/>
@@ -18041,7 +18780,7 @@
       <c r="Q326" s="84"/>
       <c r="S326" s="25"/>
     </row>
-    <row r="327" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B327" s="114"/>
       <c r="C327" s="30"/>
       <c r="D327" s="31"/>
@@ -18060,7 +18799,7 @@
       <c r="Q327" s="84"/>
       <c r="S327" s="25"/>
     </row>
-    <row r="328" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B328" s="114"/>
       <c r="C328" s="30"/>
       <c r="D328" s="31"/>
@@ -18079,7 +18818,7 @@
       <c r="Q328" s="84"/>
       <c r="S328" s="25"/>
     </row>
-    <row r="329" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B329" s="114"/>
       <c r="C329" s="30"/>
       <c r="D329" s="31"/>
@@ -18098,7 +18837,7 @@
       <c r="Q329" s="84"/>
       <c r="S329" s="25"/>
     </row>
-    <row r="330" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B330" s="114"/>
       <c r="C330" s="30"/>
       <c r="D330" s="31"/>
@@ -18117,7 +18856,7 @@
       <c r="Q330" s="84"/>
       <c r="S330" s="25"/>
     </row>
-    <row r="331" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B331" s="114"/>
       <c r="C331" s="30"/>
       <c r="D331" s="31"/>
@@ -18136,7 +18875,7 @@
       <c r="Q331" s="84"/>
       <c r="S331" s="25"/>
     </row>
-    <row r="332" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B332" s="114"/>
       <c r="C332" s="30"/>
       <c r="D332" s="31"/>
@@ -18155,7 +18894,7 @@
       <c r="Q332" s="84"/>
       <c r="S332" s="25"/>
     </row>
-    <row r="333" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B333" s="114"/>
       <c r="C333" s="30"/>
       <c r="D333" s="31"/>
@@ -18174,7 +18913,7 @@
       <c r="Q333" s="84"/>
       <c r="S333" s="25"/>
     </row>
-    <row r="334" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B334" s="114"/>
       <c r="C334" s="30"/>
       <c r="D334" s="31"/>
@@ -18193,7 +18932,7 @@
       <c r="Q334" s="84"/>
       <c r="S334" s="25"/>
     </row>
-    <row r="335" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B335" s="114"/>
       <c r="C335" s="30"/>
       <c r="D335" s="31"/>
@@ -18212,7 +18951,7 @@
       <c r="Q335" s="84"/>
       <c r="S335" s="25"/>
     </row>
-    <row r="336" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B336" s="114"/>
       <c r="C336" s="30"/>
       <c r="D336" s="31"/>
@@ -18231,7 +18970,7 @@
       <c r="Q336" s="84"/>
       <c r="S336" s="25"/>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B337" s="114"/>
       <c r="C337" s="30"/>
       <c r="D337" s="31"/>
@@ -18250,7 +18989,7 @@
       <c r="Q337" s="84"/>
       <c r="S337" s="25"/>
     </row>
-    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B338" s="114"/>
       <c r="C338" s="30"/>
       <c r="D338" s="31"/>
@@ -18269,7 +19008,7 @@
       <c r="Q338" s="84"/>
       <c r="S338" s="25"/>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B339" s="114"/>
       <c r="C339" s="30"/>
       <c r="D339" s="31"/>
@@ -18288,7 +19027,7 @@
       <c r="Q339" s="84"/>
       <c r="S339" s="25"/>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B340" s="114"/>
       <c r="C340" s="30"/>
       <c r="D340" s="31"/>
@@ -18307,7 +19046,7 @@
       <c r="Q340" s="84"/>
       <c r="S340" s="25"/>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B341" s="114"/>
       <c r="C341" s="30"/>
       <c r="D341" s="31"/>
@@ -18326,7 +19065,7 @@
       <c r="Q341" s="84"/>
       <c r="S341" s="25"/>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B342" s="114"/>
       <c r="C342" s="30"/>
       <c r="D342" s="31"/>
@@ -18345,7 +19084,7 @@
       <c r="Q342" s="84"/>
       <c r="S342" s="25"/>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B343" s="114"/>
       <c r="C343" s="30"/>
       <c r="D343" s="31"/>
@@ -18364,7 +19103,7 @@
       <c r="Q343" s="84"/>
       <c r="S343" s="25"/>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B344" s="114"/>
       <c r="C344" s="30"/>
       <c r="D344" s="31"/>
@@ -18383,7 +19122,7 @@
       <c r="Q344" s="84"/>
       <c r="S344" s="25"/>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B345" s="114"/>
       <c r="C345" s="30"/>
       <c r="D345" s="31"/>
@@ -18402,7 +19141,7 @@
       <c r="Q345" s="84"/>
       <c r="S345" s="25"/>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B346" s="114"/>
       <c r="C346" s="30"/>
       <c r="D346" s="31"/>
@@ -18421,7 +19160,7 @@
       <c r="Q346" s="84"/>
       <c r="S346" s="25"/>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B347" s="114"/>
       <c r="C347" s="30"/>
       <c r="D347" s="31"/>
@@ -18440,7 +19179,7 @@
       <c r="Q347" s="84"/>
       <c r="S347" s="25"/>
     </row>
-    <row r="348" spans="1:19" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="114"/>
       <c r="C348" s="30"/>
       <c r="D348" s="31"/>
@@ -18459,7 +19198,7 @@
       <c r="Q348" s="84"/>
       <c r="S348" s="25"/>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
       <c r="B349" s="114"/>
       <c r="C349" s="30"/>
@@ -18479,7 +19218,7 @@
       <c r="Q349" s="84"/>
       <c r="S349" s="25"/>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B350" s="114"/>
       <c r="C350" s="30"/>
       <c r="D350" s="31"/>
@@ -18497,7 +19236,7 @@
       <c r="P350" s="24"/>
       <c r="Q350" s="84"/>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B351" s="114"/>
       <c r="C351" s="30"/>
       <c r="D351" s="31"/>
@@ -18515,77 +19254,84 @@
       <c r="P351" s="24"/>
       <c r="Q351" s="84"/>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B352" s="114"/>
       <c r="C352" s="30"/>
-      <c r="D352" s="31"/>
+      <c r="D352" s="31">
+        <v>0</v>
+      </c>
       <c r="E352" s="120"/>
-      <c r="F352" s="20"/>
+      <c r="F352" s="20">
+        <f>SUM(F3:F351)</f>
+        <v>1910</v>
+      </c>
       <c r="G352" s="20"/>
       <c r="H352" s="14">
         <f>SUM(H3:H351)</f>
-        <v>180650.76999999993</v>
+        <v>188978.81999999998</v>
       </c>
       <c r="I352" s="15"/>
-      <c r="J352" s="12"/>
+      <c r="J352" s="12">
+        <v>5555</v>
+      </c>
       <c r="K352" s="12"/>
       <c r="L352" s="12">
         <f>SUM(L3:L351)</f>
-        <v>1820</v>
+        <v>1900</v>
       </c>
       <c r="M352" s="11">
         <f>SUM(M3:M351)</f>
-        <v>195914.90999999992</v>
+        <v>202457.56999999998</v>
       </c>
       <c r="N352" s="24">
         <f>O352/M352</f>
-        <v>6.0476254716907471E-2</v>
+        <v>4.969011531650807E-2</v>
       </c>
       <c r="O352" s="11">
         <f>SUM(O3:O351)</f>
-        <v>11848.199999999997</v>
+        <v>10060.140000000003</v>
       </c>
       <c r="P352" s="24"/>
       <c r="Q352" s="84"/>
     </row>
-    <row r="353" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C353" s="26"/>
       <c r="Q353" s="84"/>
     </row>
-    <row r="354" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C354" s="26"/>
       <c r="Q354" s="84"/>
     </row>
-    <row r="355" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C355" s="26"/>
       <c r="Q355" s="84"/>
     </row>
-    <row r="356" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C356" s="26"/>
       <c r="Q356" s="84"/>
     </row>
-    <row r="357" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C357" s="26"/>
       <c r="Q357" s="84"/>
     </row>
-    <row r="358" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C358" s="26"/>
       <c r="Q358" s="84"/>
     </row>
-    <row r="359" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C359" s="26"/>
       <c r="Q359" s="84"/>
     </row>
-    <row r="360" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C360" s="26"/>
     </row>
-    <row r="361" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C361" s="26"/>
     </row>
-    <row r="362" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C362" s="26"/>
     </row>
-    <row r="363" spans="3:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C363" s="26"/>
     </row>
     <row r="364" spans="3:17" x14ac:dyDescent="0.2">
@@ -18605,11 +19351,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:W363" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W363">
       <sortCondition ref="B2:B363"/>
     </sortState>
@@ -18659,18 +19400,19 @@
     <hyperlink ref="D52" r:id="rId11" display="https://www.jisilu.cn/data/convert_bond_detail/113036" xr:uid="{3CCE31DE-6D92-49BD-832B-E8B71A9933D5}"/>
     <hyperlink ref="D179" r:id="rId12" display="https://www.jisilu.cn/data/convert_bond_detail/128132" xr:uid="{5CEA3D59-2AC8-42C1-9B30-CDE7EDCF6963}"/>
     <hyperlink ref="D187" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{E4105EDE-E890-46CB-A86A-A8FBB8727CAD}"/>
+    <hyperlink ref="D250" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{EAFE6F4B-A9A3-4C5D-92D9-28153EB904DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8963A-C8D0-4542-8EAA-DE8EB04670D4}">
-  <dimension ref="B2:N37"/>
+  <dimension ref="B2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18679,21 +19421,22 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="160">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="178">
         <v>44805</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="162"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="115" t="s">
         <v>173</v>
       </c>
@@ -18719,7 +19462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="115">
         <f>0.985</f>
         <v>0.98499999999999999</v>
@@ -18751,7 +19494,7 @@
         <v>142.857</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="115">
         <f>$B$4</f>
         <v>0.98499999999999999</v>
@@ -18783,7 +19526,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="115">
         <f t="shared" ref="B6" si="1">$B$4</f>
         <v>0.98499999999999999</v>
@@ -18814,8 +19557,11 @@
       <c r="I6" s="115">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="115">
         <f>0.986</f>
         <v>0.98599999999999999</v>
@@ -18846,8 +19592,11 @@
       <c r="I7" s="115">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="115">
         <f t="shared" ref="B8:B9" si="3">0.986</f>
         <v>0.98599999999999999</v>
@@ -18878,8 +19627,11 @@
       <c r="I8" s="115">
         <v>127.65</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="115">
         <f t="shared" si="3"/>
         <v>0.98599999999999999</v>
@@ -18910,8 +19662,11 @@
       <c r="I9" s="115">
         <v>125.77</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="115">
         <f>0.987</f>
         <v>0.98699999999999999</v>
@@ -18942,8 +19697,11 @@
       <c r="I10" s="115">
         <v>123.9</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="115">
         <f t="shared" ref="B11:B12" si="4">0.987</f>
         <v>0.98699999999999999</v>
@@ -18974,8 +19732,11 @@
       <c r="I11" s="115">
         <v>122.08</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="115">
         <f t="shared" si="4"/>
         <v>0.98699999999999999</v>
@@ -19006,8 +19767,11 @@
       <c r="I12" s="115">
         <v>119.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="115">
         <f>0.99</f>
         <v>0.99</v>
@@ -19038,8 +19802,11 @@
       <c r="I13" s="115">
         <v>117.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="115">
         <f>0.99</f>
         <v>0.99</v>
@@ -19070,8 +19837,11 @@
       <c r="I14" s="115">
         <v>116.01</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="115">
         <f>$B$14</f>
         <v>0.99</v>
@@ -19102,8 +19872,11 @@
       <c r="I15" s="115">
         <v>114.3</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="115">
         <f t="shared" ref="B16:B19" si="5">$B$14</f>
         <v>0.99</v>
@@ -19134,8 +19907,11 @@
       <c r="I16" s="115">
         <v>112.65</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="115">
         <f t="shared" si="5"/>
         <v>0.99</v>
@@ -19166,10 +19942,12 @@
       <c r="I17" s="115">
         <v>110</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="31" t="s">
+        <v>221</v>
+      </c>
       <c r="N17" s="120"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="115">
         <f t="shared" si="5"/>
         <v>0.99</v>
@@ -19198,10 +19976,12 @@
         <v>150</v>
       </c>
       <c r="I18" s="115"/>
-      <c r="M18" s="31"/>
+      <c r="M18" s="31" t="s">
+        <v>222</v>
+      </c>
       <c r="N18" s="120"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="115">
         <f t="shared" si="5"/>
         <v>0.99</v>
@@ -19233,7 +20013,7 @@
       <c r="M19" s="31"/>
       <c r="N19" s="120"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="115">
         <f>0.991</f>
         <v>0.99099999999999999</v>
@@ -19263,7 +20043,7 @@
       </c>
       <c r="I20" s="115"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="115">
         <f t="shared" ref="B21:B37" si="6">0.991</f>
         <v>0.99099999999999999</v>
@@ -19296,7 +20076,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19325,8 +20105,10 @@
         <v>190</v>
       </c>
       <c r="I22" s="115"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19355,14 +20137,14 @@
         <v>200</v>
       </c>
       <c r="I23" s="115"/>
-      <c r="M23" s="31">
-        <v>127024</v>
-      </c>
-      <c r="N23" s="127" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M23" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="N23" s="127"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19391,14 +20173,14 @@
         <v>210</v>
       </c>
       <c r="I24" s="115"/>
-      <c r="M24" s="31">
-        <v>113596</v>
-      </c>
-      <c r="N24" s="120" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="157" t="s">
+        <v>201</v>
+      </c>
+      <c r="N24" s="120"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19427,14 +20209,14 @@
         <v>220</v>
       </c>
       <c r="I25" s="115"/>
-      <c r="M25" s="31">
-        <v>128108</v>
-      </c>
-      <c r="N25" s="127" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M25" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="N25" s="127"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="154"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19463,14 +20245,14 @@
         <v>230</v>
       </c>
       <c r="I26" s="115"/>
-      <c r="M26" s="31">
-        <v>113589</v>
-      </c>
-      <c r="N26" s="120" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M26" s="157" t="s">
+        <v>203</v>
+      </c>
+      <c r="N26" s="120"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19499,14 +20281,14 @@
         <v>240</v>
       </c>
       <c r="I27" s="115"/>
-      <c r="M27" s="31">
-        <v>128100</v>
-      </c>
-      <c r="N27" s="120" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M27" s="157" t="s">
+        <v>204</v>
+      </c>
+      <c r="N27" s="120"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19535,14 +20317,12 @@
         <v>251</v>
       </c>
       <c r="I28" s="115"/>
-      <c r="M28" s="31">
-        <v>113627</v>
-      </c>
-      <c r="N28" s="120" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M28" s="157"/>
+      <c r="N28" s="120"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19571,14 +20351,14 @@
         <v>263</v>
       </c>
       <c r="I29" s="115"/>
-      <c r="M29" s="31">
-        <v>113054</v>
-      </c>
-      <c r="N29" s="120" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" s="120"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19607,8 +20387,13 @@
         <v>276</v>
       </c>
       <c r="I30" s="115"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M30" s="158" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="154"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19637,8 +20422,13 @@
         <v>290</v>
       </c>
       <c r="I31" s="115"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M31" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="154"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19667,8 +20457,13 @@
         <v>305</v>
       </c>
       <c r="I32" s="115"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M32" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19697,8 +20492,13 @@
         <v>321</v>
       </c>
       <c r="I33" s="115"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M33" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19727,8 +20527,11 @@
         <v>338</v>
       </c>
       <c r="I34" s="115"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M34" s="158"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19757,8 +20560,9 @@
         <v>356</v>
       </c>
       <c r="I35" s="115"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M35" s="158"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19787,8 +20591,11 @@
         <v>375</v>
       </c>
       <c r="I36" s="115"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="M36" s="156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="115">
         <f t="shared" si="6"/>
         <v>0.99099999999999999</v>
@@ -19817,17 +20624,42 @@
         <v>395</v>
       </c>
       <c r="I37" s="115"/>
+      <c r="M37" s="156" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="M26" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{7FFF5371-7619-4CE9-A014-9605E2EB4D53}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19835,8 +20667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0EF17C-15AC-4F59-9A2A-389EE5D90AA2}">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19885,7 +20717,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="115">
-        <f>0.985</f>
+        <f>1-0.015</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="C4" s="115">
@@ -19916,7 +20748,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="115">
-        <f>$B$4</f>
+        <f t="shared" ref="B5:B27" si="0">0.985</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="C5" s="115">
@@ -19931,7 +20763,7 @@
         <v>109.16507499999997</v>
       </c>
       <c r="F5" s="115">
-        <f t="shared" ref="F5:F23" si="0">D5*C5</f>
+        <f t="shared" ref="F5:F23" si="1">D5*C5</f>
         <v>1083.4014999999999</v>
       </c>
       <c r="G5" s="115">
@@ -19948,7 +20780,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="115">
-        <f t="shared" ref="B6" si="1">$B$4</f>
+        <f t="shared" si="0"/>
         <v>0.98499999999999999</v>
       </c>
       <c r="C6" s="115">
@@ -19963,7 +20795,7 @@
         <v>108.34839924999999</v>
       </c>
       <c r="F6" s="115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1067.1504774999999</v>
       </c>
       <c r="G6" s="115">
@@ -19980,27 +20812,27 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="115">
-        <f>0.986</f>
-        <v>0.98599999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C7" s="115">
         <f t="shared" si="2"/>
-        <v>105.2210370815</v>
+        <v>105.11432203375</v>
       </c>
       <c r="D7" s="115">
         <v>10</v>
       </c>
       <c r="E7" s="115">
         <f>SUM($F$4:$F7)/SUM($D$4:D7)</f>
-        <v>107.56655870787499</v>
+        <v>107.53987994593749</v>
       </c>
       <c r="F7" s="115">
-        <f t="shared" si="0"/>
-        <v>1052.210370815</v>
+        <f t="shared" si="1"/>
+        <v>1051.1432203375</v>
       </c>
       <c r="G7" s="115">
         <f>SUM($F$4:F7)</f>
-        <v>4302.6623483149997</v>
+        <v>4301.5951978374997</v>
       </c>
       <c r="H7" s="115">
         <f>SUM($D$4:D7)</f>
@@ -20012,27 +20844,27 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="115">
-        <f t="shared" ref="B8:B9" si="3">0.986</f>
-        <v>0.98599999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C8" s="115">
         <f t="shared" si="2"/>
-        <v>103.747942562359</v>
+        <v>103.53760720324375</v>
       </c>
       <c r="D8" s="115">
         <v>10</v>
       </c>
       <c r="E8" s="115">
         <f>SUM($F$4:$F8)/SUM($D$4:D8)</f>
-        <v>106.8028354787718</v>
+        <v>106.73942539739873</v>
       </c>
       <c r="F8" s="115">
-        <f t="shared" si="0"/>
-        <v>1037.47942562359</v>
+        <f t="shared" si="1"/>
+        <v>1035.3760720324376</v>
       </c>
       <c r="G8" s="115">
         <f>SUM($F$4:F8)</f>
-        <v>5340.1417739385897</v>
+        <v>5336.9712698699368</v>
       </c>
       <c r="H8" s="115">
         <f>SUM($D$4:D8)</f>
@@ -20044,27 +20876,27 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="115">
-        <f t="shared" si="3"/>
-        <v>0.98599999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C9" s="115">
         <f t="shared" si="2"/>
-        <v>102.29547136648597</v>
+        <v>101.98454309519509</v>
       </c>
       <c r="D9" s="115">
         <v>10</v>
       </c>
       <c r="E9" s="115">
         <f>SUM($F$4:$F9)/SUM($D$4:D9)</f>
-        <v>106.05160812672416</v>
+        <v>105.94694501369813</v>
       </c>
       <c r="F9" s="115">
-        <f t="shared" si="0"/>
-        <v>1022.9547136648597</v>
+        <f t="shared" si="1"/>
+        <v>1019.8454309519509</v>
       </c>
       <c r="G9" s="115">
         <f>SUM($F$4:F9)</f>
-        <v>6363.0964876034495</v>
+        <v>6356.8167008218879</v>
       </c>
       <c r="H9" s="115">
         <f>SUM($D$4:D9)</f>
@@ -20076,27 +20908,27 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="115">
-        <f>0.987</f>
-        <v>0.98699999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C10" s="115">
         <f t="shared" si="2"/>
-        <v>100.96563023872164</v>
+        <v>100.45477494876717</v>
       </c>
       <c r="D10" s="115">
         <v>10</v>
       </c>
       <c r="E10" s="115">
         <f>SUM($F$4:$F10)/SUM($D$4:D10)</f>
-        <v>105.32503985700951</v>
+        <v>105.16234929013656</v>
       </c>
       <c r="F10" s="115">
-        <f t="shared" si="0"/>
-        <v>1009.6563023872164</v>
+        <f t="shared" si="1"/>
+        <v>1004.5477494876717</v>
       </c>
       <c r="G10" s="115">
         <f>SUM($F$4:F10)</f>
-        <v>7372.7527899906663</v>
+        <v>7361.3644503095593</v>
       </c>
       <c r="H10" s="115">
         <f>SUM($D$4:D10)</f>
@@ -20108,27 +20940,27 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="115">
-        <f t="shared" ref="B11:B12" si="4">0.987</f>
-        <v>0.98699999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C11" s="115">
         <f t="shared" si="2"/>
-        <v>99.653077045618261</v>
+        <v>98.947953324535661</v>
       </c>
       <c r="D11" s="115">
         <v>10</v>
       </c>
       <c r="E11" s="115">
         <f>SUM($F$4:$F11)/SUM($D$4:D11)</f>
-        <v>104.61604450558562</v>
+        <v>104.38554979443646</v>
       </c>
       <c r="F11" s="115">
-        <f t="shared" si="0"/>
-        <v>996.53077045618261</v>
+        <f t="shared" si="1"/>
+        <v>989.47953324535661</v>
       </c>
       <c r="G11" s="115">
         <f>SUM($F$4:F11)</f>
-        <v>8369.2835604468492</v>
+        <v>8350.8439835549161</v>
       </c>
       <c r="H11" s="115">
         <f>SUM($D$4:D11)</f>
@@ -20140,27 +20972,27 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="115">
-        <f t="shared" si="4"/>
-        <v>0.98699999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C12" s="115">
         <f t="shared" si="2"/>
-        <v>98.357587044025223</v>
+        <v>97.46373402466763</v>
       </c>
       <c r="D12" s="115">
         <v>10</v>
       </c>
       <c r="E12" s="115">
         <f>SUM($F$4:$F12)/SUM($D$4:D12)</f>
-        <v>103.92066034319002</v>
+        <v>103.61645915335103</v>
       </c>
       <c r="F12" s="115">
-        <f t="shared" si="0"/>
-        <v>983.57587044025217</v>
+        <f t="shared" si="1"/>
+        <v>974.63734024667633</v>
       </c>
       <c r="G12" s="115">
         <f>SUM($F$4:F12)</f>
-        <v>9352.8594308871016</v>
+        <v>9325.4813238015922</v>
       </c>
       <c r="H12" s="115">
         <f>SUM($D$4:D12)</f>
@@ -20172,27 +21004,27 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="115">
-        <f>0.99</f>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C13" s="115">
         <f t="shared" si="2"/>
-        <v>97.374011173584975</v>
+        <v>96.001778014297614</v>
       </c>
       <c r="D13" s="115">
         <v>10</v>
       </c>
       <c r="E13" s="115">
         <f>SUM($F$4:$F13)/SUM($D$4:D13)</f>
-        <v>103.26599542622951</v>
+        <v>102.85499103944568</v>
       </c>
       <c r="F13" s="115">
-        <f t="shared" si="0"/>
-        <v>973.74011173584972</v>
+        <f t="shared" si="1"/>
+        <v>960.01778014297611</v>
       </c>
       <c r="G13" s="115">
         <f>SUM($F$4:F13)</f>
-        <v>10326.599542622951</v>
+        <v>10285.499103944569</v>
       </c>
       <c r="H13" s="115">
         <f>SUM($D$4:D13)</f>
@@ -20204,27 +21036,27 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="115">
-        <f>0.99</f>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C14" s="115">
         <f t="shared" si="2"/>
-        <v>96.400271061849125</v>
+        <v>94.561751344083149</v>
       </c>
       <c r="D14" s="115">
         <v>10</v>
       </c>
       <c r="E14" s="115">
         <f>SUM($F$4:$F14)/SUM($D$4:D14)</f>
-        <v>102.6418386658313</v>
+        <v>102.10106015804909</v>
       </c>
       <c r="F14" s="115">
-        <f t="shared" si="0"/>
-        <v>964.00271061849128</v>
+        <f t="shared" si="1"/>
+        <v>945.61751344083154</v>
       </c>
       <c r="G14" s="115">
         <f>SUM($F$4:F14)</f>
-        <v>11290.602253241443</v>
+        <v>11231.1166173854</v>
       </c>
       <c r="H14" s="115">
         <f>SUM($D$4:D14)</f>
@@ -20236,27 +21068,27 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="115">
-        <f>$B$14</f>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C15" s="115">
         <f t="shared" si="2"/>
-        <v>95.436268351230638</v>
+        <v>93.143325073921901</v>
       </c>
       <c r="D15" s="115">
         <v>10</v>
       </c>
       <c r="E15" s="115">
         <f>SUM($F$4:$F15)/SUM($D$4:D15)</f>
-        <v>102.04137447294791</v>
+        <v>101.35458223437182</v>
       </c>
       <c r="F15" s="115">
-        <f t="shared" si="0"/>
-        <v>954.36268351230638</v>
+        <f t="shared" si="1"/>
+        <v>931.43325073921903</v>
       </c>
       <c r="G15" s="115">
         <f>SUM($F$4:F15)</f>
-        <v>12244.964936753749</v>
+        <v>12162.549868124619</v>
       </c>
       <c r="H15" s="115">
         <f>SUM($D$4:D15)</f>
@@ -20268,27 +21100,27 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="115">
-        <f t="shared" ref="B16:B19" si="5">$B$14</f>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C16" s="115">
         <f t="shared" si="2"/>
-        <v>94.481905667718337</v>
+        <v>91.746175197813074</v>
       </c>
       <c r="D16" s="115">
         <v>10</v>
       </c>
       <c r="E16" s="115">
         <f>SUM($F$4:$F16)/SUM($D$4:D16)</f>
-        <v>101.45987687254564</v>
+        <v>100.61547400079039</v>
       </c>
       <c r="F16" s="115">
-        <f t="shared" si="0"/>
-        <v>944.81905667718343</v>
+        <f t="shared" si="1"/>
+        <v>917.46175197813068</v>
       </c>
       <c r="G16" s="115">
         <f>SUM($F$4:F16)</f>
-        <v>13189.783993430932</v>
+        <v>13080.01162010275</v>
       </c>
       <c r="H16" s="115">
         <f>SUM($D$4:D16)</f>
@@ -20300,27 +21132,27 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="115">
-        <f t="shared" si="5"/>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C17" s="115">
         <f t="shared" si="2"/>
-        <v>93.537086611041147</v>
+        <v>90.369982569845874</v>
       </c>
       <c r="D17" s="115">
         <v>10</v>
       </c>
       <c r="E17" s="115">
         <f>SUM($F$4:$F17)/SUM($D$4:D17)</f>
-        <v>100.89396328243818</v>
+        <v>99.883653184294346</v>
       </c>
       <c r="F17" s="115">
-        <f t="shared" si="0"/>
-        <v>935.3708661104115</v>
+        <f t="shared" si="1"/>
+        <v>903.69982569845877</v>
       </c>
       <c r="G17" s="115">
         <f>SUM($F$4:F17)</f>
-        <v>14125.154859541344</v>
+        <v>13983.711445801209</v>
       </c>
       <c r="H17" s="115">
         <f>SUM($D$4:D17)</f>
@@ -20332,27 +21164,27 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="115">
-        <f t="shared" si="5"/>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C18" s="115">
         <f t="shared" si="2"/>
-        <v>92.601715744930729</v>
+        <v>89.01443283129818</v>
       </c>
       <c r="D18" s="115">
         <v>10</v>
       </c>
       <c r="E18" s="115">
         <f>SUM($F$4:$F18)/SUM($D$4:D18)</f>
-        <v>100.34114677993767</v>
+        <v>99.159038494094602</v>
       </c>
       <c r="F18" s="115">
-        <f t="shared" si="0"/>
-        <v>926.01715744930732</v>
+        <f t="shared" si="1"/>
+        <v>890.14432831298177</v>
       </c>
       <c r="G18" s="115">
         <f>SUM($F$4:F18)</f>
-        <v>15051.172016990651</v>
+        <v>14873.85577411419</v>
       </c>
       <c r="H18" s="115">
         <f>SUM($D$4:D18)</f>
@@ -20362,27 +21194,27 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="115">
-        <f t="shared" si="5"/>
-        <v>0.99</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C19" s="115">
         <f t="shared" si="2"/>
-        <v>91.675698587481421</v>
+        <v>87.679216338828709</v>
       </c>
       <c r="D19" s="115">
         <v>10</v>
       </c>
       <c r="E19" s="115">
         <f>SUM($F$4:$F19)/SUM($D$4:D19)</f>
-        <v>99.799556267909153</v>
+        <v>98.441549609390478</v>
       </c>
       <c r="F19" s="115">
-        <f t="shared" si="0"/>
-        <v>916.75698587481418</v>
+        <f t="shared" si="1"/>
+        <v>876.79216338828712</v>
       </c>
       <c r="G19" s="115">
         <f>SUM($F$4:F19)</f>
-        <v>15967.929002865465</v>
+        <v>15750.647937502477</v>
       </c>
       <c r="H19" s="115">
         <f>SUM($D$4:D19)</f>
@@ -20392,27 +21224,27 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="115">
-        <f>0.991</f>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C20" s="115">
         <f t="shared" si="2"/>
-        <v>90.850617300194088</v>
+        <v>86.364028093746271</v>
       </c>
       <c r="D20" s="115">
         <v>10</v>
       </c>
       <c r="E20" s="115">
         <f>SUM($F$4:$F20)/SUM($D$4:D20)</f>
-        <v>99.273148093337682</v>
+        <v>97.731107167293757</v>
       </c>
       <c r="F20" s="115">
-        <f t="shared" si="0"/>
-        <v>908.50617300194085</v>
+        <f t="shared" si="1"/>
+        <v>863.64028093746265</v>
       </c>
       <c r="G20" s="115">
         <f>SUM($F$4:F20)</f>
-        <v>16876.435175867406</v>
+        <v>16614.288218439939</v>
       </c>
       <c r="H20" s="115">
         <f>SUM($D$4:D20)</f>
@@ -20422,27 +21254,27 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="115">
-        <f t="shared" ref="B21:B27" si="6">0.991</f>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C21" s="115">
         <f t="shared" si="2"/>
-        <v>90.03296174449234</v>
+        <v>85.06856767234008</v>
       </c>
       <c r="D21" s="115">
         <v>10</v>
       </c>
       <c r="E21" s="115">
         <f>SUM($F$4:$F21)/SUM($D$4:D21)</f>
-        <v>98.759804407290716</v>
+        <v>97.027632750907443</v>
       </c>
       <c r="F21" s="115">
-        <f t="shared" si="0"/>
-        <v>900.32961744492343</v>
+        <f t="shared" si="1"/>
+        <v>850.68567672340077</v>
       </c>
       <c r="G21" s="115">
         <f>SUM($F$4:F21)</f>
-        <v>17776.76479331233</v>
+        <v>17464.973895163341</v>
       </c>
       <c r="H21" s="115">
         <f>SUM($D$4:D21)</f>
@@ -20452,27 +21284,27 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="115">
-        <f t="shared" si="6"/>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C22" s="115">
         <f t="shared" si="2"/>
-        <v>89.222665088791913</v>
+        <v>83.792539157254978</v>
       </c>
       <c r="D22" s="115">
         <v>10</v>
       </c>
       <c r="E22" s="115">
         <f>SUM($F$4:$F22)/SUM($D$4:D22)</f>
-        <v>98.257849706317103</v>
+        <v>96.331048877557322</v>
       </c>
       <c r="F22" s="115">
-        <f t="shared" si="0"/>
-        <v>892.22665088791916</v>
+        <f t="shared" si="1"/>
+        <v>837.92539157254976</v>
       </c>
       <c r="G22" s="115">
         <f>SUM($F$4:F22)</f>
-        <v>18668.991444200248</v>
+        <v>18302.89928673589</v>
       </c>
       <c r="H22" s="115">
         <f>SUM($D$4:D22)</f>
@@ -20482,27 +21314,27 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="115">
-        <f t="shared" si="6"/>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C23" s="115">
         <f t="shared" si="2"/>
-        <v>88.419661102992791</v>
+        <v>82.535651069896147</v>
       </c>
       <c r="D23" s="115">
         <v>10</v>
       </c>
       <c r="E23" s="115">
         <f>SUM($F$4:$F23)/SUM($D$4:D23)</f>
-        <v>97.765940276150886</v>
+        <v>95.64127898717426</v>
       </c>
       <c r="F23" s="115">
-        <f t="shared" si="0"/>
-        <v>884.19661102992791</v>
+        <f t="shared" si="1"/>
+        <v>825.35651069896153</v>
       </c>
       <c r="G23" s="115">
         <f>SUM($F$4:F23)</f>
-        <v>19553.188055230177</v>
+        <v>19128.255797434853</v>
       </c>
       <c r="H23" s="115">
         <f>SUM($D$4:D23)</f>
@@ -20512,27 +21344,27 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="115">
-        <f t="shared" si="6"/>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C24" s="115">
-        <f t="shared" ref="C24:C27" si="7">B24*C23</f>
-        <v>87.623884153065859</v>
+        <f t="shared" ref="C24:C27" si="3">B24*C23</f>
+        <v>81.297616303847704</v>
       </c>
       <c r="D24" s="115">
         <v>10</v>
       </c>
       <c r="E24" s="115">
         <f>SUM($F$4:$F24)/SUM($D$4:D24)</f>
-        <v>97.282985222670646</v>
+        <v>94.958247430825381</v>
       </c>
       <c r="F24" s="115">
-        <f t="shared" ref="F24:F27" si="8">D24*C24</f>
-        <v>876.23884153065865</v>
+        <f t="shared" ref="F24:F27" si="4">D24*C24</f>
+        <v>812.97616303847701</v>
       </c>
       <c r="G24" s="115">
         <f>SUM($F$4:F24)</f>
-        <v>20429.426896760837</v>
+        <v>19941.231960473331</v>
       </c>
       <c r="H24" s="115">
         <f>SUM($D$4:D24)</f>
@@ -20542,27 +21374,27 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="115">
-        <f t="shared" si="6"/>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C25" s="115">
-        <f t="shared" si="7"/>
-        <v>86.835269195688269</v>
+        <f t="shared" si="3"/>
+        <v>80.078152059289991</v>
       </c>
       <c r="D25" s="115">
         <v>10</v>
       </c>
       <c r="E25" s="115">
         <f>SUM($F$4:$F25)/SUM($D$4:D25)</f>
-        <v>96.808089039625997</v>
+        <v>94.281879459391959</v>
       </c>
       <c r="F25" s="115">
-        <f t="shared" si="8"/>
-        <v>868.35269195688272</v>
+        <f t="shared" si="4"/>
+        <v>800.78152059289994</v>
       </c>
       <c r="G25" s="115">
         <f>SUM($F$4:F25)</f>
-        <v>21297.77958871772</v>
+        <v>20742.013481066231</v>
       </c>
       <c r="H25" s="115">
         <f>SUM($D$4:D25)</f>
@@ -20572,27 +21404,27 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="115">
-        <f t="shared" si="6"/>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C26" s="115">
-        <f t="shared" si="7"/>
-        <v>86.053751772927072</v>
+        <f t="shared" si="3"/>
+        <v>78.876979778400639</v>
       </c>
       <c r="D26" s="115">
         <v>10</v>
       </c>
       <c r="E26" s="115">
         <f>SUM($F$4:$F26)/SUM($D$4:D26)</f>
-        <v>96.340509158465167</v>
+        <v>93.612101212392346</v>
       </c>
       <c r="F26" s="115">
-        <f t="shared" si="8"/>
-        <v>860.53751772927069</v>
+        <f t="shared" si="4"/>
+        <v>788.76979778400641</v>
       </c>
       <c r="G26" s="115">
         <f>SUM($F$4:F26)</f>
-        <v>22158.31710644699</v>
+        <v>21530.783278850238</v>
       </c>
       <c r="H26" s="115">
         <f>SUM($D$4:D26)</f>
@@ -20602,27 +21434,27 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="115">
-        <f t="shared" si="6"/>
-        <v>0.99099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="C27" s="115">
-        <f t="shared" si="7"/>
-        <v>85.279268006970725</v>
+        <f t="shared" si="3"/>
+        <v>77.693825081724626</v>
       </c>
       <c r="D27" s="115">
         <v>10</v>
       </c>
       <c r="E27" s="115">
         <f>SUM($F$4:$F27)/SUM($D$4:D27)</f>
-        <v>95.879624110486233</v>
+        <v>92.948839706947851</v>
       </c>
       <c r="F27" s="115">
-        <f t="shared" si="8"/>
-        <v>852.79268006970722</v>
+        <f t="shared" si="4"/>
+        <v>776.93825081724628</v>
       </c>
       <c r="G27" s="115">
         <f>SUM($F$4:F27)</f>
-        <v>23011.109786516696</v>
+        <v>22307.721529667484</v>
       </c>
       <c r="H27" s="115">
         <f>SUM($D$4:D27)</f>
@@ -20656,14 +21488,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164" t="s">
+      <c r="B1" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="165"/>
+      <c r="E1" s="183"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD3475-A122-488C-93D0-AC60616F0074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CFD935-B5EF-45A1-907D-C2285B857252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="750" windowWidth="20925" windowHeight="13860" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="244">
   <si>
     <t>收入</t>
   </si>
@@ -741,10 +741,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>满足：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>大族转债</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -813,96 +809,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cb: 128100 搜特转债 total: 100 现价: 95.68 成本 94.657</t>
-  </si>
-  <si>
-    <t>cb: 113589 天创转债 total: 60 现价: 98.556 成本 98.544</t>
-  </si>
-  <si>
-    <t>cb: 113596 城地转债 total: 50 现价: 96.094 成本 96.504</t>
-  </si>
-  <si>
-    <t>cb: 128114 正邦转债 total: 50 现价: 101.05 成本 98.869</t>
-  </si>
-  <si>
-    <t>cb: 127024 盈峰转债 total: 20 现价: 105.939 成本 107.267</t>
-  </si>
-  <si>
-    <t>cb: 113604 多伦转债 total: 20 现价: 106.55 成本 96.376</t>
-  </si>
-  <si>
-    <t>cb: 128108 蓝帆转债 total: 50 现价: 101.023 成本 101.515</t>
-  </si>
-  <si>
-    <t>cb: 110073 国投转债 total: 30 现价: 104.837 成本 105.187</t>
-  </si>
-  <si>
-    <t>cb: 113624 正川转债 total: 10 现价: 108.172 成本 109.65</t>
-  </si>
-  <si>
-    <t>cb: 113627 太平转债 total: 10 现价: 107.798 成本 109.58</t>
-  </si>
-  <si>
-    <t>113056 重银转债 100.164</t>
-  </si>
-  <si>
-    <t>113052 兴业转债 107.852</t>
-  </si>
-  <si>
-    <t>118001 金博转债 108.794</t>
-  </si>
-  <si>
-    <t>113623 凤21转债 109.923</t>
-  </si>
-  <si>
-    <t>113042 上银转债 107.02</t>
-  </si>
-  <si>
-    <t>127025 冀东转债 108.999</t>
-  </si>
-  <si>
-    <t>110076 华海转债 109.905</t>
-  </si>
-  <si>
-    <t>128129 青农转债 102.862</t>
-  </si>
-  <si>
-    <t>113037 紫银转债 104.55</t>
-  </si>
-  <si>
-    <t>110059 浦发转债 107.82</t>
-  </si>
-  <si>
-    <t>110038 济川转债 108.174</t>
-  </si>
-  <si>
-    <t>113013 国君转债 108.636</t>
-  </si>
-  <si>
-    <t>113011 光大转债 105.073</t>
-  </si>
-  <si>
-    <t>$$ 113589 天创转债 total: 60 现价: 98.556 threshold 98.59710595844264 成本 98.544</t>
-  </si>
-  <si>
-    <t>$$$ 113596 城地转债 total: 50 现价: 96.094 threshold 98.59710595844264 成本 96.504</t>
-  </si>
-  <si>
-    <t>$ 128114 正邦转债 total: 50 现价: 101.05 threshold 101.62292865927247 成本 98.869</t>
-  </si>
-  <si>
-    <t>$ 127024 盈峰转债 total: 20 现价: 105.939 threshold 106.33665999999998 成本 107.267</t>
-  </si>
-  <si>
-    <t>$$$ 128124 科华转债 total: 70 现价: 0.0 threshold 95.66137712853 成本 97.276</t>
-  </si>
-  <si>
-    <t>$ 128108 蓝帆转债 total: 50 现价: 101.023 threshold 101.62292865927247 成本 101.515</t>
-  </si>
-  <si>
-    <t>$ 113627 太平转债 total: 10 现价: 107.798 threshold 107.95599999999999 成本 109.58</t>
-  </si>
-  <si>
     <t>冀东转债</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -913,6 +819,139 @@
   <si>
     <t>快到期的债。106到期，买前没做调查</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>===========low 110==================</t>
+  </si>
+  <si>
+    <t>科沃转债</t>
+  </si>
+  <si>
+    <t>锦鸡转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿茵转债</t>
+  </si>
+  <si>
+    <t>32支亏损，继续大跌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负收益总数: 12，持仓个数: 67.  
+重回3000点。可选方案变少</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>===========candidate==================</t>
+  </si>
+  <si>
+    <t>国君转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负收益总数: 21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美锦转债</t>
+  </si>
+  <si>
+    <t>负收益总数: 35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127067 恒逸转2 108.501</t>
+  </si>
+  <si>
+    <t>113056 重银转债 99.217</t>
+  </si>
+  <si>
+    <t>127055 精装转债 109.295</t>
+  </si>
+  <si>
+    <t>113052 兴业转债 103.146</t>
+  </si>
+  <si>
+    <t>110081 闻泰转债 108.233</t>
+  </si>
+  <si>
+    <t>127041 弘亚转债 109.9</t>
+  </si>
+  <si>
+    <t>123117 健帆转债 109.0</t>
+  </si>
+  <si>
+    <t>113623 凤21转债 109.531</t>
+  </si>
+  <si>
+    <t>113042 上银转债 107.046</t>
+  </si>
+  <si>
+    <t>128142 新乳转债 109.566</t>
+  </si>
+  <si>
+    <t>113606 荣泰转债 109.967</t>
+  </si>
+  <si>
+    <t>127022 恒逸转债 107.45</t>
+  </si>
+  <si>
+    <t>128129 青农转债 101.473</t>
+  </si>
+  <si>
+    <t>113037 紫银转债 103.061</t>
+  </si>
+  <si>
+    <t>110067 华安转债 109.004</t>
+  </si>
+  <si>
+    <t>110059 XD浦发转 106.239</t>
+  </si>
+  <si>
+    <t>128074 游族转债 109.804</t>
+  </si>
+  <si>
+    <t>127005 长证转债 109.9</t>
+  </si>
+  <si>
+    <t>113011 光大转债 104.882</t>
+  </si>
+  <si>
+    <t>$threshold 92.81305962452802 128100 搜特转债 total: 110 现价: 91.832 成本 94.585</t>
+  </si>
+  <si>
+    <t>$$$threshold 97.118149369066 113596 城地转债 total: 60 现价: 95.692 成本 96.353</t>
+  </si>
+  <si>
+    <t>$threshold 97.118149369066 110072 广汇转债 total: 80 现价: 96.195 成本 97.906</t>
+  </si>
+  <si>
+    <t>$$$$threshold 92.81305962452802 128114 正邦转债 total: 80 现价: 92.752 成本 97.694</t>
+  </si>
+  <si>
+    <t>$threshold 106.33665999999998 127024 盈峰转债 total: 20 现价: 105.273 成本 107.267</t>
+  </si>
+  <si>
+    <t>$threshold 104.74161009999997 110073 国投转债 total: 30 现价: 104.562 成本 105.187</t>
+  </si>
+  <si>
+    <t>$threshold 106.33665999999998 113043 财通转债 total: 20 现价: 105.0 成本 109.006</t>
+  </si>
+  <si>
+    <t>$threshold 107.95599999999999 113576 起步转债 total: 10 现价: 106.968 成本 115.53</t>
+  </si>
+  <si>
+    <t>$threshold 107.95599999999999 128035 大族转债 total: 10 现价: 107.757 成本 109.778</t>
+  </si>
+  <si>
+    <t>$threshold 107.95599999999999 123113 仙乐转债 total: 10 现价: 107.5 成本 109.255</t>
+  </si>
+  <si>
+    <t>$threshold 107.95599999999999 127025 冀东转债 total: 10 现价: 106.55 成本 108.16</t>
+  </si>
+  <si>
+    <t>$threshold 106.33665999999998 113013 国君转债 total: 20 现价: 105.935 成本 107.008</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,6 +1227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1855,10 +1900,6 @@
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1912,6 +1953,17 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2181,10 +2233,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$52</c:f>
+              <c:f>收益weekly!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -2299,15 +2351,27 @@
                 <c:pt idx="37">
                   <c:v>44828</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$B$2:$B$52</c:f>
+              <c:f>收益weekly!$B$2:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>475.78</c:v>
                 </c:pt>
@@ -2422,6 +2486,21 @@
                 <c:pt idx="37">
                   <c:v>10323.879999999999</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>7827</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11727.63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10446.33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6516</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2507,10 +2586,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$52</c:f>
+              <c:f>收益weekly!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -2625,15 +2704,27 @@
                 <c:pt idx="37">
                   <c:v>44828</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>44841</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44855</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44863</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$C$2:$C$52</c:f>
+              <c:f>收益weekly!$C$2:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
@@ -2747,6 +2838,27 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5.2200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3492,15 +3604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3825,11 +3937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3853,13 +3965,13 @@
         <v>42</v>
       </c>
       <c r="D1" s="140" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="140" t="s">
         <v>195</v>
-      </c>
-      <c r="E1" s="140" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="140" t="s">
-        <v>196</v>
       </c>
       <c r="G1" s="140" t="s">
         <v>19</v>
@@ -4334,14 +4446,14 @@
         <v>1740</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>44823</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="94">
         <v>11848</v>
       </c>
       <c r="C38" s="29">
@@ -4357,14 +4469,14 @@
         <v>1820</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
         <v>44828</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="94">
         <v>10323.879999999999</v>
       </c>
       <c r="C39" s="29">
@@ -4376,58 +4488,233 @@
         <v>1850</v>
       </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="28">
+        <v>44841</v>
+      </c>
+      <c r="B40" s="94">
+        <v>7827</v>
+      </c>
+      <c r="C40" s="29">
+        <v>3.9100000000000003E-2</v>
+      </c>
       <c r="D40" s="141"/>
       <c r="E40" s="141"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
+      <c r="F40" s="140">
+        <v>1900</v>
+      </c>
+      <c r="G40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="28">
+        <v>44851</v>
+      </c>
+      <c r="B41" s="47">
+        <v>11727.63</v>
+      </c>
+      <c r="C41" s="29">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="D41" s="140">
+        <v>138.36000000000001</v>
+      </c>
+      <c r="E41" s="140">
+        <v>3084</v>
+      </c>
+      <c r="F41" s="140">
+        <v>1930</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
+      <c r="A42" s="28">
+        <v>44855</v>
+      </c>
+      <c r="B42" s="94">
+        <v>10446.33</v>
+      </c>
+      <c r="C42" s="29">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="D42" s="140">
+        <v>136.77000000000001</v>
+      </c>
+      <c r="E42" s="140">
+        <v>3038.93</v>
+      </c>
+      <c r="F42" s="140">
+        <v>1950</v>
+      </c>
+      <c r="G42" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
+      <c r="A43" s="28">
+        <v>44863</v>
+      </c>
+      <c r="B43" s="94">
+        <v>6516</v>
+      </c>
+      <c r="C43" s="29">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D43" s="140">
+        <v>133.88999999999999</v>
+      </c>
+      <c r="E43" s="140">
+        <v>2915.93</v>
+      </c>
+      <c r="F43" s="140">
+        <v>2010</v>
+      </c>
+      <c r="G43" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="47"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
       <c r="B45" s="47"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
       <c r="B46" s="47"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
       <c r="B47" s="47"/>
+      <c r="C47" s="29"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="140">
+        <v>0</v>
+      </c>
+      <c r="E48" s="140">
+        <v>0</v>
+      </c>
+      <c r="F48" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="140">
+        <v>0</v>
+      </c>
+      <c r="E49" s="140">
+        <v>0</v>
+      </c>
+      <c r="F49" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="29"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="29"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="29">
+        <v>0</v>
+      </c>
+      <c r="D55" s="140">
+        <v>0</v>
+      </c>
+      <c r="E55" s="140">
+        <v>0</v>
+      </c>
+      <c r="F55" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="29">
+        <v>0</v>
+      </c>
+      <c r="D56" s="140">
+        <v>0</v>
+      </c>
+      <c r="E56" s="140">
+        <v>0</v>
+      </c>
+      <c r="F56" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="29">
+        <v>0</v>
+      </c>
+      <c r="D57" s="140">
+        <v>0</v>
+      </c>
+      <c r="E57" s="140">
+        <v>0</v>
+      </c>
+      <c r="F57" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="28"/>
+      <c r="B58" s="47">
+        <v>15000</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="140">
+        <v>0</v>
+      </c>
+      <c r="E58" s="140">
+        <v>0</v>
+      </c>
+      <c r="F58" s="140">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4442,8 +4729,8 @@
   <dimension ref="A1:W370"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K374" sqref="K374"/>
+      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4470,47 +4757,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164"/>
-      <c r="B1" s="170" t="s">
+      <c r="A1" s="166"/>
+      <c r="B1" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="178" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="168" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="166" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="170" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="162" t="s">
+      <c r="S1" s="164" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="177"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="179"/>
       <c r="F2" s="19" t="s">
         <v>116</v>
       </c>
@@ -4544,11 +4831,11 @@
       <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="167"/>
+      <c r="Q2" s="169"/>
       <c r="R2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="163"/>
+      <c r="S2" s="165"/>
     </row>
     <row r="3" spans="1:23" s="104" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
@@ -4629,7 +4916,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>103.994</v>
+        <v>104.56100000000001</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -4639,19 +4926,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4159.76</v>
+        <v>4182.4400000000005</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="1"/>
-        <v>1.2491359250713178E-2</v>
+        <v>1.8011702738752505E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>51.32000000000005</v>
+        <v>74.000000000000341</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="2"/>
-        <v>2.0546329781593254E-2</v>
+        <v>1.9881732772653302E-2</v>
       </c>
       <c r="Q4" s="84"/>
       <c r="S4" s="25"/>
@@ -4737,7 +5024,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="12">
-        <v>114.92</v>
+        <v>108.3</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -4747,19 +5034,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1149.2</v>
+        <v>1083</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="1"/>
-        <v>0.20497845256943942</v>
+        <v>0.13556531859789667</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>195.49000000000007</v>
+        <v>129.29000000000002</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>5.6762510781888775E-3</v>
+        <v>5.1481710658810463E-3</v>
       </c>
       <c r="Q6" s="84"/>
       <c r="R6" s="51"/>
@@ -4790,7 +5077,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>114.161</v>
+        <v>108.13</v>
       </c>
       <c r="K7" s="12">
         <v>98.007999999999996</v>
@@ -4800,19 +5087,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>5708.05</v>
+        <v>5406.5</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="1"/>
-        <v>0.16481307648355242</v>
+        <v>0.10327728348706229</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>807.65000000000032</v>
+        <v>506.1</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="2"/>
-        <v>2.8193808707671443E-2</v>
+        <v>2.570044955464993E-2</v>
       </c>
       <c r="Q7" s="84"/>
       <c r="S7" s="25"/>
@@ -4841,7 +5128,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>109.002</v>
+        <v>105.729</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -4851,19 +5138,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3270.06</v>
+        <v>3171.87</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="1"/>
-        <v>3.17566991963803E-2</v>
+        <v>7.7616969719910298E-4</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>100.64999999999969</v>
+        <v>2.459999999999809</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="2"/>
-        <v>1.6151828751081031E-2</v>
+        <v>1.5077866443892994E-2</v>
       </c>
       <c r="Q8" s="84"/>
       <c r="S8" s="25"/>
@@ -4890,7 +5177,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="12">
-        <v>117.13</v>
+        <v>111.605</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -4900,19 +5187,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1171.3</v>
+        <v>1116.05</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0.19010363747205847</v>
+        <v>0.13396667344035768</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>187.09999999999994</v>
+        <v>131.85000000000002</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="2"/>
-        <v>5.7854097527694328E-3</v>
+        <v>5.3052782253707673E-3</v>
       </c>
       <c r="Q9" s="84"/>
       <c r="S9" s="25"/>
@@ -5098,7 +5385,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="12">
-        <v>106.48099999999999</v>
+        <v>105.56</v>
       </c>
       <c r="K13" s="12">
         <v>103.81699999999999</v>
@@ -5108,19 +5395,19 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>3194.43</v>
+        <v>3166.8</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>2.5660537291580392E-2</v>
+        <v>1.6789157845054369E-2</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>79.920000000000044</v>
+        <v>52.290000000000276</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="2"/>
-        <v>1.577826899730151E-2</v>
+        <v>1.5053765587656599E-2</v>
       </c>
       <c r="Q13" s="84"/>
       <c r="S13" s="25"/>
@@ -5289,7 +5576,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="12">
-        <v>120.251</v>
+        <v>116.69199999999999</v>
       </c>
       <c r="K17" s="12">
         <v>111.39400000000001</v>
@@ -5299,19 +5586,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>7215.06</v>
+        <v>7001.5199999999995</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>7.9510566098712668E-2</v>
+        <v>4.7560909923335074E-2</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>531.41999999999996</v>
+        <v>317.87999999999926</v>
       </c>
       <c r="P17" s="24">
         <f t="shared" si="2"/>
-        <v>3.5637393059691477E-2</v>
+        <v>3.3282569419379002E-2</v>
       </c>
       <c r="Q17" s="84"/>
       <c r="S17" s="46"/>
@@ -5344,7 +5631,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="12">
-        <v>110.83</v>
+        <v>115.861</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -5354,19 +5641,19 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2216.6</v>
+        <v>2317.2200000000003</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>2.0393131703724195E-2</v>
+        <v>6.6712700824011512E-2</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>44.300000000000068</v>
+        <v>144.92000000000019</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="2"/>
-        <v>1.0948466881233436E-2</v>
+        <v>1.1015184632761662E-2</v>
       </c>
       <c r="Q18" s="84"/>
       <c r="R18" s="50"/>
@@ -5398,7 +5685,7 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="12">
-        <v>93</v>
+        <v>91.831999999999994</v>
       </c>
       <c r="K19" s="12">
         <v>94.584999999999994</v>
@@ -5408,19 +5695,19 @@
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>10230</v>
+        <v>10101.519999999999</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>-1.6757413966273657E-2</v>
+        <v>-2.9106095046783319E-2</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>-174.34999999999931</v>
+        <v>-302.83000000000004</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="2"/>
-        <v>5.0529105925750273E-2</v>
+        <v>4.8018793153664537E-2</v>
       </c>
       <c r="Q19" s="84"/>
       <c r="S19" s="25"/>
@@ -5450,7 +5737,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>98.555999999999997</v>
+        <v>97.760999999999996</v>
       </c>
       <c r="K20" s="12">
         <v>98.477000000000004</v>
@@ -5460,19 +5747,19 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>6898.92</v>
+        <v>6843.2699999999995</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>8.0221777673968053E-4</v>
+        <v>-7.2707332676666446E-3</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>5.5299999999995464</v>
+        <v>-50.120000000000573</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="2"/>
-        <v>3.4075880689469901E-2</v>
+        <v>3.2530308965846522E-2</v>
       </c>
       <c r="Q20" s="84"/>
       <c r="S20" s="25"/>
@@ -5504,7 +5791,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="12">
-        <v>107.91200000000001</v>
+        <v>106.249</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -5514,19 +5801,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2158.2400000000002</v>
+        <v>2124.98</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>5.080091533180791E-2</v>
+        <v>3.4607332392034687E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>104.34000000000026</v>
+        <v>71.080000000000041</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="2"/>
-        <v>1.0660208951436097E-2</v>
+        <v>1.0101348616413578E-2</v>
       </c>
       <c r="Q21" s="84"/>
       <c r="S21" s="25"/>
@@ -5556,7 +5843,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>115.83</v>
+        <v>108.003</v>
       </c>
       <c r="K22" s="12">
         <v>98.962000000000003</v>
@@ -5566,19 +5853,19 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>11583</v>
+        <v>10800.3</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0.17044926335361041</v>
+        <v>9.1358299145126373E-2</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>1686.7999999999995</v>
+        <v>904.09999999999968</v>
       </c>
       <c r="P22" s="24">
         <f t="shared" si="2"/>
-        <v>5.7211987677220473E-2</v>
+        <v>5.1340528128194882E-2</v>
       </c>
       <c r="Q22" s="84"/>
       <c r="S22" s="25"/>
@@ -5607,7 +5894,7 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>96.093999999999994</v>
+        <v>95.691999999999993</v>
       </c>
       <c r="K23" s="12">
         <v>96.352999999999994</v>
@@ -5617,19 +5904,19 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>5765.6399999999994</v>
+        <v>5741.5199999999995</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>-2.6880325469886808E-3</v>
+        <v>-6.8601911720444757E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>-15.54000000000002</v>
+        <v>-39.660000000000082</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="2"/>
-        <v>2.8478263371431358E-2</v>
+        <v>2.7293007514475845E-2</v>
       </c>
       <c r="Q23" s="84"/>
       <c r="S23" s="25"/>
@@ -5759,7 +6046,7 @@
         <v>52</v>
       </c>
       <c r="J26" s="12">
-        <v>111.048</v>
+        <v>109.38</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -5769,19 +6056,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1110.48</v>
+        <v>1093.8</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>6.9857510332668626E-2</v>
+        <v>5.3787681724905327E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>72.510000000000048</v>
+        <v>55.829999999999984</v>
       </c>
       <c r="P26" s="24">
         <f t="shared" si="2"/>
-        <v>5.4850011288785109E-3</v>
+        <v>5.1995101679230731E-3</v>
       </c>
       <c r="Q26" s="84"/>
       <c r="S26" s="25"/>
@@ -5856,7 +6143,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>109.453</v>
+        <v>107.39100000000001</v>
       </c>
       <c r="K28" s="12">
         <v>123.71599999999999</v>
@@ -5866,19 +6153,19 @@
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>7661.71</v>
+        <v>7517.3700000000008</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>-0.1152882408095961</v>
+        <v>-0.13195544634485426</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-998.4099999999994</v>
+        <v>-1142.7499999999991</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" si="2"/>
-        <v>3.7843534326723376E-2</v>
+        <v>3.5734724584969714E-2</v>
       </c>
       <c r="Q28" s="84" t="s">
         <v>54</v>
@@ -5958,7 +6245,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>105.40600000000001</v>
+        <v>103.554</v>
       </c>
       <c r="K30" s="12">
         <v>101.34</v>
@@ -5968,19 +6255,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>3162.1800000000003</v>
+        <v>3106.62</v>
       </c>
       <c r="N30" s="24">
         <f t="shared" si="1"/>
-        <v>4.0122360371028246E-2</v>
+        <v>2.184724689165185E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>121.98000000000008</v>
+        <v>66.419999999999959</v>
       </c>
       <c r="P30" s="24">
         <f t="shared" si="2"/>
-        <v>1.5618976361318575E-2</v>
+        <v>1.4767692702389082E-2</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="S30" s="25"/>
@@ -6012,7 +6299,7 @@
         <v>52</v>
       </c>
       <c r="J31" s="12">
-        <v>116.68</v>
+        <v>112.482</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -6022,19 +6309,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1166.8000000000002</v>
+        <v>1124.82</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="1"/>
-        <v>0.14818787455348809</v>
+        <v>0.10687751547416385</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>150.59000000000012</v>
+        <v>108.61000000000004</v>
       </c>
       <c r="P31" s="24">
         <f t="shared" si="2"/>
-        <v>5.7631828733299539E-3</v>
+        <v>5.3469674776771168E-3</v>
       </c>
       <c r="Q31" s="84"/>
       <c r="R31" s="7"/>
@@ -6115,7 +6402,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>103.41</v>
+        <v>103.59</v>
       </c>
       <c r="K33" s="12">
         <v>102.991</v>
@@ -6125,19 +6412,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>10341</v>
+        <v>10359</v>
       </c>
       <c r="N33" s="24">
         <f t="shared" si="1"/>
-        <v>4.0683166490275554E-3</v>
+        <v>5.816042178442813E-3</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>41.899999999999693</v>
+        <v>59.900000000000375</v>
       </c>
       <c r="P33" s="24">
         <f t="shared" si="2"/>
-        <v>5.1077368951924107E-2</v>
+        <v>4.9242755375310948E-2</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="8"/>
@@ -6219,7 +6506,7 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>98.275999999999996</v>
+        <v>96.194999999999993</v>
       </c>
       <c r="K35" s="12">
         <v>97.906000000000006</v>
@@ -6229,19 +6516,19 @@
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>7862.08</v>
+        <v>7695.5999999999995</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>3.7791350887585061E-3</v>
+        <v>-1.7475946315854113E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>29.599999999999227</v>
+        <v>-136.88000000000102</v>
       </c>
       <c r="P35" s="24">
         <f t="shared" ref="P35:P66" si="8">M35/$M$352</f>
-        <v>3.8833223178565274E-2</v>
+        <v>3.6581962377279939E-2</v>
       </c>
       <c r="Q35" s="84"/>
       <c r="S35" s="25"/>
@@ -6756,7 +7043,7 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="12">
-        <v>119.61199999999999</v>
+        <v>117.4</v>
       </c>
       <c r="K46" s="12">
         <v>127.94799999999999</v>
@@ -6766,19 +7053,19 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>4784.4799999999996</v>
+        <v>4696</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="7"/>
-        <v>-6.5151467783787151E-2</v>
+        <v>-8.2439741144839998E-2</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-333.43999999999994</v>
+        <v>-421.9199999999995</v>
       </c>
       <c r="P46" s="24">
         <f t="shared" si="8"/>
-        <v>2.3632013364578069E-2</v>
+        <v>2.2323002147162874E-2</v>
       </c>
       <c r="Q46" s="84"/>
       <c r="S46" s="25"/>
@@ -6811,7 +7098,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="12">
-        <v>118.42</v>
+        <v>118.396</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -6821,19 +7108,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2368.4</v>
+        <v>2367.92</v>
       </c>
       <c r="N47" s="24">
         <f t="shared" si="7"/>
-        <v>2.1654732119748124E-2</v>
+        <v>2.1447674920196742E-2</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>50.200000000000102</v>
+        <v>49.720000000000084</v>
       </c>
       <c r="P47" s="24">
         <f t="shared" si="8"/>
-        <v>1.1698253614325216E-2</v>
+        <v>1.125619319512562E-2</v>
       </c>
       <c r="Q47" s="84"/>
       <c r="S47" s="25"/>
@@ -6915,7 +7202,7 @@
         <v>66</v>
       </c>
       <c r="J49" s="12">
-        <v>108.321</v>
+        <v>108.78</v>
       </c>
       <c r="K49" s="12">
         <v>113.66</v>
@@ -6925,19 +7212,19 @@
       </c>
       <c r="M49" s="11">
         <f t="shared" si="6"/>
-        <v>1083.21</v>
+        <v>1087.8</v>
       </c>
       <c r="N49" s="24">
         <f t="shared" si="7"/>
-        <v>-4.6973429526658443E-2</v>
+        <v>-4.2935069505542808E-2</v>
       </c>
       <c r="O49" s="11">
         <f t="shared" si="9"/>
-        <v>-53.389999999999986</v>
+        <v>-48.799999999999955</v>
       </c>
       <c r="P49" s="24">
         <f t="shared" si="8"/>
-        <v>5.3503062394752643E-3</v>
+        <v>5.1709884445663911E-3</v>
       </c>
       <c r="Q49" s="84"/>
       <c r="S49" s="25"/>
@@ -7498,29 +7785,29 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="12">
-        <v>101.05</v>
+        <v>92.751999999999995</v>
       </c>
       <c r="K61" s="12">
-        <v>98.869</v>
+        <v>97.694000000000003</v>
       </c>
       <c r="L61" s="12">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="11">J61*L61</f>
-        <v>5052.5</v>
+        <v>7420.16</v>
       </c>
       <c r="N61" s="24">
         <f t="shared" ref="N61:N95" si="12">(J61-K61)/K61</f>
-        <v>2.2059492864295153E-2</v>
+        <v>-5.0586525272790624E-2</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
-        <v>109.04999999999987</v>
+        <v>-395.36000000000058</v>
       </c>
       <c r="P61" s="24">
         <f t="shared" si="8"/>
-        <v>2.4955846303993477E-2</v>
+        <v>3.5272625130385871E-2</v>
       </c>
       <c r="Q61" s="84"/>
       <c r="S61" s="25"/>
@@ -7799,7 +8086,7 @@
         <v>66</v>
       </c>
       <c r="J67" s="12">
-        <v>105.93899999999999</v>
+        <v>105.273</v>
       </c>
       <c r="K67" s="12">
         <v>107.267</v>
@@ -7809,19 +8096,19 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>2118.7799999999997</v>
+        <v>2105.46</v>
       </c>
       <c r="N67" s="24">
         <f t="shared" si="12"/>
-        <v>-1.2380322000242415E-2</v>
+        <v>-1.8589128063616955E-2</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>-26.560000000000059</v>
+        <v>-39.879999999999995</v>
       </c>
       <c r="P67" s="24">
         <f t="shared" ref="P67:P98" si="13">M67/$M$352</f>
-        <v>1.0465303915284571E-2</v>
+        <v>1.0008557943093174E-2</v>
       </c>
       <c r="Q67" s="84"/>
       <c r="S67" s="25"/>
@@ -7896,7 +8183,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>102.55</v>
+        <v>100.5</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -7906,19 +8193,19 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="14">J69*L69</f>
-        <v>7178.5</v>
+        <v>7035</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="12"/>
-        <v>5.4216867469879526E-2</v>
+        <v>3.3142810148443641E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>369.18000000000006</v>
+        <v>225.68000000000026</v>
       </c>
       <c r="P69" s="24">
         <f t="shared" si="13"/>
-        <v>3.5456812012512058E-2</v>
+        <v>3.3441720635709285E-2</v>
       </c>
       <c r="Q69" s="84"/>
       <c r="S69" s="25"/>
@@ -8002,7 +8289,7 @@
         <v>52</v>
       </c>
       <c r="J71" s="12">
-        <v>106.676</v>
+        <v>106.09</v>
       </c>
       <c r="K71" s="12">
         <v>106.81100000000001</v>
@@ -8012,19 +8299,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="14"/>
-        <v>3200.28</v>
+        <v>3182.7000000000003</v>
       </c>
       <c r="N71" s="24">
         <f t="shared" si="12"/>
-        <v>-1.2639147653332064E-3</v>
+        <v>-6.7502410800386065E-3</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>-4.0500000000001535</v>
+        <v>-21.630000000000109</v>
       </c>
       <c r="P71" s="24">
         <f t="shared" si="13"/>
-        <v>1.5807163940572834E-2</v>
+        <v>1.5129348154551806E-2</v>
       </c>
       <c r="Q71" s="84"/>
       <c r="S71" s="25"/>
@@ -8104,7 +8391,7 @@
         <v>52</v>
       </c>
       <c r="J73" s="12">
-        <v>117.999</v>
+        <v>117.86499999999999</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -8114,19 +8401,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1179.99</v>
+        <v>1178.6499999999999</v>
       </c>
       <c r="N73" s="24">
         <f t="shared" si="12"/>
-        <v>4.4044912007502983E-2</v>
+        <v>4.2859291636067581E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>49.779999999999944</v>
+        <v>48.439999999999941</v>
       </c>
       <c r="P73" s="24">
         <f t="shared" si="13"/>
-        <v>5.8283323266203387E-3</v>
+        <v>5.6028548723921464E-3</v>
       </c>
       <c r="Q73" s="84"/>
       <c r="S73" s="25"/>
@@ -8306,7 +8593,7 @@
         <v>52</v>
       </c>
       <c r="J77" s="12">
-        <v>106.55</v>
+        <v>106.129</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -8316,19 +8603,19 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="14"/>
-        <v>2131</v>
+        <v>2122.58</v>
       </c>
       <c r="N77" s="24">
         <f t="shared" si="12"/>
-        <v>0.10556570100439935</v>
+        <v>0.10119739354196065</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="15"/>
-        <v>203.47999999999985</v>
+        <v>195.06</v>
       </c>
       <c r="P77" s="24">
         <f t="shared" si="13"/>
-        <v>1.0525662241229115E-2</v>
+        <v>1.0089939927070905E-2</v>
       </c>
       <c r="Q77" s="84"/>
       <c r="S77" s="25"/>
@@ -8410,7 +8697,7 @@
         <v>52</v>
       </c>
       <c r="J79" s="12">
-        <v>109.264</v>
+        <v>109.581</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -8420,19 +8707,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="14"/>
-        <v>1092.6399999999999</v>
+        <v>1095.81</v>
       </c>
       <c r="N79" s="24">
         <f t="shared" si="12"/>
-        <v>6.2068330417164785E-3</v>
+        <v>9.1260705405654258E-3</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="15"/>
-        <v>6.7399999999999238</v>
+        <v>9.9099999999999966</v>
       </c>
       <c r="P79" s="24">
         <f t="shared" si="13"/>
-        <v>5.3968839001673286E-3</v>
+        <v>5.209064945247561E-3</v>
       </c>
       <c r="Q79" s="84"/>
       <c r="S79" s="25"/>
@@ -8463,7 +8750,7 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>105.35</v>
+        <v>105.46</v>
       </c>
       <c r="K80" s="12">
         <v>107.053</v>
@@ -8473,19 +8760,19 @@
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>4214</v>
+        <v>4218.3999999999996</v>
       </c>
       <c r="N80" s="24">
         <f t="shared" si="12"/>
-        <v>-1.5908008182862723E-2</v>
+        <v>-1.4880479762360734E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-68.120000000000118</v>
+        <v>-63.720000000000141</v>
       </c>
       <c r="P80" s="24">
         <f t="shared" si="13"/>
-        <v>2.0814237768437112E-2</v>
+        <v>2.0052672967971009E-2</v>
       </c>
       <c r="Q80" s="84"/>
       <c r="S80" s="25"/>
@@ -8564,29 +8851,29 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>106.581</v>
+        <v>103.03</v>
       </c>
       <c r="K82" s="12">
-        <v>102.289</v>
+        <v>102.733</v>
       </c>
       <c r="L82" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M82" s="11">
         <f t="shared" si="14"/>
-        <v>3197.4300000000003</v>
+        <v>4121.2</v>
       </c>
       <c r="N82" s="24">
         <f t="shared" si="12"/>
-        <v>4.1959545992237696E-2</v>
+        <v>2.8909892634304169E-3</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="15"/>
-        <v>128.76000000000005</v>
+        <v>11.879999999999882</v>
       </c>
       <c r="P82" s="24">
         <f t="shared" si="13"/>
-        <v>1.579308691692783E-2</v>
+        <v>1.9590621049592766E-2</v>
       </c>
       <c r="Q82" s="84"/>
       <c r="S82" s="25"/>
@@ -8666,7 +8953,7 @@
         <v>52</v>
       </c>
       <c r="J84" s="12">
-        <v>107.755</v>
+        <v>108.789</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -8676,19 +8963,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="16">J84*L84</f>
-        <v>2155.1</v>
+        <v>2175.7800000000002</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="12"/>
-        <v>3.0625733062758878E-3</v>
+        <v>1.2687803697428923E-2</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>6.5799999999998704</v>
+        <v>27.259999999999991</v>
       </c>
       <c r="P84" s="24">
         <f t="shared" si="13"/>
-        <v>1.0644699528893882E-2</v>
+        <v>1.0342832540833484E-2</v>
       </c>
       <c r="Q84" s="84"/>
       <c r="S84" s="25"/>
@@ -8719,7 +9006,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>105.79</v>
+        <v>103.2</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -8729,19 +9016,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="16"/>
-        <v>4231.6000000000004</v>
+        <v>4128</v>
       </c>
       <c r="N85" s="24">
         <f t="shared" si="12"/>
-        <v>1.6976851495808711E-2</v>
+        <v>-7.9212489425517004E-3</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>70.640000000000214</v>
+        <v>-32.959999999999923</v>
       </c>
       <c r="P85" s="24">
         <f t="shared" si="13"/>
-        <v>2.0901169563578188E-2</v>
+        <v>1.9622945669397006E-2</v>
       </c>
       <c r="Q85" s="84"/>
       <c r="S85" s="25"/>
@@ -8966,7 +9253,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>101.023</v>
+        <v>101.08799999999999</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -8976,19 +9263,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="16"/>
-        <v>5051.1499999999996</v>
+        <v>5054.3999999999996</v>
       </c>
       <c r="N90" s="24">
         <f t="shared" si="12"/>
-        <v>-4.8465743978722796E-3</v>
+        <v>-4.2062749347387745E-3</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="15"/>
-        <v>-24.600000000000222</v>
+        <v>-21.350000000000335</v>
       </c>
       <c r="P90" s="24">
         <f t="shared" si="13"/>
-        <v>2.4949178240161633E-2</v>
+        <v>2.4026699755668658E-2</v>
       </c>
       <c r="Q90" s="84"/>
       <c r="S90" s="25"/>
@@ -9685,7 +9972,7 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>101.13200000000001</v>
+        <v>98.861999999999995</v>
       </c>
       <c r="K105" s="12">
         <v>103.44799999999999</v>
@@ -9695,19 +9982,19 @@
       </c>
       <c r="M105" s="11">
         <f t="shared" si="19"/>
-        <v>7079.2400000000007</v>
+        <v>6920.3399999999992</v>
       </c>
       <c r="N105" s="24">
         <f t="shared" si="20"/>
-        <v>-2.2388059701492425E-2</v>
+        <v>-4.4331451550537457E-2</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="15"/>
-        <v>-162.11999999999918</v>
+        <v>-321.01999999999987</v>
       </c>
       <c r="P105" s="24">
         <f t="shared" si="18"/>
-        <v>3.4966536445142561E-2</v>
+        <v>3.2896670502363098E-2</v>
       </c>
       <c r="Q105" s="84" t="s">
         <v>106</v>
@@ -9740,7 +10027,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>104.837</v>
+        <v>104.562</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -9750,19 +10037,19 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="19"/>
-        <v>3145.11</v>
+        <v>3136.86</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="20"/>
-        <v>-3.3274073792388253E-3</v>
+        <v>-5.9417988914979986E-3</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>-10.499999999999829</v>
+        <v>-18.75</v>
       </c>
       <c r="P106" s="24">
         <f t="shared" si="18"/>
-        <v>1.5534662398644815E-2</v>
+        <v>1.4911442188106758E-2</v>
       </c>
       <c r="Q106" s="84" t="s">
         <v>106</v>
@@ -10094,7 +10381,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>109.78</v>
+        <v>108.96</v>
       </c>
       <c r="K113" s="12">
         <v>105.44</v>
@@ -10104,19 +10391,19 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="19"/>
-        <v>1097.8</v>
+        <v>1089.5999999999999</v>
       </c>
       <c r="N113" s="24">
         <f t="shared" si="20"/>
-        <v>4.1160849772382428E-2</v>
+        <v>3.3383915022761723E-2</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="21"/>
-        <v>43.400000000000034</v>
+        <v>35.19999999999996</v>
       </c>
       <c r="P113" s="24">
         <f t="shared" si="18"/>
-        <v>5.4223707219245992E-3</v>
+        <v>5.179544961573395E-3</v>
       </c>
       <c r="Q113" s="84" t="s">
         <v>106</v>
@@ -10797,7 +11084,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>108.496</v>
+        <v>110.25</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -10807,19 +11094,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="19"/>
-        <v>2169.92</v>
+        <v>2205</v>
       </c>
       <c r="N127" s="24">
         <f t="shared" si="20"/>
-        <v>1.8190380335920784E-3</v>
+        <v>1.8014940119483958E-2</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="21"/>
-        <v>3.9399999999997704</v>
+        <v>39.019999999999868</v>
       </c>
       <c r="P127" s="24">
         <f t="shared" si="18"/>
-        <v>1.0717900051847902E-2</v>
+        <v>1.0481733333580523E-2</v>
       </c>
       <c r="Q127" s="84" t="s">
         <v>106</v>
@@ -11095,7 +11382,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>113.03100000000001</v>
+        <v>111.20099999999999</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -11105,19 +11392,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="19"/>
-        <v>1130.31</v>
+        <v>1112.01</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="25"/>
-        <v>1.1725637973165316E-2</v>
+        <v>-4.6544517145389874E-3</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="23"/>
-        <v>13.100000000000023</v>
+        <v>-5.2000000000001023</v>
       </c>
       <c r="P133" s="24">
         <f t="shared" si="24"/>
-        <v>5.582947577608484E-3</v>
+        <v>5.2860735983106021E-3</v>
       </c>
       <c r="Q133" s="84" t="s">
         <v>106</v>
@@ -11199,7 +11486,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>111.276</v>
+        <v>109.57</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -11209,19 +11496,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="19"/>
-        <v>1112.76</v>
+        <v>1095.6999999999998</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="25"/>
-        <v>3.3875313574282272E-2</v>
+        <v>1.8024714298987252E-2</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="23"/>
-        <v>36.460000000000008</v>
+        <v>19.399999999999977</v>
       </c>
       <c r="P135" s="24">
         <f t="shared" si="24"/>
-        <v>5.4962627477945138E-3</v>
+        <v>5.208542046986021E-3</v>
       </c>
       <c r="Q135" s="84" t="s">
         <v>120</v>
@@ -11354,7 +11641,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>117.01</v>
+        <v>112.6</v>
       </c>
       <c r="K138" s="12">
         <v>115.14</v>
@@ -11364,19 +11651,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="19"/>
-        <v>1170.1000000000001</v>
+        <v>1126</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="25"/>
-        <v>1.6241097793989964E-2</v>
+        <v>-2.206010074691685E-2</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="23"/>
-        <v>18.700000000000045</v>
+        <v>-25.400000000000063</v>
       </c>
       <c r="P138" s="24">
         <f t="shared" si="24"/>
-        <v>5.7794825849189057E-3</v>
+        <v>5.3525767499372646E-3</v>
       </c>
       <c r="Q138" s="84" t="s">
         <v>106</v>
@@ -11409,7 +11696,7 @@
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12">
-        <v>115.18600000000001</v>
+        <v>115.895</v>
       </c>
       <c r="K139" s="12">
         <v>119.23</v>
@@ -11419,19 +11706,19 @@
       </c>
       <c r="M139" s="11">
         <f t="shared" si="19"/>
-        <v>1151.8600000000001</v>
+        <v>1158.95</v>
       </c>
       <c r="N139" s="24">
         <f t="shared" si="25"/>
-        <v>-3.3917638178310804E-2</v>
+        <v>-2.7971148200956201E-2</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="23"/>
-        <v>-40.439999999999969</v>
+        <v>-33.35000000000008</v>
       </c>
       <c r="P139" s="24">
         <f t="shared" si="24"/>
-        <v>5.6893896335908816E-3</v>
+        <v>5.5092085473710424E-3</v>
       </c>
       <c r="Q139" s="84" t="s">
         <v>106</v>
@@ -11508,7 +11795,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>109.2</v>
+        <v>108.35299999999999</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -11518,19 +11805,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="26">J141*L141</f>
-        <v>1092</v>
+        <v>1083.53</v>
       </c>
       <c r="N141" s="24">
         <f t="shared" si="25"/>
-        <v>1.9122546686451893E-2</v>
+        <v>1.1217814112794077E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>20.490000000000066</v>
+        <v>12.019999999999982</v>
       </c>
       <c r="P141" s="24">
         <f t="shared" si="24"/>
-        <v>5.3937227439803809E-3</v>
+        <v>5.1506904847775526E-3</v>
       </c>
       <c r="Q141" s="84" t="s">
         <v>106</v>
@@ -11563,7 +11850,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>112.35</v>
+        <v>109.9</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -11573,19 +11860,19 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="26"/>
-        <v>1123.5</v>
+        <v>1099</v>
       </c>
       <c r="N142" s="24">
         <f t="shared" si="25"/>
-        <v>2.7707393821864018E-2</v>
+        <v>5.2963291590820407E-3</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>30.289999999999964</v>
+        <v>5.7900000000000773</v>
       </c>
       <c r="P142" s="24">
         <f t="shared" si="24"/>
-        <v>5.5493109000567383E-3</v>
+        <v>5.2242289948321976E-3</v>
       </c>
       <c r="Q142" s="84" t="s">
         <v>106</v>
@@ -11863,7 +12150,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>109.13200000000001</v>
+        <v>108.498</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -11873,19 +12160,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="26"/>
-        <v>1091.3200000000002</v>
+        <v>1084.98</v>
       </c>
       <c r="N148" s="24">
         <f t="shared" si="25"/>
-        <v>2.8790135560625218E-2</v>
+        <v>2.2813401459303547E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="27"/>
-        <v>30.54000000000002</v>
+        <v>24.200000000000017</v>
       </c>
       <c r="P148" s="24">
         <f t="shared" si="24"/>
-        <v>5.3903640155317494E-3</v>
+        <v>5.1575832345887506E-3</v>
       </c>
       <c r="Q148" s="84" t="s">
         <v>106</v>
@@ -11918,7 +12205,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>106.751</v>
+        <v>106.443</v>
       </c>
       <c r="K149" s="81">
         <v>107.70699999999999</v>
@@ -11928,19 +12215,19 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="26"/>
-        <v>2135.02</v>
+        <v>2128.86</v>
       </c>
       <c r="N149" s="24">
         <f t="shared" si="25"/>
-        <v>-8.8759319264299346E-3</v>
+        <v>-1.1735541793940931E-2</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="27"/>
-        <v>-19.119999999999777</v>
+        <v>-25.279999999999916</v>
       </c>
       <c r="P149" s="24">
         <f t="shared" si="24"/>
-        <v>1.0545518253528383E-2</v>
+        <v>1.0119792664184233E-2</v>
       </c>
       <c r="Q149" s="84" t="s">
         <v>106</v>
@@ -12069,7 +12356,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>107.76</v>
+        <v>106.7</v>
       </c>
       <c r="K152" s="12">
         <v>110.36499999999999</v>
@@ -12079,19 +12366,19 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="26"/>
-        <v>3232.8</v>
+        <v>3201</v>
       </c>
       <c r="N152" s="24">
         <f t="shared" si="25"/>
-        <v>-2.3603497485615819E-2</v>
+        <v>-3.3207991664023849E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="28">(J152-K152)*L152</f>
-        <v>-78.149999999999693</v>
+        <v>-109.94999999999976</v>
       </c>
       <c r="P152" s="24">
         <f t="shared" si="24"/>
-        <v>1.596779018932214E-2</v>
+        <v>1.5216339410789684E-2</v>
       </c>
       <c r="Q152" s="84" t="s">
         <v>132</v>
@@ -12323,7 +12610,7 @@
         <v>66</v>
       </c>
       <c r="J157" s="12">
-        <v>109.072</v>
+        <v>108.23</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -12333,19 +12620,19 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="26"/>
-        <v>1090.72</v>
+        <v>1082.3</v>
       </c>
       <c r="N157" s="24">
         <f t="shared" si="25"/>
-        <v>-1.6500137501146469E-4</v>
+        <v>-7.8833990283252303E-3</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="28"/>
-        <v>-0.18000000000000682</v>
+        <v>-8.5999999999999943</v>
       </c>
       <c r="P157" s="24">
         <f t="shared" si="24"/>
-        <v>5.3874004316064846E-3</v>
+        <v>5.1448435314894328E-3</v>
       </c>
       <c r="Q157" s="84" t="s">
         <v>136</v>
@@ -12429,7 +12716,7 @@
         <v>66</v>
       </c>
       <c r="J159" s="12">
-        <v>111.53</v>
+        <v>114.6</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -12439,19 +12726,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="26"/>
-        <v>1115.3</v>
+        <v>1146</v>
       </c>
       <c r="N159" s="24">
         <f t="shared" si="25"/>
-        <v>3.6100479357883353E-2</v>
+        <v>6.4620415443498835E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="28"/>
-        <v>38.859999999999957</v>
+        <v>69.559999999999889</v>
       </c>
       <c r="P159" s="24">
         <f t="shared" si="24"/>
-        <v>5.5088085864114641E-3</v>
+        <v>5.4476491611262041E-3</v>
       </c>
       <c r="Q159" s="84"/>
       <c r="S159" s="25"/>
@@ -12629,7 +12916,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>110.31399999999999</v>
+        <v>109.194</v>
       </c>
       <c r="K163" s="12">
         <v>109.07</v>
@@ -12639,19 +12926,19 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="26"/>
-        <v>1103.1399999999999</v>
+        <v>1091.94</v>
       </c>
       <c r="N163" s="24">
         <f t="shared" si="25"/>
-        <v>1.1405519391216649E-2</v>
+        <v>1.1368845695425823E-3</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="28"/>
-        <v>12.439999999999998</v>
+        <v>1.2400000000000944</v>
       </c>
       <c r="P163" s="24">
         <f t="shared" ref="P163:P179" si="30">M163/$M$352</f>
-        <v>5.448746618859448E-3</v>
+        <v>5.1906684336825021E-3</v>
       </c>
       <c r="Q163" s="84" t="s">
         <v>106</v>
@@ -12928,29 +13215,29 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>106.867</v>
+        <v>105.55</v>
       </c>
       <c r="K169" s="12">
-        <v>106.307</v>
+        <v>105.581</v>
       </c>
       <c r="L169" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M169" s="11">
         <f t="shared" si="26"/>
-        <v>2137.34</v>
+        <v>3166.5</v>
       </c>
       <c r="N169" s="24">
         <f t="shared" si="31"/>
-        <v>5.2677622357888212E-3</v>
+        <v>-2.9361343423538243E-4</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="32"/>
-        <v>11.200000000000045</v>
+        <v>-0.93000000000017735</v>
       </c>
       <c r="P169" s="24">
         <f t="shared" si="30"/>
-        <v>1.0556977444706071E-2</v>
+        <v>1.5052339501488765E-2</v>
       </c>
       <c r="Q169" s="84" t="s">
         <v>106</v>
@@ -13034,7 +13321,7 @@
         <v>66</v>
       </c>
       <c r="J171" s="12">
-        <v>107.61199999999999</v>
+        <v>105</v>
       </c>
       <c r="K171" s="12">
         <v>109.006</v>
@@ -13044,19 +13331,19 @@
       </c>
       <c r="M171" s="11">
         <f t="shared" si="26"/>
-        <v>2152.2399999999998</v>
+        <v>2100</v>
       </c>
       <c r="N171" s="24">
         <f t="shared" si="31"/>
-        <v>-1.2788286883290877E-2</v>
+        <v>-3.6750270627304918E-2</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="32"/>
-        <v>-27.880000000000109</v>
+        <v>-80.12</v>
       </c>
       <c r="P171" s="24">
         <f t="shared" si="30"/>
-        <v>1.0630573112183456E-2</v>
+        <v>9.9826031748385929E-3</v>
       </c>
       <c r="Q171" s="84" t="s">
         <v>106</v>
@@ -13091,7 +13378,7 @@
         <v>66</v>
       </c>
       <c r="J172" s="12">
-        <v>111.855</v>
+        <v>109.92</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -13101,19 +13388,19 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="26"/>
-        <v>2237.1</v>
+        <v>2198.4</v>
       </c>
       <c r="N172" s="24">
         <f t="shared" si="31"/>
-        <v>2.7370838117106812E-2</v>
+        <v>9.5981630309988682E-3</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="32"/>
-        <v>59.60000000000008</v>
+        <v>20.900000000000034</v>
       </c>
       <c r="P172" s="24">
         <f t="shared" si="30"/>
-        <v>1.1049722665346621E-2</v>
+        <v>1.0450359437888173E-2</v>
       </c>
       <c r="Q172" s="84" t="s">
         <v>106</v>
@@ -13344,7 +13631,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>108.172</v>
+        <v>108.509</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -13354,19 +13641,19 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="33"/>
-        <v>1081.72</v>
+        <v>1085.0899999999999</v>
       </c>
       <c r="N177" s="24">
         <f t="shared" si="31"/>
-        <v>-1.3479252165982751E-2</v>
+        <v>-1.0405836753306022E-2</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="32"/>
-        <v>-14.780000000000086</v>
+        <v>-11.410000000000053</v>
       </c>
       <c r="P177" s="24">
         <f t="shared" si="30"/>
-        <v>5.3429466727275259E-3</v>
+        <v>5.1581061328502898E-3</v>
       </c>
       <c r="Q177" s="84" t="s">
         <v>150</v>
@@ -13448,7 +13735,7 @@
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="12">
-        <v>111.68300000000001</v>
+        <v>110.554</v>
       </c>
       <c r="K179" s="12">
         <v>115.111</v>
@@ -13458,19 +13745,19 @@
       </c>
       <c r="M179" s="11">
         <f t="shared" si="33"/>
-        <v>4467.3200000000006</v>
+        <v>4422.16</v>
       </c>
       <c r="N179" s="24">
         <f t="shared" si="31"/>
-        <v>-2.9779951525049711E-2</v>
+        <v>-3.9587876050073426E-2</v>
       </c>
       <c r="O179" s="11">
         <f t="shared" si="32"/>
-        <v>-137.11999999999989</v>
+        <v>-182.28000000000009</v>
       </c>
       <c r="P179" s="24">
         <f t="shared" si="30"/>
-        <v>2.2065462901683552E-2</v>
+        <v>2.102127069316392E-2</v>
       </c>
       <c r="Q179" s="84" t="s">
         <v>152</v>
@@ -13703,7 +13990,7 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>116.916</v>
+        <v>115.152</v>
       </c>
       <c r="K184" s="12">
         <v>108.65600000000001</v>
@@ -13713,19 +14000,19 @@
       </c>
       <c r="M184" s="11">
         <f t="shared" si="33"/>
-        <v>1169.1599999999999</v>
+        <v>1151.52</v>
       </c>
       <c r="N184" s="24">
         <f t="shared" si="31"/>
-        <v>7.6019731998232865E-2</v>
+        <v>5.9785009571491632E-2</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="32"/>
-        <v>82.599999999999909</v>
+        <v>64.959999999999951</v>
       </c>
       <c r="P184" s="24">
         <f t="shared" si="34"/>
-        <v>5.7748396367693243E-3</v>
+        <v>5.4738891466143509E-3</v>
       </c>
       <c r="Q184" s="84" t="s">
         <v>158</v>
@@ -14739,7 +15026,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>108.96899999999999</v>
+        <v>107.69799999999999</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -14749,19 +15036,19 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="37">J205*L205</f>
-        <v>2179.38</v>
+        <v>2153.96</v>
       </c>
       <c r="N205" s="24">
         <f t="shared" si="36"/>
-        <v>3.212954633080268E-4</v>
+        <v>-1.1346319789964605E-2</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="32"/>
-        <v>0.69999999999993179</v>
+        <v>-24.720000000000084</v>
       </c>
       <c r="P205" s="24">
         <f t="shared" si="34"/>
-        <v>1.076462589173623E-2</v>
+        <v>1.0239108540226352E-2</v>
       </c>
       <c r="Q205" s="118" t="s">
         <v>165</v>
@@ -14992,7 +15279,7 @@
         <v>52</v>
       </c>
       <c r="J210" s="12">
-        <v>111.845</v>
+        <v>106.968</v>
       </c>
       <c r="K210" s="13">
         <v>115.53</v>
@@ -15002,19 +15289,19 @@
       </c>
       <c r="M210" s="11">
         <f t="shared" si="37"/>
-        <v>1118.45</v>
+        <v>1069.68</v>
       </c>
       <c r="N210" s="24">
         <f t="shared" si="36"/>
-        <v>-3.1896477105513736E-2</v>
+        <v>-7.4110620618021275E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="32"/>
-        <v>-36.850000000000023</v>
+        <v>-85.619999999999976</v>
       </c>
       <c r="P210" s="24">
         <f t="shared" si="34"/>
-        <v>5.5243674020191008E-3</v>
+        <v>5.0848528400292128E-3</v>
       </c>
       <c r="Q210" s="133" t="s">
         <v>169</v>
@@ -15436,7 +15723,7 @@
         <v>105.901</v>
       </c>
       <c r="H219" s="14">
-        <f t="shared" ref="H219:H260" si="42">F219*G219</f>
+        <f t="shared" ref="H219:H262" si="42">F219*G219</f>
         <v>1059.01</v>
       </c>
       <c r="I219" s="15" t="s">
@@ -15735,7 +16022,7 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>107.798</v>
+        <v>107.511</v>
       </c>
       <c r="K225" s="12">
         <v>108.65</v>
@@ -15745,19 +16032,19 @@
       </c>
       <c r="M225" s="11">
         <f t="shared" si="37"/>
-        <v>2155.96</v>
+        <v>2150.2199999999998</v>
       </c>
       <c r="N225" s="24">
         <f t="shared" si="41"/>
-        <v>-7.8416935112747711E-3</v>
+        <v>-1.048320294523709E-2</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="32"/>
-        <v>-17.040000000000077</v>
+        <v>-22.7800000000002</v>
       </c>
       <c r="P225" s="24">
         <f t="shared" si="40"/>
-        <v>1.0648947332520094E-2</v>
+        <v>1.0221329999334018E-2</v>
       </c>
       <c r="Q225" s="135" t="s">
         <v>140</v>
@@ -15907,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="Q228" s="113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S228" s="25"/>
     </row>
@@ -16021,7 +16308,7 @@
         <v>128035</v>
       </c>
       <c r="E231" s="120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F231" s="20">
         <v>10</v>
@@ -16035,7 +16322,7 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>109.15600000000001</v>
+        <v>107.75700000000001</v>
       </c>
       <c r="K231" s="12">
         <v>109.77800000000001</v>
@@ -16045,22 +16332,22 @@
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="45">J231*L231</f>
-        <v>1091.56</v>
+        <v>1077.5700000000002</v>
       </c>
       <c r="N231" s="24">
         <f t="shared" ref="N231:N245" si="46">(J231-K231)/K231</f>
-        <v>-5.6659804332379882E-3</v>
+        <v>-1.8409881761372961E-2</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="47">(J231-K231)*L231</f>
-        <v>-6.2199999999999989</v>
+        <v>-20.210000000000008</v>
       </c>
       <c r="P231" s="24">
         <f t="shared" ref="P231:P245" si="48">M231/$M$352</f>
-        <v>5.3915494491018545E-3</v>
+        <v>5.1223589062432502E-3</v>
       </c>
       <c r="Q231" s="113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S231" s="25"/>
     </row>
@@ -16114,52 +16401,52 @@
       <c r="S232" s="25"/>
     </row>
     <row r="233" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="144">
+      <c r="B233" s="143">
         <v>232</v>
       </c>
-      <c r="C233" s="145">
+      <c r="C233" s="144">
         <v>44818</v>
       </c>
-      <c r="D233" s="146">
+      <c r="D233" s="145">
         <v>118001</v>
       </c>
-      <c r="E233" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="F233" s="148">
-        <v>10</v>
-      </c>
-      <c r="G233" s="148">
+      <c r="E233" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="F233" s="147">
+        <v>10</v>
+      </c>
+      <c r="G233" s="147">
         <v>109.81100000000001</v>
       </c>
-      <c r="H233" s="149">
+      <c r="H233" s="148">
         <f t="shared" si="42"/>
         <v>1098.1100000000001</v>
       </c>
-      <c r="I233" s="150"/>
-      <c r="J233" s="150"/>
-      <c r="K233" s="150"/>
-      <c r="L233" s="150"/>
-      <c r="M233" s="149">
+      <c r="I233" s="149"/>
+      <c r="J233" s="149"/>
+      <c r="K233" s="149"/>
+      <c r="L233" s="149"/>
+      <c r="M233" s="148">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N233" s="151" t="e">
+      <c r="N233" s="150" t="e">
         <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O233" s="149">
+      <c r="O233" s="148">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="P233" s="151">
+      <c r="P233" s="150">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q233" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="S233" s="153"/>
+      <c r="Q233" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="S233" s="152"/>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
@@ -16173,7 +16460,7 @@
         <v>113054</v>
       </c>
       <c r="E234" s="120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F234" s="20">
         <v>10</v>
@@ -16187,7 +16474,7 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>107.402</v>
+        <v>107.23099999999999</v>
       </c>
       <c r="K234" s="12">
         <v>108.66500000000001</v>
@@ -16197,19 +16484,19 @@
       </c>
       <c r="M234" s="11">
         <f t="shared" si="45"/>
-        <v>2148.04</v>
+        <v>2144.62</v>
       </c>
       <c r="N234" s="24">
         <f t="shared" si="46"/>
-        <v>-1.1622877651497769E-2</v>
+        <v>-1.3196521419040276E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="47"/>
-        <v>-25.260000000000105</v>
+        <v>-28.680000000000234</v>
       </c>
       <c r="P234" s="24">
         <f t="shared" si="48"/>
-        <v>1.060982802470661E-2</v>
+        <v>1.0194709724201115E-2</v>
       </c>
       <c r="Q234" s="139"/>
       <c r="S234" s="25"/>
@@ -16273,7 +16560,7 @@
         <v>123113</v>
       </c>
       <c r="E236" s="120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F236" s="20">
         <v>10</v>
@@ -16287,7 +16574,7 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="K236" s="12">
         <v>109.255</v>
@@ -16297,19 +16584,19 @@
       </c>
       <c r="M236" s="11">
         <f t="shared" si="45"/>
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="N236" s="24">
         <f t="shared" si="46"/>
-        <v>-2.3339892911079167E-3</v>
+        <v>-1.6063338062331203E-2</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="47"/>
-        <v>-2.5499999999999545</v>
+        <v>-17.549999999999955</v>
       </c>
       <c r="P236" s="24">
         <f t="shared" si="48"/>
-        <v>5.3838441308961685E-3</v>
+        <v>5.1101421014054706E-3</v>
       </c>
       <c r="Q236" s="139"/>
       <c r="S236" s="25"/>
@@ -16326,7 +16613,7 @@
         <v>127033</v>
       </c>
       <c r="E237" s="120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F237" s="20">
         <v>10</v>
@@ -16340,7 +16627,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>108.43</v>
+        <v>108.58</v>
       </c>
       <c r="K237" s="12">
         <v>109.474</v>
@@ -16350,19 +16637,19 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="45"/>
-        <v>1084.3000000000002</v>
+        <v>1085.8</v>
       </c>
       <c r="N237" s="24">
         <f t="shared" si="46"/>
-        <v>-9.5365109523722243E-3</v>
+        <v>-8.1663225971464037E-3</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="47"/>
-        <v>-10.439999999999969</v>
+        <v>-8.9400000000000546</v>
       </c>
       <c r="P237" s="24">
         <f t="shared" si="48"/>
-        <v>5.3556900836061617E-3</v>
+        <v>5.1614812034474974E-3</v>
       </c>
       <c r="Q237" s="139"/>
       <c r="S237" s="25"/>
@@ -16426,7 +16713,7 @@
         <v>127042</v>
       </c>
       <c r="E239" s="120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F239" s="20">
         <v>10</v>
@@ -16440,7 +16727,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>107.949</v>
+        <v>111.2</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -16450,22 +16737,22 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="45"/>
-        <v>2158.98</v>
+        <v>2224</v>
       </c>
       <c r="N239" s="24">
         <f t="shared" si="46"/>
-        <v>-5.9578621680357064E-3</v>
+        <v>2.397878374894102E-2</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="47"/>
-        <v>-12.940000000000111</v>
+        <v>52.079999999999984</v>
       </c>
       <c r="P239" s="24">
         <f t="shared" si="48"/>
-        <v>1.0663864038277257E-2</v>
+        <v>1.0572052124210016E-2</v>
       </c>
       <c r="Q239" s="139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S239" s="25"/>
     </row>
@@ -16481,7 +16768,7 @@
         <v>127042</v>
       </c>
       <c r="E240" s="120" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F240" s="20">
         <v>10</v>
@@ -16515,7 +16802,7 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q240" s="108"/>
+      <c r="Q240" s="84"/>
       <c r="S240" s="25"/>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
@@ -16562,57 +16849,57 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q241" s="143"/>
+      <c r="Q241" s="84"/>
       <c r="S241" s="25"/>
     </row>
     <row r="242" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="108">
         <v>241</v>
       </c>
-      <c r="C242" s="145">
+      <c r="C242" s="144">
         <v>44824</v>
       </c>
-      <c r="D242" s="146">
+      <c r="D242" s="145">
         <v>118001</v>
       </c>
-      <c r="E242" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="F242" s="148">
+      <c r="E242" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="F242" s="147">
         <v>-10</v>
       </c>
-      <c r="G242" s="148">
+      <c r="G242" s="147">
         <v>109.9</v>
       </c>
-      <c r="H242" s="149">
+      <c r="H242" s="148">
         <f t="shared" si="42"/>
         <v>-1099</v>
       </c>
-      <c r="I242" s="150" t="s">
+      <c r="I242" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="J242" s="150"/>
-      <c r="K242" s="150"/>
-      <c r="L242" s="150"/>
-      <c r="M242" s="149">
+      <c r="J242" s="149"/>
+      <c r="K242" s="149"/>
+      <c r="L242" s="149"/>
+      <c r="M242" s="148">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N242" s="151" t="e">
+      <c r="N242" s="150" t="e">
         <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O242" s="149">
+      <c r="O242" s="148">
         <v>0.39</v>
       </c>
-      <c r="P242" s="151">
+      <c r="P242" s="150">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q242" s="152" t="s">
-        <v>198</v>
-      </c>
-      <c r="S242" s="153"/>
+      <c r="Q242" s="151" t="s">
+        <v>197</v>
+      </c>
+      <c r="S242" s="152"/>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
@@ -16658,7 +16945,7 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q243" s="143"/>
+      <c r="Q243" s="84"/>
       <c r="S243" s="25"/>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
@@ -16673,7 +16960,7 @@
         <v>113054</v>
       </c>
       <c r="E244" s="120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F244" s="20">
         <v>10</v>
@@ -16705,11 +16992,11 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q244" s="143"/>
+      <c r="Q244" s="84"/>
       <c r="S244" s="25"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B245" s="161">
+      <c r="B245" s="160">
         <v>244</v>
       </c>
       <c r="C245" s="30">
@@ -16719,7 +17006,7 @@
         <v>127025</v>
       </c>
       <c r="E245" s="120" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="F245" s="20">
         <v>10</v>
@@ -16733,7 +17020,7 @@
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="12">
-        <v>108.155</v>
+        <v>106.55</v>
       </c>
       <c r="K245" s="12">
         <v>108.16</v>
@@ -16743,25 +17030,25 @@
       </c>
       <c r="M245" s="11">
         <f t="shared" si="45"/>
-        <v>1081.55</v>
+        <v>1065.5</v>
       </c>
       <c r="N245" s="24">
         <f t="shared" si="46"/>
-        <v>-4.6227810650845533E-5</v>
+        <v>-1.4885355029585793E-2</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="47"/>
-        <v>-4.9999999999954525E-2</v>
+        <v>-16.099999999999994</v>
       </c>
       <c r="P245" s="24">
         <f t="shared" si="48"/>
-        <v>5.3421069906153676E-3</v>
+        <v>5.0649827060907241E-3</v>
       </c>
       <c r="Q245" s="84"/>
       <c r="S245" s="25"/>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B246" s="161">
+      <c r="B246" s="160">
         <v>245</v>
       </c>
       <c r="C246" s="30">
@@ -16807,103 +17094,103 @@
       <c r="S246" s="25"/>
     </row>
     <row r="247" spans="1:19" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="159"/>
-      <c r="B247" s="161">
+      <c r="A247" s="158"/>
+      <c r="B247" s="160">
         <v>246</v>
       </c>
-      <c r="C247" s="145">
+      <c r="C247" s="144">
         <v>44830</v>
       </c>
-      <c r="D247" s="146">
+      <c r="D247" s="145">
         <v>110038</v>
       </c>
-      <c r="E247" s="147" t="s">
-        <v>231</v>
-      </c>
-      <c r="F247" s="148">
-        <v>10</v>
-      </c>
-      <c r="G247" s="148">
+      <c r="E247" s="146" t="s">
+        <v>200</v>
+      </c>
+      <c r="F247" s="147">
+        <v>10</v>
+      </c>
+      <c r="G247" s="147">
         <v>107.821</v>
       </c>
-      <c r="H247" s="149">
+      <c r="H247" s="148">
         <f t="shared" si="42"/>
         <v>1078.21</v>
       </c>
-      <c r="I247" s="150"/>
-      <c r="J247" s="150"/>
-      <c r="K247" s="150"/>
-      <c r="L247" s="150"/>
-      <c r="M247" s="149">
+      <c r="I247" s="149"/>
+      <c r="J247" s="149"/>
+      <c r="K247" s="149"/>
+      <c r="L247" s="149"/>
+      <c r="M247" s="148">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="N247" s="151" t="e">
+      <c r="N247" s="150" t="e">
         <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O247" s="149">
+      <c r="O247" s="148">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="P247" s="151">
+      <c r="P247" s="150">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="Q247" s="160" t="s">
-        <v>232</v>
-      </c>
-      <c r="S247" s="153"/>
+      <c r="Q247" s="159" t="s">
+        <v>201</v>
+      </c>
+      <c r="S247" s="152"/>
     </row>
     <row r="248" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="159"/>
-      <c r="B248" s="161">
+      <c r="A248" s="158"/>
+      <c r="B248" s="160">
         <v>247</v>
       </c>
-      <c r="C248" s="145">
+      <c r="C248" s="144">
         <v>44831</v>
       </c>
-      <c r="D248" s="146">
+      <c r="D248" s="145">
         <v>110038</v>
       </c>
-      <c r="E248" s="147" t="s">
-        <v>231</v>
-      </c>
-      <c r="F248" s="148">
+      <c r="E248" s="146" t="s">
+        <v>200</v>
+      </c>
+      <c r="F248" s="147">
         <v>-10</v>
       </c>
-      <c r="G248" s="148">
+      <c r="G248" s="147">
         <v>108.11199999999999</v>
       </c>
-      <c r="H248" s="149">
+      <c r="H248" s="148">
         <f t="shared" si="42"/>
         <v>-1081.1199999999999</v>
       </c>
-      <c r="I248" s="150" t="s">
+      <c r="I248" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="J248" s="150"/>
-      <c r="K248" s="150"/>
-      <c r="L248" s="150"/>
-      <c r="M248" s="149">
+      <c r="J248" s="149"/>
+      <c r="K248" s="149"/>
+      <c r="L248" s="149"/>
+      <c r="M248" s="148">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="N248" s="151">
-        <v>0</v>
-      </c>
-      <c r="O248" s="149">
+      <c r="N248" s="150">
+        <v>0</v>
+      </c>
+      <c r="O248" s="148">
         <v>2.41</v>
       </c>
-      <c r="P248" s="151">
+      <c r="P248" s="150">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="Q248" s="160"/>
-      <c r="S248" s="153"/>
+      <c r="Q248" s="159"/>
+      <c r="S248" s="152"/>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B249" s="161">
+      <c r="B249" s="160">
         <v>248</v>
       </c>
       <c r="C249" s="30">
@@ -16951,7 +17238,7 @@
       <c r="S249" s="25"/>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B250" s="161">
+      <c r="B250" s="160">
         <v>249</v>
       </c>
       <c r="C250" s="30">
@@ -16999,7 +17286,7 @@
       <c r="S250" s="25"/>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B251" s="161">
+      <c r="B251" s="160">
         <v>250</v>
       </c>
       <c r="C251" s="30">
@@ -17047,97 +17334,139 @@
       <c r="S251" s="25"/>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B252" s="161">
+      <c r="B252" s="107">
         <v>251</v>
       </c>
-      <c r="C252" s="30"/>
+      <c r="C252" s="30">
+        <v>44844</v>
+      </c>
       <c r="D252" s="31">
-        <v>0</v>
-      </c>
-      <c r="E252" s="120"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
+        <v>113633</v>
+      </c>
+      <c r="E252" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="F252" s="20">
+        <v>10</v>
+      </c>
+      <c r="G252" s="20">
+        <v>109.32</v>
+      </c>
       <c r="H252" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1093.1999999999998</v>
       </c>
       <c r="I252" s="15"/>
-      <c r="J252" s="12"/>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
+      <c r="J252" s="12">
+        <v>109.122</v>
+      </c>
+      <c r="K252" s="12">
+        <v>109.35</v>
+      </c>
+      <c r="L252" s="12">
+        <v>10</v>
+      </c>
       <c r="M252" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N252" s="24" t="e">
+        <v>1091.22</v>
+      </c>
+      <c r="N252" s="24">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+        <v>-2.0850480109738862E-3</v>
       </c>
       <c r="O252" s="11">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>-2.2799999999999443</v>
       </c>
       <c r="P252" s="24">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Q252" s="84"/>
+        <v>5.1872458268797002E-3</v>
+      </c>
+      <c r="Q252" s="84" t="s">
+        <v>106</v>
+      </c>
       <c r="S252" s="25"/>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B253" s="161">
+      <c r="B253" s="107">
         <v>252</v>
       </c>
-      <c r="C253" s="30"/>
+      <c r="C253" s="30">
+        <v>44844</v>
+      </c>
       <c r="D253" s="31">
-        <v>0</v>
-      </c>
-      <c r="E253" s="120"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
+        <v>123129</v>
+      </c>
+      <c r="E253" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="F253" s="20">
+        <v>10</v>
+      </c>
+      <c r="G253" s="20">
+        <v>109.361</v>
+      </c>
       <c r="H253" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1093.6100000000001</v>
       </c>
       <c r="I253" s="15"/>
-      <c r="J253" s="12"/>
-      <c r="K253" s="12"/>
-      <c r="L253" s="12"/>
+      <c r="J253" s="12">
+        <v>110.49</v>
+      </c>
+      <c r="K253" s="12">
+        <v>109.39100000000001</v>
+      </c>
+      <c r="L253" s="12">
+        <v>10</v>
+      </c>
       <c r="M253" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N253" s="24" t="e">
+        <v>1104.8999999999999</v>
+      </c>
+      <c r="N253" s="24">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+        <v>1.0046530336133589E-2</v>
       </c>
       <c r="O253" s="11">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>10.989999999999895</v>
       </c>
       <c r="P253" s="24">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Q253" s="84"/>
+        <v>5.2522753561329337E-3</v>
+      </c>
+      <c r="Q253" s="84" t="s">
+        <v>106</v>
+      </c>
       <c r="S253" s="25"/>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B254" s="161">
+      <c r="B254" s="107">
         <v>253</v>
       </c>
-      <c r="C254" s="30"/>
+      <c r="C254" s="30">
+        <v>44845</v>
+      </c>
       <c r="D254" s="31">
-        <v>0</v>
-      </c>
-      <c r="E254" s="120"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="20"/>
+        <v>127034</v>
+      </c>
+      <c r="E254" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="F254" s="20">
+        <v>10</v>
+      </c>
+      <c r="G254" s="20">
+        <v>104.1</v>
+      </c>
       <c r="H254" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I254" s="15"/>
+        <v>1041</v>
+      </c>
+      <c r="I254" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="J254" s="12"/>
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
@@ -17164,56 +17493,82 @@
       <c r="B255" s="161">
         <v>254</v>
       </c>
-      <c r="C255" s="30"/>
+      <c r="C255" s="30">
+        <v>44852</v>
+      </c>
       <c r="D255" s="31">
-        <v>0</v>
-      </c>
-      <c r="E255" s="120"/>
-      <c r="F255" s="20"/>
-      <c r="G255" s="20"/>
+        <v>113013</v>
+      </c>
+      <c r="E255" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="F255" s="20">
+        <v>10</v>
+      </c>
+      <c r="G255" s="20">
+        <v>108.06</v>
+      </c>
       <c r="H255" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1080.5999999999999</v>
       </c>
       <c r="I255" s="15"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="12"/>
+      <c r="J255" s="12">
+        <v>105.935</v>
+      </c>
+      <c r="K255" s="12">
+        <v>107.008</v>
+      </c>
+      <c r="L255" s="12">
+        <v>20</v>
+      </c>
       <c r="M255" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N255" s="24" t="e">
+        <v>2118.6999999999998</v>
+      </c>
+      <c r="N255" s="24">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+        <v>-1.0027287679425775E-2</v>
       </c>
       <c r="O255" s="11">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>-21.459999999999866</v>
       </c>
       <c r="P255" s="24">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="Q255" s="84"/>
+        <v>1.007149587930025E-2</v>
+      </c>
+      <c r="Q255" s="84" t="s">
+        <v>106</v>
+      </c>
       <c r="S255" s="25"/>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B256" s="161">
         <v>255</v>
       </c>
-      <c r="C256" s="30"/>
+      <c r="C256" s="30">
+        <v>44855</v>
+      </c>
       <c r="D256" s="31">
-        <v>0</v>
-      </c>
-      <c r="E256" s="120"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="20"/>
+        <v>123128</v>
+      </c>
+      <c r="E256" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="F256" s="20">
+        <v>10</v>
+      </c>
+      <c r="G256" s="20">
+        <v>104.036</v>
+      </c>
       <c r="H256" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I256" s="15"/>
+        <v>1040.3600000000001</v>
+      </c>
+      <c r="I256" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J256" s="12"/>
       <c r="K256" s="12"/>
       <c r="L256" s="12"/>
@@ -17237,21 +17592,31 @@
       <c r="S256" s="25"/>
     </row>
     <row r="257" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B257" s="161">
+      <c r="B257" s="162">
         <v>256</v>
       </c>
-      <c r="C257" s="30"/>
+      <c r="C257" s="30">
+        <v>44858</v>
+      </c>
       <c r="D257" s="31">
-        <v>0</v>
-      </c>
-      <c r="E257" s="120"/>
-      <c r="F257" s="20"/>
-      <c r="G257" s="20"/>
+        <v>113013</v>
+      </c>
+      <c r="E257" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="F257" s="20">
+        <v>10</v>
+      </c>
+      <c r="G257" s="20">
+        <v>105.916</v>
+      </c>
       <c r="H257" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I257" s="15"/>
+        <v>1059.1599999999999</v>
+      </c>
+      <c r="I257" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J257" s="12"/>
       <c r="K257" s="12"/>
       <c r="L257" s="12"/>
@@ -17275,59 +17640,83 @@
       <c r="S257" s="25"/>
     </row>
     <row r="258" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B258" s="114">
+      <c r="B258" s="162">
         <v>257</v>
       </c>
-      <c r="C258" s="30"/>
+      <c r="C258" s="30">
+        <v>44859</v>
+      </c>
       <c r="D258" s="31">
-        <v>0</v>
-      </c>
-      <c r="E258" s="120"/>
-      <c r="F258" s="20"/>
-      <c r="G258" s="20"/>
+        <v>128072</v>
+      </c>
+      <c r="E258" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="F258" s="20">
+        <v>10</v>
+      </c>
+      <c r="G258" s="20">
+        <v>108.98399999999999</v>
+      </c>
       <c r="H258" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1089.8399999999999</v>
       </c>
       <c r="I258" s="15"/>
-      <c r="J258" s="12"/>
-      <c r="K258" s="12"/>
-      <c r="L258" s="12"/>
+      <c r="J258" s="12">
+        <v>109.1</v>
+      </c>
+      <c r="K258" s="12">
+        <v>109.014</v>
+      </c>
+      <c r="L258" s="12">
+        <v>10</v>
+      </c>
       <c r="M258" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N258" s="24" t="e">
+        <v>1091</v>
+      </c>
+      <c r="N258" s="24">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+        <v>7.8888950043112371E-4</v>
       </c>
       <c r="O258" s="11">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.85999999999998522</v>
       </c>
       <c r="P258" s="24">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5.1862000303566219E-3</v>
       </c>
       <c r="Q258" s="84"/>
       <c r="S258" s="25"/>
     </row>
     <row r="259" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B259" s="114">
+      <c r="B259" s="162">
         <v>258</v>
       </c>
-      <c r="C259" s="30"/>
+      <c r="C259" s="30">
+        <v>44860</v>
+      </c>
       <c r="D259" s="31">
-        <v>0</v>
-      </c>
-      <c r="E259" s="120"/>
-      <c r="F259" s="20"/>
-      <c r="G259" s="20"/>
+        <v>128114</v>
+      </c>
+      <c r="E259" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F259" s="20">
+        <v>10</v>
+      </c>
+      <c r="G259" s="20">
+        <v>98.009</v>
+      </c>
       <c r="H259" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I259" s="15"/>
+        <v>980.09</v>
+      </c>
+      <c r="I259" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="J259" s="12"/>
       <c r="K259" s="12"/>
       <c r="L259" s="12"/>
@@ -17351,21 +17740,31 @@
       <c r="S259" s="25"/>
     </row>
     <row r="260" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B260" s="114">
+      <c r="B260" s="162">
         <v>259</v>
       </c>
-      <c r="C260" s="30"/>
+      <c r="C260" s="30">
+        <v>44861</v>
+      </c>
       <c r="D260" s="31">
-        <v>0</v>
-      </c>
-      <c r="E260" s="120"/>
-      <c r="F260" s="20"/>
-      <c r="G260" s="20"/>
+        <v>128114</v>
+      </c>
+      <c r="E260" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F260" s="20">
+        <v>10</v>
+      </c>
+      <c r="G260" s="20">
+        <v>95.533000000000001</v>
+      </c>
       <c r="H260" s="14">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="I260" s="15"/>
+        <v>955.33</v>
+      </c>
+      <c r="I260" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J260" s="12"/>
       <c r="K260" s="12"/>
       <c r="L260" s="12"/>
@@ -17389,18 +17788,31 @@
       <c r="S260" s="25"/>
     </row>
     <row r="261" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B261" s="114">
+      <c r="B261" s="116">
         <v>260</v>
       </c>
-      <c r="C261" s="30"/>
+      <c r="C261" s="30">
+        <v>44862</v>
+      </c>
       <c r="D261" s="31">
-        <v>0</v>
-      </c>
-      <c r="E261" s="120"/>
-      <c r="F261" s="20"/>
-      <c r="G261" s="20"/>
-      <c r="H261" s="14"/>
-      <c r="I261" s="15"/>
+        <v>128114</v>
+      </c>
+      <c r="E261" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F261" s="20">
+        <v>10</v>
+      </c>
+      <c r="G261" s="20">
+        <v>93.6</v>
+      </c>
+      <c r="H261" s="14">
+        <f t="shared" si="42"/>
+        <v>936</v>
+      </c>
+      <c r="I261" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J261" s="12"/>
       <c r="K261" s="12"/>
       <c r="L261" s="12"/>
@@ -17424,36 +17836,53 @@
       <c r="S261" s="25"/>
     </row>
     <row r="262" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B262" s="114">
+      <c r="B262" s="116">
         <v>261</v>
       </c>
-      <c r="C262" s="30"/>
+      <c r="C262" s="30">
+        <v>44862</v>
+      </c>
       <c r="D262" s="31">
-        <v>0</v>
-      </c>
-      <c r="E262" s="120"/>
-      <c r="F262" s="20"/>
-      <c r="G262" s="20"/>
-      <c r="H262" s="14"/>
+        <v>127061</v>
+      </c>
+      <c r="E262" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="F262" s="20">
+        <v>10</v>
+      </c>
+      <c r="G262" s="20">
+        <v>108.011</v>
+      </c>
+      <c r="H262" s="14">
+        <f t="shared" si="42"/>
+        <v>1080.1099999999999</v>
+      </c>
       <c r="I262" s="15"/>
-      <c r="J262" s="12"/>
-      <c r="K262" s="12"/>
-      <c r="L262" s="12"/>
+      <c r="J262" s="12">
+        <v>108.4</v>
+      </c>
+      <c r="K262" s="12">
+        <v>108.041</v>
+      </c>
+      <c r="L262" s="12">
+        <v>10</v>
+      </c>
       <c r="M262" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N262" s="24" t="e">
+        <v>1084</v>
+      </c>
+      <c r="N262" s="24">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+        <v>3.3228126359438441E-3</v>
       </c>
       <c r="O262" s="11">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3.5900000000000887</v>
       </c>
       <c r="P262" s="24">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5.1529246864404927E-3</v>
       </c>
       <c r="Q262" s="84"/>
       <c r="S262" s="25"/>
@@ -19263,12 +19692,12 @@
       <c r="E352" s="120"/>
       <c r="F352" s="20">
         <f>SUM(F3:F351)</f>
-        <v>1910</v>
+        <v>2020</v>
       </c>
       <c r="G352" s="20"/>
       <c r="H352" s="14">
         <f>SUM(H3:H351)</f>
-        <v>188978.81999999998</v>
+        <v>200428.11999999994</v>
       </c>
       <c r="I352" s="15"/>
       <c r="J352" s="12">
@@ -19277,19 +19706,19 @@
       <c r="K352" s="12"/>
       <c r="L352" s="12">
         <f>SUM(L3:L351)</f>
-        <v>1900</v>
+        <v>2010</v>
       </c>
       <c r="M352" s="11">
         <f>SUM(M3:M351)</f>
-        <v>202457.56999999998</v>
+        <v>210365.96999999997</v>
       </c>
       <c r="N352" s="24">
         <f>O352/M352</f>
-        <v>4.969011531650807E-2</v>
+        <v>3.0976540549785676E-2</v>
       </c>
       <c r="O352" s="11">
         <f>SUM(O3:O351)</f>
-        <v>10060.140000000003</v>
+        <v>6516.4099999999962</v>
       </c>
       <c r="P352" s="24"/>
       <c r="Q352" s="84"/>
@@ -19409,10 +19838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8963A-C8D0-4542-8EAA-DE8EB04670D4}">
-  <dimension ref="B2:Q42"/>
+  <dimension ref="B2:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19421,22 +19850,22 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="178">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="180">
         <v>44805</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="182"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="115" t="s">
         <v>173</v>
       </c>
@@ -19462,7 +19891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="115">
         <f>0.985</f>
         <v>0.98499999999999999</v>
@@ -19494,7 +19923,7 @@
         <v>142.857</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="115">
         <f>$B$4</f>
         <v>0.98499999999999999</v>
@@ -19526,7 +19955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="115">
         <f t="shared" ref="B6" si="1">$B$4</f>
         <v>0.98499999999999999</v>
@@ -19557,11 +19986,8 @@
       <c r="I6" s="115">
         <v>132</v>
       </c>
-      <c r="M6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="115">
         <f>0.986</f>
         <v>0.98599999999999999</v>
@@ -19592,11 +20018,8 @@
       <c r="I7" s="115">
         <v>130</v>
       </c>
-      <c r="M7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="115">
         <f t="shared" ref="B8:B9" si="3">0.986</f>
         <v>0.98599999999999999</v>
@@ -19627,11 +20050,8 @@
       <c r="I8" s="115">
         <v>127.65</v>
       </c>
-      <c r="M8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="115">
         <f t="shared" si="3"/>
         <v>0.98599999999999999</v>
@@ -19662,11 +20082,8 @@
       <c r="I9" s="115">
         <v>125.77</v>
       </c>
-      <c r="M9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="115">
         <f>0.987</f>
         <v>0.98699999999999999</v>
@@ -19697,11 +20114,8 @@
       <c r="I10" s="115">
         <v>123.9</v>
       </c>
-      <c r="M10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="115">
         <f t="shared" ref="B11:B12" si="4">0.987</f>
         <v>0.98699999999999999</v>
@@ -19732,11 +20146,8 @@
       <c r="I11" s="115">
         <v>122.08</v>
       </c>
-      <c r="M11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="115">
         <f t="shared" si="4"/>
         <v>0.98699999999999999</v>
@@ -19767,11 +20178,8 @@
       <c r="I12" s="115">
         <v>119.5</v>
       </c>
-      <c r="M12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="115">
         <f>0.99</f>
         <v>0.99</v>
@@ -19802,11 +20210,8 @@
       <c r="I13" s="115">
         <v>117.7</v>
       </c>
-      <c r="M13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="115">
         <f>0.99</f>
         <v>0.99</v>
@@ -19837,11 +20242,8 @@
       <c r="I14" s="115">
         <v>116.01</v>
       </c>
-      <c r="M14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="115">
         <f>$B$14</f>
         <v>0.99</v>
@@ -19872,11 +20274,8 @@
       <c r="I15" s="115">
         <v>114.3</v>
       </c>
-      <c r="M15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="115">
         <f t="shared" ref="B16:B19" si="5">$B$14</f>
         <v>0.99</v>
@@ -19906,9 +20305,6 @@
       </c>
       <c r="I16" s="115">
         <v>112.65</v>
-      </c>
-      <c r="M16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -19942,9 +20338,7 @@
       <c r="I17" s="115">
         <v>110</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>221</v>
-      </c>
+      <c r="M17" s="31"/>
       <c r="N17" s="120"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
@@ -19976,9 +20370,7 @@
         <v>150</v>
       </c>
       <c r="I18" s="115"/>
-      <c r="M18" s="31" t="s">
-        <v>222</v>
-      </c>
+      <c r="M18" s="31"/>
       <c r="N18" s="120"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
@@ -20072,9 +20464,6 @@
         <v>180</v>
       </c>
       <c r="I21" s="115"/>
-      <c r="M21" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="115">
@@ -20105,8 +20494,8 @@
         <v>190</v>
       </c>
       <c r="I22" s="115"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="115">
@@ -20137,12 +20526,9 @@
         <v>200</v>
       </c>
       <c r="I23" s="115"/>
-      <c r="M23" s="155" t="s">
-        <v>200</v>
-      </c>
+      <c r="M23" s="156"/>
       <c r="N23" s="127"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
+      <c r="Q23" s="153"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="115">
@@ -20173,12 +20559,9 @@
         <v>210</v>
       </c>
       <c r="I24" s="115"/>
-      <c r="M24" s="157" t="s">
-        <v>201</v>
-      </c>
+      <c r="M24" s="156"/>
       <c r="N24" s="120"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
+      <c r="Q24" s="153"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="115">
@@ -20209,12 +20592,9 @@
         <v>220</v>
       </c>
       <c r="I25" s="115"/>
-      <c r="M25" s="157" t="s">
-        <v>202</v>
-      </c>
+      <c r="M25" s="154"/>
       <c r="N25" s="127"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
+      <c r="Q25" s="153"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="115">
@@ -20245,12 +20625,9 @@
         <v>230</v>
       </c>
       <c r="I26" s="115"/>
-      <c r="M26" s="157" t="s">
-        <v>203</v>
-      </c>
+      <c r="M26" s="156"/>
       <c r="N26" s="120"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
+      <c r="Q26" s="153"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="115">
@@ -20281,12 +20658,9 @@
         <v>240</v>
       </c>
       <c r="I27" s="115"/>
-      <c r="M27" s="157" t="s">
-        <v>204</v>
-      </c>
+      <c r="M27" s="154"/>
       <c r="N27" s="120"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
+      <c r="Q27" s="153"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="115">
@@ -20317,10 +20691,9 @@
         <v>251</v>
       </c>
       <c r="I28" s="115"/>
-      <c r="M28" s="157"/>
+      <c r="M28" s="156"/>
       <c r="N28" s="120"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
+      <c r="Q28" s="153"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="115">
@@ -20351,12 +20724,9 @@
         <v>263</v>
       </c>
       <c r="I29" s="115"/>
-      <c r="M29" s="157" t="s">
-        <v>205</v>
-      </c>
+      <c r="M29" s="154"/>
       <c r="N29" s="120"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
+      <c r="Q29" s="153"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="115">
@@ -20387,11 +20757,8 @@
         <v>276</v>
       </c>
       <c r="I30" s="115"/>
-      <c r="M30" s="158" t="s">
-        <v>206</v>
-      </c>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="154"/>
+      <c r="M30" s="157"/>
+      <c r="Q30" s="153"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="115">
@@ -20422,11 +20789,10 @@
         <v>290</v>
       </c>
       <c r="I31" s="115"/>
-      <c r="M31" s="158" t="s">
-        <v>207</v>
-      </c>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="154"/>
+      <c r="M31" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q31" s="153"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="115">
@@ -20457,11 +20823,10 @@
         <v>305</v>
       </c>
       <c r="I32" s="115"/>
-      <c r="M32" s="158" t="s">
-        <v>208</v>
-      </c>
-      <c r="P32" s="154"/>
-      <c r="Q32" s="154"/>
+      <c r="M32" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="153"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="115">
@@ -20492,11 +20857,8 @@
         <v>321</v>
       </c>
       <c r="I33" s="115"/>
-      <c r="M33" s="158" t="s">
-        <v>209</v>
-      </c>
-      <c r="P33" s="154"/>
-      <c r="Q33" s="154"/>
+      <c r="M33" s="157"/>
+      <c r="Q33" s="153"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="115">
@@ -20527,9 +20889,8 @@
         <v>338</v>
       </c>
       <c r="I34" s="115"/>
-      <c r="M34" s="158"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="154"/>
+      <c r="M34" s="157"/>
+      <c r="Q34" s="153"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="115">
@@ -20560,7 +20921,9 @@
         <v>356</v>
       </c>
       <c r="I35" s="115"/>
-      <c r="M35" s="158"/>
+      <c r="M35" s="155" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="115">
@@ -20591,9 +20954,7 @@
         <v>375</v>
       </c>
       <c r="I36" s="115"/>
-      <c r="M36" s="156" t="s">
-        <v>223</v>
-      </c>
+      <c r="M36" s="157"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="115">
@@ -20624,33 +20985,141 @@
         <v>395</v>
       </c>
       <c r="I37" s="115"/>
-      <c r="M37" s="156" t="s">
-        <v>224</v>
+      <c r="M37" s="157" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M38" t="s">
-        <v>225</v>
+      <c r="M38" s="155" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>202</v>
+      </c>
+      <c r="M43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D44" s="155" t="s">
+        <v>213</v>
+      </c>
+      <c r="M44" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="M45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+      <c r="M46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="M47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D48" s="155" t="s">
+        <v>217</v>
+      </c>
+      <c r="M48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="M49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51" s="157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="155"/>
+      <c r="F55" s="155"/>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M40" t="s">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M41" t="s">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M42" t="s">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -21488,14 +21957,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182" t="s">
+      <c r="B1" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="183"/>
+      <c r="E1" s="185"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CFD935-B5EF-45A1-907D-C2285B857252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF255C0-AFF2-4599-AD44-863BC6EC961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="228">
   <si>
     <t>收入</t>
   </si>
@@ -838,11 +838,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>负收益总数: 12，持仓个数: 67.  
-重回3000点。可选方案变少</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>===========candidate==================</t>
   </si>
   <si>
@@ -861,97 +856,55 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>127067 恒逸转2 108.501</t>
-  </si>
-  <si>
-    <t>113056 重银转债 99.217</t>
-  </si>
-  <si>
-    <t>127055 精装转债 109.295</t>
-  </si>
-  <si>
-    <t>113052 兴业转债 103.146</t>
-  </si>
-  <si>
-    <t>110081 闻泰转债 108.233</t>
-  </si>
-  <si>
-    <t>127041 弘亚转债 109.9</t>
-  </si>
-  <si>
-    <t>123117 健帆转债 109.0</t>
-  </si>
-  <si>
-    <t>113623 凤21转债 109.531</t>
-  </si>
-  <si>
-    <t>113042 上银转债 107.046</t>
-  </si>
-  <si>
-    <t>128142 新乳转债 109.566</t>
-  </si>
-  <si>
-    <t>113606 荣泰转债 109.967</t>
-  </si>
-  <si>
-    <t>127022 恒逸转债 107.45</t>
-  </si>
-  <si>
-    <t>128129 青农转债 101.473</t>
-  </si>
-  <si>
-    <t>113037 紫银转债 103.061</t>
-  </si>
-  <si>
-    <t>110067 华安转债 109.004</t>
-  </si>
-  <si>
-    <t>110059 XD浦发转 106.239</t>
-  </si>
-  <si>
-    <t>128074 游族转债 109.804</t>
-  </si>
-  <si>
-    <t>127005 长证转债 109.9</t>
-  </si>
-  <si>
-    <t>113011 光大转债 104.882</t>
-  </si>
-  <si>
-    <t>$threshold 92.81305962452802 128100 搜特转债 total: 110 现价: 91.832 成本 94.585</t>
-  </si>
-  <si>
-    <t>$$$threshold 97.118149369066 113596 城地转债 total: 60 现价: 95.692 成本 96.353</t>
-  </si>
-  <si>
-    <t>$threshold 97.118149369066 110072 广汇转债 total: 80 现价: 96.195 成本 97.906</t>
-  </si>
-  <si>
-    <t>$$$$threshold 92.81305962452802 128114 正邦转债 total: 80 现价: 92.752 成本 97.694</t>
-  </si>
-  <si>
-    <t>$threshold 106.33665999999998 127024 盈峰转债 total: 20 现价: 105.273 成本 107.267</t>
-  </si>
-  <si>
-    <t>$threshold 104.74161009999997 110073 国投转债 total: 30 现价: 104.562 成本 105.187</t>
-  </si>
-  <si>
-    <t>$threshold 106.33665999999998 113043 财通转债 total: 20 现价: 105.0 成本 109.006</t>
-  </si>
-  <si>
-    <t>$threshold 107.95599999999999 113576 起步转债 total: 10 现价: 106.968 成本 115.53</t>
-  </si>
-  <si>
-    <t>$threshold 107.95599999999999 128035 大族转债 total: 10 现价: 107.757 成本 109.778</t>
-  </si>
-  <si>
-    <t>$threshold 107.95599999999999 123113 仙乐转债 total: 10 现价: 107.5 成本 109.255</t>
-  </si>
-  <si>
-    <t>$threshold 107.95599999999999 127025 冀东转债 total: 10 现价: 106.55 成本 108.16</t>
-  </si>
-  <si>
-    <t>$threshold 106.33665999999998 113013 国君转债 total: 20 现价: 105.935 成本 107.008</t>
+    <t>恒逸转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$threshold 92.81305962452802 128100 搜特转债 total: 110 现价: 92.436 成本 94.585</t>
+  </si>
+  <si>
+    <t>$$$threshold 97.118149369066 113596 城地转债 total: 60 现价: 96.598 成本 96.353</t>
+  </si>
+  <si>
+    <t>$threshold 97.118149369066 110072 广汇转债 total: 80 现价: 96.252 成本 97.906</t>
+  </si>
+  <si>
+    <t>$$$threshold 92.81305962452802 128114 正邦转债 total: 90 现价: 92.0 成本 96.742</t>
+  </si>
+  <si>
+    <t>$threshold 98.59710595844264 127047 帝欧转债 total: 70 现价: 98.108 成本 103.448</t>
+  </si>
+  <si>
+    <t>$threshold 104.74161009999997 110073 国投转债 total: 30 现价: 103.998 成本 105.187</t>
+  </si>
+  <si>
+    <t>$threshold 106.33665999999998 113013 国君转债 total: 20 现价: 106.316 成本 107.008</t>
+  </si>
+  <si>
+    <t>113056 重银转债 转债最新价 99.692 到期赎回价 110.0 当日涨跌幅 0.33 收益率 10.339846727922007</t>
+  </si>
+  <si>
+    <t>113052 兴业转债 转债最新价 103.165 到期赎回价 109.0 当日涨跌幅 0.74 收益率 5.655987980419709</t>
+  </si>
+  <si>
+    <t>113042 上银转债 转债最新价 107.198 到期赎回价 112.0 当日涨跌幅 -0.01 收益率 4.479561185843026</t>
+  </si>
+  <si>
+    <t>128129 青农转债 转债最新价 101.6 到期赎回价 108.0 当日涨跌幅 0.54 收益率 6.2992125984252025</t>
+  </si>
+  <si>
+    <t>113037 紫银转债 转债最新价 103.772 到期赎回价 110.0 当日涨跌幅 0.3 收益率 6.001618933816439</t>
+  </si>
+  <si>
+    <t>110059 浦发转债 转债最新价 106.669 到期赎回价 110.0 当日涨跌幅 0.1 收益率 3.1227441899708475</t>
+  </si>
+  <si>
+    <t>负收益总数: 23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">负收益总数: 12，持仓个数: 67.  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1455,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1939,7 +1892,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2363,6 +2315,9 @@
                 <c:pt idx="41">
                   <c:v>44863</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>44869</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2497,6 +2452,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6516</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9276.2099999999991</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>15000</c:v>
@@ -2716,6 +2674,9 @@
                 <c:pt idx="41">
                   <c:v>44863</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>44869</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2850,6 +2811,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -3603,16 +3567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5686425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3939,16 +3903,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="140" customWidth="1"/>
-    <col min="5" max="6" width="10" style="140" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="140" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="140" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="140" customWidth="1"/>
     <col min="7" max="7" width="46.375" customWidth="1"/>
     <col min="8" max="8" width="102.125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
@@ -4510,7 +4476,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
         <v>44851</v>
       </c>
@@ -4530,7 +4496,7 @@
         <v>1930</v>
       </c>
       <c r="G41" s="60" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4553,7 +4519,7 @@
         <v>1950</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4576,13 +4542,31 @@
         <v>2010</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="28">
+        <v>44869</v>
+      </c>
+      <c r="B44" s="47">
+        <v>9276.2099999999991</v>
+      </c>
+      <c r="C44" s="29">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="D44" s="140">
+        <v>137.77000000000001</v>
+      </c>
+      <c r="E44" s="140">
+        <v>3070</v>
+      </c>
+      <c r="F44" s="140">
+        <v>2050</v>
+      </c>
+      <c r="G44" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
@@ -4729,8 +4713,8 @@
   <dimension ref="A1:W370"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C276" sqref="C276"/>
+      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I275" sqref="I275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4757,47 +4741,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="166"/>
-      <c r="B1" s="172" t="s">
+      <c r="A1" s="165"/>
+      <c r="B1" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="177" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="171" t="s">
+      <c r="F1" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="170" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="168" t="s">
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="164" t="s">
+      <c r="S1" s="163" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="179"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="19" t="s">
         <v>116</v>
       </c>
@@ -4831,11 +4815,11 @@
       <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="169"/>
+      <c r="Q2" s="168"/>
       <c r="R2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="165"/>
+      <c r="S2" s="164"/>
     </row>
     <row r="3" spans="1:23" s="104" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
@@ -4916,7 +4900,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>104.56100000000001</v>
+        <v>105.46</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -4926,19 +4910,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4182.4400000000005</v>
+        <v>4218.3999999999996</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="1"/>
-        <v>1.8011702738752505E-2</v>
+        <v>2.6764416664232606E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>74.000000000000341</v>
+        <v>109.95999999999981</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="2"/>
-        <v>1.9881732772653302E-2</v>
+        <v>1.9420135131620175E-2</v>
       </c>
       <c r="Q4" s="84"/>
       <c r="S4" s="25"/>
@@ -5024,7 +5008,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="12">
-        <v>108.3</v>
+        <v>113.1</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -5034,19 +5018,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1083</v>
+        <v>1131</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="1"/>
-        <v>0.13556531859789667</v>
+        <v>0.18589508341109981</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>129.29000000000002</v>
+        <v>177.29</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>5.1481710658810463E-3</v>
+        <v>5.2067544172820068E-3</v>
       </c>
       <c r="Q6" s="84"/>
       <c r="R6" s="51"/>
@@ -5077,7 +5061,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>108.13</v>
+        <v>110.229</v>
       </c>
       <c r="K7" s="12">
         <v>98.007999999999996</v>
@@ -5087,19 +5071,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>5406.5</v>
+        <v>5511.45</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="1"/>
-        <v>0.10327728348706229</v>
+        <v>0.12469390253856832</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>506.1</v>
+        <v>611.05000000000018</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="2"/>
-        <v>2.570044955464993E-2</v>
+        <v>2.5372914794985778E-2</v>
       </c>
       <c r="Q7" s="84"/>
       <c r="S7" s="25"/>
@@ -5128,7 +5112,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>105.729</v>
+        <v>107.11799999999999</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -5138,19 +5122,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3171.87</v>
+        <v>3213.54</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="1"/>
-        <v>7.7616969719910298E-4</v>
+        <v>1.3923727129023913E-2</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>2.459999999999809</v>
+        <v>44.129999999999683</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="2"/>
-        <v>1.5077866443892994E-2</v>
+        <v>1.4794088054918143E-2</v>
       </c>
       <c r="Q8" s="84"/>
       <c r="S8" s="25"/>
@@ -5177,7 +5161,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="12">
-        <v>111.605</v>
+        <v>117.5</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -5187,19 +5171,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1116.05</v>
+        <v>1175</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0.13396667344035768</v>
+        <v>0.1938630359682991</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>131.85000000000002</v>
+        <v>190.79999999999998</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="2"/>
-        <v>5.3052782253707673E-3</v>
+        <v>5.4093160391744987E-3</v>
       </c>
       <c r="Q9" s="84"/>
       <c r="S9" s="25"/>
@@ -5385,7 +5369,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="12">
-        <v>105.56</v>
+        <v>105.88500000000001</v>
       </c>
       <c r="K13" s="12">
         <v>103.81699999999999</v>
@@ -5395,19 +5379,19 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>3166.8</v>
+        <v>3176.55</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>1.6789157845054369E-2</v>
+        <v>1.9919666335956657E-2</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>52.290000000000276</v>
+        <v>62.040000000000362</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="2"/>
-        <v>1.5053765587656599E-2</v>
+        <v>1.4623798182331707E-2</v>
       </c>
       <c r="Q13" s="84"/>
       <c r="S13" s="25"/>
@@ -5576,7 +5560,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="12">
-        <v>116.69199999999999</v>
+        <v>119.642</v>
       </c>
       <c r="K17" s="12">
         <v>111.39400000000001</v>
@@ -5586,19 +5570,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>7001.5199999999995</v>
+        <v>7178.5199999999995</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>4.7560909923335074E-2</v>
+        <v>7.4043485286460584E-2</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>317.87999999999926</v>
+        <v>494.87999999999943</v>
       </c>
       <c r="P17" s="24">
         <f t="shared" si="2"/>
-        <v>3.3282569419379002E-2</v>
+        <v>3.3047560317902062E-2</v>
       </c>
       <c r="Q17" s="84"/>
       <c r="S17" s="46"/>
@@ -5631,7 +5615,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="12">
-        <v>115.861</v>
+        <v>117.164</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -5641,19 +5625,19 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2317.2200000000003</v>
+        <v>2343.2800000000002</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>6.6712700824011512E-2</v>
+        <v>7.8709202228053277E-2</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>144.92000000000019</v>
+        <v>170.98000000000013</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="2"/>
-        <v>1.1015184632761662E-2</v>
+        <v>1.0787695394278145E-2</v>
       </c>
       <c r="Q18" s="84"/>
       <c r="R18" s="50"/>
@@ -5685,7 +5669,7 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="12">
-        <v>91.831999999999994</v>
+        <v>92.436000000000007</v>
       </c>
       <c r="K19" s="12">
         <v>94.584999999999994</v>
@@ -5695,19 +5679,19 @@
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>10101.519999999999</v>
+        <v>10167.960000000001</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>-2.9106095046783319E-2</v>
+        <v>-2.2720304488026505E-2</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>-302.83000000000004</v>
+        <v>-236.38999999999854</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="2"/>
-        <v>4.8018793153664537E-2</v>
+        <v>4.6809965203135954E-2</v>
       </c>
       <c r="Q19" s="84"/>
       <c r="S19" s="25"/>
@@ -5737,7 +5721,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>97.760999999999996</v>
+        <v>98.313000000000002</v>
       </c>
       <c r="K20" s="12">
         <v>98.477000000000004</v>
@@ -5747,19 +5731,19 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>6843.2699999999995</v>
+        <v>6881.91</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>-7.2707332676666446E-3</v>
+        <v>-1.6653634858901213E-3</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>-50.120000000000573</v>
+        <v>-11.480000000000103</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="2"/>
-        <v>3.2530308965846522E-2</v>
+        <v>3.1682064802685428E-2</v>
       </c>
       <c r="Q20" s="84"/>
       <c r="S20" s="25"/>
@@ -5791,7 +5775,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="12">
-        <v>106.249</v>
+        <v>108.2</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -5801,19 +5785,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2124.98</v>
+        <v>2164</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>3.4607332392034687E-2</v>
+        <v>5.3605336189688012E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>71.080000000000041</v>
+        <v>110.10000000000019</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="2"/>
-        <v>1.0101348616413578E-2</v>
+        <v>9.9623488585307372E-3</v>
       </c>
       <c r="Q21" s="84"/>
       <c r="S21" s="25"/>
@@ -5843,7 +5827,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>108.003</v>
+        <v>111.057</v>
       </c>
       <c r="K22" s="12">
         <v>98.962000000000003</v>
@@ -5853,19 +5837,19 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>10800.3</v>
+        <v>11105.7</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>9.1358299145126373E-2</v>
+        <v>0.12221862937289059</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>904.09999999999968</v>
+        <v>1209.5</v>
       </c>
       <c r="P22" s="24">
         <f t="shared" si="2"/>
-        <v>5.1340528128194882E-2</v>
+        <v>5.1127013732987434E-2</v>
       </c>
       <c r="Q22" s="84"/>
       <c r="S22" s="25"/>
@@ -5894,7 +5878,7 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>95.691999999999993</v>
+        <v>96.597999999999999</v>
       </c>
       <c r="K23" s="12">
         <v>96.352999999999994</v>
@@ -5904,19 +5888,19 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>5741.5199999999995</v>
+        <v>5795.88</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>-6.8601911720444757E-3</v>
+        <v>2.5427334903947419E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>-39.660000000000082</v>
+        <v>14.700000000000273</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="2"/>
-        <v>2.7293007514475845E-2</v>
+        <v>2.6682337570323997E-2</v>
       </c>
       <c r="Q23" s="84"/>
       <c r="S23" s="25"/>
@@ -6046,7 +6030,7 @@
         <v>52</v>
       </c>
       <c r="J26" s="12">
-        <v>109.38</v>
+        <v>111.07</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -6056,19 +6040,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1093.8</v>
+        <v>1110.6999999999998</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>5.3787681724905327E-2</v>
+        <v>7.0069462508550312E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>55.829999999999984</v>
+        <v>72.729999999999961</v>
       </c>
       <c r="P26" s="24">
         <f t="shared" si="2"/>
-        <v>5.1995101679230731E-3</v>
+        <v>5.1132998508179699E-3</v>
       </c>
       <c r="Q26" s="84"/>
       <c r="S26" s="25"/>
@@ -6143,7 +6127,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>107.39100000000001</v>
+        <v>110.86</v>
       </c>
       <c r="K28" s="12">
         <v>123.71599999999999</v>
@@ -6153,19 +6137,19 @@
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>7517.3700000000008</v>
+        <v>7760.2</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>-0.13195544634485426</v>
+        <v>-0.10391541918587729</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-1142.7499999999991</v>
+        <v>-899.91999999999962</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" si="2"/>
-        <v>3.5734724584969714E-2</v>
+        <v>3.5725424959320802E-2</v>
       </c>
       <c r="Q28" s="84" t="s">
         <v>54</v>
@@ -6245,7 +6229,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>103.554</v>
+        <v>104.51900000000001</v>
       </c>
       <c r="K30" s="12">
         <v>101.34</v>
@@ -6255,19 +6239,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>3106.62</v>
+        <v>3135.57</v>
       </c>
       <c r="N30" s="24">
         <f t="shared" si="1"/>
-        <v>2.184724689165185E-2</v>
+        <v>3.1369646733767534E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>66.419999999999959</v>
+        <v>95.370000000000061</v>
       </c>
       <c r="P30" s="24">
         <f t="shared" si="2"/>
-        <v>1.4767692702389082E-2</v>
+        <v>1.44351396535782E-2</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="S30" s="25"/>
@@ -6299,7 +6283,7 @@
         <v>52</v>
       </c>
       <c r="J31" s="12">
-        <v>112.482</v>
+        <v>117.203</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -6309,19 +6293,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1124.82</v>
+        <v>1172.03</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="1"/>
-        <v>0.10687751547416385</v>
+        <v>0.15333444858838241</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>108.61000000000004</v>
+        <v>155.82000000000008</v>
       </c>
       <c r="P31" s="24">
         <f t="shared" si="2"/>
-        <v>5.3469674776771168E-3</v>
+        <v>5.3956431296967554E-3</v>
       </c>
       <c r="Q31" s="84"/>
       <c r="R31" s="7"/>
@@ -6402,7 +6386,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>103.59</v>
+        <v>105.56</v>
       </c>
       <c r="K33" s="12">
         <v>102.991</v>
@@ -6412,19 +6396,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>10359</v>
+        <v>10556</v>
       </c>
       <c r="N33" s="24">
         <f t="shared" si="1"/>
-        <v>5.816042178442813E-3</v>
+        <v>2.4943927139264622E-2</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>59.900000000000375</v>
+        <v>256.90000000000026</v>
       </c>
       <c r="P33" s="24">
         <f t="shared" si="2"/>
-        <v>4.9242755375310948E-2</v>
+        <v>4.8596374561298734E-2</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="8"/>
@@ -6506,7 +6490,7 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>96.194999999999993</v>
+        <v>96.251999999999995</v>
       </c>
       <c r="K35" s="12">
         <v>97.906000000000006</v>
@@ -6516,19 +6500,19 @@
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>7695.5999999999995</v>
+        <v>7700.16</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>-1.7475946315854113E-2</v>
+        <v>-1.6893755234612898E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>-136.88000000000102</v>
+        <v>-132.32000000000085</v>
       </c>
       <c r="P35" s="24">
         <f t="shared" ref="P35:P66" si="8">M35/$M$352</f>
-        <v>3.6581962377279939E-2</v>
+        <v>3.544902041890205E-2</v>
       </c>
       <c r="Q35" s="84"/>
       <c r="S35" s="25"/>
@@ -7043,7 +7027,7 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="12">
-        <v>117.4</v>
+        <v>121</v>
       </c>
       <c r="K46" s="12">
         <v>127.94799999999999</v>
@@ -7053,19 +7037,19 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>4696</v>
+        <v>4840</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="7"/>
-        <v>-8.2439741144839998E-2</v>
+        <v>-5.4303310719979944E-2</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-421.9199999999995</v>
+        <v>-277.91999999999973</v>
       </c>
       <c r="P46" s="24">
         <f t="shared" si="8"/>
-        <v>2.2323002147162874E-2</v>
+        <v>2.2281778408174108E-2</v>
       </c>
       <c r="Q46" s="84"/>
       <c r="S46" s="25"/>
@@ -7098,7 +7082,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="12">
-        <v>118.396</v>
+        <v>120.5</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -7108,19 +7092,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2367.92</v>
+        <v>2410</v>
       </c>
       <c r="N47" s="24">
         <f t="shared" si="7"/>
-        <v>2.1447674920196742E-2</v>
+        <v>3.9599689414200702E-2</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>49.720000000000084</v>
+        <v>91.800000000000068</v>
       </c>
       <c r="P47" s="24">
         <f t="shared" si="8"/>
-        <v>1.125619319512562E-2</v>
+        <v>1.109485247183876E-2</v>
       </c>
       <c r="Q47" s="84"/>
       <c r="S47" s="25"/>
@@ -7202,7 +7186,7 @@
         <v>66</v>
       </c>
       <c r="J49" s="12">
-        <v>108.78</v>
+        <v>110.643</v>
       </c>
       <c r="K49" s="12">
         <v>113.66</v>
@@ -7212,19 +7196,19 @@
       </c>
       <c r="M49" s="11">
         <f t="shared" si="6"/>
-        <v>1087.8</v>
+        <v>1106.43</v>
       </c>
       <c r="N49" s="24">
         <f t="shared" si="7"/>
-        <v>-4.2935069505542808E-2</v>
+        <v>-2.654407883160299E-2</v>
       </c>
       <c r="O49" s="11">
         <f t="shared" si="9"/>
-        <v>-48.799999999999955</v>
+        <v>-30.169999999999959</v>
       </c>
       <c r="P49" s="24">
         <f t="shared" si="8"/>
-        <v>5.1709884445663911E-3</v>
+        <v>5.0936421661479502E-3</v>
       </c>
       <c r="Q49" s="84"/>
       <c r="S49" s="25"/>
@@ -7785,29 +7769,29 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="12">
-        <v>92.751999999999995</v>
+        <v>92</v>
       </c>
       <c r="K61" s="12">
-        <v>97.694000000000003</v>
+        <v>96.742000000000004</v>
       </c>
       <c r="L61" s="12">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="11">J61*L61</f>
-        <v>7420.16</v>
+        <v>8280</v>
       </c>
       <c r="N61" s="24">
         <f t="shared" ref="N61:N95" si="12">(J61-K61)/K61</f>
-        <v>-5.0586525272790624E-2</v>
+        <v>-4.9016972979677949E-2</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
-        <v>-395.36000000000058</v>
+        <v>-426.78000000000043</v>
       </c>
       <c r="P61" s="24">
         <f t="shared" si="8"/>
-        <v>3.5272625130385871E-2</v>
+        <v>3.8118414301587106E-2</v>
       </c>
       <c r="Q61" s="84"/>
       <c r="S61" s="25"/>
@@ -8086,7 +8070,7 @@
         <v>66</v>
       </c>
       <c r="J67" s="12">
-        <v>105.273</v>
+        <v>106.64100000000001</v>
       </c>
       <c r="K67" s="12">
         <v>107.267</v>
@@ -8096,19 +8080,19 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>2105.46</v>
+        <v>2132.8200000000002</v>
       </c>
       <c r="N67" s="24">
         <f t="shared" si="12"/>
-        <v>-1.8589128063616955E-2</v>
+        <v>-5.8359047983069408E-3</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>-39.879999999999995</v>
+        <v>-12.519999999999811</v>
       </c>
       <c r="P67" s="24">
         <f t="shared" ref="P67:P98" si="13">M67/$M$352</f>
-        <v>1.0008557943093174E-2</v>
+        <v>9.8188063273805578E-3</v>
       </c>
       <c r="Q67" s="84"/>
       <c r="S67" s="25"/>
@@ -8183,7 +8167,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>100.5</v>
+        <v>101.179</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -8193,19 +8177,19 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="14">J69*L69</f>
-        <v>7035</v>
+        <v>7082.53</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="12"/>
-        <v>3.3142810148443641E-2</v>
+        <v>4.0122949134421708E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>225.68000000000026</v>
+        <v>273.21000000000038</v>
       </c>
       <c r="P69" s="24">
         <f t="shared" si="13"/>
-        <v>3.3441720635709285E-2</v>
+        <v>3.2605653725050691E-2</v>
       </c>
       <c r="Q69" s="84"/>
       <c r="S69" s="25"/>
@@ -8289,7 +8273,7 @@
         <v>52</v>
       </c>
       <c r="J71" s="12">
-        <v>106.09</v>
+        <v>107.14</v>
       </c>
       <c r="K71" s="12">
         <v>106.81100000000001</v>
@@ -8299,19 +8283,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="14"/>
-        <v>3182.7000000000003</v>
+        <v>3214.2</v>
       </c>
       <c r="N71" s="24">
         <f t="shared" si="12"/>
-        <v>-6.7502410800386065E-3</v>
+        <v>3.0802070947748218E-3</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>-21.630000000000109</v>
+        <v>9.8699999999998056</v>
       </c>
       <c r="P71" s="24">
         <f t="shared" si="13"/>
-        <v>1.5129348154551806E-2</v>
+        <v>1.479712647924653E-2</v>
       </c>
       <c r="Q71" s="84"/>
       <c r="S71" s="25"/>
@@ -8391,7 +8375,7 @@
         <v>52</v>
       </c>
       <c r="J73" s="12">
-        <v>117.86499999999999</v>
+        <v>118.965</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -8401,19 +8385,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1178.6499999999999</v>
+        <v>1189.6500000000001</v>
       </c>
       <c r="N73" s="24">
         <f t="shared" si="12"/>
-        <v>4.2859291636067581E-2</v>
+        <v>5.2591996177701515E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>48.439999999999941</v>
+        <v>59.440000000000026</v>
       </c>
       <c r="P73" s="24">
         <f t="shared" si="13"/>
-        <v>5.6028548723921464E-3</v>
+        <v>5.4767598519182498E-3</v>
       </c>
       <c r="Q73" s="84"/>
       <c r="S73" s="25"/>
@@ -8593,7 +8577,7 @@
         <v>52</v>
       </c>
       <c r="J77" s="12">
-        <v>106.129</v>
+        <v>109.42100000000001</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -8603,19 +8587,19 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="14"/>
-        <v>2122.58</v>
+        <v>2188.42</v>
       </c>
       <c r="N77" s="24">
         <f t="shared" si="12"/>
-        <v>0.10119739354196065</v>
+        <v>0.13535527517224205</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="15"/>
-        <v>195.06</v>
+        <v>260.90000000000003</v>
       </c>
       <c r="P77" s="24">
         <f t="shared" si="13"/>
-        <v>1.0089939927070905E-2</v>
+        <v>1.007477055868107E-2</v>
       </c>
       <c r="Q77" s="84"/>
       <c r="S77" s="25"/>
@@ -8697,7 +8681,7 @@
         <v>52</v>
       </c>
       <c r="J79" s="12">
-        <v>109.581</v>
+        <v>111.876</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -8707,19 +8691,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="14"/>
-        <v>1095.81</v>
+        <v>1118.76</v>
       </c>
       <c r="N79" s="24">
         <f t="shared" si="12"/>
-        <v>9.1260705405654258E-3</v>
+        <v>3.0260613316143301E-2</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="15"/>
-        <v>9.9099999999999966</v>
+        <v>32.860000000000014</v>
       </c>
       <c r="P79" s="24">
         <f t="shared" si="13"/>
-        <v>5.209064945247561E-3</v>
+        <v>5.1504054570100958E-3</v>
       </c>
       <c r="Q79" s="84"/>
       <c r="S79" s="25"/>
@@ -8750,7 +8734,7 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>105.46</v>
+        <v>103.40900000000001</v>
       </c>
       <c r="K80" s="12">
         <v>107.053</v>
@@ -8760,19 +8744,19 @@
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>4218.3999999999996</v>
+        <v>4136.3600000000006</v>
       </c>
       <c r="N80" s="24">
         <f t="shared" si="12"/>
-        <v>-1.4880479762360734E-2</v>
+        <v>-3.4039214220993257E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-63.720000000000141</v>
+        <v>-145.75999999999965</v>
       </c>
       <c r="P80" s="24">
         <f t="shared" si="13"/>
-        <v>2.0052672967971009E-2</v>
+        <v>1.9042449780255176E-2</v>
       </c>
       <c r="Q80" s="84"/>
       <c r="S80" s="25"/>
@@ -8851,7 +8835,7 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>103.03</v>
+        <v>104.791</v>
       </c>
       <c r="K82" s="12">
         <v>102.733</v>
@@ -8861,19 +8845,19 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="14"/>
-        <v>4121.2</v>
+        <v>4191.6399999999994</v>
       </c>
       <c r="N82" s="24">
         <f t="shared" si="12"/>
-        <v>2.8909892634304169E-3</v>
+        <v>2.003251146175029E-2</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="15"/>
-        <v>11.879999999999882</v>
+        <v>82.319999999999709</v>
       </c>
       <c r="P82" s="24">
         <f t="shared" si="13"/>
-        <v>1.9590621049592766E-2</v>
+        <v>1.9296940836123738E-2</v>
       </c>
       <c r="Q82" s="84"/>
       <c r="S82" s="25"/>
@@ -8953,7 +8937,7 @@
         <v>52</v>
       </c>
       <c r="J84" s="12">
-        <v>108.789</v>
+        <v>108.43</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -8963,19 +8947,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="16">J84*L84</f>
-        <v>2175.7800000000002</v>
+        <v>2168.6000000000004</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="12"/>
-        <v>1.2687803697428923E-2</v>
+        <v>9.3459683875412366E-3</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>27.259999999999991</v>
+        <v>20.080000000000098</v>
       </c>
       <c r="P84" s="24">
         <f t="shared" si="13"/>
-        <v>1.0342832540833484E-2</v>
+        <v>9.9835257553649529E-3</v>
       </c>
       <c r="Q84" s="84"/>
       <c r="S84" s="25"/>
@@ -9006,7 +8990,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>103.2</v>
+        <v>106.15</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -9016,19 +9000,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="16"/>
-        <v>4128</v>
+        <v>4246</v>
       </c>
       <c r="N85" s="24">
         <f t="shared" si="12"/>
-        <v>-7.9212489425517004E-3</v>
+        <v>2.0437591325078875E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>-32.959999999999923</v>
+        <v>85.040000000000191</v>
       </c>
       <c r="P85" s="24">
         <f t="shared" si="13"/>
-        <v>1.9622945669397006E-2</v>
+        <v>1.9547196512625466E-2</v>
       </c>
       <c r="Q85" s="84"/>
       <c r="S85" s="25"/>
@@ -9253,7 +9237,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>101.08799999999999</v>
+        <v>101.70099999999999</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -9263,19 +9247,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="16"/>
-        <v>5054.3999999999996</v>
+        <v>5085.0499999999993</v>
       </c>
       <c r="N90" s="24">
         <f t="shared" si="12"/>
-        <v>-4.2062749347387745E-3</v>
+        <v>1.8322415406589454E-3</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="15"/>
-        <v>-21.350000000000335</v>
+        <v>9.2999999999996419</v>
       </c>
       <c r="P90" s="24">
         <f t="shared" si="13"/>
-        <v>2.4026699755668658E-2</v>
+        <v>2.3409908531918537E-2</v>
       </c>
       <c r="Q90" s="84"/>
       <c r="S90" s="25"/>
@@ -9972,7 +9956,7 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>98.861999999999995</v>
+        <v>98.108000000000004</v>
       </c>
       <c r="K105" s="12">
         <v>103.44799999999999</v>
@@ -9982,19 +9966,19 @@
       </c>
       <c r="M105" s="11">
         <f t="shared" si="19"/>
-        <v>6920.3399999999992</v>
+        <v>6867.56</v>
       </c>
       <c r="N105" s="24">
         <f t="shared" si="20"/>
-        <v>-4.4331451550537457E-2</v>
+        <v>-5.1620137653700306E-2</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="15"/>
-        <v>-321.01999999999987</v>
+        <v>-373.79999999999927</v>
       </c>
       <c r="P105" s="24">
         <f t="shared" si="18"/>
-        <v>3.2896670502363098E-2</v>
+        <v>3.161600209190913E-2</v>
       </c>
       <c r="Q105" s="84" t="s">
         <v>106</v>
@@ -10027,7 +10011,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>104.562</v>
+        <v>103.998</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -10037,19 +10021,19 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="19"/>
-        <v>3136.86</v>
+        <v>3119.94</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="20"/>
-        <v>-5.9417988914979986E-3</v>
+        <v>-1.1303678211185726E-2</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>-18.75</v>
+        <v>-35.669999999999789</v>
       </c>
       <c r="P106" s="24">
         <f t="shared" si="18"/>
-        <v>1.4911442188106758E-2</v>
+        <v>1.4363184241074117E-2</v>
       </c>
       <c r="Q106" s="84" t="s">
         <v>106</v>
@@ -10381,7 +10365,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>108.96</v>
+        <v>109.858</v>
       </c>
       <c r="K113" s="12">
         <v>105.44</v>
@@ -10391,19 +10375,19 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="19"/>
-        <v>1089.5999999999999</v>
+        <v>1098.58</v>
       </c>
       <c r="N113" s="24">
         <f t="shared" si="20"/>
-        <v>3.3383915022761723E-2</v>
+        <v>4.1900606980273203E-2</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="21"/>
-        <v>35.19999999999996</v>
+        <v>44.180000000000064</v>
       </c>
       <c r="P113" s="24">
         <f t="shared" si="18"/>
-        <v>5.179544961573395E-3</v>
+        <v>5.0575033313330388E-3</v>
       </c>
       <c r="Q113" s="84" t="s">
         <v>106</v>
@@ -11084,7 +11068,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>110.25</v>
+        <v>114</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -11094,19 +11078,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="19"/>
-        <v>2205</v>
+        <v>2280</v>
       </c>
       <c r="N127" s="24">
         <f t="shared" si="20"/>
-        <v>1.8014940119483958E-2</v>
+        <v>5.2641298626949398E-2</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="21"/>
-        <v>39.019999999999868</v>
+        <v>114.01999999999987</v>
       </c>
       <c r="P127" s="24">
         <f t="shared" si="18"/>
-        <v>1.0481733333580523E-2</v>
+        <v>1.0496374952610943E-2</v>
       </c>
       <c r="Q127" s="84" t="s">
         <v>106</v>
@@ -11382,7 +11366,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>111.20099999999999</v>
+        <v>112.76600000000001</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -11392,19 +11376,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="19"/>
-        <v>1112.01</v>
+        <v>1127.6600000000001</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="25"/>
-        <v>-4.6544517145389874E-3</v>
+        <v>9.3536577724868345E-3</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="23"/>
-        <v>-5.2000000000001023</v>
+        <v>10.450000000000017</v>
       </c>
       <c r="P133" s="24">
         <f t="shared" si="24"/>
-        <v>5.2860735983106021E-3</v>
+        <v>5.1913781487110773E-3</v>
       </c>
       <c r="Q133" s="84" t="s">
         <v>106</v>
@@ -11486,7 +11470,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>109.57</v>
+        <v>108.64100000000001</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -11496,19 +11480,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="19"/>
-        <v>1095.6999999999998</v>
+        <v>1086.4100000000001</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="25"/>
-        <v>1.8024714298987252E-2</v>
+        <v>9.3932918331321186E-3</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="23"/>
-        <v>19.399999999999977</v>
+        <v>10.110000000000099</v>
       </c>
       <c r="P135" s="24">
         <f t="shared" si="24"/>
-        <v>5.208542046986021E-3</v>
+        <v>5.0014766281868666E-3</v>
       </c>
       <c r="Q135" s="84" t="s">
         <v>120</v>
@@ -11641,7 +11625,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>112.6</v>
+        <v>115.6</v>
       </c>
       <c r="K138" s="12">
         <v>115.14</v>
@@ -11651,19 +11635,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="19"/>
-        <v>1126</v>
+        <v>1156</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="25"/>
-        <v>-2.206010074691685E-2</v>
+        <v>3.995136355740783E-3</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="23"/>
-        <v>-25.400000000000063</v>
+        <v>4.5999999999999375</v>
       </c>
       <c r="P138" s="24">
         <f t="shared" si="24"/>
-        <v>5.3525767499372646E-3</v>
+        <v>5.3218462479027407E-3</v>
       </c>
       <c r="Q138" s="84" t="s">
         <v>106</v>
@@ -11696,7 +11680,7 @@
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12">
-        <v>115.895</v>
+        <v>118.224</v>
       </c>
       <c r="K139" s="12">
         <v>119.23</v>
@@ -11706,19 +11690,19 @@
       </c>
       <c r="M139" s="11">
         <f t="shared" si="19"/>
-        <v>1158.95</v>
+        <v>1182.24</v>
       </c>
       <c r="N139" s="24">
         <f t="shared" si="25"/>
-        <v>-2.7971148200956201E-2</v>
+        <v>-8.4374737901534869E-3</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="23"/>
-        <v>-33.35000000000008</v>
+        <v>-10.060000000000002</v>
       </c>
       <c r="P139" s="24">
         <f t="shared" si="24"/>
-        <v>5.5092085473710424E-3</v>
+        <v>5.4426466333222633E-3</v>
       </c>
       <c r="Q139" s="84" t="s">
         <v>106</v>
@@ -11795,7 +11779,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>108.35299999999999</v>
+        <v>108.6</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -11805,19 +11789,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="26">J141*L141</f>
-        <v>1083.53</v>
+        <v>1086</v>
       </c>
       <c r="N141" s="24">
         <f t="shared" si="25"/>
-        <v>1.1217814112794077E-2</v>
+        <v>1.3522972254108671E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>12.019999999999982</v>
+        <v>14.489999999999981</v>
       </c>
       <c r="P141" s="24">
         <f t="shared" si="24"/>
-        <v>5.1506904847775526E-3</v>
+        <v>4.9995891221646859E-3</v>
       </c>
       <c r="Q141" s="84" t="s">
         <v>106</v>
@@ -11850,7 +11834,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>109.9</v>
+        <v>112.18</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -11860,19 +11844,19 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="26"/>
-        <v>1099</v>
+        <v>1121.8000000000002</v>
       </c>
       <c r="N142" s="24">
         <f t="shared" si="25"/>
-        <v>5.2963291590820407E-3</v>
+        <v>2.615234035546701E-2</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>5.7900000000000773</v>
+        <v>28.590000000000089</v>
       </c>
       <c r="P142" s="24">
         <f t="shared" si="24"/>
-        <v>5.2242289948321976E-3</v>
+        <v>5.1644006236135779E-3</v>
       </c>
       <c r="Q142" s="84" t="s">
         <v>106</v>
@@ -12150,7 +12134,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>108.498</v>
+        <v>111.089</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -12160,19 +12144,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="26"/>
-        <v>1084.98</v>
+        <v>1110.8899999999999</v>
       </c>
       <c r="N148" s="24">
         <f t="shared" si="25"/>
-        <v>2.2813401459303547E-2</v>
+        <v>4.7238824261392517E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="27"/>
-        <v>24.200000000000017</v>
+        <v>50.109999999999957</v>
       </c>
       <c r="P148" s="24">
         <f t="shared" si="24"/>
-        <v>5.1575832345887506E-3</v>
+        <v>5.1141745487306885E-3</v>
       </c>
       <c r="Q148" s="84" t="s">
         <v>106</v>
@@ -12205,7 +12189,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>106.443</v>
+        <v>106.708</v>
       </c>
       <c r="K149" s="81">
         <v>107.70699999999999</v>
@@ -12215,19 +12199,19 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="26"/>
-        <v>2128.86</v>
+        <v>2134.16</v>
       </c>
       <c r="N149" s="24">
         <f t="shared" si="25"/>
-        <v>-1.1735541793940931E-2</v>
+        <v>-9.2751631741669095E-3</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="27"/>
-        <v>-25.279999999999916</v>
+        <v>-19.979999999999905</v>
       </c>
       <c r="P149" s="24">
         <f t="shared" si="24"/>
-        <v>1.0119792664184233E-2</v>
+        <v>9.8249752495018286E-3</v>
       </c>
       <c r="Q149" s="84" t="s">
         <v>106</v>
@@ -12356,7 +12340,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>106.7</v>
+        <v>107.35</v>
       </c>
       <c r="K152" s="12">
         <v>110.36499999999999</v>
@@ -12366,19 +12350,19 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="26"/>
-        <v>3201</v>
+        <v>3220.5</v>
       </c>
       <c r="N152" s="24">
         <f t="shared" si="25"/>
-        <v>-3.3207991664023849E-2</v>
+        <v>-2.731844334707562E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="28">(J152-K152)*L152</f>
-        <v>-109.94999999999976</v>
+        <v>-90.450000000000017</v>
       </c>
       <c r="P152" s="24">
         <f t="shared" si="24"/>
-        <v>1.5216339410789684E-2</v>
+        <v>1.4826129620562957E-2</v>
       </c>
       <c r="Q152" s="84" t="s">
         <v>132</v>
@@ -12610,7 +12594,7 @@
         <v>66</v>
       </c>
       <c r="J157" s="12">
-        <v>108.23</v>
+        <v>109.77200000000001</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -12620,19 +12604,19 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="26"/>
-        <v>1082.3</v>
+        <v>1097.72</v>
       </c>
       <c r="N157" s="24">
         <f t="shared" si="25"/>
-        <v>-7.8833990283252303E-3</v>
+        <v>6.2517187643230552E-3</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="28"/>
-        <v>-8.5999999999999943</v>
+        <v>6.8200000000000216</v>
       </c>
       <c r="P157" s="24">
         <f t="shared" si="24"/>
-        <v>5.1448435314894328E-3</v>
+        <v>5.0535441723596865E-3</v>
       </c>
       <c r="Q157" s="84" t="s">
         <v>136</v>
@@ -12716,7 +12700,7 @@
         <v>66</v>
       </c>
       <c r="J159" s="12">
-        <v>114.6</v>
+        <v>116.905</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -12726,19 +12710,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="26"/>
-        <v>1146</v>
+        <v>1169.05</v>
       </c>
       <c r="N159" s="24">
         <f t="shared" si="25"/>
-        <v>6.4620415443498835E-2</v>
+        <v>8.6033592211363336E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="28"/>
-        <v>69.559999999999889</v>
+        <v>92.609999999999957</v>
       </c>
       <c r="P159" s="24">
         <f t="shared" si="24"/>
-        <v>5.4476491611262041E-3</v>
+        <v>5.3819241834867637E-3</v>
       </c>
       <c r="Q159" s="84"/>
       <c r="S159" s="25"/>
@@ -12916,7 +12900,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>109.194</v>
+        <v>110.866</v>
       </c>
       <c r="K163" s="12">
         <v>109.07</v>
@@ -12926,19 +12910,19 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="26"/>
-        <v>1091.94</v>
+        <v>1108.6600000000001</v>
       </c>
       <c r="N163" s="24">
         <f t="shared" si="25"/>
-        <v>1.1368845695425823E-3</v>
+        <v>1.6466489410470402E-2</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="28"/>
-        <v>1.2400000000000944</v>
+        <v>17.960000000000065</v>
       </c>
       <c r="P163" s="24">
         <f t="shared" ref="P163:P179" si="30">M163/$M$352</f>
-        <v>5.1906684336825021E-3</v>
+        <v>5.1039083574393193E-3</v>
       </c>
       <c r="Q163" s="84" t="s">
         <v>106</v>
@@ -13215,7 +13199,7 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>105.55</v>
+        <v>106.649</v>
       </c>
       <c r="K169" s="12">
         <v>105.581</v>
@@ -13225,19 +13209,19 @@
       </c>
       <c r="M169" s="11">
         <f t="shared" si="26"/>
-        <v>3166.5</v>
+        <v>3199.4700000000003</v>
       </c>
       <c r="N169" s="24">
         <f t="shared" si="31"/>
-        <v>-2.9361343423538243E-4</v>
+        <v>1.0115456379462193E-2</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="32"/>
-        <v>-0.93000000000017735</v>
+        <v>32.039999999999935</v>
       </c>
       <c r="P169" s="24">
         <f t="shared" si="30"/>
-        <v>1.5052339501488765E-2</v>
+        <v>1.4729314372644796E-2</v>
       </c>
       <c r="Q169" s="84" t="s">
         <v>106</v>
@@ -13321,29 +13305,29 @@
         <v>66</v>
       </c>
       <c r="J171" s="12">
-        <v>105</v>
+        <v>105.53</v>
       </c>
       <c r="K171" s="12">
         <v>109.006</v>
       </c>
       <c r="L171" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M171" s="11">
         <f t="shared" si="26"/>
-        <v>2100</v>
+        <v>3165.9</v>
       </c>
       <c r="N171" s="24">
         <f t="shared" si="31"/>
-        <v>-3.6750270627304918E-2</v>
+        <v>-3.1888152945709403E-2</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="32"/>
-        <v>-80.12</v>
+        <v>-104.27999999999997</v>
       </c>
       <c r="P171" s="24">
         <f t="shared" si="30"/>
-        <v>9.9826031748385929E-3</v>
+        <v>1.4574769062487274E-2</v>
       </c>
       <c r="Q171" s="84" t="s">
         <v>106</v>
@@ -13378,7 +13362,7 @@
         <v>66</v>
       </c>
       <c r="J172" s="12">
-        <v>109.92</v>
+        <v>110.848</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -13388,19 +13372,19 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="26"/>
-        <v>2198.4</v>
+        <v>2216.96</v>
       </c>
       <c r="N172" s="24">
         <f t="shared" si="31"/>
-        <v>9.5981630309988682E-3</v>
+        <v>1.8121699196326054E-2</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="32"/>
-        <v>20.900000000000034</v>
+        <v>39.45999999999998</v>
       </c>
       <c r="P172" s="24">
         <f t="shared" si="30"/>
-        <v>1.0450359437888173E-2</v>
+        <v>1.02061593925177E-2</v>
       </c>
       <c r="Q172" s="84" t="s">
         <v>106</v>
@@ -13631,7 +13615,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>108.509</v>
+        <v>109.244</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -13641,19 +13625,19 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="33"/>
-        <v>1085.0899999999999</v>
+        <v>1092.44</v>
       </c>
       <c r="N177" s="24">
         <f t="shared" si="31"/>
-        <v>-1.0405836753306022E-2</v>
+        <v>-3.702690378477026E-3</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="32"/>
-        <v>-11.410000000000053</v>
+        <v>-4.0600000000000591</v>
       </c>
       <c r="P177" s="24">
         <f t="shared" si="30"/>
-        <v>5.1581061328502898E-3</v>
+        <v>5.029236777732587E-3</v>
       </c>
       <c r="Q177" s="84" t="s">
         <v>150</v>
@@ -13735,7 +13719,7 @@
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="12">
-        <v>110.554</v>
+        <v>113.25</v>
       </c>
       <c r="K179" s="12">
         <v>115.111</v>
@@ -13745,19 +13729,19 @@
       </c>
       <c r="M179" s="11">
         <f t="shared" si="33"/>
-        <v>4422.16</v>
+        <v>4530</v>
       </c>
       <c r="N179" s="24">
         <f t="shared" si="31"/>
-        <v>-3.9587876050073426E-2</v>
+        <v>-1.6167004022204692E-2</v>
       </c>
       <c r="O179" s="11">
         <f t="shared" si="32"/>
-        <v>-182.28000000000009</v>
+        <v>-74.440000000000168</v>
       </c>
       <c r="P179" s="24">
         <f t="shared" si="30"/>
-        <v>2.102127069316392E-2</v>
+        <v>2.0854639708477004E-2</v>
       </c>
       <c r="Q179" s="84" t="s">
         <v>152</v>
@@ -13990,7 +13974,7 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>115.152</v>
+        <v>120.8</v>
       </c>
       <c r="K184" s="12">
         <v>108.65600000000001</v>
@@ -14000,19 +13984,19 @@
       </c>
       <c r="M184" s="11">
         <f t="shared" si="33"/>
-        <v>1151.52</v>
+        <v>1208</v>
       </c>
       <c r="N184" s="24">
         <f t="shared" si="31"/>
-        <v>5.9785009571491632E-2</v>
+        <v>0.11176557208069494</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="32"/>
-        <v>64.959999999999951</v>
+        <v>121.43999999999991</v>
       </c>
       <c r="P184" s="24">
         <f t="shared" si="34"/>
-        <v>5.4738891466143509E-3</v>
+        <v>5.5612372555938682E-3</v>
       </c>
       <c r="Q184" s="84" t="s">
         <v>158</v>
@@ -15026,7 +15010,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>107.69799999999999</v>
+        <v>109.395</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -15036,19 +15020,19 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="37">J205*L205</f>
-        <v>2153.96</v>
+        <v>2187.9</v>
       </c>
       <c r="N205" s="24">
         <f t="shared" si="36"/>
-        <v>-1.1346319789964605E-2</v>
+        <v>4.2319202452861231E-3</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="32"/>
-        <v>-24.720000000000084</v>
+        <v>9.2199999999999704</v>
       </c>
       <c r="P205" s="24">
         <f t="shared" si="34"/>
-        <v>1.0239108540226352E-2</v>
+        <v>1.0072376648604159E-2</v>
       </c>
       <c r="Q205" s="118" t="s">
         <v>165</v>
@@ -15279,7 +15263,7 @@
         <v>52</v>
       </c>
       <c r="J210" s="12">
-        <v>106.968</v>
+        <v>109.53700000000001</v>
       </c>
       <c r="K210" s="13">
         <v>115.53</v>
@@ -15289,19 +15273,19 @@
       </c>
       <c r="M210" s="11">
         <f t="shared" si="37"/>
-        <v>1069.68</v>
+        <v>1095.3700000000001</v>
       </c>
       <c r="N210" s="24">
         <f t="shared" si="36"/>
-        <v>-7.4110620618021275E-2</v>
+        <v>-5.1873972128451441E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="32"/>
-        <v>-85.619999999999976</v>
+        <v>-59.92999999999995</v>
       </c>
       <c r="P210" s="24">
         <f t="shared" si="34"/>
-        <v>5.0848528400292128E-3</v>
+        <v>5.0427255402813375E-3</v>
       </c>
       <c r="Q210" s="133" t="s">
         <v>169</v>
@@ -15723,7 +15707,7 @@
         <v>105.901</v>
       </c>
       <c r="H219" s="14">
-        <f t="shared" ref="H219:H262" si="42">F219*G219</f>
+        <f t="shared" ref="H219:H266" si="42">F219*G219</f>
         <v>1059.01</v>
       </c>
       <c r="I219" s="15" t="s">
@@ -16022,7 +16006,7 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>107.511</v>
+        <v>108.336</v>
       </c>
       <c r="K225" s="12">
         <v>108.65</v>
@@ -16032,19 +16016,19 @@
       </c>
       <c r="M225" s="11">
         <f t="shared" si="37"/>
-        <v>2150.2199999999998</v>
+        <v>2166.7199999999998</v>
       </c>
       <c r="N225" s="24">
         <f t="shared" si="41"/>
-        <v>-1.048320294523709E-2</v>
+        <v>-2.8900138057985011E-3</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="32"/>
-        <v>-22.7800000000002</v>
+        <v>-6.2800000000001432</v>
       </c>
       <c r="P225" s="24">
         <f t="shared" si="40"/>
-        <v>1.0221329999334018E-2</v>
+        <v>9.9748708497022723E-3</v>
       </c>
       <c r="Q225" s="135" t="s">
         <v>140</v>
@@ -16322,7 +16306,7 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>107.75700000000001</v>
+        <v>108.816</v>
       </c>
       <c r="K231" s="12">
         <v>109.77800000000001</v>
@@ -16332,19 +16316,19 @@
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="45">J231*L231</f>
-        <v>1077.5700000000002</v>
+        <v>1088.1600000000001</v>
       </c>
       <c r="N231" s="24">
         <f t="shared" ref="N231:N245" si="46">(J231-K231)/K231</f>
-        <v>-1.8409881761372961E-2</v>
+        <v>-8.7631401555867596E-3</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="47">(J231-K231)*L231</f>
-        <v>-20.210000000000008</v>
+        <v>-9.620000000000033</v>
       </c>
       <c r="P231" s="24">
         <f t="shared" ref="P231:P245" si="48">M231/$M$352</f>
-        <v>5.1223589062432502E-3</v>
+        <v>5.0095330563303181E-3</v>
       </c>
       <c r="Q231" s="113" t="s">
         <v>183</v>
@@ -16474,7 +16458,7 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>107.23099999999999</v>
+        <v>107.304</v>
       </c>
       <c r="K234" s="12">
         <v>108.66500000000001</v>
@@ -16484,19 +16468,19 @@
       </c>
       <c r="M234" s="11">
         <f t="shared" si="45"/>
-        <v>2144.62</v>
+        <v>2146.08</v>
       </c>
       <c r="N234" s="24">
         <f t="shared" si="46"/>
-        <v>-1.3196521419040276E-2</v>
+        <v>-1.2524731974416824E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="47"/>
-        <v>-28.680000000000234</v>
+        <v>-27.220000000000084</v>
       </c>
       <c r="P234" s="24">
         <f t="shared" si="48"/>
-        <v>1.0194709724201115E-2</v>
+        <v>9.8798510343417936E-3</v>
       </c>
       <c r="Q234" s="139"/>
       <c r="S234" s="25"/>
@@ -16574,7 +16558,7 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>107.5</v>
+        <v>108.349</v>
       </c>
       <c r="K236" s="12">
         <v>109.255</v>
@@ -16584,19 +16568,19 @@
       </c>
       <c r="M236" s="11">
         <f t="shared" si="45"/>
-        <v>1075</v>
+        <v>1083.49</v>
       </c>
       <c r="N236" s="24">
         <f t="shared" si="46"/>
-        <v>-1.6063338062331203E-2</v>
+        <v>-8.2925266578187887E-3</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="47"/>
-        <v>-17.549999999999955</v>
+        <v>-9.059999999999917</v>
       </c>
       <c r="P236" s="24">
         <f t="shared" si="48"/>
-        <v>5.1101421014054706E-3</v>
+        <v>4.9880339023703644E-3</v>
       </c>
       <c r="Q236" s="139"/>
       <c r="S236" s="25"/>
@@ -16627,7 +16611,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>108.58</v>
+        <v>111</v>
       </c>
       <c r="K237" s="12">
         <v>109.474</v>
@@ -16637,19 +16621,19 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="45"/>
-        <v>1085.8</v>
+        <v>1110</v>
       </c>
       <c r="N237" s="24">
         <f t="shared" si="46"/>
-        <v>-8.1663225971464037E-3</v>
+        <v>1.3939382867164771E-2</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="47"/>
-        <v>-8.9400000000000546</v>
+        <v>15.259999999999962</v>
       </c>
       <c r="P237" s="24">
         <f t="shared" si="48"/>
-        <v>5.1614812034474974E-3</v>
+        <v>5.1100772795605902E-3</v>
       </c>
       <c r="Q237" s="139"/>
       <c r="S237" s="25"/>
@@ -16727,7 +16711,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>111.2</v>
+        <v>111.35</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -16737,19 +16721,19 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="45"/>
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="N239" s="24">
         <f t="shared" si="46"/>
-        <v>2.397878374894102E-2</v>
+        <v>2.5360050093926025E-2</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="47"/>
-        <v>52.079999999999984</v>
+        <v>55.079999999999814</v>
       </c>
       <c r="P239" s="24">
         <f t="shared" si="48"/>
-        <v>1.0572052124210016E-2</v>
+        <v>1.0252380271694986E-2</v>
       </c>
       <c r="Q239" s="139" t="s">
         <v>192</v>
@@ -16996,7 +16980,7 @@
       <c r="S244" s="25"/>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B245" s="160">
+      <c r="B245" s="159">
         <v>244</v>
       </c>
       <c r="C245" s="30">
@@ -17020,35 +17004,35 @@
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="12">
-        <v>106.55</v>
+        <v>107.7</v>
       </c>
       <c r="K245" s="12">
-        <v>108.16</v>
+        <v>106.852</v>
       </c>
       <c r="L245" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M245" s="11">
         <f t="shared" si="45"/>
-        <v>1065.5</v>
+        <v>2154</v>
       </c>
       <c r="N245" s="24">
         <f t="shared" si="46"/>
-        <v>-1.4885355029585793E-2</v>
+        <v>7.9362108336764776E-3</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="47"/>
-        <v>-16.099999999999994</v>
+        <v>16.95999999999998</v>
       </c>
       <c r="P245" s="24">
         <f t="shared" si="48"/>
-        <v>5.0649827060907241E-3</v>
+        <v>9.9163121262824429E-3</v>
       </c>
       <c r="Q245" s="84"/>
       <c r="S245" s="25"/>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B246" s="160">
+      <c r="B246" s="159">
         <v>245</v>
       </c>
       <c r="C246" s="30">
@@ -17094,8 +17078,8 @@
       <c r="S246" s="25"/>
     </row>
     <row r="247" spans="1:19" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="158"/>
-      <c r="B247" s="160">
+      <c r="A247" s="157"/>
+      <c r="B247" s="159">
         <v>246</v>
       </c>
       <c r="C247" s="144">
@@ -17137,14 +17121,14 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="Q247" s="159" t="s">
+      <c r="Q247" s="158" t="s">
         <v>201</v>
       </c>
       <c r="S247" s="152"/>
     </row>
     <row r="248" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="158"/>
-      <c r="B248" s="160">
+      <c r="A248" s="157"/>
+      <c r="B248" s="159">
         <v>247</v>
       </c>
       <c r="C248" s="144">
@@ -17186,11 +17170,11 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="Q248" s="159"/>
+      <c r="Q248" s="158"/>
       <c r="S248" s="152"/>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B249" s="160">
+      <c r="B249" s="159">
         <v>248</v>
       </c>
       <c r="C249" s="30">
@@ -17238,7 +17222,7 @@
       <c r="S249" s="25"/>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B250" s="160">
+      <c r="B250" s="159">
         <v>249</v>
       </c>
       <c r="C250" s="30">
@@ -17286,7 +17270,7 @@
       <c r="S250" s="25"/>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B251" s="160">
+      <c r="B251" s="159">
         <v>250</v>
       </c>
       <c r="C251" s="30">
@@ -17358,7 +17342,7 @@
       </c>
       <c r="I252" s="15"/>
       <c r="J252" s="12">
-        <v>109.122</v>
+        <v>111.51300000000001</v>
       </c>
       <c r="K252" s="12">
         <v>109.35</v>
@@ -17368,19 +17352,19 @@
       </c>
       <c r="M252" s="11">
         <f t="shared" si="49"/>
-        <v>1091.22</v>
+        <v>1115.1300000000001</v>
       </c>
       <c r="N252" s="24">
         <f t="shared" si="50"/>
-        <v>-2.0850480109738862E-3</v>
+        <v>1.9780521262002845E-2</v>
       </c>
       <c r="O252" s="11">
         <f t="shared" si="51"/>
-        <v>-2.2799999999999443</v>
+        <v>21.630000000000109</v>
       </c>
       <c r="P252" s="24">
         <f t="shared" si="52"/>
-        <v>5.1872458268797002E-3</v>
+        <v>5.1336941232039655E-3</v>
       </c>
       <c r="Q252" s="84" t="s">
         <v>106</v>
@@ -17412,7 +17396,7 @@
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="12">
-        <v>110.49</v>
+        <v>112.258</v>
       </c>
       <c r="K253" s="12">
         <v>109.39100000000001</v>
@@ -17422,19 +17406,19 @@
       </c>
       <c r="M253" s="11">
         <f t="shared" si="49"/>
-        <v>1104.8999999999999</v>
+        <v>1122.58</v>
       </c>
       <c r="N253" s="24">
         <f t="shared" si="50"/>
-        <v>1.0046530336133589E-2</v>
+        <v>2.6208737464690789E-2</v>
       </c>
       <c r="O253" s="11">
         <f t="shared" si="51"/>
-        <v>10.989999999999895</v>
+        <v>28.669999999999902</v>
       </c>
       <c r="P253" s="24">
         <f t="shared" si="52"/>
-        <v>5.2522753561329337E-3</v>
+        <v>5.1679914887289439E-3</v>
       </c>
       <c r="Q253" s="84" t="s">
         <v>106</v>
@@ -17490,7 +17474,7 @@
       <c r="S254" s="25"/>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B255" s="161">
+      <c r="B255" s="160">
         <v>254</v>
       </c>
       <c r="C255" s="30">
@@ -17500,7 +17484,7 @@
         <v>113013</v>
       </c>
       <c r="E255" s="120" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F255" s="20">
         <v>10</v>
@@ -17514,7 +17498,7 @@
       </c>
       <c r="I255" s="15"/>
       <c r="J255" s="12">
-        <v>105.935</v>
+        <v>106.316</v>
       </c>
       <c r="K255" s="12">
         <v>107.008</v>
@@ -17524,19 +17508,19 @@
       </c>
       <c r="M255" s="11">
         <f t="shared" si="49"/>
-        <v>2118.6999999999998</v>
+        <v>2126.3200000000002</v>
       </c>
       <c r="N255" s="24">
         <f t="shared" si="50"/>
-        <v>-1.0027287679425775E-2</v>
+        <v>-6.4668062200956295E-3</v>
       </c>
       <c r="O255" s="11">
         <f t="shared" si="51"/>
-        <v>-21.459999999999866</v>
+        <v>-13.839999999999861</v>
       </c>
       <c r="P255" s="24">
         <f t="shared" si="52"/>
-        <v>1.007149587930025E-2</v>
+        <v>9.7888824514191664E-3</v>
       </c>
       <c r="Q255" s="84" t="s">
         <v>106</v>
@@ -17544,7 +17528,7 @@
       <c r="S255" s="25"/>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B256" s="161">
+      <c r="B256" s="160">
         <v>255</v>
       </c>
       <c r="C256" s="30">
@@ -17592,7 +17576,7 @@
       <c r="S256" s="25"/>
     </row>
     <row r="257" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B257" s="162">
+      <c r="B257" s="161">
         <v>256</v>
       </c>
       <c r="C257" s="30">
@@ -17602,7 +17586,7 @@
         <v>113013</v>
       </c>
       <c r="E257" s="120" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F257" s="20">
         <v>10</v>
@@ -17640,7 +17624,7 @@
       <c r="S257" s="25"/>
     </row>
     <row r="258" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B258" s="162">
+      <c r="B258" s="161">
         <v>257</v>
       </c>
       <c r="C258" s="30">
@@ -17664,7 +17648,7 @@
       </c>
       <c r="I258" s="15"/>
       <c r="J258" s="12">
-        <v>109.1</v>
+        <v>111.747</v>
       </c>
       <c r="K258" s="12">
         <v>109.014</v>
@@ -17674,25 +17658,25 @@
       </c>
       <c r="M258" s="11">
         <f t="shared" si="49"/>
-        <v>1091</v>
+        <v>1117.47</v>
       </c>
       <c r="N258" s="24">
         <f t="shared" si="50"/>
-        <v>7.8888950043112371E-4</v>
+        <v>2.5070174473003505E-2</v>
       </c>
       <c r="O258" s="11">
         <f t="shared" si="51"/>
-        <v>0.85999999999998522</v>
+        <v>27.330000000000041</v>
       </c>
       <c r="P258" s="24">
         <f t="shared" si="52"/>
-        <v>5.1862000303566219E-3</v>
+        <v>5.1444667185500661E-3</v>
       </c>
       <c r="Q258" s="84"/>
       <c r="S258" s="25"/>
     </row>
     <row r="259" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B259" s="162">
+      <c r="B259" s="161">
         <v>258</v>
       </c>
       <c r="C259" s="30">
@@ -17740,7 +17724,7 @@
       <c r="S259" s="25"/>
     </row>
     <row r="260" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B260" s="162">
+      <c r="B260" s="161">
         <v>259</v>
       </c>
       <c r="C260" s="30">
@@ -17846,7 +17830,7 @@
         <v>127061</v>
       </c>
       <c r="E262" s="120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F262" s="20">
         <v>10</v>
@@ -17860,7 +17844,7 @@
       </c>
       <c r="I262" s="15"/>
       <c r="J262" s="12">
-        <v>108.4</v>
+        <v>111.13800000000001</v>
       </c>
       <c r="K262" s="12">
         <v>108.041</v>
@@ -17870,35 +17854,46 @@
       </c>
       <c r="M262" s="11">
         <f t="shared" si="49"/>
-        <v>1084</v>
+        <v>1111.3800000000001</v>
       </c>
       <c r="N262" s="24">
         <f t="shared" si="50"/>
-        <v>3.3228126359438441E-3</v>
+        <v>2.8665043825955042E-2</v>
       </c>
       <c r="O262" s="11">
         <f t="shared" si="51"/>
-        <v>3.5900000000000887</v>
+        <v>30.970000000000084</v>
       </c>
       <c r="P262" s="24">
         <f t="shared" si="52"/>
-        <v>5.1529246864404927E-3</v>
+        <v>5.1164303486108554E-3</v>
       </c>
       <c r="Q262" s="84"/>
       <c r="S262" s="25"/>
     </row>
     <row r="263" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B263" s="114">
+      <c r="B263" s="134">
         <v>262</v>
       </c>
-      <c r="C263" s="30"/>
+      <c r="C263" s="30">
+        <v>44865</v>
+      </c>
       <c r="D263" s="31">
-        <v>0</v>
-      </c>
-      <c r="E263" s="120"/>
-      <c r="F263" s="20"/>
-      <c r="G263" s="20"/>
-      <c r="H263" s="14"/>
+        <v>128114</v>
+      </c>
+      <c r="E263" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F263" s="20">
+        <v>10</v>
+      </c>
+      <c r="G263" s="20">
+        <v>89.111000000000004</v>
+      </c>
+      <c r="H263" s="14">
+        <f t="shared" si="42"/>
+        <v>891.11</v>
+      </c>
       <c r="I263" s="15"/>
       <c r="J263" s="12"/>
       <c r="K263" s="12"/>
@@ -17923,50 +17918,80 @@
       <c r="S263" s="25"/>
     </row>
     <row r="264" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B264" s="114">
+      <c r="B264" s="134">
         <v>263</v>
       </c>
-      <c r="C264" s="30"/>
+      <c r="C264" s="30">
+        <v>44866</v>
+      </c>
       <c r="D264" s="31">
-        <v>0</v>
-      </c>
-      <c r="E264" s="120"/>
-      <c r="F264" s="20"/>
-      <c r="G264" s="20"/>
-      <c r="H264" s="14"/>
+        <v>127022</v>
+      </c>
+      <c r="E264" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="F264" s="20">
+        <v>10</v>
+      </c>
+      <c r="G264" s="20">
+        <v>105.502</v>
+      </c>
+      <c r="H264" s="14">
+        <f t="shared" si="42"/>
+        <v>1055.02</v>
+      </c>
       <c r="I264" s="15"/>
-      <c r="J264" s="12"/>
-      <c r="K264" s="12"/>
-      <c r="L264" s="12"/>
+      <c r="J264" s="12">
+        <v>109.8</v>
+      </c>
+      <c r="K264" s="12">
+        <v>105.532</v>
+      </c>
+      <c r="L264" s="12">
+        <v>10</v>
+      </c>
       <c r="M264" s="11">
         <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N264" s="24" t="e">
+        <v>1098</v>
+      </c>
+      <c r="N264" s="24">
         <f t="shared" si="50"/>
-        <v>#DIV/0!</v>
+        <v>4.0442709320395717E-2</v>
       </c>
       <c r="O264" s="11">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>42.680000000000007</v>
       </c>
       <c r="P264" s="24">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5.054833200862638E-3</v>
       </c>
       <c r="Q264" s="84"/>
       <c r="S264" s="25"/>
     </row>
     <row r="265" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B265" s="114"/>
-      <c r="C265" s="30"/>
+      <c r="B265" s="134">
+        <v>264</v>
+      </c>
+      <c r="C265" s="30">
+        <v>44868</v>
+      </c>
       <c r="D265" s="31">
-        <v>0</v>
-      </c>
-      <c r="E265" s="120"/>
-      <c r="F265" s="20"/>
-      <c r="G265" s="20"/>
-      <c r="H265" s="14"/>
+        <v>127025</v>
+      </c>
+      <c r="E265" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="F265" s="20">
+        <v>10</v>
+      </c>
+      <c r="G265" s="20">
+        <v>105.502</v>
+      </c>
+      <c r="H265" s="14">
+        <f t="shared" si="42"/>
+        <v>1055.02</v>
+      </c>
       <c r="I265" s="15"/>
       <c r="J265" s="12"/>
       <c r="K265" s="12"/>
@@ -17991,15 +18016,28 @@
       <c r="S265" s="25"/>
     </row>
     <row r="266" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B266" s="114"/>
-      <c r="C266" s="30"/>
+      <c r="B266" s="134">
+        <v>265</v>
+      </c>
+      <c r="C266" s="30">
+        <v>44869</v>
+      </c>
       <c r="D266" s="31">
-        <v>0</v>
-      </c>
-      <c r="E266" s="120"/>
-      <c r="F266" s="20"/>
-      <c r="G266" s="20"/>
-      <c r="H266" s="14"/>
+        <v>113043</v>
+      </c>
+      <c r="E266" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="F266" s="20">
+        <v>10</v>
+      </c>
+      <c r="G266" s="20">
+        <v>104.989</v>
+      </c>
+      <c r="H266" s="14">
+        <f t="shared" si="42"/>
+        <v>1049.8900000000001</v>
+      </c>
       <c r="I266" s="15"/>
       <c r="J266" s="12"/>
       <c r="K266" s="12"/>
@@ -18024,7 +18062,9 @@
       <c r="S266" s="25"/>
     </row>
     <row r="267" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B267" s="114"/>
+      <c r="B267" s="134">
+        <v>266</v>
+      </c>
       <c r="C267" s="30"/>
       <c r="D267" s="31">
         <v>0</v>
@@ -18057,7 +18097,9 @@
       <c r="S267" s="25"/>
     </row>
     <row r="268" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B268" s="114"/>
+      <c r="B268" s="114">
+        <v>267</v>
+      </c>
       <c r="C268" s="30"/>
       <c r="D268" s="31">
         <v>0</v>
@@ -18090,7 +18132,9 @@
       <c r="S268" s="25"/>
     </row>
     <row r="269" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B269" s="114"/>
+      <c r="B269" s="114">
+        <v>268</v>
+      </c>
       <c r="C269" s="30"/>
       <c r="D269" s="31">
         <v>0</v>
@@ -18111,7 +18155,9 @@
       <c r="S269" s="25"/>
     </row>
     <row r="270" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B270" s="114"/>
+      <c r="B270" s="114">
+        <v>269</v>
+      </c>
       <c r="C270" s="30"/>
       <c r="D270" s="31">
         <v>0</v>
@@ -18132,7 +18178,9 @@
       <c r="S270" s="25"/>
     </row>
     <row r="271" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B271" s="114"/>
+      <c r="B271" s="114">
+        <v>270</v>
+      </c>
       <c r="C271" s="30"/>
       <c r="D271" s="31">
         <v>0</v>
@@ -19692,12 +19740,12 @@
       <c r="E352" s="120"/>
       <c r="F352" s="20">
         <f>SUM(F3:F351)</f>
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="G352" s="20"/>
       <c r="H352" s="14">
         <f>SUM(H3:H351)</f>
-        <v>200428.11999999994</v>
+        <v>204479.15999999992</v>
       </c>
       <c r="I352" s="15"/>
       <c r="J352" s="12">
@@ -19706,19 +19754,19 @@
       <c r="K352" s="12"/>
       <c r="L352" s="12">
         <f>SUM(L3:L351)</f>
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="M352" s="11">
         <f>SUM(M3:M351)</f>
-        <v>210365.96999999997</v>
+        <v>217217.84999999992</v>
       </c>
       <c r="N352" s="24">
         <f>O352/M352</f>
-        <v>3.0976540549785676E-2</v>
+        <v>4.2704639604894339E-2</v>
       </c>
       <c r="O352" s="11">
         <f>SUM(O3:O351)</f>
-        <v>6516.4099999999962</v>
+        <v>9276.2099999999937</v>
       </c>
       <c r="P352" s="24"/>
       <c r="Q352" s="84"/>
@@ -19838,10 +19886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8963A-C8D0-4542-8EAA-DE8EB04670D4}">
-  <dimension ref="B2:Q62"/>
+  <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19854,16 +19902,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="180">
+      <c r="B2" s="179">
         <v>44805</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="182"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="115" t="s">
@@ -20526,7 +20574,7 @@
         <v>200</v>
       </c>
       <c r="I23" s="115"/>
-      <c r="M23" s="156"/>
+      <c r="M23" s="155"/>
       <c r="N23" s="127"/>
       <c r="Q23" s="153"/>
     </row>
@@ -20559,7 +20607,7 @@
         <v>210</v>
       </c>
       <c r="I24" s="115"/>
-      <c r="M24" s="156"/>
+      <c r="M24" s="155"/>
       <c r="N24" s="120"/>
       <c r="Q24" s="153"/>
     </row>
@@ -20625,7 +20673,7 @@
         <v>230</v>
       </c>
       <c r="I26" s="115"/>
-      <c r="M26" s="156"/>
+      <c r="M26" s="155"/>
       <c r="N26" s="120"/>
       <c r="Q26" s="153"/>
     </row>
@@ -20691,7 +20739,7 @@
         <v>251</v>
       </c>
       <c r="I28" s="115"/>
-      <c r="M28" s="156"/>
+      <c r="M28" s="155"/>
       <c r="N28" s="120"/>
       <c r="Q28" s="153"/>
     </row>
@@ -20757,7 +20805,7 @@
         <v>276</v>
       </c>
       <c r="I30" s="115"/>
-      <c r="M30" s="157"/>
+      <c r="M30" s="156"/>
       <c r="Q30" s="153"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -20789,9 +20837,12 @@
         <v>290</v>
       </c>
       <c r="I31" s="115"/>
-      <c r="M31" s="157" t="s">
-        <v>208</v>
-      </c>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156" t="s">
+        <v>207</v>
+      </c>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
       <c r="Q31" s="153"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
@@ -20823,9 +20874,12 @@
         <v>305</v>
       </c>
       <c r="I32" s="115"/>
-      <c r="M32" s="163" t="s">
-        <v>232</v>
-      </c>
+      <c r="L32" s="156"/>
+      <c r="M32" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
       <c r="Q32" s="153"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
@@ -20857,7 +20911,10 @@
         <v>321</v>
       </c>
       <c r="I33" s="115"/>
-      <c r="M33" s="157"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
       <c r="Q33" s="153"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
@@ -20889,7 +20946,12 @@
         <v>338</v>
       </c>
       <c r="I34" s="115"/>
-      <c r="M34" s="157"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" s="156"/>
+      <c r="O34" s="156"/>
       <c r="Q34" s="153"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
@@ -20921,9 +20983,10 @@
         <v>356</v>
       </c>
       <c r="I35" s="115"/>
-      <c r="M35" s="155" t="s">
-        <v>233</v>
-      </c>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="115">
@@ -20954,7 +21017,12 @@
         <v>375</v>
       </c>
       <c r="I36" s="115"/>
-      <c r="M36" s="157"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156" t="s">
+        <v>215</v>
+      </c>
+      <c r="N36" s="156"/>
+      <c r="O36" s="156"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="115">
@@ -20985,142 +21053,216 @@
         <v>395</v>
       </c>
       <c r="I37" s="115"/>
-      <c r="M37" s="157" t="s">
-        <v>234</v>
-      </c>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M38" s="155" t="s">
-        <v>235</v>
-      </c>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156" t="s">
+        <v>217</v>
+      </c>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M39" t="s">
-        <v>236</v>
-      </c>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L40" s="156"/>
+      <c r="M40" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="N40" s="156"/>
+      <c r="O40" s="156"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="156"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="156"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="156"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D47" s="156" t="s">
         <v>202</v>
       </c>
-      <c r="M43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D44" s="155" t="s">
-        <v>213</v>
-      </c>
-      <c r="M44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>214</v>
-      </c>
-      <c r="M45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>215</v>
-      </c>
-      <c r="M46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>216</v>
-      </c>
-      <c r="M47" t="s">
-        <v>241</v>
-      </c>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D48" s="155" t="s">
-        <v>217</v>
-      </c>
-      <c r="M48" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>218</v>
-      </c>
-      <c r="M49" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D51" s="157" t="s">
+      <c r="D48" s="156" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D49" s="156" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D50" s="156" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D51" s="156" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D55" s="155" t="s">
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D52" s="156" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="155"/>
-      <c r="F55" s="155"/>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
+      <c r="E52" s="156"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D54" s="156" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>231</v>
-      </c>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21957,14 +22099,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184" t="s">
+      <c r="B1" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="185"/>
+      <c r="E1" s="184"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF255C0-AFF2-4599-AD44-863BC6EC961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7F9BFD-9CC7-4AB9-BABE-9B7F8AE2CCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="6060" yWindow="810" windowWidth="21600" windowHeight="14055" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -20,26 +20,19 @@
     <sheet name="s" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cb!$A$2:$W$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cb!$A$2:$W$417</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="250">
   <si>
     <t>收入</t>
   </si>
@@ -821,9 +814,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>===========low 110==================</t>
-  </si>
-  <si>
     <t>科沃转债</t>
   </si>
   <si>
@@ -860,50 +850,145 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$threshold 92.81305962452802 128100 搜特转债 total: 110 现价: 92.436 成本 94.585</t>
-  </si>
-  <si>
-    <t>$$$threshold 97.118149369066 113596 城地转债 total: 60 现价: 96.598 成本 96.353</t>
-  </si>
-  <si>
-    <t>$threshold 97.118149369066 110072 广汇转债 total: 80 现价: 96.252 成本 97.906</t>
-  </si>
-  <si>
-    <t>$$$threshold 92.81305962452802 128114 正邦转债 total: 90 现价: 92.0 成本 96.742</t>
-  </si>
-  <si>
-    <t>$threshold 98.59710595844264 127047 帝欧转债 total: 70 现价: 98.108 成本 103.448</t>
-  </si>
-  <si>
-    <t>$threshold 104.74161009999997 110073 国投转债 total: 30 现价: 103.998 成本 105.187</t>
-  </si>
-  <si>
-    <t>$threshold 106.33665999999998 113013 国君转债 total: 20 现价: 106.316 成本 107.008</t>
-  </si>
-  <si>
-    <t>113056 重银转债 转债最新价 99.692 到期赎回价 110.0 当日涨跌幅 0.33 收益率 10.339846727922007</t>
-  </si>
-  <si>
-    <t>113052 兴业转债 转债最新价 103.165 到期赎回价 109.0 当日涨跌幅 0.74 收益率 5.655987980419709</t>
-  </si>
-  <si>
-    <t>113042 上银转债 转债最新价 107.198 到期赎回价 112.0 当日涨跌幅 -0.01 收益率 4.479561185843026</t>
-  </si>
-  <si>
-    <t>128129 青农转债 转债最新价 101.6 到期赎回价 108.0 当日涨跌幅 0.54 收益率 6.2992125984252025</t>
-  </si>
-  <si>
-    <t>113037 紫银转债 转债最新价 103.772 到期赎回价 110.0 当日涨跌幅 0.3 收益率 6.001618933816439</t>
-  </si>
-  <si>
-    <t>110059 浦发转债 转债最新价 106.669 到期赎回价 110.0 当日涨跌幅 0.1 收益率 3.1227441899708475</t>
-  </si>
-  <si>
     <t>负收益总数: 23</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">负收益总数: 12，持仓个数: 67.  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汇转债</t>
+  </si>
+  <si>
+    <t>重银转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇达转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤21转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>健凡转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游族转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/11/17可转债盘中大D2.5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现了很多标的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负收益总数: 39. 大跌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒逸转2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>众信转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续14天，就差最后一天满足强赎，结果没有保持130之上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣泰转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪美转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大股东减持，博弈下修</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负收益总数: 35，持仓个数: 79</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负收益总数: 23持仓个数: 79</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$threshold98.597          113589 天创转债 total: 70 现价:97.877  成本98.477   收益 -0.609 当日涨幅 0.38</t>
+  </si>
+  <si>
+    <t>$threshold98.597          113596 城地转债 total: 70 现价:97.298  成本96.223   收益 1.117 当日涨幅 0.4</t>
+  </si>
+  <si>
+    <t>$threshold104.742         113578 全筑转债 total: 30 现价:104.465 成本101.34   收益 3.084 当日涨幅 0.13</t>
+  </si>
+  <si>
+    <t>$threshold104.742         110073 国投转债 total: 30 现价:104.536 成本105.187  收益 -0.619 当日涨幅 0.11</t>
+  </si>
+  <si>
+    <t>$threshold107.956         123049 维尔转债 total: 10 现价:107.63  成本105.44   收益 2.077 当日涨幅 0.62</t>
+  </si>
+  <si>
+    <t>$threshold106.337         110062 烽火转债 total: 20 现价:106.208 成本107.707  收益 -1.392 当日涨幅 0.25</t>
+  </si>
+  <si>
+    <t>$$$$threshold101.623      113056 重银转债 total: 20 现价:99.121  成本98.782   收益 0.343 当日涨幅 -0.08</t>
+  </si>
+  <si>
+    <t>==========================</t>
+  </si>
+  <si>
+    <t>$threshold106.337         113054 绿动转债 total: 20 现价:105.827 成本108.665  收益 -2.612 当日涨幅 -0.05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞力转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿动转债</t>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>垒知转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">帝欧转债 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负收益总数: 25 持仓个数: 79</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1038,7 +1123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1917,6 +2014,61 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2185,10 +2337,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$58</c:f>
+              <c:f>收益weekly!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -2318,15 +2470,30 @@
                 <c:pt idx="42">
                   <c:v>44869</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$B$2:$B$58</c:f>
+              <c:f>收益weekly!$B$2:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>475.78</c:v>
                 </c:pt>
@@ -2456,8 +2623,23 @@
                 <c:pt idx="42">
                   <c:v>9276.2099999999991</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>15000</c:v>
+                <c:pt idx="43">
+                  <c:v>9962.94</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7385.61</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8503.5300000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13076.87</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11754.38</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,10 +2726,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$58</c:f>
+              <c:f>收益weekly!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -2677,15 +2859,30 @@
                 <c:pt idx="42">
                   <c:v>44869</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>44877</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44884</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44897</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$C$2:$C$58</c:f>
+              <c:f>收益weekly!$C$2:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
@@ -2815,13 +3012,28 @@
                 <c:pt idx="42">
                   <c:v>4.2700000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
+                <c:pt idx="43">
+                  <c:v>4.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.6499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.5900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3567,16 +3779,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2124075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5686425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>7172325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3901,11 +4113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4473,7 +4685,7 @@
         <v>1900</v>
       </c>
       <c r="G40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4496,7 +4708,7 @@
         <v>1930</v>
       </c>
       <c r="G41" s="60" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4519,7 +4731,7 @@
         <v>1950</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4542,7 +4754,7 @@
         <v>2010</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4565,94 +4777,149 @@
         <v>2050</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="28">
+        <v>44877</v>
+      </c>
+      <c r="B45" s="47">
+        <v>9962.94</v>
+      </c>
+      <c r="C45" s="29">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="D45" s="140">
+        <v>137.09</v>
+      </c>
+      <c r="E45" s="140">
+        <v>3087</v>
+      </c>
+      <c r="F45" s="140">
+        <v>2080</v>
+      </c>
+      <c r="G45" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="28">
+        <v>44884</v>
+      </c>
+      <c r="B46" s="94">
+        <v>7385.61</v>
+      </c>
+      <c r="C46" s="29">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F46" s="140">
+        <v>2170</v>
+      </c>
+      <c r="G46" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="28">
+        <v>44890</v>
+      </c>
+      <c r="B47" s="47">
+        <v>8503.5300000000007</v>
+      </c>
+      <c r="C47" s="29">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="D47" s="140">
+        <v>133.02000000000001</v>
+      </c>
+      <c r="E47" s="140">
+        <v>3101.69</v>
+      </c>
+      <c r="F47" s="140">
+        <v>2210</v>
+      </c>
+      <c r="G47" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="28">
+        <v>44897</v>
+      </c>
+      <c r="B48" s="47">
+        <v>13076.87</v>
+      </c>
+      <c r="C48" s="29">
+        <v>5.4899999999999997E-2</v>
+      </c>
       <c r="D48" s="140">
-        <v>0</v>
+        <v>136.15</v>
       </c>
       <c r="E48" s="140">
-        <v>0</v>
+        <v>3156.14</v>
       </c>
       <c r="F48" s="140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="29"/>
+        <v>2220</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="28">
+        <v>44905</v>
+      </c>
+      <c r="B49" s="94">
+        <v>11754.38</v>
+      </c>
+      <c r="C49" s="29">
+        <v>4.5900000000000003E-2</v>
+      </c>
       <c r="D49" s="140">
-        <v>0</v>
+        <v>135.29</v>
       </c>
       <c r="E49" s="140">
-        <v>0</v>
+        <v>3206.95</v>
       </c>
       <c r="F49" s="140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="47"/>
       <c r="C50" s="29"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="28"/>
       <c r="B51" s="47"/>
       <c r="C51" s="29"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="47"/>
       <c r="C52" s="29"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="47"/>
       <c r="C53" s="29"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="28"/>
       <c r="B54" s="47"/>
       <c r="C54" s="29"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="28"/>
       <c r="B55" s="47"/>
-      <c r="C55" s="29">
-        <v>0</v>
-      </c>
-      <c r="D55" s="140">
-        <v>0</v>
-      </c>
-      <c r="E55" s="140">
-        <v>0</v>
-      </c>
-      <c r="F55" s="140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="29"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="47"/>
       <c r="C56" s="29">
@@ -4668,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="28"/>
       <c r="B57" s="47"/>
       <c r="C57" s="29">
@@ -4684,12 +4951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="28"/>
-      <c r="B58" s="47">
-        <v>15000</v>
-      </c>
-      <c r="C58" s="29"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="29">
+        <v>0</v>
+      </c>
       <c r="D58" s="140">
         <v>0</v>
       </c>
@@ -4697,6 +4964,22 @@
         <v>0</v>
       </c>
       <c r="F58" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="47">
+        <v>25000</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="140">
+        <v>0</v>
+      </c>
+      <c r="E59" s="140">
+        <v>0</v>
+      </c>
+      <c r="F59" s="140">
         <v>0</v>
       </c>
     </row>
@@ -4710,11 +4993,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W370"/>
+  <dimension ref="A1:W424"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I275" sqref="I275"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q313" sqref="Q313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4741,47 +5024,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="165"/>
-      <c r="B1" s="171" t="s">
+      <c r="A1" s="182"/>
+      <c r="B1" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="E1" s="194" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="170" t="s">
+      <c r="F1" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="169" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="167" t="s">
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="186" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="163" t="s">
+      <c r="S1" s="180" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="178"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="19" t="s">
         <v>116</v>
       </c>
@@ -4815,11 +5098,11 @@
       <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="168"/>
+      <c r="Q2" s="185"/>
       <c r="R2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="164"/>
+      <c r="S2" s="181"/>
     </row>
     <row r="3" spans="1:23" s="104" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
@@ -4866,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="57">
-        <f t="shared" ref="P3:P34" si="2">M3/$M$352</f>
+        <f t="shared" ref="P3:P34" si="2">M3/$M$406</f>
         <v>0</v>
       </c>
       <c r="Q3" s="103"/>
@@ -4900,7 +5183,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>105.46</v>
+        <v>104.16200000000001</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -4910,19 +5193,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4218.3999999999996</v>
+        <v>4166.4800000000005</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="1"/>
-        <v>2.6764416664232606E-2</v>
+        <v>1.412701658050265E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>109.95999999999981</v>
+        <v>58.040000000000305</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="2"/>
-        <v>1.9420135131620175E-2</v>
+        <v>1.6266772444466657E-2</v>
       </c>
       <c r="Q4" s="84"/>
       <c r="S4" s="25"/>
@@ -5008,7 +5291,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="12">
-        <v>113.1</v>
+        <v>111.8</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -5018,19 +5301,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="1"/>
-        <v>0.18589508341109981</v>
+        <v>0.17226410544085732</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>177.29</v>
+        <v>164.29000000000002</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>5.2067544172820068E-3</v>
+        <v>4.3648959296369401E-3</v>
       </c>
       <c r="Q6" s="84"/>
       <c r="R6" s="51"/>
@@ -5061,29 +5344,29 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>110.229</v>
+        <v>114.57299999999999</v>
       </c>
       <c r="K7" s="12">
-        <v>98.007999999999996</v>
+        <v>106.36499999999999</v>
       </c>
       <c r="L7" s="12">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>5511.45</v>
+        <v>10311.57</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="1"/>
-        <v>0.12469390253856832</v>
+        <v>7.7168241432802126E-2</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>611.05000000000018</v>
+        <v>738.7199999999998</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="2"/>
-        <v>2.5372914794985778E-2</v>
+        <v>4.0258434634316977E-2</v>
       </c>
       <c r="Q7" s="84"/>
       <c r="S7" s="25"/>
@@ -5112,7 +5395,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>107.11799999999999</v>
+        <v>108.2</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -5122,19 +5405,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3213.54</v>
+        <v>3246</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="1"/>
-        <v>1.3923727129023913E-2</v>
+        <v>2.4165380938408067E-2</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>44.129999999999683</v>
+        <v>76.589999999999918</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="2"/>
-        <v>1.4794088054918143E-2</v>
+        <v>1.2673034157067539E-2</v>
       </c>
       <c r="Q8" s="84"/>
       <c r="S8" s="25"/>
@@ -5161,7 +5444,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="12">
-        <v>117.5</v>
+        <v>119.499</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -5171,19 +5454,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1175</v>
+        <v>1194.99</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0.1938630359682991</v>
+        <v>0.21417394838447462</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>190.79999999999998</v>
+        <v>210.78999999999994</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="2"/>
-        <v>5.4093160391744987E-3</v>
+        <v>4.6654803103370725E-3</v>
       </c>
       <c r="Q9" s="84"/>
       <c r="S9" s="25"/>
@@ -5369,7 +5652,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="12">
-        <v>105.88500000000001</v>
+        <v>105.116</v>
       </c>
       <c r="K13" s="12">
         <v>103.81699999999999</v>
@@ -5379,19 +5662,19 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>3176.55</v>
+        <v>3153.48</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>1.9919666335956657E-2</v>
+        <v>1.2512401629790946E-2</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>62.040000000000362</v>
+        <v>38.970000000000198</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="2"/>
-        <v>1.4623798182331707E-2</v>
+        <v>1.2311817545788461E-2</v>
       </c>
       <c r="Q13" s="84"/>
       <c r="S13" s="25"/>
@@ -5560,7 +5843,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="12">
-        <v>119.642</v>
+        <v>118.97</v>
       </c>
       <c r="K17" s="12">
         <v>111.39400000000001</v>
@@ -5570,19 +5853,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>7178.5199999999995</v>
+        <v>7138.2</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>7.4043485286460584E-2</v>
+        <v>6.8010844390182526E-2</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>494.87999999999943</v>
+        <v>454.5599999999996</v>
       </c>
       <c r="P17" s="24">
         <f t="shared" si="2"/>
-        <v>3.3047560317902062E-2</v>
+        <v>2.7868962544664047E-2</v>
       </c>
       <c r="Q17" s="84"/>
       <c r="S17" s="46"/>
@@ -5615,7 +5898,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="12">
-        <v>117.164</v>
+        <v>122.124</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -5625,19 +5908,19 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2343.2800000000002</v>
+        <v>2442.48</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>7.8709202228053277E-2</v>
+        <v>0.12437508631404504</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>170.98000000000013</v>
+        <v>270.18</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="2"/>
-        <v>1.0787695394278145E-2</v>
+        <v>9.5359311361535182E-3</v>
       </c>
       <c r="Q18" s="84"/>
       <c r="R18" s="50"/>
@@ -5669,29 +5952,29 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="12">
-        <v>92.436000000000007</v>
+        <v>95.028000000000006</v>
       </c>
       <c r="K19" s="12">
-        <v>94.584999999999994</v>
+        <v>95.123000000000005</v>
       </c>
       <c r="L19" s="12">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>10167.960000000001</v>
+        <v>16154.76</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>-2.2720304488026505E-2</v>
+        <v>-9.9870693733375578E-4</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>-236.38999999999854</v>
+        <v>-16.149999999999807</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="2"/>
-        <v>4.6809965203135954E-2</v>
+        <v>6.3071418755153541E-2</v>
       </c>
       <c r="Q19" s="84"/>
       <c r="S19" s="25"/>
@@ -5721,7 +6004,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>98.313000000000002</v>
+        <v>97.417000000000002</v>
       </c>
       <c r="K20" s="12">
         <v>98.477000000000004</v>
@@ -5731,19 +6014,19 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>6881.91</v>
+        <v>6819.1900000000005</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>-1.6653634858901213E-3</v>
+        <v>-1.0763934725875101E-2</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>-11.480000000000103</v>
+        <v>-74.200000000000159</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="2"/>
-        <v>3.1682064802685428E-2</v>
+        <v>2.6623483608605482E-2</v>
       </c>
       <c r="Q20" s="84"/>
       <c r="S20" s="25"/>
@@ -5775,7 +6058,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="12">
-        <v>108.2</v>
+        <v>110.786</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -5785,19 +6068,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2164</v>
+        <v>2215.7200000000003</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>5.3605336189688012E-2</v>
+        <v>7.8786698476070005E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>110.10000000000019</v>
+        <v>161.82000000000016</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="2"/>
-        <v>9.9623488585307372E-3</v>
+        <v>8.6506146772944211E-3</v>
       </c>
       <c r="Q21" s="84"/>
       <c r="S21" s="25"/>
@@ -5827,7 +6110,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>111.057</v>
+        <v>115.102</v>
       </c>
       <c r="K22" s="12">
         <v>98.962000000000003</v>
@@ -5837,19 +6120,19 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>11105.7</v>
+        <v>11510.2</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0.12221862937289059</v>
+        <v>0.16309290434712315</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>1209.5</v>
+        <v>1614</v>
       </c>
       <c r="P22" s="24">
         <f t="shared" si="2"/>
-        <v>5.1127013732987434E-2</v>
+        <v>4.4938126233727289E-2</v>
       </c>
       <c r="Q22" s="84"/>
       <c r="S22" s="25"/>
@@ -5878,29 +6161,29 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>96.597999999999999</v>
+        <v>97.277000000000001</v>
       </c>
       <c r="K23" s="12">
-        <v>96.352999999999994</v>
+        <v>96.222999999999999</v>
       </c>
       <c r="L23" s="12">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>5795.88</v>
+        <v>6809.39</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>2.5427334903947419E-3</v>
+        <v>1.0953722083077872E-2</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>14.700000000000273</v>
+        <v>73.780000000000143</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="2"/>
-        <v>2.6682337570323997E-2</v>
+        <v>2.6585222445715997E-2</v>
       </c>
       <c r="Q23" s="84"/>
       <c r="S23" s="25"/>
@@ -6030,7 +6313,7 @@
         <v>52</v>
       </c>
       <c r="J26" s="12">
-        <v>111.07</v>
+        <v>109.3</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -6040,19 +6323,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1110.6999999999998</v>
+        <v>1093</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>7.0069462508550312E-2</v>
+        <v>5.3016946539880733E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>72.729999999999961</v>
+        <v>55.03</v>
       </c>
       <c r="P26" s="24">
         <f t="shared" si="2"/>
-        <v>5.1132998508179699E-3</v>
+        <v>4.2672909222658097E-3</v>
       </c>
       <c r="Q26" s="84"/>
       <c r="S26" s="25"/>
@@ -6127,29 +6410,29 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>110.86</v>
+        <v>112.74</v>
       </c>
       <c r="K28" s="12">
-        <v>123.71599999999999</v>
+        <v>121.994</v>
       </c>
       <c r="L28" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>7760.2</v>
+        <v>9019.1999999999989</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>-0.10391541918587729</v>
+        <v>-7.5856189648671288E-2</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-899.91999999999962</v>
+        <v>-740.32000000000039</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" si="2"/>
-        <v>3.5725424959320802E-2</v>
+        <v>3.5212763299267875E-2</v>
       </c>
       <c r="Q28" s="84" t="s">
         <v>54</v>
@@ -6229,7 +6512,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>104.51900000000001</v>
+        <v>103.76600000000001</v>
       </c>
       <c r="K30" s="12">
         <v>101.34</v>
@@ -6239,19 +6522,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>3135.57</v>
+        <v>3112.98</v>
       </c>
       <c r="N30" s="24">
         <f t="shared" si="1"/>
-        <v>3.1369646733767534E-2</v>
+        <v>2.3939214525360193E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>95.370000000000061</v>
+        <v>72.780000000000058</v>
       </c>
       <c r="P30" s="24">
         <f t="shared" si="2"/>
-        <v>1.44351396535782E-2</v>
+        <v>1.2153697433847229E-2</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="S30" s="25"/>
@@ -6283,7 +6566,7 @@
         <v>52</v>
       </c>
       <c r="J31" s="12">
-        <v>117.203</v>
+        <v>118.229</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -6293,19 +6576,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1172.03</v>
+        <v>1182.29</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="1"/>
-        <v>0.15333444858838241</v>
+        <v>0.16343078694364357</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>155.82000000000008</v>
+        <v>166.08000000000004</v>
       </c>
       <c r="P31" s="24">
         <f t="shared" si="2"/>
-        <v>5.3956431296967554E-3</v>
+        <v>4.6158969665925382E-3</v>
       </c>
       <c r="Q31" s="84"/>
       <c r="R31" s="7"/>
@@ -6386,7 +6669,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>105.56</v>
+        <v>106.898</v>
       </c>
       <c r="K33" s="12">
         <v>102.991</v>
@@ -6396,19 +6679,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>10556</v>
+        <v>10689.8</v>
       </c>
       <c r="N33" s="24">
         <f t="shared" si="1"/>
-        <v>2.4943927139264622E-2</v>
+        <v>3.7935353574584156E-2</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>256.90000000000026</v>
+        <v>390.69999999999965</v>
       </c>
       <c r="P33" s="24">
         <f t="shared" si="2"/>
-        <v>4.8596374561298734E-2</v>
+        <v>4.173512031183628E-2</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="8"/>
@@ -6490,29 +6773,29 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>96.251999999999995</v>
+        <v>95.558000000000007</v>
       </c>
       <c r="K35" s="12">
-        <v>97.906000000000006</v>
+        <v>97.63</v>
       </c>
       <c r="L35" s="12">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>7700.16</v>
+        <v>8600.2200000000012</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>-1.6893755234612898E-2</v>
+        <v>-2.1222984738297538E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>-132.32000000000085</v>
+        <v>-186.47999999999897</v>
       </c>
       <c r="P35" s="24">
-        <f t="shared" ref="P35:P66" si="8">M35/$M$352</f>
-        <v>3.544902041890205E-2</v>
+        <f t="shared" ref="P35:P66" si="8">M35/$M$406</f>
+        <v>3.3576981459733639E-2</v>
       </c>
       <c r="Q35" s="84"/>
       <c r="S35" s="25"/>
@@ -7027,7 +7310,7 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="12">
-        <v>121</v>
+        <v>122.2</v>
       </c>
       <c r="K46" s="12">
         <v>127.94799999999999</v>
@@ -7037,19 +7320,19 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>4840</v>
+        <v>4888</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="7"/>
-        <v>-5.4303310719979944E-2</v>
+        <v>-4.4924500578359887E-2</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-277.91999999999973</v>
+        <v>-229.91999999999962</v>
       </c>
       <c r="P46" s="24">
         <f t="shared" si="8"/>
-        <v>2.2281778408174108E-2</v>
+        <v>1.9083731041203367E-2</v>
       </c>
       <c r="Q46" s="84"/>
       <c r="S46" s="25"/>
@@ -7082,7 +7365,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="12">
-        <v>120.5</v>
+        <v>116.9</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -7092,19 +7375,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2410</v>
+        <v>2338</v>
       </c>
       <c r="N47" s="24">
         <f t="shared" si="7"/>
-        <v>3.9599689414200702E-2</v>
+        <v>8.5411094814943408E-3</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>91.800000000000068</v>
+        <v>19.800000000000182</v>
       </c>
       <c r="P47" s="24">
         <f t="shared" si="8"/>
-        <v>1.109485247183876E-2</v>
+        <v>9.1280202893480912E-3</v>
       </c>
       <c r="Q47" s="84"/>
       <c r="S47" s="25"/>
@@ -7160,55 +7443,50 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="63">
+      <c r="B49" s="178">
         <v>47</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="167">
         <v>44582</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="168">
         <v>113601</v>
       </c>
-      <c r="E49" s="127" t="s">
+      <c r="E49" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="170">
         <v>30</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="170">
         <v>143.19999999999999</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="171">
         <f t="shared" si="5"/>
         <v>4296</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="J49" s="12">
-        <v>110.643</v>
-      </c>
-      <c r="K49" s="12">
-        <v>113.66</v>
-      </c>
-      <c r="L49" s="12">
-        <v>10</v>
-      </c>
-      <c r="M49" s="11">
+      <c r="J49" s="172"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="172">
+        <v>0</v>
+      </c>
+      <c r="M49" s="171">
         <f t="shared" si="6"/>
-        <v>1106.43</v>
-      </c>
-      <c r="N49" s="24">
+        <v>0</v>
+      </c>
+      <c r="N49" s="173" t="e">
         <f t="shared" si="7"/>
-        <v>-2.654407883160299E-2</v>
-      </c>
-      <c r="O49" s="11">
-        <f t="shared" si="9"/>
-        <v>-30.169999999999959</v>
-      </c>
-      <c r="P49" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" s="171">
+        <v>127.1</v>
+      </c>
+      <c r="P49" s="173">
         <f t="shared" si="8"/>
-        <v>5.0936421661479502E-3</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="84"/>
       <c r="S49" s="25"/>
@@ -7769,29 +8047,29 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="12">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K61" s="12">
-        <v>96.742000000000004</v>
+        <v>96.122</v>
       </c>
       <c r="L61" s="12">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="11">J61*L61</f>
-        <v>8280</v>
+        <v>10300</v>
       </c>
       <c r="N61" s="24">
         <f t="shared" ref="N61:N95" si="12">(J61-K61)/K61</f>
-        <v>-4.9016972979677949E-2</v>
+        <v>7.1554898982543025E-2</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
-        <v>-426.78000000000043</v>
+        <v>687.8</v>
       </c>
       <c r="P61" s="24">
         <f t="shared" si="8"/>
-        <v>3.8118414301587106E-2</v>
+        <v>4.0213263036905623E-2</v>
       </c>
       <c r="Q61" s="84"/>
       <c r="S61" s="25"/>
@@ -8070,29 +8348,29 @@
         <v>66</v>
       </c>
       <c r="J67" s="12">
-        <v>106.64100000000001</v>
+        <v>105.30200000000001</v>
       </c>
       <c r="K67" s="12">
-        <v>107.267</v>
+        <v>106.322</v>
       </c>
       <c r="L67" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>2132.8200000000002</v>
+        <v>3159.0600000000004</v>
       </c>
       <c r="N67" s="24">
         <f t="shared" si="12"/>
-        <v>-5.8359047983069408E-3</v>
+        <v>-9.5934989936231063E-3</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>-12.519999999999811</v>
+        <v>-30.599999999999881</v>
       </c>
       <c r="P67" s="24">
-        <f t="shared" ref="P67:P98" si="13">M67/$M$352</f>
-        <v>9.8188063273805578E-3</v>
+        <f t="shared" ref="P67:P98" si="13">M67/$M$406</f>
+        <v>1.2333602983433698E-2</v>
       </c>
       <c r="Q67" s="84"/>
       <c r="S67" s="25"/>
@@ -8167,7 +8445,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>101.179</v>
+        <v>102.77500000000001</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -8177,19 +8455,19 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="14">J69*L69</f>
-        <v>7082.53</v>
+        <v>7194.25</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="12"/>
-        <v>4.0122949134421708E-2</v>
+        <v>5.6529873761256733E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>273.21000000000038</v>
+        <v>384.93000000000063</v>
       </c>
       <c r="P69" s="24">
         <f t="shared" si="13"/>
-        <v>3.2605653725050691E-2</v>
+        <v>2.8087792971190122E-2</v>
       </c>
       <c r="Q69" s="84"/>
       <c r="S69" s="25"/>
@@ -8273,7 +8551,7 @@
         <v>52</v>
       </c>
       <c r="J71" s="12">
-        <v>107.14</v>
+        <v>104.6</v>
       </c>
       <c r="K71" s="12">
         <v>106.81100000000001</v>
@@ -8283,19 +8561,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="14"/>
-        <v>3214.2</v>
+        <v>3138</v>
       </c>
       <c r="N71" s="24">
         <f t="shared" si="12"/>
-        <v>3.0802070947748218E-3</v>
+        <v>-2.0700115156678738E-2</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>9.8699999999998056</v>
+        <v>-66.330000000000382</v>
       </c>
       <c r="P71" s="24">
         <f t="shared" si="13"/>
-        <v>1.479712647924653E-2</v>
+        <v>1.2251380525224256E-2</v>
       </c>
       <c r="Q71" s="84"/>
       <c r="S71" s="25"/>
@@ -8375,7 +8653,7 @@
         <v>52</v>
       </c>
       <c r="J73" s="12">
-        <v>118.965</v>
+        <v>118.598</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -8385,19 +8663,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1189.6500000000001</v>
+        <v>1185.98</v>
       </c>
       <c r="N73" s="24">
         <f t="shared" si="12"/>
-        <v>5.2591996177701515E-2</v>
+        <v>4.934481202608363E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>59.440000000000026</v>
+        <v>55.769999999999982</v>
       </c>
       <c r="P73" s="24">
         <f t="shared" si="13"/>
-        <v>5.4767598519182498E-3</v>
+        <v>4.6303034656805173E-3</v>
       </c>
       <c r="Q73" s="84"/>
       <c r="S73" s="25"/>
@@ -8577,7 +8855,7 @@
         <v>52</v>
       </c>
       <c r="J77" s="12">
-        <v>109.42100000000001</v>
+        <v>107.117</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -8587,19 +8865,19 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="14"/>
-        <v>2188.42</v>
+        <v>2142.34</v>
       </c>
       <c r="N77" s="24">
         <f t="shared" si="12"/>
-        <v>0.13535527517224205</v>
+        <v>0.11144890844193574</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="15"/>
-        <v>260.90000000000003</v>
+        <v>214.82</v>
       </c>
       <c r="P77" s="24">
         <f t="shared" si="13"/>
-        <v>1.007477055868107E-2</v>
+        <v>8.3641244596586797E-3</v>
       </c>
       <c r="Q77" s="84"/>
       <c r="S77" s="25"/>
@@ -8681,7 +8959,7 @@
         <v>52</v>
       </c>
       <c r="J79" s="12">
-        <v>111.876</v>
+        <v>110.363</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -8691,19 +8969,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="14"/>
-        <v>1118.76</v>
+        <v>1103.6300000000001</v>
       </c>
       <c r="N79" s="24">
         <f t="shared" si="12"/>
-        <v>3.0260613316143301E-2</v>
+        <v>1.6327470301132664E-2</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="15"/>
-        <v>32.860000000000014</v>
+        <v>17.729999999999961</v>
       </c>
       <c r="P79" s="24">
         <f t="shared" si="13"/>
-        <v>5.1504054570100958E-3</v>
+        <v>4.3087925714000146E-3</v>
       </c>
       <c r="Q79" s="84"/>
       <c r="S79" s="25"/>
@@ -8734,29 +9012,29 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>103.40900000000001</v>
+        <v>104.14</v>
       </c>
       <c r="K80" s="12">
-        <v>107.053</v>
+        <v>106.27200000000001</v>
       </c>
       <c r="L80" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>4136.3600000000006</v>
+        <v>5207</v>
       </c>
       <c r="N80" s="24">
         <f t="shared" si="12"/>
-        <v>-3.4039214220993257E-2</v>
+        <v>-2.0061728395061776E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-145.75999999999965</v>
+        <v>-106.60000000000025</v>
       </c>
       <c r="P80" s="24">
         <f t="shared" si="13"/>
-        <v>1.9042449780255176E-2</v>
+        <v>2.0329170935258989E-2</v>
       </c>
       <c r="Q80" s="84"/>
       <c r="S80" s="25"/>
@@ -8835,7 +9113,7 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>104.791</v>
+        <v>103.4</v>
       </c>
       <c r="K82" s="12">
         <v>102.733</v>
@@ -8845,19 +9123,19 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="14"/>
-        <v>4191.6399999999994</v>
+        <v>4136</v>
       </c>
       <c r="N82" s="24">
         <f t="shared" si="12"/>
-        <v>2.003251146175029E-2</v>
+        <v>6.4925583794885923E-3</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="15"/>
-        <v>82.319999999999709</v>
+        <v>26.680000000000064</v>
       </c>
       <c r="P82" s="24">
         <f t="shared" si="13"/>
-        <v>1.9296940836123738E-2</v>
+        <v>1.6147772419479772E-2</v>
       </c>
       <c r="Q82" s="84"/>
       <c r="S82" s="25"/>
@@ -8937,7 +9215,7 @@
         <v>52</v>
       </c>
       <c r="J84" s="12">
-        <v>108.43</v>
+        <v>109.70099999999999</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -8947,19 +9225,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="16">J84*L84</f>
-        <v>2168.6000000000004</v>
+        <v>2194.02</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="12"/>
-        <v>9.3459683875412366E-3</v>
+        <v>2.1177368607227222E-2</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>20.080000000000098</v>
+        <v>45.499999999999829</v>
       </c>
       <c r="P84" s="24">
         <f t="shared" si="13"/>
-        <v>9.9835257553649529E-3</v>
+        <v>8.5658935308962781E-3</v>
       </c>
       <c r="Q84" s="84"/>
       <c r="S84" s="25"/>
@@ -8990,7 +9268,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>106.15</v>
+        <v>105.498</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -9000,19 +9278,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="16"/>
-        <v>4246</v>
+        <v>4219.92</v>
       </c>
       <c r="N85" s="24">
         <f t="shared" si="12"/>
-        <v>2.0437591325078875E-2</v>
+        <v>1.4169806967622892E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>85.040000000000191</v>
+        <v>58.96000000000015</v>
       </c>
       <c r="P85" s="24">
         <f t="shared" si="13"/>
-        <v>1.9547196512625466E-2</v>
+        <v>1.6475412908223182E-2</v>
       </c>
       <c r="Q85" s="84"/>
       <c r="S85" s="25"/>
@@ -9237,7 +9515,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>101.70099999999999</v>
+        <v>102.77</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -9247,19 +9525,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="16"/>
-        <v>5085.0499999999993</v>
+        <v>5138.5</v>
       </c>
       <c r="N90" s="24">
         <f t="shared" si="12"/>
-        <v>1.8322415406589454E-3</v>
+        <v>1.236270501896267E-2</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="15"/>
-        <v>9.2999999999996419</v>
+        <v>62.749999999999773</v>
       </c>
       <c r="P90" s="24">
         <f t="shared" si="13"/>
-        <v>2.3409908531918537E-2</v>
+        <v>2.0061733215062091E-2</v>
       </c>
       <c r="Q90" s="84"/>
       <c r="S90" s="25"/>
@@ -9677,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="24">
-        <f t="shared" ref="P99:P130" si="18">M99/$M$352</f>
+        <f t="shared" ref="P99:P130" si="18">M99/$M$406</f>
         <v>0</v>
       </c>
       <c r="Q99" s="90" t="s">
@@ -9956,29 +10234,29 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>98.108000000000004</v>
+        <v>99.185000000000002</v>
       </c>
       <c r="K105" s="12">
-        <v>103.44799999999999</v>
+        <v>101.73</v>
       </c>
       <c r="L105" s="12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M105" s="11">
         <f t="shared" si="19"/>
-        <v>6867.56</v>
+        <v>9918.5</v>
       </c>
       <c r="N105" s="24">
         <f t="shared" si="20"/>
-        <v>-5.1620137653700306E-2</v>
+        <v>-2.5017202398505866E-2</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="15"/>
-        <v>-373.79999999999927</v>
+        <v>-254.50000000000017</v>
       </c>
       <c r="P105" s="24">
         <f t="shared" si="18"/>
-        <v>3.161600209190913E-2</v>
+        <v>3.8723810624422178E-2</v>
       </c>
       <c r="Q105" s="84" t="s">
         <v>106</v>
@@ -10011,7 +10289,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>103.998</v>
+        <v>105.547</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -10021,19 +10299,19 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="19"/>
-        <v>3119.94</v>
+        <v>3166.41</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="20"/>
-        <v>-1.1303678211185726E-2</v>
+        <v>3.4224761615028422E-3</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>-35.669999999999789</v>
+        <v>10.799999999999983</v>
       </c>
       <c r="P106" s="24">
         <f t="shared" si="18"/>
-        <v>1.4363184241074117E-2</v>
+        <v>1.2362298855600808E-2</v>
       </c>
       <c r="Q106" s="84" t="s">
         <v>106</v>
@@ -10365,7 +10643,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>109.858</v>
+        <v>107.197</v>
       </c>
       <c r="K113" s="12">
         <v>105.44</v>
@@ -10375,19 +10653,19 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="19"/>
-        <v>1098.58</v>
+        <v>1071.97</v>
       </c>
       <c r="N113" s="24">
         <f t="shared" si="20"/>
-        <v>4.1900606980273203E-2</v>
+        <v>1.6663505311077437E-2</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="21"/>
-        <v>44.180000000000064</v>
+        <v>17.57000000000005</v>
       </c>
       <c r="P113" s="24">
         <f t="shared" si="18"/>
-        <v>5.0575033313330388E-3</v>
+        <v>4.1851855900652156E-3</v>
       </c>
       <c r="Q113" s="84" t="s">
         <v>106</v>
@@ -11068,7 +11346,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>114</v>
+        <v>113.289</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -11078,19 +11356,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="19"/>
-        <v>2280</v>
+        <v>2265.7800000000002</v>
       </c>
       <c r="N127" s="24">
         <f t="shared" si="20"/>
-        <v>5.2641298626949398E-2</v>
+        <v>4.6076141053933969E-2</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="21"/>
-        <v>114.01999999999987</v>
+        <v>99.799999999999898</v>
       </c>
       <c r="P127" s="24">
         <f t="shared" si="18"/>
-        <v>1.0496374952610943E-2</v>
+        <v>8.8460589440543715E-3</v>
       </c>
       <c r="Q127" s="84" t="s">
         <v>106</v>
@@ -11285,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="24">
-        <f t="shared" ref="P131:P162" si="24">M131/$M$352</f>
+        <f t="shared" ref="P131:P162" si="24">M131/$M$406</f>
         <v>0</v>
       </c>
       <c r="Q131" s="84"/>
@@ -11366,7 +11644,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>112.76600000000001</v>
+        <v>112.202</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -11376,19 +11654,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="19"/>
-        <v>1127.6600000000001</v>
+        <v>1122.02</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="25"/>
-        <v>9.3536577724868345E-3</v>
+        <v>4.3053678359484295E-3</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="23"/>
-        <v>10.450000000000017</v>
+        <v>4.8099999999999454</v>
       </c>
       <c r="P133" s="24">
         <f t="shared" si="24"/>
-        <v>5.1913781487110773E-3</v>
+        <v>4.3805908148222177E-3</v>
       </c>
       <c r="Q133" s="84" t="s">
         <v>106</v>
@@ -11470,7 +11748,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>108.64100000000001</v>
+        <v>107.855</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -11480,19 +11758,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="19"/>
-        <v>1086.4100000000001</v>
+        <v>1078.55</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="25"/>
-        <v>9.3932918331321186E-3</v>
+        <v>2.0904952150888091E-3</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="23"/>
-        <v>10.110000000000099</v>
+        <v>2.2500000000000853</v>
       </c>
       <c r="P135" s="24">
         <f t="shared" si="24"/>
-        <v>5.0014766281868666E-3</v>
+        <v>4.2108752280052963E-3</v>
       </c>
       <c r="Q135" s="84" t="s">
         <v>120</v>
@@ -11625,7 +11903,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>115.6</v>
+        <v>114.85</v>
       </c>
       <c r="K138" s="12">
         <v>115.14</v>
@@ -11635,19 +11913,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="19"/>
-        <v>1156</v>
+        <v>1148.5</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="25"/>
-        <v>3.995136355740783E-3</v>
+        <v>-2.5186729199236256E-3</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="23"/>
-        <v>4.5999999999999375</v>
+        <v>-2.9000000000000625</v>
       </c>
       <c r="P138" s="24">
         <f t="shared" si="24"/>
-        <v>5.3218462479027407E-3</v>
+        <v>4.4839740386297192E-3</v>
       </c>
       <c r="Q138" s="84" t="s">
         <v>106</v>
@@ -11680,7 +11958,7 @@
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12">
-        <v>118.224</v>
+        <v>117.34699999999999</v>
       </c>
       <c r="K139" s="12">
         <v>119.23</v>
@@ -11690,19 +11968,19 @@
       </c>
       <c r="M139" s="11">
         <f t="shared" si="19"/>
-        <v>1182.24</v>
+        <v>1173.47</v>
       </c>
       <c r="N139" s="24">
         <f t="shared" si="25"/>
-        <v>-8.4374737901534869E-3</v>
+        <v>-1.579300511616212E-2</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="23"/>
-        <v>-10.060000000000002</v>
+        <v>-18.830000000000098</v>
       </c>
       <c r="P139" s="24">
         <f t="shared" si="24"/>
-        <v>5.4426466333222633E-3</v>
+        <v>4.5814619199920038E-3</v>
       </c>
       <c r="Q139" s="84" t="s">
         <v>106</v>
@@ -11779,7 +12057,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>108.6</v>
+        <v>108.401</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -11789,19 +12067,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="26">J141*L141</f>
-        <v>1086</v>
+        <v>1084.01</v>
       </c>
       <c r="N141" s="24">
         <f t="shared" si="25"/>
-        <v>1.3522972254108671E-2</v>
+        <v>1.1665780067381545E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>14.489999999999981</v>
+        <v>12.5</v>
       </c>
       <c r="P141" s="24">
         <f t="shared" si="24"/>
-        <v>4.9995891221646859E-3</v>
+        <v>4.2321921616151519E-3</v>
       </c>
       <c r="Q141" s="84" t="s">
         <v>106</v>
@@ -11834,7 +12112,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>112.18</v>
+        <v>111.822</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -11844,19 +12122,19 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="26"/>
-        <v>1121.8000000000002</v>
+        <v>1118.22</v>
       </c>
       <c r="N142" s="24">
         <f t="shared" si="25"/>
-        <v>2.615234035546701E-2</v>
+        <v>2.2877580702701263E-2</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>28.590000000000089</v>
+        <v>25.010000000000048</v>
       </c>
       <c r="P142" s="24">
         <f t="shared" si="24"/>
-        <v>5.1644006236135779E-3</v>
+        <v>4.3657548537018066E-3</v>
       </c>
       <c r="Q142" s="84" t="s">
         <v>106</v>
@@ -12134,7 +12412,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>111.089</v>
+        <v>117.42</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -12144,19 +12422,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="26"/>
-        <v>1110.8899999999999</v>
+        <v>1174.2</v>
       </c>
       <c r="N148" s="24">
         <f t="shared" si="25"/>
-        <v>4.7238824261392517E-2</v>
+        <v>0.10692132204604157</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="27"/>
-        <v>50.109999999999957</v>
+        <v>113.41999999999999</v>
       </c>
       <c r="P148" s="24">
         <f t="shared" si="24"/>
-        <v>5.1141745487306885E-3</v>
+        <v>4.5843119862072406E-3</v>
       </c>
       <c r="Q148" s="84" t="s">
         <v>106</v>
@@ -12189,29 +12467,29 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>106.708</v>
+        <v>105.244</v>
       </c>
       <c r="K149" s="81">
-        <v>107.70699999999999</v>
+        <v>106.556</v>
       </c>
       <c r="L149" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M149" s="11">
         <f t="shared" si="26"/>
-        <v>2134.16</v>
+        <v>3157.32</v>
       </c>
       <c r="N149" s="24">
         <f t="shared" si="25"/>
-        <v>-9.2751631741669095E-3</v>
+        <v>-1.2312774503547409E-2</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="27"/>
-        <v>-19.979999999999905</v>
+        <v>-39.359999999999928</v>
       </c>
       <c r="P149" s="24">
         <f t="shared" si="24"/>
-        <v>9.8249752495018286E-3</v>
+        <v>1.2326809674920666E-2</v>
       </c>
       <c r="Q149" s="84" t="s">
         <v>106</v>
@@ -12340,7 +12618,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>107.35</v>
+        <v>106.58499999999999</v>
       </c>
       <c r="K152" s="12">
         <v>110.36499999999999</v>
@@ -12350,19 +12628,19 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="26"/>
-        <v>3220.5</v>
+        <v>3197.5499999999997</v>
       </c>
       <c r="N152" s="24">
         <f t="shared" si="25"/>
-        <v>-2.731844334707562E-2</v>
+        <v>-3.4249988673945554E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="28">(J152-K152)*L152</f>
-        <v>-90.450000000000017</v>
+        <v>-113.40000000000003</v>
       </c>
       <c r="P152" s="24">
         <f t="shared" si="24"/>
-        <v>1.4826129620562957E-2</v>
+        <v>1.2483875652782287E-2</v>
       </c>
       <c r="Q152" s="84" t="s">
         <v>132</v>
@@ -12594,7 +12872,7 @@
         <v>66</v>
       </c>
       <c r="J157" s="12">
-        <v>109.77200000000001</v>
+        <v>108.12</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -12604,19 +12882,19 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="26"/>
-        <v>1097.72</v>
+        <v>1081.2</v>
       </c>
       <c r="N157" s="24">
         <f t="shared" si="25"/>
-        <v>6.2517187643230552E-3</v>
+        <v>-8.8917407645063597E-3</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="28"/>
-        <v>6.8200000000000216</v>
+        <v>-9.6999999999999886</v>
       </c>
       <c r="P157" s="24">
         <f t="shared" si="24"/>
-        <v>5.0535441723596865E-3</v>
+        <v>4.2212213587866365E-3</v>
       </c>
       <c r="Q157" s="84" t="s">
         <v>136</v>
@@ -12700,7 +12978,7 @@
         <v>66</v>
       </c>
       <c r="J159" s="12">
-        <v>116.905</v>
+        <v>113.99</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -12710,19 +12988,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="26"/>
-        <v>1169.05</v>
+        <v>1139.8999999999999</v>
       </c>
       <c r="N159" s="24">
         <f t="shared" si="25"/>
-        <v>8.6033592211363336E-2</v>
+        <v>5.8953587752220184E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="28"/>
-        <v>92.609999999999957</v>
+        <v>63.459999999999894</v>
       </c>
       <c r="P159" s="24">
         <f t="shared" si="24"/>
-        <v>5.3819241834867637E-3</v>
+        <v>4.4503979160940496E-3</v>
       </c>
       <c r="Q159" s="84"/>
       <c r="S159" s="25"/>
@@ -12900,7 +13178,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>110.866</v>
+        <v>108.126</v>
       </c>
       <c r="K163" s="12">
         <v>109.07</v>
@@ -12910,19 +13188,19 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="26"/>
-        <v>1108.6600000000001</v>
+        <v>1081.26</v>
       </c>
       <c r="N163" s="24">
         <f t="shared" si="25"/>
-        <v>1.6466489410470402E-2</v>
+        <v>-8.6549922068395388E-3</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="28"/>
-        <v>17.960000000000065</v>
+        <v>-9.439999999999884</v>
       </c>
       <c r="P163" s="24">
-        <f t="shared" ref="P163:P179" si="30">M163/$M$352</f>
-        <v>5.1039083574393193E-3</v>
+        <f t="shared" ref="P163:P179" si="30">M163/$M$406</f>
+        <v>4.2214556108043271E-3</v>
       </c>
       <c r="Q163" s="84" t="s">
         <v>106</v>
@@ -13199,7 +13477,7 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>106.649</v>
+        <v>105.45</v>
       </c>
       <c r="K169" s="12">
         <v>105.581</v>
@@ -13209,19 +13487,19 @@
       </c>
       <c r="M169" s="11">
         <f t="shared" si="26"/>
-        <v>3199.4700000000003</v>
+        <v>3163.5</v>
       </c>
       <c r="N169" s="24">
         <f t="shared" si="31"/>
-        <v>1.0115456379462193E-2</v>
+        <v>-1.2407535446718654E-3</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="32"/>
-        <v>32.039999999999935</v>
+        <v>-3.9300000000000068</v>
       </c>
       <c r="P169" s="24">
         <f t="shared" si="30"/>
-        <v>1.4729314372644796E-2</v>
+        <v>1.2350937632742809E-2</v>
       </c>
       <c r="Q169" s="84" t="s">
         <v>106</v>
@@ -13305,7 +13583,7 @@
         <v>66</v>
       </c>
       <c r="J171" s="12">
-        <v>105.53</v>
+        <v>107.977</v>
       </c>
       <c r="K171" s="12">
         <v>109.006</v>
@@ -13315,19 +13593,19 @@
       </c>
       <c r="M171" s="11">
         <f t="shared" si="26"/>
-        <v>3165.9</v>
+        <v>3239.31</v>
       </c>
       <c r="N171" s="24">
         <f t="shared" si="31"/>
-        <v>-3.1888152945709403E-2</v>
+        <v>-9.4398473478523783E-3</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="32"/>
-        <v>-104.27999999999997</v>
+        <v>-30.869999999999891</v>
       </c>
       <c r="P171" s="24">
         <f t="shared" si="30"/>
-        <v>1.4574769062487274E-2</v>
+        <v>1.2646915057095023E-2</v>
       </c>
       <c r="Q171" s="84" t="s">
         <v>106</v>
@@ -13362,7 +13640,7 @@
         <v>66</v>
       </c>
       <c r="J172" s="12">
-        <v>110.848</v>
+        <v>110.541</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -13372,19 +13650,19 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="26"/>
-        <v>2216.96</v>
+        <v>2210.8199999999997</v>
       </c>
       <c r="N172" s="24">
         <f t="shared" si="31"/>
-        <v>1.8121699196326054E-2</v>
+        <v>1.5301951779563691E-2</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="32"/>
-        <v>39.45999999999998</v>
+        <v>33.319999999999936</v>
       </c>
       <c r="P172" s="24">
         <f t="shared" si="30"/>
-        <v>1.02061593925177E-2</v>
+        <v>8.6314840958496772E-3</v>
       </c>
       <c r="Q172" s="84" t="s">
         <v>106</v>
@@ -13615,7 +13893,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>109.244</v>
+        <v>108.191</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -13625,19 +13903,19 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="33"/>
-        <v>1092.44</v>
+        <v>1081.9100000000001</v>
       </c>
       <c r="N177" s="24">
         <f t="shared" si="31"/>
-        <v>-3.702690378477026E-3</v>
+        <v>-1.330597355221161E-2</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="32"/>
-        <v>-4.0600000000000591</v>
+        <v>-14.590000000000032</v>
       </c>
       <c r="P177" s="24">
         <f t="shared" si="30"/>
-        <v>5.029236777732587E-3</v>
+        <v>4.2239933409959768E-3</v>
       </c>
       <c r="Q177" s="84" t="s">
         <v>150</v>
@@ -13719,7 +13997,7 @@
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="12">
-        <v>113.25</v>
+        <v>110.059</v>
       </c>
       <c r="K179" s="12">
         <v>115.111</v>
@@ -13729,19 +14007,19 @@
       </c>
       <c r="M179" s="11">
         <f t="shared" si="33"/>
-        <v>4530</v>
+        <v>4402.3599999999997</v>
       </c>
       <c r="N179" s="24">
         <f t="shared" si="31"/>
-        <v>-1.6167004022204692E-2</v>
+        <v>-4.3888073251036011E-2</v>
       </c>
       <c r="O179" s="11">
         <f t="shared" si="32"/>
-        <v>-74.440000000000168</v>
+        <v>-202.08000000000027</v>
       </c>
       <c r="P179" s="24">
         <f t="shared" si="30"/>
-        <v>2.0854639708477004E-2</v>
+        <v>1.7187695210014741E-2</v>
       </c>
       <c r="Q179" s="84" t="s">
         <v>152</v>
@@ -13791,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="P180" s="24">
-        <f t="shared" ref="P180:P211" si="34">M180/$M$352</f>
+        <f t="shared" ref="P180:P211" si="34">M180/$M$406</f>
         <v>0</v>
       </c>
       <c r="Q180" s="84" t="s">
@@ -13974,29 +14252,29 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>120.8</v>
+        <v>124.2</v>
       </c>
       <c r="K184" s="12">
-        <v>108.65600000000001</v>
+        <v>107.06</v>
       </c>
       <c r="L184" s="12">
         <v>10</v>
       </c>
       <c r="M184" s="11">
         <f t="shared" si="33"/>
-        <v>1208</v>
+        <v>1242</v>
       </c>
       <c r="N184" s="24">
         <f t="shared" si="31"/>
-        <v>0.11176557208069494</v>
+        <v>0.16009714178965068</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="32"/>
-        <v>121.43999999999991</v>
+        <v>171.4</v>
       </c>
       <c r="P184" s="24">
         <f t="shared" si="34"/>
-        <v>5.5612372555938682E-3</v>
+        <v>4.8490167661977461E-3</v>
       </c>
       <c r="Q184" s="84" t="s">
         <v>158</v>
@@ -15010,7 +15288,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>109.395</v>
+        <v>111.9</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -15020,19 +15298,19 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="37">J205*L205</f>
-        <v>2187.9</v>
+        <v>2238</v>
       </c>
       <c r="N205" s="24">
         <f t="shared" si="36"/>
-        <v>4.2319202452861231E-3</v>
+        <v>2.722749554776294E-2</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="32"/>
-        <v>9.2199999999999704</v>
+        <v>59.320000000000164</v>
       </c>
       <c r="P205" s="24">
         <f t="shared" si="34"/>
-        <v>1.0072376648604159E-2</v>
+        <v>8.7376002598635715E-3</v>
       </c>
       <c r="Q205" s="118" t="s">
         <v>165</v>
@@ -15263,29 +15541,29 @@
         <v>52</v>
       </c>
       <c r="J210" s="12">
-        <v>109.53700000000001</v>
+        <v>108.61499999999999</v>
       </c>
       <c r="K210" s="13">
-        <v>115.53</v>
+        <v>113.075</v>
       </c>
       <c r="L210" s="12">
         <v>10</v>
       </c>
       <c r="M210" s="11">
         <f t="shared" si="37"/>
-        <v>1095.3700000000001</v>
+        <v>1086.1499999999999</v>
       </c>
       <c r="N210" s="24">
         <f t="shared" si="36"/>
-        <v>-5.1873972128451441E-2</v>
+        <v>-3.944284766747741E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="32"/>
-        <v>-59.92999999999995</v>
+        <v>-44.60000000000008</v>
       </c>
       <c r="P210" s="24">
         <f t="shared" si="34"/>
-        <v>5.0427255402813375E-3</v>
+        <v>4.2405471502461201E-3</v>
       </c>
       <c r="Q210" s="133" t="s">
         <v>169</v>
@@ -15384,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="P212" s="24">
-        <f t="shared" ref="P212:P230" si="40">M212/$M$352</f>
+        <f t="shared" ref="P212:P230" si="40">M212/$M$406</f>
         <v>0</v>
       </c>
       <c r="Q212" s="133" t="s">
@@ -15707,7 +15985,7 @@
         <v>105.901</v>
       </c>
       <c r="H219" s="14">
-        <f t="shared" ref="H219:H266" si="42">F219*G219</f>
+        <f t="shared" ref="H219:H279" si="42">F219*G219</f>
         <v>1059.01</v>
       </c>
       <c r="I219" s="15" t="s">
@@ -16006,7 +16284,7 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>108.336</v>
+        <v>107.527</v>
       </c>
       <c r="K225" s="12">
         <v>108.65</v>
@@ -16016,19 +16294,19 @@
       </c>
       <c r="M225" s="11">
         <f t="shared" si="37"/>
-        <v>2166.7199999999998</v>
+        <v>2150.54</v>
       </c>
       <c r="N225" s="24">
         <f t="shared" si="41"/>
-        <v>-2.8900138057985011E-3</v>
+        <v>-1.0335941095260051E-2</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="32"/>
-        <v>-6.2800000000001432</v>
+        <v>-22.460000000000093</v>
       </c>
       <c r="P225" s="24">
         <f t="shared" si="40"/>
-        <v>9.9748708497022723E-3</v>
+        <v>8.3961389020764093E-3</v>
       </c>
       <c r="Q225" s="135" t="s">
         <v>140</v>
@@ -16306,29 +16584,29 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>108.816</v>
+        <v>106.7</v>
       </c>
       <c r="K231" s="12">
-        <v>109.77800000000001</v>
+        <v>107.889</v>
       </c>
       <c r="L231" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="45">J231*L231</f>
-        <v>1088.1600000000001</v>
+        <v>2134</v>
       </c>
       <c r="N231" s="24">
         <f t="shared" ref="N231:N245" si="46">(J231-K231)/K231</f>
-        <v>-8.7631401555867596E-3</v>
+        <v>-1.1020585972619942E-2</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="47">(J231-K231)*L231</f>
-        <v>-9.620000000000033</v>
+        <v>-23.779999999999859</v>
       </c>
       <c r="P231" s="24">
-        <f t="shared" ref="P231:P245" si="48">M231/$M$352</f>
-        <v>5.0095330563303181E-3</v>
+        <f t="shared" ref="P231:P245" si="48">M231/$M$406</f>
+        <v>8.331563429199669E-3</v>
       </c>
       <c r="Q231" s="113" t="s">
         <v>183</v>
@@ -16458,29 +16736,29 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>107.304</v>
+        <v>105.7</v>
       </c>
       <c r="K234" s="12">
-        <v>108.66500000000001</v>
+        <v>107.806</v>
       </c>
       <c r="L234" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M234" s="11">
         <f t="shared" si="45"/>
-        <v>2146.08</v>
+        <v>3171</v>
       </c>
       <c r="N234" s="24">
         <f t="shared" si="46"/>
-        <v>-1.2524731974416824E-2</v>
+        <v>-1.9535090811272051E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="47"/>
-        <v>-27.220000000000084</v>
+        <v>-63.179999999999836</v>
       </c>
       <c r="P234" s="24">
         <f t="shared" si="48"/>
-        <v>9.8798510343417936E-3</v>
+        <v>1.2380219134954148E-2</v>
       </c>
       <c r="Q234" s="139"/>
       <c r="S234" s="25"/>
@@ -16558,29 +16836,29 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>108.349</v>
+        <v>109.8</v>
       </c>
       <c r="K236" s="12">
-        <v>109.255</v>
+        <v>108.294</v>
       </c>
       <c r="L236" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M236" s="11">
         <f t="shared" si="45"/>
-        <v>1083.49</v>
+        <v>2196</v>
       </c>
       <c r="N236" s="24">
         <f t="shared" si="46"/>
-        <v>-8.2925266578187887E-3</v>
+        <v>1.3906587622582971E-2</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="47"/>
-        <v>-9.059999999999917</v>
+        <v>30.120000000000005</v>
       </c>
       <c r="P236" s="24">
         <f t="shared" si="48"/>
-        <v>4.9880339023703644E-3</v>
+        <v>8.5736238474800729E-3</v>
       </c>
       <c r="Q236" s="139"/>
       <c r="S236" s="25"/>
@@ -16611,7 +16889,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>111</v>
+        <v>109.289</v>
       </c>
       <c r="K237" s="12">
         <v>109.474</v>
@@ -16621,19 +16899,19 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="45"/>
-        <v>1110</v>
+        <v>1092.8900000000001</v>
       </c>
       <c r="N237" s="24">
         <f t="shared" si="46"/>
-        <v>1.3939382867164771E-2</v>
+        <v>-1.6898989714452953E-3</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="47"/>
-        <v>15.259999999999962</v>
+        <v>-1.8500000000000227</v>
       </c>
       <c r="P237" s="24">
         <f t="shared" si="48"/>
-        <v>5.1100772795605902E-3</v>
+        <v>4.2668614602333777E-3</v>
       </c>
       <c r="Q237" s="139"/>
       <c r="S237" s="25"/>
@@ -16711,7 +16989,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>111.35</v>
+        <v>111.554</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -16721,19 +16999,19 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="45"/>
-        <v>2227</v>
+        <v>2231.08</v>
       </c>
       <c r="N239" s="24">
         <f t="shared" si="46"/>
-        <v>2.5360050093926025E-2</v>
+        <v>2.7238572323105809E-2</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="47"/>
-        <v>55.079999999999814</v>
+        <v>59.159999999999968</v>
       </c>
       <c r="P239" s="24">
         <f t="shared" si="48"/>
-        <v>1.0252380271694986E-2</v>
+        <v>8.7105831938232414E-3</v>
       </c>
       <c r="Q239" s="139" t="s">
         <v>192</v>
@@ -17004,7 +17282,7 @@
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="12">
-        <v>107.7</v>
+        <v>110.379</v>
       </c>
       <c r="K245" s="12">
         <v>106.852</v>
@@ -17014,19 +17292,19 @@
       </c>
       <c r="M245" s="11">
         <f t="shared" si="45"/>
-        <v>2154</v>
+        <v>2207.58</v>
       </c>
       <c r="N245" s="24">
         <f t="shared" si="46"/>
-        <v>7.9362108336764776E-3</v>
+        <v>3.3008273125444548E-2</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="47"/>
-        <v>16.95999999999998</v>
+        <v>70.54000000000002</v>
       </c>
       <c r="P245" s="24">
         <f t="shared" si="48"/>
-        <v>9.9163121262824429E-3</v>
+        <v>8.6188344868943795E-3</v>
       </c>
       <c r="Q245" s="84"/>
       <c r="S245" s="25"/>
@@ -17071,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="P246" s="24">
-        <f t="shared" ref="P246:P268" si="52">M246/$M$352</f>
+        <f t="shared" ref="P246:P268" si="52">M246/$M$406</f>
         <v>0</v>
       </c>
       <c r="Q246" s="84"/>
@@ -17328,7 +17606,7 @@
         <v>113633</v>
       </c>
       <c r="E252" s="120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F252" s="20">
         <v>10</v>
@@ -17342,7 +17620,7 @@
       </c>
       <c r="I252" s="15"/>
       <c r="J252" s="12">
-        <v>111.51300000000001</v>
+        <v>110.001</v>
       </c>
       <c r="K252" s="12">
         <v>109.35</v>
@@ -17352,19 +17630,19 @@
       </c>
       <c r="M252" s="11">
         <f t="shared" si="49"/>
-        <v>1115.1300000000001</v>
+        <v>1100.01</v>
       </c>
       <c r="N252" s="24">
         <f t="shared" si="50"/>
-        <v>1.9780521262002845E-2</v>
+        <v>5.9533607681756789E-3</v>
       </c>
       <c r="O252" s="11">
         <f t="shared" si="51"/>
-        <v>21.630000000000109</v>
+        <v>6.5100000000001046</v>
       </c>
       <c r="P252" s="24">
         <f t="shared" si="52"/>
-        <v>5.1336941232039655E-3</v>
+        <v>4.2946593663326753E-3</v>
       </c>
       <c r="Q252" s="84" t="s">
         <v>106</v>
@@ -17382,7 +17660,7 @@
         <v>123129</v>
       </c>
       <c r="E253" s="120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F253" s="20">
         <v>10</v>
@@ -17396,7 +17674,7 @@
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="12">
-        <v>112.258</v>
+        <v>112.15</v>
       </c>
       <c r="K253" s="12">
         <v>109.39100000000001</v>
@@ -17406,19 +17684,19 @@
       </c>
       <c r="M253" s="11">
         <f t="shared" si="49"/>
-        <v>1122.58</v>
+        <v>1121.5</v>
       </c>
       <c r="N253" s="24">
         <f t="shared" si="50"/>
-        <v>2.6208737464690789E-2</v>
+        <v>2.5221453318828791E-2</v>
       </c>
       <c r="O253" s="11">
         <f t="shared" si="51"/>
-        <v>28.669999999999902</v>
+        <v>27.590000000000003</v>
       </c>
       <c r="P253" s="24">
         <f t="shared" si="52"/>
-        <v>5.1679914887289439E-3</v>
+        <v>4.3785606306688983E-3</v>
       </c>
       <c r="Q253" s="84" t="s">
         <v>106</v>
@@ -17436,7 +17714,7 @@
         <v>127034</v>
       </c>
       <c r="E254" s="120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F254" s="20">
         <v>10</v>
@@ -17484,7 +17762,7 @@
         <v>113013</v>
       </c>
       <c r="E255" s="120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F255" s="20">
         <v>10</v>
@@ -17498,7 +17776,7 @@
       </c>
       <c r="I255" s="15"/>
       <c r="J255" s="12">
-        <v>106.316</v>
+        <v>107.179</v>
       </c>
       <c r="K255" s="12">
         <v>107.008</v>
@@ -17508,19 +17786,19 @@
       </c>
       <c r="M255" s="11">
         <f t="shared" si="49"/>
-        <v>2126.3200000000002</v>
+        <v>2143.58</v>
       </c>
       <c r="N255" s="24">
         <f t="shared" si="50"/>
-        <v>-6.4668062200956295E-3</v>
+        <v>1.5980113636364242E-3</v>
       </c>
       <c r="O255" s="11">
         <f t="shared" si="51"/>
-        <v>-13.839999999999861</v>
+        <v>3.4200000000001296</v>
       </c>
       <c r="P255" s="24">
         <f t="shared" si="52"/>
-        <v>9.7888824514191664E-3</v>
+        <v>8.368965668024286E-3</v>
       </c>
       <c r="Q255" s="84" t="s">
         <v>106</v>
@@ -17586,7 +17864,7 @@
         <v>113013</v>
       </c>
       <c r="E257" s="120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F257" s="20">
         <v>10</v>
@@ -17648,7 +17926,7 @@
       </c>
       <c r="I258" s="15"/>
       <c r="J258" s="12">
-        <v>111.747</v>
+        <v>111.42</v>
       </c>
       <c r="K258" s="12">
         <v>109.014</v>
@@ -17658,19 +17936,19 @@
       </c>
       <c r="M258" s="11">
         <f t="shared" si="49"/>
-        <v>1117.47</v>
+        <v>1114.2</v>
       </c>
       <c r="N258" s="24">
         <f t="shared" si="50"/>
-        <v>2.5070174473003505E-2</v>
+        <v>2.2070559744620011E-2</v>
       </c>
       <c r="O258" s="11">
         <f t="shared" si="51"/>
-        <v>27.330000000000041</v>
+        <v>24.060000000000059</v>
       </c>
       <c r="P258" s="24">
         <f t="shared" si="52"/>
-        <v>5.1444667185500661E-3</v>
+        <v>4.350059968516529E-3</v>
       </c>
       <c r="Q258" s="84"/>
       <c r="S258" s="25"/>
@@ -17830,7 +18108,7 @@
         <v>127061</v>
       </c>
       <c r="E262" s="120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F262" s="20">
         <v>10</v>
@@ -17844,7 +18122,7 @@
       </c>
       <c r="I262" s="15"/>
       <c r="J262" s="12">
-        <v>111.13800000000001</v>
+        <v>111.90900000000001</v>
       </c>
       <c r="K262" s="12">
         <v>108.041</v>
@@ -17854,19 +18132,19 @@
       </c>
       <c r="M262" s="11">
         <f t="shared" si="49"/>
-        <v>1111.3800000000001</v>
+        <v>1119.0900000000001</v>
       </c>
       <c r="N262" s="24">
         <f t="shared" si="50"/>
-        <v>2.8665043825955042E-2</v>
+        <v>3.5801223609555718E-2</v>
       </c>
       <c r="O262" s="11">
         <f t="shared" si="51"/>
-        <v>30.970000000000084</v>
+        <v>38.680000000000092</v>
       </c>
       <c r="P262" s="24">
         <f t="shared" si="52"/>
-        <v>5.1164303486108554E-3</v>
+        <v>4.369151507958322E-3</v>
       </c>
       <c r="Q262" s="84"/>
       <c r="S262" s="25"/>
@@ -17928,7 +18206,7 @@
         <v>127022</v>
       </c>
       <c r="E264" s="120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F264" s="20">
         <v>10</v>
@@ -17942,7 +18220,7 @@
       </c>
       <c r="I264" s="15"/>
       <c r="J264" s="12">
-        <v>109.8</v>
+        <v>108.17</v>
       </c>
       <c r="K264" s="12">
         <v>105.532</v>
@@ -17952,19 +18230,19 @@
       </c>
       <c r="M264" s="11">
         <f t="shared" si="49"/>
-        <v>1098</v>
+        <v>1081.7</v>
       </c>
       <c r="N264" s="24">
         <f t="shared" si="50"/>
-        <v>4.0442709320395717E-2</v>
+        <v>2.4997157260357099E-2</v>
       </c>
       <c r="O264" s="11">
         <f t="shared" si="51"/>
-        <v>42.680000000000007</v>
+        <v>26.380000000000052</v>
       </c>
       <c r="P264" s="24">
         <f t="shared" si="52"/>
-        <v>5.054833200862638E-3</v>
+        <v>4.2231734589340594E-3</v>
       </c>
       <c r="Q264" s="84"/>
       <c r="S264" s="25"/>
@@ -17992,7 +18270,9 @@
         <f t="shared" si="42"/>
         <v>1055.02</v>
       </c>
-      <c r="I265" s="15"/>
+      <c r="I265" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J265" s="12"/>
       <c r="K265" s="12"/>
       <c r="L265" s="12"/>
@@ -18038,7 +18318,9 @@
         <f t="shared" si="42"/>
         <v>1049.8900000000001</v>
       </c>
-      <c r="I266" s="15"/>
+      <c r="I266" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J266" s="12"/>
       <c r="K266" s="12"/>
       <c r="L266" s="12"/>
@@ -18062,18 +18344,31 @@
       <c r="S266" s="25"/>
     </row>
     <row r="267" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B267" s="134">
+      <c r="B267" s="111">
         <v>266</v>
       </c>
-      <c r="C267" s="30"/>
+      <c r="C267" s="30">
+        <v>44873</v>
+      </c>
       <c r="D267" s="31">
-        <v>0</v>
-      </c>
-      <c r="E267" s="120"/>
-      <c r="F267" s="20"/>
-      <c r="G267" s="20"/>
-      <c r="H267" s="14"/>
-      <c r="I267" s="15"/>
+        <v>110072</v>
+      </c>
+      <c r="E267" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="F267" s="20">
+        <v>10</v>
+      </c>
+      <c r="G267" s="20">
+        <v>95.501999999999995</v>
+      </c>
+      <c r="H267" s="14">
+        <f t="shared" si="42"/>
+        <v>955.02</v>
+      </c>
+      <c r="I267" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J267" s="12"/>
       <c r="K267" s="12"/>
       <c r="L267" s="12"/>
@@ -18097,18 +18392,31 @@
       <c r="S267" s="25"/>
     </row>
     <row r="268" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B268" s="114">
+      <c r="B268" s="111">
         <v>267</v>
       </c>
-      <c r="C268" s="30"/>
+      <c r="C268" s="30">
+        <v>44873</v>
+      </c>
       <c r="D268" s="31">
-        <v>0</v>
-      </c>
-      <c r="E268" s="120"/>
-      <c r="F268" s="20"/>
-      <c r="G268" s="20"/>
-      <c r="H268" s="14"/>
-      <c r="I268" s="15"/>
+        <v>123113</v>
+      </c>
+      <c r="E268" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="F268" s="20">
+        <v>10</v>
+      </c>
+      <c r="G268" s="20">
+        <v>107.303</v>
+      </c>
+      <c r="H268" s="14">
+        <f t="shared" si="42"/>
+        <v>1073.03</v>
+      </c>
+      <c r="I268" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J268" s="12"/>
       <c r="K268" s="12"/>
       <c r="L268" s="12"/>
@@ -18132,806 +18440,2008 @@
       <c r="S268" s="25"/>
     </row>
     <row r="269" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B269" s="114">
+      <c r="B269" s="111">
         <v>268</v>
       </c>
-      <c r="C269" s="30"/>
+      <c r="C269" s="30">
+        <v>44874</v>
+      </c>
       <c r="D269" s="31">
-        <v>0</v>
-      </c>
-      <c r="E269" s="120"/>
-      <c r="F269" s="20"/>
-      <c r="G269" s="20"/>
-      <c r="H269" s="14"/>
-      <c r="I269" s="15"/>
+        <v>128100</v>
+      </c>
+      <c r="E269" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="F269" s="20">
+        <v>10</v>
+      </c>
+      <c r="G269" s="20">
+        <v>91.915999999999997</v>
+      </c>
+      <c r="H269" s="14">
+        <f t="shared" si="42"/>
+        <v>919.16</v>
+      </c>
+      <c r="I269" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J269" s="12"/>
       <c r="K269" s="12"/>
       <c r="L269" s="12"/>
-      <c r="M269" s="11"/>
-      <c r="N269" s="24"/>
-      <c r="O269" s="11"/>
-      <c r="P269" s="24"/>
+      <c r="M269" s="11">
+        <f t="shared" ref="M269:M279" si="53">J269*L269</f>
+        <v>0</v>
+      </c>
+      <c r="N269" s="24" t="e">
+        <f t="shared" ref="N269:N279" si="54">(J269-K269)/K269</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O269" s="11">
+        <f t="shared" ref="O269:O279" si="55">(J269-K269)*L269</f>
+        <v>0</v>
+      </c>
+      <c r="P269" s="24">
+        <f t="shared" ref="P269:P279" si="56">M269/$M$406</f>
+        <v>0</v>
+      </c>
       <c r="Q269" s="84"/>
       <c r="S269" s="25"/>
     </row>
     <row r="270" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B270" s="114">
+      <c r="B270" s="163">
         <v>269</v>
       </c>
-      <c r="C270" s="30"/>
+      <c r="C270" s="30">
+        <v>44880</v>
+      </c>
       <c r="D270" s="31">
-        <v>0</v>
-      </c>
-      <c r="E270" s="120"/>
-      <c r="F270" s="20"/>
-      <c r="G270" s="20"/>
-      <c r="H270" s="14"/>
-      <c r="I270" s="15"/>
+        <v>127006</v>
+      </c>
+      <c r="E270" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F270" s="20">
+        <v>80</v>
+      </c>
+      <c r="G270" s="20">
+        <v>124.05</v>
+      </c>
+      <c r="H270" s="14">
+        <f t="shared" si="42"/>
+        <v>9924</v>
+      </c>
+      <c r="I270" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J270" s="12"/>
       <c r="K270" s="12"/>
       <c r="L270" s="12"/>
-      <c r="M270" s="11"/>
-      <c r="N270" s="24"/>
-      <c r="O270" s="11"/>
-      <c r="P270" s="24"/>
+      <c r="M270" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N270" s="24" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O270" s="11">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P270" s="24">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="Q270" s="84"/>
       <c r="S270" s="25"/>
     </row>
     <row r="271" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B271" s="114">
+      <c r="B271" s="163">
         <v>270</v>
       </c>
-      <c r="C271" s="30"/>
+      <c r="C271" s="30">
+        <v>44880</v>
+      </c>
       <c r="D271" s="31">
-        <v>0</v>
-      </c>
-      <c r="E271" s="120"/>
-      <c r="F271" s="20"/>
-      <c r="G271" s="20"/>
-      <c r="H271" s="14"/>
-      <c r="I271" s="15"/>
+        <v>127006</v>
+      </c>
+      <c r="E271" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F271" s="20">
+        <v>-30</v>
+      </c>
+      <c r="G271" s="20">
+        <v>124.2</v>
+      </c>
+      <c r="H271" s="14">
+        <f t="shared" si="42"/>
+        <v>-3726</v>
+      </c>
+      <c r="I271" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J271" s="12"/>
       <c r="K271" s="12"/>
       <c r="L271" s="12"/>
-      <c r="M271" s="11"/>
-      <c r="N271" s="24"/>
-      <c r="O271" s="11"/>
-      <c r="P271" s="24"/>
+      <c r="M271" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N271" s="24" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O271" s="11">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P271" s="24">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="Q271" s="84"/>
       <c r="S271" s="25"/>
     </row>
     <row r="272" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B272" s="114"/>
-      <c r="C272" s="30"/>
+      <c r="B272" s="163">
+        <v>271</v>
+      </c>
+      <c r="C272" s="30">
+        <v>44880</v>
+      </c>
       <c r="D272" s="31">
-        <v>0</v>
-      </c>
-      <c r="E272" s="120"/>
-      <c r="F272" s="20"/>
-      <c r="G272" s="20"/>
-      <c r="H272" s="14"/>
-      <c r="I272" s="15"/>
+        <v>127006</v>
+      </c>
+      <c r="E272" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F272" s="20">
+        <v>-20</v>
+      </c>
+      <c r="G272" s="20">
+        <v>124.199</v>
+      </c>
+      <c r="H272" s="14">
+        <f t="shared" si="42"/>
+        <v>-2483.98</v>
+      </c>
+      <c r="I272" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J272" s="12"/>
       <c r="K272" s="12"/>
       <c r="L272" s="12"/>
-      <c r="M272" s="11"/>
-      <c r="N272" s="24"/>
-      <c r="O272" s="11"/>
-      <c r="P272" s="24"/>
+      <c r="M272" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N272" s="24" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O272" s="11">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P272" s="24">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="Q272" s="84"/>
       <c r="S272" s="25"/>
     </row>
-    <row r="273" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B273" s="114"/>
-      <c r="C273" s="30"/>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B273" s="163">
+        <v>272</v>
+      </c>
+      <c r="C273" s="30">
+        <v>44880</v>
+      </c>
       <c r="D273" s="31">
-        <v>0</v>
-      </c>
-      <c r="E273" s="120"/>
-      <c r="F273" s="20"/>
-      <c r="G273" s="20"/>
-      <c r="H273" s="14"/>
-      <c r="I273" s="15"/>
+        <v>127006</v>
+      </c>
+      <c r="E273" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F273" s="20">
+        <v>-30</v>
+      </c>
+      <c r="G273" s="20">
+        <v>124.399</v>
+      </c>
+      <c r="H273" s="14">
+        <f t="shared" si="42"/>
+        <v>-3731.9700000000003</v>
+      </c>
+      <c r="I273" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J273" s="12"/>
       <c r="K273" s="12"/>
       <c r="L273" s="12"/>
-      <c r="M273" s="11"/>
-      <c r="N273" s="24"/>
-      <c r="O273" s="11"/>
-      <c r="P273" s="24"/>
+      <c r="M273" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N273" s="24" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O273" s="11">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P273" s="24">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="Q273" s="84"/>
       <c r="S273" s="25"/>
     </row>
-    <row r="274" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B274" s="114"/>
-      <c r="C274" s="30"/>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B274" s="163">
+        <v>273</v>
+      </c>
+      <c r="C274" s="30">
+        <v>44881</v>
+      </c>
       <c r="D274" s="31">
-        <v>0</v>
-      </c>
-      <c r="E274" s="120"/>
-      <c r="F274" s="20"/>
-      <c r="G274" s="20"/>
-      <c r="H274" s="14"/>
+        <v>113056</v>
+      </c>
+      <c r="E274" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="F274" s="20">
+        <v>10</v>
+      </c>
+      <c r="G274" s="20">
+        <v>99.221000000000004</v>
+      </c>
+      <c r="H274" s="14">
+        <f t="shared" si="42"/>
+        <v>992.21</v>
+      </c>
       <c r="I274" s="15"/>
-      <c r="J274" s="12"/>
-      <c r="K274" s="12"/>
-      <c r="L274" s="12"/>
-      <c r="M274" s="11"/>
-      <c r="N274" s="24"/>
-      <c r="O274" s="11"/>
-      <c r="P274" s="24"/>
+      <c r="J274" s="12">
+        <v>98.073999999999998</v>
+      </c>
+      <c r="K274" s="12">
+        <v>98.712000000000003</v>
+      </c>
+      <c r="L274" s="12">
+        <v>30</v>
+      </c>
+      <c r="M274" s="11">
+        <f t="shared" si="53"/>
+        <v>2942.22</v>
+      </c>
+      <c r="N274" s="24">
+        <f t="shared" si="54"/>
+        <v>-6.4632466164195358E-3</v>
+      </c>
+      <c r="O274" s="11">
+        <f t="shared" si="55"/>
+        <v>-19.140000000000157</v>
+      </c>
+      <c r="P274" s="24">
+        <f t="shared" si="56"/>
+        <v>1.1487016191499461E-2</v>
+      </c>
       <c r="Q274" s="84"/>
       <c r="S274" s="25"/>
     </row>
-    <row r="275" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B275" s="114"/>
-      <c r="C275" s="30"/>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B275" s="163">
+        <v>274</v>
+      </c>
+      <c r="C275" s="30">
+        <v>44881</v>
+      </c>
       <c r="D275" s="31">
-        <v>0</v>
-      </c>
-      <c r="E275" s="120"/>
-      <c r="F275" s="20"/>
-      <c r="G275" s="20"/>
-      <c r="H275" s="14"/>
-      <c r="I275" s="15"/>
+        <v>127024</v>
+      </c>
+      <c r="E275" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="F275" s="20">
+        <v>10</v>
+      </c>
+      <c r="G275" s="20">
+        <v>105.402</v>
+      </c>
+      <c r="H275" s="14">
+        <f t="shared" si="42"/>
+        <v>1054.02</v>
+      </c>
+      <c r="I275" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="J275" s="12"/>
       <c r="K275" s="12"/>
       <c r="L275" s="12"/>
-      <c r="M275" s="11"/>
-      <c r="N275" s="24"/>
-      <c r="O275" s="11"/>
-      <c r="P275" s="24"/>
+      <c r="M275" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N275" s="24" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O275" s="11">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P275" s="24">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="Q275" s="84"/>
       <c r="S275" s="25"/>
     </row>
-    <row r="276" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B276" s="114"/>
-      <c r="C276" s="30"/>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B276" s="163">
+        <v>275</v>
+      </c>
+      <c r="C276" s="30">
+        <v>44882</v>
+      </c>
       <c r="D276" s="31">
-        <v>0</v>
-      </c>
-      <c r="E276" s="120"/>
-      <c r="F276" s="20"/>
-      <c r="G276" s="20"/>
-      <c r="H276" s="14"/>
-      <c r="I276" s="15"/>
+        <v>113596</v>
+      </c>
+      <c r="E276" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="F276" s="20">
+        <v>10</v>
+      </c>
+      <c r="G276" s="20">
+        <v>95.418000000000006</v>
+      </c>
+      <c r="H276" s="14">
+        <f t="shared" si="42"/>
+        <v>954.18000000000006</v>
+      </c>
+      <c r="I276" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J276" s="12"/>
       <c r="K276" s="12"/>
       <c r="L276" s="12"/>
-      <c r="M276" s="11"/>
-      <c r="N276" s="24"/>
-      <c r="O276" s="11"/>
-      <c r="P276" s="24"/>
+      <c r="M276" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N276" s="24" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O276" s="11">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P276" s="24">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="Q276" s="84"/>
       <c r="S276" s="25"/>
     </row>
-    <row r="277" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B277" s="114"/>
-      <c r="C277" s="30"/>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B277" s="163">
+        <v>276</v>
+      </c>
+      <c r="C277" s="30">
+        <v>44882</v>
+      </c>
       <c r="D277" s="31">
-        <v>0</v>
-      </c>
-      <c r="E277" s="120"/>
-      <c r="F277" s="20"/>
-      <c r="G277" s="20"/>
-      <c r="H277" s="14"/>
+        <v>128131</v>
+      </c>
+      <c r="E277" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="F277" s="20">
+        <v>10</v>
+      </c>
+      <c r="G277" s="20">
+        <v>108.91</v>
+      </c>
+      <c r="H277" s="14">
+        <f t="shared" si="42"/>
+        <v>1089.0999999999999</v>
+      </c>
       <c r="I277" s="15"/>
-      <c r="J277" s="12"/>
-      <c r="K277" s="12"/>
-      <c r="L277" s="12"/>
-      <c r="M277" s="11"/>
-      <c r="N277" s="24"/>
-      <c r="O277" s="11"/>
-      <c r="P277" s="24"/>
+      <c r="J277" s="12">
+        <v>109.63</v>
+      </c>
+      <c r="K277" s="12">
+        <v>108.94</v>
+      </c>
+      <c r="L277" s="12">
+        <v>10</v>
+      </c>
+      <c r="M277" s="11">
+        <f t="shared" si="53"/>
+        <v>1096.3</v>
+      </c>
+      <c r="N277" s="24">
+        <f t="shared" si="54"/>
+        <v>6.3337617036900839E-3</v>
+      </c>
+      <c r="O277" s="11">
+        <f t="shared" si="55"/>
+        <v>6.8999999999999773</v>
+      </c>
+      <c r="P277" s="24">
+        <f t="shared" si="56"/>
+        <v>4.2801747832387988E-3</v>
+      </c>
       <c r="Q277" s="84"/>
       <c r="S277" s="25"/>
     </row>
-    <row r="278" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B278" s="114"/>
-      <c r="C278" s="30"/>
-      <c r="D278" s="31"/>
-      <c r="E278" s="120"/>
-      <c r="F278" s="20"/>
-      <c r="G278" s="20"/>
-      <c r="H278" s="14"/>
-      <c r="I278" s="15"/>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B278" s="163">
+        <v>277</v>
+      </c>
+      <c r="C278" s="30">
+        <v>44882</v>
+      </c>
+      <c r="D278" s="31">
+        <v>113056</v>
+      </c>
+      <c r="E278" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="F278" s="20">
+        <v>10</v>
+      </c>
+      <c r="G278" s="20">
+        <v>98.293000000000006</v>
+      </c>
+      <c r="H278" s="14">
+        <f t="shared" si="42"/>
+        <v>982.93000000000006</v>
+      </c>
+      <c r="I278" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J278" s="12"/>
       <c r="K278" s="12"/>
       <c r="L278" s="12"/>
-      <c r="M278" s="11"/>
-      <c r="N278" s="24"/>
-      <c r="O278" s="11"/>
-      <c r="P278" s="24"/>
+      <c r="M278" s="11">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N278" s="24" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O278" s="11">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P278" s="24">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="Q278" s="84"/>
       <c r="S278" s="25"/>
     </row>
-    <row r="279" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B279" s="114"/>
-      <c r="C279" s="30"/>
-      <c r="D279" s="31"/>
-      <c r="E279" s="120"/>
-      <c r="F279" s="20"/>
-      <c r="G279" s="20"/>
-      <c r="H279" s="14"/>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B279" s="163">
+        <v>278</v>
+      </c>
+      <c r="C279" s="30">
+        <v>44882</v>
+      </c>
+      <c r="D279" s="31">
+        <v>113623</v>
+      </c>
+      <c r="E279" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="F279" s="20">
+        <v>10</v>
+      </c>
+      <c r="G279" s="20">
+        <v>108.6</v>
+      </c>
+      <c r="H279" s="14">
+        <f t="shared" si="42"/>
+        <v>1086</v>
+      </c>
       <c r="I279" s="15"/>
-      <c r="J279" s="12"/>
-      <c r="K279" s="12"/>
-      <c r="L279" s="12"/>
-      <c r="M279" s="11"/>
-      <c r="N279" s="24"/>
-      <c r="O279" s="11"/>
-      <c r="P279" s="24"/>
-      <c r="Q279" s="84"/>
+      <c r="J279" s="12">
+        <v>111.337</v>
+      </c>
+      <c r="K279" s="12">
+        <v>108.63</v>
+      </c>
+      <c r="L279" s="12">
+        <v>10</v>
+      </c>
+      <c r="M279" s="11">
+        <f t="shared" si="53"/>
+        <v>1113.3700000000001</v>
+      </c>
+      <c r="N279" s="24">
+        <f t="shared" si="54"/>
+        <v>2.4919451348614636E-2</v>
+      </c>
+      <c r="O279" s="11">
+        <f t="shared" si="55"/>
+        <v>27.070000000000078</v>
+      </c>
+      <c r="P279" s="24">
+        <f t="shared" si="56"/>
+        <v>4.3468194822718076E-3</v>
+      </c>
+      <c r="Q279" s="90" t="s">
+        <v>221</v>
+      </c>
       <c r="S279" s="25"/>
     </row>
-    <row r="280" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B280" s="114"/>
-      <c r="C280" s="30"/>
-      <c r="D280" s="31"/>
-      <c r="E280" s="120"/>
-      <c r="F280" s="20"/>
-      <c r="G280" s="20"/>
-      <c r="H280" s="14"/>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B280" s="163">
+        <v>279</v>
+      </c>
+      <c r="C280" s="30">
+        <v>44882</v>
+      </c>
+      <c r="D280" s="31">
+        <v>123117</v>
+      </c>
+      <c r="E280" s="120" t="s">
+        <v>219</v>
+      </c>
+      <c r="F280" s="20">
+        <v>10</v>
+      </c>
+      <c r="G280" s="20">
+        <v>108.38200000000001</v>
+      </c>
+      <c r="H280" s="14">
+        <f t="shared" ref="H280:H309" si="57">F280*G280</f>
+        <v>1083.8200000000002</v>
+      </c>
       <c r="I280" s="15"/>
-      <c r="J280" s="12"/>
-      <c r="K280" s="12"/>
-      <c r="L280" s="12"/>
-      <c r="M280" s="11"/>
-      <c r="N280" s="24"/>
-      <c r="O280" s="11"/>
-      <c r="P280" s="24"/>
-      <c r="Q280" s="84"/>
+      <c r="J280" s="12">
+        <v>109.931</v>
+      </c>
+      <c r="K280" s="12">
+        <v>108.41200000000001</v>
+      </c>
+      <c r="L280" s="12">
+        <v>10</v>
+      </c>
+      <c r="M280" s="11">
+        <f t="shared" ref="M280:M296" si="58">J280*L280</f>
+        <v>1099.31</v>
+      </c>
+      <c r="N280" s="24">
+        <f t="shared" ref="N280:N296" si="59">(J280-K280)/K280</f>
+        <v>1.4011364055639516E-2</v>
+      </c>
+      <c r="O280" s="11">
+        <f t="shared" ref="O280:O296" si="60">(J280-K280)*L280</f>
+        <v>15.189999999999912</v>
+      </c>
+      <c r="P280" s="24">
+        <f t="shared" ref="P280:P296" si="61">M280/$M$406</f>
+        <v>4.2919264261262833E-3</v>
+      </c>
+      <c r="Q280" s="84" t="s">
+        <v>222</v>
+      </c>
       <c r="S280" s="25"/>
     </row>
-    <row r="281" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B281" s="114"/>
-      <c r="C281" s="30"/>
-      <c r="D281" s="31"/>
-      <c r="E281" s="120"/>
-      <c r="F281" s="20"/>
-      <c r="G281" s="20"/>
-      <c r="H281" s="14"/>
-      <c r="I281" s="15"/>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B281" s="163">
+        <v>280</v>
+      </c>
+      <c r="C281" s="30">
+        <v>44882</v>
+      </c>
+      <c r="D281" s="31">
+        <v>128114</v>
+      </c>
+      <c r="E281" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F281" s="20">
+        <v>10</v>
+      </c>
+      <c r="G281" s="20">
+        <v>90.518000000000001</v>
+      </c>
+      <c r="H281" s="14">
+        <f t="shared" si="57"/>
+        <v>905.18000000000006</v>
+      </c>
+      <c r="I281" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J281" s="12"/>
       <c r="K281" s="12"/>
       <c r="L281" s="12"/>
-      <c r="M281" s="11"/>
-      <c r="N281" s="24"/>
-      <c r="O281" s="11"/>
-      <c r="P281" s="24"/>
+      <c r="M281" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N281" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O281" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P281" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
       <c r="Q281" s="84"/>
       <c r="S281" s="25"/>
     </row>
-    <row r="282" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B282" s="114"/>
-      <c r="C282" s="30"/>
-      <c r="D282" s="31"/>
-      <c r="E282" s="120"/>
-      <c r="F282" s="20"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="14"/>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B282" s="163">
+        <v>281</v>
+      </c>
+      <c r="C282" s="30">
+        <v>44882</v>
+      </c>
+      <c r="D282" s="31">
+        <v>128074</v>
+      </c>
+      <c r="E282" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="F282" s="20">
+        <v>10</v>
+      </c>
+      <c r="G282" s="20">
+        <v>110.143</v>
+      </c>
+      <c r="H282" s="14">
+        <f t="shared" si="57"/>
+        <v>1101.43</v>
+      </c>
       <c r="I282" s="15"/>
-      <c r="J282" s="12"/>
-      <c r="K282" s="12"/>
-      <c r="L282" s="12"/>
-      <c r="M282" s="11"/>
-      <c r="N282" s="24"/>
-      <c r="O282" s="11"/>
-      <c r="P282" s="24"/>
+      <c r="J282" s="12">
+        <v>111.782</v>
+      </c>
+      <c r="K282" s="12">
+        <v>110.173</v>
+      </c>
+      <c r="L282" s="12">
+        <v>10</v>
+      </c>
+      <c r="M282" s="11">
+        <f t="shared" si="58"/>
+        <v>1117.82</v>
+      </c>
+      <c r="N282" s="24">
+        <f t="shared" si="59"/>
+        <v>1.4604304139852729E-2</v>
+      </c>
+      <c r="O282" s="11">
+        <f t="shared" si="60"/>
+        <v>16.089999999999947</v>
+      </c>
+      <c r="P282" s="24">
+        <f t="shared" si="61"/>
+        <v>4.3641931735838675E-3</v>
+      </c>
       <c r="Q282" s="84"/>
       <c r="S282" s="25"/>
     </row>
-    <row r="283" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B283" s="114"/>
-      <c r="C283" s="30"/>
-      <c r="D283" s="31"/>
-      <c r="E283" s="120"/>
-      <c r="F283" s="20"/>
-      <c r="G283" s="20"/>
-      <c r="H283" s="14"/>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B283" s="165">
+        <v>282</v>
+      </c>
+      <c r="C283" s="30">
+        <v>44886</v>
+      </c>
+      <c r="D283" s="31">
+        <v>127067</v>
+      </c>
+      <c r="E283" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F283" s="20">
+        <v>10</v>
+      </c>
+      <c r="G283" s="20">
+        <v>107.76300000000001</v>
+      </c>
+      <c r="H283" s="14">
+        <f t="shared" si="57"/>
+        <v>1077.6300000000001</v>
+      </c>
       <c r="I283" s="15"/>
-      <c r="J283" s="12"/>
-      <c r="K283" s="12"/>
-      <c r="L283" s="12"/>
-      <c r="M283" s="11"/>
-      <c r="N283" s="24"/>
-      <c r="O283" s="11"/>
-      <c r="P283" s="24"/>
+      <c r="J283" s="12">
+        <v>111.7</v>
+      </c>
+      <c r="K283" s="12">
+        <v>107.79300000000001</v>
+      </c>
+      <c r="L283" s="12">
+        <v>10</v>
+      </c>
+      <c r="M283" s="11">
+        <f t="shared" si="58"/>
+        <v>1117</v>
+      </c>
+      <c r="N283" s="24">
+        <f t="shared" si="59"/>
+        <v>3.6245396268774377E-2</v>
+      </c>
+      <c r="O283" s="11">
+        <f t="shared" si="60"/>
+        <v>39.069999999999965</v>
+      </c>
+      <c r="P283" s="24">
+        <f t="shared" si="61"/>
+        <v>4.3609917293420952E-3</v>
+      </c>
       <c r="Q283" s="84"/>
       <c r="S283" s="25"/>
     </row>
-    <row r="284" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B284" s="114"/>
-      <c r="C284" s="30"/>
-      <c r="D284" s="31"/>
-      <c r="E284" s="120"/>
-      <c r="F284" s="20"/>
-      <c r="G284" s="20"/>
-      <c r="H284" s="14"/>
-      <c r="I284" s="15"/>
-      <c r="J284" s="12"/>
-      <c r="K284" s="12"/>
-      <c r="L284" s="12"/>
-      <c r="M284" s="11"/>
-      <c r="N284" s="24"/>
-      <c r="O284" s="11"/>
-      <c r="P284" s="24"/>
-      <c r="Q284" s="84"/>
-      <c r="S284" s="25"/>
-    </row>
-    <row r="285" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B285" s="114"/>
-      <c r="C285" s="30"/>
-      <c r="D285" s="31"/>
-      <c r="E285" s="120"/>
-      <c r="F285" s="20"/>
-      <c r="G285" s="20"/>
-      <c r="H285" s="14"/>
+    <row r="284" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="166"/>
+      <c r="B284" s="165">
+        <v>283</v>
+      </c>
+      <c r="C284" s="167">
+        <v>44887</v>
+      </c>
+      <c r="D284" s="168">
+        <v>128022</v>
+      </c>
+      <c r="E284" s="169" t="s">
+        <v>225</v>
+      </c>
+      <c r="F284" s="170">
+        <v>10</v>
+      </c>
+      <c r="G284" s="170">
+        <v>129.881</v>
+      </c>
+      <c r="H284" s="171">
+        <f t="shared" si="57"/>
+        <v>1298.81</v>
+      </c>
+      <c r="I284" s="172"/>
+      <c r="J284" s="172"/>
+      <c r="K284" s="172"/>
+      <c r="L284" s="172"/>
+      <c r="M284" s="171">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N284" s="173" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O284" s="171">
+        <v>11.17</v>
+      </c>
+      <c r="P284" s="173">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q284" s="174" t="s">
+        <v>226</v>
+      </c>
+      <c r="S284" s="62"/>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B285" s="165">
+        <v>284</v>
+      </c>
+      <c r="C285" s="30">
+        <v>44888</v>
+      </c>
+      <c r="D285" s="31">
+        <v>113606</v>
+      </c>
+      <c r="E285" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="F285" s="20">
+        <v>10</v>
+      </c>
+      <c r="G285" s="20">
+        <v>108.61</v>
+      </c>
+      <c r="H285" s="14">
+        <f t="shared" si="57"/>
+        <v>1086.0999999999999</v>
+      </c>
       <c r="I285" s="15"/>
-      <c r="J285" s="12"/>
-      <c r="K285" s="12"/>
-      <c r="L285" s="12"/>
-      <c r="M285" s="11"/>
-      <c r="N285" s="24"/>
-      <c r="O285" s="11"/>
-      <c r="P285" s="24"/>
+      <c r="J285" s="12">
+        <v>110.22</v>
+      </c>
+      <c r="K285" s="12">
+        <v>108.64</v>
+      </c>
+      <c r="L285" s="12">
+        <v>10</v>
+      </c>
+      <c r="M285" s="11">
+        <f t="shared" si="58"/>
+        <v>1102.2</v>
+      </c>
+      <c r="N285" s="24">
+        <f t="shared" si="59"/>
+        <v>1.4543446244477157E-2</v>
+      </c>
+      <c r="O285" s="11">
+        <f t="shared" si="60"/>
+        <v>15.799999999999983</v>
+      </c>
+      <c r="P285" s="24">
+        <f t="shared" si="61"/>
+        <v>4.3032095649783858E-3</v>
+      </c>
       <c r="Q285" s="84"/>
       <c r="S285" s="25"/>
     </row>
-    <row r="286" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B286" s="114"/>
-      <c r="C286" s="30"/>
-      <c r="D286" s="31"/>
-      <c r="E286" s="120"/>
-      <c r="F286" s="20"/>
-      <c r="G286" s="20"/>
-      <c r="H286" s="14"/>
-      <c r="I286" s="15"/>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B286" s="165">
+        <v>285</v>
+      </c>
+      <c r="C286" s="30">
+        <v>44888</v>
+      </c>
+      <c r="D286" s="31">
+        <v>127047</v>
+      </c>
+      <c r="E286" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="F286" s="20">
+        <v>10</v>
+      </c>
+      <c r="G286" s="20">
+        <v>97.021000000000001</v>
+      </c>
+      <c r="H286" s="14">
+        <f t="shared" si="57"/>
+        <v>970.21</v>
+      </c>
+      <c r="I286" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="J286" s="12"/>
       <c r="K286" s="12"/>
       <c r="L286" s="12"/>
-      <c r="M286" s="11"/>
-      <c r="N286" s="24"/>
-      <c r="O286" s="11"/>
-      <c r="P286" s="24"/>
+      <c r="M286" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N286" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O286" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P286" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
       <c r="Q286" s="84"/>
       <c r="S286" s="25"/>
     </row>
-    <row r="287" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B287" s="114"/>
-      <c r="C287" s="30"/>
-      <c r="D287" s="31"/>
-      <c r="E287" s="120"/>
-      <c r="F287" s="20"/>
-      <c r="G287" s="20"/>
-      <c r="H287" s="14"/>
-      <c r="I287" s="15"/>
-      <c r="J287" s="12"/>
-      <c r="K287" s="12"/>
-      <c r="L287" s="12"/>
-      <c r="M287" s="11"/>
-      <c r="N287" s="24"/>
-      <c r="O287" s="11"/>
-      <c r="P287" s="24"/>
-      <c r="Q287" s="84"/>
-      <c r="S287" s="25"/>
-    </row>
-    <row r="288" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B288" s="114"/>
-      <c r="C288" s="30"/>
-      <c r="D288" s="31"/>
-      <c r="E288" s="120"/>
-      <c r="F288" s="20"/>
-      <c r="G288" s="20"/>
-      <c r="H288" s="14"/>
+    <row r="287" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="166"/>
+      <c r="B287" s="165">
+        <v>286</v>
+      </c>
+      <c r="C287" s="167">
+        <v>44889</v>
+      </c>
+      <c r="D287" s="168">
+        <v>128022</v>
+      </c>
+      <c r="E287" s="169" t="s">
+        <v>225</v>
+      </c>
+      <c r="F287" s="170">
+        <v>-10</v>
+      </c>
+      <c r="G287" s="170">
+        <v>131.048</v>
+      </c>
+      <c r="H287" s="171">
+        <f t="shared" si="57"/>
+        <v>-1310.48</v>
+      </c>
+      <c r="I287" s="172" t="s">
+        <v>64</v>
+      </c>
+      <c r="J287" s="172"/>
+      <c r="K287" s="172"/>
+      <c r="L287" s="172"/>
+      <c r="M287" s="171">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N287" s="173" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O287" s="171">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P287" s="173">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q287" s="174"/>
+      <c r="S287" s="62"/>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B288" s="165">
+        <v>287</v>
+      </c>
+      <c r="C288" s="30">
+        <v>44890</v>
+      </c>
+      <c r="D288" s="31">
+        <v>127053</v>
+      </c>
+      <c r="E288" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="F288" s="20">
+        <v>10</v>
+      </c>
+      <c r="G288" s="20">
+        <v>112.655</v>
+      </c>
+      <c r="H288" s="14">
+        <f t="shared" si="57"/>
+        <v>1126.55</v>
+      </c>
       <c r="I288" s="15"/>
-      <c r="J288" s="12"/>
-      <c r="K288" s="12"/>
-      <c r="L288" s="12"/>
-      <c r="M288" s="11"/>
-      <c r="N288" s="24"/>
-      <c r="O288" s="11"/>
-      <c r="P288" s="24"/>
-      <c r="Q288" s="84"/>
+      <c r="J288" s="12">
+        <v>116.158</v>
+      </c>
+      <c r="K288" s="12">
+        <v>112.685</v>
+      </c>
+      <c r="L288" s="12">
+        <v>10</v>
+      </c>
+      <c r="M288" s="11">
+        <f t="shared" si="58"/>
+        <v>1161.58</v>
+      </c>
+      <c r="N288" s="24">
+        <f t="shared" si="59"/>
+        <v>3.0820428628477604E-2</v>
+      </c>
+      <c r="O288" s="11">
+        <f t="shared" si="60"/>
+        <v>34.72999999999999</v>
+      </c>
+      <c r="P288" s="24">
+        <f t="shared" si="61"/>
+        <v>4.5350409784862943E-3</v>
+      </c>
+      <c r="Q288" s="84" t="s">
+        <v>230</v>
+      </c>
       <c r="S288" s="25"/>
     </row>
-    <row r="289" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B289" s="114"/>
-      <c r="C289" s="30"/>
-      <c r="D289" s="31"/>
-      <c r="E289" s="120"/>
-      <c r="F289" s="20"/>
-      <c r="G289" s="20"/>
-      <c r="H289" s="14"/>
-      <c r="I289" s="15"/>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B289" s="105">
+        <v>288</v>
+      </c>
+      <c r="C289" s="30">
+        <v>44894</v>
+      </c>
+      <c r="D289" s="31">
+        <v>128035</v>
+      </c>
+      <c r="E289" s="120" t="s">
+        <v>182</v>
+      </c>
+      <c r="F289" s="20">
+        <v>10</v>
+      </c>
+      <c r="G289" s="20">
+        <v>105.979</v>
+      </c>
+      <c r="H289" s="14">
+        <f t="shared" si="57"/>
+        <v>1059.79</v>
+      </c>
+      <c r="I289" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="J289" s="12"/>
       <c r="K289" s="12"/>
       <c r="L289" s="12"/>
-      <c r="M289" s="11"/>
-      <c r="N289" s="24"/>
-      <c r="O289" s="11"/>
-      <c r="P289" s="24"/>
-      <c r="Q289" s="84"/>
+      <c r="M289" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N289" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O289" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P289" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q289" s="176"/>
       <c r="S289" s="25"/>
     </row>
-    <row r="290" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B290" s="114"/>
-      <c r="C290" s="30"/>
-      <c r="D290" s="31"/>
-      <c r="E290" s="120"/>
-      <c r="F290" s="20"/>
-      <c r="G290" s="20"/>
-      <c r="H290" s="14"/>
-      <c r="I290" s="15"/>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B290" s="105">
+        <v>289</v>
+      </c>
+      <c r="C290" s="30">
+        <v>44896</v>
+      </c>
+      <c r="D290" s="31">
+        <v>123096</v>
+      </c>
+      <c r="E290" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="F290" s="20">
+        <v>10</v>
+      </c>
+      <c r="G290" s="20">
+        <v>103.117</v>
+      </c>
+      <c r="H290" s="14">
+        <f t="shared" si="57"/>
+        <v>1031.17</v>
+      </c>
+      <c r="I290" s="15" t="s">
+        <v>233</v>
+      </c>
       <c r="J290" s="12"/>
       <c r="K290" s="12"/>
       <c r="L290" s="12"/>
-      <c r="M290" s="11"/>
-      <c r="N290" s="24"/>
-      <c r="O290" s="11"/>
-      <c r="P290" s="24"/>
-      <c r="Q290" s="84"/>
+      <c r="M290" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N290" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O290" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P290" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q290" s="176"/>
       <c r="S290" s="25"/>
     </row>
-    <row r="291" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B291" s="114"/>
-      <c r="C291" s="30"/>
-      <c r="D291" s="31"/>
-      <c r="E291" s="120"/>
-      <c r="F291" s="20"/>
-      <c r="G291" s="20"/>
-      <c r="H291" s="14"/>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B291" s="105">
+        <v>290</v>
+      </c>
+      <c r="C291" s="30">
+        <v>44897</v>
+      </c>
+      <c r="D291" s="31">
+        <v>110072</v>
+      </c>
+      <c r="E291" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="F291" s="20">
+        <v>30</v>
+      </c>
+      <c r="G291" s="20">
+        <v>95.474999999999994</v>
+      </c>
+      <c r="H291" s="14">
+        <f t="shared" si="57"/>
+        <v>2864.25</v>
+      </c>
       <c r="I291" s="15"/>
       <c r="J291" s="12"/>
       <c r="K291" s="12"/>
       <c r="L291" s="12"/>
-      <c r="M291" s="11"/>
-      <c r="N291" s="24"/>
-      <c r="O291" s="11"/>
-      <c r="P291" s="24"/>
-      <c r="Q291" s="84"/>
+      <c r="M291" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N291" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O291" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P291" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q291" s="176"/>
       <c r="S291" s="25"/>
     </row>
-    <row r="292" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B292" s="114"/>
-      <c r="C292" s="30"/>
-      <c r="D292" s="31"/>
-      <c r="E292" s="120"/>
-      <c r="F292" s="20"/>
-      <c r="G292" s="20"/>
-      <c r="H292" s="14"/>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B292" s="105">
+        <v>291</v>
+      </c>
+      <c r="C292" s="30">
+        <v>44897</v>
+      </c>
+      <c r="D292" s="31">
+        <v>110072</v>
+      </c>
+      <c r="E292" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="F292" s="20">
+        <v>-30</v>
+      </c>
+      <c r="G292" s="20">
+        <v>95.53</v>
+      </c>
+      <c r="H292" s="14">
+        <f t="shared" si="57"/>
+        <v>-2865.9</v>
+      </c>
       <c r="I292" s="15"/>
       <c r="J292" s="12"/>
       <c r="K292" s="12"/>
       <c r="L292" s="12"/>
-      <c r="M292" s="11"/>
-      <c r="N292" s="24"/>
-      <c r="O292" s="11"/>
-      <c r="P292" s="24"/>
-      <c r="Q292" s="84"/>
+      <c r="M292" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N292" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O292" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P292" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q292" s="176"/>
       <c r="S292" s="25"/>
     </row>
-    <row r="293" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B293" s="114"/>
-      <c r="C293" s="30"/>
-      <c r="D293" s="31"/>
-      <c r="E293" s="120"/>
-      <c r="F293" s="20"/>
-      <c r="G293" s="20"/>
-      <c r="H293" s="14"/>
-      <c r="I293" s="15"/>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B293" s="105">
+        <v>292</v>
+      </c>
+      <c r="C293" s="30">
+        <v>44897</v>
+      </c>
+      <c r="D293" s="31">
+        <v>113017</v>
+      </c>
+      <c r="E293" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F293" s="20">
+        <v>-10</v>
+      </c>
+      <c r="G293" s="20">
+        <v>113.066</v>
+      </c>
+      <c r="H293" s="14">
+        <f t="shared" si="57"/>
+        <v>-1130.6600000000001</v>
+      </c>
+      <c r="I293" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J293" s="12"/>
       <c r="K293" s="12"/>
       <c r="L293" s="12"/>
-      <c r="M293" s="11"/>
-      <c r="N293" s="24"/>
-      <c r="O293" s="11"/>
-      <c r="P293" s="24"/>
-      <c r="Q293" s="84"/>
+      <c r="M293" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N293" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O293" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P293" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q293" s="176"/>
       <c r="S293" s="25"/>
     </row>
-    <row r="294" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B294" s="114"/>
-      <c r="C294" s="30"/>
-      <c r="D294" s="31"/>
-      <c r="E294" s="120"/>
-      <c r="F294" s="20"/>
-      <c r="G294" s="20"/>
-      <c r="H294" s="14"/>
-      <c r="I294" s="15"/>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B294" s="105">
+        <v>293</v>
+      </c>
+      <c r="C294" s="30">
+        <v>44897</v>
+      </c>
+      <c r="D294" s="31">
+        <v>113017</v>
+      </c>
+      <c r="E294" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F294" s="20">
+        <v>40</v>
+      </c>
+      <c r="G294" s="20">
+        <v>114.379</v>
+      </c>
+      <c r="H294" s="14">
+        <f t="shared" si="57"/>
+        <v>4575.16</v>
+      </c>
+      <c r="I294" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J294" s="12"/>
       <c r="K294" s="12"/>
       <c r="L294" s="12"/>
-      <c r="M294" s="11"/>
-      <c r="N294" s="24"/>
-      <c r="O294" s="11"/>
-      <c r="P294" s="24"/>
-      <c r="Q294" s="84"/>
+      <c r="M294" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N294" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O294" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P294" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q294" s="176"/>
       <c r="S294" s="25"/>
     </row>
-    <row r="295" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B295" s="114"/>
-      <c r="C295" s="30"/>
-      <c r="D295" s="31"/>
-      <c r="E295" s="120"/>
-      <c r="F295" s="20"/>
-      <c r="G295" s="20"/>
-      <c r="H295" s="14"/>
-      <c r="I295" s="15"/>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B295" s="105">
+        <v>294</v>
+      </c>
+      <c r="C295" s="30">
+        <v>44897</v>
+      </c>
+      <c r="D295" s="31">
+        <v>113017</v>
+      </c>
+      <c r="E295" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F295" s="20">
+        <v>-40</v>
+      </c>
+      <c r="G295" s="20">
+        <v>115.1</v>
+      </c>
+      <c r="H295" s="14">
+        <f t="shared" si="57"/>
+        <v>-4604</v>
+      </c>
+      <c r="I295" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J295" s="12"/>
       <c r="K295" s="12"/>
       <c r="L295" s="12"/>
-      <c r="M295" s="11"/>
-      <c r="N295" s="24"/>
-      <c r="O295" s="11"/>
-      <c r="P295" s="24"/>
-      <c r="Q295" s="84"/>
+      <c r="M295" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N295" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O295" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P295" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q295" s="176"/>
       <c r="S295" s="25"/>
     </row>
-    <row r="296" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B296" s="114"/>
-      <c r="C296" s="30"/>
-      <c r="D296" s="31"/>
-      <c r="E296" s="120"/>
-      <c r="F296" s="20"/>
-      <c r="G296" s="20"/>
-      <c r="H296" s="14"/>
-      <c r="I296" s="15"/>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B296" s="105">
+        <v>295</v>
+      </c>
+      <c r="C296" s="30">
+        <v>44897</v>
+      </c>
+      <c r="D296" s="31">
+        <v>128114</v>
+      </c>
+      <c r="E296" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F296" s="20">
+        <v>20</v>
+      </c>
+      <c r="G296" s="20">
+        <v>101.84</v>
+      </c>
+      <c r="H296" s="14">
+        <f t="shared" si="57"/>
+        <v>2036.8000000000002</v>
+      </c>
+      <c r="I296" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J296" s="12"/>
       <c r="K296" s="12"/>
       <c r="L296" s="12"/>
-      <c r="M296" s="11"/>
-      <c r="N296" s="24"/>
-      <c r="O296" s="11"/>
-      <c r="P296" s="24"/>
-      <c r="Q296" s="84"/>
+      <c r="M296" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N296" s="24" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O296" s="11">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="P296" s="24">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q296" s="176"/>
       <c r="S296" s="25"/>
     </row>
-    <row r="297" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B297" s="114"/>
-      <c r="C297" s="30"/>
-      <c r="D297" s="31"/>
-      <c r="E297" s="120"/>
-      <c r="F297" s="20"/>
-      <c r="G297" s="20"/>
-      <c r="H297" s="14"/>
-      <c r="I297" s="15"/>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B297" s="105">
+        <v>296</v>
+      </c>
+      <c r="C297" s="30">
+        <v>44897</v>
+      </c>
+      <c r="D297" s="31">
+        <v>128114</v>
+      </c>
+      <c r="E297" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F297" s="20">
+        <v>-20</v>
+      </c>
+      <c r="G297" s="20">
+        <v>101.925</v>
+      </c>
+      <c r="H297" s="14">
+        <f t="shared" si="57"/>
+        <v>-2038.5</v>
+      </c>
+      <c r="I297" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J297" s="12"/>
       <c r="K297" s="12"/>
       <c r="L297" s="12"/>
-      <c r="M297" s="11"/>
-      <c r="N297" s="24"/>
-      <c r="O297" s="11"/>
-      <c r="P297" s="24"/>
-      <c r="Q297" s="84"/>
+      <c r="M297" s="11">
+        <f t="shared" ref="M297:M318" si="62">J297*L297</f>
+        <v>0</v>
+      </c>
+      <c r="N297" s="24" t="e">
+        <f t="shared" ref="N297:N318" si="63">(J297-K297)/K297</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O297" s="11">
+        <f t="shared" ref="O297:O318" si="64">(J297-K297)*L297</f>
+        <v>0</v>
+      </c>
+      <c r="P297" s="24">
+        <f t="shared" ref="P297:P318" si="65">M297/$M$406</f>
+        <v>0</v>
+      </c>
+      <c r="Q297" s="176"/>
       <c r="S297" s="25"/>
     </row>
-    <row r="298" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B298" s="114"/>
-      <c r="C298" s="30"/>
-      <c r="D298" s="31"/>
-      <c r="E298" s="120"/>
-      <c r="F298" s="20"/>
-      <c r="G298" s="20"/>
-      <c r="H298" s="14"/>
-      <c r="I298" s="15"/>
-      <c r="J298" s="12"/>
-      <c r="K298" s="12"/>
-      <c r="L298" s="12"/>
-      <c r="M298" s="11"/>
-      <c r="N298" s="24"/>
-      <c r="O298" s="11"/>
-      <c r="P298" s="24"/>
-      <c r="Q298" s="84"/>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A298" s="166"/>
+      <c r="B298" s="175">
+        <v>297</v>
+      </c>
+      <c r="C298" s="167">
+        <v>44900</v>
+      </c>
+      <c r="D298" s="168">
+        <v>113601</v>
+      </c>
+      <c r="E298" s="169" t="s">
+        <v>244</v>
+      </c>
+      <c r="F298" s="170">
+        <v>-10</v>
+      </c>
+      <c r="G298" s="170">
+        <v>126.39</v>
+      </c>
+      <c r="H298" s="171">
+        <f t="shared" si="57"/>
+        <v>-1263.9000000000001</v>
+      </c>
+      <c r="I298" s="172" t="s">
+        <v>64</v>
+      </c>
+      <c r="J298" s="172"/>
+      <c r="K298" s="172"/>
+      <c r="L298" s="172"/>
+      <c r="M298" s="172">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N298" s="172" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O298" s="172">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P298" s="172">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q298" s="177"/>
       <c r="S298" s="25"/>
     </row>
-    <row r="299" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B299" s="114"/>
-      <c r="C299" s="30"/>
-      <c r="D299" s="31"/>
-      <c r="E299" s="120"/>
-      <c r="F299" s="20"/>
-      <c r="G299" s="20"/>
-      <c r="H299" s="14"/>
-      <c r="I299" s="15"/>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B299" s="175">
+        <v>298</v>
+      </c>
+      <c r="C299" s="30">
+        <v>44900</v>
+      </c>
+      <c r="D299" s="31">
+        <v>128100</v>
+      </c>
+      <c r="E299" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F299" s="20">
+        <v>50</v>
+      </c>
+      <c r="G299" s="20">
+        <v>96.938000000000002</v>
+      </c>
+      <c r="H299" s="14">
+        <f t="shared" si="57"/>
+        <v>4846.9000000000005</v>
+      </c>
+      <c r="I299" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J299" s="12"/>
       <c r="K299" s="12"/>
       <c r="L299" s="12"/>
-      <c r="M299" s="11"/>
-      <c r="N299" s="24"/>
-      <c r="O299" s="11"/>
-      <c r="P299" s="24"/>
-      <c r="Q299" s="84"/>
+      <c r="M299" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N299" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O299" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P299" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q299" s="177"/>
       <c r="S299" s="25"/>
     </row>
-    <row r="300" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B300" s="114"/>
-      <c r="C300" s="30"/>
-      <c r="D300" s="31"/>
-      <c r="E300" s="120"/>
-      <c r="F300" s="20"/>
-      <c r="G300" s="20"/>
-      <c r="H300" s="14"/>
-      <c r="I300" s="15"/>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B300" s="175">
+        <v>299</v>
+      </c>
+      <c r="C300" s="30">
+        <v>44900</v>
+      </c>
+      <c r="D300" s="31">
+        <v>128044</v>
+      </c>
+      <c r="E300" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F300" s="20">
+        <v>40</v>
+      </c>
+      <c r="G300" s="20">
+        <v>116.804</v>
+      </c>
+      <c r="H300" s="14">
+        <f t="shared" si="57"/>
+        <v>4672.16</v>
+      </c>
+      <c r="I300" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J300" s="12"/>
       <c r="K300" s="12"/>
       <c r="L300" s="12"/>
-      <c r="M300" s="11"/>
-      <c r="N300" s="24"/>
-      <c r="O300" s="11"/>
-      <c r="P300" s="24"/>
-      <c r="Q300" s="84"/>
+      <c r="M300" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N300" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O300" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P300" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q300" s="177"/>
       <c r="S300" s="25"/>
     </row>
-    <row r="301" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B301" s="114"/>
-      <c r="C301" s="30"/>
-      <c r="D301" s="31"/>
-      <c r="E301" s="120"/>
-      <c r="F301" s="20"/>
-      <c r="G301" s="20"/>
-      <c r="H301" s="14"/>
-      <c r="I301" s="15"/>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B301" s="175">
+        <v>300</v>
+      </c>
+      <c r="C301" s="30">
+        <v>44901</v>
+      </c>
+      <c r="D301" s="31">
+        <v>113054</v>
+      </c>
+      <c r="E301" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="F301" s="20">
+        <v>10</v>
+      </c>
+      <c r="G301" s="20">
+        <v>106.08</v>
+      </c>
+      <c r="H301" s="14">
+        <f t="shared" si="57"/>
+        <v>1060.8</v>
+      </c>
+      <c r="I301" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="J301" s="12"/>
       <c r="K301" s="12"/>
       <c r="L301" s="12"/>
-      <c r="M301" s="11"/>
-      <c r="N301" s="24"/>
-      <c r="O301" s="11"/>
-      <c r="P301" s="24"/>
-      <c r="Q301" s="84"/>
+      <c r="M301" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N301" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O301" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P301" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q301" s="177"/>
       <c r="S301" s="25"/>
     </row>
-    <row r="302" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B302" s="114"/>
-      <c r="C302" s="30"/>
-      <c r="D302" s="31"/>
-      <c r="E302" s="120"/>
-      <c r="F302" s="20"/>
-      <c r="G302" s="20"/>
-      <c r="H302" s="14"/>
-      <c r="I302" s="15"/>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B302" s="175">
+        <v>301</v>
+      </c>
+      <c r="C302" s="30">
+        <v>44902</v>
+      </c>
+      <c r="D302" s="31">
+        <v>113056</v>
+      </c>
+      <c r="E302" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="F302" s="20">
+        <v>10</v>
+      </c>
+      <c r="G302" s="20">
+        <v>98.551000000000002</v>
+      </c>
+      <c r="H302" s="14">
+        <f t="shared" si="57"/>
+        <v>985.51</v>
+      </c>
+      <c r="I302" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="J302" s="12"/>
       <c r="K302" s="12"/>
       <c r="L302" s="12"/>
-      <c r="M302" s="11"/>
-      <c r="N302" s="24"/>
-      <c r="O302" s="11"/>
-      <c r="P302" s="24"/>
-      <c r="Q302" s="84"/>
+      <c r="M302" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N302" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O302" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P302" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q302" s="177"/>
       <c r="S302" s="25"/>
     </row>
-    <row r="303" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B303" s="114"/>
-      <c r="C303" s="30"/>
-      <c r="D303" s="31"/>
-      <c r="E303" s="120"/>
-      <c r="F303" s="20"/>
-      <c r="G303" s="20"/>
-      <c r="H303" s="14"/>
-      <c r="I303" s="15"/>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B303" s="175">
+        <v>302</v>
+      </c>
+      <c r="C303" s="30">
+        <v>44902</v>
+      </c>
+      <c r="D303" s="31">
+        <v>110062</v>
+      </c>
+      <c r="E303" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="F303" s="20">
+        <v>10</v>
+      </c>
+      <c r="G303" s="20">
+        <v>106.22499999999999</v>
+      </c>
+      <c r="H303" s="14">
+        <f t="shared" si="57"/>
+        <v>1062.25</v>
+      </c>
+      <c r="I303" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="J303" s="12"/>
       <c r="K303" s="12"/>
       <c r="L303" s="12"/>
-      <c r="M303" s="11"/>
-      <c r="N303" s="24"/>
-      <c r="O303" s="11"/>
-      <c r="P303" s="24"/>
-      <c r="Q303" s="84"/>
+      <c r="M303" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N303" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O303" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P303" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q303" s="177"/>
       <c r="S303" s="25"/>
     </row>
-    <row r="304" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B304" s="114"/>
-      <c r="C304" s="30"/>
-      <c r="D304" s="31"/>
-      <c r="E304" s="120"/>
-      <c r="F304" s="20"/>
-      <c r="G304" s="20"/>
-      <c r="H304" s="14"/>
-      <c r="I304" s="15"/>
-      <c r="J304" s="12"/>
-      <c r="K304" s="12"/>
-      <c r="L304" s="12"/>
-      <c r="M304" s="11"/>
-      <c r="N304" s="24"/>
-      <c r="O304" s="11"/>
-      <c r="P304" s="24"/>
-      <c r="Q304" s="84"/>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B304" s="175">
+        <v>303</v>
+      </c>
+      <c r="C304" s="30">
+        <v>44902</v>
+      </c>
+      <c r="D304" s="31">
+        <v>113601</v>
+      </c>
+      <c r="E304" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="F304" s="20">
+        <v>40</v>
+      </c>
+      <c r="G304" s="20">
+        <v>119.131</v>
+      </c>
+      <c r="H304" s="14">
+        <f t="shared" si="57"/>
+        <v>4765.24</v>
+      </c>
+      <c r="I304" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J304" s="12">
+        <v>118.529</v>
+      </c>
+      <c r="K304" s="12">
+        <v>118.56399999999999</v>
+      </c>
+      <c r="L304" s="12">
+        <v>30</v>
+      </c>
+      <c r="M304" s="11">
+        <f t="shared" si="62"/>
+        <v>3555.87</v>
+      </c>
+      <c r="N304" s="24">
+        <f t="shared" si="63"/>
+        <v>-2.9519921730033225E-4</v>
+      </c>
+      <c r="O304" s="11">
+        <f t="shared" si="64"/>
+        <v>-1.0499999999998977</v>
+      </c>
+      <c r="P304" s="24">
+        <f t="shared" si="65"/>
+        <v>1.3882828702431222E-2</v>
+      </c>
+      <c r="Q304" s="177"/>
       <c r="S304" s="25"/>
     </row>
     <row r="305" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B305" s="114"/>
-      <c r="C305" s="30"/>
-      <c r="D305" s="31"/>
-      <c r="E305" s="120"/>
-      <c r="F305" s="20"/>
-      <c r="G305" s="20"/>
-      <c r="H305" s="14"/>
-      <c r="I305" s="15"/>
-      <c r="J305" s="12"/>
-      <c r="K305" s="12"/>
-      <c r="L305" s="12"/>
-      <c r="M305" s="11"/>
-      <c r="N305" s="24"/>
-      <c r="O305" s="11"/>
-      <c r="P305" s="24"/>
-      <c r="Q305" s="84"/>
+      <c r="B305" s="175">
+        <v>304</v>
+      </c>
+      <c r="C305" s="144">
+        <v>44902</v>
+      </c>
+      <c r="D305" s="145">
+        <v>127062</v>
+      </c>
+      <c r="E305" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="F305" s="147">
+        <v>40</v>
+      </c>
+      <c r="G305" s="147">
+        <v>120.15</v>
+      </c>
+      <c r="H305" s="148">
+        <f t="shared" si="57"/>
+        <v>4806</v>
+      </c>
+      <c r="I305" s="149"/>
+      <c r="J305" s="149"/>
+      <c r="K305" s="149"/>
+      <c r="L305" s="149"/>
+      <c r="M305" s="148">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N305" s="150" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O305" s="148">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P305" s="150">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q305" s="177"/>
       <c r="S305" s="25"/>
     </row>
     <row r="306" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B306" s="114"/>
-      <c r="C306" s="30"/>
-      <c r="D306" s="31"/>
-      <c r="E306" s="120"/>
-      <c r="F306" s="20"/>
-      <c r="G306" s="20"/>
-      <c r="H306" s="14"/>
-      <c r="I306" s="15"/>
-      <c r="J306" s="12"/>
-      <c r="K306" s="12"/>
-      <c r="L306" s="12"/>
-      <c r="M306" s="11"/>
-      <c r="N306" s="24"/>
-      <c r="O306" s="11"/>
-      <c r="P306" s="24"/>
-      <c r="Q306" s="84"/>
+      <c r="B306" s="175">
+        <v>305</v>
+      </c>
+      <c r="C306" s="144">
+        <v>44902</v>
+      </c>
+      <c r="D306" s="145">
+        <v>127062</v>
+      </c>
+      <c r="E306" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="F306" s="147">
+        <v>-40</v>
+      </c>
+      <c r="G306" s="147">
+        <v>120.521</v>
+      </c>
+      <c r="H306" s="148">
+        <f t="shared" si="57"/>
+        <v>-4820.84</v>
+      </c>
+      <c r="I306" s="149"/>
+      <c r="J306" s="149"/>
+      <c r="K306" s="149"/>
+      <c r="L306" s="149"/>
+      <c r="M306" s="148">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N306" s="150" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O306" s="148">
+        <v>13.92</v>
+      </c>
+      <c r="P306" s="150">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q306" s="177"/>
       <c r="S306" s="25"/>
     </row>
     <row r="307" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B307" s="114"/>
-      <c r="C307" s="30"/>
-      <c r="D307" s="31"/>
-      <c r="E307" s="120"/>
-      <c r="F307" s="20"/>
-      <c r="G307" s="20"/>
-      <c r="H307" s="14"/>
-      <c r="I307" s="15"/>
+      <c r="B307" s="175">
+        <v>306</v>
+      </c>
+      <c r="C307" s="30">
+        <v>44904</v>
+      </c>
+      <c r="D307" s="31">
+        <v>127047</v>
+      </c>
+      <c r="E307" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F307" s="20">
+        <v>20</v>
+      </c>
+      <c r="G307" s="20">
+        <v>99.1</v>
+      </c>
+      <c r="H307" s="14">
+        <f t="shared" si="57"/>
+        <v>1982</v>
+      </c>
+      <c r="I307" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J307" s="12"/>
       <c r="K307" s="12"/>
       <c r="L307" s="12"/>
-      <c r="M307" s="11"/>
-      <c r="N307" s="24"/>
-      <c r="O307" s="11"/>
-      <c r="P307" s="24"/>
-      <c r="Q307" s="84"/>
+      <c r="M307" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N307" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O307" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P307" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q307" s="177"/>
       <c r="S307" s="25"/>
     </row>
     <row r="308" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B308" s="114"/>
-      <c r="C308" s="30"/>
-      <c r="D308" s="31"/>
-      <c r="E308" s="120"/>
-      <c r="F308" s="20"/>
-      <c r="G308" s="20"/>
-      <c r="H308" s="14"/>
-      <c r="I308" s="15"/>
+      <c r="B308" s="175">
+        <v>307</v>
+      </c>
+      <c r="C308" s="30">
+        <v>44904</v>
+      </c>
+      <c r="D308" s="31">
+        <v>113017</v>
+      </c>
+      <c r="E308" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F308" s="20">
+        <v>20</v>
+      </c>
+      <c r="G308" s="20">
+        <v>113.14100000000001</v>
+      </c>
+      <c r="H308" s="14">
+        <f t="shared" si="57"/>
+        <v>2262.8200000000002</v>
+      </c>
+      <c r="I308" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J308" s="12"/>
       <c r="K308" s="12"/>
       <c r="L308" s="12"/>
-      <c r="M308" s="11"/>
-      <c r="N308" s="24"/>
-      <c r="O308" s="11"/>
-      <c r="P308" s="24"/>
-      <c r="Q308" s="84"/>
+      <c r="M308" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N308" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O308" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P308" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q308" s="177"/>
       <c r="S308" s="25"/>
     </row>
     <row r="309" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B309" s="114"/>
-      <c r="C309" s="30"/>
-      <c r="D309" s="31"/>
-      <c r="E309" s="120"/>
-      <c r="F309" s="20"/>
-      <c r="G309" s="20"/>
-      <c r="H309" s="14"/>
-      <c r="I309" s="15"/>
+      <c r="B309" s="175">
+        <v>308</v>
+      </c>
+      <c r="C309" s="30">
+        <v>44904</v>
+      </c>
+      <c r="D309" s="31">
+        <v>113601</v>
+      </c>
+      <c r="E309" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="F309" s="20">
+        <v>-10</v>
+      </c>
+      <c r="G309" s="20">
+        <v>120.884</v>
+      </c>
+      <c r="H309" s="14">
+        <f t="shared" si="57"/>
+        <v>-1208.8399999999999</v>
+      </c>
+      <c r="I309" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J309" s="12"/>
       <c r="K309" s="12"/>
       <c r="L309" s="12"/>
-      <c r="M309" s="11"/>
-      <c r="N309" s="24"/>
-      <c r="O309" s="11"/>
-      <c r="P309" s="24"/>
-      <c r="Q309" s="84"/>
+      <c r="M309" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N309" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O309" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P309" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="Q309" s="177"/>
       <c r="S309" s="25"/>
     </row>
     <row r="310" spans="2:19" x14ac:dyDescent="0.2">
@@ -18946,10 +20456,22 @@
       <c r="J310" s="12"/>
       <c r="K310" s="12"/>
       <c r="L310" s="12"/>
-      <c r="M310" s="11"/>
-      <c r="N310" s="24"/>
-      <c r="O310" s="11"/>
-      <c r="P310" s="24"/>
+      <c r="M310" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N310" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O310" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P310" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q310" s="84"/>
       <c r="S310" s="25"/>
     </row>
@@ -18965,10 +20487,22 @@
       <c r="J311" s="12"/>
       <c r="K311" s="12"/>
       <c r="L311" s="12"/>
-      <c r="M311" s="11"/>
-      <c r="N311" s="24"/>
-      <c r="O311" s="11"/>
-      <c r="P311" s="24"/>
+      <c r="M311" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N311" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O311" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P311" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q311" s="84"/>
       <c r="S311" s="25"/>
     </row>
@@ -18984,10 +20518,22 @@
       <c r="J312" s="12"/>
       <c r="K312" s="12"/>
       <c r="L312" s="12"/>
-      <c r="M312" s="11"/>
-      <c r="N312" s="24"/>
-      <c r="O312" s="11"/>
-      <c r="P312" s="24"/>
+      <c r="M312" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N312" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O312" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P312" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q312" s="84"/>
       <c r="S312" s="25"/>
     </row>
@@ -19003,10 +20549,22 @@
       <c r="J313" s="12"/>
       <c r="K313" s="12"/>
       <c r="L313" s="12"/>
-      <c r="M313" s="11"/>
-      <c r="N313" s="24"/>
-      <c r="O313" s="11"/>
-      <c r="P313" s="24"/>
+      <c r="M313" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N313" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O313" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P313" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q313" s="84"/>
       <c r="S313" s="25"/>
     </row>
@@ -19022,10 +20580,22 @@
       <c r="J314" s="12"/>
       <c r="K314" s="12"/>
       <c r="L314" s="12"/>
-      <c r="M314" s="11"/>
-      <c r="N314" s="24"/>
-      <c r="O314" s="11"/>
-      <c r="P314" s="24"/>
+      <c r="M314" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N314" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O314" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P314" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q314" s="84"/>
       <c r="S314" s="25"/>
     </row>
@@ -19041,10 +20611,22 @@
       <c r="J315" s="12"/>
       <c r="K315" s="12"/>
       <c r="L315" s="12"/>
-      <c r="M315" s="11"/>
-      <c r="N315" s="24"/>
-      <c r="O315" s="11"/>
-      <c r="P315" s="24"/>
+      <c r="M315" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N315" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O315" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P315" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q315" s="84"/>
       <c r="S315" s="25"/>
     </row>
@@ -19060,10 +20642,22 @@
       <c r="J316" s="12"/>
       <c r="K316" s="12"/>
       <c r="L316" s="12"/>
-      <c r="M316" s="11"/>
-      <c r="N316" s="24"/>
-      <c r="O316" s="11"/>
-      <c r="P316" s="24"/>
+      <c r="M316" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N316" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O316" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P316" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q316" s="84"/>
       <c r="S316" s="25"/>
     </row>
@@ -19079,10 +20673,22 @@
       <c r="J317" s="12"/>
       <c r="K317" s="12"/>
       <c r="L317" s="12"/>
-      <c r="M317" s="11"/>
-      <c r="N317" s="24"/>
-      <c r="O317" s="11"/>
-      <c r="P317" s="24"/>
+      <c r="M317" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N317" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O317" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P317" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q317" s="84"/>
       <c r="S317" s="25"/>
     </row>
@@ -19098,10 +20704,22 @@
       <c r="J318" s="12"/>
       <c r="K318" s="12"/>
       <c r="L318" s="12"/>
-      <c r="M318" s="11"/>
-      <c r="N318" s="24"/>
-      <c r="O318" s="11"/>
-      <c r="P318" s="24"/>
+      <c r="M318" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="N318" s="24" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O318" s="11">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="P318" s="24">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Q318" s="84"/>
       <c r="S318" s="25"/>
     </row>
@@ -19447,7 +21065,7 @@
       <c r="Q336" s="84"/>
       <c r="S336" s="25"/>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B337" s="114"/>
       <c r="C337" s="30"/>
       <c r="D337" s="31"/>
@@ -19466,7 +21084,7 @@
       <c r="Q337" s="84"/>
       <c r="S337" s="25"/>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B338" s="114"/>
       <c r="C338" s="30"/>
       <c r="D338" s="31"/>
@@ -19485,7 +21103,7 @@
       <c r="Q338" s="84"/>
       <c r="S338" s="25"/>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B339" s="114"/>
       <c r="C339" s="30"/>
       <c r="D339" s="31"/>
@@ -19504,7 +21122,7 @@
       <c r="Q339" s="84"/>
       <c r="S339" s="25"/>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B340" s="114"/>
       <c r="C340" s="30"/>
       <c r="D340" s="31"/>
@@ -19523,7 +21141,7 @@
       <c r="Q340" s="84"/>
       <c r="S340" s="25"/>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B341" s="114"/>
       <c r="C341" s="30"/>
       <c r="D341" s="31"/>
@@ -19542,7 +21160,7 @@
       <c r="Q341" s="84"/>
       <c r="S341" s="25"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B342" s="114"/>
       <c r="C342" s="30"/>
       <c r="D342" s="31"/>
@@ -19561,7 +21179,7 @@
       <c r="Q342" s="84"/>
       <c r="S342" s="25"/>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B343" s="114"/>
       <c r="C343" s="30"/>
       <c r="D343" s="31"/>
@@ -19580,7 +21198,7 @@
       <c r="Q343" s="84"/>
       <c r="S343" s="25"/>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B344" s="114"/>
       <c r="C344" s="30"/>
       <c r="D344" s="31"/>
@@ -19599,7 +21217,7 @@
       <c r="Q344" s="84"/>
       <c r="S344" s="25"/>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B345" s="114"/>
       <c r="C345" s="30"/>
       <c r="D345" s="31"/>
@@ -19618,7 +21236,7 @@
       <c r="Q345" s="84"/>
       <c r="S345" s="25"/>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B346" s="114"/>
       <c r="C346" s="30"/>
       <c r="D346" s="31"/>
@@ -19637,7 +21255,7 @@
       <c r="Q346" s="84"/>
       <c r="S346" s="25"/>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B347" s="114"/>
       <c r="C347" s="30"/>
       <c r="D347" s="31"/>
@@ -19656,7 +21274,7 @@
       <c r="Q347" s="84"/>
       <c r="S347" s="25"/>
     </row>
-    <row r="348" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B348" s="114"/>
       <c r="C348" s="30"/>
       <c r="D348" s="31"/>
@@ -19675,8 +21293,7 @@
       <c r="Q348" s="84"/>
       <c r="S348" s="25"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A349" s="7"/>
+    <row r="349" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B349" s="114"/>
       <c r="C349" s="30"/>
       <c r="D349" s="31"/>
@@ -19695,7 +21312,7 @@
       <c r="Q349" s="84"/>
       <c r="S349" s="25"/>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B350" s="114"/>
       <c r="C350" s="30"/>
       <c r="D350" s="31"/>
@@ -19712,8 +21329,9 @@
       <c r="O350" s="11"/>
       <c r="P350" s="24"/>
       <c r="Q350" s="84"/>
-    </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S350" s="25"/>
+    </row>
+    <row r="351" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B351" s="114"/>
       <c r="C351" s="30"/>
       <c r="D351" s="31"/>
@@ -19730,106 +21348,1132 @@
       <c r="O351" s="11"/>
       <c r="P351" s="24"/>
       <c r="Q351" s="84"/>
-    </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S351" s="25"/>
+    </row>
+    <row r="352" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B352" s="114"/>
       <c r="C352" s="30"/>
-      <c r="D352" s="31">
-        <v>0</v>
-      </c>
+      <c r="D352" s="31"/>
       <c r="E352" s="120"/>
-      <c r="F352" s="20">
-        <f>SUM(F3:F351)</f>
-        <v>2060</v>
-      </c>
+      <c r="F352" s="20"/>
       <c r="G352" s="20"/>
-      <c r="H352" s="14">
-        <f>SUM(H3:H351)</f>
-        <v>204479.15999999992</v>
-      </c>
+      <c r="H352" s="14"/>
       <c r="I352" s="15"/>
-      <c r="J352" s="12">
-        <v>5555</v>
-      </c>
+      <c r="J352" s="12"/>
       <c r="K352" s="12"/>
-      <c r="L352" s="12">
-        <f>SUM(L3:L351)</f>
-        <v>2050</v>
-      </c>
-      <c r="M352" s="11">
-        <f>SUM(M3:M351)</f>
-        <v>217217.84999999992</v>
-      </c>
-      <c r="N352" s="24">
-        <f>O352/M352</f>
-        <v>4.2704639604894339E-2</v>
-      </c>
-      <c r="O352" s="11">
-        <f>SUM(O3:O351)</f>
-        <v>9276.2099999999937</v>
-      </c>
+      <c r="L352" s="12"/>
+      <c r="M352" s="11"/>
+      <c r="N352" s="24"/>
+      <c r="O352" s="11"/>
       <c r="P352" s="24"/>
       <c r="Q352" s="84"/>
-    </row>
-    <row r="353" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C353" s="26"/>
+      <c r="S352" s="25"/>
+    </row>
+    <row r="353" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B353" s="114"/>
+      <c r="C353" s="30"/>
+      <c r="D353" s="31"/>
+      <c r="E353" s="120"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="20"/>
+      <c r="H353" s="14"/>
+      <c r="I353" s="15"/>
+      <c r="J353" s="12"/>
+      <c r="K353" s="12"/>
+      <c r="L353" s="12"/>
+      <c r="M353" s="11"/>
+      <c r="N353" s="24"/>
+      <c r="O353" s="11"/>
+      <c r="P353" s="24"/>
       <c r="Q353" s="84"/>
-    </row>
-    <row r="354" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C354" s="26"/>
+      <c r="S353" s="25"/>
+    </row>
+    <row r="354" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B354" s="114"/>
+      <c r="C354" s="30"/>
+      <c r="D354" s="31"/>
+      <c r="E354" s="120"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="20"/>
+      <c r="H354" s="14"/>
+      <c r="I354" s="15"/>
+      <c r="J354" s="12"/>
+      <c r="K354" s="12"/>
+      <c r="L354" s="12"/>
+      <c r="M354" s="11"/>
+      <c r="N354" s="24"/>
+      <c r="O354" s="11"/>
+      <c r="P354" s="24"/>
       <c r="Q354" s="84"/>
-    </row>
-    <row r="355" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C355" s="26"/>
+      <c r="S354" s="25"/>
+    </row>
+    <row r="355" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B355" s="114"/>
+      <c r="C355" s="30"/>
+      <c r="D355" s="31"/>
+      <c r="E355" s="120"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="20"/>
+      <c r="H355" s="14"/>
+      <c r="I355" s="15"/>
+      <c r="J355" s="12"/>
+      <c r="K355" s="12"/>
+      <c r="L355" s="12"/>
+      <c r="M355" s="11"/>
+      <c r="N355" s="24"/>
+      <c r="O355" s="11"/>
+      <c r="P355" s="24"/>
       <c r="Q355" s="84"/>
-    </row>
-    <row r="356" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C356" s="26"/>
+      <c r="S355" s="25"/>
+    </row>
+    <row r="356" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B356" s="114"/>
+      <c r="C356" s="30"/>
+      <c r="D356" s="31"/>
+      <c r="E356" s="120"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="20"/>
+      <c r="H356" s="14"/>
+      <c r="I356" s="15"/>
+      <c r="J356" s="12"/>
+      <c r="K356" s="12"/>
+      <c r="L356" s="12"/>
+      <c r="M356" s="11"/>
+      <c r="N356" s="24"/>
+      <c r="O356" s="11"/>
+      <c r="P356" s="24"/>
       <c r="Q356" s="84"/>
-    </row>
-    <row r="357" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C357" s="26"/>
+      <c r="S356" s="25"/>
+    </row>
+    <row r="357" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B357" s="114"/>
+      <c r="C357" s="30"/>
+      <c r="D357" s="31"/>
+      <c r="E357" s="120"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="20"/>
+      <c r="H357" s="14"/>
+      <c r="I357" s="15"/>
+      <c r="J357" s="12"/>
+      <c r="K357" s="12"/>
+      <c r="L357" s="12"/>
+      <c r="M357" s="11"/>
+      <c r="N357" s="24"/>
+      <c r="O357" s="11"/>
+      <c r="P357" s="24"/>
       <c r="Q357" s="84"/>
-    </row>
-    <row r="358" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C358" s="26"/>
+      <c r="S357" s="25"/>
+    </row>
+    <row r="358" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B358" s="114"/>
+      <c r="C358" s="30"/>
+      <c r="D358" s="31"/>
+      <c r="E358" s="120"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="20"/>
+      <c r="H358" s="14"/>
+      <c r="I358" s="15"/>
+      <c r="J358" s="12"/>
+      <c r="K358" s="12"/>
+      <c r="L358" s="12"/>
+      <c r="M358" s="11"/>
+      <c r="N358" s="24"/>
+      <c r="O358" s="11"/>
+      <c r="P358" s="24"/>
       <c r="Q358" s="84"/>
-    </row>
-    <row r="359" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C359" s="26"/>
+      <c r="S358" s="25"/>
+    </row>
+    <row r="359" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B359" s="114"/>
+      <c r="C359" s="30"/>
+      <c r="D359" s="31"/>
+      <c r="E359" s="120"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="20"/>
+      <c r="H359" s="14"/>
+      <c r="I359" s="15"/>
+      <c r="J359" s="12"/>
+      <c r="K359" s="12"/>
+      <c r="L359" s="12"/>
+      <c r="M359" s="11"/>
+      <c r="N359" s="24"/>
+      <c r="O359" s="11"/>
+      <c r="P359" s="24"/>
       <c r="Q359" s="84"/>
-    </row>
-    <row r="360" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C360" s="26"/>
-    </row>
-    <row r="361" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C361" s="26"/>
-    </row>
-    <row r="362" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C362" s="26"/>
-    </row>
-    <row r="363" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C363" s="26"/>
-    </row>
-    <row r="364" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C364" s="26"/>
-    </row>
-    <row r="365" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C365" s="26"/>
-    </row>
-    <row r="366" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C366" s="26"/>
-    </row>
-    <row r="368" spans="3:17" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="D368" s="27"/>
-    </row>
-    <row r="370" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M370" s="112"/>
+      <c r="S359" s="25"/>
+    </row>
+    <row r="360" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B360" s="114"/>
+      <c r="C360" s="30"/>
+      <c r="D360" s="31"/>
+      <c r="E360" s="120"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="20"/>
+      <c r="H360" s="14"/>
+      <c r="I360" s="15"/>
+      <c r="J360" s="12"/>
+      <c r="K360" s="12"/>
+      <c r="L360" s="12"/>
+      <c r="M360" s="11"/>
+      <c r="N360" s="24"/>
+      <c r="O360" s="11"/>
+      <c r="P360" s="24"/>
+      <c r="Q360" s="84"/>
+      <c r="S360" s="25"/>
+    </row>
+    <row r="361" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B361" s="114"/>
+      <c r="C361" s="30"/>
+      <c r="D361" s="31"/>
+      <c r="E361" s="120"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="20"/>
+      <c r="H361" s="14"/>
+      <c r="I361" s="15"/>
+      <c r="J361" s="12"/>
+      <c r="K361" s="12"/>
+      <c r="L361" s="12"/>
+      <c r="M361" s="11"/>
+      <c r="N361" s="24"/>
+      <c r="O361" s="11"/>
+      <c r="P361" s="24"/>
+      <c r="Q361" s="84"/>
+      <c r="S361" s="25"/>
+    </row>
+    <row r="362" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B362" s="114"/>
+      <c r="C362" s="30"/>
+      <c r="D362" s="31"/>
+      <c r="E362" s="120"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="20"/>
+      <c r="H362" s="14"/>
+      <c r="I362" s="15"/>
+      <c r="J362" s="12"/>
+      <c r="K362" s="12"/>
+      <c r="L362" s="12"/>
+      <c r="M362" s="11"/>
+      <c r="N362" s="24"/>
+      <c r="O362" s="11"/>
+      <c r="P362" s="24"/>
+      <c r="Q362" s="84"/>
+      <c r="S362" s="25"/>
+    </row>
+    <row r="363" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B363" s="114"/>
+      <c r="C363" s="30"/>
+      <c r="D363" s="31"/>
+      <c r="E363" s="120"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="20"/>
+      <c r="H363" s="14"/>
+      <c r="I363" s="15"/>
+      <c r="J363" s="12"/>
+      <c r="K363" s="12"/>
+      <c r="L363" s="12"/>
+      <c r="M363" s="11"/>
+      <c r="N363" s="24"/>
+      <c r="O363" s="11"/>
+      <c r="P363" s="24"/>
+      <c r="Q363" s="84"/>
+      <c r="S363" s="25"/>
+    </row>
+    <row r="364" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B364" s="114"/>
+      <c r="C364" s="30"/>
+      <c r="D364" s="31"/>
+      <c r="E364" s="120"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="20"/>
+      <c r="H364" s="14"/>
+      <c r="I364" s="15"/>
+      <c r="J364" s="12"/>
+      <c r="K364" s="12"/>
+      <c r="L364" s="12"/>
+      <c r="M364" s="11"/>
+      <c r="N364" s="24"/>
+      <c r="O364" s="11"/>
+      <c r="P364" s="24"/>
+      <c r="Q364" s="84"/>
+      <c r="S364" s="25"/>
+    </row>
+    <row r="365" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B365" s="114"/>
+      <c r="C365" s="30"/>
+      <c r="D365" s="31"/>
+      <c r="E365" s="120"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="20"/>
+      <c r="H365" s="14"/>
+      <c r="I365" s="15"/>
+      <c r="J365" s="12"/>
+      <c r="K365" s="12"/>
+      <c r="L365" s="12"/>
+      <c r="M365" s="11"/>
+      <c r="N365" s="24"/>
+      <c r="O365" s="11"/>
+      <c r="P365" s="24"/>
+      <c r="Q365" s="84"/>
+      <c r="S365" s="25"/>
+    </row>
+    <row r="366" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B366" s="114"/>
+      <c r="C366" s="30"/>
+      <c r="D366" s="31"/>
+      <c r="E366" s="120"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="20"/>
+      <c r="H366" s="14"/>
+      <c r="I366" s="15"/>
+      <c r="J366" s="12"/>
+      <c r="K366" s="12"/>
+      <c r="L366" s="12"/>
+      <c r="M366" s="11"/>
+      <c r="N366" s="24"/>
+      <c r="O366" s="11"/>
+      <c r="P366" s="24"/>
+      <c r="Q366" s="84"/>
+      <c r="S366" s="25"/>
+    </row>
+    <row r="367" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B367" s="114"/>
+      <c r="C367" s="30"/>
+      <c r="D367" s="31"/>
+      <c r="E367" s="120"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="20"/>
+      <c r="H367" s="14"/>
+      <c r="I367" s="15"/>
+      <c r="J367" s="12"/>
+      <c r="K367" s="12"/>
+      <c r="L367" s="12"/>
+      <c r="M367" s="11"/>
+      <c r="N367" s="24"/>
+      <c r="O367" s="11"/>
+      <c r="P367" s="24"/>
+      <c r="Q367" s="84"/>
+      <c r="S367" s="25"/>
+    </row>
+    <row r="368" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B368" s="114"/>
+      <c r="C368" s="30"/>
+      <c r="D368" s="31"/>
+      <c r="E368" s="120"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="20"/>
+      <c r="H368" s="14"/>
+      <c r="I368" s="15"/>
+      <c r="J368" s="12"/>
+      <c r="K368" s="12"/>
+      <c r="L368" s="12"/>
+      <c r="M368" s="11"/>
+      <c r="N368" s="24"/>
+      <c r="O368" s="11"/>
+      <c r="P368" s="24"/>
+      <c r="Q368" s="84"/>
+      <c r="S368" s="25"/>
+    </row>
+    <row r="369" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B369" s="114"/>
+      <c r="C369" s="30"/>
+      <c r="D369" s="31"/>
+      <c r="E369" s="120"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="20"/>
+      <c r="H369" s="14"/>
+      <c r="I369" s="15"/>
+      <c r="J369" s="12"/>
+      <c r="K369" s="12"/>
+      <c r="L369" s="12"/>
+      <c r="M369" s="11"/>
+      <c r="N369" s="24"/>
+      <c r="O369" s="11"/>
+      <c r="P369" s="24"/>
+      <c r="Q369" s="84"/>
+      <c r="S369" s="25"/>
+    </row>
+    <row r="370" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B370" s="114"/>
+      <c r="C370" s="30"/>
+      <c r="D370" s="31"/>
+      <c r="E370" s="120"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="20"/>
+      <c r="H370" s="14"/>
+      <c r="I370" s="15"/>
+      <c r="J370" s="12"/>
+      <c r="K370" s="12"/>
+      <c r="L370" s="12"/>
+      <c r="M370" s="11"/>
+      <c r="N370" s="24"/>
+      <c r="O370" s="11"/>
+      <c r="P370" s="24"/>
+      <c r="Q370" s="84"/>
+      <c r="S370" s="25"/>
+    </row>
+    <row r="371" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B371" s="114"/>
+      <c r="C371" s="30"/>
+      <c r="D371" s="31"/>
+      <c r="E371" s="120"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="20"/>
+      <c r="H371" s="14"/>
+      <c r="I371" s="15"/>
+      <c r="J371" s="12"/>
+      <c r="K371" s="12"/>
+      <c r="L371" s="12"/>
+      <c r="M371" s="11"/>
+      <c r="N371" s="24"/>
+      <c r="O371" s="11"/>
+      <c r="P371" s="24"/>
+      <c r="Q371" s="84"/>
+      <c r="S371" s="25"/>
+    </row>
+    <row r="372" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B372" s="114"/>
+      <c r="C372" s="30"/>
+      <c r="D372" s="31"/>
+      <c r="E372" s="120"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="20"/>
+      <c r="H372" s="14"/>
+      <c r="I372" s="15"/>
+      <c r="J372" s="12"/>
+      <c r="K372" s="12"/>
+      <c r="L372" s="12"/>
+      <c r="M372" s="11"/>
+      <c r="N372" s="24"/>
+      <c r="O372" s="11"/>
+      <c r="P372" s="24"/>
+      <c r="Q372" s="84"/>
+      <c r="S372" s="25"/>
+    </row>
+    <row r="373" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B373" s="114"/>
+      <c r="C373" s="30"/>
+      <c r="D373" s="31"/>
+      <c r="E373" s="120"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="20"/>
+      <c r="H373" s="14"/>
+      <c r="I373" s="15"/>
+      <c r="J373" s="12"/>
+      <c r="K373" s="12"/>
+      <c r="L373" s="12"/>
+      <c r="M373" s="11"/>
+      <c r="N373" s="24"/>
+      <c r="O373" s="11"/>
+      <c r="P373" s="24"/>
+      <c r="Q373" s="84"/>
+      <c r="S373" s="25"/>
+    </row>
+    <row r="374" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B374" s="114"/>
+      <c r="C374" s="30"/>
+      <c r="D374" s="31"/>
+      <c r="E374" s="120"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="20"/>
+      <c r="H374" s="14"/>
+      <c r="I374" s="15"/>
+      <c r="J374" s="12"/>
+      <c r="K374" s="12"/>
+      <c r="L374" s="12"/>
+      <c r="M374" s="11"/>
+      <c r="N374" s="24"/>
+      <c r="O374" s="11"/>
+      <c r="P374" s="24"/>
+      <c r="Q374" s="84"/>
+      <c r="S374" s="25"/>
+    </row>
+    <row r="375" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B375" s="114"/>
+      <c r="C375" s="30"/>
+      <c r="D375" s="31"/>
+      <c r="E375" s="120"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="20"/>
+      <c r="H375" s="14"/>
+      <c r="I375" s="15"/>
+      <c r="J375" s="12"/>
+      <c r="K375" s="12"/>
+      <c r="L375" s="12"/>
+      <c r="M375" s="11"/>
+      <c r="N375" s="24"/>
+      <c r="O375" s="11"/>
+      <c r="P375" s="24"/>
+      <c r="Q375" s="84"/>
+      <c r="S375" s="25"/>
+    </row>
+    <row r="376" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B376" s="114"/>
+      <c r="C376" s="30"/>
+      <c r="D376" s="31"/>
+      <c r="E376" s="120"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="20"/>
+      <c r="H376" s="14"/>
+      <c r="I376" s="15"/>
+      <c r="J376" s="12"/>
+      <c r="K376" s="12"/>
+      <c r="L376" s="12"/>
+      <c r="M376" s="11"/>
+      <c r="N376" s="24"/>
+      <c r="O376" s="11"/>
+      <c r="P376" s="24"/>
+      <c r="Q376" s="84"/>
+      <c r="S376" s="25"/>
+    </row>
+    <row r="377" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B377" s="114"/>
+      <c r="C377" s="30"/>
+      <c r="D377" s="31"/>
+      <c r="E377" s="120"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="20"/>
+      <c r="H377" s="14"/>
+      <c r="I377" s="15"/>
+      <c r="J377" s="12"/>
+      <c r="K377" s="12"/>
+      <c r="L377" s="12"/>
+      <c r="M377" s="11"/>
+      <c r="N377" s="24"/>
+      <c r="O377" s="11"/>
+      <c r="P377" s="24"/>
+      <c r="Q377" s="84"/>
+      <c r="S377" s="25"/>
+    </row>
+    <row r="378" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B378" s="114"/>
+      <c r="C378" s="30"/>
+      <c r="D378" s="31"/>
+      <c r="E378" s="120"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="20"/>
+      <c r="H378" s="14"/>
+      <c r="I378" s="15"/>
+      <c r="J378" s="12"/>
+      <c r="K378" s="12"/>
+      <c r="L378" s="12"/>
+      <c r="M378" s="11"/>
+      <c r="N378" s="24"/>
+      <c r="O378" s="11"/>
+      <c r="P378" s="24"/>
+      <c r="Q378" s="84"/>
+      <c r="S378" s="25"/>
+    </row>
+    <row r="379" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B379" s="114"/>
+      <c r="C379" s="30"/>
+      <c r="D379" s="31"/>
+      <c r="E379" s="120"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="20"/>
+      <c r="H379" s="14"/>
+      <c r="I379" s="15"/>
+      <c r="J379" s="12"/>
+      <c r="K379" s="12"/>
+      <c r="L379" s="12"/>
+      <c r="M379" s="11"/>
+      <c r="N379" s="24"/>
+      <c r="O379" s="11"/>
+      <c r="P379" s="24"/>
+      <c r="Q379" s="84"/>
+      <c r="S379" s="25"/>
+    </row>
+    <row r="380" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B380" s="114"/>
+      <c r="C380" s="30"/>
+      <c r="D380" s="31"/>
+      <c r="E380" s="120"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="20"/>
+      <c r="H380" s="14"/>
+      <c r="I380" s="15"/>
+      <c r="J380" s="12"/>
+      <c r="K380" s="12"/>
+      <c r="L380" s="12"/>
+      <c r="M380" s="11"/>
+      <c r="N380" s="24"/>
+      <c r="O380" s="11"/>
+      <c r="P380" s="24"/>
+      <c r="Q380" s="84"/>
+      <c r="S380" s="25"/>
+    </row>
+    <row r="381" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B381" s="114"/>
+      <c r="C381" s="30"/>
+      <c r="D381" s="31"/>
+      <c r="E381" s="120"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="20"/>
+      <c r="H381" s="14"/>
+      <c r="I381" s="15"/>
+      <c r="J381" s="12"/>
+      <c r="K381" s="12"/>
+      <c r="L381" s="12"/>
+      <c r="M381" s="11"/>
+      <c r="N381" s="24"/>
+      <c r="O381" s="11"/>
+      <c r="P381" s="24"/>
+      <c r="Q381" s="84"/>
+      <c r="S381" s="25"/>
+    </row>
+    <row r="382" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B382" s="114"/>
+      <c r="C382" s="30"/>
+      <c r="D382" s="31"/>
+      <c r="E382" s="120"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="20"/>
+      <c r="H382" s="14"/>
+      <c r="I382" s="15"/>
+      <c r="J382" s="12"/>
+      <c r="K382" s="12"/>
+      <c r="L382" s="12"/>
+      <c r="M382" s="11"/>
+      <c r="N382" s="24"/>
+      <c r="O382" s="11"/>
+      <c r="P382" s="24"/>
+      <c r="Q382" s="84"/>
+      <c r="S382" s="25"/>
+    </row>
+    <row r="383" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B383" s="114"/>
+      <c r="C383" s="30"/>
+      <c r="D383" s="31"/>
+      <c r="E383" s="120"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="20"/>
+      <c r="H383" s="14"/>
+      <c r="I383" s="15"/>
+      <c r="J383" s="12"/>
+      <c r="K383" s="12"/>
+      <c r="L383" s="12"/>
+      <c r="M383" s="11"/>
+      <c r="N383" s="24"/>
+      <c r="O383" s="11"/>
+      <c r="P383" s="24"/>
+      <c r="Q383" s="84"/>
+      <c r="S383" s="25"/>
+    </row>
+    <row r="384" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B384" s="114"/>
+      <c r="C384" s="30"/>
+      <c r="D384" s="31"/>
+      <c r="E384" s="120"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="20"/>
+      <c r="H384" s="14"/>
+      <c r="I384" s="15"/>
+      <c r="J384" s="12"/>
+      <c r="K384" s="12"/>
+      <c r="L384" s="12"/>
+      <c r="M384" s="11"/>
+      <c r="N384" s="24"/>
+      <c r="O384" s="11"/>
+      <c r="P384" s="24"/>
+      <c r="Q384" s="84"/>
+      <c r="S384" s="25"/>
+    </row>
+    <row r="385" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B385" s="114"/>
+      <c r="C385" s="30"/>
+      <c r="D385" s="31"/>
+      <c r="E385" s="120"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="20"/>
+      <c r="H385" s="14"/>
+      <c r="I385" s="15"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="12"/>
+      <c r="L385" s="12"/>
+      <c r="M385" s="11"/>
+      <c r="N385" s="24"/>
+      <c r="O385" s="11"/>
+      <c r="P385" s="24"/>
+      <c r="Q385" s="84"/>
+      <c r="S385" s="25"/>
+    </row>
+    <row r="386" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B386" s="114"/>
+      <c r="C386" s="30"/>
+      <c r="D386" s="31"/>
+      <c r="E386" s="120"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="20"/>
+      <c r="H386" s="14"/>
+      <c r="I386" s="15"/>
+      <c r="J386" s="12"/>
+      <c r="K386" s="12"/>
+      <c r="L386" s="12"/>
+      <c r="M386" s="11"/>
+      <c r="N386" s="24"/>
+      <c r="O386" s="11"/>
+      <c r="P386" s="24"/>
+      <c r="Q386" s="84"/>
+      <c r="S386" s="25"/>
+    </row>
+    <row r="387" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B387" s="114"/>
+      <c r="C387" s="30"/>
+      <c r="D387" s="31"/>
+      <c r="E387" s="120"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="20"/>
+      <c r="H387" s="14"/>
+      <c r="I387" s="15"/>
+      <c r="J387" s="12"/>
+      <c r="K387" s="12"/>
+      <c r="L387" s="12"/>
+      <c r="M387" s="11"/>
+      <c r="N387" s="24"/>
+      <c r="O387" s="11"/>
+      <c r="P387" s="24"/>
+      <c r="Q387" s="84"/>
+      <c r="S387" s="25"/>
+    </row>
+    <row r="388" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B388" s="114"/>
+      <c r="C388" s="30"/>
+      <c r="D388" s="31"/>
+      <c r="E388" s="120"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="20"/>
+      <c r="H388" s="14"/>
+      <c r="I388" s="15"/>
+      <c r="J388" s="12"/>
+      <c r="K388" s="12"/>
+      <c r="L388" s="12"/>
+      <c r="M388" s="11"/>
+      <c r="N388" s="24"/>
+      <c r="O388" s="11"/>
+      <c r="P388" s="24"/>
+      <c r="Q388" s="84"/>
+      <c r="S388" s="25"/>
+    </row>
+    <row r="389" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B389" s="114"/>
+      <c r="C389" s="30"/>
+      <c r="D389" s="31"/>
+      <c r="E389" s="120"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="20"/>
+      <c r="H389" s="14"/>
+      <c r="I389" s="15"/>
+      <c r="J389" s="12"/>
+      <c r="K389" s="12"/>
+      <c r="L389" s="12"/>
+      <c r="M389" s="11"/>
+      <c r="N389" s="24"/>
+      <c r="O389" s="11"/>
+      <c r="P389" s="24"/>
+      <c r="Q389" s="84"/>
+      <c r="S389" s="25"/>
+    </row>
+    <row r="390" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B390" s="114"/>
+      <c r="C390" s="30"/>
+      <c r="D390" s="31"/>
+      <c r="E390" s="120"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="20"/>
+      <c r="H390" s="14"/>
+      <c r="I390" s="15"/>
+      <c r="J390" s="12"/>
+      <c r="K390" s="12"/>
+      <c r="L390" s="12"/>
+      <c r="M390" s="11"/>
+      <c r="N390" s="24"/>
+      <c r="O390" s="11"/>
+      <c r="P390" s="24"/>
+      <c r="Q390" s="84"/>
+      <c r="S390" s="25"/>
+    </row>
+    <row r="391" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B391" s="114"/>
+      <c r="C391" s="30"/>
+      <c r="D391" s="31"/>
+      <c r="E391" s="120"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="20"/>
+      <c r="H391" s="14"/>
+      <c r="I391" s="15"/>
+      <c r="J391" s="12"/>
+      <c r="K391" s="12"/>
+      <c r="L391" s="12"/>
+      <c r="M391" s="11"/>
+      <c r="N391" s="24"/>
+      <c r="O391" s="11"/>
+      <c r="P391" s="24"/>
+      <c r="Q391" s="84"/>
+      <c r="S391" s="25"/>
+    </row>
+    <row r="392" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B392" s="114"/>
+      <c r="C392" s="30"/>
+      <c r="D392" s="31"/>
+      <c r="E392" s="120"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="20"/>
+      <c r="H392" s="14"/>
+      <c r="I392" s="15"/>
+      <c r="J392" s="12"/>
+      <c r="K392" s="12"/>
+      <c r="L392" s="12"/>
+      <c r="M392" s="11"/>
+      <c r="N392" s="24"/>
+      <c r="O392" s="11"/>
+      <c r="P392" s="24"/>
+      <c r="Q392" s="84"/>
+      <c r="S392" s="25"/>
+    </row>
+    <row r="393" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B393" s="114"/>
+      <c r="C393" s="30"/>
+      <c r="D393" s="31"/>
+      <c r="E393" s="120"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="20"/>
+      <c r="H393" s="14"/>
+      <c r="I393" s="15"/>
+      <c r="J393" s="12"/>
+      <c r="K393" s="12"/>
+      <c r="L393" s="12"/>
+      <c r="M393" s="11"/>
+      <c r="N393" s="24"/>
+      <c r="O393" s="11"/>
+      <c r="P393" s="24"/>
+      <c r="Q393" s="84"/>
+      <c r="S393" s="25"/>
+    </row>
+    <row r="394" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B394" s="114"/>
+      <c r="C394" s="30"/>
+      <c r="D394" s="31"/>
+      <c r="E394" s="120"/>
+      <c r="F394" s="20"/>
+      <c r="G394" s="20"/>
+      <c r="H394" s="14"/>
+      <c r="I394" s="15"/>
+      <c r="J394" s="12"/>
+      <c r="K394" s="12"/>
+      <c r="L394" s="12"/>
+      <c r="M394" s="11"/>
+      <c r="N394" s="24"/>
+      <c r="O394" s="11"/>
+      <c r="P394" s="24"/>
+      <c r="Q394" s="84"/>
+      <c r="S394" s="25"/>
+    </row>
+    <row r="395" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B395" s="114"/>
+      <c r="C395" s="30"/>
+      <c r="D395" s="31"/>
+      <c r="E395" s="120"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="20"/>
+      <c r="H395" s="14"/>
+      <c r="I395" s="15"/>
+      <c r="J395" s="12"/>
+      <c r="K395" s="12"/>
+      <c r="L395" s="12"/>
+      <c r="M395" s="11"/>
+      <c r="N395" s="24"/>
+      <c r="O395" s="11"/>
+      <c r="P395" s="24"/>
+      <c r="Q395" s="84"/>
+      <c r="S395" s="25"/>
+    </row>
+    <row r="396" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B396" s="114"/>
+      <c r="C396" s="30"/>
+      <c r="D396" s="31"/>
+      <c r="E396" s="120"/>
+      <c r="F396" s="20"/>
+      <c r="G396" s="20"/>
+      <c r="H396" s="14"/>
+      <c r="I396" s="15"/>
+      <c r="J396" s="12"/>
+      <c r="K396" s="12"/>
+      <c r="L396" s="12"/>
+      <c r="M396" s="11"/>
+      <c r="N396" s="24"/>
+      <c r="O396" s="11"/>
+      <c r="P396" s="24"/>
+      <c r="Q396" s="84"/>
+      <c r="S396" s="25"/>
+    </row>
+    <row r="397" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B397" s="114"/>
+      <c r="C397" s="30"/>
+      <c r="D397" s="31"/>
+      <c r="E397" s="120"/>
+      <c r="F397" s="20"/>
+      <c r="G397" s="20"/>
+      <c r="H397" s="14"/>
+      <c r="I397" s="15"/>
+      <c r="J397" s="12"/>
+      <c r="K397" s="12"/>
+      <c r="L397" s="12"/>
+      <c r="M397" s="11"/>
+      <c r="N397" s="24"/>
+      <c r="O397" s="11"/>
+      <c r="P397" s="24"/>
+      <c r="Q397" s="84"/>
+      <c r="S397" s="25"/>
+    </row>
+    <row r="398" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B398" s="114"/>
+      <c r="C398" s="30"/>
+      <c r="D398" s="31"/>
+      <c r="E398" s="120"/>
+      <c r="F398" s="20"/>
+      <c r="G398" s="20"/>
+      <c r="H398" s="14"/>
+      <c r="I398" s="15"/>
+      <c r="J398" s="12"/>
+      <c r="K398" s="12"/>
+      <c r="L398" s="12"/>
+      <c r="M398" s="11"/>
+      <c r="N398" s="24"/>
+      <c r="O398" s="11"/>
+      <c r="P398" s="24"/>
+      <c r="Q398" s="84"/>
+      <c r="S398" s="25"/>
+    </row>
+    <row r="399" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B399" s="114"/>
+      <c r="C399" s="30"/>
+      <c r="D399" s="31"/>
+      <c r="E399" s="120"/>
+      <c r="F399" s="20"/>
+      <c r="G399" s="20"/>
+      <c r="H399" s="14"/>
+      <c r="I399" s="15"/>
+      <c r="J399" s="12"/>
+      <c r="K399" s="12"/>
+      <c r="L399" s="12"/>
+      <c r="M399" s="11"/>
+      <c r="N399" s="24"/>
+      <c r="O399" s="11"/>
+      <c r="P399" s="24"/>
+      <c r="Q399" s="84"/>
+      <c r="S399" s="25"/>
+    </row>
+    <row r="400" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B400" s="114"/>
+      <c r="C400" s="30"/>
+      <c r="D400" s="31"/>
+      <c r="E400" s="120"/>
+      <c r="F400" s="20"/>
+      <c r="G400" s="20"/>
+      <c r="H400" s="14"/>
+      <c r="I400" s="15"/>
+      <c r="J400" s="12"/>
+      <c r="K400" s="12"/>
+      <c r="L400" s="12"/>
+      <c r="M400" s="11"/>
+      <c r="N400" s="24"/>
+      <c r="O400" s="11"/>
+      <c r="P400" s="24"/>
+      <c r="Q400" s="84"/>
+      <c r="S400" s="25"/>
+    </row>
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B401" s="114"/>
+      <c r="C401" s="30"/>
+      <c r="D401" s="31"/>
+      <c r="E401" s="120"/>
+      <c r="F401" s="20"/>
+      <c r="G401" s="20"/>
+      <c r="H401" s="14"/>
+      <c r="I401" s="15"/>
+      <c r="J401" s="12"/>
+      <c r="K401" s="12"/>
+      <c r="L401" s="12"/>
+      <c r="M401" s="11"/>
+      <c r="N401" s="24"/>
+      <c r="O401" s="11"/>
+      <c r="P401" s="24"/>
+      <c r="Q401" s="84"/>
+      <c r="S401" s="25"/>
+    </row>
+    <row r="402" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="114"/>
+      <c r="C402" s="30"/>
+      <c r="D402" s="31"/>
+      <c r="E402" s="120"/>
+      <c r="F402" s="20"/>
+      <c r="G402" s="20"/>
+      <c r="H402" s="14"/>
+      <c r="I402" s="15"/>
+      <c r="J402" s="12"/>
+      <c r="K402" s="12"/>
+      <c r="L402" s="12"/>
+      <c r="M402" s="11"/>
+      <c r="N402" s="24"/>
+      <c r="O402" s="11"/>
+      <c r="P402" s="24"/>
+      <c r="Q402" s="84"/>
+      <c r="S402" s="25"/>
+    </row>
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A403" s="7"/>
+      <c r="B403" s="114"/>
+      <c r="C403" s="30"/>
+      <c r="D403" s="31"/>
+      <c r="E403" s="120"/>
+      <c r="F403" s="20"/>
+      <c r="G403" s="20"/>
+      <c r="H403" s="14"/>
+      <c r="I403" s="15"/>
+      <c r="J403" s="12"/>
+      <c r="K403" s="12"/>
+      <c r="L403" s="12"/>
+      <c r="M403" s="11"/>
+      <c r="N403" s="24"/>
+      <c r="O403" s="11"/>
+      <c r="P403" s="24"/>
+      <c r="Q403" s="84"/>
+      <c r="S403" s="25"/>
+    </row>
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B404" s="114"/>
+      <c r="C404" s="30"/>
+      <c r="D404" s="31"/>
+      <c r="E404" s="120"/>
+      <c r="F404" s="20"/>
+      <c r="G404" s="20"/>
+      <c r="H404" s="14"/>
+      <c r="I404" s="15"/>
+      <c r="J404" s="12"/>
+      <c r="K404" s="12"/>
+      <c r="L404" s="12"/>
+      <c r="M404" s="11"/>
+      <c r="N404" s="24"/>
+      <c r="O404" s="11"/>
+      <c r="P404" s="24"/>
+      <c r="Q404" s="84"/>
+    </row>
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B405" s="114"/>
+      <c r="C405" s="30"/>
+      <c r="D405" s="31"/>
+      <c r="E405" s="120"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="20"/>
+      <c r="H405" s="14"/>
+      <c r="I405" s="15"/>
+      <c r="J405" s="12"/>
+      <c r="K405" s="12"/>
+      <c r="L405" s="12"/>
+      <c r="M405" s="11"/>
+      <c r="N405" s="24"/>
+      <c r="O405" s="11"/>
+      <c r="P405" s="24"/>
+      <c r="Q405" s="84"/>
+    </row>
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B406" s="114"/>
+      <c r="C406" s="30"/>
+      <c r="D406" s="31">
+        <v>0</v>
+      </c>
+      <c r="E406" s="120"/>
+      <c r="F406" s="20">
+        <f>SUM(F3:F405)</f>
+        <v>2410</v>
+      </c>
+      <c r="G406" s="20"/>
+      <c r="H406" s="14">
+        <f>SUM(H3:H405)</f>
+        <v>240984.31999999986</v>
+      </c>
+      <c r="I406" s="15"/>
+      <c r="J406" s="12">
+        <v>5555</v>
+      </c>
+      <c r="K406" s="12"/>
+      <c r="L406" s="12">
+        <f>SUM(L3:L405)</f>
+        <v>2400</v>
+      </c>
+      <c r="M406" s="11">
+        <f>SUM(M3:M405)</f>
+        <v>256134.40000000002</v>
+      </c>
+      <c r="N406" s="24">
+        <f>O406/M406</f>
+        <v>4.589145386172256E-2</v>
+      </c>
+      <c r="O406" s="11">
+        <f>SUM(O3:O405)</f>
+        <v>11754.379999999992</v>
+      </c>
+      <c r="P406" s="24"/>
+      <c r="Q406" s="84"/>
+    </row>
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C407" s="26"/>
+      <c r="Q407" s="84"/>
+    </row>
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C408" s="26"/>
+      <c r="Q408" s="84"/>
+    </row>
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C409" s="26"/>
+      <c r="Q409" s="84"/>
+    </row>
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C410" s="26"/>
+      <c r="Q410" s="84"/>
+    </row>
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C411" s="26"/>
+      <c r="Q411" s="84"/>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C412" s="26"/>
+      <c r="Q412" s="84"/>
+    </row>
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C413" s="26"/>
+      <c r="Q413" s="84"/>
+    </row>
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C414" s="26"/>
+    </row>
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C415" s="26"/>
+    </row>
+    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C416" s="26"/>
+    </row>
+    <row r="417" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C417" s="26"/>
+    </row>
+    <row r="418" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C418" s="26"/>
+    </row>
+    <row r="419" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C419" s="26"/>
+    </row>
+    <row r="420" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C420" s="26"/>
+    </row>
+    <row r="422" spans="3:13" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D422" s="27"/>
+    </row>
+    <row r="424" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M424" s="112"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W363" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W363">
-      <sortCondition ref="B2:B363"/>
+  <autoFilter ref="A2:W417" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W417">
+      <sortCondition ref="B2:B417"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:U187">
@@ -19847,7 +22491,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="O44:O159 N3:O43 N43:N159 N160:O352">
+  <conditionalFormatting sqref="O44:O159 N3:O43 N43:N159 N160:O406">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19859,7 +22503,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I32" xr:uid="{DCE927E3-C8F5-4EBD-B4AD-D48AD216AA54}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I352" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I406" xr:uid="{7A9B0117-0115-44C8-9397-D046F7435BE9}">
       <formula1>"买,卖,中,清"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19888,8 +22532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8963A-C8D0-4542-8EAA-DE8EB04670D4}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19902,16 +22546,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="179">
+      <c r="B2" s="196">
         <v>44805</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="181"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="115" t="s">
@@ -20838,9 +23482,7 @@
       </c>
       <c r="I31" s="115"/>
       <c r="L31" s="156"/>
-      <c r="M31" s="156" t="s">
-        <v>207</v>
-      </c>
+      <c r="M31" s="156"/>
       <c r="N31" s="156"/>
       <c r="O31" s="156"/>
       <c r="Q31" s="153"/>
@@ -20875,9 +23517,7 @@
       </c>
       <c r="I32" s="115"/>
       <c r="L32" s="156"/>
-      <c r="M32" s="162" t="s">
-        <v>213</v>
-      </c>
+      <c r="M32" s="162"/>
       <c r="N32" s="156"/>
       <c r="O32" s="156"/>
       <c r="Q32" s="153"/>
@@ -20947,9 +23587,7 @@
       </c>
       <c r="I34" s="115"/>
       <c r="L34" s="156"/>
-      <c r="M34" s="156" t="s">
-        <v>214</v>
-      </c>
+      <c r="M34" s="156"/>
       <c r="N34" s="156"/>
       <c r="O34" s="156"/>
       <c r="Q34" s="153"/>
@@ -20984,7 +23622,7 @@
       </c>
       <c r="I35" s="115"/>
       <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
+      <c r="M35" s="164"/>
       <c r="N35" s="156"/>
       <c r="O35" s="156"/>
     </row>
@@ -21018,9 +23656,7 @@
       </c>
       <c r="I36" s="115"/>
       <c r="L36" s="156"/>
-      <c r="M36" s="156" t="s">
-        <v>215</v>
-      </c>
+      <c r="M36" s="156"/>
       <c r="N36" s="156"/>
       <c r="O36" s="156"/>
     </row>
@@ -21054,39 +23690,31 @@
       </c>
       <c r="I37" s="115"/>
       <c r="L37" s="156"/>
-      <c r="M37" s="156" t="s">
-        <v>216</v>
-      </c>
+      <c r="M37" s="164"/>
       <c r="N37" s="156"/>
       <c r="O37" s="156"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L38" s="156"/>
-      <c r="M38" s="156" t="s">
-        <v>217</v>
-      </c>
+      <c r="M38" s="156"/>
       <c r="N38" s="156"/>
       <c r="O38" s="156"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L39" s="156"/>
-      <c r="M39" s="156" t="s">
-        <v>218</v>
-      </c>
+      <c r="M39" s="164"/>
       <c r="N39" s="156"/>
       <c r="O39" s="156"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L40" s="156"/>
-      <c r="M40" s="156" t="s">
-        <v>219</v>
-      </c>
+      <c r="M40" s="164"/>
       <c r="N40" s="156"/>
       <c r="O40" s="156"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
+      <c r="M41" s="164"/>
       <c r="N41" s="156"/>
       <c r="O41" s="156"/>
     </row>
@@ -21132,132 +23760,149 @@
       <c r="H46" s="156"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D47" s="156" t="s">
-        <v>202</v>
-      </c>
+      <c r="D47" s="156"/>
       <c r="E47" s="156"/>
       <c r="F47" s="156"/>
       <c r="G47" s="156"/>
       <c r="H47" s="156"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D48" s="156" t="s">
-        <v>220</v>
-      </c>
+      <c r="D48" s="156"/>
       <c r="E48" s="156"/>
       <c r="F48" s="156"/>
       <c r="G48" s="156"/>
       <c r="H48" s="156"/>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D49" s="156" t="s">
-        <v>221</v>
-      </c>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="156"/>
       <c r="E49" s="156"/>
       <c r="F49" s="156"/>
       <c r="G49" s="156"/>
       <c r="H49" s="156"/>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D50" s="156" t="s">
-        <v>222</v>
-      </c>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="164"/>
       <c r="E50" s="156"/>
       <c r="F50" s="156"/>
       <c r="G50" s="156"/>
       <c r="H50" s="156"/>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D51" s="156" t="s">
-        <v>223</v>
-      </c>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="156"/>
       <c r="E51" s="156"/>
       <c r="F51" s="156"/>
       <c r="G51" s="156"/>
       <c r="H51" s="156"/>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D52" s="156" t="s">
-        <v>224</v>
-      </c>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="156"/>
       <c r="E52" s="156"/>
       <c r="F52" s="156"/>
       <c r="G52" s="156"/>
       <c r="H52" s="156"/>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>238</v>
+      </c>
       <c r="D53" s="156"/>
       <c r="E53" s="156"/>
       <c r="F53" s="156"/>
       <c r="G53" s="156"/>
       <c r="H53" s="156"/>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D54" s="156" t="s">
-        <v>225</v>
-      </c>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="156"/>
       <c r="E54" s="156"/>
       <c r="F54" s="156"/>
       <c r="G54" s="156"/>
       <c r="H54" s="156"/>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="M54" s="164"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>240</v>
+      </c>
       <c r="D55" s="156"/>
       <c r="E55" s="156"/>
       <c r="F55" s="156"/>
       <c r="G55" s="156"/>
       <c r="H55" s="156"/>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" s="164" t="s">
+        <v>243</v>
+      </c>
       <c r="D56" s="156"/>
       <c r="E56" s="156"/>
       <c r="F56" s="156"/>
       <c r="G56" s="156"/>
       <c r="H56" s="156"/>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>241</v>
+      </c>
       <c r="D57" s="156"/>
       <c r="E57" s="156"/>
       <c r="F57" s="156"/>
       <c r="G57" s="156"/>
       <c r="H57" s="156"/>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D58" s="156"/>
       <c r="E58" s="156"/>
       <c r="F58" s="156"/>
       <c r="G58" s="156"/>
       <c r="H58" s="156"/>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
       <c r="D59" s="156"/>
       <c r="E59" s="156"/>
       <c r="F59" s="156"/>
       <c r="G59" s="156"/>
       <c r="H59" s="156"/>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D60" s="156"/>
       <c r="E60" s="156"/>
       <c r="F60" s="156"/>
       <c r="G60" s="156"/>
       <c r="H60" s="156"/>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D61" s="156"/>
       <c r="E61" s="156"/>
       <c r="F61" s="156"/>
       <c r="G61" s="156"/>
       <c r="H61" s="156"/>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D62" s="156"/>
       <c r="E62" s="156"/>
       <c r="F62" s="156"/>
       <c r="G62" s="156"/>
       <c r="H62" s="156"/>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D63" s="156"/>
       <c r="E63" s="156"/>
       <c r="F63" s="156"/>
@@ -22099,14 +24744,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183" t="s">
+      <c r="B1" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="184"/>
+      <c r="E1" s="201"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7F9BFD-9CC7-4AB9-BABE-9B7F8AE2CCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C925D5-285D-48AA-8D29-6B0E574A65B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="810" windowWidth="21600" windowHeight="14055" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -27,12 +27,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="262">
   <si>
     <t>收入</t>
   </si>
@@ -989,6 +1000,53 @@
   </si>
   <si>
     <t>负收益总数: 25 持仓个数: 79</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金田转债 </t>
+  </si>
+  <si>
+    <t>希望转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弘亚转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐鲁转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾迪转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>友发转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>博瑞转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天奈转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负收益总数: 55 持仓个数: 87. 国人阳性。股票大大跌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵康转债</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洁特转债</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2337,10 +2395,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$59</c:f>
+              <c:f>收益weekly!$A$2:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -2485,15 +2543,21 @@
                 <c:pt idx="47">
                   <c:v>44905</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$B$2:$B$59</c:f>
+              <c:f>收益weekly!$B$2:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>475.78</c:v>
                 </c:pt>
@@ -2638,7 +2702,13 @@
                 <c:pt idx="47">
                   <c:v>11754.38</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="48">
+                  <c:v>4821.72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4229.05</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>25000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2726,10 +2796,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$59</c:f>
+              <c:f>收益weekly!$A$2:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -2874,15 +2944,21 @@
                 <c:pt idx="47">
                   <c:v>44905</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>44923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$C$2:$C$59</c:f>
+              <c:f>收益weekly!$C$2:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
@@ -3027,13 +3103,19 @@
                 <c:pt idx="47">
                   <c:v>4.5900000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="48">
+                  <c:v>1.84E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3780,15 +3862,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7172325</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>7381875</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4113,11 +4195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4890,14 +4972,41 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="28">
+        <v>44923</v>
+      </c>
+      <c r="B50" s="94">
+        <v>4821.72</v>
+      </c>
+      <c r="C50" s="29">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D50" s="140">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="E50" s="140">
+        <v>3087.4</v>
+      </c>
+      <c r="F50" s="140">
+        <v>2520</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="28">
+        <v>44925</v>
+      </c>
+      <c r="B51" s="47">
+        <v>4229.05</v>
+      </c>
+      <c r="C51" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F51" s="140">
+        <v>2550</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
@@ -4922,64 +5031,94 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="28"/>
       <c r="B56" s="47"/>
-      <c r="C56" s="29">
-        <v>0</v>
-      </c>
-      <c r="D56" s="140">
-        <v>0</v>
-      </c>
-      <c r="E56" s="140">
-        <v>0</v>
-      </c>
-      <c r="F56" s="140">
-        <v>0</v>
-      </c>
+      <c r="C56" s="29"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="28"/>
       <c r="B57" s="47"/>
-      <c r="C57" s="29">
-        <v>0</v>
-      </c>
-      <c r="D57" s="140">
-        <v>0</v>
-      </c>
-      <c r="E57" s="140">
-        <v>0</v>
-      </c>
-      <c r="F57" s="140">
-        <v>0</v>
-      </c>
+      <c r="C57" s="29"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="28"/>
       <c r="B58" s="47"/>
-      <c r="C58" s="29">
-        <v>0</v>
-      </c>
-      <c r="D58" s="140">
-        <v>0</v>
-      </c>
-      <c r="E58" s="140">
-        <v>0</v>
-      </c>
-      <c r="F58" s="140">
-        <v>0</v>
-      </c>
+      <c r="C58" s="29"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="28"/>
-      <c r="B59" s="47">
+      <c r="B59" s="47"/>
+      <c r="C59" s="29"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="29"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="29"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="28"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="29">
+        <v>0</v>
+      </c>
+      <c r="D62" s="140">
+        <v>0</v>
+      </c>
+      <c r="E62" s="140">
+        <v>0</v>
+      </c>
+      <c r="F62" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="29">
+        <v>0</v>
+      </c>
+      <c r="D63" s="140">
+        <v>0</v>
+      </c>
+      <c r="E63" s="140">
+        <v>0</v>
+      </c>
+      <c r="F63" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="29">
+        <v>0</v>
+      </c>
+      <c r="D64" s="140">
+        <v>0</v>
+      </c>
+      <c r="E64" s="140">
+        <v>0</v>
+      </c>
+      <c r="F64" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="47">
         <v>25000</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="140">
-        <v>0</v>
-      </c>
-      <c r="E59" s="140">
-        <v>0</v>
-      </c>
-      <c r="F59" s="140">
+      <c r="C65" s="29"/>
+      <c r="D65" s="140">
+        <v>0</v>
+      </c>
+      <c r="E65" s="140">
+        <v>0</v>
+      </c>
+      <c r="F65" s="140">
         <v>0</v>
       </c>
     </row>
@@ -4995,9 +5134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
   <dimension ref="A1:W424"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q313" sqref="Q313"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I335" sqref="I335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5322,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>104.16200000000001</v>
+        <v>101.459</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -5193,19 +5332,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4166.4800000000005</v>
+        <v>4058.36</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="1"/>
-        <v>1.412701658050265E-2</v>
+        <v>-1.2189541529144837E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>58.040000000000305</v>
+        <v>-50.079999999999814</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="2"/>
-        <v>1.6266772444466657E-2</v>
+        <v>1.5350917009213668E-2</v>
       </c>
       <c r="Q4" s="84"/>
       <c r="S4" s="25"/>
@@ -5291,7 +5430,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="12">
-        <v>111.8</v>
+        <v>106.52</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -5301,19 +5440,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1118</v>
+        <v>1065.2</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="1"/>
-        <v>0.17226410544085732</v>
+        <v>0.1169013641463338</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>164.29000000000002</v>
+        <v>111.49000000000001</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>4.3648959296369401E-3</v>
+        <v>4.0291637011537667E-3</v>
       </c>
       <c r="Q6" s="84"/>
       <c r="R6" s="51"/>
@@ -5344,7 +5483,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>114.57299999999999</v>
+        <v>110.17</v>
       </c>
       <c r="K7" s="12">
         <v>106.36499999999999</v>
@@ -5354,19 +5493,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>10311.57</v>
+        <v>9915.2999999999993</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="1"/>
-        <v>7.7168241432802126E-2</v>
+        <v>3.5773045644714022E-2</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>738.7199999999998</v>
+        <v>342.45000000000061</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="2"/>
-        <v>4.0258434634316977E-2</v>
+        <v>3.7505038345897426E-2</v>
       </c>
       <c r="Q7" s="84"/>
       <c r="S7" s="25"/>
@@ -5395,7 +5534,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>108.2</v>
+        <v>106.233</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -5405,19 +5544,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3246</v>
+        <v>3186.9900000000002</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="1"/>
-        <v>2.4165380938408067E-2</v>
+        <v>5.5467736897403478E-3</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>76.589999999999918</v>
+        <v>17.579999999999956</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="2"/>
-        <v>1.2673034157067539E-2</v>
+        <v>1.2054923417142361E-2</v>
       </c>
       <c r="Q8" s="84"/>
       <c r="S8" s="25"/>
@@ -5444,7 +5583,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="12">
-        <v>119.499</v>
+        <v>110.9</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -5454,19 +5593,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1194.99</v>
+        <v>1109</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0.21417394838447462</v>
+        <v>0.1268034952245479</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>210.78999999999994</v>
+        <v>124.80000000000004</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="2"/>
-        <v>4.6654803103370725E-3</v>
+        <v>4.1948390392222371E-3</v>
       </c>
       <c r="Q9" s="84"/>
       <c r="S9" s="25"/>
@@ -5652,7 +5791,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="12">
-        <v>105.116</v>
+        <v>103.389</v>
       </c>
       <c r="K13" s="12">
         <v>103.81699999999999</v>
@@ -5662,19 +5801,19 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>3153.48</v>
+        <v>3101.67</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>1.2512401629790946E-2</v>
+        <v>-4.1226388741727972E-3</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>38.970000000000198</v>
+        <v>-12.839999999999918</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="2"/>
-        <v>1.2311817545788461E-2</v>
+        <v>1.1732196936685696E-2</v>
       </c>
       <c r="Q13" s="84"/>
       <c r="S13" s="25"/>
@@ -5843,7 +5982,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="12">
-        <v>118.97</v>
+        <v>115.057</v>
       </c>
       <c r="K17" s="12">
         <v>111.39400000000001</v>
@@ -5853,19 +5992,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>7138.2</v>
+        <v>6903.42</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>6.8010844390182526E-2</v>
+        <v>3.2883279171230018E-2</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>454.5599999999996</v>
+        <v>219.7799999999998</v>
       </c>
       <c r="P17" s="24">
         <f t="shared" si="2"/>
-        <v>2.7868962544664047E-2</v>
+        <v>2.6112475852252098E-2</v>
       </c>
       <c r="Q17" s="84"/>
       <c r="S17" s="46"/>
@@ -5898,7 +6037,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="12">
-        <v>122.124</v>
+        <v>112.47</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -5908,19 +6047,19 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2442.48</v>
+        <v>2249.4</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0.12437508631404504</v>
+        <v>3.5492335312802138E-2</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>270.18</v>
+        <v>77.10000000000008</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="2"/>
-        <v>9.5359311361535182E-3</v>
+        <v>8.508449896146528E-3</v>
       </c>
       <c r="Q18" s="84"/>
       <c r="R18" s="50"/>
@@ -5952,7 +6091,7 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="12">
-        <v>95.028000000000006</v>
+        <v>92.798000000000002</v>
       </c>
       <c r="K19" s="12">
         <v>95.123000000000005</v>
@@ -5962,19 +6101,19 @@
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>16154.76</v>
+        <v>15775.66</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>-9.9870693733375578E-4</v>
+        <v>-2.4442038203168558E-2</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>-16.149999999999807</v>
+        <v>-395.25000000000045</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="2"/>
-        <v>6.3071418755153541E-2</v>
+        <v>5.9672095976101604E-2</v>
       </c>
       <c r="Q19" s="84"/>
       <c r="S19" s="25"/>
@@ -6004,29 +6143,29 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>97.417000000000002</v>
+        <v>96.432000000000002</v>
       </c>
       <c r="K20" s="12">
-        <v>98.477000000000004</v>
+        <v>98.27</v>
       </c>
       <c r="L20" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>6819.1900000000005</v>
+        <v>7714.56</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>-1.0763934725875101E-2</v>
+        <v>-1.8703571792001567E-2</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>-74.200000000000159</v>
+        <v>-147.03999999999951</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="2"/>
-        <v>2.6623483608605482E-2</v>
+        <v>2.9180646941769434E-2</v>
       </c>
       <c r="Q20" s="84"/>
       <c r="S20" s="25"/>
@@ -6058,7 +6197,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="12">
-        <v>110.786</v>
+        <v>106.586</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -6068,19 +6207,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2215.7200000000003</v>
+        <v>2131.7199999999998</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>7.8786698476070005E-2</v>
+        <v>3.7888894298651402E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>161.82000000000016</v>
+        <v>77.820000000000107</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="2"/>
-        <v>8.6506146772944211E-3</v>
+        <v>8.063320357701376E-3</v>
       </c>
       <c r="Q21" s="84"/>
       <c r="S21" s="25"/>
@@ -6110,7 +6249,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>115.102</v>
+        <v>107.09099999999999</v>
       </c>
       <c r="K22" s="12">
         <v>98.962000000000003</v>
@@ -6120,19 +6259,19 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>11510.2</v>
+        <v>10709.099999999999</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0.16309290434712315</v>
+        <v>8.2142640609526793E-2</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>1614</v>
+        <v>812.89999999999907</v>
       </c>
       <c r="P22" s="24">
         <f t="shared" si="2"/>
-        <v>4.4938126233727289E-2</v>
+        <v>4.0507620157741078E-2</v>
       </c>
       <c r="Q22" s="84"/>
       <c r="S22" s="25"/>
@@ -6161,7 +6300,7 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>97.277000000000001</v>
+        <v>95.412999999999997</v>
       </c>
       <c r="K23" s="12">
         <v>96.222999999999999</v>
@@ -6171,19 +6310,19 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>6809.39</v>
+        <v>6678.91</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>1.0953722083077872E-2</v>
+        <v>-8.4179458133710472E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>73.780000000000143</v>
+        <v>-56.700000000000159</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="2"/>
-        <v>2.6585222445715997E-2</v>
+        <v>2.5263257355682408E-2</v>
       </c>
       <c r="Q23" s="84"/>
       <c r="S23" s="25"/>
@@ -6313,7 +6452,7 @@
         <v>52</v>
       </c>
       <c r="J26" s="12">
-        <v>109.3</v>
+        <v>107.23699999999999</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -6323,19 +6462,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1093</v>
+        <v>1072.3699999999999</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>5.3016946539880733E-2</v>
+        <v>3.3141612956058442E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>55.03</v>
+        <v>34.399999999999977</v>
       </c>
       <c r="P26" s="24">
         <f t="shared" si="2"/>
-        <v>4.2672909222658097E-3</v>
+        <v>4.056284527043057E-3</v>
       </c>
       <c r="Q26" s="84"/>
       <c r="S26" s="25"/>
@@ -6410,29 +6549,29 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>112.74</v>
+        <v>109.977</v>
       </c>
       <c r="K28" s="12">
-        <v>121.994</v>
+        <v>124.729</v>
       </c>
       <c r="L28" s="12">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>9019.1999999999989</v>
+        <v>6598.62</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>-7.5856189648671288E-2</v>
+        <v>-0.11827241459484159</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-740.32000000000039</v>
+        <v>-885.11999999999966</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" si="2"/>
-        <v>3.5212763299267875E-2</v>
+        <v>2.4959557061309864E-2</v>
       </c>
       <c r="Q28" s="84" t="s">
         <v>54</v>
@@ -6512,7 +6651,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>103.76600000000001</v>
+        <v>100.352</v>
       </c>
       <c r="K30" s="12">
         <v>101.34</v>
@@ -6522,19 +6661,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>3112.98</v>
+        <v>3010.56</v>
       </c>
       <c r="N30" s="24">
         <f t="shared" si="1"/>
-        <v>2.3939214525360193E-2</v>
+        <v>-9.7493585948292827E-3</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>72.780000000000058</v>
+        <v>-29.639999999999986</v>
       </c>
       <c r="P30" s="24">
         <f t="shared" si="2"/>
-        <v>1.2153697433847229E-2</v>
+        <v>1.1387569538251485E-2</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="S30" s="25"/>
@@ -6566,7 +6705,7 @@
         <v>52</v>
       </c>
       <c r="J31" s="12">
-        <v>118.229</v>
+        <v>111.071</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -6576,19 +6715,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1182.29</v>
+        <v>1110.71</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="1"/>
-        <v>0.16343078694364357</v>
+        <v>9.2992590114248069E-2</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>166.08000000000004</v>
+        <v>94.500000000000028</v>
       </c>
       <c r="P31" s="24">
         <f t="shared" si="2"/>
-        <v>4.6158969665925382E-3</v>
+        <v>4.2013071859824443E-3</v>
       </c>
       <c r="Q31" s="84"/>
       <c r="R31" s="7"/>
@@ -6669,7 +6808,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>106.898</v>
+        <v>104.559</v>
       </c>
       <c r="K33" s="12">
         <v>102.991</v>
@@ -6679,19 +6818,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>10689.8</v>
+        <v>10455.9</v>
       </c>
       <c r="N33" s="24">
         <f t="shared" si="1"/>
-        <v>3.7935353574584156E-2</v>
+        <v>1.5224631278461204E-2</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>390.69999999999965</v>
+        <v>156.79999999999978</v>
       </c>
       <c r="P33" s="24">
         <f t="shared" si="2"/>
-        <v>4.173512031183628E-2</v>
+        <v>3.9549880532194576E-2</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="8"/>
@@ -6773,29 +6912,29 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>95.558000000000007</v>
+        <v>93.3</v>
       </c>
       <c r="K35" s="12">
-        <v>97.63</v>
+        <v>97.409000000000006</v>
       </c>
       <c r="L35" s="12">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>8600.2200000000012</v>
+        <v>9330</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>-2.1222984738297538E-2</v>
+        <v>-4.2182960506729449E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>-186.47999999999897</v>
+        <v>-410.90000000000089</v>
       </c>
       <c r="P35" s="24">
         <f t="shared" ref="P35:P66" si="8">M35/$M$406</f>
-        <v>3.3576981459733639E-2</v>
+        <v>3.5291116533763274E-2</v>
       </c>
       <c r="Q35" s="84"/>
       <c r="S35" s="25"/>
@@ -7310,7 +7449,7 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="12">
-        <v>122.2</v>
+        <v>117.41200000000001</v>
       </c>
       <c r="K46" s="12">
         <v>127.94799999999999</v>
@@ -7320,19 +7459,19 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>4888</v>
+        <v>4696.4800000000005</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="7"/>
-        <v>-4.4924500578359887E-2</v>
+        <v>-8.2345953043423792E-2</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-229.91999999999962</v>
+        <v>-421.43999999999949</v>
       </c>
       <c r="P46" s="24">
         <f t="shared" si="8"/>
-        <v>1.9083731041203367E-2</v>
+        <v>1.7764632687940898E-2</v>
       </c>
       <c r="Q46" s="84"/>
       <c r="S46" s="25"/>
@@ -7365,7 +7504,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="12">
-        <v>116.9</v>
+        <v>115.089</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -7375,19 +7514,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2338</v>
+        <v>2301.7799999999997</v>
       </c>
       <c r="N47" s="24">
         <f t="shared" si="7"/>
-        <v>8.5411094814943408E-3</v>
+        <v>-7.0830817013199723E-3</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>19.800000000000182</v>
+        <v>-16.419999999999959</v>
       </c>
       <c r="P47" s="24">
         <f t="shared" si="8"/>
-        <v>9.1280202893480912E-3</v>
+        <v>8.7065794442749856E-3</v>
       </c>
       <c r="Q47" s="84"/>
       <c r="S47" s="25"/>
@@ -8047,7 +8186,7 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="12">
-        <v>103</v>
+        <v>101.004</v>
       </c>
       <c r="K61" s="12">
         <v>96.122</v>
@@ -8057,19 +8196,19 @@
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="11">J61*L61</f>
-        <v>10300</v>
+        <v>10100.4</v>
       </c>
       <c r="N61" s="24">
         <f t="shared" ref="N61:N95" si="12">(J61-K61)/K61</f>
-        <v>7.1554898982543025E-2</v>
+        <v>5.0789621522648355E-2</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
-        <v>687.8</v>
+        <v>488.2000000000005</v>
       </c>
       <c r="P61" s="24">
         <f t="shared" si="8"/>
-        <v>4.0213263036905623E-2</v>
+        <v>3.8205186863625139E-2</v>
       </c>
       <c r="Q61" s="84"/>
       <c r="S61" s="25"/>
@@ -8348,29 +8487,29 @@
         <v>66</v>
       </c>
       <c r="J67" s="12">
-        <v>105.30200000000001</v>
+        <v>101.45399999999999</v>
       </c>
       <c r="K67" s="12">
-        <v>106.322</v>
+        <v>105.10899999999999</v>
       </c>
       <c r="L67" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>3159.0600000000004</v>
+        <v>4058.16</v>
       </c>
       <c r="N67" s="24">
         <f t="shared" si="12"/>
-        <v>-9.5934989936231063E-3</v>
+        <v>-3.477342568191117E-2</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>-30.599999999999881</v>
+        <v>-146.20000000000005</v>
       </c>
       <c r="P67" s="24">
         <f t="shared" ref="P67:P98" si="13">M67/$M$406</f>
-        <v>1.2333602983433698E-2</v>
+        <v>1.5350160500820661E-2</v>
       </c>
       <c r="Q67" s="84"/>
       <c r="S67" s="25"/>
@@ -8445,7 +8584,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>102.77500000000001</v>
+        <v>100.40300000000001</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -8455,19 +8594,19 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="14">J69*L69</f>
-        <v>7194.25</v>
+        <v>7028.21</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="12"/>
-        <v>5.6529873761256733E-2</v>
+        <v>3.2145647436161127E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>384.93000000000063</v>
+        <v>218.89000000000067</v>
       </c>
       <c r="P69" s="24">
         <f t="shared" si="13"/>
-        <v>2.8087792971190122E-2</v>
+        <v>2.6584499264068636E-2</v>
       </c>
       <c r="Q69" s="84"/>
       <c r="S69" s="25"/>
@@ -8551,7 +8690,7 @@
         <v>52</v>
       </c>
       <c r="J71" s="12">
-        <v>104.6</v>
+        <v>102.69499999999999</v>
       </c>
       <c r="K71" s="12">
         <v>106.81100000000001</v>
@@ -8561,19 +8700,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="14"/>
-        <v>3138</v>
+        <v>3080.85</v>
       </c>
       <c r="N71" s="24">
         <f t="shared" si="12"/>
-        <v>-2.0700115156678738E-2</v>
+        <v>-3.8535356845268876E-2</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>-66.330000000000382</v>
+        <v>-123.48000000000042</v>
       </c>
       <c r="P71" s="24">
         <f t="shared" si="13"/>
-        <v>1.2251380525224256E-2</v>
+        <v>1.1653444412973696E-2</v>
       </c>
       <c r="Q71" s="84"/>
       <c r="S71" s="25"/>
@@ -8653,7 +8792,7 @@
         <v>52</v>
       </c>
       <c r="J73" s="12">
-        <v>118.598</v>
+        <v>116.599</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -8663,19 +8802,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1185.98</v>
+        <v>1165.99</v>
       </c>
       <c r="N73" s="24">
         <f t="shared" si="12"/>
-        <v>4.934481202608363E-2</v>
+        <v>3.1657833499969056E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>55.769999999999982</v>
+        <v>35.78000000000003</v>
       </c>
       <c r="P73" s="24">
         <f t="shared" si="13"/>
-        <v>4.6303034656805173E-3</v>
+        <v>4.4104061058095004E-3</v>
       </c>
       <c r="Q73" s="84"/>
       <c r="S73" s="25"/>
@@ -8855,7 +8994,7 @@
         <v>52</v>
       </c>
       <c r="J77" s="12">
-        <v>107.117</v>
+        <v>104.407</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -8865,19 +9004,19 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="14"/>
-        <v>2142.34</v>
+        <v>2088.14</v>
       </c>
       <c r="N77" s="24">
         <f t="shared" si="12"/>
-        <v>0.11144890844193574</v>
+        <v>8.3329874657591008E-2</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="15"/>
-        <v>214.82</v>
+        <v>160.61999999999983</v>
       </c>
       <c r="P77" s="24">
         <f t="shared" si="13"/>
-        <v>8.3641244596586797E-3</v>
+        <v>7.8984771788652135E-3</v>
       </c>
       <c r="Q77" s="84"/>
       <c r="S77" s="25"/>
@@ -8959,7 +9098,7 @@
         <v>52</v>
       </c>
       <c r="J79" s="12">
-        <v>110.363</v>
+        <v>106.66</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -8969,19 +9108,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="14"/>
-        <v>1103.6300000000001</v>
+        <v>1066.5999999999999</v>
       </c>
       <c r="N79" s="24">
         <f t="shared" si="12"/>
-        <v>1.6327470301132664E-2</v>
+        <v>-1.7773275623906501E-2</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="15"/>
-        <v>17.729999999999961</v>
+        <v>-19.300000000000068</v>
       </c>
       <c r="P79" s="24">
         <f t="shared" si="13"/>
-        <v>4.3087925714000146E-3</v>
+        <v>4.0344592599048127E-3</v>
       </c>
       <c r="Q79" s="84"/>
       <c r="S79" s="25"/>
@@ -9012,7 +9151,7 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>104.14</v>
+        <v>100.79</v>
       </c>
       <c r="K80" s="12">
         <v>106.27200000000001</v>
@@ -9022,19 +9161,19 @@
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>5207</v>
+        <v>5039.5</v>
       </c>
       <c r="N80" s="24">
         <f t="shared" si="12"/>
-        <v>-2.0061728395061776E-2</v>
+        <v>-5.1584613068352894E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-106.60000000000025</v>
+        <v>-274.09999999999997</v>
       </c>
       <c r="P80" s="24">
         <f t="shared" si="13"/>
-        <v>2.0329170935258989E-2</v>
+        <v>1.9062120232786712E-2</v>
       </c>
       <c r="Q80" s="84"/>
       <c r="S80" s="25"/>
@@ -9113,7 +9252,7 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>103.4</v>
+        <v>99.995000000000005</v>
       </c>
       <c r="K82" s="12">
         <v>102.733</v>
@@ -9123,19 +9262,19 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="14"/>
-        <v>4136</v>
+        <v>3999.8</v>
       </c>
       <c r="N82" s="24">
         <f t="shared" si="12"/>
-        <v>6.4925583794885923E-3</v>
+        <v>-2.6651611458830167E-2</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="15"/>
-        <v>26.680000000000064</v>
+        <v>-109.51999999999998</v>
       </c>
       <c r="P82" s="24">
         <f t="shared" si="13"/>
-        <v>1.6147772419479772E-2</v>
+        <v>1.5129411351741303E-2</v>
       </c>
       <c r="Q82" s="84"/>
       <c r="S82" s="25"/>
@@ -9215,7 +9354,7 @@
         <v>52</v>
       </c>
       <c r="J84" s="12">
-        <v>109.70099999999999</v>
+        <v>109.392</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -9225,19 +9364,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="16">J84*L84</f>
-        <v>2194.02</v>
+        <v>2187.84</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="12"/>
-        <v>2.1177368607227222E-2</v>
+        <v>1.830096997002582E-2</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>45.499999999999829</v>
+        <v>39.319999999999879</v>
       </c>
       <c r="P84" s="24">
         <f t="shared" si="13"/>
-        <v>8.5658935308962781E-3</v>
+        <v>8.2755966127790615E-3</v>
       </c>
       <c r="Q84" s="84"/>
       <c r="S84" s="25"/>
@@ -9268,7 +9407,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>105.498</v>
+        <v>101.72499999999999</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -9278,19 +9417,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="16"/>
-        <v>4219.92</v>
+        <v>4069</v>
       </c>
       <c r="N85" s="24">
         <f t="shared" si="12"/>
-        <v>1.4169806967622892E-2</v>
+        <v>-2.2100669076367055E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>58.96000000000015</v>
+        <v>-91.960000000000264</v>
       </c>
       <c r="P85" s="24">
         <f t="shared" si="13"/>
-        <v>1.6475412908223182E-2</v>
+        <v>1.5391163255721626E-2</v>
       </c>
       <c r="Q85" s="84"/>
       <c r="S85" s="25"/>
@@ -9515,7 +9654,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>102.77</v>
+        <v>100.009</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -9525,19 +9664,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="16"/>
-        <v>5138.5</v>
+        <v>5000.45</v>
       </c>
       <c r="N90" s="24">
         <f t="shared" si="12"/>
-        <v>1.236270501896267E-2</v>
+        <v>-1.4835246022755259E-2</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="15"/>
-        <v>62.749999999999773</v>
+        <v>-75.300000000000011</v>
       </c>
       <c r="P90" s="24">
         <f t="shared" si="13"/>
-        <v>2.0061733215062091E-2</v>
+        <v>1.891441196905215E-2</v>
       </c>
       <c r="Q90" s="84"/>
       <c r="S90" s="25"/>
@@ -10234,29 +10373,29 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>99.185000000000002</v>
+        <v>96.001999999999995</v>
       </c>
       <c r="K105" s="12">
-        <v>101.73</v>
+        <v>101.65</v>
       </c>
       <c r="L105" s="12">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M105" s="11">
         <f t="shared" si="19"/>
-        <v>9918.5</v>
+        <v>8640.18</v>
       </c>
       <c r="N105" s="24">
         <f t="shared" si="20"/>
-        <v>-2.5017202398505866E-2</v>
+        <v>-5.556320708312848E-2</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="15"/>
-        <v>-254.50000000000017</v>
+        <v>-508.32000000000096</v>
       </c>
       <c r="P105" s="24">
         <f t="shared" si="18"/>
-        <v>3.8723810624422178E-2</v>
+        <v>3.2681843435443815E-2</v>
       </c>
       <c r="Q105" s="84" t="s">
         <v>106</v>
@@ -10289,7 +10428,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>105.547</v>
+        <v>105.041</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -10299,19 +10438,19 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="19"/>
-        <v>3166.41</v>
+        <v>3151.23</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="20"/>
-        <v>3.4224761615028422E-3</v>
+        <v>-1.3880042210539401E-3</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>10.799999999999983</v>
+        <v>-4.3800000000000239</v>
       </c>
       <c r="P106" s="24">
         <f t="shared" si="18"/>
-        <v>1.2362298855600808E-2</v>
+        <v>1.1919659716472759E-2</v>
       </c>
       <c r="Q106" s="84" t="s">
         <v>106</v>
@@ -10643,7 +10782,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>107.197</v>
+        <v>104.998</v>
       </c>
       <c r="K113" s="12">
         <v>105.44</v>
@@ -10653,19 +10792,19 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="19"/>
-        <v>1071.97</v>
+        <v>1049.98</v>
       </c>
       <c r="N113" s="24">
         <f t="shared" si="20"/>
-        <v>1.6663505311077437E-2</v>
+        <v>-4.1919575113808141E-3</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="21"/>
-        <v>17.57000000000005</v>
+        <v>-4.4199999999999307</v>
       </c>
       <c r="P113" s="24">
         <f t="shared" si="18"/>
-        <v>4.1851855900652156E-3</v>
+        <v>3.9715934124459557E-3</v>
       </c>
       <c r="Q113" s="84" t="s">
         <v>106</v>
@@ -11346,7 +11485,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>113.289</v>
+        <v>111.68</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -11356,19 +11495,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="19"/>
-        <v>2265.7800000000002</v>
+        <v>2233.6000000000004</v>
       </c>
       <c r="N127" s="24">
         <f t="shared" si="20"/>
-        <v>4.6076141053933969E-2</v>
+        <v>3.1219124830330843E-2</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="21"/>
-        <v>99.799999999999898</v>
+        <v>67.62</v>
       </c>
       <c r="P127" s="24">
         <f t="shared" si="18"/>
-        <v>8.8460589440543715E-3</v>
+        <v>8.4486857330989991E-3</v>
       </c>
       <c r="Q127" s="84" t="s">
         <v>106</v>
@@ -11644,7 +11783,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>112.202</v>
+        <v>109.452</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -11654,19 +11793,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="19"/>
-        <v>1122.02</v>
+        <v>1094.52</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="25"/>
-        <v>4.3053678359484295E-3</v>
+        <v>-2.0309521039016884E-2</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="23"/>
-        <v>4.8099999999999454</v>
+        <v>-22.690000000000055</v>
       </c>
       <c r="P133" s="24">
         <f t="shared" si="24"/>
-        <v>4.3805908148222177E-3</v>
+        <v>4.1400678315685509E-3</v>
       </c>
       <c r="Q133" s="84" t="s">
         <v>106</v>
@@ -11748,7 +11887,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>107.855</v>
+        <v>105.56</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -11758,19 +11897,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="19"/>
-        <v>1078.55</v>
+        <v>1055.5999999999999</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="25"/>
-        <v>2.0904952150888091E-3</v>
+        <v>-1.9232555978816252E-2</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="23"/>
-        <v>2.2500000000000853</v>
+        <v>-20.699999999999932</v>
       </c>
       <c r="P135" s="24">
         <f t="shared" si="24"/>
-        <v>4.2108752280052963E-3</v>
+        <v>3.9928512982894439E-3</v>
       </c>
       <c r="Q135" s="84" t="s">
         <v>120</v>
@@ -11903,7 +12042,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>114.85</v>
+        <v>110.399</v>
       </c>
       <c r="K138" s="12">
         <v>115.14</v>
@@ -11913,19 +12052,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="19"/>
-        <v>1148.5</v>
+        <v>1103.99</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="25"/>
-        <v>-2.5186729199236256E-3</v>
+        <v>-4.1175959701233278E-2</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="23"/>
-        <v>-2.9000000000000625</v>
+        <v>-47.41</v>
       </c>
       <c r="P138" s="24">
         <f t="shared" si="24"/>
-        <v>4.4839740386297192E-3</v>
+        <v>4.1758885039774188E-3</v>
       </c>
       <c r="Q138" s="84" t="s">
         <v>106</v>
@@ -11958,7 +12097,7 @@
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12">
-        <v>117.34699999999999</v>
+        <v>113.645</v>
       </c>
       <c r="K139" s="12">
         <v>119.23</v>
@@ -11968,19 +12107,19 @@
       </c>
       <c r="M139" s="11">
         <f t="shared" si="19"/>
-        <v>1173.47</v>
+        <v>1136.45</v>
       </c>
       <c r="N139" s="24">
         <f t="shared" si="25"/>
-        <v>-1.579300511616212E-2</v>
+        <v>-4.6842237691856144E-2</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="23"/>
-        <v>-18.830000000000098</v>
+        <v>-55.85000000000008</v>
       </c>
       <c r="P139" s="24">
         <f t="shared" si="24"/>
-        <v>4.5814619199920038E-3</v>
+        <v>4.2986698161624091E-3</v>
       </c>
       <c r="Q139" s="84" t="s">
         <v>106</v>
@@ -12057,7 +12196,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>108.401</v>
+        <v>104.94</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -12067,19 +12206,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="26">J141*L141</f>
-        <v>1084.01</v>
+        <v>1049.4000000000001</v>
       </c>
       <c r="N141" s="24">
         <f t="shared" si="25"/>
-        <v>1.1665780067381545E-2</v>
+        <v>-2.0634431783184463E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>12.5</v>
+        <v>-22.109999999999985</v>
       </c>
       <c r="P141" s="24">
         <f t="shared" si="24"/>
-        <v>4.2321921616151519E-3</v>
+        <v>3.969399538106236E-3</v>
       </c>
       <c r="Q141" s="84" t="s">
         <v>106</v>
@@ -12112,7 +12251,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>111.822</v>
+        <v>109.154</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -12122,19 +12261,19 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="26"/>
-        <v>1118.22</v>
+        <v>1091.54</v>
       </c>
       <c r="N142" s="24">
         <f t="shared" si="25"/>
-        <v>2.2877580702701263E-2</v>
+        <v>-1.5276113464018953E-3</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>25.010000000000048</v>
+        <v>-1.6700000000000159</v>
       </c>
       <c r="P142" s="24">
         <f t="shared" si="24"/>
-        <v>4.3657548537018066E-3</v>
+        <v>4.1287958565127507E-3</v>
       </c>
       <c r="Q142" s="84" t="s">
         <v>106</v>
@@ -12412,7 +12551,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>117.42</v>
+        <v>111.111</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -12422,19 +12561,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="26"/>
-        <v>1174.2</v>
+        <v>1111.1100000000001</v>
       </c>
       <c r="N148" s="24">
         <f t="shared" si="25"/>
-        <v>0.10692132204604157</v>
+        <v>4.744621882011351E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="27"/>
-        <v>113.41999999999999</v>
+        <v>50.330000000000013</v>
       </c>
       <c r="P148" s="24">
         <f t="shared" si="24"/>
-        <v>4.5843119862072406E-3</v>
+        <v>4.2028202027684586E-3</v>
       </c>
       <c r="Q148" s="84" t="s">
         <v>106</v>
@@ -12467,7 +12606,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>105.244</v>
+        <v>104.136</v>
       </c>
       <c r="K149" s="81">
         <v>106.556</v>
@@ -12477,19 +12616,19 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="26"/>
-        <v>3157.32</v>
+        <v>3124.08</v>
       </c>
       <c r="N149" s="24">
         <f t="shared" si="25"/>
-        <v>-1.2312774503547409E-2</v>
+        <v>-2.2711062727579882E-2</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="27"/>
-        <v>-39.359999999999928</v>
+        <v>-72.600000000000051</v>
       </c>
       <c r="P149" s="24">
         <f t="shared" si="24"/>
-        <v>1.2326809674920666E-2</v>
+        <v>1.1816963702122098E-2</v>
       </c>
       <c r="Q149" s="84" t="s">
         <v>106</v>
@@ -12618,7 +12757,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>106.58499999999999</v>
+        <v>102.989</v>
       </c>
       <c r="K152" s="12">
         <v>110.36499999999999</v>
@@ -12628,19 +12767,19 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="26"/>
-        <v>3197.5499999999997</v>
+        <v>3089.67</v>
       </c>
       <c r="N152" s="24">
         <f t="shared" si="25"/>
-        <v>-3.4249988673945554E-2</v>
+        <v>-6.6832782132016405E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="28">(J152-K152)*L152</f>
-        <v>-113.40000000000003</v>
+        <v>-221.27999999999972</v>
       </c>
       <c r="P152" s="24">
         <f t="shared" si="24"/>
-        <v>1.2483875652782287E-2</v>
+        <v>1.1686806433105292E-2</v>
       </c>
       <c r="Q152" s="84" t="s">
         <v>132</v>
@@ -12872,7 +13011,7 @@
         <v>66</v>
       </c>
       <c r="J157" s="12">
-        <v>108.12</v>
+        <v>102.705</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -12882,19 +13021,19 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="26"/>
-        <v>1081.2</v>
+        <v>1027.05</v>
       </c>
       <c r="N157" s="24">
         <f t="shared" si="25"/>
-        <v>-8.8917407645063597E-3</v>
+        <v>-5.8529654413786825E-2</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="28"/>
-        <v>-9.6999999999999886</v>
+        <v>-63.850000000000051</v>
       </c>
       <c r="P157" s="24">
         <f t="shared" si="24"/>
-        <v>4.2212213587866365E-3</v>
+        <v>3.8848597251877354E-3</v>
       </c>
       <c r="Q157" s="84" t="s">
         <v>136</v>
@@ -12978,7 +13117,7 @@
         <v>66</v>
       </c>
       <c r="J159" s="12">
-        <v>113.99</v>
+        <v>111.11</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -12988,19 +13127,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="26"/>
-        <v>1139.8999999999999</v>
+        <v>1111.0999999999999</v>
       </c>
       <c r="N159" s="24">
         <f t="shared" si="25"/>
-        <v>5.8953587752220184E-2</v>
+        <v>3.2198729144216065E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="28"/>
-        <v>63.459999999999894</v>
+        <v>34.65999999999994</v>
       </c>
       <c r="P159" s="24">
         <f t="shared" si="24"/>
-        <v>4.4503979160940496E-3</v>
+        <v>4.2027823773488071E-3</v>
       </c>
       <c r="Q159" s="84"/>
       <c r="S159" s="25"/>
@@ -13178,29 +13317,29 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>108.126</v>
+        <v>103.62</v>
       </c>
       <c r="K163" s="12">
-        <v>109.07</v>
+        <v>108.075</v>
       </c>
       <c r="L163" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M163" s="11">
         <f t="shared" si="26"/>
-        <v>1081.26</v>
+        <v>2072.4</v>
       </c>
       <c r="N163" s="24">
         <f t="shared" si="25"/>
-        <v>-8.6549922068395388E-3</v>
+        <v>-4.1221374045801507E-2</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="28"/>
-        <v>-9.439999999999884</v>
+        <v>-89.099999999999966</v>
       </c>
       <c r="P163" s="24">
         <f t="shared" ref="P163:P179" si="30">M163/$M$406</f>
-        <v>4.2214556108043271E-3</v>
+        <v>7.838939968335585E-3</v>
       </c>
       <c r="Q163" s="84" t="s">
         <v>106</v>
@@ -13477,7 +13616,7 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>105.45</v>
+        <v>102.268</v>
       </c>
       <c r="K169" s="12">
         <v>105.581</v>
@@ -13487,19 +13626,19 @@
       </c>
       <c r="M169" s="11">
         <f t="shared" si="26"/>
-        <v>3163.5</v>
+        <v>3068.04</v>
       </c>
       <c r="N169" s="24">
         <f t="shared" si="31"/>
-        <v>-1.2407535446718654E-3</v>
+        <v>-3.1378751858762488E-2</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="32"/>
-        <v>-3.9300000000000068</v>
+        <v>-99.390000000000072</v>
       </c>
       <c r="P169" s="24">
         <f t="shared" si="30"/>
-        <v>1.2350937632742809E-2</v>
+        <v>1.1604990050401616E-2</v>
       </c>
       <c r="Q169" s="84" t="s">
         <v>106</v>
@@ -13583,7 +13722,7 @@
         <v>66</v>
       </c>
       <c r="J171" s="12">
-        <v>107.977</v>
+        <v>108.107</v>
       </c>
       <c r="K171" s="12">
         <v>109.006</v>
@@ -13593,19 +13732,19 @@
       </c>
       <c r="M171" s="11">
         <f t="shared" si="26"/>
-        <v>3239.31</v>
+        <v>3243.21</v>
       </c>
       <c r="N171" s="24">
         <f t="shared" si="31"/>
-        <v>-9.4398473478523783E-3</v>
+        <v>-8.2472524448195597E-3</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="32"/>
-        <v>-30.869999999999891</v>
+        <v>-26.970000000000027</v>
       </c>
       <c r="P171" s="24">
         <f t="shared" si="30"/>
-        <v>1.2646915057095023E-2</v>
+        <v>1.2267577926416548E-2</v>
       </c>
       <c r="Q171" s="84" t="s">
         <v>106</v>
@@ -13640,7 +13779,7 @@
         <v>66</v>
       </c>
       <c r="J172" s="12">
-        <v>110.541</v>
+        <v>109.803</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -13650,19 +13789,19 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="26"/>
-        <v>2210.8199999999997</v>
+        <v>2196.06</v>
       </c>
       <c r="N172" s="24">
         <f t="shared" si="31"/>
-        <v>1.5301951779563691E-2</v>
+        <v>8.5235361653271842E-3</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="32"/>
-        <v>33.319999999999936</v>
+        <v>18.559999999999945</v>
       </c>
       <c r="P172" s="24">
         <f t="shared" si="30"/>
-        <v>8.6314840958496772E-3</v>
+        <v>8.3066891077316369E-3</v>
       </c>
       <c r="Q172" s="84" t="s">
         <v>106</v>
@@ -13893,7 +14032,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>108.191</v>
+        <v>105.94799999999999</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -13903,19 +14042,19 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="33"/>
-        <v>1081.9100000000001</v>
+        <v>1059.48</v>
       </c>
       <c r="N177" s="24">
         <f t="shared" si="31"/>
-        <v>-1.330597355221161E-2</v>
+        <v>-3.3761969904240879E-2</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="32"/>
-        <v>-14.590000000000032</v>
+        <v>-37.020000000000124</v>
       </c>
       <c r="P177" s="24">
         <f t="shared" si="30"/>
-        <v>4.2239933409959768E-3</v>
+        <v>4.0075275611137747E-3</v>
       </c>
       <c r="Q177" s="84" t="s">
         <v>150</v>
@@ -13997,7 +14136,7 @@
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="12">
-        <v>110.059</v>
+        <v>107.099</v>
       </c>
       <c r="K179" s="12">
         <v>115.111</v>
@@ -14007,19 +14146,19 @@
       </c>
       <c r="M179" s="11">
         <f t="shared" si="33"/>
-        <v>4402.3599999999997</v>
+        <v>4283.96</v>
       </c>
       <c r="N179" s="24">
         <f t="shared" si="31"/>
-        <v>-4.3888073251036011E-2</v>
+        <v>-6.9602383786084743E-2</v>
       </c>
       <c r="O179" s="11">
         <f t="shared" si="32"/>
-        <v>-202.08000000000027</v>
+        <v>-320.48</v>
       </c>
       <c r="P179" s="24">
         <f t="shared" si="30"/>
-        <v>1.7187695210014741E-2</v>
+        <v>1.6204258476525242E-2</v>
       </c>
       <c r="Q179" s="84" t="s">
         <v>152</v>
@@ -14252,7 +14391,7 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>124.2</v>
+        <v>117.235</v>
       </c>
       <c r="K184" s="12">
         <v>107.06</v>
@@ -14262,19 +14401,19 @@
       </c>
       <c r="M184" s="11">
         <f t="shared" si="33"/>
-        <v>1242</v>
+        <v>1172.3499999999999</v>
       </c>
       <c r="N184" s="24">
         <f t="shared" si="31"/>
-        <v>0.16009714178965068</v>
+        <v>9.5040164393797838E-2</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="32"/>
-        <v>171.4</v>
+        <v>101.74999999999997</v>
       </c>
       <c r="P184" s="24">
         <f t="shared" si="34"/>
-        <v>4.8490167661977461E-3</v>
+        <v>4.4344630727071142E-3</v>
       </c>
       <c r="Q184" s="84" t="s">
         <v>158</v>
@@ -15288,7 +15427,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>111.9</v>
+        <v>109.425</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -15298,19 +15437,19 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="37">J205*L205</f>
-        <v>2238</v>
+        <v>2188.5</v>
       </c>
       <c r="N205" s="24">
         <f t="shared" si="36"/>
-        <v>2.722749554776294E-2</v>
+        <v>4.5073163566930405E-3</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="32"/>
-        <v>59.320000000000164</v>
+        <v>9.8199999999999932</v>
       </c>
       <c r="P205" s="24">
         <f t="shared" si="34"/>
-        <v>8.7376002598635715E-3</v>
+        <v>8.2780930904759829E-3</v>
       </c>
       <c r="Q205" s="118" t="s">
         <v>165</v>
@@ -15541,29 +15680,29 @@
         <v>52</v>
       </c>
       <c r="J210" s="12">
-        <v>108.61499999999999</v>
+        <v>105.342</v>
       </c>
       <c r="K210" s="13">
-        <v>113.075</v>
+        <v>110.295</v>
       </c>
       <c r="L210" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M210" s="11">
         <f t="shared" si="37"/>
-        <v>1086.1499999999999</v>
+        <v>2106.84</v>
       </c>
       <c r="N210" s="24">
         <f t="shared" si="36"/>
-        <v>-3.944284766747741E-2</v>
+        <v>-4.4906840745274061E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="32"/>
-        <v>-44.60000000000008</v>
+        <v>-99.060000000000059</v>
       </c>
       <c r="P210" s="24">
         <f t="shared" si="34"/>
-        <v>4.2405471502461201E-3</v>
+        <v>7.9692107136113428E-3</v>
       </c>
       <c r="Q210" s="133" t="s">
         <v>169</v>
@@ -16284,7 +16423,7 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>107.527</v>
+        <v>105.7</v>
       </c>
       <c r="K225" s="12">
         <v>108.65</v>
@@ -16294,19 +16433,19 @@
       </c>
       <c r="M225" s="11">
         <f t="shared" si="37"/>
-        <v>2150.54</v>
+        <v>2114</v>
       </c>
       <c r="N225" s="24">
         <f t="shared" si="41"/>
-        <v>-1.0335941095260051E-2</v>
+        <v>-2.7151403589507617E-2</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="32"/>
-        <v>-22.460000000000093</v>
+        <v>-59.000000000000057</v>
       </c>
       <c r="P225" s="24">
         <f t="shared" si="40"/>
-        <v>8.3961389020764093E-3</v>
+        <v>7.9962937140809816E-3</v>
       </c>
       <c r="Q225" s="135" t="s">
         <v>140</v>
@@ -16584,7 +16723,7 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>106.7</v>
+        <v>105.32</v>
       </c>
       <c r="K231" s="12">
         <v>107.889</v>
@@ -16594,19 +16733,19 @@
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="45">J231*L231</f>
-        <v>2134</v>
+        <v>2106.3999999999996</v>
       </c>
       <c r="N231" s="24">
         <f t="shared" ref="N231:N245" si="46">(J231-K231)/K231</f>
-        <v>-1.1020585972619942E-2</v>
+        <v>-2.3811509977847627E-2</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="47">(J231-K231)*L231</f>
-        <v>-23.779999999999859</v>
+        <v>-51.380000000000052</v>
       </c>
       <c r="P231" s="24">
         <f t="shared" ref="P231:P245" si="48">M231/$M$406</f>
-        <v>8.331563429199669E-3</v>
+        <v>7.9675463951467251E-3</v>
       </c>
       <c r="Q231" s="113" t="s">
         <v>183</v>
@@ -16736,7 +16875,7 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>105.7</v>
+        <v>102.765</v>
       </c>
       <c r="K234" s="12">
         <v>107.806</v>
@@ -16746,19 +16885,19 @@
       </c>
       <c r="M234" s="11">
         <f t="shared" si="45"/>
-        <v>3171</v>
+        <v>3082.95</v>
       </c>
       <c r="N234" s="24">
         <f t="shared" si="46"/>
-        <v>-1.9535090811272051E-2</v>
+        <v>-4.6759920598111397E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="47"/>
-        <v>-63.179999999999836</v>
+        <v>-151.2299999999999</v>
       </c>
       <c r="P234" s="24">
         <f t="shared" si="48"/>
-        <v>1.2380219134954148E-2</v>
+        <v>1.1661387751100266E-2</v>
       </c>
       <c r="Q234" s="139"/>
       <c r="S234" s="25"/>
@@ -16836,7 +16975,7 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>109.8</v>
+        <v>106.379</v>
       </c>
       <c r="K236" s="12">
         <v>108.294</v>
@@ -16846,19 +16985,19 @@
       </c>
       <c r="M236" s="11">
         <f t="shared" si="45"/>
-        <v>2196</v>
+        <v>2127.58</v>
       </c>
       <c r="N236" s="24">
         <f t="shared" si="46"/>
-        <v>1.3906587622582971E-2</v>
+        <v>-1.7683343490867382E-2</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="47"/>
-        <v>30.120000000000005</v>
+        <v>-38.299999999999841</v>
       </c>
       <c r="P236" s="24">
         <f t="shared" si="48"/>
-        <v>8.5736238474800729E-3</v>
+        <v>8.0476606339661381E-3</v>
       </c>
       <c r="Q236" s="139"/>
       <c r="S236" s="25"/>
@@ -16889,7 +17028,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>109.289</v>
+        <v>110.2</v>
       </c>
       <c r="K237" s="12">
         <v>109.474</v>
@@ -16899,19 +17038,19 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="45"/>
-        <v>1092.8900000000001</v>
+        <v>1102</v>
       </c>
       <c r="N237" s="24">
         <f t="shared" si="46"/>
-        <v>-1.6898989714452953E-3</v>
+        <v>6.6317116392933398E-3</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="47"/>
-        <v>-1.8500000000000227</v>
+        <v>7.2599999999999909</v>
       </c>
       <c r="P237" s="24">
         <f t="shared" si="48"/>
-        <v>4.2668614602333777E-3</v>
+        <v>4.1683612454670024E-3</v>
       </c>
       <c r="Q237" s="139"/>
       <c r="S237" s="25"/>
@@ -16989,7 +17128,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>111.554</v>
+        <v>110</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -16999,19 +17138,19 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="45"/>
-        <v>2231.08</v>
+        <v>2200</v>
       </c>
       <c r="N239" s="24">
         <f t="shared" si="46"/>
-        <v>2.7238572323105809E-2</v>
+        <v>1.2928652989060336E-2</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="47"/>
-        <v>59.159999999999968</v>
+        <v>28.079999999999927</v>
       </c>
       <c r="P239" s="24">
         <f t="shared" si="48"/>
-        <v>8.7105831938232414E-3</v>
+        <v>8.3215923230738689E-3</v>
       </c>
       <c r="Q239" s="139" t="s">
         <v>192</v>
@@ -17282,7 +17421,7 @@
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="12">
-        <v>110.379</v>
+        <v>104.8</v>
       </c>
       <c r="K245" s="12">
         <v>106.852</v>
@@ -17292,19 +17431,19 @@
       </c>
       <c r="M245" s="11">
         <f t="shared" si="45"/>
-        <v>2207.58</v>
+        <v>2096</v>
       </c>
       <c r="N245" s="24">
         <f t="shared" si="46"/>
-        <v>3.3008273125444548E-2</v>
+        <v>-1.9204132819226657E-2</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="47"/>
-        <v>70.54000000000002</v>
+        <v>-41.040000000000134</v>
       </c>
       <c r="P245" s="24">
         <f t="shared" si="48"/>
-        <v>8.6188344868943795E-3</v>
+        <v>7.9282079587103781E-3</v>
       </c>
       <c r="Q245" s="84"/>
       <c r="S245" s="25"/>
@@ -17620,7 +17759,7 @@
       </c>
       <c r="I252" s="15"/>
       <c r="J252" s="12">
-        <v>110.001</v>
+        <v>107.22499999999999</v>
       </c>
       <c r="K252" s="12">
         <v>109.35</v>
@@ -17630,19 +17769,19 @@
       </c>
       <c r="M252" s="11">
         <f t="shared" si="49"/>
-        <v>1100.01</v>
+        <v>1072.25</v>
       </c>
       <c r="N252" s="24">
         <f t="shared" si="50"/>
-        <v>5.9533607681756789E-3</v>
+        <v>-1.9433013260173757E-2</v>
       </c>
       <c r="O252" s="11">
         <f t="shared" si="51"/>
-        <v>6.5100000000001046</v>
+        <v>-21.25</v>
       </c>
       <c r="P252" s="24">
         <f t="shared" si="52"/>
-        <v>4.2946593663326753E-3</v>
+        <v>4.0558306220072528E-3</v>
       </c>
       <c r="Q252" s="84" t="s">
         <v>106</v>
@@ -17674,7 +17813,7 @@
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="12">
-        <v>112.15</v>
+        <v>109.25</v>
       </c>
       <c r="K253" s="12">
         <v>109.39100000000001</v>
@@ -17684,19 +17823,19 @@
       </c>
       <c r="M253" s="11">
         <f t="shared" si="49"/>
-        <v>1121.5</v>
+        <v>1092.5</v>
       </c>
       <c r="N253" s="24">
         <f t="shared" si="50"/>
-        <v>2.5221453318828791E-2</v>
+        <v>-1.2889543015422232E-3</v>
       </c>
       <c r="O253" s="11">
         <f t="shared" si="51"/>
-        <v>27.590000000000003</v>
+        <v>-1.4100000000000534</v>
       </c>
       <c r="P253" s="24">
         <f t="shared" si="52"/>
-        <v>4.3785606306688983E-3</v>
+        <v>4.1324270967991834E-3</v>
       </c>
       <c r="Q253" s="84" t="s">
         <v>106</v>
@@ -17776,7 +17915,7 @@
       </c>
       <c r="I255" s="15"/>
       <c r="J255" s="12">
-        <v>107.179</v>
+        <v>105.108</v>
       </c>
       <c r="K255" s="12">
         <v>107.008</v>
@@ -17786,19 +17925,19 @@
       </c>
       <c r="M255" s="11">
         <f t="shared" si="49"/>
-        <v>2143.58</v>
+        <v>2102.16</v>
       </c>
       <c r="N255" s="24">
         <f t="shared" si="50"/>
-        <v>1.5980113636364242E-3</v>
+        <v>-1.775568181818174E-2</v>
       </c>
       <c r="O255" s="11">
         <f t="shared" si="51"/>
-        <v>3.4200000000001296</v>
+        <v>-37.999999999999829</v>
       </c>
       <c r="P255" s="24">
         <f t="shared" si="52"/>
-        <v>8.368965668024286E-3</v>
+        <v>7.9515084172149843E-3</v>
       </c>
       <c r="Q255" s="84" t="s">
         <v>106</v>
@@ -17926,7 +18065,7 @@
       </c>
       <c r="I258" s="15"/>
       <c r="J258" s="12">
-        <v>111.42</v>
+        <v>107.2</v>
       </c>
       <c r="K258" s="12">
         <v>109.014</v>
@@ -17936,19 +18075,19 @@
       </c>
       <c r="M258" s="11">
         <f t="shared" si="49"/>
-        <v>1114.2</v>
+        <v>1072</v>
       </c>
       <c r="N258" s="24">
         <f t="shared" si="50"/>
-        <v>2.2070559744620011E-2</v>
+        <v>-1.6640064578861368E-2</v>
       </c>
       <c r="O258" s="11">
         <f t="shared" si="51"/>
-        <v>24.060000000000059</v>
+        <v>-18.13999999999993</v>
       </c>
       <c r="P258" s="24">
         <f t="shared" si="52"/>
-        <v>4.350059968516529E-3</v>
+        <v>4.0548849865159947E-3</v>
       </c>
       <c r="Q258" s="84"/>
       <c r="S258" s="25"/>
@@ -18122,7 +18261,7 @@
       </c>
       <c r="I262" s="15"/>
       <c r="J262" s="12">
-        <v>111.90900000000001</v>
+        <v>106.491</v>
       </c>
       <c r="K262" s="12">
         <v>108.041</v>
@@ -18132,19 +18271,19 @@
       </c>
       <c r="M262" s="11">
         <f t="shared" si="49"/>
-        <v>1119.0900000000001</v>
+        <v>1064.9100000000001</v>
       </c>
       <c r="N262" s="24">
         <f t="shared" si="50"/>
-        <v>3.5801223609555718E-2</v>
+        <v>-1.4346405531233487E-2</v>
       </c>
       <c r="O262" s="11">
         <f t="shared" si="51"/>
-        <v>38.680000000000092</v>
+        <v>-15.499999999999972</v>
       </c>
       <c r="P262" s="24">
         <f t="shared" si="52"/>
-        <v>4.369151507958322E-3</v>
+        <v>4.0280667639839068E-3</v>
       </c>
       <c r="Q262" s="84"/>
       <c r="S262" s="25"/>
@@ -18220,7 +18359,7 @@
       </c>
       <c r="I264" s="15"/>
       <c r="J264" s="12">
-        <v>108.17</v>
+        <v>105</v>
       </c>
       <c r="K264" s="12">
         <v>105.532</v>
@@ -18230,19 +18369,19 @@
       </c>
       <c r="M264" s="11">
         <f t="shared" si="49"/>
-        <v>1081.7</v>
+        <v>1050</v>
       </c>
       <c r="N264" s="24">
         <f t="shared" si="50"/>
-        <v>2.4997157260357099E-2</v>
+        <v>-5.0411249668346706E-3</v>
       </c>
       <c r="O264" s="11">
         <f t="shared" si="51"/>
-        <v>26.380000000000052</v>
+        <v>-5.3199999999999648</v>
       </c>
       <c r="P264" s="24">
         <f t="shared" si="52"/>
-        <v>4.2231734589340594E-3</v>
+        <v>3.9716690632852561E-3</v>
       </c>
       <c r="Q264" s="84"/>
       <c r="S264" s="25"/>
@@ -18704,7 +18843,7 @@
       </c>
       <c r="I274" s="15"/>
       <c r="J274" s="12">
-        <v>98.073999999999998</v>
+        <v>97.138999999999996</v>
       </c>
       <c r="K274" s="12">
         <v>98.712000000000003</v>
@@ -18714,19 +18853,19 @@
       </c>
       <c r="M274" s="11">
         <f t="shared" si="53"/>
-        <v>2942.22</v>
+        <v>2914.17</v>
       </c>
       <c r="N274" s="24">
         <f t="shared" si="54"/>
-        <v>-6.4632466164195358E-3</v>
+        <v>-1.5935245968068799E-2</v>
       </c>
       <c r="O274" s="11">
         <f t="shared" si="55"/>
-        <v>-19.140000000000157</v>
+        <v>-47.190000000000225</v>
       </c>
       <c r="P274" s="24">
         <f t="shared" si="56"/>
-        <v>1.1487016191499461E-2</v>
+        <v>1.10229703182419E-2</v>
       </c>
       <c r="Q274" s="84"/>
       <c r="S274" s="25"/>
@@ -18852,7 +18991,7 @@
       </c>
       <c r="I277" s="15"/>
       <c r="J277" s="12">
-        <v>109.63</v>
+        <v>106.56100000000001</v>
       </c>
       <c r="K277" s="12">
         <v>108.94</v>
@@ -18862,19 +19001,19 @@
       </c>
       <c r="M277" s="11">
         <f t="shared" si="53"/>
-        <v>1096.3</v>
+        <v>1065.6100000000001</v>
       </c>
       <c r="N277" s="24">
         <f t="shared" si="54"/>
-        <v>6.3337617036900839E-3</v>
+        <v>-2.1837708830548842E-2</v>
       </c>
       <c r="O277" s="11">
         <f t="shared" si="55"/>
-        <v>6.8999999999999773</v>
+        <v>-23.789999999999907</v>
       </c>
       <c r="P277" s="24">
         <f t="shared" si="56"/>
-        <v>4.2801747832387988E-3</v>
+        <v>4.0307145433594307E-3</v>
       </c>
       <c r="Q277" s="84"/>
       <c r="S277" s="25"/>
@@ -18952,7 +19091,7 @@
       </c>
       <c r="I279" s="15"/>
       <c r="J279" s="12">
-        <v>111.337</v>
+        <v>109.625</v>
       </c>
       <c r="K279" s="12">
         <v>108.63</v>
@@ -18962,19 +19101,19 @@
       </c>
       <c r="M279" s="11">
         <f t="shared" si="53"/>
-        <v>1113.3700000000001</v>
+        <v>1096.25</v>
       </c>
       <c r="N279" s="24">
         <f t="shared" si="54"/>
-        <v>2.4919451348614636E-2</v>
+        <v>9.1595323575439994E-3</v>
       </c>
       <c r="O279" s="11">
         <f t="shared" si="55"/>
-        <v>27.070000000000078</v>
+        <v>9.9500000000000455</v>
       </c>
       <c r="P279" s="24">
         <f t="shared" si="56"/>
-        <v>4.3468194822718076E-3</v>
+        <v>4.1466116291680594E-3</v>
       </c>
       <c r="Q279" s="90" t="s">
         <v>221</v>
@@ -19001,12 +19140,12 @@
         <v>108.38200000000001</v>
       </c>
       <c r="H280" s="14">
-        <f t="shared" ref="H280:H309" si="57">F280*G280</f>
+        <f t="shared" ref="H280:H311" si="57">F280*G280</f>
         <v>1083.8200000000002</v>
       </c>
       <c r="I280" s="15"/>
       <c r="J280" s="12">
-        <v>109.931</v>
+        <v>105</v>
       </c>
       <c r="K280" s="12">
         <v>108.41200000000001</v>
@@ -19016,19 +19155,19 @@
       </c>
       <c r="M280" s="11">
         <f t="shared" ref="M280:M296" si="58">J280*L280</f>
-        <v>1099.31</v>
+        <v>1050</v>
       </c>
       <c r="N280" s="24">
         <f t="shared" ref="N280:N296" si="59">(J280-K280)/K280</f>
-        <v>1.4011364055639516E-2</v>
+        <v>-3.1472530716156938E-2</v>
       </c>
       <c r="O280" s="11">
         <f t="shared" ref="O280:O296" si="60">(J280-K280)*L280</f>
-        <v>15.189999999999912</v>
+        <v>-34.120000000000061</v>
       </c>
       <c r="P280" s="24">
         <f t="shared" ref="P280:P296" si="61">M280/$M$406</f>
-        <v>4.2919264261262833E-3</v>
+        <v>3.9716690632852561E-3</v>
       </c>
       <c r="Q280" s="84" t="s">
         <v>222</v>
@@ -19108,7 +19247,7 @@
       </c>
       <c r="I282" s="15"/>
       <c r="J282" s="12">
-        <v>111.782</v>
+        <v>108.996</v>
       </c>
       <c r="K282" s="12">
         <v>110.173</v>
@@ -19118,19 +19257,19 @@
       </c>
       <c r="M282" s="11">
         <f t="shared" si="58"/>
-        <v>1117.82</v>
+        <v>1089.96</v>
       </c>
       <c r="N282" s="24">
         <f t="shared" si="59"/>
-        <v>1.4604304139852729E-2</v>
+        <v>-1.0683198242763715E-2</v>
       </c>
       <c r="O282" s="11">
         <f t="shared" si="60"/>
-        <v>16.089999999999947</v>
+        <v>-11.770000000000067</v>
       </c>
       <c r="P282" s="24">
         <f t="shared" si="61"/>
-        <v>4.3641931735838675E-3</v>
+        <v>4.1228194402079974E-3</v>
       </c>
       <c r="Q282" s="84"/>
       <c r="S282" s="25"/>
@@ -19160,7 +19299,7 @@
       </c>
       <c r="I283" s="15"/>
       <c r="J283" s="12">
-        <v>111.7</v>
+        <v>107.38</v>
       </c>
       <c r="K283" s="12">
         <v>107.79300000000001</v>
@@ -19170,19 +19309,19 @@
       </c>
       <c r="M283" s="11">
         <f t="shared" si="58"/>
-        <v>1117</v>
+        <v>1073.8</v>
       </c>
       <c r="N283" s="24">
         <f t="shared" si="59"/>
-        <v>3.6245396268774377E-2</v>
+        <v>-3.8314176245211736E-3</v>
       </c>
       <c r="O283" s="11">
         <f t="shared" si="60"/>
-        <v>39.069999999999965</v>
+        <v>-4.1300000000001091</v>
       </c>
       <c r="P283" s="24">
         <f t="shared" si="61"/>
-        <v>4.3609917293420952E-3</v>
+        <v>4.061693562053055E-3</v>
       </c>
       <c r="Q283" s="84"/>
       <c r="S283" s="25"/>
@@ -19260,7 +19399,7 @@
       </c>
       <c r="I285" s="15"/>
       <c r="J285" s="12">
-        <v>110.22</v>
+        <v>107.717</v>
       </c>
       <c r="K285" s="12">
         <v>108.64</v>
@@ -19270,19 +19409,19 @@
       </c>
       <c r="M285" s="11">
         <f t="shared" si="58"/>
-        <v>1102.2</v>
+        <v>1077.17</v>
       </c>
       <c r="N285" s="24">
         <f t="shared" si="59"/>
-        <v>1.4543446244477157E-2</v>
+        <v>-8.4959499263623142E-3</v>
       </c>
       <c r="O285" s="11">
         <f t="shared" si="60"/>
-        <v>15.799999999999983</v>
+        <v>-9.2300000000000182</v>
       </c>
       <c r="P285" s="24">
         <f t="shared" si="61"/>
-        <v>4.3032095649783858E-3</v>
+        <v>4.0744407284752189E-3</v>
       </c>
       <c r="Q285" s="84"/>
       <c r="S285" s="25"/>
@@ -19409,7 +19548,7 @@
       </c>
       <c r="I288" s="15"/>
       <c r="J288" s="12">
-        <v>116.158</v>
+        <v>114.087</v>
       </c>
       <c r="K288" s="12">
         <v>112.685</v>
@@ -19419,19 +19558,19 @@
       </c>
       <c r="M288" s="11">
         <f t="shared" si="58"/>
-        <v>1161.58</v>
+        <v>1140.8700000000001</v>
       </c>
       <c r="N288" s="24">
         <f t="shared" si="59"/>
-        <v>3.0820428628477604E-2</v>
+        <v>1.2441762435106722E-2</v>
       </c>
       <c r="O288" s="11">
         <f t="shared" si="60"/>
-        <v>34.72999999999999</v>
+        <v>14.02000000000001</v>
       </c>
       <c r="P288" s="24">
         <f t="shared" si="61"/>
-        <v>4.5350409784862943E-3</v>
+        <v>4.3153886516478579E-3</v>
       </c>
       <c r="Q288" s="84" t="s">
         <v>230</v>
@@ -19848,19 +19987,19 @@
       <c r="K297" s="12"/>
       <c r="L297" s="12"/>
       <c r="M297" s="11">
-        <f t="shared" ref="M297:M318" si="62">J297*L297</f>
+        <f t="shared" ref="M297:M311" si="62">J297*L297</f>
         <v>0</v>
       </c>
       <c r="N297" s="24" t="e">
-        <f t="shared" ref="N297:N318" si="63">(J297-K297)/K297</f>
+        <f t="shared" ref="N297:N311" si="63">(J297-K297)/K297</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O297" s="11">
-        <f t="shared" ref="O297:O318" si="64">(J297-K297)*L297</f>
+        <f t="shared" ref="O297:O311" si="64">(J297-K297)*L297</f>
         <v>0</v>
       </c>
       <c r="P297" s="24">
-        <f t="shared" ref="P297:P318" si="65">M297/$M$406</f>
+        <f t="shared" ref="P297:P311" si="65">M297/$M$406</f>
         <v>0</v>
       </c>
       <c r="Q297" s="176"/>
@@ -20182,7 +20321,7 @@
         <v>66</v>
       </c>
       <c r="J304" s="12">
-        <v>118.529</v>
+        <v>107.96</v>
       </c>
       <c r="K304" s="12">
         <v>118.56399999999999</v>
@@ -20192,19 +20331,19 @@
       </c>
       <c r="M304" s="11">
         <f t="shared" si="62"/>
-        <v>3555.87</v>
+        <v>3238.7999999999997</v>
       </c>
       <c r="N304" s="24">
         <f t="shared" si="63"/>
-        <v>-2.9519921730033225E-4</v>
+        <v>-8.943692857865794E-2</v>
       </c>
       <c r="O304" s="11">
         <f t="shared" si="64"/>
-        <v>-1.0499999999998977</v>
+        <v>-318.12</v>
       </c>
       <c r="P304" s="24">
         <f t="shared" si="65"/>
-        <v>1.3882828702431222E-2</v>
+        <v>1.2250896916350749E-2</v>
       </c>
       <c r="Q304" s="177"/>
       <c r="S304" s="25"/>
@@ -20445,14 +20584,31 @@
       <c r="S309" s="25"/>
     </row>
     <row r="310" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B310" s="114"/>
-      <c r="C310" s="30"/>
-      <c r="D310" s="31"/>
-      <c r="E310" s="120"/>
-      <c r="F310" s="20"/>
-      <c r="G310" s="20"/>
-      <c r="H310" s="14"/>
-      <c r="I310" s="15"/>
+      <c r="B310" s="108">
+        <v>309</v>
+      </c>
+      <c r="C310" s="30">
+        <v>44907</v>
+      </c>
+      <c r="D310" s="31">
+        <v>113046</v>
+      </c>
+      <c r="E310" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="F310" s="20">
+        <v>10</v>
+      </c>
+      <c r="G310" s="20">
+        <v>107.05</v>
+      </c>
+      <c r="H310" s="14">
+        <f t="shared" si="57"/>
+        <v>1070.5</v>
+      </c>
+      <c r="I310" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J310" s="12"/>
       <c r="K310" s="12"/>
       <c r="L310" s="12"/>
@@ -20476,14 +20632,31 @@
       <c r="S310" s="25"/>
     </row>
     <row r="311" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B311" s="114"/>
-      <c r="C311" s="30"/>
-      <c r="D311" s="31"/>
-      <c r="E311" s="120"/>
-      <c r="F311" s="20"/>
-      <c r="G311" s="20"/>
-      <c r="H311" s="14"/>
-      <c r="I311" s="15"/>
+      <c r="B311" s="108">
+        <v>310</v>
+      </c>
+      <c r="C311" s="30">
+        <v>44907</v>
+      </c>
+      <c r="D311" s="31">
+        <v>113017</v>
+      </c>
+      <c r="E311" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F311" s="20">
+        <v>-20</v>
+      </c>
+      <c r="G311" s="20">
+        <v>113.79900000000001</v>
+      </c>
+      <c r="H311" s="14">
+        <f t="shared" si="57"/>
+        <v>-2275.98</v>
+      </c>
+      <c r="I311" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J311" s="12"/>
       <c r="K311" s="12"/>
       <c r="L311" s="12"/>
@@ -20507,395 +20680,813 @@
       <c r="S311" s="25"/>
     </row>
     <row r="312" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B312" s="114"/>
-      <c r="C312" s="30"/>
-      <c r="D312" s="31"/>
-      <c r="E312" s="120"/>
-      <c r="F312" s="20"/>
-      <c r="G312" s="20"/>
-      <c r="H312" s="14"/>
+      <c r="B312" s="108">
+        <v>311</v>
+      </c>
+      <c r="C312" s="30">
+        <v>44908</v>
+      </c>
+      <c r="D312" s="31">
+        <v>127015</v>
+      </c>
+      <c r="E312" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="F312" s="20">
+        <v>40</v>
+      </c>
+      <c r="G312" s="20">
+        <v>109.428</v>
+      </c>
+      <c r="H312" s="14">
+        <f t="shared" ref="H312:H327" si="66">F312*G312</f>
+        <v>4377.12</v>
+      </c>
       <c r="I312" s="15"/>
-      <c r="J312" s="12"/>
-      <c r="K312" s="12"/>
-      <c r="L312" s="12"/>
+      <c r="J312" s="12">
+        <v>107.771</v>
+      </c>
+      <c r="K312" s="12">
+        <v>110</v>
+      </c>
+      <c r="L312" s="12">
+        <v>40</v>
+      </c>
       <c r="M312" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="N312" s="24" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="M312:M326" si="67">J312*L312</f>
+        <v>4310.84</v>
+      </c>
+      <c r="N312" s="24">
+        <f t="shared" ref="N312:N326" si="68">(J312-K312)/K312</f>
+        <v>-2.0263636363636355E-2</v>
       </c>
       <c r="O312" s="11">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" ref="O312:O326" si="69">(J312-K312)*L312</f>
+        <v>-89.159999999999968</v>
       </c>
       <c r="P312" s="24">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f t="shared" ref="P312:P326" si="70">M312/$M$406</f>
+        <v>1.6305933204545348E-2</v>
       </c>
       <c r="Q312" s="84"/>
       <c r="S312" s="25"/>
     </row>
     <row r="313" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B313" s="114"/>
-      <c r="C313" s="30"/>
-      <c r="D313" s="31"/>
-      <c r="E313" s="120"/>
-      <c r="F313" s="20"/>
-      <c r="G313" s="20"/>
-      <c r="H313" s="14"/>
-      <c r="I313" s="15"/>
+      <c r="B313" s="108">
+        <v>312</v>
+      </c>
+      <c r="C313" s="30">
+        <v>44908</v>
+      </c>
+      <c r="D313" s="31">
+        <v>110072</v>
+      </c>
+      <c r="E313" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="F313" s="20">
+        <v>10</v>
+      </c>
+      <c r="G313" s="20">
+        <v>95.408000000000001</v>
+      </c>
+      <c r="H313" s="14">
+        <f t="shared" si="66"/>
+        <v>954.08</v>
+      </c>
+      <c r="I313" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J313" s="12"/>
       <c r="K313" s="12"/>
       <c r="L313" s="12"/>
       <c r="M313" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N313" s="24" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O313" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P313" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q313" s="84"/>
       <c r="S313" s="25"/>
     </row>
     <row r="314" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B314" s="114"/>
-      <c r="C314" s="30"/>
-      <c r="D314" s="31"/>
-      <c r="E314" s="120"/>
-      <c r="F314" s="20"/>
-      <c r="G314" s="20"/>
-      <c r="H314" s="14"/>
-      <c r="I314" s="15"/>
+      <c r="B314" s="108">
+        <v>313</v>
+      </c>
+      <c r="C314" s="30">
+        <v>44908</v>
+      </c>
+      <c r="D314" s="31">
+        <v>127047</v>
+      </c>
+      <c r="E314" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="F314" s="20">
+        <v>-20</v>
+      </c>
+      <c r="G314" s="20">
+        <v>99.299000000000007</v>
+      </c>
+      <c r="H314" s="14">
+        <f t="shared" si="66"/>
+        <v>-1985.98</v>
+      </c>
+      <c r="I314" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J314" s="12"/>
       <c r="K314" s="12"/>
       <c r="L314" s="12"/>
       <c r="M314" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N314" s="24" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O314" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P314" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q314" s="84"/>
       <c r="S314" s="25"/>
     </row>
     <row r="315" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B315" s="114"/>
-      <c r="C315" s="30"/>
-      <c r="D315" s="31"/>
-      <c r="E315" s="120"/>
-      <c r="F315" s="20"/>
-      <c r="G315" s="20"/>
-      <c r="H315" s="14"/>
+      <c r="B315" s="108">
+        <v>314</v>
+      </c>
+      <c r="C315" s="30">
+        <v>44908</v>
+      </c>
+      <c r="D315" s="31">
+        <v>127041</v>
+      </c>
+      <c r="E315" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="F315" s="20">
+        <v>10</v>
+      </c>
+      <c r="G315" s="20">
+        <v>107.17</v>
+      </c>
+      <c r="H315" s="14">
+        <f t="shared" si="66"/>
+        <v>1071.7</v>
+      </c>
       <c r="I315" s="15"/>
-      <c r="J315" s="12"/>
-      <c r="K315" s="12"/>
-      <c r="L315" s="12"/>
+      <c r="J315" s="12">
+        <v>105.5</v>
+      </c>
+      <c r="K315" s="12">
+        <v>107.2</v>
+      </c>
+      <c r="L315" s="12">
+        <v>10</v>
+      </c>
       <c r="M315" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="N315" s="24" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="67"/>
+        <v>1055</v>
+      </c>
+      <c r="N315" s="24">
+        <f t="shared" si="68"/>
+        <v>-1.5858208955223906E-2</v>
       </c>
       <c r="O315" s="11">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" si="69"/>
+        <v>-17.000000000000028</v>
       </c>
       <c r="P315" s="24">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>3.9905817731104238E-3</v>
       </c>
       <c r="Q315" s="84"/>
       <c r="S315" s="25"/>
     </row>
     <row r="316" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B316" s="114"/>
-      <c r="C316" s="30"/>
-      <c r="D316" s="31"/>
-      <c r="E316" s="120"/>
-      <c r="F316" s="20"/>
-      <c r="G316" s="20"/>
-      <c r="H316" s="14"/>
-      <c r="I316" s="15"/>
+      <c r="B316" s="108">
+        <v>315</v>
+      </c>
+      <c r="C316" s="30">
+        <v>44909</v>
+      </c>
+      <c r="D316" s="31">
+        <v>113589</v>
+      </c>
+      <c r="E316" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F316" s="20">
+        <v>10</v>
+      </c>
+      <c r="G316" s="20">
+        <v>96.796000000000006</v>
+      </c>
+      <c r="H316" s="14">
+        <f t="shared" si="66"/>
+        <v>967.96</v>
+      </c>
+      <c r="I316" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J316" s="12"/>
       <c r="K316" s="12"/>
       <c r="L316" s="12"/>
       <c r="M316" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N316" s="24" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O316" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P316" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q316" s="84"/>
       <c r="S316" s="25"/>
     </row>
     <row r="317" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B317" s="114"/>
-      <c r="C317" s="30"/>
-      <c r="D317" s="31"/>
-      <c r="E317" s="120"/>
-      <c r="F317" s="20"/>
-      <c r="G317" s="20"/>
-      <c r="H317" s="14"/>
+      <c r="B317" s="108">
+        <v>316</v>
+      </c>
+      <c r="C317" s="30">
+        <v>44910</v>
+      </c>
+      <c r="D317" s="31">
+        <v>113576</v>
+      </c>
+      <c r="E317" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="F317" s="20">
+        <v>10</v>
+      </c>
+      <c r="G317" s="20">
+        <v>107.515</v>
+      </c>
+      <c r="H317" s="14">
+        <f t="shared" si="66"/>
+        <v>1075.1500000000001</v>
+      </c>
       <c r="I317" s="15"/>
       <c r="J317" s="12"/>
       <c r="K317" s="12"/>
       <c r="L317" s="12"/>
       <c r="M317" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N317" s="24" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O317" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P317" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q317" s="84"/>
       <c r="S317" s="25"/>
     </row>
     <row r="318" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B318" s="114"/>
-      <c r="C318" s="30"/>
-      <c r="D318" s="31"/>
-      <c r="E318" s="120"/>
-      <c r="F318" s="20"/>
-      <c r="G318" s="20"/>
-      <c r="H318" s="14"/>
+      <c r="B318" s="108">
+        <v>317</v>
+      </c>
+      <c r="C318" s="30">
+        <v>44911</v>
+      </c>
+      <c r="D318" s="31">
+        <v>113065</v>
+      </c>
+      <c r="E318" s="120" t="s">
+        <v>253</v>
+      </c>
+      <c r="F318" s="20">
+        <v>10</v>
+      </c>
+      <c r="G318" s="20">
+        <v>100</v>
+      </c>
+      <c r="H318" s="14">
+        <f t="shared" si="66"/>
+        <v>1000</v>
+      </c>
       <c r="I318" s="15"/>
-      <c r="J318" s="12"/>
-      <c r="K318" s="12"/>
-      <c r="L318" s="12"/>
+      <c r="J318" s="12">
+        <v>96.153000000000006</v>
+      </c>
+      <c r="K318" s="12">
+        <v>100</v>
+      </c>
+      <c r="L318" s="12">
+        <v>10</v>
+      </c>
       <c r="M318" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="N318" s="24" t="e">
-        <f t="shared" si="63"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="67"/>
+        <v>961.53000000000009</v>
+      </c>
+      <c r="N318" s="24">
+        <f t="shared" si="68"/>
+        <v>-3.8469999999999942E-2</v>
       </c>
       <c r="O318" s="11">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" si="69"/>
+        <v>-38.469999999999942</v>
       </c>
       <c r="P318" s="24">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f t="shared" si="70"/>
+        <v>3.6370275756387356E-3</v>
       </c>
       <c r="Q318" s="84"/>
       <c r="S318" s="25"/>
     </row>
     <row r="319" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B319" s="114"/>
-      <c r="C319" s="30"/>
-      <c r="D319" s="31"/>
-      <c r="E319" s="120"/>
-      <c r="F319" s="20"/>
-      <c r="G319" s="20"/>
-      <c r="H319" s="14"/>
+      <c r="B319" s="108">
+        <v>318</v>
+      </c>
+      <c r="C319" s="30">
+        <v>44915</v>
+      </c>
+      <c r="D319" s="31">
+        <v>113609</v>
+      </c>
+      <c r="E319" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="F319" s="20">
+        <v>10</v>
+      </c>
+      <c r="G319" s="20">
+        <v>108.389</v>
+      </c>
+      <c r="H319" s="14">
+        <f t="shared" si="66"/>
+        <v>1083.8899999999999</v>
+      </c>
       <c r="I319" s="15"/>
-      <c r="J319" s="12"/>
-      <c r="K319" s="12"/>
-      <c r="L319" s="12"/>
-      <c r="M319" s="11"/>
-      <c r="N319" s="24"/>
-      <c r="O319" s="11"/>
-      <c r="P319" s="24"/>
+      <c r="J319" s="12">
+        <v>108.407</v>
+      </c>
+      <c r="K319" s="12">
+        <v>108.40900000000001</v>
+      </c>
+      <c r="L319" s="12">
+        <v>10</v>
+      </c>
+      <c r="M319" s="11">
+        <f t="shared" si="67"/>
+        <v>1084.07</v>
+      </c>
+      <c r="N319" s="24">
+        <f t="shared" si="68"/>
+        <v>-1.8448652787218307E-5</v>
+      </c>
+      <c r="O319" s="11">
+        <f t="shared" si="69"/>
+        <v>-2.0000000000095497E-2</v>
+      </c>
+      <c r="P319" s="24">
+        <f t="shared" si="70"/>
+        <v>4.1005402680339498E-3</v>
+      </c>
       <c r="Q319" s="84"/>
       <c r="S319" s="25"/>
     </row>
     <row r="320" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B320" s="114"/>
-      <c r="C320" s="30"/>
-      <c r="D320" s="31"/>
-      <c r="E320" s="120"/>
-      <c r="F320" s="20"/>
-      <c r="G320" s="20"/>
-      <c r="H320" s="14"/>
+      <c r="B320" s="108">
+        <v>319</v>
+      </c>
+      <c r="C320" s="30">
+        <v>44917</v>
+      </c>
+      <c r="D320" s="31">
+        <v>113644</v>
+      </c>
+      <c r="E320" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="F320" s="20">
+        <v>10</v>
+      </c>
+      <c r="G320" s="20">
+        <v>107.301</v>
+      </c>
+      <c r="H320" s="14">
+        <f t="shared" si="66"/>
+        <v>1073.01</v>
+      </c>
       <c r="I320" s="15"/>
-      <c r="J320" s="12"/>
-      <c r="K320" s="12"/>
-      <c r="L320" s="12"/>
-      <c r="M320" s="11"/>
-      <c r="N320" s="24"/>
-      <c r="O320" s="11"/>
-      <c r="P320" s="24"/>
+      <c r="J320" s="12">
+        <v>106.529</v>
+      </c>
+      <c r="K320" s="12">
+        <v>107.321</v>
+      </c>
+      <c r="L320" s="12">
+        <v>10</v>
+      </c>
+      <c r="M320" s="11">
+        <f t="shared" si="67"/>
+        <v>1065.29</v>
+      </c>
+      <c r="N320" s="24">
+        <f t="shared" si="68"/>
+        <v>-7.379729968971605E-3</v>
+      </c>
+      <c r="O320" s="11">
+        <f t="shared" si="69"/>
+        <v>-7.9200000000000159</v>
+      </c>
+      <c r="P320" s="24">
+        <f t="shared" si="70"/>
+        <v>4.0295041299306189E-3</v>
+      </c>
       <c r="Q320" s="84"/>
       <c r="S320" s="25"/>
     </row>
     <row r="321" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B321" s="114"/>
-      <c r="C321" s="30"/>
-      <c r="D321" s="31"/>
-      <c r="E321" s="120"/>
-      <c r="F321" s="20"/>
-      <c r="G321" s="20"/>
-      <c r="H321" s="14"/>
+      <c r="B321" s="108">
+        <v>320</v>
+      </c>
+      <c r="C321" s="30">
+        <v>44917</v>
+      </c>
+      <c r="D321" s="31">
+        <v>113058</v>
+      </c>
+      <c r="E321" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="F321" s="20">
+        <v>10</v>
+      </c>
+      <c r="G321" s="20">
+        <v>107.48</v>
+      </c>
+      <c r="H321" s="14">
+        <f t="shared" si="66"/>
+        <v>1074.8</v>
+      </c>
       <c r="I321" s="15"/>
-      <c r="J321" s="12"/>
-      <c r="K321" s="12"/>
-      <c r="L321" s="12"/>
-      <c r="M321" s="11"/>
-      <c r="N321" s="24"/>
-      <c r="O321" s="11"/>
-      <c r="P321" s="24"/>
+      <c r="J321" s="12">
+        <v>108.532</v>
+      </c>
+      <c r="K321" s="12">
+        <v>107.5</v>
+      </c>
+      <c r="L321" s="12">
+        <v>10</v>
+      </c>
+      <c r="M321" s="11">
+        <f t="shared" si="67"/>
+        <v>1085.32</v>
+      </c>
+      <c r="N321" s="24">
+        <f t="shared" si="68"/>
+        <v>9.5999999999999679E-3</v>
+      </c>
+      <c r="O321" s="11">
+        <f t="shared" si="69"/>
+        <v>10.319999999999965</v>
+      </c>
+      <c r="P321" s="24">
+        <f t="shared" si="70"/>
+        <v>4.1052684454902415E-3</v>
+      </c>
       <c r="Q321" s="84"/>
       <c r="S321" s="25"/>
     </row>
     <row r="322" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B322" s="114"/>
-      <c r="C322" s="30"/>
-      <c r="D322" s="31"/>
-      <c r="E322" s="120"/>
-      <c r="F322" s="20"/>
-      <c r="G322" s="20"/>
-      <c r="H322" s="14"/>
+      <c r="B322" s="175">
+        <v>321</v>
+      </c>
+      <c r="C322" s="30">
+        <v>44921</v>
+      </c>
+      <c r="D322" s="31">
+        <v>127024</v>
+      </c>
+      <c r="E322" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="F322" s="20">
+        <v>10</v>
+      </c>
+      <c r="G322" s="20">
+        <v>101.461</v>
+      </c>
+      <c r="H322" s="14">
+        <f t="shared" si="66"/>
+        <v>1014.61</v>
+      </c>
       <c r="I322" s="15"/>
       <c r="J322" s="12"/>
       <c r="K322" s="12"/>
       <c r="L322" s="12"/>
-      <c r="M322" s="11"/>
-      <c r="N322" s="24"/>
-      <c r="O322" s="11"/>
-      <c r="P322" s="24"/>
+      <c r="M322" s="11">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="N322" s="24" t="e">
+        <f t="shared" si="68"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O322" s="11">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="P322" s="24">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
       <c r="Q322" s="84"/>
       <c r="S322" s="25"/>
     </row>
     <row r="323" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B323" s="114"/>
-      <c r="C323" s="30"/>
-      <c r="D323" s="31"/>
-      <c r="E323" s="120"/>
-      <c r="F323" s="20"/>
-      <c r="G323" s="20"/>
-      <c r="H323" s="14"/>
+      <c r="B323" s="175">
+        <v>322</v>
+      </c>
+      <c r="C323" s="30">
+        <v>44921</v>
+      </c>
+      <c r="D323" s="31">
+        <v>118004</v>
+      </c>
+      <c r="E323" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="F323" s="20">
+        <v>10</v>
+      </c>
+      <c r="G323" s="20">
+        <v>108.372</v>
+      </c>
+      <c r="H323" s="14">
+        <f t="shared" si="66"/>
+        <v>1083.72</v>
+      </c>
       <c r="I323" s="15"/>
-      <c r="J323" s="12"/>
-      <c r="K323" s="12"/>
-      <c r="L323" s="12"/>
-      <c r="M323" s="11"/>
-      <c r="N323" s="24"/>
-      <c r="O323" s="11"/>
-      <c r="P323" s="24"/>
+      <c r="J323" s="12">
+        <v>108.64</v>
+      </c>
+      <c r="K323" s="12">
+        <v>108.402</v>
+      </c>
+      <c r="L323" s="12">
+        <v>10</v>
+      </c>
+      <c r="M323" s="11">
+        <f t="shared" si="67"/>
+        <v>1086.4000000000001</v>
+      </c>
+      <c r="N323" s="24">
+        <f t="shared" si="68"/>
+        <v>2.1955314477592621E-3</v>
+      </c>
+      <c r="O323" s="11">
+        <f t="shared" si="69"/>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="P323" s="24">
+        <f t="shared" si="70"/>
+        <v>4.1093535908124784E-3</v>
+      </c>
       <c r="Q323" s="84"/>
       <c r="S323" s="25"/>
     </row>
     <row r="324" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B324" s="114"/>
-      <c r="C324" s="30"/>
-      <c r="D324" s="31"/>
-      <c r="E324" s="120"/>
-      <c r="F324" s="20"/>
-      <c r="G324" s="20"/>
-      <c r="H324" s="14"/>
+      <c r="B324" s="175">
+        <v>323</v>
+      </c>
+      <c r="C324" s="30">
+        <v>44923</v>
+      </c>
+      <c r="D324" s="31">
+        <v>118005</v>
+      </c>
+      <c r="E324" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="F324" s="20">
+        <v>10</v>
+      </c>
+      <c r="G324" s="20">
+        <v>106.276</v>
+      </c>
+      <c r="H324" s="14">
+        <f t="shared" si="66"/>
+        <v>1062.76</v>
+      </c>
       <c r="I324" s="15"/>
-      <c r="J324" s="12"/>
-      <c r="K324" s="12"/>
-      <c r="L324" s="12"/>
-      <c r="M324" s="11"/>
-      <c r="N324" s="24"/>
-      <c r="O324" s="11"/>
-      <c r="P324" s="24"/>
+      <c r="J324" s="12">
+        <v>104.97799999999999</v>
+      </c>
+      <c r="K324" s="12">
+        <v>106.306</v>
+      </c>
+      <c r="L324" s="12">
+        <v>10</v>
+      </c>
+      <c r="M324" s="11">
+        <f t="shared" si="67"/>
+        <v>1049.78</v>
+      </c>
+      <c r="N324" s="24">
+        <f t="shared" si="68"/>
+        <v>-1.2492239384418593E-2</v>
+      </c>
+      <c r="O324" s="11">
+        <f t="shared" si="69"/>
+        <v>-13.28000000000003</v>
+      </c>
+      <c r="P324" s="24">
+        <f t="shared" si="70"/>
+        <v>3.9708369040529481E-3</v>
+      </c>
       <c r="Q324" s="84"/>
       <c r="S324" s="25"/>
     </row>
     <row r="325" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B325" s="114"/>
-      <c r="C325" s="30"/>
-      <c r="D325" s="31"/>
-      <c r="E325" s="120"/>
-      <c r="F325" s="20"/>
-      <c r="G325" s="20"/>
-      <c r="H325" s="14"/>
+      <c r="B325" s="175">
+        <v>324</v>
+      </c>
+      <c r="C325" s="30">
+        <v>44924</v>
+      </c>
+      <c r="D325" s="31">
+        <v>113610</v>
+      </c>
+      <c r="E325" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="F325" s="20">
+        <v>10</v>
+      </c>
+      <c r="G325" s="20">
+        <v>107.94499999999999</v>
+      </c>
+      <c r="H325" s="14">
+        <f t="shared" si="66"/>
+        <v>1079.4499999999998</v>
+      </c>
       <c r="I325" s="15"/>
-      <c r="J325" s="12"/>
-      <c r="K325" s="12"/>
-      <c r="L325" s="12"/>
-      <c r="M325" s="11"/>
-      <c r="N325" s="24"/>
-      <c r="O325" s="11"/>
-      <c r="P325" s="24"/>
+      <c r="J325" s="12">
+        <v>107.423</v>
+      </c>
+      <c r="K325" s="12">
+        <v>107.97499999999999</v>
+      </c>
+      <c r="L325" s="12">
+        <v>10</v>
+      </c>
+      <c r="M325" s="11">
+        <f t="shared" si="67"/>
+        <v>1074.23</v>
+      </c>
+      <c r="N325" s="24">
+        <f t="shared" si="68"/>
+        <v>-5.1122945126185924E-3</v>
+      </c>
+      <c r="O325" s="11">
+        <f t="shared" si="69"/>
+        <v>-5.519999999999925</v>
+      </c>
+      <c r="P325" s="24">
+        <f t="shared" si="70"/>
+        <v>4.0633200550980195E-3</v>
+      </c>
       <c r="Q325" s="84"/>
       <c r="S325" s="25"/>
     </row>
     <row r="326" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B326" s="114"/>
-      <c r="C326" s="30"/>
-      <c r="D326" s="31"/>
-      <c r="E326" s="120"/>
-      <c r="F326" s="20"/>
-      <c r="G326" s="20"/>
-      <c r="H326" s="14"/>
+      <c r="B326" s="175">
+        <v>325</v>
+      </c>
+      <c r="C326" s="30">
+        <v>44925</v>
+      </c>
+      <c r="D326" s="31">
+        <v>118010</v>
+      </c>
+      <c r="E326" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="F326" s="20">
+        <v>10</v>
+      </c>
+      <c r="G326" s="20">
+        <v>104.93</v>
+      </c>
+      <c r="H326" s="14">
+        <f t="shared" si="66"/>
+        <v>1049.3000000000002</v>
+      </c>
       <c r="I326" s="15"/>
-      <c r="J326" s="12"/>
-      <c r="K326" s="12"/>
-      <c r="L326" s="12"/>
-      <c r="M326" s="11"/>
-      <c r="N326" s="24"/>
-      <c r="O326" s="11"/>
-      <c r="P326" s="24"/>
+      <c r="J326" s="12">
+        <v>104.965</v>
+      </c>
+      <c r="K326" s="12">
+        <v>104.95</v>
+      </c>
+      <c r="L326" s="12">
+        <v>10</v>
+      </c>
+      <c r="M326" s="11">
+        <f t="shared" si="67"/>
+        <v>1049.6500000000001</v>
+      </c>
+      <c r="N326" s="24">
+        <f t="shared" si="68"/>
+        <v>1.429252024773756E-4</v>
+      </c>
+      <c r="O326" s="11">
+        <f t="shared" si="69"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="P326" s="24">
+        <f t="shared" si="70"/>
+        <v>3.970345173597495E-3</v>
+      </c>
       <c r="Q326" s="84"/>
       <c r="S326" s="25"/>
     </row>
     <row r="327" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B327" s="114"/>
-      <c r="C327" s="30"/>
-      <c r="D327" s="31"/>
-      <c r="E327" s="120"/>
-      <c r="F327" s="20"/>
-      <c r="G327" s="20"/>
-      <c r="H327" s="14"/>
-      <c r="I327" s="15"/>
+      <c r="B327" s="175">
+        <v>326</v>
+      </c>
+      <c r="C327" s="30">
+        <v>44925</v>
+      </c>
+      <c r="D327" s="31">
+        <v>127047</v>
+      </c>
+      <c r="E327" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="F327" s="20">
+        <v>10</v>
+      </c>
+      <c r="G327" s="20">
+        <v>96.105999999999995</v>
+      </c>
+      <c r="H327" s="14">
+        <f t="shared" si="66"/>
+        <v>961.06</v>
+      </c>
+      <c r="I327" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="J327" s="12"/>
       <c r="K327" s="12"/>
       <c r="L327" s="12"/>
-      <c r="M327" s="11"/>
-      <c r="N327" s="24"/>
-      <c r="O327" s="11"/>
-      <c r="P327" s="24"/>
+      <c r="M327" s="11">
+        <f t="shared" ref="M327:M342" si="71">J327*L327</f>
+        <v>0</v>
+      </c>
+      <c r="N327" s="24" t="e">
+        <f t="shared" ref="N327:N342" si="72">(J327-K327)/K327</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O327" s="11">
+        <f t="shared" ref="O327:O342" si="73">(J327-K327)*L327</f>
+        <v>0</v>
+      </c>
+      <c r="P327" s="24">
+        <f t="shared" ref="P327:P342" si="74">M327/$M$406</f>
+        <v>0</v>
+      </c>
       <c r="Q327" s="84"/>
       <c r="S327" s="25"/>
     </row>
     <row r="328" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B328" s="114"/>
+      <c r="B328" s="175">
+        <v>327</v>
+      </c>
       <c r="C328" s="30"/>
       <c r="D328" s="31"/>
       <c r="E328" s="120"/>
@@ -20906,15 +21497,29 @@
       <c r="J328" s="12"/>
       <c r="K328" s="12"/>
       <c r="L328" s="12"/>
-      <c r="M328" s="11"/>
-      <c r="N328" s="24"/>
-      <c r="O328" s="11"/>
-      <c r="P328" s="24"/>
+      <c r="M328" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N328" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O328" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P328" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q328" s="84"/>
       <c r="S328" s="25"/>
     </row>
     <row r="329" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B329" s="114"/>
+      <c r="B329" s="175">
+        <v>328</v>
+      </c>
       <c r="C329" s="30"/>
       <c r="D329" s="31"/>
       <c r="E329" s="120"/>
@@ -20925,15 +21530,29 @@
       <c r="J329" s="12"/>
       <c r="K329" s="12"/>
       <c r="L329" s="12"/>
-      <c r="M329" s="11"/>
-      <c r="N329" s="24"/>
-      <c r="O329" s="11"/>
-      <c r="P329" s="24"/>
+      <c r="M329" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N329" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O329" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P329" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q329" s="84"/>
       <c r="S329" s="25"/>
     </row>
     <row r="330" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B330" s="114"/>
+      <c r="B330" s="175">
+        <v>329</v>
+      </c>
       <c r="C330" s="30"/>
       <c r="D330" s="31"/>
       <c r="E330" s="120"/>
@@ -20944,15 +21563,29 @@
       <c r="J330" s="12"/>
       <c r="K330" s="12"/>
       <c r="L330" s="12"/>
-      <c r="M330" s="11"/>
-      <c r="N330" s="24"/>
-      <c r="O330" s="11"/>
-      <c r="P330" s="24"/>
+      <c r="M330" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N330" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O330" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P330" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q330" s="84"/>
       <c r="S330" s="25"/>
     </row>
     <row r="331" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B331" s="114"/>
+      <c r="B331" s="175">
+        <v>330</v>
+      </c>
       <c r="C331" s="30"/>
       <c r="D331" s="31"/>
       <c r="E331" s="120"/>
@@ -20963,15 +21596,29 @@
       <c r="J331" s="12"/>
       <c r="K331" s="12"/>
       <c r="L331" s="12"/>
-      <c r="M331" s="11"/>
-      <c r="N331" s="24"/>
-      <c r="O331" s="11"/>
-      <c r="P331" s="24"/>
+      <c r="M331" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N331" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O331" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P331" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q331" s="84"/>
       <c r="S331" s="25"/>
     </row>
     <row r="332" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B332" s="114"/>
+      <c r="B332" s="175">
+        <v>331</v>
+      </c>
       <c r="C332" s="30"/>
       <c r="D332" s="31"/>
       <c r="E332" s="120"/>
@@ -20982,10 +21629,22 @@
       <c r="J332" s="12"/>
       <c r="K332" s="12"/>
       <c r="L332" s="12"/>
-      <c r="M332" s="11"/>
-      <c r="N332" s="24"/>
-      <c r="O332" s="11"/>
-      <c r="P332" s="24"/>
+      <c r="M332" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N332" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O332" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P332" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q332" s="84"/>
       <c r="S332" s="25"/>
     </row>
@@ -21001,10 +21660,22 @@
       <c r="J333" s="12"/>
       <c r="K333" s="12"/>
       <c r="L333" s="12"/>
-      <c r="M333" s="11"/>
-      <c r="N333" s="24"/>
-      <c r="O333" s="11"/>
-      <c r="P333" s="24"/>
+      <c r="M333" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N333" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O333" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P333" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q333" s="84"/>
       <c r="S333" s="25"/>
     </row>
@@ -21020,10 +21691,22 @@
       <c r="J334" s="12"/>
       <c r="K334" s="12"/>
       <c r="L334" s="12"/>
-      <c r="M334" s="11"/>
-      <c r="N334" s="24"/>
-      <c r="O334" s="11"/>
-      <c r="P334" s="24"/>
+      <c r="M334" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N334" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O334" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P334" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q334" s="84"/>
       <c r="S334" s="25"/>
     </row>
@@ -21039,10 +21722,22 @@
       <c r="J335" s="12"/>
       <c r="K335" s="12"/>
       <c r="L335" s="12"/>
-      <c r="M335" s="11"/>
-      <c r="N335" s="24"/>
-      <c r="O335" s="11"/>
-      <c r="P335" s="24"/>
+      <c r="M335" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N335" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O335" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P335" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q335" s="84"/>
       <c r="S335" s="25"/>
     </row>
@@ -21058,10 +21753,22 @@
       <c r="J336" s="12"/>
       <c r="K336" s="12"/>
       <c r="L336" s="12"/>
-      <c r="M336" s="11"/>
-      <c r="N336" s="24"/>
-      <c r="O336" s="11"/>
-      <c r="P336" s="24"/>
+      <c r="M336" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N336" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O336" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P336" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q336" s="84"/>
       <c r="S336" s="25"/>
     </row>
@@ -21077,10 +21784,22 @@
       <c r="J337" s="12"/>
       <c r="K337" s="12"/>
       <c r="L337" s="12"/>
-      <c r="M337" s="11"/>
-      <c r="N337" s="24"/>
-      <c r="O337" s="11"/>
-      <c r="P337" s="24"/>
+      <c r="M337" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N337" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O337" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P337" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q337" s="84"/>
       <c r="S337" s="25"/>
     </row>
@@ -21096,10 +21815,22 @@
       <c r="J338" s="12"/>
       <c r="K338" s="12"/>
       <c r="L338" s="12"/>
-      <c r="M338" s="11"/>
-      <c r="N338" s="24"/>
-      <c r="O338" s="11"/>
-      <c r="P338" s="24"/>
+      <c r="M338" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N338" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O338" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P338" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q338" s="84"/>
       <c r="S338" s="25"/>
     </row>
@@ -21115,10 +21846,22 @@
       <c r="J339" s="12"/>
       <c r="K339" s="12"/>
       <c r="L339" s="12"/>
-      <c r="M339" s="11"/>
-      <c r="N339" s="24"/>
-      <c r="O339" s="11"/>
-      <c r="P339" s="24"/>
+      <c r="M339" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N339" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O339" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P339" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q339" s="84"/>
       <c r="S339" s="25"/>
     </row>
@@ -21134,10 +21877,22 @@
       <c r="J340" s="12"/>
       <c r="K340" s="12"/>
       <c r="L340" s="12"/>
-      <c r="M340" s="11"/>
-      <c r="N340" s="24"/>
-      <c r="O340" s="11"/>
-      <c r="P340" s="24"/>
+      <c r="M340" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N340" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O340" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P340" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q340" s="84"/>
       <c r="S340" s="25"/>
     </row>
@@ -21153,10 +21908,22 @@
       <c r="J341" s="12"/>
       <c r="K341" s="12"/>
       <c r="L341" s="12"/>
-      <c r="M341" s="11"/>
-      <c r="N341" s="24"/>
-      <c r="O341" s="11"/>
-      <c r="P341" s="24"/>
+      <c r="M341" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N341" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O341" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P341" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q341" s="84"/>
       <c r="S341" s="25"/>
     </row>
@@ -21172,10 +21939,22 @@
       <c r="J342" s="12"/>
       <c r="K342" s="12"/>
       <c r="L342" s="12"/>
-      <c r="M342" s="11"/>
-      <c r="N342" s="24"/>
-      <c r="O342" s="11"/>
-      <c r="P342" s="24"/>
+      <c r="M342" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="N342" s="24" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O342" s="11">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="P342" s="24">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="Q342" s="84"/>
       <c r="S342" s="25"/>
     </row>
@@ -21191,10 +21970,22 @@
       <c r="J343" s="12"/>
       <c r="K343" s="12"/>
       <c r="L343" s="12"/>
-      <c r="M343" s="11"/>
-      <c r="N343" s="24"/>
-      <c r="O343" s="11"/>
-      <c r="P343" s="24"/>
+      <c r="M343" s="11">
+        <f t="shared" ref="M343:M347" si="75">J343*L343</f>
+        <v>0</v>
+      </c>
+      <c r="N343" s="24" t="e">
+        <f t="shared" ref="N343:N347" si="76">(J343-K343)/K343</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O343" s="11">
+        <f t="shared" ref="O343:O347" si="77">(J343-K343)*L343</f>
+        <v>0</v>
+      </c>
+      <c r="P343" s="24">
+        <f t="shared" ref="P343:P347" si="78">M343/$M$406</f>
+        <v>0</v>
+      </c>
       <c r="Q343" s="84"/>
       <c r="S343" s="25"/>
     </row>
@@ -21210,10 +22001,22 @@
       <c r="J344" s="12"/>
       <c r="K344" s="12"/>
       <c r="L344" s="12"/>
-      <c r="M344" s="11"/>
-      <c r="N344" s="24"/>
-      <c r="O344" s="11"/>
-      <c r="P344" s="24"/>
+      <c r="M344" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N344" s="24" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O344" s="11">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="P344" s="24">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
       <c r="Q344" s="84"/>
       <c r="S344" s="25"/>
     </row>
@@ -21229,10 +22032,22 @@
       <c r="J345" s="12"/>
       <c r="K345" s="12"/>
       <c r="L345" s="12"/>
-      <c r="M345" s="11"/>
-      <c r="N345" s="24"/>
-      <c r="O345" s="11"/>
-      <c r="P345" s="24"/>
+      <c r="M345" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N345" s="24" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O345" s="11">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="P345" s="24">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
       <c r="Q345" s="84"/>
       <c r="S345" s="25"/>
     </row>
@@ -21248,10 +22063,22 @@
       <c r="J346" s="12"/>
       <c r="K346" s="12"/>
       <c r="L346" s="12"/>
-      <c r="M346" s="11"/>
-      <c r="N346" s="24"/>
-      <c r="O346" s="11"/>
-      <c r="P346" s="24"/>
+      <c r="M346" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N346" s="24" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O346" s="11">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="P346" s="24">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
       <c r="Q346" s="84"/>
       <c r="S346" s="25"/>
     </row>
@@ -21267,10 +22094,22 @@
       <c r="J347" s="12"/>
       <c r="K347" s="12"/>
       <c r="L347" s="12"/>
-      <c r="M347" s="11"/>
-      <c r="N347" s="24"/>
-      <c r="O347" s="11"/>
-      <c r="P347" s="24"/>
+      <c r="M347" s="11">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="N347" s="24" t="e">
+        <f t="shared" si="76"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O347" s="11">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="P347" s="24">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
       <c r="Q347" s="84"/>
       <c r="S347" s="25"/>
     </row>
@@ -22384,12 +23223,12 @@
       <c r="E406" s="120"/>
       <c r="F406" s="20">
         <f>SUM(F3:F405)</f>
-        <v>2410</v>
+        <v>2560</v>
       </c>
       <c r="G406" s="20"/>
       <c r="H406" s="14">
         <f>SUM(H3:H405)</f>
-        <v>240984.31999999986</v>
+        <v>256721.46999999983</v>
       </c>
       <c r="I406" s="15"/>
       <c r="J406" s="12">
@@ -22398,19 +23237,19 @@
       <c r="K406" s="12"/>
       <c r="L406" s="12">
         <f>SUM(L3:L405)</f>
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="M406" s="11">
         <f>SUM(M3:M405)</f>
-        <v>256134.40000000002</v>
+        <v>264372.47999999998</v>
       </c>
       <c r="N406" s="24">
         <f>O406/M406</f>
-        <v>4.589145386172256E-2</v>
+        <v>1.5996559097225235E-2</v>
       </c>
       <c r="O406" s="11">
         <f>SUM(O3:O405)</f>
-        <v>11754.379999999992</v>
+        <v>4229.0499999999965</v>
       </c>
       <c r="P406" s="24"/>
       <c r="Q406" s="84"/>
@@ -22522,9 +23361,10 @@
     <hyperlink ref="D179" r:id="rId12" display="https://www.jisilu.cn/data/convert_bond_detail/128132" xr:uid="{5CEA3D59-2AC8-42C1-9B30-CDE7EDCF6963}"/>
     <hyperlink ref="D187" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{E4105EDE-E890-46CB-A86A-A8FBB8727CAD}"/>
     <hyperlink ref="D250" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{EAFE6F4B-A9A3-4C5D-92D9-28153EB904DA}"/>
+    <hyperlink ref="D316" r:id="rId15" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{BF21E260-D674-4FFE-9B79-FE73C895AD61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/2022/CB-M-week-lowPrice.xlsx
+++ b/2022/CB-M-week-lowPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C925D5-285D-48AA-8D29-6B0E574A65B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6E1EF2-792F-4F85-B1C2-134D3ED72B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -26,17 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5322,7 +5311,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>101.459</v>
+        <v>101.447</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -5332,19 +5321,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4058.36</v>
+        <v>4057.88</v>
       </c>
       <c r="N4" s="24">
         <f t="shared" si="1"/>
-        <v>-1.2189541529144837E-2</v>
+        <v>-1.230637419555837E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>-50.079999999999814</v>
+        <v>-50.559999999999832</v>
       </c>
       <c r="P4" s="24">
         <f t="shared" si="2"/>
-        <v>1.5350917009213668E-2</v>
+        <v>1.5305165087757798E-2</v>
       </c>
       <c r="Q4" s="84"/>
       <c r="S4" s="25"/>
@@ -5430,7 +5419,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="12">
-        <v>106.52</v>
+        <v>106.7</v>
       </c>
       <c r="K6" s="12">
         <v>95.370999999999995</v>
@@ -5440,19 +5429,19 @@
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>1065.2</v>
+        <v>1067</v>
       </c>
       <c r="N6" s="24">
         <f t="shared" si="1"/>
-        <v>0.1169013641463338</v>
+        <v>0.118788730326829</v>
       </c>
       <c r="O6" s="11">
         <f>(J6-K6)*L6</f>
-        <v>111.49000000000001</v>
+        <v>113.29000000000008</v>
       </c>
       <c r="P6" s="24">
         <f t="shared" si="2"/>
-        <v>4.0291637011537667E-3</v>
+        <v>4.0244194378930799E-3</v>
       </c>
       <c r="Q6" s="84"/>
       <c r="R6" s="51"/>
@@ -5483,7 +5472,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>110.17</v>
+        <v>110.36499999999999</v>
       </c>
       <c r="K7" s="12">
         <v>106.36499999999999</v>
@@ -5493,19 +5482,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>9915.2999999999993</v>
+        <v>9932.85</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="1"/>
-        <v>3.5773045644714022E-2</v>
+        <v>3.760635547407512E-2</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>342.45000000000061</v>
+        <v>360</v>
       </c>
       <c r="P7" s="24">
         <f t="shared" si="2"/>
-        <v>3.7505038345897426E-2</v>
+        <v>3.7463874989387323E-2</v>
       </c>
       <c r="Q7" s="84"/>
       <c r="S7" s="25"/>
@@ -5534,7 +5523,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>106.233</v>
+        <v>107.015</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -5544,19 +5533,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3186.9900000000002</v>
+        <v>3210.45</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" si="1"/>
-        <v>5.5467736897403478E-3</v>
+        <v>1.294878226546892E-2</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>17.579999999999956</v>
+        <v>41.03999999999985</v>
       </c>
       <c r="P8" s="24">
         <f t="shared" si="2"/>
-        <v>1.2054923417142361E-2</v>
+        <v>1.2108901016292256E-2</v>
       </c>
       <c r="Q8" s="84"/>
       <c r="S8" s="25"/>
@@ -5583,7 +5572,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="12">
-        <v>110.9</v>
+        <v>112.94199999999999</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -5593,19 +5582,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1109</v>
+        <v>1129.4199999999998</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0.1268034952245479</v>
+        <v>0.14755131070920535</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>124.80000000000004</v>
+        <v>145.21999999999991</v>
       </c>
       <c r="P9" s="24">
         <f t="shared" si="2"/>
-        <v>4.1948390392222371E-3</v>
+        <v>4.2598498608671055E-3</v>
       </c>
       <c r="Q9" s="84"/>
       <c r="S9" s="25"/>
@@ -5791,7 +5780,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="12">
-        <v>103.389</v>
+        <v>103.343</v>
       </c>
       <c r="K13" s="12">
         <v>103.81699999999999</v>
@@ -5801,19 +5790,19 @@
       </c>
       <c r="M13" s="11">
         <f t="shared" si="0"/>
-        <v>3101.67</v>
+        <v>3100.29</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>-4.1226388741727972E-3</v>
+        <v>-4.5657262298081196E-3</v>
       </c>
       <c r="O13" s="11">
         <f>(J13-K13)*L13</f>
-        <v>-12.839999999999918</v>
+        <v>-14.219999999999686</v>
       </c>
       <c r="P13" s="24">
         <f t="shared" si="2"/>
-        <v>1.1732196936685696E-2</v>
+        <v>1.1693408940117653E-2</v>
       </c>
       <c r="Q13" s="84"/>
       <c r="S13" s="25"/>
@@ -5982,7 +5971,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="12">
-        <v>115.057</v>
+        <v>115.76</v>
       </c>
       <c r="K17" s="12">
         <v>111.39400000000001</v>
@@ -5992,19 +5981,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>6903.42</v>
+        <v>6945.6</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>3.2883279171230018E-2</v>
+        <v>3.9194211537425708E-2</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>219.7799999999998</v>
+        <v>261.95999999999998</v>
       </c>
       <c r="P17" s="24">
         <f t="shared" si="2"/>
-        <v>2.6112475852252098E-2</v>
+        <v>2.6196820663383483E-2</v>
       </c>
       <c r="Q17" s="84"/>
       <c r="S17" s="46"/>
@@ -6037,7 +6026,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="12">
-        <v>112.47</v>
+        <v>115.77800000000001</v>
       </c>
       <c r="K18" s="12">
         <v>108.61499999999999</v>
@@ -6047,19 +6036,19 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="0"/>
-        <v>2249.4</v>
+        <v>2315.56</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>3.5492335312802138E-2</v>
+        <v>6.5948533812088678E-2</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="3"/>
-        <v>77.10000000000008</v>
+        <v>143.26000000000022</v>
       </c>
       <c r="P18" s="24">
         <f t="shared" si="2"/>
-        <v>8.508449896146528E-3</v>
+        <v>8.7336313717035607E-3</v>
       </c>
       <c r="Q18" s="84"/>
       <c r="R18" s="50"/>
@@ -6091,7 +6080,7 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="12">
-        <v>92.798000000000002</v>
+        <v>93.200999999999993</v>
       </c>
       <c r="K19" s="12">
         <v>95.123000000000005</v>
@@ -6101,19 +6090,19 @@
       </c>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
-        <v>15775.66</v>
+        <v>15844.169999999998</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>-2.4442038203168558E-2</v>
+        <v>-2.0205418247952769E-2</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" si="3"/>
-        <v>-395.25000000000045</v>
+        <v>-326.74000000000194</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="2"/>
-        <v>5.9672095976101604E-2</v>
+        <v>5.9759686715353692E-2</v>
       </c>
       <c r="Q19" s="84"/>
       <c r="S19" s="25"/>
@@ -6143,7 +6132,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>96.432000000000002</v>
+        <v>96.81</v>
       </c>
       <c r="K20" s="12">
         <v>98.27</v>
@@ -6153,19 +6142,19 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>7714.56</v>
+        <v>7744.8</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>-1.8703571792001567E-2</v>
+        <v>-1.4857026559478924E-2</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>-147.03999999999951</v>
+        <v>-116.7999999999995</v>
       </c>
       <c r="P20" s="24">
         <f t="shared" si="2"/>
-        <v>2.9180646941769434E-2</v>
+        <v>2.9211174941512957E-2</v>
       </c>
       <c r="Q20" s="84"/>
       <c r="S20" s="25"/>
@@ -6197,7 +6186,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="12">
-        <v>106.586</v>
+        <v>106.44799999999999</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -6207,19 +6196,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2131.7199999999998</v>
+        <v>2128.96</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>3.7888894298651402E-2</v>
+        <v>3.654510930425045E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>77.820000000000107</v>
+        <v>75.06</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="2"/>
-        <v>8.063320357701376E-3</v>
+        <v>8.0298294343925502E-3</v>
       </c>
       <c r="Q21" s="84"/>
       <c r="S21" s="25"/>
@@ -6249,7 +6238,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>107.09099999999999</v>
+        <v>108.16</v>
       </c>
       <c r="K22" s="12">
         <v>98.962000000000003</v>
@@ -6259,19 +6248,19 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>10709.099999999999</v>
+        <v>10816</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>8.2142640609526793E-2</v>
+        <v>9.2944766678118809E-2</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>812.89999999999907</v>
+        <v>919.79999999999927</v>
       </c>
       <c r="P22" s="24">
         <f t="shared" si="2"/>
-        <v>4.0507620157741078E-2</v>
+        <v>4.0794864705015511E-2</v>
       </c>
       <c r="Q22" s="84"/>
       <c r="S22" s="25"/>
@@ -6300,7 +6289,7 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>95.412999999999997</v>
+        <v>95.724999999999994</v>
       </c>
       <c r="K23" s="12">
         <v>96.222999999999999</v>
@@ -6310,19 +6299,19 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>6678.91</v>
+        <v>6700.75</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>-8.4179458133710472E-3</v>
+        <v>-5.1754777963689E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>-56.700000000000159</v>
+        <v>-34.860000000000326</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="2"/>
-        <v>2.5263257355682408E-2</v>
+        <v>2.5273316352822917E-2</v>
       </c>
       <c r="Q23" s="84"/>
       <c r="S23" s="25"/>
@@ -6452,7 +6441,7 @@
         <v>52</v>
       </c>
       <c r="J26" s="12">
-        <v>107.23699999999999</v>
+        <v>107.114</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -6462,19 +6451,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1072.3699999999999</v>
+        <v>1071.1400000000001</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>3.3141612956058442E-2</v>
+        <v>3.1956607609083185E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>34.399999999999977</v>
+        <v>33.170000000000073</v>
       </c>
       <c r="P26" s="24">
         <f t="shared" si="2"/>
-        <v>4.056284527043057E-3</v>
+        <v>4.040034336180688E-3</v>
       </c>
       <c r="Q26" s="84"/>
       <c r="S26" s="25"/>
@@ -6549,7 +6538,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>109.977</v>
+        <v>111.926</v>
       </c>
       <c r="K28" s="12">
         <v>124.729</v>
@@ -6559,19 +6548,19 @@
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>6598.62</v>
+        <v>6715.56</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="1"/>
-        <v>-0.11827241459484159</v>
+        <v>-0.10264653769371997</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-885.11999999999966</v>
+        <v>-768.17999999999984</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" si="2"/>
-        <v>2.4959557061309864E-2</v>
+        <v>2.5329175445489457E-2</v>
       </c>
       <c r="Q28" s="84" t="s">
         <v>54</v>
@@ -6651,7 +6640,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>100.352</v>
+        <v>100.504</v>
       </c>
       <c r="K30" s="12">
         <v>101.34</v>
@@ -6661,19 +6650,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>3010.56</v>
+        <v>3015.1200000000003</v>
       </c>
       <c r="N30" s="24">
         <f t="shared" si="1"/>
-        <v>-9.7493585948292827E-3</v>
+        <v>-8.2494572725478436E-3</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>-29.639999999999986</v>
+        <v>-25.079999999999956</v>
       </c>
       <c r="P30" s="24">
         <f t="shared" si="2"/>
-        <v>1.1387569538251485E-2</v>
+        <v>1.137217201085303E-2</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="S30" s="25"/>
@@ -6705,7 +6694,7 @@
         <v>52</v>
       </c>
       <c r="J31" s="12">
-        <v>111.071</v>
+        <v>111.694</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -6715,19 +6704,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1110.71</v>
+        <v>1116.94</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="1"/>
-        <v>9.2992590114248069E-2</v>
+        <v>9.9123212721780027E-2</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>94.500000000000028</v>
+        <v>100.73000000000008</v>
       </c>
       <c r="P31" s="24">
         <f t="shared" si="2"/>
-        <v>4.2013071859824443E-3</v>
+        <v>4.21277886313055E-3</v>
       </c>
       <c r="Q31" s="84"/>
       <c r="R31" s="7"/>
@@ -6808,7 +6797,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>104.559</v>
+        <v>104.596</v>
       </c>
       <c r="K33" s="12">
         <v>102.991</v>
@@ -6818,19 +6807,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>10455.9</v>
+        <v>10459.6</v>
       </c>
       <c r="N33" s="24">
         <f t="shared" si="1"/>
-        <v>1.5224631278461204E-2</v>
+        <v>1.5583885970618831E-2</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>156.79999999999978</v>
+        <v>160.5000000000004</v>
       </c>
       <c r="P33" s="24">
         <f t="shared" si="2"/>
-        <v>3.9549880532194576E-2</v>
+        <v>3.9450625635038851E-2</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="8"/>
@@ -6912,7 +6901,7 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>93.3</v>
+        <v>93.516000000000005</v>
       </c>
       <c r="K35" s="12">
         <v>97.409000000000006</v>
@@ -6922,19 +6911,19 @@
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>9330</v>
+        <v>9351.6</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>-4.2182960506729449E-2</v>
+        <v>-3.9965506267388026E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>-410.90000000000089</v>
+        <v>-389.30000000000007</v>
       </c>
       <c r="P35" s="24">
         <f t="shared" ref="P35:P66" si="8">M35/$M$406</f>
-        <v>3.5291116533763274E-2</v>
+        <v>3.5271565900094587E-2</v>
       </c>
       <c r="Q35" s="84"/>
       <c r="S35" s="25"/>
@@ -7449,7 +7438,7 @@
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="12">
-        <v>117.41200000000001</v>
+        <v>124.101</v>
       </c>
       <c r="K46" s="12">
         <v>127.94799999999999</v>
@@ -7459,19 +7448,19 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="6"/>
-        <v>4696.4800000000005</v>
+        <v>4964.04</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="7"/>
-        <v>-8.2345953043423792E-2</v>
+        <v>-3.0066902179010178E-2</v>
       </c>
       <c r="O46" s="11">
         <f t="shared" si="9"/>
-        <v>-421.43999999999949</v>
+        <v>-153.87999999999977</v>
       </c>
       <c r="P46" s="24">
         <f t="shared" si="8"/>
-        <v>1.7764632687940898E-2</v>
+        <v>1.8722941955462757E-2</v>
       </c>
       <c r="Q46" s="84"/>
       <c r="S46" s="25"/>
@@ -7504,7 +7493,7 @@
         <v>66</v>
       </c>
       <c r="J47" s="12">
-        <v>115.089</v>
+        <v>115.03700000000001</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -7514,19 +7503,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2301.7799999999997</v>
+        <v>2300.7400000000002</v>
       </c>
       <c r="N47" s="24">
         <f t="shared" si="7"/>
-        <v>-7.0830817013199723E-3</v>
+        <v>-7.5317056336812226E-3</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="9"/>
-        <v>-16.419999999999959</v>
+        <v>-17.459999999999809</v>
       </c>
       <c r="P47" s="24">
         <f t="shared" si="8"/>
-        <v>8.7065794442749856E-3</v>
+        <v>8.6777345618914009E-3</v>
       </c>
       <c r="Q47" s="84"/>
       <c r="S47" s="25"/>
@@ -8186,7 +8175,7 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="12">
-        <v>101.004</v>
+        <v>100.529</v>
       </c>
       <c r="K61" s="12">
         <v>96.122</v>
@@ -8196,19 +8185,19 @@
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="11">J61*L61</f>
-        <v>10100.4</v>
+        <v>10052.9</v>
       </c>
       <c r="N61" s="24">
         <f t="shared" ref="N61:N95" si="12">(J61-K61)/K61</f>
-        <v>5.0789621522648355E-2</v>
+        <v>4.5847984852583137E-2</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
-        <v>488.2000000000005</v>
+        <v>440.69999999999965</v>
       </c>
       <c r="P61" s="24">
         <f t="shared" si="8"/>
-        <v>3.8205186863625139E-2</v>
+        <v>3.7916669322582322E-2</v>
       </c>
       <c r="Q61" s="84"/>
       <c r="S61" s="25"/>
@@ -8487,7 +8476,7 @@
         <v>66</v>
       </c>
       <c r="J67" s="12">
-        <v>101.45399999999999</v>
+        <v>101.91</v>
       </c>
       <c r="K67" s="12">
         <v>105.10899999999999</v>
@@ -8497,19 +8486,19 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="11"/>
-        <v>4058.16</v>
+        <v>4076.3999999999996</v>
       </c>
       <c r="N67" s="24">
         <f t="shared" si="12"/>
-        <v>-3.477342568191117E-2</v>
+        <v>-3.0435072163182964E-2</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="9"/>
-        <v>-146.20000000000005</v>
+        <v>-127.95999999999992</v>
       </c>
       <c r="P67" s="24">
         <f t="shared" ref="P67:P98" si="13">M67/$M$406</f>
-        <v>1.5350160500820661E-2</v>
+        <v>1.5375017241450186E-2</v>
       </c>
       <c r="Q67" s="84"/>
       <c r="S67" s="25"/>
@@ -8584,7 +8573,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>100.40300000000001</v>
+        <v>100.27500000000001</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -8594,19 +8583,19 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="14">J69*L69</f>
-        <v>7028.21</v>
+        <v>7019.25</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="12"/>
-        <v>3.2145647436161127E-2</v>
+        <v>3.0829803857066591E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>218.89000000000067</v>
+        <v>209.93000000000066</v>
       </c>
       <c r="P69" s="24">
         <f t="shared" si="13"/>
-        <v>2.6584499264068636E-2</v>
+        <v>2.6474607440891283E-2</v>
       </c>
       <c r="Q69" s="84"/>
       <c r="S69" s="25"/>
@@ -8690,7 +8679,7 @@
         <v>52</v>
       </c>
       <c r="J71" s="12">
-        <v>102.69499999999999</v>
+        <v>102.879</v>
       </c>
       <c r="K71" s="12">
         <v>106.81100000000001</v>
@@ -8700,19 +8689,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="14"/>
-        <v>3080.85</v>
+        <v>3086.3700000000003</v>
       </c>
       <c r="N71" s="24">
         <f t="shared" si="12"/>
-        <v>-3.8535356845268876E-2</v>
+        <v>-3.6812687831777643E-2</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>-123.48000000000042</v>
+        <v>-117.96000000000006</v>
       </c>
       <c r="P71" s="24">
         <f t="shared" si="13"/>
-        <v>1.1653444412973696E-2</v>
+        <v>1.1640906673411496E-2</v>
       </c>
       <c r="Q71" s="84"/>
       <c r="S71" s="25"/>
@@ -8792,7 +8781,7 @@
         <v>52</v>
       </c>
       <c r="J73" s="12">
-        <v>116.599</v>
+        <v>116.71</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -8802,19 +8791,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="14"/>
-        <v>1165.99</v>
+        <v>1167.0999999999999</v>
       </c>
       <c r="N73" s="24">
         <f t="shared" si="12"/>
-        <v>3.1657833499969056E-2</v>
+        <v>3.2639951867352024E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>35.78000000000003</v>
+        <v>36.88999999999993</v>
       </c>
       <c r="P73" s="24">
         <f t="shared" si="13"/>
-        <v>4.4104061058095004E-3</v>
+        <v>4.4019680655717087E-3</v>
       </c>
       <c r="Q73" s="84"/>
       <c r="S73" s="25"/>
@@ -8994,7 +8983,7 @@
         <v>52</v>
       </c>
       <c r="J77" s="12">
-        <v>104.407</v>
+        <v>105.4</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -9004,19 +8993,19 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="14"/>
-        <v>2088.14</v>
+        <v>2108</v>
       </c>
       <c r="N77" s="24">
         <f t="shared" si="12"/>
-        <v>8.3329874657591008E-2</v>
+        <v>9.3633269693699686E-2</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="15"/>
-        <v>160.61999999999983</v>
+        <v>180.48000000000002</v>
       </c>
       <c r="P77" s="24">
         <f t="shared" si="13"/>
-        <v>7.8984771788652135E-3</v>
+        <v>7.9507742971683341E-3</v>
       </c>
       <c r="Q77" s="84"/>
       <c r="S77" s="25"/>
@@ -9098,7 +9087,7 @@
         <v>52</v>
       </c>
       <c r="J79" s="12">
-        <v>106.66</v>
+        <v>107.32299999999999</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -9108,19 +9097,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="14"/>
-        <v>1066.5999999999999</v>
+        <v>1073.23</v>
       </c>
       <c r="N79" s="24">
         <f t="shared" si="12"/>
-        <v>-1.7773275623906501E-2</v>
+        <v>-1.1667741044295148E-2</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="15"/>
-        <v>-19.300000000000068</v>
+        <v>-12.670000000000101</v>
       </c>
       <c r="P79" s="24">
         <f t="shared" si="13"/>
-        <v>4.0344592599048127E-3</v>
+        <v>4.047917219615736E-3</v>
       </c>
       <c r="Q79" s="84"/>
       <c r="S79" s="25"/>
@@ -9151,7 +9140,7 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>100.79</v>
+        <v>100.99</v>
       </c>
       <c r="K80" s="12">
         <v>106.27200000000001</v>
@@ -9161,19 +9150,19 @@
       </c>
       <c r="M80" s="11">
         <f t="shared" si="14"/>
-        <v>5039.5</v>
+        <v>5049.5</v>
       </c>
       <c r="N80" s="24">
         <f t="shared" si="12"/>
-        <v>-5.1584613068352894E-2</v>
+        <v>-4.9702649804275918E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="15"/>
-        <v>-274.09999999999997</v>
+        <v>-264.10000000000053</v>
       </c>
       <c r="P80" s="24">
         <f t="shared" si="13"/>
-        <v>1.9062120232786712E-2</v>
+        <v>1.9045272681950429E-2</v>
       </c>
       <c r="Q80" s="84"/>
       <c r="S80" s="25"/>
@@ -9252,7 +9241,7 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>99.995000000000005</v>
+        <v>100</v>
       </c>
       <c r="K82" s="12">
         <v>102.733</v>
@@ -9262,19 +9251,19 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="14"/>
-        <v>3999.8</v>
+        <v>4000</v>
       </c>
       <c r="N82" s="24">
         <f t="shared" si="12"/>
-        <v>-2.6651611458830167E-2</v>
+        <v>-2.6602941605910507E-2</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="15"/>
-        <v>-109.51999999999998</v>
+        <v>-109.32000000000016</v>
       </c>
       <c r="P82" s="24">
         <f t="shared" si="13"/>
-        <v>1.5129411351741303E-2</v>
+        <v>1.5086858248896268E-2</v>
       </c>
       <c r="Q82" s="84"/>
       <c r="S82" s="25"/>
@@ -9354,7 +9343,7 @@
         <v>52</v>
       </c>
       <c r="J84" s="12">
-        <v>109.392</v>
+        <v>109.23</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -9364,19 +9353,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="16">J84*L84</f>
-        <v>2187.84</v>
+        <v>2184.6</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="12"/>
-        <v>1.830096997002582E-2</v>
+        <v>1.6792955150522239E-2</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="15"/>
-        <v>39.319999999999879</v>
+        <v>36.080000000000041</v>
       </c>
       <c r="P84" s="24">
         <f t="shared" si="13"/>
-        <v>8.2755966127790615E-3</v>
+        <v>8.2396876326346971E-3</v>
       </c>
       <c r="Q84" s="84"/>
       <c r="S84" s="25"/>
@@ -9407,7 +9396,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>101.72499999999999</v>
+        <v>102.202</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -9417,19 +9406,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="16"/>
-        <v>4069</v>
+        <v>4088.08</v>
       </c>
       <c r="N85" s="24">
         <f t="shared" si="12"/>
-        <v>-2.2100669076367055E-2</v>
+        <v>-1.7515188802584045E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="15"/>
-        <v>-91.960000000000264</v>
+        <v>-72.880000000000109</v>
       </c>
       <c r="P85" s="24">
         <f t="shared" si="13"/>
-        <v>1.5391163255721626E-2</v>
+        <v>1.5419070867536964E-2</v>
       </c>
       <c r="Q85" s="84"/>
       <c r="S85" s="25"/>
@@ -9654,7 +9643,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>100.009</v>
+        <v>100.1</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -9664,19 +9653,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="16"/>
-        <v>5000.45</v>
+        <v>5005</v>
       </c>
       <c r="N90" s="24">
         <f t="shared" si="12"/>
-        <v>-1.4835246022755259E-2</v>
+        <v>-1.3938826774368382E-2</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="15"/>
-        <v>-75.300000000000011</v>
+        <v>-70.750000000000313</v>
       </c>
       <c r="P90" s="24">
         <f t="shared" si="13"/>
-        <v>1.891441196905215E-2</v>
+        <v>1.8877431383931456E-2</v>
       </c>
       <c r="Q90" s="84"/>
       <c r="S90" s="25"/>
@@ -10373,7 +10362,7 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>96.001999999999995</v>
+        <v>95.177000000000007</v>
       </c>
       <c r="K105" s="12">
         <v>101.65</v>
@@ -10383,19 +10372,19 @@
       </c>
       <c r="M105" s="11">
         <f t="shared" si="19"/>
-        <v>8640.18</v>
+        <v>8565.93</v>
       </c>
       <c r="N105" s="24">
         <f t="shared" si="20"/>
-        <v>-5.556320708312848E-2</v>
+        <v>-6.3679291687161813E-2</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="15"/>
-        <v>-508.32000000000096</v>
+        <v>-582.56999999999994</v>
       </c>
       <c r="P105" s="24">
         <f t="shared" si="18"/>
-        <v>3.2681843435443815E-2</v>
+        <v>3.2308242919992007E-2</v>
       </c>
       <c r="Q105" s="84" t="s">
         <v>106</v>
@@ -10428,7 +10417,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>105.041</v>
+        <v>102.875</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -10438,19 +10427,19 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="19"/>
-        <v>3151.23</v>
+        <v>3086.25</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="20"/>
-        <v>-1.3880042210539401E-3</v>
+        <v>-2.1979902459429376E-2</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="15"/>
-        <v>-4.3800000000000239</v>
+        <v>-69.359999999999928</v>
       </c>
       <c r="P106" s="24">
         <f t="shared" si="18"/>
-        <v>1.1919659716472759E-2</v>
+        <v>1.1640454067664027E-2</v>
       </c>
       <c r="Q106" s="84" t="s">
         <v>106</v>
@@ -10782,7 +10771,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>104.998</v>
+        <v>104.901</v>
       </c>
       <c r="K113" s="12">
         <v>105.44</v>
@@ -10792,19 +10781,19 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="19"/>
-        <v>1049.98</v>
+        <v>1049.01</v>
       </c>
       <c r="N113" s="24">
         <f t="shared" si="20"/>
-        <v>-4.1919575113808141E-3</v>
+        <v>-5.1119119878604083E-3</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="21"/>
-        <v>-4.4199999999999307</v>
+        <v>-5.3900000000000148</v>
       </c>
       <c r="P113" s="24">
         <f t="shared" si="18"/>
-        <v>3.9715934124459557E-3</v>
+        <v>3.9565662929186684E-3</v>
       </c>
       <c r="Q113" s="84" t="s">
         <v>106</v>
@@ -11485,7 +11474,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>111.68</v>
+        <v>112.371</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -11495,19 +11484,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="19"/>
-        <v>2233.6000000000004</v>
+        <v>2247.42</v>
       </c>
       <c r="N127" s="24">
         <f t="shared" si="20"/>
-        <v>3.1219124830330843E-2</v>
+        <v>3.759960849130637E-2</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="21"/>
-        <v>67.62</v>
+        <v>81.43999999999977</v>
       </c>
       <c r="P127" s="24">
         <f t="shared" si="18"/>
-        <v>8.4486857330989991E-3</v>
+        <v>8.4766267414336134E-3</v>
       </c>
       <c r="Q127" s="84" t="s">
         <v>106</v>
@@ -11783,7 +11772,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>109.452</v>
+        <v>109.634</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -11793,19 +11782,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="19"/>
-        <v>1094.52</v>
+        <v>1096.3399999999999</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="25"/>
-        <v>-2.0309521039016884E-2</v>
+        <v>-1.8680462938928253E-2</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="23"/>
-        <v>-22.690000000000055</v>
+        <v>-20.870000000000033</v>
       </c>
       <c r="P133" s="24">
         <f t="shared" si="24"/>
-        <v>4.1400678315685509E-3</v>
+        <v>4.1350815431487331E-3</v>
       </c>
       <c r="Q133" s="84" t="s">
         <v>106</v>
@@ -11887,7 +11876,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>105.56</v>
+        <v>105.59</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -11897,19 +11886,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="19"/>
-        <v>1055.5999999999999</v>
+        <v>1055.9000000000001</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="25"/>
-        <v>-1.9232555978816252E-2</v>
+        <v>-1.8953823283471078E-2</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="23"/>
-        <v>-20.699999999999932</v>
+        <v>-20.39999999999992</v>
       </c>
       <c r="P135" s="24">
         <f t="shared" si="24"/>
-        <v>3.9928512982894439E-3</v>
+        <v>3.9825534062523926E-3</v>
       </c>
       <c r="Q135" s="84" t="s">
         <v>120</v>
@@ -12042,7 +12031,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>110.399</v>
+        <v>111.121</v>
       </c>
       <c r="K138" s="12">
         <v>115.14</v>
@@ -12052,19 +12041,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="19"/>
-        <v>1103.99</v>
+        <v>1111.21</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="25"/>
-        <v>-4.1175959701233278E-2</v>
+        <v>-3.4905332638527055E-2</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="23"/>
-        <v>-47.41</v>
+        <v>-40.190000000000055</v>
       </c>
       <c r="P138" s="24">
         <f t="shared" si="24"/>
-        <v>4.1758885039774188E-3</v>
+        <v>4.1911669386890055E-3</v>
       </c>
       <c r="Q138" s="84" t="s">
         <v>106</v>
@@ -12097,7 +12086,7 @@
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="12">
-        <v>113.645</v>
+        <v>114.29900000000001</v>
       </c>
       <c r="K139" s="12">
         <v>119.23</v>
@@ -12107,19 +12096,19 @@
       </c>
       <c r="M139" s="11">
         <f t="shared" si="19"/>
-        <v>1136.45</v>
+        <v>1142.99</v>
       </c>
       <c r="N139" s="24">
         <f t="shared" si="25"/>
-        <v>-4.6842237691856144E-2</v>
+        <v>-4.1357041013167804E-2</v>
       </c>
       <c r="O139" s="11">
         <f t="shared" si="23"/>
-        <v>-55.85000000000008</v>
+        <v>-49.309999999999974</v>
       </c>
       <c r="P139" s="24">
         <f t="shared" si="24"/>
-        <v>4.2986698161624091E-3</v>
+        <v>4.3110320274764866E-3</v>
       </c>
       <c r="Q139" s="84" t="s">
         <v>106</v>
@@ -12196,7 +12185,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>104.94</v>
+        <v>105.274</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -12206,19 +12195,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="26">J141*L141</f>
-        <v>1049.4000000000001</v>
+        <v>1052.74</v>
       </c>
       <c r="N141" s="24">
         <f t="shared" si="25"/>
-        <v>-2.0634431783184463E-2</v>
+        <v>-1.7517335349180086E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>-22.109999999999985</v>
+        <v>-18.769999999999953</v>
       </c>
       <c r="P141" s="24">
         <f t="shared" si="24"/>
-        <v>3.969399538106236E-3</v>
+        <v>3.9706347882357646E-3</v>
       </c>
       <c r="Q141" s="84" t="s">
         <v>106</v>
@@ -12251,7 +12240,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>109.154</v>
+        <v>110.093</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -12261,19 +12250,19 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="26"/>
-        <v>1091.54</v>
+        <v>1100.93</v>
       </c>
       <c r="N142" s="24">
         <f t="shared" si="25"/>
-        <v>-1.5276113464018953E-3</v>
+        <v>7.061772212109344E-3</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>-1.6700000000000159</v>
+        <v>7.7200000000000557</v>
       </c>
       <c r="P142" s="24">
         <f t="shared" si="24"/>
-        <v>4.1287958565127507E-3</v>
+        <v>4.1523937129893428E-3</v>
       </c>
       <c r="Q142" s="84" t="s">
         <v>106</v>
@@ -12551,7 +12540,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>111.111</v>
+        <v>111.517</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -12561,19 +12550,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="26"/>
-        <v>1111.1100000000001</v>
+        <v>1115.17</v>
       </c>
       <c r="N148" s="24">
         <f t="shared" si="25"/>
-        <v>4.744621882011351E-2</v>
+        <v>5.1273591131054438E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="27"/>
-        <v>50.330000000000013</v>
+        <v>54.38999999999993</v>
       </c>
       <c r="P148" s="24">
         <f t="shared" si="24"/>
-        <v>4.2028202027684586E-3</v>
+        <v>4.2061029283554131E-3</v>
       </c>
       <c r="Q148" s="84" t="s">
         <v>106</v>
@@ -12606,7 +12595,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>104.136</v>
+        <v>103.869</v>
       </c>
       <c r="K149" s="81">
         <v>106.556</v>
@@ -12616,19 +12605,19 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="26"/>
-        <v>3124.08</v>
+        <v>3116.07</v>
       </c>
       <c r="N149" s="24">
         <f t="shared" si="25"/>
-        <v>-2.2711062727579882E-2</v>
+        <v>-2.5216787416945059E-2</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="27"/>
-        <v>-72.600000000000051</v>
+        <v>-80.609999999999928</v>
       </c>
       <c r="P149" s="24">
         <f t="shared" si="24"/>
-        <v>1.1816963702122098E-2</v>
+        <v>1.1752926595909549E-2</v>
       </c>
       <c r="Q149" s="84" t="s">
         <v>106</v>
@@ -12757,7 +12746,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>102.989</v>
+        <v>103.56699999999999</v>
       </c>
       <c r="K152" s="12">
         <v>110.36499999999999</v>
@@ -12767,19 +12756,19 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="26"/>
-        <v>3089.67</v>
+        <v>3107.0099999999998</v>
       </c>
       <c r="N152" s="24">
         <f t="shared" si="25"/>
-        <v>-6.6832782132016405E-2</v>
+        <v>-6.1595614551714785E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="28">(J152-K152)*L152</f>
-        <v>-221.27999999999972</v>
+        <v>-203.94000000000005</v>
       </c>
       <c r="P152" s="24">
         <f t="shared" si="24"/>
-        <v>1.1686806433105292E-2</v>
+        <v>1.1718754861975798E-2</v>
       </c>
       <c r="Q152" s="84" t="s">
         <v>132</v>
@@ -13011,7 +13000,7 @@
         <v>66</v>
       </c>
       <c r="J157" s="12">
-        <v>102.705</v>
+        <v>103.58</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -13021,19 +13010,19 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="26"/>
-        <v>1027.05</v>
+        <v>1035.8</v>
       </c>
       <c r="N157" s="24">
         <f t="shared" si="25"/>
-        <v>-5.8529654413786825E-2</v>
+        <v>-5.050875423961871E-2</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="28"/>
-        <v>-63.850000000000051</v>
+        <v>-55.100000000000051</v>
       </c>
       <c r="P157" s="24">
         <f t="shared" si="24"/>
-        <v>3.8848597251877354E-3</v>
+        <v>3.9067419435516882E-3</v>
       </c>
       <c r="Q157" s="84" t="s">
         <v>136</v>
@@ -13117,7 +13106,7 @@
         <v>66</v>
       </c>
       <c r="J159" s="12">
-        <v>111.11</v>
+        <v>111.7</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -13127,19 +13116,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="26"/>
-        <v>1111.0999999999999</v>
+        <v>1117</v>
       </c>
       <c r="N159" s="24">
         <f t="shared" si="25"/>
-        <v>3.2198729144216065E-2</v>
+        <v>3.7679759206272499E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="28"/>
-        <v>34.65999999999994</v>
+        <v>40.559999999999974</v>
       </c>
       <c r="P159" s="24">
         <f t="shared" si="24"/>
-        <v>4.2027823773488071E-3</v>
+        <v>4.2130051660042829E-3</v>
       </c>
       <c r="Q159" s="84"/>
       <c r="S159" s="25"/>
@@ -13317,7 +13306,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>103.62</v>
+        <v>103.892</v>
       </c>
       <c r="K163" s="12">
         <v>108.075</v>
@@ -13327,19 +13316,19 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="26"/>
-        <v>2072.4</v>
+        <v>2077.84</v>
       </c>
       <c r="N163" s="24">
         <f t="shared" si="25"/>
-        <v>-4.1221374045801507E-2</v>
+        <v>-3.8704603284756021E-2</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="28"/>
-        <v>-89.099999999999966</v>
+        <v>-83.660000000000139</v>
       </c>
       <c r="P163" s="24">
         <f t="shared" ref="P163:P179" si="30">M163/$M$406</f>
-        <v>7.838939968335585E-3</v>
+        <v>7.8370193859716563E-3</v>
       </c>
       <c r="Q163" s="84" t="s">
         <v>106</v>
@@ -13616,7 +13605,7 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>102.268</v>
+        <v>102.379</v>
       </c>
       <c r="K169" s="12">
         <v>105.581</v>
@@ -13626,19 +13615,19 @@
       </c>
       <c r="M169" s="11">
         <f t="shared" si="26"/>
-        <v>3068.04</v>
+        <v>3071.3700000000003</v>
       </c>
       <c r="N169" s="24">
         <f t="shared" si="31"/>
-        <v>-3.1378751858762488E-2</v>
+        <v>-3.0327426336177892E-2</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="32"/>
-        <v>-99.390000000000072</v>
+        <v>-96.059999999999945</v>
       </c>
       <c r="P169" s="24">
         <f t="shared" si="30"/>
-        <v>1.1604990050401616E-2</v>
+        <v>1.1584330954978135E-2</v>
       </c>
       <c r="Q169" s="84" t="s">
         <v>106</v>
@@ -13722,7 +13711,7 @@
         <v>66</v>
       </c>
       <c r="J171" s="12">
-        <v>108.107</v>
+        <v>104.911</v>
       </c>
       <c r="K171" s="12">
         <v>109.006</v>
@@ -13732,19 +13721,19 @@
       </c>
       <c r="M171" s="11">
         <f t="shared" si="26"/>
-        <v>3243.21</v>
+        <v>3147.33</v>
       </c>
       <c r="N171" s="24">
         <f t="shared" si="31"/>
-        <v>-8.2472524448195597E-3</v>
+        <v>-3.7566739445535097E-2</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="32"/>
-        <v>-26.970000000000027</v>
+        <v>-122.84999999999997</v>
       </c>
       <c r="P171" s="24">
         <f t="shared" si="30"/>
-        <v>1.2267577926416548E-2</v>
+        <v>1.1870830393124672E-2</v>
       </c>
       <c r="Q171" s="84" t="s">
         <v>106</v>
@@ -13779,7 +13768,7 @@
         <v>66</v>
       </c>
       <c r="J172" s="12">
-        <v>109.803</v>
+        <v>109.476</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -13789,19 +13778,19 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="26"/>
-        <v>2196.06</v>
+        <v>2189.52</v>
       </c>
       <c r="N172" s="24">
         <f t="shared" si="31"/>
-        <v>8.5235361653271842E-3</v>
+        <v>5.5200918484500493E-3</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="32"/>
-        <v>18.559999999999945</v>
+        <v>12.019999999999982</v>
       </c>
       <c r="P172" s="24">
         <f t="shared" si="30"/>
-        <v>8.3066891077316369E-3</v>
+        <v>8.2582444682808391E-3</v>
       </c>
       <c r="Q172" s="84" t="s">
         <v>106</v>
@@ -14032,7 +14021,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>105.94799999999999</v>
+        <v>106.24</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -14042,19 +14031,19 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="33"/>
-        <v>1059.48</v>
+        <v>1062.3999999999999</v>
       </c>
       <c r="N177" s="24">
         <f t="shared" si="31"/>
-        <v>-3.3761969904240879E-2</v>
+        <v>-3.109895120839043E-2</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="32"/>
-        <v>-37.020000000000124</v>
+        <v>-34.100000000000108</v>
       </c>
       <c r="P177" s="24">
         <f t="shared" si="30"/>
-        <v>4.0075275611137747E-3</v>
+        <v>4.0070695509068482E-3</v>
       </c>
       <c r="Q177" s="84" t="s">
         <v>150</v>
@@ -14136,7 +14125,7 @@
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="12">
-        <v>107.099</v>
+        <v>107.08199999999999</v>
       </c>
       <c r="K179" s="12">
         <v>115.111</v>
@@ -14146,19 +14135,19 @@
       </c>
       <c r="M179" s="11">
         <f t="shared" si="33"/>
-        <v>4283.96</v>
+        <v>4283.28</v>
       </c>
       <c r="N179" s="24">
         <f t="shared" si="31"/>
-        <v>-6.9602383786084743E-2</v>
+        <v>-6.9750067326319901E-2</v>
       </c>
       <c r="O179" s="11">
         <f t="shared" si="32"/>
-        <v>-320.48</v>
+        <v>-321.16000000000042</v>
       </c>
       <c r="P179" s="24">
         <f t="shared" si="30"/>
-        <v>1.6204258476525242E-2</v>
+        <v>1.61553095500831E-2</v>
       </c>
       <c r="Q179" s="84" t="s">
         <v>152</v>
@@ -14391,7 +14380,7 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>117.235</v>
+        <v>118.098</v>
       </c>
       <c r="K184" s="12">
         <v>107.06</v>
@@ -14401,19 +14390,19 @@
       </c>
       <c r="M184" s="11">
         <f t="shared" si="33"/>
-        <v>1172.3499999999999</v>
+        <v>1180.98</v>
       </c>
       <c r="N184" s="24">
         <f t="shared" si="31"/>
-        <v>9.5040164393797838E-2</v>
+        <v>0.10310106482346344</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="32"/>
-        <v>101.74999999999997</v>
+        <v>110.37999999999997</v>
       </c>
       <c r="P184" s="24">
         <f t="shared" si="34"/>
-        <v>4.4344630727071142E-3</v>
+        <v>4.454319463695379E-3</v>
       </c>
       <c r="Q184" s="84" t="s">
         <v>158</v>
@@ -15427,7 +15416,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>109.425</v>
+        <v>109.693</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -15437,19 +15426,19 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="37">J205*L205</f>
-        <v>2188.5</v>
+        <v>2193.86</v>
       </c>
       <c r="N205" s="24">
         <f t="shared" si="36"/>
-        <v>4.5073163566930405E-3</v>
+        <v>6.9675216185947492E-3</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="32"/>
-        <v>9.8199999999999932</v>
+        <v>15.180000000000007</v>
       </c>
       <c r="P205" s="24">
         <f t="shared" si="34"/>
-        <v>8.2780930904759829E-3</v>
+        <v>8.2746137094808925E-3</v>
       </c>
       <c r="Q205" s="118" t="s">
         <v>165</v>
@@ -15680,7 +15669,7 @@
         <v>52</v>
       </c>
       <c r="J210" s="12">
-        <v>105.342</v>
+        <v>106.01600000000001</v>
       </c>
       <c r="K210" s="13">
         <v>110.295</v>
@@ -15690,19 +15679,19 @@
       </c>
       <c r="M210" s="11">
         <f t="shared" si="37"/>
-        <v>2106.84</v>
+        <v>2120.3200000000002</v>
       </c>
       <c r="N210" s="24">
         <f t="shared" si="36"/>
-        <v>-4.4906840745274061E-2</v>
+        <v>-3.8795956299016242E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="32"/>
-        <v>-99.060000000000059</v>
+        <v>-85.579999999999927</v>
       </c>
       <c r="P210" s="24">
         <f t="shared" si="34"/>
-        <v>7.9692107136113428E-3</v>
+        <v>7.9972418205749348E-3</v>
       </c>
       <c r="Q210" s="133" t="s">
         <v>169</v>
@@ -16423,7 +16412,7 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>105.7</v>
+        <v>105.566</v>
       </c>
       <c r="K225" s="12">
         <v>108.65</v>
@@ -16433,19 +16422,19 @@
       </c>
       <c r="M225" s="11">
         <f t="shared" si="37"/>
-        <v>2114</v>
+        <v>2111.3200000000002</v>
       </c>
       <c r="N225" s="24">
         <f t="shared" si="41"/>
-        <v>-2.7151403589507617E-2</v>
+        <v>-2.8384721583064914E-2</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="32"/>
-        <v>-59.000000000000057</v>
+        <v>-61.680000000000064</v>
       </c>
       <c r="P225" s="24">
         <f t="shared" si="40"/>
-        <v>7.9962937140809816E-3</v>
+        <v>7.9632963895149185E-3</v>
       </c>
       <c r="Q225" s="135" t="s">
         <v>140</v>
@@ -16723,7 +16712,7 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>105.32</v>
+        <v>105.46</v>
       </c>
       <c r="K231" s="12">
         <v>107.889</v>
@@ -16733,19 +16722,19 @@
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="45">J231*L231</f>
-        <v>2106.3999999999996</v>
+        <v>2109.1999999999998</v>
       </c>
       <c r="N231" s="24">
         <f t="shared" ref="N231:N245" si="46">(J231-K231)/K231</f>
-        <v>-2.3811509977847627E-2</v>
+        <v>-2.2513880006302795E-2</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="47">(J231-K231)*L231</f>
-        <v>-51.380000000000052</v>
+        <v>-48.580000000000041</v>
       </c>
       <c r="P231" s="24">
         <f t="shared" ref="P231:P245" si="48">M231/$M$406</f>
-        <v>7.9675463951467251E-3</v>
+        <v>7.9553003546430009E-3</v>
       </c>
       <c r="Q231" s="113" t="s">
         <v>183</v>
@@ -16875,7 +16864,7 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>102.765</v>
+        <v>102.7</v>
       </c>
       <c r="K234" s="12">
         <v>107.806</v>
@@ -16885,19 +16874,19 @@
       </c>
       <c r="M234" s="11">
         <f t="shared" si="45"/>
-        <v>3082.95</v>
+        <v>3081</v>
       </c>
       <c r="N234" s="24">
         <f t="shared" si="46"/>
-        <v>-4.6759920598111397E-2</v>
+        <v>-4.7362855499693844E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="47"/>
-        <v>-151.2299999999999</v>
+        <v>-153.17999999999984</v>
       </c>
       <c r="P234" s="24">
         <f t="shared" si="48"/>
-        <v>1.1661387751100266E-2</v>
+        <v>1.1620652566212352E-2</v>
       </c>
       <c r="Q234" s="139"/>
       <c r="S234" s="25"/>
@@ -16975,7 +16964,7 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>106.379</v>
+        <v>105.93300000000001</v>
       </c>
       <c r="K236" s="12">
         <v>108.294</v>
@@ -16985,19 +16974,19 @@
       </c>
       <c r="M236" s="11">
         <f t="shared" si="45"/>
-        <v>2127.58</v>
+        <v>2118.6600000000003</v>
       </c>
       <c r="N236" s="24">
         <f t="shared" si="46"/>
-        <v>-1.7683343490867382E-2</v>
+        <v>-2.1801761870463645E-2</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="47"/>
-        <v>-38.299999999999841</v>
+        <v>-47.2199999999998</v>
       </c>
       <c r="P236" s="24">
         <f t="shared" si="48"/>
-        <v>8.0476606339661381E-3</v>
+        <v>7.9909807744016435E-3</v>
       </c>
       <c r="Q236" s="139"/>
       <c r="S236" s="25"/>
@@ -17028,7 +17017,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>110.2</v>
+        <v>111.846</v>
       </c>
       <c r="K237" s="12">
         <v>109.474</v>
@@ -17038,19 +17027,19 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="45"/>
-        <v>1102</v>
+        <v>1118.46</v>
       </c>
       <c r="N237" s="24">
         <f t="shared" si="46"/>
-        <v>6.6317116392933398E-3</v>
+        <v>2.1667245190638871E-2</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="47"/>
-        <v>7.2599999999999909</v>
+        <v>23.72</v>
       </c>
       <c r="P237" s="24">
         <f t="shared" si="48"/>
-        <v>4.1683612454670024E-3</v>
+        <v>4.2185118692651307E-3</v>
       </c>
       <c r="Q237" s="139"/>
       <c r="S237" s="25"/>
@@ -17128,7 +17117,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>110</v>
+        <v>110.639</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -17138,19 +17127,19 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="45"/>
-        <v>2200</v>
+        <v>2212.7799999999997</v>
       </c>
       <c r="N239" s="24">
         <f t="shared" si="46"/>
-        <v>1.2928652989060336E-2</v>
+        <v>1.8812847618696747E-2</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="47"/>
-        <v>28.079999999999927</v>
+        <v>40.859999999999843</v>
       </c>
       <c r="P239" s="24">
         <f t="shared" si="48"/>
-        <v>8.3215923230738689E-3</v>
+        <v>8.3459745489981706E-3</v>
       </c>
       <c r="Q239" s="139" t="s">
         <v>192</v>
@@ -17421,7 +17410,7 @@
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="12">
-        <v>104.8</v>
+        <v>104.96599999999999</v>
       </c>
       <c r="K245" s="12">
         <v>106.852</v>
@@ -17431,19 +17420,19 @@
       </c>
       <c r="M245" s="11">
         <f t="shared" si="45"/>
-        <v>2096</v>
+        <v>2099.3199999999997</v>
       </c>
       <c r="N245" s="24">
         <f t="shared" si="46"/>
-        <v>-1.9204132819226657E-2</v>
+        <v>-1.7650582113577749E-2</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="47"/>
-        <v>-41.040000000000134</v>
+        <v>-37.720000000000198</v>
       </c>
       <c r="P245" s="24">
         <f t="shared" si="48"/>
-        <v>7.9282079587103781E-3</v>
+        <v>7.9180358147682272E-3</v>
       </c>
       <c r="Q245" s="84"/>
       <c r="S245" s="25"/>
@@ -17759,7 +17748,7 @@
       </c>
       <c r="I252" s="15"/>
       <c r="J252" s="12">
-        <v>107.22499999999999</v>
+        <v>107.07</v>
       </c>
       <c r="K252" s="12">
         <v>109.35</v>
@@ -17769,19 +17758,19 @@
       </c>
       <c r="M252" s="11">
         <f t="shared" si="49"/>
-        <v>1072.25</v>
+        <v>1070.6999999999998</v>
       </c>
       <c r="N252" s="24">
         <f t="shared" si="50"/>
-        <v>-1.9433013260173757E-2</v>
+        <v>-2.0850480109739382E-2</v>
       </c>
       <c r="O252" s="11">
         <f t="shared" si="51"/>
-        <v>-21.25</v>
+        <v>-22.800000000000011</v>
       </c>
       <c r="P252" s="24">
         <f t="shared" si="52"/>
-        <v>4.0558306220072528E-3</v>
+        <v>4.0383747817733084E-3</v>
       </c>
       <c r="Q252" s="84" t="s">
         <v>106</v>
@@ -17813,7 +17802,7 @@
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="12">
-        <v>109.25</v>
+        <v>110.098</v>
       </c>
       <c r="K253" s="12">
         <v>109.39100000000001</v>
@@ -17823,19 +17812,19 @@
       </c>
       <c r="M253" s="11">
         <f t="shared" si="49"/>
-        <v>1092.5</v>
+        <v>1100.98</v>
       </c>
       <c r="N253" s="24">
         <f t="shared" si="50"/>
-        <v>-1.2889543015422232E-3</v>
+        <v>6.4630545474490004E-3</v>
       </c>
       <c r="O253" s="11">
         <f t="shared" si="51"/>
-        <v>-1.4100000000000534</v>
+        <v>7.0699999999999363</v>
       </c>
       <c r="P253" s="24">
         <f t="shared" si="52"/>
-        <v>4.1324270967991834E-3</v>
+        <v>4.1525822987174537E-3</v>
       </c>
       <c r="Q253" s="84" t="s">
         <v>106</v>
@@ -17915,7 +17904,7 @@
       </c>
       <c r="I255" s="15"/>
       <c r="J255" s="12">
-        <v>105.108</v>
+        <v>104.952</v>
       </c>
       <c r="K255" s="12">
         <v>107.008</v>
@@ -17925,19 +17914,19 @@
       </c>
       <c r="M255" s="11">
         <f t="shared" si="49"/>
-        <v>2102.16</v>
+        <v>2099.04</v>
       </c>
       <c r="N255" s="24">
         <f t="shared" si="50"/>
-        <v>-1.775568181818174E-2</v>
+        <v>-1.921351674641146E-2</v>
       </c>
       <c r="O255" s="11">
         <f t="shared" si="51"/>
-        <v>-37.999999999999829</v>
+        <v>-41.119999999999948</v>
       </c>
       <c r="P255" s="24">
         <f t="shared" si="52"/>
-        <v>7.9515084172149843E-3</v>
+        <v>7.9169797346908058E-3</v>
       </c>
       <c r="Q255" s="84" t="s">
         <v>106</v>
@@ -18065,7 +18054,7 @@
       </c>
       <c r="I258" s="15"/>
       <c r="J258" s="12">
-        <v>107.2</v>
+        <v>107.54</v>
       </c>
       <c r="K258" s="12">
         <v>109.014</v>
@@ -18075,19 +18064,19 @@
       </c>
       <c r="M258" s="11">
         <f t="shared" si="49"/>
-        <v>1072</v>
+        <v>1075.4000000000001</v>
       </c>
       <c r="N258" s="24">
         <f t="shared" si="50"/>
-        <v>-1.6640064578861368E-2</v>
+        <v>-1.352119911204056E-2</v>
       </c>
       <c r="O258" s="11">
         <f t="shared" si="51"/>
-        <v>-18.13999999999993</v>
+        <v>-14.739999999999895</v>
       </c>
       <c r="P258" s="24">
         <f t="shared" si="52"/>
-        <v>4.0548849865159947E-3</v>
+        <v>4.0561018402157619E-3</v>
       </c>
       <c r="Q258" s="84"/>
       <c r="S258" s="25"/>
@@ -18261,7 +18250,7 @@
       </c>
       <c r="I262" s="15"/>
       <c r="J262" s="12">
-        <v>106.491</v>
+        <v>106.476</v>
       </c>
       <c r="K262" s="12">
         <v>108.041</v>
@@ -18271,19 +18260,19 @@
       </c>
       <c r="M262" s="11">
         <f t="shared" si="49"/>
-        <v>1064.9100000000001</v>
+        <v>1064.76</v>
       </c>
       <c r="N262" s="24">
         <f t="shared" si="50"/>
-        <v>-1.4346405531233487E-2</v>
+        <v>-1.4485241713793817E-2</v>
       </c>
       <c r="O262" s="11">
         <f t="shared" si="51"/>
-        <v>-15.499999999999972</v>
+        <v>-15.649999999999977</v>
       </c>
       <c r="P262" s="24">
         <f t="shared" si="52"/>
-        <v>4.0280667639839068E-3</v>
+        <v>4.0159707972736974E-3</v>
       </c>
       <c r="Q262" s="84"/>
       <c r="S262" s="25"/>
@@ -18359,7 +18348,7 @@
       </c>
       <c r="I264" s="15"/>
       <c r="J264" s="12">
-        <v>105</v>
+        <v>104.80800000000001</v>
       </c>
       <c r="K264" s="12">
         <v>105.532</v>
@@ -18369,19 +18358,19 @@
       </c>
       <c r="M264" s="11">
         <f t="shared" si="49"/>
-        <v>1050</v>
+        <v>1048.0800000000002</v>
       </c>
       <c r="N264" s="24">
         <f t="shared" si="50"/>
-        <v>-5.0411249668346706E-3</v>
+        <v>-6.8604783383238218E-3</v>
       </c>
       <c r="O264" s="11">
         <f t="shared" si="51"/>
-        <v>-5.3199999999999648</v>
+        <v>-7.2399999999998954</v>
       </c>
       <c r="P264" s="24">
         <f t="shared" si="52"/>
-        <v>3.9716690632852561E-3</v>
+        <v>3.9530585983758009E-3</v>
       </c>
       <c r="Q264" s="84"/>
       <c r="S264" s="25"/>
@@ -18843,7 +18832,7 @@
       </c>
       <c r="I274" s="15"/>
       <c r="J274" s="12">
-        <v>97.138999999999996</v>
+        <v>97.144999999999996</v>
       </c>
       <c r="K274" s="12">
         <v>98.712000000000003</v>
@@ -18853,19 +18842,19 @@
       </c>
       <c r="M274" s="11">
         <f t="shared" si="53"/>
-        <v>2914.17</v>
+        <v>2914.35</v>
       </c>
       <c r="N274" s="24">
         <f t="shared" si="54"/>
-        <v>-1.5935245968068799E-2</v>
+        <v>-1.5874463084528802E-2</v>
       </c>
       <c r="O274" s="11">
         <f t="shared" si="55"/>
-        <v>-47.190000000000225</v>
+        <v>-47.010000000000218</v>
       </c>
       <c r="P274" s="24">
         <f t="shared" si="56"/>
-        <v>1.10229703182419E-2</v>
+        <v>1.099209633441771E-2</v>
       </c>
       <c r="Q274" s="84"/>
       <c r="S274" s="25"/>
@@ -18991,7 +18980,7 @@
       </c>
       <c r="I277" s="15"/>
       <c r="J277" s="12">
-        <v>106.56100000000001</v>
+        <v>106.89400000000001</v>
       </c>
       <c r="K277" s="12">
         <v>108.94</v>
@@ -19001,19 +18990,19 @@
       </c>
       <c r="M277" s="11">
         <f t="shared" si="53"/>
-        <v>1065.6100000000001</v>
+        <v>1068.94</v>
       </c>
       <c r="N277" s="24">
         <f t="shared" si="54"/>
-        <v>-2.1837708830548842E-2</v>
+        <v>-1.8780980356159282E-2</v>
       </c>
       <c r="O277" s="11">
         <f t="shared" si="55"/>
-        <v>-23.789999999999907</v>
+        <v>-20.459999999999923</v>
       </c>
       <c r="P277" s="24">
         <f t="shared" si="56"/>
-        <v>4.0307145433594307E-3</v>
+        <v>4.0317365641437944E-3</v>
       </c>
       <c r="Q277" s="84"/>
       <c r="S277" s="25"/>
@@ -19091,7 +19080,7 @@
       </c>
       <c r="I279" s="15"/>
       <c r="J279" s="12">
-        <v>109.625</v>
+        <v>109.65900000000001</v>
       </c>
       <c r="K279" s="12">
         <v>108.63</v>
@@ -19101,19 +19090,19 @@
       </c>
       <c r="M279" s="11">
         <f t="shared" si="53"/>
-        <v>1096.25</v>
+        <v>1096.5900000000001</v>
       </c>
       <c r="N279" s="24">
         <f t="shared" si="54"/>
-        <v>9.1595323575439994E-3</v>
+        <v>9.4725214029274651E-3</v>
       </c>
       <c r="O279" s="11">
         <f t="shared" si="55"/>
-        <v>9.9500000000000455</v>
+        <v>10.290000000000106</v>
       </c>
       <c r="P279" s="24">
         <f t="shared" si="56"/>
-        <v>4.1466116291680594E-3</v>
+        <v>4.1360244717892902E-3</v>
       </c>
       <c r="Q279" s="90" t="s">
         <v>221</v>
@@ -19145,7 +19134,7 @@
       </c>
       <c r="I280" s="15"/>
       <c r="J280" s="12">
-        <v>105</v>
+        <v>105.91800000000001</v>
       </c>
       <c r="K280" s="12">
         <v>108.41200000000001</v>
@@ -19155,19 +19144,19 @@
       </c>
       <c r="M280" s="11">
         <f t="shared" ref="M280:M296" si="58">J280*L280</f>
-        <v>1050</v>
+        <v>1059.18</v>
       </c>
       <c r="N280" s="24">
         <f t="shared" ref="N280:N296" si="59">(J280-K280)/K280</f>
-        <v>-3.1472530716156938E-2</v>
+        <v>-2.3004833413275281E-2</v>
       </c>
       <c r="O280" s="11">
         <f t="shared" ref="O280:O296" si="60">(J280-K280)*L280</f>
-        <v>-34.120000000000061</v>
+        <v>-24.939999999999998</v>
       </c>
       <c r="P280" s="24">
         <f t="shared" ref="P280:P296" si="61">M280/$M$406</f>
-        <v>3.9716690632852561E-3</v>
+        <v>3.9949246300164873E-3</v>
       </c>
       <c r="Q280" s="84" t="s">
         <v>222</v>
@@ -19247,7 +19236,7 @@
       </c>
       <c r="I282" s="15"/>
       <c r="J282" s="12">
-        <v>108.996</v>
+        <v>109.471</v>
       </c>
       <c r="K282" s="12">
         <v>110.173</v>
@@ -19257,19 +19246,19 @@
       </c>
       <c r="M282" s="11">
         <f t="shared" si="58"/>
-        <v>1089.96</v>
+        <v>1094.71</v>
       </c>
       <c r="N282" s="24">
         <f t="shared" si="59"/>
-        <v>-1.0683198242763715E-2</v>
+        <v>-6.3717970827698086E-3</v>
       </c>
       <c r="O282" s="11">
         <f t="shared" si="60"/>
-        <v>-11.770000000000067</v>
+        <v>-7.0199999999999818</v>
       </c>
       <c r="P282" s="24">
         <f t="shared" si="61"/>
-        <v>4.1228194402079974E-3</v>
+        <v>4.1289336484123087E-3</v>
       </c>
       <c r="Q282" s="84"/>
       <c r="S282" s="25"/>
@@ -19299,7 +19288,7 @@
       </c>
       <c r="I283" s="15"/>
       <c r="J283" s="12">
-        <v>107.38</v>
+        <v>107.054</v>
       </c>
       <c r="K283" s="12">
         <v>107.79300000000001</v>
@@ -19309,19 +19298,19 @@
       </c>
       <c r="M283" s="11">
         <f t="shared" si="58"/>
-        <v>1073.8</v>
+        <v>1070.54</v>
       </c>
       <c r="N283" s="24">
         <f t="shared" si="59"/>
-        <v>-3.8314176245211736E-3</v>
+        <v>-6.8557327470244291E-3</v>
       </c>
       <c r="O283" s="11">
         <f t="shared" si="60"/>
-        <v>-4.1300000000001091</v>
+        <v>-7.3900000000000432</v>
       </c>
       <c r="P283" s="24">
         <f t="shared" si="61"/>
-        <v>4.061693562053055E-3</v>
+        <v>4.0377713074433528E-3</v>
       </c>
       <c r="Q283" s="84"/>
       <c r="S283" s="25"/>
@@ -19399,7 +19388,7 @@
       </c>
       <c r="I285" s="15"/>
       <c r="J285" s="12">
-        <v>107.717</v>
+        <v>107.956</v>
       </c>
       <c r="K285" s="12">
         <v>108.64</v>
@@ -19409,19 +19398,19 @@
       </c>
       <c r="M285" s="11">
         <f t="shared" si="58"/>
-        <v>1077.17</v>
+        <v>1079.56</v>
       </c>
       <c r="N285" s="24">
         <f t="shared" si="59"/>
-        <v>-8.4959499263623142E-3</v>
+        <v>-6.2960235640647779E-3</v>
       </c>
       <c r="O285" s="11">
         <f t="shared" si="60"/>
-        <v>-9.2300000000000182</v>
+        <v>-6.839999999999975</v>
       </c>
       <c r="P285" s="24">
         <f t="shared" si="61"/>
-        <v>4.0744407284752189E-3</v>
+        <v>4.071792172794614E-3</v>
       </c>
       <c r="Q285" s="84"/>
       <c r="S285" s="25"/>
@@ -19548,7 +19537,7 @@
       </c>
       <c r="I288" s="15"/>
       <c r="J288" s="12">
-        <v>114.087</v>
+        <v>114.742</v>
       </c>
       <c r="K288" s="12">
         <v>112.685</v>
@@ -19558,19 +19547,19 @@
       </c>
       <c r="M288" s="11">
         <f t="shared" si="58"/>
-        <v>1140.8700000000001</v>
+        <v>1147.42</v>
       </c>
       <c r="N288" s="24">
         <f t="shared" si="59"/>
-        <v>1.2441762435106722E-2</v>
+        <v>1.8254426054931907E-2</v>
       </c>
       <c r="O288" s="11">
         <f t="shared" si="60"/>
-        <v>14.02000000000001</v>
+        <v>20.570000000000022</v>
       </c>
       <c r="P288" s="24">
         <f t="shared" si="61"/>
-        <v>4.3153886516478579E-3</v>
+        <v>4.327740722987139E-3</v>
       </c>
       <c r="Q288" s="84" t="s">
         <v>230</v>
@@ -20321,7 +20310,7 @@
         <v>66</v>
       </c>
       <c r="J304" s="12">
-        <v>107.96</v>
+        <v>108.78400000000001</v>
       </c>
       <c r="K304" s="12">
         <v>118.56399999999999</v>
@@ -20331,19 +20320,19 @@
       </c>
       <c r="M304" s="11">
         <f t="shared" si="62"/>
-        <v>3238.7999999999997</v>
+        <v>3263.52</v>
       </c>
       <c r="N304" s="24">
         <f t="shared" si="63"/>
-        <v>-8.943692857865794E-2</v>
+        <v>-8.2487095577072192E-2</v>
       </c>
       <c r="O304" s="11">
         <f t="shared" si="64"/>
-        <v>-318.12</v>
+        <v>-293.39999999999964</v>
       </c>
       <c r="P304" s="24">
         <f t="shared" si="65"/>
-        <v>1.2250896916350749E-2</v>
+        <v>1.2309065908109488E-2</v>
       </c>
       <c r="Q304" s="177"/>
       <c r="S304" s="25"/>
@@ -20704,7 +20693,7 @@
       </c>
       <c r="I312" s="15"/>
       <c r="J312" s="12">
-        <v>107.771</v>
+        <v>106.33</v>
       </c>
       <c r="K312" s="12">
         <v>110</v>
@@ -20714,19 +20703,19 @@
       </c>
       <c r="M312" s="11">
         <f t="shared" ref="M312:M326" si="67">J312*L312</f>
-        <v>4310.84</v>
+        <v>4253.2</v>
       </c>
       <c r="N312" s="24">
         <f t="shared" ref="N312:N326" si="68">(J312-K312)/K312</f>
-        <v>-2.0263636363636355E-2</v>
+        <v>-3.336363636363638E-2</v>
       </c>
       <c r="O312" s="11">
         <f t="shared" ref="O312:O326" si="69">(J312-K312)*L312</f>
-        <v>-89.159999999999968</v>
+        <v>-146.80000000000007</v>
       </c>
       <c r="P312" s="24">
         <f t="shared" ref="P312:P326" si="70">M312/$M$406</f>
-        <v>1.6305933204545348E-2</v>
+        <v>1.6041856376051402E-2</v>
       </c>
       <c r="Q312" s="84"/>
       <c r="S312" s="25"/>
@@ -20852,7 +20841,7 @@
       </c>
       <c r="I315" s="15"/>
       <c r="J315" s="12">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="K315" s="12">
         <v>107.2</v>
@@ -20862,19 +20851,19 @@
       </c>
       <c r="M315" s="11">
         <f t="shared" si="67"/>
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="N315" s="24">
         <f t="shared" si="68"/>
-        <v>-1.5858208955223906E-2</v>
+        <v>-1.4925373134328438E-2</v>
       </c>
       <c r="O315" s="11">
         <f t="shared" si="69"/>
-        <v>-17.000000000000028</v>
+        <v>-16.000000000000085</v>
       </c>
       <c r="P315" s="24">
         <f t="shared" si="70"/>
-        <v>3.9905817731104238E-3</v>
+        <v>3.9829305777086153E-3</v>
       </c>
       <c r="Q315" s="84"/>
       <c r="S315" s="25"/>
@@ -20998,7 +20987,7 @@
       </c>
       <c r="I318" s="15"/>
       <c r="J318" s="12">
-        <v>96.153000000000006</v>
+        <v>96.5</v>
       </c>
       <c r="K318" s="12">
         <v>100</v>
@@ -21008,19 +20997,19 @@
       </c>
       <c r="M318" s="11">
         <f t="shared" si="67"/>
-        <v>961.53000000000009</v>
+        <v>965</v>
       </c>
       <c r="N318" s="24">
         <f t="shared" si="68"/>
-        <v>-3.8469999999999942E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="O318" s="11">
         <f t="shared" si="69"/>
-        <v>-38.469999999999942</v>
+        <v>-35</v>
       </c>
       <c r="P318" s="24">
         <f t="shared" si="70"/>
-        <v>3.6370275756387356E-3</v>
+        <v>3.6397045525462246E-3</v>
       </c>
       <c r="Q318" s="84"/>
       <c r="S318" s="25"/>
@@ -21050,7 +21039,7 @@
       </c>
       <c r="I319" s="15"/>
       <c r="J319" s="12">
-        <v>108.407</v>
+        <v>108.675</v>
       </c>
       <c r="K319" s="12">
         <v>108.40900000000001</v>
@@ -21060,19 +21049,19 @@
       </c>
       <c r="M319" s="11">
         <f t="shared" si="67"/>
-        <v>1084.07</v>
+        <v>1086.75</v>
       </c>
       <c r="N319" s="24">
         <f t="shared" si="68"/>
-        <v>-1.8448652787218307E-5</v>
+        <v>2.4536708206882372E-3</v>
       </c>
       <c r="O319" s="11">
         <f t="shared" si="69"/>
-        <v>-2.0000000000095497E-2</v>
+        <v>2.6599999999999113</v>
       </c>
       <c r="P319" s="24">
         <f t="shared" si="70"/>
-        <v>4.1005402680339498E-3</v>
+        <v>4.0989108004970054E-3</v>
       </c>
       <c r="Q319" s="84"/>
       <c r="S319" s="25"/>
@@ -21102,7 +21091,7 @@
       </c>
       <c r="I320" s="15"/>
       <c r="J320" s="12">
-        <v>106.529</v>
+        <v>106.414</v>
       </c>
       <c r="K320" s="12">
         <v>107.321</v>
@@ -21112,19 +21101,19 @@
       </c>
       <c r="M320" s="11">
         <f t="shared" si="67"/>
-        <v>1065.29</v>
+        <v>1064.1400000000001</v>
       </c>
       <c r="N320" s="24">
         <f t="shared" si="68"/>
-        <v>-7.379729968971605E-3</v>
+        <v>-8.4512816690116236E-3</v>
       </c>
       <c r="O320" s="11">
         <f t="shared" si="69"/>
-        <v>-7.9200000000000159</v>
+        <v>-9.0699999999999648</v>
       </c>
       <c r="P320" s="24">
         <f t="shared" si="70"/>
-        <v>4.0295041299306189E-3</v>
+        <v>4.013632334245119E-3</v>
       </c>
       <c r="Q320" s="84"/>
       <c r="S320" s="25"/>
@@ -21154,7 +21143,7 @@
       </c>
       <c r="I321" s="15"/>
       <c r="J321" s="12">
-        <v>108.532</v>
+        <v>108.842</v>
       </c>
       <c r="K321" s="12">
         <v>107.5</v>
@@ -21164,19 +21153,19 @@
       </c>
       <c r="M321" s="11">
         <f t="shared" si="67"/>
-        <v>1085.32</v>
+        <v>1088.42</v>
       </c>
       <c r="N321" s="24">
         <f t="shared" si="68"/>
-        <v>9.5999999999999679E-3</v>
+        <v>1.2483720930232546E-2</v>
       </c>
       <c r="O321" s="11">
         <f t="shared" si="69"/>
-        <v>10.319999999999965</v>
+        <v>13.419999999999987</v>
       </c>
       <c r="P321" s="24">
         <f t="shared" si="70"/>
-        <v>4.1052684454902415E-3</v>
+        <v>4.1052095638159196E-3</v>
       </c>
       <c r="Q321" s="84"/>
       <c r="S321" s="25"/>
@@ -21252,7 +21241,7 @@
       </c>
       <c r="I323" s="15"/>
       <c r="J323" s="12">
-        <v>108.64</v>
+        <v>108.982</v>
       </c>
       <c r="K323" s="12">
         <v>108.402</v>
@@ -21262,19 +21251,19 @@
       </c>
       <c r="M323" s="11">
         <f t="shared" si="67"/>
-        <v>1086.4000000000001</v>
+        <v>1089.82</v>
       </c>
       <c r="N323" s="24">
         <f t="shared" si="68"/>
-        <v>2.1955314477592621E-3</v>
+        <v>5.35045478865702E-3</v>
       </c>
       <c r="O323" s="11">
         <f t="shared" si="69"/>
-        <v>2.3799999999999955</v>
+        <v>5.7999999999999829</v>
       </c>
       <c r="P323" s="24">
         <f t="shared" si="70"/>
-        <v>4.1093535908124784E-3</v>
+        <v>4.1104899642030327E-3</v>
       </c>
       <c r="Q323" s="84"/>
       <c r="S323" s="25"/>
@@ -21304,7 +21293,7 @@
       </c>
       <c r="I324" s="15"/>
       <c r="J324" s="12">
-        <v>104.97799999999999</v>
+        <v>105.979</v>
       </c>
       <c r="K324" s="12">
         <v>106.306</v>
@@ -21314,19 +21303,19 @@
       </c>
       <c r="M324" s="11">
         <f t="shared" si="67"/>
-        <v>1049.78</v>
+        <v>1059.79</v>
       </c>
       <c r="N324" s="24">
         <f t="shared" si="68"/>
-        <v>-1.2492239384418593E-2</v>
+        <v>-3.0760258122777473E-3</v>
       </c>
       <c r="O324" s="11">
         <f t="shared" si="69"/>
-        <v>-13.28000000000003</v>
+        <v>-3.2699999999999818</v>
       </c>
       <c r="P324" s="24">
         <f t="shared" si="70"/>
-        <v>3.9708369040529481E-3</v>
+        <v>3.9972253758994436E-3</v>
       </c>
       <c r="Q324" s="84"/>
       <c r="S324" s="25"/>
@@ -21356,7 +21345,7 @@
       </c>
       <c r="I325" s="15"/>
       <c r="J325" s="12">
-        <v>107.423</v>
+        <v>107.92</v>
       </c>
       <c r="K325" s="12">
         <v>107.97499999999999</v>
@@ -21366,19 +21355,19 @@
       </c>
       <c r="M325" s="11">
         <f t="shared" si="67"/>
-        <v>1074.23</v>
+        <v>1079.2</v>
       </c>
       <c r="N325" s="24">
         <f t="shared" si="68"/>
-        <v>-5.1122945126185924E-3</v>
+        <v>-5.0937717064128375E-4</v>
       </c>
       <c r="O325" s="11">
         <f t="shared" si="69"/>
-        <v>-5.519999999999925</v>
+        <v>-0.5499999999999261</v>
       </c>
       <c r="P325" s="24">
         <f t="shared" si="70"/>
-        <v>4.0633200550980195E-3</v>
+        <v>4.0704343555522131E-3</v>
       </c>
       <c r="Q325" s="84"/>
       <c r="S325" s="25"/>
@@ -21408,7 +21397,7 @@
       </c>
       <c r="I326" s="15"/>
       <c r="J326" s="12">
-        <v>104.965</v>
+        <v>105.901</v>
       </c>
       <c r="K326" s="12">
         <v>104.95</v>
@@ -21418,19 +21407,19 @@
       </c>
       <c r="M326" s="11">
         <f t="shared" si="67"/>
-        <v>1049.6500000000001</v>
+        <v>1059.01</v>
       </c>
       <c r="N326" s="24">
         <f t="shared" si="68"/>
-        <v>1.429252024773756E-4</v>
+        <v>9.0614578370652055E-3</v>
       </c>
       <c r="O326" s="11">
         <f t="shared" si="69"/>
-        <v>0.15000000000000568</v>
+        <v>9.5099999999999341</v>
       </c>
       <c r="P326" s="24">
         <f t="shared" si="70"/>
-        <v>3.970345173597495E-3</v>
+        <v>3.9942834385409097E-3</v>
       </c>
       <c r="Q326" s="84"/>
       <c r="S326" s="25"/>
@@ -23241,15 +23230,15 @@
       </c>
       <c r="M406" s="11">
         <f>SUM(M3:M405)</f>
-        <v>264372.47999999998</v>
+        <v>265131.41000000009</v>
       </c>
       <c r="N406" s="24">
         <f>O406/M406</f>
-        <v>1.5996559097225235E-2</v>
+        <v>1.8813236802082405E-2</v>
       </c>
       <c r="O406" s="11">
         <f>SUM(O3:O405)</f>
-        <v>4229.0499999999965</v>
+        <v>4987.9800000000005</v>
       </c>
       <c r="P406" s="24"/>
       <c r="Q406" s="84"/>
